--- a/Predictions/PV_typical_lstm.xlsx
+++ b/Predictions/PV_typical_lstm.xlsx
@@ -483,5300 +483,5300 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.484311103820801</v>
+        <v>3.589800596237183</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.677531242370605</v>
+        <v>-2.136505365371704</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.923015117645264</v>
+        <v>-3.459097146987915</v>
       </c>
       <c r="F2" t="n">
-        <v>10.04835510253906</v>
+        <v>3.896192073822021</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.701336860656738</v>
+        <v>-2.013406038284302</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.682744026184082</v>
+        <v>-3.376617193222046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.003332674968987703</v>
+        <v>-0.09624582529067993</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.009597537107765675</v>
+        <v>-0.08734652400016785</v>
       </c>
       <c r="C3" t="n">
-        <v>9.650718688964844</v>
+        <v>7.09763765335083</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.08194637298584</v>
+        <v>-1.383066296577454</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.454044818878174</v>
+        <v>-6.122012138366699</v>
       </c>
       <c r="F3" t="n">
-        <v>10.56330585479736</v>
+        <v>7.121465682983398</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.490792989730835</v>
+        <v>-1.62699830532074</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.333122730255127</v>
+        <v>-6.14042854309082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.01637314073741436</v>
+        <v>-0.156037300825119</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02424237318336964</v>
+        <v>-0.1338598877191544</v>
       </c>
       <c r="C4" t="n">
-        <v>10.30185699462891</v>
+        <v>9.276836395263672</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7689635157585144</v>
+        <v>0.4971717596054077</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.354982376098633</v>
+        <v>-6.87258768081665</v>
       </c>
       <c r="F4" t="n">
-        <v>11.34906673431396</v>
+        <v>8.838973045349121</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.4199093282222748</v>
+        <v>-0.3472168743610382</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.181604862213135</v>
+        <v>-7.182774543762207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.02037761732935905</v>
+        <v>-0.1762899458408356</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02339622378349304</v>
+        <v>-0.1413371413946152</v>
       </c>
       <c r="C5" t="n">
-        <v>10.50180912017822</v>
+        <v>10.01497745513916</v>
       </c>
       <c r="D5" t="n">
-        <v>1.179194927215576</v>
+        <v>2.531680583953857</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.528539657592773</v>
+        <v>-6.037868976593018</v>
       </c>
       <c r="F5" t="n">
-        <v>11.30366706848145</v>
+        <v>9.115071296691895</v>
       </c>
       <c r="G5" t="n">
-        <v>1.336434245109558</v>
+        <v>1.207306742668152</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.311228275299072</v>
+        <v>-6.761144161224365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.01175158005207777</v>
+        <v>-0.1658759415149689</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.006260914728045464</v>
+        <v>-0.1228879243135452</v>
       </c>
       <c r="C6" t="n">
-        <v>10.07109260559082</v>
+        <v>9.635421752929688</v>
       </c>
       <c r="D6" t="n">
-        <v>2.257346391677856</v>
+        <v>3.816953420639038</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.953492403030396</v>
+        <v>-4.40206241607666</v>
       </c>
       <c r="F6" t="n">
-        <v>10.38428115844727</v>
+        <v>8.433833122253418</v>
       </c>
       <c r="G6" t="n">
-        <v>2.201961755752563</v>
+        <v>2.350364208221436</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.080260038375854</v>
+        <v>-5.491132259368896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0176871232688427</v>
+        <v>-0.1361077129840851</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02466717921197414</v>
+        <v>-0.09066913276910782</v>
       </c>
       <c r="C7" t="n">
-        <v>8.601155281066895</v>
+        <v>8.550470352172852</v>
       </c>
       <c r="D7" t="n">
-        <v>2.001858711242676</v>
+        <v>4.017989635467529</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9998476505279541</v>
+        <v>-2.627624273300171</v>
       </c>
       <c r="F7" t="n">
-        <v>8.724850654602051</v>
+        <v>7.244153022766113</v>
       </c>
       <c r="G7" t="n">
-        <v>2.164080142974854</v>
+        <v>2.722794771194458</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.665761470794678</v>
+        <v>-3.88507080078125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06298335641622543</v>
+        <v>-0.09588403254747391</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06100563332438469</v>
+        <v>-0.05240996181964874</v>
       </c>
       <c r="C8" t="n">
-        <v>6.339417457580566</v>
+        <v>7.084451675415039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6540175676345825</v>
+        <v>3.275211572647095</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4070671498775482</v>
+        <v>-1.068902373313904</v>
       </c>
       <c r="F8" t="n">
-        <v>6.775130271911621</v>
+        <v>5.831431865692139</v>
       </c>
       <c r="G8" t="n">
-        <v>1.621303677558899</v>
+        <v>2.337496519088745</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3530681729316711</v>
+        <v>-2.267614364624023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1076986938714981</v>
+        <v>-0.05147905275225639</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0955469161272049</v>
+        <v>-0.01277587842196226</v>
       </c>
       <c r="C9" t="n">
-        <v>4.106685161590576</v>
+        <v>5.466039180755615</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.021729588508606</v>
+        <v>1.933935642242432</v>
       </c>
       <c r="E9" t="n">
-        <v>1.012011289596558</v>
+        <v>0.1513270735740662</v>
       </c>
       <c r="F9" t="n">
-        <v>4.921835899353027</v>
+        <v>4.367941856384277</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7788774371147156</v>
+        <v>1.416841387748718</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7772549390792847</v>
+        <v>-0.8298848867416382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1401402503252029</v>
+        <v>-0.007584241218864918</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1251607835292816</v>
+        <v>0.02516554854810238</v>
       </c>
       <c r="C10" t="n">
-        <v>2.486808300018311</v>
+        <v>3.866220712661743</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.42694354057312</v>
+        <v>0.3496668338775635</v>
       </c>
       <c r="E10" t="n">
-        <v>1.216830372810364</v>
+        <v>1.02127480506897</v>
       </c>
       <c r="F10" t="n">
-        <v>3.332919597625732</v>
+        <v>2.966953277587891</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3660301864147186</v>
+        <v>0.2223381251096725</v>
       </c>
       <c r="H10" t="n">
-        <v>1.649872064590454</v>
+        <v>0.3204413056373596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1621693521738052</v>
+        <v>0.0327754020690918</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1523813009262085</v>
+        <v>0.05974367633461952</v>
       </c>
       <c r="C11" t="n">
-        <v>1.38684868812561</v>
+        <v>2.395247220993042</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.459071159362793</v>
+        <v>-1.209973692893982</v>
       </c>
       <c r="E11" t="n">
-        <v>1.492064237594604</v>
+        <v>1.579397797584534</v>
       </c>
       <c r="F11" t="n">
-        <v>1.872417211532593</v>
+        <v>1.690154552459717</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.895542979240417</v>
+        <v>-1.037554144859314</v>
       </c>
       <c r="H11" t="n">
-        <v>2.16666579246521</v>
+        <v>1.147031188011169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1823697686195374</v>
+        <v>0.06873130798339844</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1799953430891037</v>
+        <v>0.09083543717861176</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3781987130641937</v>
+        <v>1.08477509021759</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.475862979888916</v>
+        <v>-2.597103595733643</v>
       </c>
       <c r="E12" t="n">
-        <v>2.066633224487305</v>
+        <v>1.909558057785034</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3908008337020874</v>
+        <v>0.5420901775360107</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.844072103500366</v>
+        <v>-2.235184192657471</v>
       </c>
       <c r="H12" t="n">
-        <v>2.47787070274353</v>
+        <v>1.692103266716003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2065464407205582</v>
+        <v>0.1015374660491943</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2057950347661972</v>
+        <v>0.1198324635624886</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8289934396743774</v>
+        <v>-0.11089888215065</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.983330726623535</v>
+        <v>-3.775038957595825</v>
       </c>
       <c r="E13" t="n">
-        <v>2.734930992126465</v>
+        <v>2.144755125045776</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9934681057929993</v>
+        <v>-0.5286259651184082</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.020678520202637</v>
+        <v>-3.321832418441772</v>
       </c>
       <c r="H13" t="n">
-        <v>2.767743349075317</v>
+        <v>2.068876028060913</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2364491969347</v>
+        <v>0.1335308402776718</v>
       </c>
       <c r="B14" t="n">
-        <v>0.229682520031929</v>
+        <v>0.1488481760025024</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.322103023529053</v>
+        <v>-1.276949882507324</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.984701633453369</v>
+        <v>-4.7861328125</v>
       </c>
       <c r="E14" t="n">
-        <v>2.97308349609375</v>
+        <v>2.431063413619995</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.275138139724731</v>
+        <v>-1.600032210350037</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.99008321762085</v>
+        <v>-4.309439659118652</v>
       </c>
       <c r="H14" t="n">
-        <v>3.117440700531006</v>
+        <v>2.412886381149292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2707303464412689</v>
+        <v>0.1664770394563675</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2566983699798584</v>
+        <v>0.1793236285448074</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.033833026885986</v>
+        <v>-2.477728128433228</v>
       </c>
       <c r="D15" t="n">
-        <v>-10.01475620269775</v>
+        <v>-5.707343101501465</v>
       </c>
       <c r="E15" t="n">
-        <v>2.799399375915527</v>
+        <v>2.859694480895996</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.724658727645874</v>
+        <v>-2.725339651107788</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.503048896789551</v>
+        <v>-5.242432594299316</v>
       </c>
       <c r="H15" t="n">
-        <v>3.626540422439575</v>
+        <v>2.813885450363159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3083235621452332</v>
+        <v>0.2007930874824524</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2889721989631653</v>
+        <v>0.2114460170269012</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.910943508148193</v>
+        <v>-3.728433132171631</v>
       </c>
       <c r="D16" t="n">
-        <v>-11.70262908935547</v>
+        <v>-6.599595069885254</v>
       </c>
       <c r="E16" t="n">
-        <v>2.979163885116577</v>
+        <v>3.437981843948364</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.45629358291626</v>
+        <v>-3.911460161209106</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.59257888793945</v>
+        <v>-6.160928726196289</v>
       </c>
       <c r="H16" t="n">
-        <v>4.268554210662842</v>
+        <v>3.29433012008667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3494706749916077</v>
+        <v>0.2359686344861984</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3232021033763885</v>
+        <v>0.2446026355028152</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.965507030487061</v>
+        <v>-5.010464191436768</v>
       </c>
       <c r="D17" t="n">
-        <v>-12.92799377441406</v>
+        <v>-7.470071315765381</v>
       </c>
       <c r="E17" t="n">
-        <v>3.889355421066284</v>
+        <v>4.121394634246826</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.292880535125732</v>
+        <v>-5.135769367218018</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.29221820831299</v>
+        <v>-7.065323829650879</v>
       </c>
       <c r="H17" t="n">
-        <v>4.892172336578369</v>
+        <v>3.841729402542114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3902943432331085</v>
+        <v>0.2710737884044647</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3557045757770538</v>
+        <v>0.2778102159500122</v>
       </c>
       <c r="C18" t="n">
-        <v>-10.00392150878906</v>
+        <v>-6.289928436279297</v>
       </c>
       <c r="D18" t="n">
-        <v>-13.61065673828125</v>
+        <v>-8.277377128601074</v>
       </c>
       <c r="E18" t="n">
-        <v>5.303391456604004</v>
+        <v>4.854634284973145</v>
       </c>
       <c r="F18" t="n">
-        <v>-9.036785125732422</v>
+        <v>-6.361960411071777</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.66634559631348</v>
+        <v>-7.914526462554932</v>
       </c>
       <c r="H18" t="n">
-        <v>5.518239974975586</v>
+        <v>4.438473224639893</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4247894287109375</v>
+        <v>0.3050320744514465</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3852096199989319</v>
+        <v>0.3099468052387238</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.72633171081543</v>
+        <v>-7.527594566345215</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.68131160736084</v>
+        <v>-8.972363471984863</v>
       </c>
       <c r="E19" t="n">
-        <v>6.911013126373291</v>
+        <v>5.59133243560791</v>
       </c>
       <c r="F19" t="n">
-        <v>-10.61986064910889</v>
+        <v>-7.548605442047119</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.83173751831055</v>
+        <v>-8.660113334655762</v>
       </c>
       <c r="H19" t="n">
-        <v>6.27001428604126</v>
+        <v>5.068922519683838</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4519422948360443</v>
+        <v>0.3370036780834198</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4140774011611938</v>
+        <v>0.340154230594635</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.08213424682617</v>
+        <v>-8.692851066589355</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.15400218963623</v>
+        <v>-9.527608871459961</v>
       </c>
       <c r="E20" t="n">
-        <v>8.251607894897461</v>
+        <v>6.301298141479492</v>
       </c>
       <c r="F20" t="n">
-        <v>-12.16874599456787</v>
+        <v>-8.66401481628418</v>
       </c>
       <c r="G20" t="n">
-        <v>-11.8710994720459</v>
+        <v>-9.272426605224609</v>
       </c>
       <c r="H20" t="n">
-        <v>7.210361003875732</v>
+        <v>5.720181941986084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4740163087844849</v>
+        <v>0.366799533367157</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4451993107795715</v>
+        <v>0.3682639598846436</v>
       </c>
       <c r="C21" t="n">
-        <v>-14.1843376159668</v>
+        <v>-9.778810501098633</v>
       </c>
       <c r="D21" t="n">
-        <v>-12.21771621704102</v>
+        <v>-9.93939208984375</v>
       </c>
       <c r="E21" t="n">
-        <v>9.077353477478027</v>
+        <v>6.97410249710083</v>
       </c>
       <c r="F21" t="n">
-        <v>-13.8385763168335</v>
+        <v>-9.701967239379883</v>
       </c>
       <c r="G21" t="n">
-        <v>-11.89908695220947</v>
+        <v>-9.742115020751953</v>
       </c>
       <c r="H21" t="n">
-        <v>8.335065841674805</v>
+        <v>6.386431217193604</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4923981428146362</v>
+        <v>0.3950105607509613</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4772229492664337</v>
+        <v>0.394881010055542</v>
       </c>
       <c r="C22" t="n">
-        <v>-15.1021785736084</v>
+        <v>-10.8070068359375</v>
       </c>
       <c r="D22" t="n">
-        <v>-11.15842056274414</v>
+        <v>-10.21933460235596</v>
       </c>
       <c r="E22" t="n">
-        <v>9.716188430786133</v>
+        <v>7.617464065551758</v>
       </c>
       <c r="F22" t="n">
-        <v>-15.55678844451904</v>
+        <v>-10.6848030090332</v>
       </c>
       <c r="G22" t="n">
-        <v>-11.92950439453125</v>
+        <v>-10.07289123535156</v>
       </c>
       <c r="H22" t="n">
-        <v>9.417668342590332</v>
+        <v>7.07503604888916</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5080136656761169</v>
+        <v>0.4224987030029297</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5052529573440552</v>
+        <v>0.4208609461784363</v>
       </c>
       <c r="C23" t="n">
-        <v>-15.88189792633057</v>
+        <v>-11.80885791778564</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.16521835327148</v>
+        <v>-10.37852478027344</v>
       </c>
       <c r="E23" t="n">
-        <v>10.44305419921875</v>
+        <v>8.23769474029541</v>
       </c>
       <c r="F23" t="n">
-        <v>-17.06072425842285</v>
+        <v>-11.64411354064941</v>
       </c>
       <c r="G23" t="n">
-        <v>-11.74791049957275</v>
+        <v>-10.26859664916992</v>
       </c>
       <c r="H23" t="n">
-        <v>10.10061359405518</v>
+        <v>7.794342041015625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5209498405456543</v>
+        <v>0.4494524300098419</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5238338112831116</v>
+        <v>0.4464196264743805</v>
       </c>
       <c r="C24" t="n">
-        <v>-16.5278263092041</v>
+        <v>-12.79123020172119</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.244529724121094</v>
+        <v>-10.40860748291016</v>
       </c>
       <c r="E24" t="n">
-        <v>11.09994125366211</v>
+        <v>8.80109691619873</v>
       </c>
       <c r="F24" t="n">
-        <v>-18.05766868591309</v>
+        <v>-12.58786964416504</v>
       </c>
       <c r="G24" t="n">
-        <v>-11.08130836486816</v>
+        <v>-10.31907749176025</v>
       </c>
       <c r="H24" t="n">
-        <v>10.30787754058838</v>
+        <v>8.514044761657715</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5291718244552612</v>
+        <v>0.4749807119369507</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.4707618951797485</v>
       </c>
       <c r="C25" t="n">
-        <v>-16.93836975097656</v>
+        <v>-13.72165107727051</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.158690452575684</v>
+        <v>-10.27207088470459</v>
       </c>
       <c r="E25" t="n">
-        <v>11.14789390563965</v>
+        <v>9.211288452148438</v>
       </c>
       <c r="F25" t="n">
-        <v>-18.38851165771484</v>
+        <v>-13.48670768737793</v>
       </c>
       <c r="G25" t="n">
-        <v>-9.771353721618652</v>
+        <v>-10.19157123565674</v>
       </c>
       <c r="H25" t="n">
-        <v>10.03576564788818</v>
+        <v>9.135495185852051</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.4975656569004059</v>
       </c>
       <c r="B26" t="n">
-        <v>0.526502788066864</v>
+        <v>0.49259352684021</v>
       </c>
       <c r="C26" t="n">
-        <v>-16.97972106933594</v>
+        <v>-14.54479789733887</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.51499605178833</v>
+        <v>-9.905423164367676</v>
       </c>
       <c r="E26" t="n">
-        <v>9.586514472961426</v>
+        <v>9.326883316040039</v>
       </c>
       <c r="F26" t="n">
-        <v>-18.20087242126465</v>
+        <v>-14.2928409576416</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.841323852539062</v>
+        <v>-9.832405090332031</v>
       </c>
       <c r="H26" t="n">
-        <v>8.593133926391602</v>
+        <v>9.50745964050293</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.518954336643219</v>
+        <v>0.5155856609344482</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5181156396865845</v>
+        <v>0.5107207298278809</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.42818641662598</v>
+        <v>-15.20156669616699</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.97063422203064</v>
+        <v>-9.229470252990723</v>
       </c>
       <c r="E27" t="n">
-        <v>5.377798557281494</v>
+        <v>8.981062889099121</v>
       </c>
       <c r="F27" t="n">
-        <v>-17.75086402893066</v>
+        <v>-14.96218967437744</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.431869506835938</v>
+        <v>-9.177532196044922</v>
       </c>
       <c r="H27" t="n">
-        <v>4.887324333190918</v>
+        <v>9.451160430908203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4928930997848511</v>
+        <v>0.5272534489631653</v>
       </c>
       <c r="B28" t="n">
-        <v>0.504842221736908</v>
+        <v>0.5239043831825256</v>
       </c>
       <c r="C28" t="n">
-        <v>-15.12689399719238</v>
+        <v>-15.62681770324707</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5215020179748535</v>
+        <v>-8.144057273864746</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.133391737937927</v>
+        <v>7.949543952941895</v>
       </c>
       <c r="F28" t="n">
-        <v>-17.0386848449707</v>
+        <v>-15.44899845123291</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.517179012298584</v>
+        <v>-8.14372730255127</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.148175001144409</v>
+        <v>8.728645324707031</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4562200605869293</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4815678298473358</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="C29" t="n">
-        <v>-13.29573154449463</v>
+        <v>-15.72691822052002</v>
       </c>
       <c r="D29" t="n">
-        <v>3.492209672927856</v>
+        <v>-6.500205516815186</v>
       </c>
       <c r="E29" t="n">
-        <v>-8.149079322814941</v>
+        <v>5.873716354370117</v>
       </c>
       <c r="F29" t="n">
-        <v>-15.78990936279297</v>
+        <v>-15.67407608032227</v>
       </c>
       <c r="G29" t="n">
-        <v>1.17853057384491</v>
+        <v>-6.592529773712158</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.02536678314209</v>
+        <v>6.963007926940918</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.415081799030304</v>
+        <v>0.5197742581367493</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4456168711185455</v>
+        <v>0.5247966647148132</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.24161052703857</v>
+        <v>-15.35422420501709</v>
       </c>
       <c r="D30" t="n">
-        <v>7.770967960357666</v>
+        <v>-4.105648040771484</v>
       </c>
       <c r="E30" t="n">
-        <v>-13.74294662475586</v>
+        <v>2.243568181991577</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.86098003387451</v>
+        <v>-15.48194408416748</v>
       </c>
       <c r="G30" t="n">
-        <v>5.704132556915283</v>
+        <v>-4.322402954101562</v>
       </c>
       <c r="H30" t="n">
-        <v>-13.71775722503662</v>
+        <v>3.62364673614502</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3706349432468414</v>
+        <v>0.4917354881763458</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3997410833835602</v>
+        <v>0.5021874308586121</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.022284507751465</v>
+        <v>-14.33230686187744</v>
       </c>
       <c r="D31" t="n">
-        <v>12.22897529602051</v>
+        <v>-0.8836183547973633</v>
       </c>
       <c r="E31" t="n">
-        <v>-16.29261589050293</v>
+        <v>-3.244805812835693</v>
       </c>
       <c r="F31" t="n">
-        <v>-11.39953994750977</v>
+        <v>-14.64709758758545</v>
       </c>
       <c r="G31" t="n">
-        <v>10.72427940368652</v>
+        <v>-1.203672409057617</v>
       </c>
       <c r="H31" t="n">
-        <v>-16.35196113586426</v>
+        <v>-1.620538353919983</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3199670016765594</v>
+        <v>0.4453779458999634</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3464604616165161</v>
+        <v>0.4603877663612366</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.492324829101562</v>
+        <v>-12.64272975921631</v>
       </c>
       <c r="D32" t="n">
-        <v>16.67262268066406</v>
+        <v>2.890641450881958</v>
       </c>
       <c r="E32" t="n">
-        <v>-15.22262096405029</v>
+        <v>-9.779623031616211</v>
       </c>
       <c r="F32" t="n">
-        <v>-8.540797233581543</v>
+        <v>-13.1036434173584</v>
       </c>
       <c r="G32" t="n">
-        <v>15.71916484832764</v>
+        <v>2.5472571849823</v>
       </c>
       <c r="H32" t="n">
-        <v>-15.21033382415771</v>
+        <v>-7.987574100494385</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2654232978820801</v>
+        <v>0.3869597613811493</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2898403406143188</v>
+        <v>0.406604528427124</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.768840551376343</v>
+        <v>-10.51358318328857</v>
       </c>
       <c r="D33" t="n">
-        <v>20.49679183959961</v>
+        <v>6.793174266815186</v>
       </c>
       <c r="E33" t="n">
-        <v>-11.56069278717041</v>
+        <v>-15.33337783813477</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.502874374389648</v>
+        <v>-11.11769485473633</v>
       </c>
       <c r="G33" t="n">
-        <v>19.97813034057617</v>
+        <v>6.441459178924561</v>
       </c>
       <c r="H33" t="n">
-        <v>-11.3275146484375</v>
+        <v>-13.44584941864014</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.214230090379715</v>
+        <v>0.3198808431625366</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6849775243725589</v>
+        <v>0.6121607504791925</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.212654948234558</v>
+        <v>-8.068780899047852</v>
       </c>
       <c r="D34" t="n">
-        <v>23.11542701721191</v>
+        <v>10.79154491424561</v>
       </c>
       <c r="E34" t="n">
-        <v>-6.953042507171631</v>
+        <v>-18.21404457092285</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.566064834594727</v>
+        <v>-8.894803047180176</v>
       </c>
       <c r="G34" t="n">
-        <v>22.98919105529785</v>
+        <v>10.20341777801514</v>
       </c>
       <c r="H34" t="n">
-        <v>-6.498866558074951</v>
+        <v>-16.27648162841797</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7495514557312416</v>
+        <v>0.6889606393344307</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8907374147831345</v>
+        <v>0.7954854266320259</v>
       </c>
       <c r="C35" t="n">
-        <v>1.049427032470703</v>
+        <v>-5.244328022003174</v>
       </c>
       <c r="D35" t="n">
-        <v>24.38228416442871</v>
+        <v>15.23029613494873</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.607092380523682</v>
+        <v>-17.88064002990723</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1852954775094986</v>
+        <v>-6.423560619354248</v>
       </c>
       <c r="G35" t="n">
-        <v>24.67098999023438</v>
+        <v>13.92342567443848</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.137889623641968</v>
+        <v>-16.03057861328125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9392010777512563</v>
+        <v>0.9099913958772128</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9715489166998373</v>
+        <v>0.9212819500235075</v>
       </c>
       <c r="C36" t="n">
-        <v>3.059899091720581</v>
+        <v>-2.000073671340942</v>
       </c>
       <c r="D36" t="n">
-        <v>24.40903663635254</v>
+        <v>19.95928955078125</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7635149359703064</v>
+        <v>-14.82802486419678</v>
       </c>
       <c r="F36" t="n">
-        <v>2.643627643585205</v>
+        <v>-3.636441469192505</v>
       </c>
       <c r="G36" t="n">
-        <v>24.99236869812012</v>
+        <v>17.63402366638184</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9818952083587646</v>
+        <v>-13.3708324432373</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9891944127698855</v>
+        <v>0.9897828556026327</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9945619360852178</v>
+        <v>0.9818293363699067</v>
       </c>
       <c r="C37" t="n">
-        <v>4.780948162078857</v>
+        <v>1.397102355957031</v>
       </c>
       <c r="D37" t="n">
-        <v>23.26116752624512</v>
+        <v>23.8437328338623</v>
       </c>
       <c r="E37" t="n">
-        <v>2.800771474838257</v>
+        <v>-10.39775657653809</v>
       </c>
       <c r="F37" t="n">
-        <v>4.613008499145508</v>
+        <v>-0.6212570071220398</v>
       </c>
       <c r="G37" t="n">
-        <v>23.84980583190918</v>
+        <v>20.79449462890625</v>
       </c>
       <c r="H37" t="n">
-        <v>2.834512710571289</v>
+        <v>-9.580893516540527</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9986265288882842</v>
+        <v>1.000474702763523</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9992379102318494</v>
+        <v>0.9985422698670102</v>
       </c>
       <c r="C38" t="n">
-        <v>6.120534420013428</v>
+        <v>4.487282276153564</v>
       </c>
       <c r="D38" t="n">
-        <v>20.86848449707031</v>
+        <v>25.78780174255371</v>
       </c>
       <c r="E38" t="n">
-        <v>3.589835405349731</v>
+        <v>-5.957952499389648</v>
       </c>
       <c r="F38" t="n">
-        <v>6.063215255737305</v>
+        <v>2.326179504394531</v>
       </c>
       <c r="G38" t="n">
-        <v>21.22887420654297</v>
+        <v>22.64306259155273</v>
       </c>
       <c r="H38" t="n">
-        <v>3.89129638671875</v>
+        <v>-5.812849521636963</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9998698353589338</v>
+        <v>0.9999171701126042</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9999213246028689</v>
+        <v>1.000072755785621</v>
       </c>
       <c r="C39" t="n">
-        <v>6.97629976272583</v>
+        <v>6.960334300994873</v>
       </c>
       <c r="D39" t="n">
-        <v>17.19879722595215</v>
+        <v>25.56646728515625</v>
       </c>
       <c r="E39" t="n">
-        <v>3.574660778045654</v>
+        <v>-2.257943630218506</v>
       </c>
       <c r="F39" t="n">
-        <v>7.112635612487793</v>
+        <v>4.872950553894043</v>
       </c>
       <c r="G39" t="n">
-        <v>17.33298683166504</v>
+        <v>22.81848526000977</v>
       </c>
       <c r="H39" t="n">
-        <v>4.495747089385986</v>
+        <v>-2.700257062911987</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9999892251801398</v>
+        <v>1.000022077672455</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9999935974869936</v>
+        <v>0.9999891117289486</v>
       </c>
       <c r="C40" t="n">
-        <v>7.293661117553711</v>
+        <v>8.738524436950684</v>
       </c>
       <c r="D40" t="n">
-        <v>12.54810810089111</v>
+        <v>23.51638412475586</v>
       </c>
       <c r="E40" t="n">
-        <v>3.146280288696289</v>
+        <v>0.5181972980499268</v>
       </c>
       <c r="F40" t="n">
-        <v>7.734195709228516</v>
+        <v>6.824981689453125</v>
       </c>
       <c r="G40" t="n">
-        <v>12.53623104095459</v>
+        <v>21.38805389404297</v>
       </c>
       <c r="H40" t="n">
-        <v>4.585161209106445</v>
+        <v>-0.4192726016044617</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999990504095597</v>
+        <v>0.9999927929132318</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9999995013359271</v>
+        <v>1.000002370478228</v>
       </c>
       <c r="C41" t="n">
-        <v>7.152022361755371</v>
+        <v>9.895595550537109</v>
       </c>
       <c r="D41" t="n">
-        <v>7.445999622344971</v>
+        <v>20.07045936584473</v>
       </c>
       <c r="E41" t="n">
-        <v>2.522464990615845</v>
+        <v>2.478496313095093</v>
       </c>
       <c r="F41" t="n">
-        <v>7.833530426025391</v>
+        <v>8.156822204589844</v>
       </c>
       <c r="G41" t="n">
-        <v>7.332758903503418</v>
+        <v>18.59187507629395</v>
       </c>
       <c r="H41" t="n">
-        <v>4.045846462249756</v>
+        <v>1.129439830780029</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.999999899471519</v>
+        <v>1.000002602098723</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9999999550169734</v>
+        <v>0.9999993885269701</v>
       </c>
       <c r="C42" t="n">
-        <v>6.682693958282471</v>
+        <v>10.56404876708984</v>
       </c>
       <c r="D42" t="n">
-        <v>2.348734378814697</v>
+        <v>15.62118434906006</v>
       </c>
       <c r="E42" t="n">
-        <v>1.843365073204041</v>
+        <v>3.775317430496216</v>
       </c>
       <c r="F42" t="n">
-        <v>7.483148574829102</v>
+        <v>8.94441032409668</v>
       </c>
       <c r="G42" t="n">
-        <v>2.228559970855713</v>
+        <v>14.71098613739014</v>
       </c>
       <c r="H42" t="n">
-        <v>2.944389581680298</v>
+        <v>2.120880365371704</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999999864326001</v>
+        <v>0.9999990128579376</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9999999948622403</v>
+        <v>1.00000017006523</v>
       </c>
       <c r="C43" t="n">
-        <v>5.912705421447754</v>
+        <v>10.91786479949951</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.551704883575439</v>
+        <v>10.58208274841309</v>
       </c>
       <c r="E43" t="n">
-        <v>1.022062182426453</v>
+        <v>4.486221790313721</v>
       </c>
       <c r="F43" t="n">
-        <v>6.800423622131348</v>
+        <v>9.339150428771973</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.655456304550171</v>
+        <v>10.09004688262939</v>
       </c>
       <c r="H43" t="n">
-        <v>1.406157732009888</v>
+        <v>2.67732834815979</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999999977290301</v>
+        <v>1.000000388106105</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999999992697635</v>
+        <v>0.9999999507568929</v>
       </c>
       <c r="C44" t="n">
-        <v>5.054647445678711</v>
+        <v>11.18438816070557</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.123543739318848</v>
+        <v>5.426871776580811</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1139145269989967</v>
+        <v>4.602484226226807</v>
       </c>
       <c r="F44" t="n">
-        <v>6.006585597991943</v>
+        <v>9.562846183776855</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.433866500854492</v>
+        <v>5.157915592193604</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.0444159246981144</v>
+        <v>2.820407867431641</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999995719695</v>
+        <v>0.9999998390663168</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9999999998785187</v>
+        <v>1.000000014963262</v>
       </c>
       <c r="C45" t="n">
-        <v>4.496392726898193</v>
+        <v>11.59975147247314</v>
       </c>
       <c r="D45" t="n">
-        <v>-11.14715480804443</v>
+        <v>0.6301077604293823</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.4192929565906525</v>
+        <v>4.071874618530273</v>
       </c>
       <c r="F45" t="n">
-        <v>5.31763219833374</v>
+        <v>9.842913627624512</v>
       </c>
       <c r="G45" t="n">
-        <v>-12.01719093322754</v>
+        <v>0.3674428761005402</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.60373455286026</v>
+        <v>2.489931344985962</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999999999167358</v>
+        <v>1.000000072232261</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9999999999774442</v>
+        <v>0.999999995127117</v>
       </c>
       <c r="C46" t="n">
-        <v>4.336297035217285</v>
+        <v>12.2597713470459</v>
       </c>
       <c r="D46" t="n">
-        <v>-14.22401523590088</v>
+        <v>-3.425221920013428</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.3461679518222809</v>
+        <v>2.91100001335144</v>
       </c>
       <c r="F46" t="n">
-        <v>4.768383026123047</v>
+        <v>10.26937675476074</v>
       </c>
       <c r="G46" t="n">
-        <v>-15.76404571533203</v>
+        <v>-3.886389255523682</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.2108557224273682</v>
+        <v>1.656620502471924</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999999839366</v>
+        <v>0.9999999648136076</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9999999999955448</v>
+        <v>1.000000001696319</v>
       </c>
       <c r="C47" t="n">
-        <v>4.378849506378174</v>
+        <v>12.99952507019043</v>
       </c>
       <c r="D47" t="n">
-        <v>-15.84638404846191</v>
+        <v>-6.499071598052979</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1657993644475937</v>
+        <v>1.339474081993103</v>
       </c>
       <c r="F47" t="n">
-        <v>4.431564331054688</v>
+        <v>10.70887851715088</v>
       </c>
       <c r="G47" t="n">
-        <v>-17.63531875610352</v>
+        <v>-7.303493499755859</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6136940121650696</v>
+        <v>0.4678519368171692</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.999999999996925</v>
+        <v>1.000000018196212</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9999999999991066</v>
+        <v>0.9999999993870414</v>
       </c>
       <c r="C48" t="n">
-        <v>4.418396472930908</v>
+        <v>13.57920551300049</v>
       </c>
       <c r="D48" t="n">
-        <v>-15.70326042175293</v>
+        <v>-8.517281532287598</v>
       </c>
       <c r="E48" t="n">
-        <v>1.01435112953186</v>
+        <v>-0.3070466220378876</v>
       </c>
       <c r="F48" t="n">
-        <v>4.346187114715576</v>
+        <v>10.96783447265625</v>
       </c>
       <c r="G48" t="n">
-        <v>-17.0842399597168</v>
+        <v>-9.73310661315918</v>
       </c>
       <c r="H48" t="n">
-        <v>1.47136914730072</v>
+        <v>-0.8117630481719971</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9999999999994009</v>
+        <v>0.9999999902501191</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9999999999998209</v>
+        <v>1.000000000222029</v>
       </c>
       <c r="C49" t="n">
-        <v>4.328433513641357</v>
+        <v>13.94007110595703</v>
       </c>
       <c r="D49" t="n">
-        <v>-13.99042987823486</v>
+        <v>-9.538615226745605</v>
       </c>
       <c r="E49" t="n">
-        <v>1.828307509422302</v>
+        <v>-1.830636620521545</v>
       </c>
       <c r="F49" t="n">
-        <v>4.348134517669678</v>
+        <v>10.98503017425537</v>
       </c>
       <c r="G49" t="n">
-        <v>-14.64214515686035</v>
+        <v>-11.20277976989746</v>
       </c>
       <c r="H49" t="n">
-        <v>1.893851161003113</v>
+        <v>-2.023495197296143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9999999999998888</v>
+        <v>1.000000005259909</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9999999999999664</v>
+        <v>0.9999999999229254</v>
       </c>
       <c r="C50" t="n">
-        <v>4.570293426513672</v>
+        <v>14.01086902618408</v>
       </c>
       <c r="D50" t="n">
-        <v>-11.52096080780029</v>
+        <v>-9.682138442993164</v>
       </c>
       <c r="E50" t="n">
-        <v>1.642114281654358</v>
+        <v>-3.110077381134033</v>
       </c>
       <c r="F50" t="n">
-        <v>4.710671424865723</v>
+        <v>10.68976879119873</v>
       </c>
       <c r="G50" t="n">
-        <v>-11.60599327087402</v>
+        <v>-11.80351161956787</v>
       </c>
       <c r="H50" t="n">
-        <v>1.47272801399231</v>
+        <v>-3.054350137710571</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9999999999999848</v>
+        <v>0.9999999973130794</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9999999999999952</v>
+        <v>1.000000000023503</v>
       </c>
       <c r="C51" t="n">
-        <v>5.877979755401611</v>
+        <v>13.45736598968506</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.211943626403809</v>
+        <v>-9.17067813873291</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.184049978852272</v>
+        <v>-3.88319993019104</v>
       </c>
       <c r="F51" t="n">
-        <v>6.046832084655762</v>
+        <v>9.863882064819336</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.01261043548584</v>
+        <v>-11.617600440979</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05384307727217674</v>
+        <v>-3.642856359481812</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9999999999999992</v>
+        <v>1.000000001160513</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999946191</v>
       </c>
       <c r="C52" t="n">
-        <v>8.089137077331543</v>
+        <v>11.9329195022583</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.583227157592773</v>
+        <v>-8.409417152404785</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.190816879272461</v>
+        <v>-3.882633924484253</v>
       </c>
       <c r="F52" t="n">
-        <v>8.373143196105957</v>
+        <v>8.376765251159668</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.997376441955566</v>
+        <v>-10.8201847076416</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.274062871932983</v>
+        <v>-3.532762765884399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.002688853070139885</v>
+        <v>0.04926510155200958</v>
       </c>
       <c r="B53" t="n">
-        <v>0.007721629925072193</v>
+        <v>0.04498085752129555</v>
       </c>
       <c r="C53" t="n">
-        <v>9.350050926208496</v>
+        <v>1.79425311088562</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.244948387145996</v>
+        <v>-2.108326435089111</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.634729862213135</v>
+        <v>-1.843854546546936</v>
       </c>
       <c r="F53" t="n">
-        <v>9.634055137634277</v>
+        <v>2.235272169113159</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.334573268890381</v>
+        <v>-1.905879974365234</v>
       </c>
       <c r="H53" t="n">
-        <v>-4.475661754608154</v>
+        <v>-1.787757873535156</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.002778601134195924</v>
+        <v>-0.02340654656291008</v>
       </c>
       <c r="B54" t="n">
-        <v>0.003551461268216372</v>
+        <v>-0.02646227180957794</v>
       </c>
       <c r="C54" t="n">
-        <v>9.345569610595703</v>
+        <v>4.442890644073486</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.135045051574707</v>
+        <v>-2.095031976699829</v>
       </c>
       <c r="E54" t="n">
-        <v>-5.157196998596191</v>
+        <v>-4.238107204437256</v>
       </c>
       <c r="F54" t="n">
-        <v>9.857803344726562</v>
+        <v>4.873312473297119</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.55818247795105</v>
+        <v>-1.903092861175537</v>
       </c>
       <c r="H54" t="n">
-        <v>-5.122248649597168</v>
+        <v>-4.246716499328613</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.01146953925490379</v>
+        <v>-0.08821538090705872</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.01499954145401716</v>
+        <v>-0.0861789658665657</v>
       </c>
       <c r="C55" t="n">
-        <v>10.05700969696045</v>
+        <v>6.804955005645752</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.7281040549278259</v>
+        <v>-1.272113442420959</v>
       </c>
       <c r="E55" t="n">
-        <v>-5.202637672424316</v>
+        <v>-5.711381912231445</v>
       </c>
       <c r="F55" t="n">
-        <v>10.85314750671387</v>
+        <v>7.078353404998779</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.3065420091152191</v>
+        <v>-1.247456908226013</v>
       </c>
       <c r="H55" t="n">
-        <v>-5.124618530273438</v>
+        <v>-5.975369930267334</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.01011283230036497</v>
+        <v>-0.1256236135959625</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.01343619637191296</v>
+        <v>-0.1153108924627304</v>
       </c>
       <c r="C56" t="n">
-        <v>9.989266395568848</v>
+        <v>8.168359756469727</v>
       </c>
       <c r="D56" t="n">
-        <v>1.208781003952026</v>
+        <v>0.2284977436065674</v>
       </c>
       <c r="E56" t="n">
-        <v>-4.306186676025391</v>
+        <v>-5.694633960723877</v>
       </c>
       <c r="F56" t="n">
-        <v>10.76926708221436</v>
+        <v>8.154050827026367</v>
       </c>
       <c r="G56" t="n">
-        <v>1.403811097145081</v>
+        <v>0.003976263571530581</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.14613676071167</v>
+        <v>-6.359474182128906</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.0002960599376820028</v>
+        <v>-0.1344762295484543</v>
       </c>
       <c r="B57" t="n">
-        <v>0.002132924273610115</v>
+        <v>-0.1155402585864067</v>
       </c>
       <c r="C57" t="n">
-        <v>9.499094009399414</v>
+        <v>8.491007804870605</v>
       </c>
       <c r="D57" t="n">
-        <v>2.179937839508057</v>
+        <v>1.754295349121094</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.830169916152954</v>
+        <v>-4.585726261138916</v>
       </c>
       <c r="F57" t="n">
-        <v>9.933914184570312</v>
+        <v>8.162520408630371</v>
       </c>
       <c r="G57" t="n">
-        <v>2.039002656936646</v>
+        <v>1.359761357307434</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.907493352890015</v>
+        <v>-5.670971393585205</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.02690772525966167</v>
+        <v>-0.1220644488930702</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03204869851469994</v>
+        <v>-0.09669650346040726</v>
       </c>
       <c r="C58" t="n">
-        <v>8.140750885009766</v>
+        <v>8.038640022277832</v>
       </c>
       <c r="D58" t="n">
-        <v>2.01195764541626</v>
+        <v>2.677775859832764</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9934271574020386</v>
+        <v>-3.00797700881958</v>
       </c>
       <c r="F58" t="n">
-        <v>8.328799247741699</v>
+        <v>7.466713905334473</v>
       </c>
       <c r="G58" t="n">
-        <v>1.796042084693909</v>
+        <v>2.285033941268921</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.520172476768494</v>
+        <v>-4.405387878417969</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.06833022832870483</v>
+        <v>-0.09574056416749954</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06683974713087082</v>
+        <v>-0.06708335876464844</v>
       </c>
       <c r="C59" t="n">
-        <v>6.072436809539795</v>
+        <v>7.079222679138184</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8005390167236328</v>
+        <v>2.727005481719971</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3689849376678467</v>
+        <v>-1.390804767608643</v>
       </c>
       <c r="F59" t="n">
-        <v>6.462103843688965</v>
+        <v>6.373247623443604</v>
       </c>
       <c r="G59" t="n">
-        <v>1.117664456367493</v>
+        <v>2.491384983062744</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.241331160068512</v>
+        <v>-2.924087524414062</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1114607974886894</v>
+        <v>-0.06072501093149185</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1000867486000061</v>
+        <v>-0.03171846643090248</v>
       </c>
       <c r="C60" t="n">
-        <v>3.918835401535034</v>
+        <v>5.803023338317871</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.8142291307449341</v>
+        <v>1.952950239181519</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9915054440498352</v>
+        <v>0.05395351722836494</v>
       </c>
       <c r="F60" t="n">
-        <v>4.678253650665283</v>
+        <v>5.067397594451904</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2723677456378937</v>
+        <v>1.960256934165955</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8172860741615295</v>
+        <v>-1.43791675567627</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1451118588447571</v>
+        <v>-0.0210034865885973</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1290116161108017</v>
+        <v>0.006115777418017387</v>
       </c>
       <c r="C61" t="n">
-        <v>2.238566637039185</v>
+        <v>4.355307102203369</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.277267694473267</v>
+        <v>0.5891847610473633</v>
       </c>
       <c r="E61" t="n">
-        <v>1.214783310890198</v>
+        <v>1.238085031509399</v>
       </c>
       <c r="F61" t="n">
-        <v>3.126305341720581</v>
+        <v>3.670366764068604</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.7459957003593445</v>
+        <v>0.8528527617454529</v>
       </c>
       <c r="H61" t="n">
-        <v>1.629809379577637</v>
+        <v>-0.07593616843223572</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1683743596076965</v>
+        <v>0.01982717961072922</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1556387692689896</v>
+        <v>0.04366619884967804</v>
       </c>
       <c r="C62" t="n">
-        <v>1.077020049095154</v>
+        <v>2.867166519165039</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.434073448181152</v>
+        <v>-1.068350076675415</v>
       </c>
       <c r="E62" t="n">
-        <v>1.47405731678009</v>
+        <v>2.126999139785767</v>
       </c>
       <c r="F62" t="n">
-        <v>1.697639226913452</v>
+        <v>2.28381609916687</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.070485353469849</v>
+        <v>-0.5895873308181763</v>
       </c>
       <c r="H62" t="n">
-        <v>2.155514001846313</v>
+        <v>1.072210311889648</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1880984753370285</v>
+        <v>0.0587436817586422</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1830694079399109</v>
+        <v>0.07869522273540497</v>
       </c>
       <c r="C63" t="n">
-        <v>0.09215298295021057</v>
+        <v>1.448790788650513</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.51488733291626</v>
+        <v>-2.747562170028687</v>
       </c>
       <c r="E63" t="n">
-        <v>2.015003204345703</v>
+        <v>2.716540813446045</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2258638292551041</v>
+        <v>0.9903678894042969</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.796271324157715</v>
+        <v>-2.126547336578369</v>
       </c>
       <c r="H63" t="n">
-        <v>2.516956090927124</v>
+        <v>1.951501250267029</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2104761898517609</v>
+        <v>0.09411025792360306</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2097384929656982</v>
+        <v>0.1101592257618904</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.02521550655365</v>
+        <v>0.1597979962825775</v>
       </c>
       <c r="D64" t="n">
-        <v>-5.957738399505615</v>
+        <v>-4.256115436553955</v>
       </c>
       <c r="E64" t="n">
-        <v>2.683744668960571</v>
+        <v>3.043485164642334</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.205052733421326</v>
+        <v>-0.1714417785406113</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.859451770782471</v>
+        <v>-3.574871063232422</v>
       </c>
       <c r="H64" t="n">
-        <v>2.850275754928589</v>
+        <v>2.559866189956665</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2385639846324921</v>
+        <v>0.126157745718956</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2341360002756119</v>
+        <v>0.1386357396841049</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.427698373794556</v>
+        <v>-1.008225917816162</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.812159061431885</v>
+        <v>-5.503931522369385</v>
       </c>
       <c r="E65" t="n">
-        <v>2.996767997741699</v>
+        <v>3.197942972183228</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.514087200164795</v>
+        <v>-1.222937941551208</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.904871940612793</v>
+        <v>-4.836105823516846</v>
       </c>
       <c r="H65" t="n">
-        <v>3.21499490737915</v>
+        <v>2.960889577865601</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2721547782421112</v>
+        <v>0.1564707607030869</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2596439719200134</v>
+        <v>0.1658570021390915</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.104959487915039</v>
+        <v>-2.113033056259155</v>
       </c>
       <c r="D66" t="n">
-        <v>-9.682914733886719</v>
+        <v>-6.492503643035889</v>
       </c>
       <c r="E66" t="n">
-        <v>2.900479555130005</v>
+        <v>3.304794788360596</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.882704496383667</v>
+        <v>-2.228084325790405</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.594515800476074</v>
+        <v>-5.893185138702393</v>
       </c>
       <c r="H66" t="n">
-        <v>3.691551923751831</v>
+        <v>3.263394355773926</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.308935135602951</v>
+        <v>0.1868703365325928</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2892772257328033</v>
+        <v>0.1936802864074707</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.941481590270996</v>
+        <v>-3.220995664596558</v>
       </c>
       <c r="D67" t="n">
-        <v>-11.23630714416504</v>
+        <v>-7.280184745788574</v>
       </c>
       <c r="E67" t="n">
-        <v>3.089327573776245</v>
+        <v>3.478527069091797</v>
       </c>
       <c r="F67" t="n">
-        <v>-5.472660541534424</v>
+        <v>-3.255459785461426</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.82032489776611</v>
+        <v>-6.783063411712646</v>
       </c>
       <c r="H67" t="n">
-        <v>4.293899536132812</v>
+        <v>3.575425624847412</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3474813103675842</v>
+        <v>0.2185583561658859</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3212615847587585</v>
+        <v>0.2232946455478668</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.86617374420166</v>
+        <v>-4.375917434692383</v>
       </c>
       <c r="D68" t="n">
-        <v>-12.40900230407715</v>
+        <v>-7.938620090484619</v>
       </c>
       <c r="E68" t="n">
-        <v>3.955653429031372</v>
+        <v>3.786811590194702</v>
       </c>
       <c r="F68" t="n">
-        <v>-7.188764095306396</v>
+        <v>-4.348971366882324</v>
       </c>
       <c r="G68" t="n">
-        <v>-11.55487060546875</v>
+        <v>-7.558556079864502</v>
       </c>
       <c r="H68" t="n">
-        <v>4.921321868896484</v>
+        <v>3.967219829559326</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3853569328784943</v>
+        <v>0.2518298625946045</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3526400029659271</v>
+        <v>0.2549587190151215</v>
       </c>
       <c r="C69" t="n">
-        <v>-9.757384300231934</v>
+        <v>-5.588552474975586</v>
       </c>
       <c r="D69" t="n">
-        <v>-13.16384887695312</v>
+        <v>-8.518318176269531</v>
       </c>
       <c r="E69" t="n">
-        <v>5.279882431030273</v>
+        <v>4.241596221923828</v>
       </c>
       <c r="F69" t="n">
-        <v>-8.872356414794922</v>
+        <v>-5.518168449401855</v>
       </c>
       <c r="G69" t="n">
-        <v>-11.86148071289062</v>
+        <v>-8.256665229797363</v>
       </c>
       <c r="H69" t="n">
-        <v>5.570454597473145</v>
+        <v>4.460589408874512</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4187734127044678</v>
+        <v>0.2861788272857666</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3820513486862183</v>
+        <v>0.2881147265434265</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.42593955993652</v>
+        <v>-6.840456008911133</v>
       </c>
       <c r="D70" t="n">
-        <v>-13.42796993255615</v>
+        <v>-9.035343170166016</v>
       </c>
       <c r="E70" t="n">
-        <v>6.778749942779541</v>
+        <v>4.810922622680664</v>
       </c>
       <c r="F70" t="n">
-        <v>-10.45040702819824</v>
+        <v>-6.74245548248291</v>
       </c>
       <c r="G70" t="n">
-        <v>-11.91238784790039</v>
+        <v>-8.885553359985352</v>
       </c>
       <c r="H70" t="n">
-        <v>6.332672119140625</v>
+        <v>5.037846088409424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4465024173259735</v>
+        <v>0.3206259608268738</v>
       </c>
       <c r="B71" t="n">
-        <v>0.410400778055191</v>
+        <v>0.3217235803604126</v>
       </c>
       <c r="C71" t="n">
-        <v>-12.81050777435303</v>
+        <v>-8.095938682556152</v>
       </c>
       <c r="D71" t="n">
-        <v>-13.15804576873779</v>
+        <v>-9.477573394775391</v>
       </c>
       <c r="E71" t="n">
-        <v>8.075139045715332</v>
+        <v>5.439813613891602</v>
       </c>
       <c r="F71" t="n">
-        <v>-11.97147941589355</v>
+        <v>-7.983463764190674</v>
       </c>
       <c r="G71" t="n">
-        <v>-11.84506034851074</v>
+        <v>-9.42940616607666</v>
       </c>
       <c r="H71" t="n">
-        <v>7.267755508422852</v>
+        <v>5.659354209899902</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4696322977542877</v>
+        <v>0.3541441857814789</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4395993947982788</v>
+        <v>0.3546991348266602</v>
       </c>
       <c r="C72" t="n">
-        <v>-13.96543407440186</v>
+        <v>-9.31756591796875</v>
       </c>
       <c r="D72" t="n">
-        <v>-12.43887042999268</v>
+        <v>-9.820369720458984</v>
       </c>
       <c r="E72" t="n">
-        <v>8.916608810424805</v>
+        <v>6.072371006011963</v>
       </c>
       <c r="F72" t="n">
-        <v>-13.53811740875244</v>
+        <v>-9.20108699798584</v>
       </c>
       <c r="G72" t="n">
-        <v>-11.7884578704834</v>
+        <v>-9.862116813659668</v>
       </c>
       <c r="H72" t="n">
-        <v>8.36528491973877</v>
+        <v>6.282802104949951</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4892497658729553</v>
+        <v>0.3860277235507965</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4692166149616241</v>
+        <v>0.3862826824188232</v>
       </c>
       <c r="C73" t="n">
-        <v>-14.94497585296631</v>
+        <v>-10.47961330413818</v>
       </c>
       <c r="D73" t="n">
-        <v>-11.49106121063232</v>
+        <v>-10.04193210601807</v>
       </c>
       <c r="E73" t="n">
-        <v>9.542264938354492</v>
+        <v>6.669145584106445</v>
       </c>
       <c r="F73" t="n">
-        <v>-15.12721252441406</v>
+        <v>-10.36731052398682</v>
       </c>
       <c r="G73" t="n">
-        <v>-11.78071784973145</v>
+        <v>-10.16092586517334</v>
       </c>
       <c r="H73" t="n">
-        <v>9.428671836853027</v>
+        <v>6.87908411026001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.5060034990310669</v>
+        <v>0.4159925580024719</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4957080781459808</v>
+        <v>0.4161468744277954</v>
       </c>
       <c r="C74" t="n">
-        <v>-15.78152275085449</v>
+        <v>-11.5717306137085</v>
       </c>
       <c r="D74" t="n">
-        <v>-10.50669193267822</v>
+        <v>-10.1305513381958</v>
       </c>
       <c r="E74" t="n">
-        <v>10.2200927734375</v>
+        <v>7.210182666778564</v>
       </c>
       <c r="F74" t="n">
-        <v>-16.54859924316406</v>
+        <v>-11.47004699707031</v>
       </c>
       <c r="G74" t="n">
-        <v>-11.64240646362305</v>
+        <v>-10.31288814544678</v>
       </c>
       <c r="H74" t="n">
-        <v>10.13138484954834</v>
+        <v>7.435593128204346</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.5196809768676758</v>
+        <v>0.4439025521278381</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5146994590759277</v>
+        <v>0.4441321790218353</v>
       </c>
       <c r="C75" t="n">
-        <v>-16.46446990966797</v>
+        <v>-12.58895587921143</v>
       </c>
       <c r="D75" t="n">
-        <v>-9.532153129577637</v>
+        <v>-10.07942008972168</v>
       </c>
       <c r="E75" t="n">
-        <v>10.83376598358154</v>
+        <v>7.676267147064209</v>
       </c>
       <c r="F75" t="n">
-        <v>-17.56757164001465</v>
+        <v>-12.50340461730957</v>
       </c>
       <c r="G75" t="n">
-        <v>-11.10873889923096</v>
+        <v>-10.31021308898926</v>
       </c>
       <c r="H75" t="n">
-        <v>10.35674285888672</v>
+        <v>7.938621520996094</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5281083583831787</v>
+        <v>0.4693436622619629</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5231433510780334</v>
+        <v>0.4698534905910492</v>
       </c>
       <c r="C76" t="n">
-        <v>-16.88526725769043</v>
+        <v>-13.51620101928711</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.411628723144531</v>
+        <v>-9.872265815734863</v>
       </c>
       <c r="E76" t="n">
-        <v>10.89900779724121</v>
+        <v>8.019218444824219</v>
       </c>
       <c r="F76" t="n">
-        <v>-18.0206241607666</v>
+        <v>-13.45316505432129</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.984719276428223</v>
+        <v>-10.13759231567383</v>
       </c>
       <c r="H76" t="n">
-        <v>10.09020042419434</v>
+        <v>8.344324111938477</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.528706431388855</v>
+        <v>0.4914151728153229</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5212440490722656</v>
+        <v>0.4925388991832733</v>
       </c>
       <c r="C77" t="n">
-        <v>-16.91513061523438</v>
+        <v>-14.320631980896</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.82007884979248</v>
+        <v>-9.469701766967773</v>
       </c>
       <c r="E77" t="n">
-        <v>9.498666763305664</v>
+        <v>8.144138336181641</v>
       </c>
       <c r="F77" t="n">
-        <v>-17.91871643066406</v>
+        <v>-14.29082489013672</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.146086692810059</v>
+        <v>-9.760381698608398</v>
       </c>
       <c r="H77" t="n">
-        <v>8.707221984863281</v>
+        <v>8.560736656188965</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5174573659896851</v>
+        <v>0.5087761878967285</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5111319422721863</v>
+        <v>0.5111169815063477</v>
       </c>
       <c r="C78" t="n">
-        <v>-16.35344314575195</v>
+        <v>-14.95338344573975</v>
       </c>
       <c r="D78" t="n">
-        <v>-4.358239650726318</v>
+        <v>-8.802505493164062</v>
       </c>
       <c r="E78" t="n">
-        <v>5.409085273742676</v>
+        <v>7.907172679901123</v>
       </c>
       <c r="F78" t="n">
-        <v>-17.37615966796875</v>
+        <v>-14.97682094573975</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.603363513946533</v>
+        <v>-9.118640899658203</v>
       </c>
       <c r="H78" t="n">
-        <v>5.082609176635742</v>
+        <v>8.445342063903809</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4910391867160797</v>
+        <v>0.5196337699890137</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4941246211528778</v>
+        <v>0.5241934061050415</v>
       </c>
       <c r="C79" t="n">
-        <v>-15.03432273864746</v>
+        <v>-15.34910488128662</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.968408465385437</v>
+        <v>-7.764486789703369</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.094864010810852</v>
+        <v>7.102411270141602</v>
       </c>
       <c r="F79" t="n">
-        <v>-16.46363830566406</v>
+        <v>-15.4596700668335</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.570259094238281</v>
+        <v>-8.118844985961914</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.8846408128738403</v>
+        <v>7.791671276092529</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4542926847934723</v>
+        <v>0.521360456943512</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4685095548629761</v>
+        <v>0.5295335650444031</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.19949150085449</v>
+        <v>-15.41203784942627</v>
       </c>
       <c r="D80" t="n">
-        <v>2.981969594955444</v>
+        <v>-6.193415641784668</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.868801593780518</v>
+        <v>5.409660816192627</v>
       </c>
       <c r="F80" t="n">
-        <v>-15.08927440643311</v>
+        <v>-15.65685272216797</v>
       </c>
       <c r="G80" t="n">
-        <v>1.028518557548523</v>
+        <v>-6.609442710876465</v>
       </c>
       <c r="H80" t="n">
-        <v>-7.579895496368408</v>
+        <v>6.273946285247803</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4133241176605225</v>
+        <v>0.5098022222518921</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4322192668914795</v>
+        <v>0.5229208469390869</v>
       </c>
       <c r="C81" t="n">
-        <v>-11.15384483337402</v>
+        <v>-14.99077701568604</v>
       </c>
       <c r="D81" t="n">
-        <v>7.22141695022583</v>
+        <v>-3.862986087799072</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.2006311416626</v>
+        <v>2.338940143585205</v>
       </c>
       <c r="F81" t="n">
-        <v>-13.14214038848877</v>
+        <v>-15.41268062591553</v>
       </c>
       <c r="G81" t="n">
-        <v>5.434188365936279</v>
+        <v>-4.354093074798584</v>
       </c>
       <c r="H81" t="n">
-        <v>-13.13042545318604</v>
+        <v>3.378555774688721</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3697752356529236</v>
+        <v>0.4796696901321411</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3880358934402466</v>
+        <v>0.4978159964084625</v>
       </c>
       <c r="C82" t="n">
-        <v>-8.97935676574707</v>
+        <v>-13.89254951477051</v>
       </c>
       <c r="D82" t="n">
-        <v>11.6459846496582</v>
+        <v>-0.6214281320571899</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.76208972930908</v>
+        <v>-2.527422428131104</v>
       </c>
       <c r="F82" t="n">
-        <v>-10.77150249481201</v>
+        <v>-14.48568153381348</v>
       </c>
       <c r="G82" t="n">
-        <v>10.37767505645752</v>
+        <v>-1.130797386169434</v>
       </c>
       <c r="H82" t="n">
-        <v>-15.7676887512207</v>
+        <v>-1.381707787513733</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.320543110370636</v>
+        <v>0.4297179281711578</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3372625410556793</v>
+        <v>0.4513246715068817</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.521091938018799</v>
+        <v>-12.0719747543335</v>
       </c>
       <c r="D83" t="n">
-        <v>16.05051612854004</v>
+        <v>3.254667043685913</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.78429889678955</v>
+        <v>-8.555264472961426</v>
       </c>
       <c r="F83" t="n">
-        <v>-8.047286033630371</v>
+        <v>-12.76898860931396</v>
       </c>
       <c r="G83" t="n">
-        <v>15.30858898162842</v>
+        <v>2.892359256744385</v>
       </c>
       <c r="H83" t="n">
-        <v>-14.72412967681885</v>
+        <v>-7.47769021987915</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2662294209003448</v>
+        <v>0.366864800453186</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2819328606128693</v>
+        <v>0.3909665644168854</v>
       </c>
       <c r="C84" t="n">
-        <v>-3.80909252166748</v>
+        <v>-9.781189918518066</v>
       </c>
       <c r="D84" t="n">
-        <v>19.8306999206543</v>
+        <v>7.152624607086182</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.2243013381958</v>
+        <v>-13.71256637573242</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.078602313995361</v>
+        <v>-10.54026222229004</v>
       </c>
       <c r="G84" t="n">
-        <v>19.46491432189941</v>
+        <v>7.07252025604248</v>
       </c>
       <c r="H84" t="n">
-        <v>-11.00329875946045</v>
+        <v>-12.88052177429199</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2141896635293961</v>
+        <v>0.2976717948913574</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6910479392617308</v>
+        <v>0.6261205204846136</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.210637092590332</v>
+        <v>-7.259336471557617</v>
       </c>
       <c r="D85" t="n">
-        <v>22.34123420715332</v>
+        <v>10.80995655059814</v>
       </c>
       <c r="E85" t="n">
-        <v>-6.797028541564941</v>
+        <v>-16.3197193145752</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.186752796173096</v>
+        <v>-8.1177978515625</v>
       </c>
       <c r="G85" t="n">
-        <v>22.20630264282227</v>
+        <v>10.87891960144043</v>
       </c>
       <c r="H85" t="n">
-        <v>-6.412949562072754</v>
+        <v>-15.75161933898926</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7500304816003204</v>
+        <v>0.7021171523628166</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8958228409165534</v>
+        <v>0.817698363848255</v>
       </c>
       <c r="C86" t="n">
-        <v>1.065993666648865</v>
+        <v>-4.603119850158691</v>
       </c>
       <c r="D86" t="n">
-        <v>23.41886711120605</v>
+        <v>14.46389102935791</v>
       </c>
       <c r="E86" t="n">
-        <v>-2.681143045425415</v>
+        <v>-16.01310348510742</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4595795869827271</v>
+        <v>-5.64616584777832</v>
       </c>
       <c r="G86" t="n">
-        <v>23.49588203430176</v>
+        <v>14.24940967559814</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.28182315826416</v>
+        <v>-15.65445041656494</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9389875361175847</v>
+        <v>0.9161314925676195</v>
       </c>
       <c r="B87" t="n">
-        <v>0.973398329082369</v>
+        <v>0.9344687944560867</v>
       </c>
       <c r="C87" t="n">
-        <v>3.024980306625366</v>
+        <v>-1.848795294761658</v>
       </c>
       <c r="D87" t="n">
-        <v>23.25273323059082</v>
+        <v>18.16638374328613</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5128299593925476</v>
+        <v>-13.35764312744141</v>
       </c>
       <c r="F87" t="n">
-        <v>2.786991834640503</v>
+        <v>-3.138650417327881</v>
       </c>
       <c r="G87" t="n">
-        <v>23.54137420654297</v>
+        <v>17.32137107849121</v>
       </c>
       <c r="H87" t="n">
-        <v>0.7358921766281128</v>
+        <v>-13.25248050689697</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9888800598787258</v>
+        <v>0.9883597640278922</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9949757829662944</v>
+        <v>0.9850269397512925</v>
       </c>
       <c r="C88" t="n">
-        <v>4.661059856414795</v>
+        <v>0.9088042378425598</v>
       </c>
       <c r="D88" t="n">
-        <v>22.0272216796875</v>
+        <v>21.26773262023926</v>
       </c>
       <c r="E88" t="n">
-        <v>2.499088048934937</v>
+        <v>-9.515528678894043</v>
       </c>
       <c r="F88" t="n">
-        <v>4.67752742767334</v>
+        <v>-0.5753691792488098</v>
       </c>
       <c r="G88" t="n">
-        <v>22.41564178466797</v>
+        <v>19.89162063598633</v>
       </c>
       <c r="H88" t="n">
-        <v>2.605806827545166</v>
+        <v>-9.721432685852051</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9985099668668337</v>
+        <v>0.999926516407501</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9992922755459044</v>
+        <v>0.9985139766439511</v>
       </c>
       <c r="C89" t="n">
-        <v>5.938223361968994</v>
+        <v>3.467856168746948</v>
       </c>
       <c r="D89" t="n">
-        <v>19.75551986694336</v>
+        <v>22.98388862609863</v>
       </c>
       <c r="E89" t="n">
-        <v>3.32914400100708</v>
+        <v>-5.632405281066895</v>
       </c>
       <c r="F89" t="n">
-        <v>6.042663097381592</v>
+        <v>1.953912019729614</v>
       </c>
       <c r="G89" t="n">
-        <v>20.04548263549805</v>
+        <v>21.47591972351074</v>
       </c>
       <c r="H89" t="n">
-        <v>3.667043685913086</v>
+        <v>-6.102744102478027</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9998492978494168</v>
+        <v>1.000007789239625</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9999223154380718</v>
+        <v>1.000027648977654</v>
       </c>
       <c r="C90" t="n">
-        <v>6.807735443115234</v>
+        <v>5.637367248535156</v>
       </c>
       <c r="D90" t="n">
-        <v>16.34069442749023</v>
+        <v>23.01702308654785</v>
       </c>
       <c r="E90" t="n">
-        <v>3.374460220336914</v>
+        <v>-2.355029106140137</v>
       </c>
       <c r="F90" t="n">
-        <v>6.926934719085693</v>
+        <v>4.260316848754883</v>
       </c>
       <c r="G90" t="n">
-        <v>16.43725395202637</v>
+        <v>21.7309741973877</v>
       </c>
       <c r="H90" t="n">
-        <v>4.239022254943848</v>
+        <v>-2.993904829025269</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.999986923288082</v>
+        <v>0.9999984929946154</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999927386615566</v>
+        <v>0.9999967767847918</v>
       </c>
       <c r="C91" t="n">
-        <v>7.187976837158203</v>
+        <v>7.327058792114258</v>
       </c>
       <c r="D91" t="n">
-        <v>11.88170528411865</v>
+        <v>21.47537994384766</v>
       </c>
       <c r="E91" t="n">
-        <v>3.000047922134399</v>
+        <v>0.1295308172702789</v>
       </c>
       <c r="F91" t="n">
-        <v>7.390301704406738</v>
+        <v>6.177621364593506</v>
       </c>
       <c r="G91" t="n">
-        <v>11.85212230682373</v>
+        <v>20.58388519287109</v>
       </c>
       <c r="H91" t="n">
-        <v>4.349358081817627</v>
+        <v>-0.6140481233596802</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999987935834614</v>
+        <v>1.00000038624914</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9999993268563011</v>
+        <v>1.000000615152203</v>
       </c>
       <c r="C92" t="n">
-        <v>7.042822360992432</v>
+        <v>8.540722846984863</v>
       </c>
       <c r="D92" t="n">
-        <v>6.854666233062744</v>
+        <v>18.60765647888184</v>
       </c>
       <c r="E92" t="n">
-        <v>2.415802240371704</v>
+        <v>1.88653826713562</v>
       </c>
       <c r="F92" t="n">
-        <v>7.412188529968262</v>
+        <v>7.631187438964844</v>
       </c>
       <c r="G92" t="n">
-        <v>6.790277004241943</v>
+        <v>18.13699531555176</v>
       </c>
       <c r="H92" t="n">
-        <v>3.887628316879272</v>
+        <v>1.059171438217163</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9999998635905643</v>
+        <v>0.9999998853821979</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999999290410477</v>
+        <v>0.9999998517698656</v>
       </c>
       <c r="C93" t="n">
-        <v>6.492024898529053</v>
+        <v>9.321955680847168</v>
       </c>
       <c r="D93" t="n">
-        <v>1.903412103652954</v>
+        <v>14.69194889068604</v>
       </c>
       <c r="E93" t="n">
-        <v>1.776496291160583</v>
+        <v>3.052114725112915</v>
       </c>
       <c r="F93" t="n">
-        <v>7.050703525543213</v>
+        <v>8.611941337585449</v>
       </c>
       <c r="G93" t="n">
-        <v>1.857602715492249</v>
+        <v>14.58410453796387</v>
       </c>
       <c r="H93" t="n">
-        <v>2.876308917999268</v>
+        <v>2.150555610656738</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9999999801238285</v>
+        <v>1.000000036447696</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9999999907636079</v>
+        <v>1.000000039830592</v>
       </c>
       <c r="C94" t="n">
-        <v>5.628246307373047</v>
+        <v>9.732388496398926</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.752923965454102</v>
+        <v>10.06010150909424</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9809110164642334</v>
+        <v>3.736448049545288</v>
       </c>
       <c r="F94" t="n">
-        <v>6.346862316131592</v>
+        <v>9.154875755310059</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.785951852798462</v>
+        <v>10.21485042572021</v>
       </c>
       <c r="H94" t="n">
-        <v>1.398773431777954</v>
+        <v>2.787182092666626</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9999999964180124</v>
+        <v>0.9999999881259752</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999999985141295</v>
+        <v>0.9999999888700299</v>
       </c>
       <c r="C95" t="n">
-        <v>4.715091228485107</v>
+        <v>9.882851600646973</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.078480243682861</v>
+        <v>5.139281749725342</v>
       </c>
       <c r="E95" t="n">
-        <v>0.09801334142684937</v>
+        <v>3.994474172592163</v>
       </c>
       <c r="F95" t="n">
-        <v>5.473679065704346</v>
+        <v>9.364765167236328</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.238090038299561</v>
+        <v>5.440812587738037</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.04006404057145119</v>
+        <v>3.046154975891113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9999999992788656</v>
+        <v>1.000000003920251</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9999999997225004</v>
+        <v>1.000000003153476</v>
       </c>
       <c r="C96" t="n">
-        <v>4.156508445739746</v>
+        <v>9.967283248901367</v>
       </c>
       <c r="D96" t="n">
-        <v>-10.92859268188477</v>
+        <v>0.4145487546920776</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.375337153673172</v>
+        <v>3.819015502929688</v>
       </c>
       <c r="F96" t="n">
-        <v>4.7375168800354</v>
+        <v>9.441074371337891</v>
       </c>
       <c r="G96" t="n">
-        <v>-11.48200702667236</v>
+        <v>0.7490529417991638</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.5640257596969604</v>
+        <v>2.932022333145142</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9999999998509929</v>
+        <v>0.9999999986557542</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999999999433771</v>
+        <v>0.9999999990776129</v>
       </c>
       <c r="C97" t="n">
-        <v>4.016079902648926</v>
+        <v>10.21346378326416</v>
       </c>
       <c r="D97" t="n">
-        <v>-13.91272735595703</v>
+        <v>-3.683112144470215</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.221074178814888</v>
+        <v>3.164083480834961</v>
       </c>
       <c r="F97" t="n">
-        <v>4.245901107788086</v>
+        <v>9.620466232299805</v>
       </c>
       <c r="G97" t="n">
-        <v>-15.06278991699219</v>
+        <v>-3.416580200195312</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.09159177541732788</v>
+        <v>2.398207664489746</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.999999999969169</v>
+        <v>1.000000000496619</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9999999999879521</v>
+        <v>1.000000000288728</v>
       </c>
       <c r="C98" t="n">
-        <v>4.008643627166748</v>
+        <v>10.72618293762207</v>
       </c>
       <c r="D98" t="n">
-        <v>-15.40990352630615</v>
+        <v>-6.86154317855835</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3494315445423126</v>
+        <v>2.038980960845947</v>
       </c>
       <c r="F98" t="n">
-        <v>3.997741222381592</v>
+        <v>10.02213191986084</v>
       </c>
       <c r="G98" t="n">
-        <v>-16.96167755126953</v>
+        <v>-6.74109935760498</v>
       </c>
       <c r="H98" t="n">
-        <v>0.76717609167099</v>
+        <v>1.439297080039978</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.999999999993518</v>
+        <v>0.9999999997994464</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999999999974197</v>
+        <v>0.9999999999017718</v>
       </c>
       <c r="C99" t="n">
-        <v>3.920400857925415</v>
+        <v>11.39062213897705</v>
       </c>
       <c r="D99" t="n">
-        <v>-15.09868240356445</v>
+        <v>-8.9837646484375</v>
       </c>
       <c r="E99" t="n">
-        <v>1.198715806007385</v>
+        <v>0.5974513292312622</v>
       </c>
       <c r="F99" t="n">
-        <v>3.958054065704346</v>
+        <v>10.55419540405273</v>
       </c>
       <c r="G99" t="n">
-        <v>-16.55485153198242</v>
+        <v>-9.058009147644043</v>
       </c>
       <c r="H99" t="n">
-        <v>1.557640910148621</v>
+        <v>0.1789166629314423</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9999999999985936</v>
+        <v>1.000000000087139</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9999999999994511</v>
+        <v>1.000000000035698</v>
       </c>
       <c r="C100" t="n">
-        <v>3.742483377456665</v>
+        <v>11.98272132873535</v>
       </c>
       <c r="D100" t="n">
-        <v>-13.36610507965088</v>
+        <v>-10.06118774414062</v>
       </c>
       <c r="E100" t="n">
-        <v>1.956169366836548</v>
+        <v>-0.9172565937042236</v>
       </c>
       <c r="F100" t="n">
-        <v>3.998826026916504</v>
+        <v>11.00837421417236</v>
       </c>
       <c r="G100" t="n">
-        <v>-14.34902858734131</v>
+        <v>-10.35521793365479</v>
       </c>
       <c r="H100" t="n">
-        <v>1.905849933624268</v>
+        <v>-1.172945499420166</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9999999999997092</v>
+        <v>0.9999999999607381</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999999999998919</v>
+        <v>0.9999999999867292</v>
       </c>
       <c r="C101" t="n">
-        <v>4.012367725372314</v>
+        <v>12.29331874847412</v>
       </c>
       <c r="D101" t="n">
-        <v>-11.11561870574951</v>
+        <v>-10.21463108062744</v>
       </c>
       <c r="E101" t="n">
-        <v>1.719213843345642</v>
+        <v>-2.272670745849609</v>
       </c>
       <c r="F101" t="n">
-        <v>4.445480823516846</v>
+        <v>11.17148971557617</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.56375980377197</v>
+        <v>-10.73966217041016</v>
       </c>
       <c r="H101" t="n">
-        <v>1.506273508071899</v>
+        <v>-2.405729055404663</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.9999999999999557</v>
+        <v>1.000000000017351</v>
       </c>
       <c r="B102" t="n">
-        <v>0.999999999999984</v>
+        <v>1.000000000004708</v>
       </c>
       <c r="C102" t="n">
-        <v>5.44804048538208</v>
+        <v>12.12653732299805</v>
       </c>
       <c r="D102" t="n">
-        <v>-9.019793510437012</v>
+        <v>-9.625967025756836</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.1542375534772873</v>
+        <v>-3.254382133483887</v>
       </c>
       <c r="F102" t="n">
-        <v>5.842660903930664</v>
+        <v>10.8392972946167</v>
       </c>
       <c r="G102" t="n">
-        <v>-9.134232521057129</v>
+        <v>-10.37274074554443</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1539860218763351</v>
+        <v>-3.312899112701416</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.9999999999999972</v>
+        <v>0.999999999993055</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999985639</v>
       </c>
       <c r="C103" t="n">
-        <v>7.797458648681641</v>
+        <v>11.3215160369873</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.365852355957031</v>
+        <v>-8.553956985473633</v>
       </c>
       <c r="E103" t="n">
-        <v>-3.202341556549072</v>
+        <v>-3.677172422409058</v>
       </c>
       <c r="F103" t="n">
-        <v>8.044248580932617</v>
+        <v>9.865495681762695</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.27332592010498</v>
+        <v>-9.469011306762695</v>
       </c>
       <c r="H103" t="n">
-        <v>-2.119632720947266</v>
+        <v>-3.70612907409668</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.007836143486201763</v>
+        <v>0.06615689396858215</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01391397137194872</v>
+        <v>0.06134368479251862</v>
       </c>
       <c r="C104" t="n">
-        <v>9.093035697937012</v>
+        <v>1.178603887557983</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.551012992858887</v>
+        <v>-2.168850183486938</v>
       </c>
       <c r="E104" t="n">
-        <v>-4.432510375976562</v>
+        <v>-1.113749265670776</v>
       </c>
       <c r="F104" t="n">
-        <v>9.30180835723877</v>
+        <v>1.631074190139771</v>
       </c>
       <c r="G104" t="n">
-        <v>-6.731159687042236</v>
+        <v>-1.974612832069397</v>
       </c>
       <c r="H104" t="n">
-        <v>-4.316429615020752</v>
+        <v>-1.070942401885986</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.01013149227946997</v>
+        <v>0.01441615447402</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01362362690269947</v>
+        <v>0.008694466203451157</v>
       </c>
       <c r="C105" t="n">
-        <v>8.978424072265625</v>
+        <v>3.064380168914795</v>
       </c>
       <c r="D105" t="n">
-        <v>-3.281151533126831</v>
+        <v>-2.417830228805542</v>
       </c>
       <c r="E105" t="n">
-        <v>-4.857473850250244</v>
+        <v>-2.864495038986206</v>
       </c>
       <c r="F105" t="n">
-        <v>9.317386627197266</v>
+        <v>3.575148582458496</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.843123912811279</v>
+        <v>-2.193083047866821</v>
       </c>
       <c r="H105" t="n">
-        <v>-4.878420352935791</v>
+        <v>-2.830282926559448</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.007715568877756596</v>
+        <v>-0.04268157109618187</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.008405853994190693</v>
+        <v>-0.04746102541685104</v>
       </c>
       <c r="C106" t="n">
-        <v>9.869565963745117</v>
+        <v>5.145400524139404</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.788212776184082</v>
+        <v>-2.16623067855835</v>
       </c>
       <c r="E106" t="n">
-        <v>-5.065156936645508</v>
+        <v>-4.509831428527832</v>
       </c>
       <c r="F106" t="n">
-        <v>10.49936676025391</v>
+        <v>5.64869213104248</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.4316922724246979</v>
+        <v>-1.976397633552551</v>
       </c>
       <c r="H106" t="n">
-        <v>-5.070132732391357</v>
+        <v>-4.593145847320557</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.001319864764809608</v>
+        <v>-0.08500040322542191</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.003721881657838821</v>
+        <v>-0.08630418032407761</v>
       </c>
       <c r="C107" t="n">
-        <v>9.550214767456055</v>
+        <v>6.687779903411865</v>
       </c>
       <c r="D107" t="n">
-        <v>1.290098428726196</v>
+        <v>-1.272972226142883</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.134423732757568</v>
+        <v>-5.178404808044434</v>
       </c>
       <c r="F107" t="n">
-        <v>10.24805068969727</v>
+        <v>7.082977294921875</v>
       </c>
       <c r="G107" t="n">
-        <v>1.472108244895935</v>
+        <v>-1.174304962158203</v>
       </c>
       <c r="H107" t="n">
-        <v>-4.024715423583984</v>
+        <v>-5.510445594787598</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.009266212582588196</v>
+        <v>-0.1031831875443459</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01060980465263128</v>
+        <v>-0.09923170506954193</v>
       </c>
       <c r="C108" t="n">
-        <v>9.021629333496094</v>
+        <v>7.350481033325195</v>
       </c>
       <c r="D108" t="n">
-        <v>2.10207462310791</v>
+        <v>-0.002936603268608451</v>
       </c>
       <c r="E108" t="n">
-        <v>-2.738134860992432</v>
+        <v>-4.706206798553467</v>
       </c>
       <c r="F108" t="n">
-        <v>9.479091644287109</v>
+        <v>7.56032657623291</v>
       </c>
       <c r="G108" t="n">
-        <v>1.990218281745911</v>
+        <v>0.02251414209604263</v>
       </c>
       <c r="H108" t="n">
-        <v>-2.770043849945068</v>
+        <v>-5.366134643554688</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.03506727889180183</v>
+        <v>-0.09983624517917633</v>
       </c>
       <c r="B109" t="n">
-        <v>0.03970883041620255</v>
+        <v>-0.09056098759174347</v>
       </c>
       <c r="C109" t="n">
-        <v>7.73332691192627</v>
+        <v>7.228496551513672</v>
       </c>
       <c r="D109" t="n">
-        <v>1.948685884475708</v>
+        <v>1.105361461639404</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.9905420541763306</v>
+        <v>-3.493378162384033</v>
       </c>
       <c r="F109" t="n">
-        <v>7.91779899597168</v>
+        <v>7.24015998840332</v>
       </c>
       <c r="G109" t="n">
-        <v>1.610872864723206</v>
+        <v>1.152446389198303</v>
       </c>
       <c r="H109" t="n">
-        <v>-1.385054588317871</v>
+        <v>-4.464631080627441</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.07312235981225967</v>
+        <v>-0.08172047138214111</v>
       </c>
       <c r="B110" t="n">
-        <v>0.07314825057983398</v>
+        <v>-0.06843569874763489</v>
       </c>
       <c r="C110" t="n">
-        <v>5.833155632019043</v>
+        <v>6.5682373046875</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8379497528076172</v>
+        <v>1.626237869262695</v>
       </c>
       <c r="E110" t="n">
-        <v>0.3419727385044098</v>
+        <v>-2.009828805923462</v>
       </c>
       <c r="F110" t="n">
-        <v>6.123624801635742</v>
+        <v>6.423182964324951</v>
       </c>
       <c r="G110" t="n">
-        <v>0.793779194355011</v>
+        <v>1.805476546287537</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.1324850022792816</v>
+        <v>-3.19402289390564</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1143888235092163</v>
+        <v>-0.0543241947889328</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1052334159612656</v>
+        <v>-0.03895112127065659</v>
       </c>
       <c r="C111" t="n">
-        <v>3.772632837295532</v>
+        <v>5.569735050201416</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.6993891000747681</v>
+        <v>1.406702041625977</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9800540208816528</v>
+        <v>-0.5539683699607849</v>
       </c>
       <c r="F111" t="n">
-        <v>4.402112007141113</v>
+        <v>5.334463596343994</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.1130569204688072</v>
+        <v>1.790346026420593</v>
       </c>
       <c r="H111" t="n">
-        <v>0.8670566082000732</v>
+        <v>-1.817623615264893</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1487845331430435</v>
+        <v>-0.02106213755905628</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1333034783601761</v>
+        <v>-0.005543315317481756</v>
       </c>
       <c r="C112" t="n">
-        <v>2.055181264877319</v>
+        <v>4.357444763183594</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.171841144561768</v>
+        <v>0.5134742259979248</v>
       </c>
       <c r="E112" t="n">
-        <v>1.213858723640442</v>
+        <v>0.7386435270309448</v>
       </c>
       <c r="F112" t="n">
-        <v>2.8960280418396</v>
+        <v>4.100879192352295</v>
       </c>
       <c r="G112" t="n">
-        <v>-1.083925366401672</v>
+        <v>1.118674397468567</v>
       </c>
       <c r="H112" t="n">
-        <v>1.620532751083374</v>
+        <v>-0.4783154726028442</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1736485362052917</v>
+        <v>0.01560438703745604</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1589435189962387</v>
+        <v>0.02966791950166225</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8136685490608215</v>
+        <v>3.02107310295105</v>
       </c>
       <c r="D113" t="n">
-        <v>-3.397111892700195</v>
+        <v>-0.8629165887832642</v>
       </c>
       <c r="E113" t="n">
-        <v>1.457169771194458</v>
+        <v>1.8196861743927</v>
       </c>
       <c r="F113" t="n">
-        <v>1.520325422286987</v>
+        <v>2.800703048706055</v>
       </c>
       <c r="G113" t="n">
-        <v>-2.272615194320679</v>
+        <v>-0.06697901338338852</v>
       </c>
       <c r="H113" t="n">
-        <v>2.140565872192383</v>
+        <v>0.7446629405021667</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.193884551525116</v>
+        <v>0.05327445641160011</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1855176687240601</v>
+        <v>0.06483349204063416</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1967596709728241</v>
+        <v>1.648125648498535</v>
       </c>
       <c r="D114" t="n">
-        <v>-4.51675271987915</v>
+        <v>-2.484391927719116</v>
       </c>
       <c r="E114" t="n">
-        <v>1.968625783920288</v>
+        <v>2.671140909194946</v>
       </c>
       <c r="F114" t="n">
-        <v>0.09450353682041168</v>
+        <v>1.502213001251221</v>
       </c>
       <c r="G114" t="n">
-        <v>-3.821373462677002</v>
+        <v>-1.561032176017761</v>
       </c>
       <c r="H114" t="n">
-        <v>2.540669441223145</v>
+        <v>1.795618414878845</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2152736932039261</v>
+        <v>0.08961589634418488</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2124961465597153</v>
+        <v>0.09822982549667358</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.264764547348022</v>
+        <v>0.323602169752121</v>
       </c>
       <c r="D115" t="n">
-        <v>-5.916764259338379</v>
+        <v>-4.123356342315674</v>
       </c>
       <c r="E115" t="n">
-        <v>2.634210586547852</v>
+        <v>3.283968448638916</v>
       </c>
       <c r="F115" t="n">
-        <v>-1.353012919425964</v>
+        <v>0.269052267074585</v>
       </c>
       <c r="G115" t="n">
-        <v>-5.757344722747803</v>
+        <v>-3.151548385620117</v>
       </c>
       <c r="H115" t="n">
-        <v>2.915649652481079</v>
+        <v>2.631943702697754</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.2413480877876282</v>
+        <v>0.1230250298976898</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2379352003335953</v>
+        <v>0.1287668198347092</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.566713809967041</v>
+        <v>-0.8940486311912537</v>
       </c>
       <c r="D116" t="n">
-        <v>-7.685773849487305</v>
+        <v>-5.605684757232666</v>
       </c>
       <c r="E116" t="n">
-        <v>3.010870695114136</v>
+        <v>3.666890382766724</v>
       </c>
       <c r="F116" t="n">
-        <v>-2.717931985855103</v>
+        <v>-0.8585278391838074</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.79662036895752</v>
+        <v>-4.664812564849854</v>
       </c>
       <c r="H116" t="n">
-        <v>3.303260564804077</v>
+        <v>3.237459659576416</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2729456126689911</v>
+        <v>0.1532331258058548</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2635778188705444</v>
+        <v>0.1565077006816864</v>
       </c>
       <c r="C117" t="n">
-        <v>-4.144447326660156</v>
+        <v>-1.995032429695129</v>
       </c>
       <c r="D117" t="n">
-        <v>-9.479830741882324</v>
+        <v>-6.833010196685791</v>
       </c>
       <c r="E117" t="n">
-        <v>2.98690938949585</v>
+        <v>3.865418434143066</v>
       </c>
       <c r="F117" t="n">
-        <v>-4.093772411346436</v>
+        <v>-1.882860541343689</v>
       </c>
       <c r="G117" t="n">
-        <v>-9.562917709350586</v>
+        <v>-5.991254329681396</v>
       </c>
       <c r="H117" t="n">
-        <v>3.767128705978394</v>
+        <v>3.640918731689453</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.3081095814704895</v>
+        <v>0.1812915802001953</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2918491065502167</v>
+        <v>0.1826564818620682</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.900259494781494</v>
+        <v>-3.017668724060059</v>
       </c>
       <c r="D118" t="n">
-        <v>-10.9586353302002</v>
+        <v>-7.782037734985352</v>
       </c>
       <c r="E118" t="n">
-        <v>3.181516170501709</v>
+        <v>3.965810060501099</v>
       </c>
       <c r="F118" t="n">
-        <v>-5.610653877258301</v>
+        <v>-2.848405599594116</v>
       </c>
       <c r="G118" t="n">
-        <v>-10.86805057525635</v>
+        <v>-7.089523792266846</v>
       </c>
       <c r="H118" t="n">
-        <v>4.342558860778809</v>
+        <v>3.917769908905029</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.3448333442211151</v>
+        <v>0.2089344263076782</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3216288983821869</v>
+        <v>0.2089769542217255</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.733954906463623</v>
+        <v>-4.02515697479248</v>
       </c>
       <c r="D119" t="n">
-        <v>-12.06442260742188</v>
+        <v>-8.486124992370605</v>
       </c>
       <c r="E119" t="n">
-        <v>4.007399082183838</v>
+        <v>4.073345184326172</v>
       </c>
       <c r="F119" t="n">
-        <v>-7.208470821380615</v>
+        <v>-3.820289611816406</v>
       </c>
       <c r="G119" t="n">
-        <v>-11.66208648681641</v>
+        <v>-7.972648143768311</v>
       </c>
       <c r="H119" t="n">
-        <v>4.96611213684082</v>
+        <v>4.16739559173584</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.3810552656650543</v>
+        <v>0.2377405166625977</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3509427905082703</v>
+        <v>0.2370160222053528</v>
       </c>
       <c r="C120" t="n">
-        <v>-9.542593002319336</v>
+        <v>-5.075042724609375</v>
       </c>
       <c r="D120" t="n">
-        <v>-12.80068111419678</v>
+        <v>-9.007229804992676</v>
       </c>
       <c r="E120" t="n">
-        <v>5.262322902679443</v>
+        <v>4.276809215545654</v>
       </c>
       <c r="F120" t="n">
-        <v>-8.781293869018555</v>
+        <v>-4.855633735656738</v>
       </c>
       <c r="G120" t="n">
-        <v>-11.9934253692627</v>
+        <v>-8.68358039855957</v>
       </c>
       <c r="H120" t="n">
-        <v>5.624674320220947</v>
+        <v>4.477766990661621</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4139460027217865</v>
+        <v>0.2685212194919586</v>
       </c>
       <c r="B121" t="n">
-        <v>0.379082202911377</v>
+        <v>0.2675292789936066</v>
       </c>
       <c r="C121" t="n">
-        <v>-11.18489646911621</v>
+        <v>-6.196896076202393</v>
       </c>
       <c r="D121" t="n">
-        <v>-13.13679218292236</v>
+        <v>-9.406770706176758</v>
       </c>
       <c r="E121" t="n">
-        <v>6.674418926239014</v>
+        <v>4.620106220245361</v>
       </c>
       <c r="F121" t="n">
-        <v>-10.29109859466553</v>
+        <v>-5.98233699798584</v>
       </c>
       <c r="G121" t="n">
-        <v>-12.02990245819092</v>
+        <v>-9.268491744995117</v>
       </c>
       <c r="H121" t="n">
-        <v>6.387093544006348</v>
+        <v>4.896962642669678</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4421140551567078</v>
+        <v>0.3011278212070465</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4065331816673279</v>
+        <v>0.3003032505512238</v>
       </c>
       <c r="C122" t="n">
-        <v>-12.59138774871826</v>
+        <v>-7.385297298431396</v>
       </c>
       <c r="D122" t="n">
-        <v>-13.03264236450195</v>
+        <v>-9.72386646270752</v>
       </c>
       <c r="E122" t="n">
-        <v>7.930875778198242</v>
+        <v>5.093910694122314</v>
       </c>
       <c r="F122" t="n">
-        <v>-11.76396560668945</v>
+        <v>-7.192517280578613</v>
       </c>
       <c r="G122" t="n">
-        <v>-11.91926002502441</v>
+        <v>-9.756204605102539</v>
       </c>
       <c r="H122" t="n">
-        <v>7.307967185974121</v>
+        <v>5.42353343963623</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4659162163734436</v>
+        <v>0.3346512615680695</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4344562292098999</v>
+        <v>0.3343583643436432</v>
       </c>
       <c r="C123" t="n">
-        <v>-13.77988147735596</v>
+        <v>-8.607113838195801</v>
       </c>
       <c r="D123" t="n">
-        <v>-12.51613998413086</v>
+        <v>-9.966954231262207</v>
       </c>
       <c r="E123" t="n">
-        <v>8.785482406616211</v>
+        <v>5.647196769714355</v>
       </c>
       <c r="F123" t="n">
-        <v>-13.26216316223145</v>
+        <v>-8.450002670288086</v>
       </c>
       <c r="G123" t="n">
-        <v>-11.7894458770752</v>
+        <v>-10.14970302581787</v>
       </c>
       <c r="H123" t="n">
-        <v>8.376261711120605</v>
+        <v>6.01580286026001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4860693216323853</v>
+        <v>0.3678531348705292</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4626133143901825</v>
+        <v>0.36838498711586</v>
       </c>
       <c r="C124" t="n">
-        <v>-14.78617000579834</v>
+        <v>-9.81721019744873</v>
       </c>
       <c r="D124" t="n">
-        <v>-11.73107814788818</v>
+        <v>-10.11936187744141</v>
       </c>
       <c r="E124" t="n">
-        <v>9.400937080383301</v>
+        <v>6.210349559783936</v>
       </c>
       <c r="F124" t="n">
-        <v>-14.77291679382324</v>
+        <v>-9.706436157226562</v>
       </c>
       <c r="G124" t="n">
-        <v>-11.70571422576904</v>
+        <v>-10.43046283721924</v>
       </c>
       <c r="H124" t="n">
-        <v>9.420597076416016</v>
+        <v>6.612703800201416</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.5031555891036987</v>
+        <v>0.399590790271759</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4881974756717682</v>
+        <v>0.4011772274971008</v>
       </c>
       <c r="C125" t="n">
-        <v>-15.63932323455811</v>
+        <v>-10.97394180297852</v>
       </c>
       <c r="D125" t="n">
-        <v>-10.83438873291016</v>
+        <v>-10.15280532836914</v>
       </c>
       <c r="E125" t="n">
-        <v>10.03056716918945</v>
+        <v>6.717779636383057</v>
       </c>
       <c r="F125" t="n">
-        <v>-16.14562225341797</v>
+        <v>-10.91729259490967</v>
       </c>
       <c r="G125" t="n">
-        <v>-11.54500675201416</v>
+        <v>-10.57028675079346</v>
       </c>
       <c r="H125" t="n">
-        <v>10.14168453216553</v>
+        <v>7.155065536499023</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.5170595049858093</v>
+        <v>0.4290083944797516</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5074406266212463</v>
+        <v>0.4318380951881409</v>
       </c>
       <c r="C126" t="n">
-        <v>-16.33357429504395</v>
+        <v>-12.04611492156982</v>
       </c>
       <c r="D126" t="n">
-        <v>-9.877743721008301</v>
+        <v>-10.03909301757812</v>
       </c>
       <c r="E126" t="n">
-        <v>10.5975284576416</v>
+        <v>7.117424488067627</v>
       </c>
       <c r="F126" t="n">
-        <v>-17.17810249328613</v>
+        <v>-12.0494441986084</v>
       </c>
       <c r="G126" t="n">
-        <v>-11.07595634460449</v>
+        <v>-10.54190540313721</v>
       </c>
       <c r="H126" t="n">
-        <v>10.39291954040527</v>
+        <v>7.595127582550049</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.5258118510246277</v>
+        <v>0.4554315209388733</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5173738598823547</v>
+        <v>0.4596960246562958</v>
       </c>
       <c r="C127" t="n">
-        <v>-16.77059936523438</v>
+        <v>-13.00914859771729</v>
       </c>
       <c r="D127" t="n">
-        <v>-8.747561454772949</v>
+        <v>-9.752392768859863</v>
       </c>
       <c r="E127" t="n">
-        <v>10.66923809051514</v>
+        <v>7.361632823944092</v>
       </c>
       <c r="F127" t="n">
-        <v>-17.71106338500977</v>
+        <v>-13.07810020446777</v>
       </c>
       <c r="G127" t="n">
-        <v>-10.09897422790527</v>
+        <v>-10.32138061523438</v>
       </c>
       <c r="H127" t="n">
-        <v>10.14276885986328</v>
+        <v>7.888298988342285</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.5267646908760071</v>
+        <v>0.4781154096126556</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5169127583503723</v>
+        <v>0.4840872287750244</v>
       </c>
       <c r="C128" t="n">
-        <v>-16.81817626953125</v>
+        <v>-13.83590126037598</v>
       </c>
       <c r="D128" t="n">
-        <v>-7.168851852416992</v>
+        <v>-9.261692047119141</v>
       </c>
       <c r="E128" t="n">
-        <v>9.414285659790039</v>
+        <v>7.3865966796875</v>
       </c>
       <c r="F128" t="n">
-        <v>-17.68632316589355</v>
+        <v>-13.97874736785889</v>
       </c>
       <c r="G128" t="n">
-        <v>-8.405263900756836</v>
+        <v>-9.881669044494629</v>
       </c>
       <c r="H128" t="n">
-        <v>8.817399978637695</v>
+        <v>7.973349571228027</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.5156978368759155</v>
+        <v>0.4960258305072784</v>
       </c>
       <c r="B129" t="n">
-        <v>0.506051242351532</v>
+        <v>0.5041645765304565</v>
       </c>
       <c r="C129" t="n">
-        <v>-16.26558494567871</v>
+        <v>-14.48867511749268</v>
       </c>
       <c r="D129" t="n">
-        <v>-4.721827030181885</v>
+        <v>-8.518261909484863</v>
       </c>
       <c r="E129" t="n">
-        <v>5.459366798400879</v>
+        <v>7.091137886047363</v>
       </c>
       <c r="F129" t="n">
-        <v>-17.10355567932129</v>
+        <v>-14.72010231018066</v>
       </c>
       <c r="G129" t="n">
-        <v>-5.829350471496582</v>
+        <v>-9.180962562561035</v>
       </c>
       <c r="H129" t="n">
-        <v>5.263301372528076</v>
+        <v>7.751258850097656</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4886991083621979</v>
+        <v>0.5076406598091125</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4862797260284424</v>
+        <v>0.518694281578064</v>
       </c>
       <c r="C130" t="n">
-        <v>-14.91747856140137</v>
+        <v>-14.91199588775635</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.336469292640686</v>
+        <v>-7.440254211425781</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.080927133560181</v>
+        <v>6.313243389129639</v>
       </c>
       <c r="F130" t="n">
-        <v>-16.042724609375</v>
+        <v>-15.25661277770996</v>
       </c>
       <c r="G130" t="n">
-        <v>-2.657871723175049</v>
+        <v>-8.146748542785645</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.6545097827911377</v>
+        <v>7.06093692779541</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4515300691127777</v>
+        <v>0.5105686187744141</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4590496122837067</v>
+        <v>0.5255745053291321</v>
       </c>
       <c r="C131" t="n">
-        <v>-13.06154823303223</v>
+        <v>-15.01871013641357</v>
       </c>
       <c r="D131" t="n">
-        <v>2.560309410095215</v>
+        <v>-5.890322208404541</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.66482400894165</v>
+        <v>4.786559104919434</v>
       </c>
       <c r="F131" t="n">
-        <v>-14.58170795440674</v>
+        <v>-15.510666847229</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9337385296821594</v>
+        <v>-6.64899206161499</v>
       </c>
       <c r="H131" t="n">
-        <v>-7.191992282867432</v>
+        <v>5.632430553436279</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4109134674072266</v>
+        <v>0.5008465647697449</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4226379692554474</v>
+        <v>0.5207721590995789</v>
       </c>
       <c r="C132" t="n">
-        <v>-11.03347682952881</v>
+        <v>-14.66437530517578</v>
       </c>
       <c r="D132" t="n">
-        <v>6.749995231628418</v>
+        <v>-3.654821872711182</v>
       </c>
       <c r="E132" t="n">
-        <v>-12.72978591918945</v>
+        <v>2.080969095230103</v>
       </c>
       <c r="F132" t="n">
-        <v>-12.62806034088135</v>
+        <v>-15.33333969116211</v>
       </c>
       <c r="G132" t="n">
-        <v>5.2762770652771</v>
+        <v>-4.463021278381348</v>
       </c>
       <c r="H132" t="n">
-        <v>-12.62483787536621</v>
+        <v>3.015444993972778</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3681861758232117</v>
+        <v>0.472990483045578</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3791806697845459</v>
+        <v>0.4976529181003571</v>
       </c>
       <c r="C133" t="n">
-        <v>-8.900012969970703</v>
+        <v>-13.64911460876465</v>
       </c>
       <c r="D133" t="n">
-        <v>11.14968490600586</v>
+        <v>-0.531261146068573</v>
       </c>
       <c r="E133" t="n">
-        <v>-15.29789733886719</v>
+        <v>-2.249190092086792</v>
       </c>
       <c r="F133" t="n">
-        <v>-10.29638290405273</v>
+        <v>-14.479660987854</v>
       </c>
       <c r="G133" t="n">
-        <v>10.15866374969482</v>
+        <v>-1.317337036132812</v>
       </c>
       <c r="H133" t="n">
-        <v>-15.24974060058594</v>
+        <v>-1.301879048347473</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3199301362037659</v>
+        <v>0.4246067702770233</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3297509551048279</v>
+        <v>0.4520050585269928</v>
       </c>
       <c r="C134" t="n">
-        <v>-6.490484237670898</v>
+        <v>-11.8856897354126</v>
       </c>
       <c r="D134" t="n">
-        <v>15.51859188079834</v>
+        <v>3.319847822189331</v>
       </c>
       <c r="E134" t="n">
-        <v>-14.36870193481445</v>
+        <v>-7.772619724273682</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.644255638122559</v>
+        <v>-12.79411220550537</v>
       </c>
       <c r="G134" t="n">
-        <v>14.99196529388428</v>
+        <v>2.750841617584229</v>
       </c>
       <c r="H134" t="n">
-        <v>-14.2715539932251</v>
+        <v>-7.002948760986328</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2658339738845825</v>
+        <v>0.3613532483577728</v>
       </c>
       <c r="B135" t="n">
-        <v>0.2753668427467346</v>
+        <v>0.3897097110748291</v>
       </c>
       <c r="C135" t="n">
-        <v>-3.789347171783447</v>
+        <v>-9.58031177520752</v>
       </c>
       <c r="D135" t="n">
-        <v>19.25017738342285</v>
+        <v>7.305473804473877</v>
       </c>
       <c r="E135" t="n">
-        <v>-10.88920497894287</v>
+        <v>-12.6034984588623</v>
       </c>
       <c r="F135" t="n">
-        <v>-4.726306438446045</v>
+        <v>-10.49385261535645</v>
       </c>
       <c r="G135" t="n">
-        <v>19.04035186767578</v>
+        <v>7.153045654296875</v>
       </c>
       <c r="H135" t="n">
-        <v>-10.696946144104</v>
+        <v>-12.21987152099609</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.2133660763502121</v>
+        <v>0.2899170815944672</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6959779601251751</v>
+        <v>0.6321602247226132</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.169512271881104</v>
+        <v>-6.976704120635986</v>
       </c>
       <c r="D136" t="n">
-        <v>21.66957664489746</v>
+        <v>11.02740859985352</v>
       </c>
       <c r="E136" t="n">
-        <v>-6.636848449707031</v>
+        <v>-15.03437328338623</v>
       </c>
       <c r="F136" t="n">
-        <v>-1.882418394088745</v>
+        <v>-7.899380683898926</v>
       </c>
       <c r="G136" t="n">
-        <v>21.60285186767578</v>
+        <v>11.2449369430542</v>
       </c>
       <c r="H136" t="n">
-        <v>-6.319985866546631</v>
+        <v>-15.05628108978271</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7511817095180727</v>
+        <v>0.712859870525921</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8997861891083293</v>
+        <v>0.8288921431947693</v>
       </c>
       <c r="C137" t="n">
-        <v>1.113536596298218</v>
+        <v>-4.221407413482666</v>
       </c>
       <c r="D137" t="n">
-        <v>22.59442329406738</v>
+        <v>14.5233268737793</v>
       </c>
       <c r="E137" t="n">
-        <v>-2.723226308822632</v>
+        <v>-14.72269821166992</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6748017072677612</v>
+        <v>-5.207300662994385</v>
       </c>
       <c r="G137" t="n">
-        <v>22.60563850402832</v>
+        <v>14.7602596282959</v>
       </c>
       <c r="H137" t="n">
-        <v>-2.379724502563477</v>
+        <v>-15.02133655548096</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9393426091938907</v>
+        <v>0.9248935984772488</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9747804872249631</v>
+        <v>0.9436399826034948</v>
       </c>
       <c r="C138" t="n">
-        <v>3.032860040664673</v>
+        <v>-1.462816953659058</v>
       </c>
       <c r="D138" t="n">
-        <v>22.25228309631348</v>
+        <v>17.74514770507812</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3181333839893341</v>
+        <v>-12.29155540466309</v>
       </c>
       <c r="F138" t="n">
-        <v>2.892016887664795</v>
+        <v>-2.549921274185181</v>
       </c>
       <c r="G138" t="n">
-        <v>22.37178039550781</v>
+        <v>17.67045593261719</v>
       </c>
       <c r="H138" t="n">
-        <v>0.5411527752876282</v>
+        <v>-12.7834939956665</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9888027463409204</v>
+        <v>0.9903892836024598</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9952648052025941</v>
+        <v>0.9887031122918766</v>
       </c>
       <c r="C139" t="n">
-        <v>4.599094867706299</v>
+        <v>1.118007183074951</v>
       </c>
       <c r="D139" t="n">
-        <v>20.91841697692871</v>
+        <v>20.20178031921387</v>
       </c>
       <c r="E139" t="n">
-        <v>2.241856336593628</v>
+        <v>-8.830670356750488</v>
       </c>
       <c r="F139" t="n">
-        <v>4.709072589874268</v>
+        <v>-0.02650241553783417</v>
       </c>
       <c r="G139" t="n">
-        <v>21.14402961730957</v>
+        <v>19.8111515045166</v>
       </c>
       <c r="H139" t="n">
-        <v>2.398255825042725</v>
+        <v>-9.476943016052246</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9984412749372108</v>
+        <v>0.9998840515246413</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9993301524893242</v>
+        <v>0.9990624262317555</v>
       </c>
       <c r="C140" t="n">
-        <v>5.800358772277832</v>
+        <v>3.356754064559937</v>
       </c>
       <c r="D140" t="n">
-        <v>18.69381141662598</v>
+        <v>21.3802375793457</v>
       </c>
       <c r="E140" t="n">
-        <v>3.086046457290649</v>
+        <v>-5.339835643768311</v>
       </c>
       <c r="F140" t="n">
-        <v>6.025634765625</v>
+        <v>2.271977424621582</v>
       </c>
       <c r="G140" t="n">
-        <v>18.90034294128418</v>
+        <v>20.91577339172363</v>
       </c>
       <c r="H140" t="n">
-        <v>3.45112419128418</v>
+        <v>-6.068911552429199</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9998311184882402</v>
+        <v>1.000009484893393</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9999239137657431</v>
+        <v>1.000017493492905</v>
       </c>
       <c r="C141" t="n">
-        <v>6.617041110992432</v>
+        <v>5.169959545135498</v>
       </c>
       <c r="D141" t="n">
-        <v>15.48906421661377</v>
+        <v>21.13834762573242</v>
       </c>
       <c r="E141" t="n">
-        <v>3.177584648132324</v>
+        <v>-2.37195611000061</v>
       </c>
       <c r="F141" t="n">
-        <v>6.818285465240479</v>
+        <v>4.26133918762207</v>
       </c>
       <c r="G141" t="n">
-        <v>15.5353422164917</v>
+        <v>20.83965492248535</v>
       </c>
       <c r="H141" t="n">
-        <v>3.994356632232666</v>
+        <v>-3.096632957458496</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9999840931321177</v>
+        <v>0.9999985423035299</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9999922541544194</v>
+        <v>0.9999982196389923</v>
       </c>
       <c r="C142" t="n">
-        <v>6.991676807403564</v>
+        <v>6.558512210845947</v>
       </c>
       <c r="D142" t="n">
-        <v>11.27502250671387</v>
+        <v>19.60534286499023</v>
       </c>
       <c r="E142" t="n">
-        <v>2.861059665679932</v>
+        <v>-0.09184987843036652</v>
       </c>
       <c r="F142" t="n">
-        <v>7.153382301330566</v>
+        <v>5.887912273406982</v>
       </c>
       <c r="G142" t="n">
-        <v>11.16777229309082</v>
+        <v>19.59079170227051</v>
       </c>
       <c r="H142" t="n">
-        <v>4.119560241699219</v>
+        <v>-0.7570403814315796</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999984144735984</v>
+        <v>1.000000300401942</v>
       </c>
       <c r="B143" t="n">
-        <v>0.999999187014349</v>
+        <v>1.000000295251003</v>
       </c>
       <c r="C143" t="n">
-        <v>6.846493244171143</v>
+        <v>7.570588111877441</v>
       </c>
       <c r="D143" t="n">
-        <v>6.391644477844238</v>
+        <v>16.9798583984375</v>
       </c>
       <c r="E143" t="n">
-        <v>2.325085878372192</v>
+        <v>1.541178226470947</v>
       </c>
       <c r="F143" t="n">
-        <v>7.0636887550354</v>
+        <v>7.141680717468262</v>
       </c>
       <c r="G143" t="n">
-        <v>6.253003597259521</v>
+        <v>17.2561092376709</v>
       </c>
       <c r="H143" t="n">
-        <v>3.735018968582153</v>
+        <v>0.9478892683982849</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999998072274746</v>
+        <v>0.9999999273772056</v>
       </c>
       <c r="B144" t="n">
-        <v>0.99999990261421</v>
+        <v>0.9999999375540937</v>
       </c>
       <c r="C144" t="n">
-        <v>6.266743659973145</v>
+        <v>8.259657859802246</v>
       </c>
       <c r="D144" t="n">
-        <v>1.559080362319946</v>
+        <v>13.4579610824585</v>
       </c>
       <c r="E144" t="n">
-        <v>1.723196268081665</v>
+        <v>2.631835222244263</v>
       </c>
       <c r="F144" t="n">
-        <v>6.641964435577393</v>
+        <v>8.035325050354004</v>
       </c>
       <c r="G144" t="n">
-        <v>1.497127890586853</v>
+        <v>13.96279716491699</v>
       </c>
       <c r="H144" t="n">
-        <v>2.819224119186401</v>
+        <v>2.100212812423706</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999999698549988</v>
+        <v>1.000000019087656</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9999999858106212</v>
+        <v>1.000000014966529</v>
       </c>
       <c r="C145" t="n">
-        <v>5.34597110748291</v>
+        <v>8.666869163513184</v>
       </c>
       <c r="D145" t="n">
-        <v>-2.918776988983154</v>
+        <v>9.269167900085449</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9409328699111938</v>
+        <v>3.278121709823608</v>
       </c>
       <c r="F145" t="n">
-        <v>5.905025005340576</v>
+        <v>8.586635589599609</v>
       </c>
       <c r="G145" t="n">
-        <v>-2.907761573791504</v>
+        <v>9.907940864562988</v>
       </c>
       <c r="H145" t="n">
-        <v>1.399456739425659</v>
+        <v>2.798376560211182</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999999941671314</v>
+        <v>0.9999999948136761</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999999974724458</v>
+        <v>0.999999996224429</v>
       </c>
       <c r="C146" t="n">
-        <v>4.363687038421631</v>
+        <v>8.838363647460938</v>
       </c>
       <c r="D146" t="n">
-        <v>-7.00603199005127</v>
+        <v>4.736067295074463</v>
       </c>
       <c r="E146" t="n">
-        <v>0.07537628710269928</v>
+        <v>3.550774812698364</v>
       </c>
       <c r="F146" t="n">
-        <v>4.982895851135254</v>
+        <v>8.833137512207031</v>
       </c>
       <c r="G146" t="n">
-        <v>-7.082234382629395</v>
+        <v>5.410499572753906</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.02906274981796741</v>
+        <v>3.124798774719238</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999999987409627</v>
+        <v>1.000000001416607</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9999999994830413</v>
+        <v>1.000000000959941</v>
       </c>
       <c r="C147" t="n">
-        <v>3.771992921829224</v>
+        <v>8.866022109985352</v>
       </c>
       <c r="D147" t="n">
-        <v>-10.64677619934082</v>
+        <v>0.2715692520141602</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.3349045813083649</v>
+        <v>3.48332142829895</v>
       </c>
       <c r="F147" t="n">
-        <v>4.232184410095215</v>
+        <v>8.871945381164551</v>
       </c>
       <c r="G147" t="n">
-        <v>-11.05149555206299</v>
+        <v>0.9012654423713684</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.5224776268005371</v>
+        <v>3.125420331954956</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999999997225071</v>
+        <v>0.999999999609782</v>
       </c>
       <c r="B148" t="n">
-        <v>0.999999999886223</v>
+        <v>0.999999999755531</v>
       </c>
       <c r="C148" t="n">
-        <v>3.651615858078003</v>
+        <v>8.910778045654297</v>
       </c>
       <c r="D148" t="n">
-        <v>-13.55440807342529</v>
+        <v>-3.714815378189087</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.1023200005292892</v>
+        <v>3.059533596038818</v>
       </c>
       <c r="F148" t="n">
-        <v>3.789707660675049</v>
+        <v>8.880168914794922</v>
       </c>
       <c r="G148" t="n">
-        <v>-14.48274898529053</v>
+        <v>-3.184254169464111</v>
       </c>
       <c r="H148" t="n">
-        <v>0.01847719959914684</v>
+        <v>2.793642520904541</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999999999387834</v>
+        <v>1.000000000112264</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999999999740975</v>
+        <v>1.000000000064416</v>
       </c>
       <c r="C149" t="n">
-        <v>3.64618706703186</v>
+        <v>9.147157669067383</v>
       </c>
       <c r="D149" t="n">
-        <v>-15.00897979736328</v>
+        <v>-6.921647071838379</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5208232402801514</v>
+        <v>2.237545013427734</v>
       </c>
       <c r="F149" t="n">
-        <v>3.574408054351807</v>
+        <v>9.052851676940918</v>
       </c>
       <c r="G149" t="n">
-        <v>-16.35013580322266</v>
+        <v>-6.522708415985107</v>
       </c>
       <c r="H149" t="n">
-        <v>0.9098442792892456</v>
+        <v>2.090031147003174</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.9999999999861595</v>
+        <v>0.999999999964856</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999999940554</v>
+        <v>0.9999999999816488</v>
       </c>
       <c r="C150" t="n">
-        <v>3.501038312911987</v>
+        <v>9.636834144592285</v>
       </c>
       <c r="D150" t="n">
-        <v>-14.62038707733154</v>
+        <v>-9.184741020202637</v>
       </c>
       <c r="E150" t="n">
-        <v>1.367676258087158</v>
+        <v>1.036843419075012</v>
       </c>
       <c r="F150" t="n">
-        <v>3.522120952606201</v>
+        <v>9.471447944641113</v>
       </c>
       <c r="G150" t="n">
-        <v>-15.98996543884277</v>
+        <v>-8.933966636657715</v>
       </c>
       <c r="H150" t="n">
-        <v>1.641913652420044</v>
+        <v>1.021990299224854</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9999999999967537</v>
+        <v>1.000000000012137</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9999999999986486</v>
+        <v>1.000000000005753</v>
       </c>
       <c r="C151" t="n">
-        <v>3.277117013931274</v>
+        <v>10.26057720184326</v>
       </c>
       <c r="D151" t="n">
-        <v>-12.90079021453857</v>
+        <v>-10.45496559143066</v>
       </c>
       <c r="E151" t="n">
-        <v>2.065550804138184</v>
+        <v>-0.3925987184047699</v>
       </c>
       <c r="F151" t="n">
-        <v>3.583864212036133</v>
+        <v>10.0309944152832</v>
       </c>
       <c r="G151" t="n">
-        <v>-13.96251201629639</v>
+        <v>-10.35792064666748</v>
       </c>
       <c r="H151" t="n">
-        <v>1.92700207233429</v>
+        <v>-0.2852957844734192</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9999999999992737</v>
+        <v>0.9999999999954808</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9999999999997191</v>
+        <v>0.99999999999806</v>
       </c>
       <c r="C152" t="n">
-        <v>3.56356406211853</v>
+        <v>10.78255462646484</v>
       </c>
       <c r="D152" t="n">
-        <v>-10.83349704742432</v>
+        <v>-10.77854347229004</v>
       </c>
       <c r="E152" t="n">
-        <v>1.788284778594971</v>
+        <v>-1.804680705070496</v>
       </c>
       <c r="F152" t="n">
-        <v>4.138175010681152</v>
+        <v>10.49602222442627</v>
       </c>
       <c r="G152" t="n">
-        <v>-11.44344902038574</v>
+        <v>-10.8349609375</v>
       </c>
       <c r="H152" t="n">
-        <v>1.543651342391968</v>
+        <v>-1.609408378601074</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9999999999998793</v>
+        <v>1.000000000001724</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9999999999999567</v>
+        <v>1.000000000000665</v>
       </c>
       <c r="C153" t="n">
-        <v>5.086855411529541</v>
+        <v>10.9589376449585</v>
       </c>
       <c r="D153" t="n">
-        <v>-8.932324409484863</v>
+        <v>-10.28356742858887</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.121693417429924</v>
+        <v>-2.94633150100708</v>
       </c>
       <c r="F153" t="n">
-        <v>5.666467666625977</v>
+        <v>10.60870933532715</v>
       </c>
       <c r="G153" t="n">
-        <v>-9.224479675292969</v>
+        <v>-10.48695755004883</v>
       </c>
       <c r="H153" t="n">
-        <v>0.2489636689424515</v>
+        <v>-2.708818912506104</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.999999999999991</v>
+        <v>0.9999999999993732</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9999999999999966</v>
+        <v>0.9999999999997864</v>
       </c>
       <c r="C154" t="n">
-        <v>7.51841926574707</v>
+        <v>10.61351585388184</v>
       </c>
       <c r="D154" t="n">
-        <v>-7.244268894195557</v>
+        <v>-9.175721168518066</v>
       </c>
       <c r="E154" t="n">
-        <v>-3.217182397842407</v>
+        <v>-3.624027729034424</v>
       </c>
       <c r="F154" t="n">
-        <v>7.776724815368652</v>
+        <v>10.17949771881104</v>
       </c>
       <c r="G154" t="n">
-        <v>-7.508758544921875</v>
+        <v>-9.503243446350098</v>
       </c>
       <c r="H154" t="n">
-        <v>-1.968992471694946</v>
+        <v>-3.389720916748047</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.01380893029272556</v>
+        <v>0.07262327522039413</v>
       </c>
       <c r="B155" t="n">
-        <v>0.01998960599303246</v>
+        <v>0.06775466352701187</v>
       </c>
       <c r="C155" t="n">
-        <v>8.794801712036133</v>
+        <v>0.9429261088371277</v>
       </c>
       <c r="D155" t="n">
-        <v>-7.69879674911499</v>
+        <v>-2.213085174560547</v>
       </c>
       <c r="E155" t="n">
-        <v>-4.274311065673828</v>
+        <v>-0.8032280206680298</v>
       </c>
       <c r="F155" t="n">
-        <v>8.975823402404785</v>
+        <v>1.394348382949829</v>
       </c>
       <c r="G155" t="n">
-        <v>-6.939867973327637</v>
+        <v>-2.022811412811279</v>
       </c>
       <c r="H155" t="n">
-        <v>-4.183723449707031</v>
+        <v>-0.7714744806289673</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.01757603883743286</v>
+        <v>0.03423967584967613</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0220759455114603</v>
+        <v>0.02800272963941097</v>
       </c>
       <c r="C156" t="n">
-        <v>8.606701850891113</v>
+        <v>2.341879367828369</v>
       </c>
       <c r="D156" t="n">
-        <v>-3.495159387588501</v>
+        <v>-2.60767674446106</v>
       </c>
       <c r="E156" t="n">
-        <v>-4.59434986114502</v>
+        <v>-2.012161731719971</v>
       </c>
       <c r="F156" t="n">
-        <v>8.863882064819336</v>
+        <v>2.862190246582031</v>
       </c>
       <c r="G156" t="n">
-        <v>-3.163113594055176</v>
+        <v>-2.386498689651489</v>
       </c>
       <c r="H156" t="n">
-        <v>-4.638676643371582</v>
+        <v>-1.984312534332275</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.004702580161392689</v>
+        <v>-0.01262657437473536</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.003814894938841462</v>
+        <v>-0.01933233439922333</v>
       </c>
       <c r="C157" t="n">
-        <v>9.719120979309082</v>
+        <v>4.049996852874756</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.9757592082023621</v>
+        <v>-2.687633752822876</v>
       </c>
       <c r="E157" t="n">
-        <v>-4.934275150299072</v>
+        <v>-3.42669415473938</v>
       </c>
       <c r="F157" t="n">
-        <v>10.25304126739502</v>
+        <v>4.610039234161377</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.7063539624214172</v>
+        <v>-2.47343373298645</v>
       </c>
       <c r="H157" t="n">
-        <v>-5.001002788543701</v>
+        <v>-3.457347869873047</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.006793965119868517</v>
+        <v>-0.05427873134613037</v>
       </c>
       <c r="B158" t="n">
-        <v>0.005055154673755169</v>
+        <v>-0.05994152650237083</v>
       </c>
       <c r="C158" t="n">
-        <v>9.145073890686035</v>
+        <v>5.56807804107666</v>
       </c>
       <c r="D158" t="n">
-        <v>1.379761219024658</v>
+        <v>-2.281720876693726</v>
       </c>
       <c r="E158" t="n">
-        <v>-3.988858461380005</v>
+        <v>-4.405337333679199</v>
       </c>
       <c r="F158" t="n">
-        <v>9.77712345123291</v>
+        <v>6.109535217285156</v>
       </c>
       <c r="G158" t="n">
-        <v>1.484506964683533</v>
+        <v>-2.106746673583984</v>
       </c>
       <c r="H158" t="n">
-        <v>-3.916672229766846</v>
+        <v>-4.576582431793213</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.01764720492064953</v>
+        <v>-0.07815684378147125</v>
       </c>
       <c r="B159" t="n">
-        <v>0.01830203644931316</v>
+        <v>-0.08119749277830124</v>
       </c>
       <c r="C159" t="n">
-        <v>8.603148460388184</v>
+        <v>6.438354969024658</v>
       </c>
       <c r="D159" t="n">
-        <v>2.070871353149414</v>
+        <v>-1.407149314880371</v>
       </c>
       <c r="E159" t="n">
-        <v>-2.673055648803711</v>
+        <v>-4.490169048309326</v>
       </c>
       <c r="F159" t="n">
-        <v>9.06636905670166</v>
+        <v>6.894412517547607</v>
       </c>
       <c r="G159" t="n">
-        <v>1.963208794593811</v>
+        <v>-1.265867829322815</v>
       </c>
       <c r="H159" t="n">
-        <v>-2.669004917144775</v>
+        <v>-4.8758864402771</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.04274297133088112</v>
+        <v>-0.08132249116897583</v>
       </c>
       <c r="B160" t="n">
-        <v>0.04697456210851669</v>
+        <v>-0.08093342185020447</v>
       </c>
       <c r="C160" t="n">
-        <v>7.350063323974609</v>
+        <v>6.553732395172119</v>
       </c>
       <c r="D160" t="n">
-        <v>1.892203569412231</v>
+        <v>-0.391869068145752</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.9927570819854736</v>
+        <v>-3.735172510147095</v>
       </c>
       <c r="F160" t="n">
-        <v>7.527959823608398</v>
+        <v>6.884661674499512</v>
       </c>
       <c r="G160" t="n">
-        <v>1.517836689949036</v>
+        <v>-0.2211560755968094</v>
       </c>
       <c r="H160" t="n">
-        <v>-1.264349222183228</v>
+        <v>-4.357707023620605</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.07787255197763443</v>
+        <v>-0.06833362579345703</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0793830007314682</v>
+        <v>-0.06473953276872635</v>
       </c>
       <c r="C161" t="n">
-        <v>5.595968246459961</v>
+        <v>6.080331802368164</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8212474584579468</v>
+        <v>0.3369696140289307</v>
       </c>
       <c r="E161" t="n">
-        <v>0.320508599281311</v>
+        <v>-2.500352621078491</v>
       </c>
       <c r="F161" t="n">
-        <v>5.789102077484131</v>
+        <v>6.286701679229736</v>
       </c>
       <c r="G161" t="n">
-        <v>0.5845347046852112</v>
+        <v>0.6280203461647034</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.02934524603188038</v>
+        <v>-3.316617250442505</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.1170185133814812</v>
+        <v>-0.04521728307008743</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1106446981430054</v>
+        <v>-0.03936315327882767</v>
       </c>
       <c r="C162" t="n">
-        <v>3.641326665878296</v>
+        <v>5.237818717956543</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.6531307697296143</v>
+        <v>0.5061404705047607</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9743695259094238</v>
+        <v>-1.132909655570984</v>
       </c>
       <c r="F162" t="n">
-        <v>4.111772537231445</v>
+        <v>5.349678039550781</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.4009319245815277</v>
+        <v>0.9880220293998718</v>
       </c>
       <c r="H162" t="n">
-        <v>0.922486424446106</v>
+        <v>-2.056304216384888</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1515199095010757</v>
+        <v>-0.01620819419622421</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1380543112754822</v>
+        <v>-0.009371412917971611</v>
       </c>
       <c r="C163" t="n">
-        <v>1.918597936630249</v>
+        <v>4.180534839630127</v>
       </c>
       <c r="D163" t="n">
-        <v>-2.111889839172363</v>
+        <v>0.05471444129943848</v>
       </c>
       <c r="E163" t="n">
-        <v>1.213933706283569</v>
+        <v>0.1614182442426682</v>
       </c>
       <c r="F163" t="n">
-        <v>2.641124248504639</v>
+        <v>4.242231845855713</v>
       </c>
       <c r="G163" t="n">
-        <v>-1.369117021560669</v>
+        <v>0.7516610026359558</v>
       </c>
       <c r="H163" t="n">
-        <v>1.620115518569946</v>
+        <v>-0.7725703716278076</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1777544766664505</v>
+        <v>0.01632367260754108</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1626989096403122</v>
+        <v>0.02283140458166599</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6086503863334656</v>
+        <v>2.994857549667358</v>
       </c>
       <c r="D164" t="n">
-        <v>-3.370775461196899</v>
+        <v>-0.9280694723129272</v>
       </c>
       <c r="E164" t="n">
-        <v>1.44128680229187</v>
+        <v>1.298084735870361</v>
       </c>
       <c r="F164" t="n">
-        <v>1.318831205368042</v>
+        <v>3.053141593933105</v>
       </c>
       <c r="G164" t="n">
-        <v>-2.466527700424194</v>
+        <v>-0.03770371526479721</v>
       </c>
       <c r="H164" t="n">
-        <v>2.124094486236572</v>
+        <v>0.4356068968772888</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1989603042602539</v>
+        <v>0.05082802847027779</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1880947947502136</v>
+        <v>0.0559038482606411</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.4502018690109253</v>
+        <v>1.737289667129517</v>
       </c>
       <c r="D165" t="n">
-        <v>-4.514314651489258</v>
+        <v>-2.275208473205566</v>
       </c>
       <c r="E165" t="n">
-        <v>1.925284266471863</v>
+        <v>2.255841255187988</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.04377065598964691</v>
+        <v>1.831940412521362</v>
       </c>
       <c r="G165" t="n">
-        <v>-3.871768951416016</v>
+        <v>-1.246094226837158</v>
       </c>
       <c r="H165" t="n">
-        <v>2.551239013671875</v>
+        <v>1.521640181541443</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2201493084430695</v>
+        <v>0.08578532934188843</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2147576957941055</v>
+        <v>0.08871927112340927</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.508214354515076</v>
+        <v>0.4632134139537811</v>
       </c>
       <c r="D166" t="n">
-        <v>-5.87896728515625</v>
+        <v>-3.794098854064941</v>
       </c>
       <c r="E166" t="n">
-        <v>2.58611273765564</v>
+        <v>3.031920194625854</v>
       </c>
       <c r="F166" t="n">
-        <v>-1.474354982376099</v>
+        <v>0.6202298402786255</v>
       </c>
       <c r="G166" t="n">
-        <v>-5.685932159423828</v>
+        <v>-2.698812246322632</v>
       </c>
       <c r="H166" t="n">
-        <v>2.965378761291504</v>
+        <v>2.456602334976196</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2448285222053528</v>
+        <v>0.1195890605449677</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2408917397260666</v>
+        <v>0.1201411336660385</v>
       </c>
       <c r="C167" t="n">
-        <v>-2.740500211715698</v>
+        <v>-0.7688190937042236</v>
       </c>
       <c r="D167" t="n">
-        <v>-7.578464031219482</v>
+        <v>-5.304594993591309</v>
       </c>
       <c r="E167" t="n">
-        <v>3.019455194473267</v>
+        <v>3.622676849365234</v>
       </c>
       <c r="F167" t="n">
-        <v>-2.876562833786011</v>
+        <v>-0.5400239229202271</v>
       </c>
       <c r="G167" t="n">
-        <v>-7.69387674331665</v>
+        <v>-4.220372200012207</v>
       </c>
       <c r="H167" t="n">
-        <v>3.381617546081543</v>
+        <v>3.215755462646484</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2743965685367584</v>
+        <v>0.1509598940610886</v>
       </c>
       <c r="B168" t="n">
-        <v>0.267064243555069</v>
+        <v>0.1493154168128967</v>
       </c>
       <c r="C168" t="n">
-        <v>-4.216896057128906</v>
+        <v>-1.912180781364441</v>
       </c>
       <c r="D168" t="n">
-        <v>-9.316799163818359</v>
+        <v>-6.66682243347168</v>
       </c>
       <c r="E168" t="n">
-        <v>3.066776514053345</v>
+        <v>4.028350353240967</v>
       </c>
       <c r="F168" t="n">
-        <v>-4.280835151672363</v>
+        <v>-1.617285132408142</v>
       </c>
       <c r="G168" t="n">
-        <v>-9.504452705383301</v>
+        <v>-5.665441036224365</v>
       </c>
       <c r="H168" t="n">
-        <v>3.846787452697754</v>
+        <v>3.785038232803345</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3075558245182037</v>
+        <v>0.1794764697551727</v>
       </c>
       <c r="B169" t="n">
-        <v>0.2948146462440491</v>
+        <v>0.1761200875043869</v>
       </c>
       <c r="C169" t="n">
-        <v>-5.872607707977295</v>
+        <v>-2.951514005661011</v>
       </c>
       <c r="D169" t="n">
-        <v>-10.75128173828125</v>
+        <v>-7.796230316162109</v>
       </c>
       <c r="E169" t="n">
-        <v>3.267246961593628</v>
+        <v>4.271057605743408</v>
       </c>
       <c r="F169" t="n">
-        <v>-5.769768238067627</v>
+        <v>-2.607048273086548</v>
       </c>
       <c r="G169" t="n">
-        <v>-10.8612003326416</v>
+        <v>-6.9371337890625</v>
       </c>
       <c r="H169" t="n">
-        <v>4.405762195587158</v>
+        <v>4.177508354187012</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3423593938350677</v>
+        <v>0.2058007568120956</v>
       </c>
       <c r="B170" t="n">
-        <v>0.323130339384079</v>
+        <v>0.20136958360672</v>
       </c>
       <c r="C170" t="n">
-        <v>-7.610424995422363</v>
+        <v>-3.910945653915405</v>
       </c>
       <c r="D170" t="n">
-        <v>-11.81457805633545</v>
+        <v>-8.664969444274902</v>
       </c>
       <c r="E170" t="n">
-        <v>4.05111026763916</v>
+        <v>4.407989978790283</v>
       </c>
       <c r="F170" t="n">
-        <v>-7.289031505584717</v>
+        <v>-3.539387464523315</v>
       </c>
       <c r="G170" t="n">
-        <v>-11.69504833221436</v>
+        <v>-7.991285800933838</v>
       </c>
       <c r="H170" t="n">
-        <v>5.021791934967041</v>
+        <v>4.444284439086914</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.3770255446434021</v>
+        <v>0.2314023375511169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3506312072277069</v>
+        <v>0.2265628576278687</v>
       </c>
       <c r="C171" t="n">
-        <v>-9.341379165649414</v>
+        <v>-4.844037055969238</v>
       </c>
       <c r="D171" t="n">
-        <v>-12.5272855758667</v>
+        <v>-9.29218864440918</v>
       </c>
       <c r="E171" t="n">
-        <v>5.245234966278076</v>
+        <v>4.52472972869873</v>
       </c>
       <c r="F171" t="n">
-        <v>-8.76457691192627</v>
+        <v>-4.469649791717529</v>
       </c>
       <c r="G171" t="n">
-        <v>-12.05490970611572</v>
+        <v>-8.82921028137207</v>
       </c>
       <c r="H171" t="n">
-        <v>5.681650638580322</v>
+        <v>4.667132377624512</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4093003869056702</v>
+        <v>0.2579046487808228</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3772349953651428</v>
+        <v>0.253273218870163</v>
       </c>
       <c r="C172" t="n">
-        <v>-10.95293140411377</v>
+        <v>-5.809957504272461</v>
       </c>
       <c r="D172" t="n">
-        <v>-12.88984680175781</v>
+        <v>-9.726508140563965</v>
       </c>
       <c r="E172" t="n">
-        <v>6.584867000579834</v>
+        <v>4.708144187927246</v>
       </c>
       <c r="F172" t="n">
-        <v>-10.19198799133301</v>
+        <v>-5.455931186676025</v>
       </c>
       <c r="G172" t="n">
-        <v>-12.10704135894775</v>
+        <v>-9.48228645324707</v>
       </c>
       <c r="H172" t="n">
-        <v>6.438561916351318</v>
+        <v>4.932203769683838</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.4377798438072205</v>
+        <v>0.2863921821117401</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4034500122070312</v>
+        <v>0.2824984192848206</v>
       </c>
       <c r="C173" t="n">
-        <v>-12.37497329711914</v>
+        <v>-6.848233699798584</v>
       </c>
       <c r="D173" t="n">
-        <v>-12.88405895233154</v>
+        <v>-10.02392387390137</v>
       </c>
       <c r="E173" t="n">
-        <v>7.804880619049072</v>
+        <v>5.013669490814209</v>
       </c>
       <c r="F173" t="n">
-        <v>-11.59854030609131</v>
+        <v>-6.535072803497314</v>
       </c>
       <c r="G173" t="n">
-        <v>-11.99767208099365</v>
+        <v>-9.991717338562012</v>
       </c>
       <c r="H173" t="n">
-        <v>7.34220027923584</v>
+        <v>5.298168659210205</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.4622460603713989</v>
+        <v>0.3170054256916046</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4300538897514343</v>
+        <v>0.3142834007740021</v>
       </c>
       <c r="C174" t="n">
-        <v>-13.59662246704102</v>
+        <v>-7.963983058929443</v>
       </c>
       <c r="D174" t="n">
-        <v>-12.51486587524414</v>
+        <v>-10.22632122039795</v>
       </c>
       <c r="E174" t="n">
-        <v>8.672371864318848</v>
+        <v>5.445075035095215</v>
       </c>
       <c r="F174" t="n">
-        <v>-13.02595710754395</v>
+        <v>-7.708734035491943</v>
       </c>
       <c r="G174" t="n">
-        <v>-11.83903884887695</v>
+        <v>-10.38854122161865</v>
       </c>
       <c r="H174" t="n">
-        <v>8.378950119018555</v>
+        <v>5.775472164154053</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.483003556728363</v>
+        <v>0.348957747220993</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4568686187267303</v>
+        <v>0.3477523624897003</v>
       </c>
       <c r="C175" t="n">
-        <v>-14.63309001922607</v>
+        <v>-9.128537178039551</v>
       </c>
       <c r="D175" t="n">
-        <v>-11.87530708312988</v>
+        <v>-10.34749794006348</v>
       </c>
       <c r="E175" t="n">
-        <v>9.28529167175293</v>
+        <v>5.95521879196167</v>
       </c>
       <c r="F175" t="n">
-        <v>-14.46468830108643</v>
+        <v>-8.944576263427734</v>
       </c>
       <c r="G175" t="n">
-        <v>-11.70045757293701</v>
+        <v>-10.68039989471436</v>
       </c>
       <c r="H175" t="n">
-        <v>9.400525093078613</v>
+        <v>6.325178623199463</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.5004175901412964</v>
+        <v>0.3808852732181549</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4816186428070068</v>
+        <v>0.3814692497253418</v>
       </c>
       <c r="C176" t="n">
-        <v>-15.50260829925537</v>
+        <v>-10.29218769073486</v>
       </c>
       <c r="D176" t="n">
-        <v>-11.08488368988037</v>
+        <v>-10.37154865264893</v>
       </c>
       <c r="E176" t="n">
-        <v>9.873804092407227</v>
+        <v>6.463818550109863</v>
       </c>
       <c r="F176" t="n">
-        <v>-15.79263591766357</v>
+        <v>-10.18957424163818</v>
       </c>
       <c r="G176" t="n">
-        <v>-11.50319385528564</v>
+        <v>-10.8496150970459</v>
       </c>
       <c r="H176" t="n">
-        <v>10.13417911529541</v>
+        <v>6.874406337738037</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.5144287347793579</v>
+        <v>0.4112922549247742</v>
       </c>
       <c r="B177" t="n">
-        <v>0.5009832978248596</v>
+        <v>0.4138972163200378</v>
       </c>
       <c r="C177" t="n">
-        <v>-16.20221519470215</v>
+        <v>-11.40042018890381</v>
       </c>
       <c r="D177" t="n">
-        <v>-10.18732643127441</v>
+        <v>-10.26185417175293</v>
       </c>
       <c r="E177" t="n">
-        <v>10.39544010162354</v>
+        <v>6.880285263061523</v>
       </c>
       <c r="F177" t="n">
-        <v>-16.83163833618164</v>
+        <v>-11.38697814941406</v>
       </c>
       <c r="G177" t="n">
-        <v>-11.0563440322876</v>
+        <v>-10.86097049713135</v>
       </c>
       <c r="H177" t="n">
-        <v>10.41319942474365</v>
+        <v>7.337550640106201</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.5233560800552368</v>
+        <v>0.4388503134250641</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5120870471000671</v>
+        <v>0.4437146484851837</v>
       </c>
       <c r="C178" t="n">
-        <v>-16.64797592163086</v>
+        <v>-12.40481948852539</v>
       </c>
       <c r="D178" t="n">
-        <v>-9.088652610778809</v>
+        <v>-9.973023414611816</v>
       </c>
       <c r="E178" t="n">
-        <v>10.46463298797607</v>
+        <v>7.118899345397949</v>
       </c>
       <c r="F178" t="n">
-        <v>-17.42740440368652</v>
+        <v>-12.48798751831055</v>
       </c>
       <c r="G178" t="n">
-        <v>-10.17515468597412</v>
+        <v>-10.67241668701172</v>
       </c>
       <c r="H178" t="n">
-        <v>10.18694400787354</v>
+        <v>7.631204128265381</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.5246062278747559</v>
+        <v>0.4624422490596771</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5131222009658813</v>
+        <v>0.4698778688907623</v>
       </c>
       <c r="C179" t="n">
-        <v>-16.71039962768555</v>
+        <v>-13.26466751098633</v>
       </c>
       <c r="D179" t="n">
-        <v>-7.542588233947754</v>
+        <v>-9.457560539245605</v>
       </c>
       <c r="E179" t="n">
-        <v>9.332618713378906</v>
+        <v>7.099213123321533</v>
       </c>
       <c r="F179" t="n">
-        <v>-17.48294448852539</v>
+        <v>-13.45406532287598</v>
       </c>
       <c r="G179" t="n">
-        <v>-8.617213249206543</v>
+        <v>-10.24112224578857</v>
       </c>
       <c r="H179" t="n">
-        <v>8.920916557312012</v>
+        <v>7.675236701965332</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.5137429237365723</v>
+        <v>0.4809959828853607</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5023503303527832</v>
+        <v>0.4914680123329163</v>
       </c>
       <c r="C180" t="n">
-        <v>-16.16797256469727</v>
+        <v>-13.94088840484619</v>
       </c>
       <c r="D180" t="n">
-        <v>-5.10053539276123</v>
+        <v>-8.663287162780762</v>
       </c>
       <c r="E180" t="n">
-        <v>5.520164489746094</v>
+        <v>6.732037544250488</v>
       </c>
       <c r="F180" t="n">
-        <v>-16.90498542785645</v>
+        <v>-14.25128173828125</v>
       </c>
       <c r="G180" t="n">
-        <v>-6.064435958862305</v>
+        <v>-9.520848274230957</v>
       </c>
       <c r="H180" t="n">
-        <v>5.432370185852051</v>
+        <v>7.379500865936279</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4861142635345459</v>
+        <v>0.493185818195343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4804717898368835</v>
+        <v>0.507378876209259</v>
       </c>
       <c r="C181" t="n">
-        <v>-14.78841209411621</v>
+        <v>-14.38516616821289</v>
       </c>
       <c r="D181" t="n">
-        <v>-1.669224262237549</v>
+        <v>-7.52105188369751</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.083988547325134</v>
+        <v>5.892903327941895</v>
       </c>
       <c r="F181" t="n">
-        <v>-15.73110389709473</v>
+        <v>-14.838791847229</v>
       </c>
       <c r="G181" t="n">
-        <v>-2.77418327331543</v>
+        <v>-8.449098587036133</v>
       </c>
       <c r="H181" t="n">
-        <v>-0.4524548053741455</v>
+        <v>6.617035388946533</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.4484088122844696</v>
+        <v>0.4969686567783356</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4517250061035156</v>
+        <v>0.5157672166824341</v>
       </c>
       <c r="C182" t="n">
-        <v>-12.90570068359375</v>
+        <v>-14.52303791046143</v>
       </c>
       <c r="D182" t="n">
-        <v>2.222582101821899</v>
+        <v>-5.921976566314697</v>
       </c>
       <c r="E182" t="n">
-        <v>-7.512336254119873</v>
+        <v>4.378185272216797</v>
       </c>
       <c r="F182" t="n">
-        <v>-14.1887092590332</v>
+        <v>-15.14853096008301</v>
       </c>
       <c r="G182" t="n">
-        <v>0.84402996301651</v>
+        <v>-6.920890331268311</v>
       </c>
       <c r="H182" t="n">
-        <v>-6.842963695526123</v>
+        <v>5.177258491516113</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4083458483219147</v>
+        <v>0.4888574182987213</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4152303338050842</v>
+        <v>0.5130398869514465</v>
       </c>
       <c r="C183" t="n">
-        <v>-10.90526866912842</v>
+        <v>-14.2274112701416</v>
       </c>
       <c r="D183" t="n">
-        <v>6.375833511352539</v>
+        <v>-3.690015554428101</v>
       </c>
       <c r="E183" t="n">
-        <v>-12.29737949371338</v>
+        <v>1.845868229866028</v>
       </c>
       <c r="F183" t="n">
-        <v>-12.2306079864502</v>
+        <v>-15.04782581329346</v>
       </c>
       <c r="G183" t="n">
-        <v>5.16343355178833</v>
+        <v>-4.747963905334473</v>
       </c>
       <c r="H183" t="n">
-        <v>-12.17007637023926</v>
+        <v>2.696213960647583</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.3664461374282837</v>
+        <v>0.4637080132961273</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3721794784069061</v>
+        <v>0.493029773235321</v>
       </c>
       <c r="C184" t="n">
-        <v>-8.813128471374512</v>
+        <v>-13.31080055236816</v>
       </c>
       <c r="D184" t="n">
-        <v>10.75388240814209</v>
+        <v>-0.6272081136703491</v>
       </c>
       <c r="E184" t="n">
-        <v>-14.88844776153564</v>
+        <v>-2.101325035095215</v>
       </c>
       <c r="F184" t="n">
-        <v>-9.920736312866211</v>
+        <v>-14.30895137786865</v>
       </c>
       <c r="G184" t="n">
-        <v>10.0233678817749</v>
+        <v>-1.669056296348572</v>
       </c>
       <c r="H184" t="n">
-        <v>-14.78009414672852</v>
+        <v>-1.286235094070435</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.3187418282032013</v>
+        <v>0.4185088872909546</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3236063122749329</v>
+        <v>0.450911819934845</v>
       </c>
       <c r="C185" t="n">
-        <v>-6.431149005889893</v>
+        <v>-11.66344356536865</v>
       </c>
       <c r="D185" t="n">
-        <v>15.08132648468018</v>
+        <v>3.191838979721069</v>
       </c>
       <c r="E185" t="n">
-        <v>-13.97947597503662</v>
+        <v>-7.18129301071167</v>
       </c>
       <c r="F185" t="n">
-        <v>-7.314568996429443</v>
+        <v>-12.75374412536621</v>
       </c>
       <c r="G185" t="n">
-        <v>14.76038646697998</v>
+        <v>2.365715503692627</v>
       </c>
       <c r="H185" t="n">
-        <v>-13.85028648376465</v>
+        <v>-6.599222660064697</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.2647325992584229</v>
+        <v>0.3576217293739319</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2698580026626587</v>
+        <v>0.3908003270626068</v>
       </c>
       <c r="C186" t="n">
-        <v>-3.734353065490723</v>
+        <v>-9.444310188293457</v>
       </c>
       <c r="D186" t="n">
-        <v>18.75370407104492</v>
+        <v>7.251001834869385</v>
       </c>
       <c r="E186" t="n">
-        <v>-10.55578517913818</v>
+        <v>-11.73162364959717</v>
       </c>
       <c r="F186" t="n">
-        <v>-4.430731773376465</v>
+        <v>-10.53412437438965</v>
       </c>
       <c r="G186" t="n">
-        <v>18.69498825073242</v>
+        <v>6.87790584564209</v>
       </c>
       <c r="H186" t="n">
-        <v>-10.40631675720215</v>
+        <v>-11.60775470733643</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.2120991796255112</v>
+        <v>0.2872370183467865</v>
       </c>
       <c r="B187" t="n">
-        <v>0.7003726643271856</v>
+        <v>0.6315921306035556</v>
       </c>
       <c r="C187" t="n">
-        <v>-1.106254577636719</v>
+        <v>-6.879024028778076</v>
       </c>
       <c r="D187" t="n">
-        <v>21.08553123474121</v>
+        <v>11.10392189025879</v>
       </c>
       <c r="E187" t="n">
-        <v>-6.470979690551758</v>
+        <v>-14.05147171020508</v>
       </c>
       <c r="F187" t="n">
-        <v>-1.621241450309753</v>
+        <v>-7.938746929168701</v>
       </c>
       <c r="G187" t="n">
-        <v>21.11294937133789</v>
+        <v>11.21545028686523</v>
       </c>
       <c r="H187" t="n">
-        <v>-6.222045421600342</v>
+        <v>-14.41841793060303</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7525669464617254</v>
+        <v>0.716147310682996</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9032279548384191</v>
+        <v>0.8296682658438252</v>
       </c>
       <c r="C188" t="n">
-        <v>1.173523664474487</v>
+        <v>-4.102942943572998</v>
       </c>
       <c r="D188" t="n">
-        <v>21.87828636169434</v>
+        <v>14.6604528427124</v>
       </c>
       <c r="E188" t="n">
-        <v>-2.744164705276489</v>
+        <v>-13.74202060699463</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8639672994613647</v>
+        <v>-5.152034282684326</v>
       </c>
       <c r="G188" t="n">
-        <v>21.8915901184082</v>
+        <v>14.99457836151123</v>
       </c>
       <c r="H188" t="n">
-        <v>-2.44755220413208</v>
+        <v>-14.43581104278564</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9399052675245573</v>
+        <v>0.9283946396350578</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9759439494675484</v>
+        <v>0.9457625453575195</v>
       </c>
       <c r="C189" t="n">
-        <v>3.056920528411865</v>
+        <v>-1.2830810546875</v>
       </c>
       <c r="D189" t="n">
-        <v>21.37664794921875</v>
+        <v>17.76130294799805</v>
       </c>
       <c r="E189" t="n">
-        <v>0.160763218998909</v>
+        <v>-11.44111824035645</v>
       </c>
       <c r="F189" t="n">
-        <v>2.979384899139404</v>
+        <v>-2.335421562194824</v>
       </c>
       <c r="G189" t="n">
-        <v>21.40574073791504</v>
+        <v>18.02688598632812</v>
       </c>
       <c r="H189" t="n">
-        <v>0.3831003606319427</v>
+        <v>-12.29618740081787</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9888284530603078</v>
+        <v>0.9916372446287286</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9954899519900935</v>
+        <v>0.9900915365703312</v>
       </c>
       <c r="C190" t="n">
-        <v>4.564675807952881</v>
+        <v>1.333810329437256</v>
       </c>
       <c r="D190" t="n">
-        <v>19.92363357543945</v>
+        <v>19.92383766174316</v>
       </c>
       <c r="E190" t="n">
-        <v>2.020732879638672</v>
+        <v>-8.217233657836914</v>
       </c>
       <c r="F190" t="n">
-        <v>4.716988086700439</v>
+        <v>0.3209636211395264</v>
       </c>
       <c r="G190" t="n">
-        <v>20.03032302856445</v>
+        <v>20.06330299377441</v>
       </c>
       <c r="H190" t="n">
-        <v>2.214142084121704</v>
+        <v>-9.128037452697754</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9984011991816252</v>
+        <v>0.9999737115725423</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9993565579355922</v>
+        <v>0.9993667512435348</v>
       </c>
       <c r="C191" t="n">
-        <v>5.69694709777832</v>
+        <v>3.529078245162964</v>
       </c>
       <c r="D191" t="n">
-        <v>17.69858169555664</v>
+        <v>20.73782730102539</v>
       </c>
       <c r="E191" t="n">
-        <v>2.861944913864136</v>
+        <v>-4.993504047393799</v>
       </c>
       <c r="F191" t="n">
-        <v>5.991308212280273</v>
+        <v>2.645458459854126</v>
       </c>
       <c r="G191" t="n">
-        <v>17.83198165893555</v>
+        <v>20.88521194458008</v>
       </c>
       <c r="H191" t="n">
-        <v>3.251277923583984</v>
+        <v>-5.877403736114502</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9998162080537673</v>
+        <v>1.000002207768743</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9999248513643628</v>
+        <v>1.000020815983862</v>
       </c>
       <c r="C192" t="n">
-        <v>6.442108631134033</v>
+        <v>5.212067604064941</v>
       </c>
       <c r="D192" t="n">
-        <v>14.64671993255615</v>
+        <v>20.15970802307129</v>
       </c>
       <c r="E192" t="n">
-        <v>2.984235286712646</v>
+        <v>-2.25833535194397</v>
       </c>
       <c r="F192" t="n">
-        <v>6.72716760635376</v>
+        <v>4.539500713348389</v>
       </c>
       <c r="G192" t="n">
-        <v>14.66256427764893</v>
+        <v>20.46305274963379</v>
       </c>
       <c r="H192" t="n">
-        <v>3.765345811843872</v>
+        <v>-3.049959182739258</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9999811322075577</v>
+        <v>0.9999996777598028</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9999918445091651</v>
+        <v>0.9999977786916022</v>
       </c>
       <c r="C193" t="n">
-        <v>6.767555236816406</v>
+        <v>6.409218788146973</v>
       </c>
       <c r="D193" t="n">
-        <v>10.67264080047607</v>
+        <v>18.38658332824707</v>
       </c>
       <c r="E193" t="n">
-        <v>2.721239805221558</v>
+        <v>-0.146917924284935</v>
       </c>
       <c r="F193" t="n">
-        <v>6.962249755859375</v>
+        <v>5.984568119049072</v>
       </c>
       <c r="G193" t="n">
-        <v>10.51314258575439</v>
+        <v>18.91496467590332</v>
       </c>
       <c r="H193" t="n">
-        <v>3.8961341381073</v>
+        <v>-0.8110326528549194</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999979424513982</v>
+        <v>1.000000060267162</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9999990569705615</v>
+        <v>1.000000354286698</v>
       </c>
       <c r="C194" t="n">
-        <v>6.598386287689209</v>
+        <v>7.202521324157715</v>
       </c>
       <c r="D194" t="n">
-        <v>5.985522747039795</v>
+        <v>15.66349315643311</v>
       </c>
       <c r="E194" t="n">
-        <v>2.241729021072388</v>
+        <v>1.380388736724854</v>
       </c>
       <c r="F194" t="n">
-        <v>6.760165214538574</v>
+        <v>7.017544269561768</v>
       </c>
       <c r="G194" t="n">
-        <v>5.749948501586914</v>
+        <v>16.40617179870605</v>
       </c>
       <c r="H194" t="n">
-        <v>3.584363460540771</v>
+        <v>0.850462794303894</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.999999729202804</v>
+        <v>0.9999999872413425</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9999998744733903</v>
+        <v>0.9999999312192768</v>
       </c>
       <c r="C195" t="n">
-        <v>6.001338481903076</v>
+        <v>7.679182052612305</v>
       </c>
       <c r="D195" t="n">
-        <v>1.29680061340332</v>
+        <v>12.21119022369385</v>
       </c>
       <c r="E195" t="n">
-        <v>1.683799147605896</v>
+        <v>2.412375926971436</v>
       </c>
       <c r="F195" t="n">
-        <v>6.263124942779541</v>
+        <v>7.695536613464355</v>
       </c>
       <c r="G195" t="n">
-        <v>1.143770098686218</v>
+        <v>13.10510540008545</v>
       </c>
       <c r="H195" t="n">
-        <v>2.771538257598877</v>
+        <v>2.00831127166748</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.999999954622009</v>
+        <v>1.000000002854873</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999999798822522</v>
+        <v>1.000000014686777</v>
       </c>
       <c r="C196" t="n">
-        <v>5.049684047698975</v>
+        <v>7.912103652954102</v>
       </c>
       <c r="D196" t="n">
-        <v>-3.031582117080688</v>
+        <v>8.246940612792969</v>
       </c>
       <c r="E196" t="n">
-        <v>0.9085922241210938</v>
+        <v>3.031776666641235</v>
       </c>
       <c r="F196" t="n">
-        <v>5.490869522094727</v>
+        <v>8.075039863586426</v>
       </c>
       <c r="G196" t="n">
-        <v>-3.050498962402344</v>
+        <v>9.203618049621582</v>
       </c>
       <c r="H196" t="n">
-        <v>1.410632371902466</v>
+        <v>2.742222785949707</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999999906110467</v>
+        <v>0.9999999993535383</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999999960926456</v>
+        <v>0.9999999967610239</v>
       </c>
       <c r="C197" t="n">
-        <v>4.008759021759033</v>
+        <v>7.963907241821289</v>
       </c>
       <c r="D197" t="n">
-        <v>-6.915313243865967</v>
+        <v>4.032328605651855</v>
       </c>
       <c r="E197" t="n">
-        <v>0.04668939486145973</v>
+        <v>3.303541898727417</v>
       </c>
       <c r="F197" t="n">
-        <v>4.52522611618042</v>
+        <v>8.212158203125</v>
       </c>
       <c r="G197" t="n">
-        <v>-6.960546493530273</v>
+        <v>4.962009429931641</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.01235544867813587</v>
+        <v>3.119272232055664</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999978339755</v>
+        <v>1.0000000001444</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999999991364792</v>
+        <v>1.000000000708985</v>
       </c>
       <c r="C198" t="n">
-        <v>3.379079103469849</v>
+        <v>7.904583930969238</v>
       </c>
       <c r="D198" t="n">
-        <v>-10.3524808883667</v>
+        <v>-0.1119683980941772</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.3023830950260162</v>
+        <v>3.272504329681396</v>
       </c>
       <c r="F198" t="n">
-        <v>3.763840675354004</v>
+        <v>8.179961204528809</v>
       </c>
       <c r="G198" t="n">
-        <v>-10.66876125335693</v>
+        <v>0.7204222083091736</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.4821367263793945</v>
+        <v>3.188421010971069</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9999999994915687</v>
+        <v>0.9999999999682638</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9999999997972325</v>
+        <v>0.9999999998479524</v>
       </c>
       <c r="C199" t="n">
-        <v>3.272404432296753</v>
+        <v>7.835206985473633</v>
       </c>
       <c r="D199" t="n">
-        <v>-13.18850040435791</v>
+        <v>-3.857110261917114</v>
       </c>
       <c r="E199" t="n">
-        <v>0.008704263716936111</v>
+        <v>2.950989484786987</v>
       </c>
       <c r="F199" t="n">
-        <v>3.370959281921387</v>
+        <v>8.093195915222168</v>
       </c>
       <c r="G199" t="n">
-        <v>-13.97161865234375</v>
+        <v>-3.162836313247681</v>
       </c>
       <c r="H199" t="n">
-        <v>0.1188322901725769</v>
+        <v>2.968809843063354</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.999999999880773</v>
+        <v>1.000000000007067</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9999999999510085</v>
+        <v>1.000000000032718</v>
       </c>
       <c r="C200" t="n">
-        <v>3.27850604057312</v>
+        <v>7.891330718994141</v>
       </c>
       <c r="D200" t="n">
-        <v>-14.62025165557861</v>
+        <v>-6.945143699645996</v>
       </c>
       <c r="E200" t="n">
-        <v>0.6838573813438416</v>
+        <v>2.310948610305786</v>
       </c>
       <c r="F200" t="n">
-        <v>3.177605152130127</v>
+        <v>8.107385635375977</v>
       </c>
       <c r="G200" t="n">
-        <v>-15.81001949310303</v>
+        <v>-6.405205249786377</v>
       </c>
       <c r="H200" t="n">
-        <v>1.04664671421051</v>
+        <v>2.439280033111572</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9999999999712662</v>
+        <v>0.9999999999983181</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9999999999880226</v>
+        <v>0.9999999999925464</v>
       </c>
       <c r="C201" t="n">
-        <v>3.106465101242065</v>
+        <v>8.18671703338623</v>
       </c>
       <c r="D201" t="n">
-        <v>-14.19317626953125</v>
+        <v>-9.223773956298828</v>
       </c>
       <c r="E201" t="n">
-        <v>1.528255224227905</v>
+        <v>1.321404695510864</v>
       </c>
       <c r="F201" t="n">
-        <v>3.096094846725464</v>
+        <v>8.354560852050781</v>
       </c>
       <c r="G201" t="n">
-        <v>-15.46542167663574</v>
+        <v>-8.841069221496582</v>
       </c>
       <c r="H201" t="n">
-        <v>1.728628754615784</v>
+        <v>1.568098425865173</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9999999999928195</v>
+        <v>1.000000000000446</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999999999970998</v>
+        <v>1.000000000001884</v>
       </c>
       <c r="C202" t="n">
-        <v>2.871087551116943</v>
+        <v>8.716710090637207</v>
       </c>
       <c r="D202" t="n">
-        <v>-12.51826095581055</v>
+        <v>-10.62644577026367</v>
       </c>
       <c r="E202" t="n">
-        <v>2.161357641220093</v>
+        <v>0.03160453215241432</v>
       </c>
       <c r="F202" t="n">
-        <v>3.16254997253418</v>
+        <v>8.842508316040039</v>
       </c>
       <c r="G202" t="n">
-        <v>-13.56725215911865</v>
+        <v>-10.39811134338379</v>
       </c>
       <c r="H202" t="n">
-        <v>1.95482873916626</v>
+        <v>0.3910620212554932</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.9999999999982924</v>
+        <v>0.9999999999998677</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9999999999993636</v>
+        <v>0.9999999999994691</v>
       </c>
       <c r="C203" t="n">
-        <v>3.190735578536987</v>
+        <v>9.318112373352051</v>
       </c>
       <c r="D203" t="n">
-        <v>-10.63463020324707</v>
+        <v>-11.14776992797852</v>
       </c>
       <c r="E203" t="n">
-        <v>1.848659753799438</v>
+        <v>-1.379281163215637</v>
       </c>
       <c r="F203" t="n">
-        <v>3.808453559875488</v>
+        <v>9.412096977233887</v>
       </c>
       <c r="G203" t="n">
-        <v>-11.28353023529053</v>
+        <v>-11.06852149963379</v>
       </c>
       <c r="H203" t="n">
-        <v>1.580080628395081</v>
+        <v>-0.9335067272186279</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9999999999996977</v>
+        <v>1.000000000000042</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9999999999998981</v>
+        <v>1.00000000000016</v>
       </c>
       <c r="C204" t="n">
-        <v>4.799998760223389</v>
+        <v>9.739204406738281</v>
       </c>
       <c r="D204" t="n">
-        <v>-8.939708709716797</v>
+        <v>-10.84454536437988</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.09037108719348907</v>
+        <v>-2.651431322097778</v>
       </c>
       <c r="F204" t="n">
-        <v>5.496438503265381</v>
+        <v>9.803718566894531</v>
       </c>
       <c r="G204" t="n">
-        <v>-9.278125762939453</v>
+        <v>-10.90664005279541</v>
       </c>
       <c r="H204" t="n">
-        <v>0.3350095748901367</v>
+        <v>-2.161948919296265</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.9999999999999746</v>
+        <v>0.9999999999999866</v>
       </c>
       <c r="B205" t="n">
-        <v>0.999999999999991</v>
+        <v>0.9999999999999518</v>
       </c>
       <c r="C205" t="n">
-        <v>7.262104988098145</v>
+        <v>9.756174087524414</v>
       </c>
       <c r="D205" t="n">
-        <v>-7.211347579956055</v>
+        <v>-9.85089111328125</v>
       </c>
       <c r="E205" t="n">
-        <v>-3.238630533218384</v>
+        <v>-3.547884702682495</v>
       </c>
       <c r="F205" t="n">
-        <v>7.540053367614746</v>
+        <v>9.778050422668457</v>
       </c>
       <c r="G205" t="n">
-        <v>-7.689558506011963</v>
+        <v>-10.03757858276367</v>
       </c>
       <c r="H205" t="n">
-        <v>-1.818248271942139</v>
+        <v>-3.06211256980896</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_typical_lstm.xlsx
+++ b/Predictions/PV_typical_lstm.xlsx
@@ -483,5300 +483,5300 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.589800596237183</v>
+        <v>44.57532501220703</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.136505365371704</v>
+        <v>16.6346435546875</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.459097146987915</v>
+        <v>-31.48458862304688</v>
       </c>
       <c r="F2" t="n">
-        <v>3.896192073822021</v>
+        <v>42.77738189697266</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.013406038284302</v>
+        <v>18.52597999572754</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.376617193222046</v>
+        <v>-19.72320556640625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.09624582529067993</v>
+        <v>-0.02322611302137375</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.08734652400016785</v>
+        <v>0.008360714819282293</v>
       </c>
       <c r="C3" t="n">
-        <v>7.09763765335083</v>
+        <v>44.57532501220703</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.383066296577454</v>
+        <v>18.76743316650391</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.122012138366699</v>
+        <v>-30.20091819763184</v>
       </c>
       <c r="F3" t="n">
-        <v>7.121465682983398</v>
+        <v>42.04008102416992</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.62699830532074</v>
+        <v>19.74335670471191</v>
       </c>
       <c r="H3" t="n">
-        <v>-6.14042854309082</v>
+        <v>-19.72320556640625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.156037300825119</v>
+        <v>-0.006596193546429277</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1338598877191544</v>
+        <v>0.01469534773379564</v>
       </c>
       <c r="C4" t="n">
-        <v>9.276836395263672</v>
+        <v>44.10194396972656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4971717596054077</v>
+        <v>20.44236373901367</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.87258768081665</v>
+        <v>-26.00321197509766</v>
       </c>
       <c r="F4" t="n">
-        <v>8.838973045349121</v>
+        <v>41.48145294189453</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3472168743610382</v>
+        <v>21.33345794677734</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.182774543762207</v>
+        <v>-19.63864326477051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1762899458408356</v>
+        <v>0.01248813599348068</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1413371413946152</v>
+        <v>0.03265415009111166</v>
       </c>
       <c r="C5" t="n">
-        <v>10.01497745513916</v>
+        <v>42.30117797851562</v>
       </c>
       <c r="D5" t="n">
-        <v>2.531680583953857</v>
+        <v>20.44236373901367</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.037868976593018</v>
+        <v>-21.70505142211914</v>
       </c>
       <c r="F5" t="n">
-        <v>9.115071296691895</v>
+        <v>38.54831695556641</v>
       </c>
       <c r="G5" t="n">
-        <v>1.207306742668152</v>
+        <v>21.33345794677734</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.761144161224365</v>
+        <v>-17.30145645141602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1658759415149689</v>
+        <v>0.03261744197458029</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1228879243135452</v>
+        <v>0.06325786598026753</v>
       </c>
       <c r="C6" t="n">
-        <v>9.635421752929688</v>
+        <v>38.69705581665039</v>
       </c>
       <c r="D6" t="n">
-        <v>3.816953420639038</v>
+        <v>21.32942199707031</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.40206241607666</v>
+        <v>-18.07215881347656</v>
       </c>
       <c r="F6" t="n">
-        <v>8.433833122253418</v>
+        <v>36.63195037841797</v>
       </c>
       <c r="G6" t="n">
-        <v>2.350364208221436</v>
+        <v>22.15726089477539</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.491132259368896</v>
+        <v>-14.22057151794434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1361077129840851</v>
+        <v>0.0687510484457016</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.09066913276910782</v>
+        <v>0.0914177180826664</v>
       </c>
       <c r="C7" t="n">
-        <v>8.550470352172852</v>
+        <v>36.71006011962891</v>
       </c>
       <c r="D7" t="n">
-        <v>4.017989635467529</v>
+        <v>19.46615600585938</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.627624273300171</v>
+        <v>-14.70358467102051</v>
       </c>
       <c r="F7" t="n">
-        <v>7.244153022766113</v>
+        <v>35.10457229614258</v>
       </c>
       <c r="G7" t="n">
-        <v>2.722794771194458</v>
+        <v>22.75563430786133</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.88507080078125</v>
+        <v>-10.32971572875977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.09588403254747391</v>
+        <v>0.09280014827847481</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.05240996181964874</v>
+        <v>0.1043266706168652</v>
       </c>
       <c r="C8" t="n">
-        <v>7.084451675415039</v>
+        <v>33.93581771850586</v>
       </c>
       <c r="D8" t="n">
-        <v>3.275211572647095</v>
+        <v>18.28792572021484</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.068902373313904</v>
+        <v>-11.7465648651123</v>
       </c>
       <c r="F8" t="n">
-        <v>5.831431865692139</v>
+        <v>33.15647125244141</v>
       </c>
       <c r="G8" t="n">
-        <v>2.337496519088745</v>
+        <v>21.79647636413574</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.267614364624023</v>
+        <v>-7.075088024139404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.05147905275225639</v>
+        <v>0.1305444951355457</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.01277587842196226</v>
+        <v>0.1311882929503918</v>
       </c>
       <c r="C9" t="n">
-        <v>5.466039180755615</v>
+        <v>31.36453247070312</v>
       </c>
       <c r="D9" t="n">
-        <v>1.933935642242432</v>
+        <v>18.28792572021484</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1513270735740662</v>
+        <v>-9.053489685058594</v>
       </c>
       <c r="F9" t="n">
-        <v>4.367941856384277</v>
+        <v>30.98913764953613</v>
       </c>
       <c r="G9" t="n">
-        <v>1.416841387748718</v>
+        <v>20.19652557373047</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.8298848867416382</v>
+        <v>-5.418384552001953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.007584241218864918</v>
+        <v>0.1556437566876412</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02516554854810238</v>
+        <v>0.1582510122656822</v>
       </c>
       <c r="C10" t="n">
-        <v>3.866220712661743</v>
+        <v>28.88368034362793</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3496668338775635</v>
+        <v>16.72808837890625</v>
       </c>
       <c r="E10" t="n">
-        <v>1.02127480506897</v>
+        <v>-6.578370571136475</v>
       </c>
       <c r="F10" t="n">
-        <v>2.966953277587891</v>
+        <v>28.70307540893555</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2223381251096725</v>
+        <v>18.61480140686035</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3204413056373596</v>
+        <v>-3.802824974060059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0327754020690918</v>
+        <v>0.1809771746397019</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05974367633461952</v>
+        <v>0.1855204358696938</v>
       </c>
       <c r="C11" t="n">
-        <v>2.395247220993042</v>
+        <v>26.88778495788574</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.209973692893982</v>
+        <v>15.52697944641113</v>
       </c>
       <c r="E11" t="n">
-        <v>1.579397797584534</v>
+        <v>-5.351638793945312</v>
       </c>
       <c r="F11" t="n">
-        <v>1.690154552459717</v>
+        <v>26.34469223022461</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.037554144859314</v>
+        <v>17.21750640869141</v>
       </c>
       <c r="H11" t="n">
-        <v>1.147031188011169</v>
+        <v>-2.161551713943481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.06873130798339844</v>
+        <v>0.1969899532198906</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09083543717861176</v>
+        <v>0.2130836823582649</v>
       </c>
       <c r="C12" t="n">
-        <v>1.08477509021759</v>
+        <v>24.58975601196289</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.597103595733643</v>
+        <v>14.42952728271484</v>
       </c>
       <c r="E12" t="n">
-        <v>1.909558057785034</v>
+        <v>-3.122378826141357</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5420901775360107</v>
+        <v>23.48140335083008</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.235184192657471</v>
+        <v>15.74252510070801</v>
       </c>
       <c r="H12" t="n">
-        <v>1.692103266716003</v>
+        <v>-1.058617830276489</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1015374660491943</v>
+        <v>0.2245462024211884</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1198324635624886</v>
+        <v>0.2512777826189995</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.11089888215065</v>
+        <v>22.10998153686523</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.775038957595825</v>
+        <v>13.20795822143555</v>
       </c>
       <c r="E13" t="n">
-        <v>2.144755125045776</v>
+        <v>-1.654360294342041</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5286259651184082</v>
+        <v>21.34421539306641</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.321832418441772</v>
+        <v>14.72995471954346</v>
       </c>
       <c r="H13" t="n">
-        <v>2.068876028060913</v>
+        <v>-0.05575516819953918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1335308402776718</v>
+        <v>0.2527527096867562</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1488481760025024</v>
+        <v>0.2672789990901947</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.276949882507324</v>
+        <v>19.68100357055664</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.7861328125</v>
+        <v>12.20888233184814</v>
       </c>
       <c r="E14" t="n">
-        <v>2.431063413619995</v>
+        <v>1.081446170806885</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.600032210350037</v>
+        <v>18.63929557800293</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.309439659118652</v>
+        <v>13.52504348754883</v>
       </c>
       <c r="H14" t="n">
-        <v>2.412886381149292</v>
+        <v>0.9507333040237427</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1664770394563675</v>
+        <v>0.2779564172029496</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1793236285448074</v>
+        <v>0.3043896096944809</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.477728128433228</v>
+        <v>17.30145263671875</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.707343101501465</v>
+        <v>11.20184898376465</v>
       </c>
       <c r="E15" t="n">
-        <v>2.859694480895996</v>
+        <v>3.502781391143799</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.725339651107788</v>
+        <v>16.14787864685059</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.242432594299316</v>
+        <v>11.73648071289062</v>
       </c>
       <c r="H15" t="n">
-        <v>2.813885450363159</v>
+        <v>2.956245183944702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2007930874824524</v>
+        <v>0.302650870680809</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2114460170269012</v>
+        <v>0.3302202773094177</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.728433132171631</v>
+        <v>14.53705024719238</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.599595069885254</v>
+        <v>9.241763114929199</v>
       </c>
       <c r="E16" t="n">
-        <v>3.437981843948364</v>
+        <v>5.705025196075439</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.911460161209106</v>
+        <v>13.79623222351074</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.160928726196289</v>
+        <v>11.73648071289062</v>
       </c>
       <c r="H16" t="n">
-        <v>3.29433012008667</v>
+        <v>2.956245183944702</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2359686344861984</v>
+        <v>0.3360262882709503</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2446026355028152</v>
+        <v>0.355302124619484</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.010464191436768</v>
+        <v>12.35934162139893</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.470071315765381</v>
+        <v>8.46336841583252</v>
       </c>
       <c r="E17" t="n">
-        <v>4.121394634246826</v>
+        <v>7.76307487487793</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.135769367218018</v>
+        <v>11.66246700286865</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.065323829650879</v>
+        <v>9.791769981384277</v>
       </c>
       <c r="H17" t="n">
-        <v>3.841729402542114</v>
+        <v>4.596490383148193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2710737884044647</v>
+        <v>0.3528876972198486</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2778102159500122</v>
+        <v>0.3770275485515595</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.289928436279297</v>
+        <v>10.08095264434814</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.277377128601074</v>
+        <v>7.561182975769043</v>
       </c>
       <c r="E18" t="n">
-        <v>4.854634284973145</v>
+        <v>7.76307487487793</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.361960411071777</v>
+        <v>9.71587085723877</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.914526462554932</v>
+        <v>7.881020545959473</v>
       </c>
       <c r="H18" t="n">
-        <v>4.438473224639893</v>
+        <v>7.458581924438477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3050320744514465</v>
+        <v>0.3781008344888687</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3099468052387238</v>
+        <v>0.3969787573814392</v>
       </c>
       <c r="C19" t="n">
-        <v>-7.527594566345215</v>
+        <v>8.522717475891113</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.972363471984863</v>
+        <v>6.85145092010498</v>
       </c>
       <c r="E19" t="n">
-        <v>5.59133243560791</v>
+        <v>11.60489940643311</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.548605442047119</v>
+        <v>7.979160308837891</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.660113334655762</v>
+        <v>8.251326560974121</v>
       </c>
       <c r="H19" t="n">
-        <v>5.068922519683838</v>
+        <v>9.327085494995117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3370036780834198</v>
+        <v>0.3869827455282212</v>
       </c>
       <c r="B20" t="n">
-        <v>0.340154230594635</v>
+        <v>0.4142923837900162</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.692851066589355</v>
+        <v>6.311867713928223</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.527608871459961</v>
+        <v>7.254521369934082</v>
       </c>
       <c r="E20" t="n">
-        <v>6.301298141479492</v>
+        <v>11.60489940643311</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.66401481628418</v>
+        <v>6.880180358886719</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.272426605224609</v>
+        <v>8.028862953186035</v>
       </c>
       <c r="H20" t="n">
-        <v>5.720181941986084</v>
+        <v>11.24228858947754</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.366799533367157</v>
+        <v>0.4173294591903687</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3682639598846436</v>
+        <v>0.419522784948349</v>
       </c>
       <c r="C21" t="n">
-        <v>-9.778810501098633</v>
+        <v>4.85204029083252</v>
       </c>
       <c r="D21" t="n">
-        <v>-9.93939208984375</v>
+        <v>6.754996299743652</v>
       </c>
       <c r="E21" t="n">
-        <v>6.97410249710083</v>
+        <v>13.16309928894043</v>
       </c>
       <c r="F21" t="n">
-        <v>-9.701967239379883</v>
+        <v>5.627863883972168</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.742115020751953</v>
+        <v>7.159176826477051</v>
       </c>
       <c r="H21" t="n">
-        <v>6.386431217193604</v>
+        <v>12.31475830078125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3950105607509613</v>
+        <v>0.4248412919044495</v>
       </c>
       <c r="B22" t="n">
-        <v>0.394881010055542</v>
+        <v>0.435462384223938</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.8070068359375</v>
+        <v>3.254693984985352</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.21933460235596</v>
+        <v>6.739806175231934</v>
       </c>
       <c r="E22" t="n">
-        <v>7.617464065551758</v>
+        <v>14.68443298339844</v>
       </c>
       <c r="F22" t="n">
-        <v>-10.6848030090332</v>
+        <v>3.959038019180298</v>
       </c>
       <c r="G22" t="n">
-        <v>-10.07289123535156</v>
+        <v>8.46901798248291</v>
       </c>
       <c r="H22" t="n">
-        <v>7.07503604888916</v>
+        <v>14.95176696777344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4224987030029297</v>
+        <v>0.4432271933555603</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4208609461784363</v>
+        <v>0.459109297990799</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.80885791778564</v>
+        <v>1.598412871360779</v>
       </c>
       <c r="D23" t="n">
-        <v>-10.37852478027344</v>
+        <v>6.792101860046387</v>
       </c>
       <c r="E23" t="n">
-        <v>8.23769474029541</v>
+        <v>15.73134803771973</v>
       </c>
       <c r="F23" t="n">
-        <v>-11.64411354064941</v>
+        <v>2.496415138244629</v>
       </c>
       <c r="G23" t="n">
-        <v>-10.26859664916992</v>
+        <v>9.191678047180176</v>
       </c>
       <c r="H23" t="n">
-        <v>7.794342041015625</v>
+        <v>17.29179382324219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4494524300098419</v>
+        <v>0.4614048820734024</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4464196264743805</v>
+        <v>0.4733566278219223</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.79123020172119</v>
+        <v>-0.5311946272850037</v>
       </c>
       <c r="D24" t="n">
-        <v>-10.40860748291016</v>
+        <v>7.298022270202637</v>
       </c>
       <c r="E24" t="n">
-        <v>8.80109691619873</v>
+        <v>16.54777526855469</v>
       </c>
       <c r="F24" t="n">
-        <v>-12.58786964416504</v>
+        <v>1.195277452468872</v>
       </c>
       <c r="G24" t="n">
-        <v>-10.31907749176025</v>
+        <v>10.29099559783936</v>
       </c>
       <c r="H24" t="n">
-        <v>8.514044761657715</v>
+        <v>19.25475311279297</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4749807119369507</v>
+        <v>0.4889904946088791</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4707618951797485</v>
+        <v>0.4862798750400543</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.72165107727051</v>
+        <v>-1.894223809242249</v>
       </c>
       <c r="D25" t="n">
-        <v>-10.27207088470459</v>
+        <v>8.224222183227539</v>
       </c>
       <c r="E25" t="n">
-        <v>9.211288452148438</v>
+        <v>16.91273880004883</v>
       </c>
       <c r="F25" t="n">
-        <v>-13.48670768737793</v>
+        <v>0.03475987911224365</v>
       </c>
       <c r="G25" t="n">
-        <v>-10.19157123565674</v>
+        <v>11.5760440826416</v>
       </c>
       <c r="H25" t="n">
-        <v>9.135495185852051</v>
+        <v>19.25475311279297</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4975656569004059</v>
+        <v>0.4953116196393967</v>
       </c>
       <c r="B26" t="n">
-        <v>0.49259352684021</v>
+        <v>0.497845111489296</v>
       </c>
       <c r="C26" t="n">
-        <v>-14.54479789733887</v>
+        <v>-3.229013919830322</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.905423164367676</v>
+        <v>9.453692436218262</v>
       </c>
       <c r="E26" t="n">
-        <v>9.326883316040039</v>
+        <v>14.17936038970947</v>
       </c>
       <c r="F26" t="n">
-        <v>-14.2928409576416</v>
+        <v>-1.206083297729492</v>
       </c>
       <c r="G26" t="n">
-        <v>-9.832405090332031</v>
+        <v>13.27088737487793</v>
       </c>
       <c r="H26" t="n">
-        <v>9.50745964050293</v>
+        <v>20.9858341217041</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5155856609344482</v>
+        <v>0.509158319234848</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5107207298278809</v>
+        <v>0.5128266668319702</v>
       </c>
       <c r="C27" t="n">
-        <v>-15.20156669616699</v>
+        <v>-4.879702568054199</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.229470252990723</v>
+        <v>11.1125373840332</v>
       </c>
       <c r="E27" t="n">
-        <v>8.981062889099121</v>
+        <v>12.2017993927002</v>
       </c>
       <c r="F27" t="n">
-        <v>-14.96218967437744</v>
+        <v>-1.206083297729492</v>
       </c>
       <c r="G27" t="n">
-        <v>-9.177532196044922</v>
+        <v>15.78163146972656</v>
       </c>
       <c r="H27" t="n">
-        <v>9.451160430908203</v>
+        <v>19.55657005310059</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5272534489631653</v>
+        <v>0.53</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5239043831825256</v>
+        <v>0.5119125020503998</v>
       </c>
       <c r="C28" t="n">
-        <v>-15.62681770324707</v>
+        <v>-4.879702568054199</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.144057273864746</v>
+        <v>13.18332576751709</v>
       </c>
       <c r="E28" t="n">
-        <v>7.949543952941895</v>
+        <v>7.416179656982422</v>
       </c>
       <c r="F28" t="n">
-        <v>-15.44899845123291</v>
+        <v>-2.366308689117432</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.14372730255127</v>
+        <v>17.43972015380859</v>
       </c>
       <c r="H28" t="n">
-        <v>8.728645324707031</v>
+        <v>16.52360725402832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.5260204863548279</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.53</v>
       </c>
       <c r="C29" t="n">
-        <v>-15.72691822052002</v>
+        <v>-6.154891490936279</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.500205516815186</v>
+        <v>15.52192687988281</v>
       </c>
       <c r="E29" t="n">
-        <v>5.873716354370117</v>
+        <v>-0.1582300662994385</v>
       </c>
       <c r="F29" t="n">
-        <v>-15.67407608032227</v>
+        <v>-3.961378574371338</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.592529773712158</v>
+        <v>20.15017318725586</v>
       </c>
       <c r="H29" t="n">
-        <v>6.963007926940918</v>
+        <v>9.970961570739746</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5197742581367493</v>
+        <v>0.5289575779438019</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5247966647148132</v>
+        <v>0.5181440681219102</v>
       </c>
       <c r="C30" t="n">
-        <v>-15.35422420501709</v>
+        <v>-6.432031154632568</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.105648040771484</v>
+        <v>19.60211944580078</v>
       </c>
       <c r="E30" t="n">
-        <v>2.243568181991577</v>
+        <v>-11.23617172241211</v>
       </c>
       <c r="F30" t="n">
-        <v>-15.48194408416748</v>
+        <v>-2.915846347808838</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.322402954101562</v>
+        <v>24.25792503356934</v>
       </c>
       <c r="H30" t="n">
-        <v>3.62364673614502</v>
+        <v>0.4917101860046387</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4917354881763458</v>
+        <v>0.510180333852768</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5021874308586121</v>
+        <v>0.5170471841096879</v>
       </c>
       <c r="C31" t="n">
-        <v>-14.33230686187744</v>
+        <v>-3.479353427886963</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.8836183547973633</v>
+        <v>24.31168174743652</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.244805812835693</v>
+        <v>-25.30944061279297</v>
       </c>
       <c r="F31" t="n">
-        <v>-14.64709758758545</v>
+        <v>-1.671346187591553</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.203672409057617</v>
+        <v>29.30773162841797</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.620538353919983</v>
+        <v>-10.94549179077148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4453779458999634</v>
+        <v>0.4851504844427109</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4603877663612366</v>
+        <v>0.4910165804624558</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.64272975921631</v>
+        <v>-1.439364314079285</v>
       </c>
       <c r="D32" t="n">
-        <v>2.890641450881958</v>
+        <v>31.10240936279297</v>
       </c>
       <c r="E32" t="n">
-        <v>-9.779623031616211</v>
+        <v>-42.3912353515625</v>
       </c>
       <c r="F32" t="n">
-        <v>-13.1036434173584</v>
+        <v>1.112432479858398</v>
       </c>
       <c r="G32" t="n">
-        <v>2.5472571849823</v>
+        <v>35.58379364013672</v>
       </c>
       <c r="H32" t="n">
-        <v>-7.987574100494385</v>
+        <v>-23.6504020690918</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3869597613811493</v>
+        <v>0.4544262331724167</v>
       </c>
       <c r="B33" t="n">
-        <v>0.406604528427124</v>
+        <v>0.4408978706598282</v>
       </c>
       <c r="C33" t="n">
-        <v>-10.51358318328857</v>
+        <v>1.939413785934448</v>
       </c>
       <c r="D33" t="n">
-        <v>6.793174266815186</v>
+        <v>38.55294036865234</v>
       </c>
       <c r="E33" t="n">
-        <v>-15.33337783813477</v>
+        <v>-55.73432159423828</v>
       </c>
       <c r="F33" t="n">
-        <v>-11.11769485473633</v>
+        <v>4.296952247619629</v>
       </c>
       <c r="G33" t="n">
-        <v>6.441459178924561</v>
+        <v>42.81906127929688</v>
       </c>
       <c r="H33" t="n">
-        <v>-13.44584941864014</v>
+        <v>-34.68646240234375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3198808431625366</v>
+        <v>0.4044299679994584</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6121607504791925</v>
+        <v>0.5777804638206865</v>
       </c>
       <c r="C34" t="n">
-        <v>-8.068780899047852</v>
+        <v>6.953619480133057</v>
       </c>
       <c r="D34" t="n">
-        <v>10.79154491424561</v>
+        <v>47.24931335449219</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.21404457092285</v>
+        <v>-61.61735153198242</v>
       </c>
       <c r="F34" t="n">
-        <v>-8.894803047180176</v>
+        <v>9.095296859741211</v>
       </c>
       <c r="G34" t="n">
-        <v>10.20341777801514</v>
+        <v>50.14039611816406</v>
       </c>
       <c r="H34" t="n">
-        <v>-16.27648162841797</v>
+        <v>-38.56329345703125</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6889606393344307</v>
+        <v>0.6247258881350938</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7954854266320259</v>
+        <v>0.7390756752675264</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.244328022003174</v>
+        <v>12.39503192901611</v>
       </c>
       <c r="D35" t="n">
-        <v>15.23029613494873</v>
+        <v>54.85890197753906</v>
       </c>
       <c r="E35" t="n">
-        <v>-17.88064002990723</v>
+        <v>-58.43009185791016</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.423560619354248</v>
+        <v>13.82062816619873</v>
       </c>
       <c r="G35" t="n">
-        <v>13.92342567443848</v>
+        <v>57.44965744018555</v>
       </c>
       <c r="H35" t="n">
-        <v>-16.03057861328125</v>
+        <v>-37.14342498779297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9099913958772128</v>
+        <v>0.8075744345572263</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9212819500235075</v>
+        <v>0.8647253954512415</v>
       </c>
       <c r="C36" t="n">
-        <v>-2.000073671340942</v>
+        <v>18.04976844787598</v>
       </c>
       <c r="D36" t="n">
-        <v>19.95928955078125</v>
+        <v>61.37410736083984</v>
       </c>
       <c r="E36" t="n">
-        <v>-14.82802486419678</v>
+        <v>-50.1121940612793</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.636441469192505</v>
+        <v>18.95588874816895</v>
       </c>
       <c r="G36" t="n">
-        <v>17.63402366638184</v>
+        <v>62.82434844970703</v>
       </c>
       <c r="H36" t="n">
-        <v>-13.3708324432373</v>
+        <v>-32.05435180664062</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9897828556026327</v>
+        <v>0.9239106763654505</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9818293363699067</v>
+        <v>0.9459169916545842</v>
       </c>
       <c r="C37" t="n">
-        <v>1.397102355957031</v>
+        <v>23.38709449768066</v>
       </c>
       <c r="D37" t="n">
-        <v>23.8437328338623</v>
+        <v>65.14924621582031</v>
       </c>
       <c r="E37" t="n">
-        <v>-10.39775657653809</v>
+        <v>-39.5438346862793</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6212570071220398</v>
+        <v>23.5367374420166</v>
       </c>
       <c r="G37" t="n">
-        <v>20.79449462890625</v>
+        <v>66.36549377441406</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.580893516540527</v>
+        <v>-25.27837944030762</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.000474702763523</v>
+        <v>0.9775503202651655</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9985422698670102</v>
+        <v>0.9830366525721204</v>
       </c>
       <c r="C38" t="n">
-        <v>4.487282276153564</v>
+        <v>28.09052276611328</v>
       </c>
       <c r="D38" t="n">
-        <v>25.78780174255371</v>
+        <v>66.63694763183594</v>
       </c>
       <c r="E38" t="n">
-        <v>-5.957952499389648</v>
+        <v>-30.09280967712402</v>
       </c>
       <c r="F38" t="n">
-        <v>2.326179504394531</v>
+        <v>27.55318260192871</v>
       </c>
       <c r="G38" t="n">
-        <v>22.64306259155273</v>
+        <v>68.19408416748047</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.812849521636963</v>
+        <v>-19.52145385742188</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9999171701126042</v>
+        <v>0.9952031933824339</v>
       </c>
       <c r="B39" t="n">
-        <v>1.000072755785621</v>
+        <v>0.9959322622263781</v>
       </c>
       <c r="C39" t="n">
-        <v>6.960334300994873</v>
+        <v>32.1132698059082</v>
       </c>
       <c r="D39" t="n">
-        <v>25.56646728515625</v>
+        <v>66.63694763183594</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.257943630218506</v>
+        <v>-20.35467147827148</v>
       </c>
       <c r="F39" t="n">
-        <v>4.872950553894043</v>
+        <v>31.43318939208984</v>
       </c>
       <c r="G39" t="n">
-        <v>22.81848526000977</v>
+        <v>67.17627716064453</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.700257062911987</v>
+        <v>-13.2750244140625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.000022077672455</v>
+        <v>0.9992956308689603</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9999891117289486</v>
+        <v>0.9993503819701886</v>
       </c>
       <c r="C40" t="n">
-        <v>8.738524436950684</v>
+        <v>34.70076751708984</v>
       </c>
       <c r="D40" t="n">
-        <v>23.51638412475586</v>
+        <v>62.55733489990234</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5181972980499268</v>
+        <v>-12.81850147247314</v>
       </c>
       <c r="F40" t="n">
-        <v>6.824981689453125</v>
+        <v>34.29127502441406</v>
       </c>
       <c r="G40" t="n">
-        <v>21.38805389404297</v>
+        <v>64.66719818115234</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.4192726016044617</v>
+        <v>-9.222001075744629</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999927929132318</v>
+        <v>0.9999127984896857</v>
       </c>
       <c r="B41" t="n">
-        <v>1.000002370478228</v>
+        <v>0.9999217766700924</v>
       </c>
       <c r="C41" t="n">
-        <v>9.895595550537109</v>
+        <v>36.73772430419922</v>
       </c>
       <c r="D41" t="n">
-        <v>20.07045936584473</v>
+        <v>58.01882934570312</v>
       </c>
       <c r="E41" t="n">
-        <v>2.478496313095093</v>
+        <v>-8.432401657104492</v>
       </c>
       <c r="F41" t="n">
-        <v>8.156822204589844</v>
+        <v>36.10892486572266</v>
       </c>
       <c r="G41" t="n">
-        <v>18.59187507629395</v>
+        <v>59.91000747680664</v>
       </c>
       <c r="H41" t="n">
-        <v>1.129439830780029</v>
+        <v>-6.02670431137085</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.000002602098723</v>
+        <v>0.9999917962167131</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9999993885269701</v>
+        <v>0.9999918815438387</v>
       </c>
       <c r="C42" t="n">
-        <v>10.56404876708984</v>
+        <v>38.30427169799805</v>
       </c>
       <c r="D42" t="n">
-        <v>15.62118434906006</v>
+        <v>51.47936248779297</v>
       </c>
       <c r="E42" t="n">
-        <v>3.775317430496216</v>
+        <v>-4.803554534912109</v>
       </c>
       <c r="F42" t="n">
-        <v>8.94441032409668</v>
+        <v>38.12355041503906</v>
       </c>
       <c r="G42" t="n">
-        <v>14.71098613739014</v>
+        <v>54.28871536254883</v>
       </c>
       <c r="H42" t="n">
-        <v>2.120880365371704</v>
+        <v>-3.721864700317383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999990128579376</v>
+        <v>0.9999994080146128</v>
       </c>
       <c r="B43" t="n">
-        <v>1.00000017006523</v>
+        <v>0.9999995415737004</v>
       </c>
       <c r="C43" t="n">
-        <v>10.91786479949951</v>
+        <v>39.65311431884766</v>
       </c>
       <c r="D43" t="n">
-        <v>10.58208274841309</v>
+        <v>43.87602233886719</v>
       </c>
       <c r="E43" t="n">
-        <v>4.486221790313721</v>
+        <v>-4.803554534912109</v>
       </c>
       <c r="F43" t="n">
-        <v>9.339150428771973</v>
+        <v>39.72051239013672</v>
       </c>
       <c r="G43" t="n">
-        <v>10.09004688262939</v>
+        <v>47.81186676025391</v>
       </c>
       <c r="H43" t="n">
-        <v>2.67732834815979</v>
+        <v>-1.578917384147644</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.000000388106105</v>
+        <v>0.9999999706720343</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999999507568929</v>
+        <v>0.9999999856807984</v>
       </c>
       <c r="C44" t="n">
-        <v>11.18438816070557</v>
+        <v>40.82315826416016</v>
       </c>
       <c r="D44" t="n">
-        <v>5.426871776580811</v>
+        <v>36.14080047607422</v>
       </c>
       <c r="E44" t="n">
-        <v>4.602484226226807</v>
+        <v>-5.922955513000488</v>
       </c>
       <c r="F44" t="n">
-        <v>9.562846183776855</v>
+        <v>40.99988174438477</v>
       </c>
       <c r="G44" t="n">
-        <v>5.157915592193604</v>
+        <v>41.66461944580078</v>
       </c>
       <c r="H44" t="n">
-        <v>2.820407867431641</v>
+        <v>-1.578917384147644</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999998390663168</v>
+        <v>0.9999999991283512</v>
       </c>
       <c r="B45" t="n">
-        <v>1.000000014963262</v>
+        <v>0.9999999998473893</v>
       </c>
       <c r="C45" t="n">
-        <v>11.59975147247314</v>
+        <v>40.82315826416016</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6301077604293823</v>
+        <v>29.36025619506836</v>
       </c>
       <c r="E45" t="n">
-        <v>4.071874618530273</v>
+        <v>-9.673940658569336</v>
       </c>
       <c r="F45" t="n">
-        <v>9.842913627624512</v>
+        <v>42.0430793762207</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3674428761005402</v>
+        <v>35.4459228515625</v>
       </c>
       <c r="H45" t="n">
-        <v>2.489931344985962</v>
+        <v>-2.070968627929688</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.000000072232261</v>
+        <v>0.9999999999876404</v>
       </c>
       <c r="B46" t="n">
-        <v>0.999999995127117</v>
+        <v>1.000000000001009</v>
       </c>
       <c r="C46" t="n">
-        <v>12.2597713470459</v>
+        <v>42.77042388916016</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.425221920013428</v>
+        <v>22.72255516052246</v>
       </c>
       <c r="E46" t="n">
-        <v>2.91100001335144</v>
+        <v>-13.80857563018799</v>
       </c>
       <c r="F46" t="n">
-        <v>10.26937675476074</v>
+        <v>42.0430793762207</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.886389255523682</v>
+        <v>28.92847442626953</v>
       </c>
       <c r="H46" t="n">
-        <v>1.656620502471924</v>
+        <v>-4.945976257324219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999648136076</v>
+        <v>0.9999999999998163</v>
       </c>
       <c r="B47" t="n">
-        <v>1.000000001696319</v>
+        <v>0.9999999999999826</v>
       </c>
       <c r="C47" t="n">
-        <v>12.99952507019043</v>
+        <v>42.73592758178711</v>
       </c>
       <c r="D47" t="n">
-        <v>-6.499071598052979</v>
+        <v>17.86500358581543</v>
       </c>
       <c r="E47" t="n">
-        <v>1.339474081993103</v>
+        <v>-16.78289794921875</v>
       </c>
       <c r="F47" t="n">
-        <v>10.70887851715088</v>
+        <v>43.5869255065918</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.303493499755859</v>
+        <v>23.33540344238281</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4678519368171692</v>
+        <v>-7.149872303009033</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.000000018196212</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9999999993870414</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>13.57920551300049</v>
+        <v>43.58948135375977</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.517281532287598</v>
+        <v>13.62513637542725</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.3070466220378876</v>
+        <v>-18.85980987548828</v>
       </c>
       <c r="F48" t="n">
-        <v>10.96783447265625</v>
+        <v>43.62106704711914</v>
       </c>
       <c r="G48" t="n">
-        <v>-9.73310661315918</v>
+        <v>18.90376472473145</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.8117630481719971</v>
+        <v>-7.149872303009033</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9999999902501191</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>1.000000000222029</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>13.94007110595703</v>
+        <v>43.69182968139648</v>
       </c>
       <c r="D49" t="n">
-        <v>-9.538615226745605</v>
+        <v>10.86062812805176</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.830636620521545</v>
+        <v>-20.64032363891602</v>
       </c>
       <c r="F49" t="n">
-        <v>10.98503017425537</v>
+        <v>42.80806350708008</v>
       </c>
       <c r="G49" t="n">
-        <v>-11.20277976989746</v>
+        <v>16.42304420471191</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.023495197296143</v>
+        <v>-7.915503978729248</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.000000005259909</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9999999999229254</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>14.01086902618408</v>
+        <v>43.34545135498047</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.682138442993164</v>
+        <v>10.86062812805176</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.110077381134033</v>
+        <v>-22.50719451904297</v>
       </c>
       <c r="F50" t="n">
-        <v>10.68976879119873</v>
+        <v>43.50801467895508</v>
       </c>
       <c r="G50" t="n">
-        <v>-11.80351161956787</v>
+        <v>15.22101211547852</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.054350137710571</v>
+        <v>-8.741446495056152</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9999999973130794</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1.000000000023503</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>13.45736598968506</v>
+        <v>42.77493286132812</v>
       </c>
       <c r="D51" t="n">
-        <v>-9.17067813873291</v>
+        <v>10.42275619506836</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.88319993019104</v>
+        <v>-26.77426528930664</v>
       </c>
       <c r="F51" t="n">
-        <v>9.863882064819336</v>
+        <v>43.06579971313477</v>
       </c>
       <c r="G51" t="n">
-        <v>-11.617600440979</v>
+        <v>15.22101211547852</v>
       </c>
       <c r="H51" t="n">
-        <v>-3.642856359481812</v>
+        <v>-13.7878532409668</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.000000001160513</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9999999999946191</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>11.9329195022583</v>
+        <v>42.17818832397461</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.409417152404785</v>
+        <v>12.7271614074707</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.882633924484253</v>
+        <v>-28.07158279418945</v>
       </c>
       <c r="F52" t="n">
-        <v>8.376765251159668</v>
+        <v>42.41921234130859</v>
       </c>
       <c r="G52" t="n">
-        <v>-10.8201847076416</v>
+        <v>16.49882888793945</v>
       </c>
       <c r="H52" t="n">
-        <v>-3.532762765884399</v>
+        <v>-15.20054340362549</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.04926510155200958</v>
+        <v>0.0090196355804801</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04498085752129555</v>
+        <v>0.006442862330004573</v>
       </c>
       <c r="C53" t="n">
-        <v>1.79425311088562</v>
+        <v>44.15973663330078</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.108326435089111</v>
+        <v>16.15047454833984</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.843854546546936</v>
+        <v>-30.57056999206543</v>
       </c>
       <c r="F53" t="n">
-        <v>2.235272169113159</v>
+        <v>42.20920944213867</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.905879974365234</v>
+        <v>18.51047134399414</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.787757873535156</v>
+        <v>-18.5776538848877</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.02340654656291008</v>
+        <v>-0.02343702476471663</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.02646227180957794</v>
+        <v>0.004312962321564555</v>
       </c>
       <c r="C54" t="n">
-        <v>4.442890644073486</v>
+        <v>44.15973663330078</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.095031976699829</v>
+        <v>18.73497772216797</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.238107204437256</v>
+        <v>-30.57056999206543</v>
       </c>
       <c r="F54" t="n">
-        <v>4.873312473297119</v>
+        <v>42.39703750610352</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.903092861175537</v>
+        <v>19.94302368164062</v>
       </c>
       <c r="H54" t="n">
-        <v>-4.246716499328613</v>
+        <v>-20.15036582946777</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.08821538090705872</v>
+        <v>-0.007794149266555906</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.0861789658665657</v>
+        <v>0.01137747459113598</v>
       </c>
       <c r="C55" t="n">
-        <v>6.804955005645752</v>
+        <v>44.21498107910156</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.272113442420959</v>
+        <v>20.60473251342773</v>
       </c>
       <c r="E55" t="n">
-        <v>-5.711381912231445</v>
+        <v>-25.6448974609375</v>
       </c>
       <c r="F55" t="n">
-        <v>7.078353404998779</v>
+        <v>41.77404403686523</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.247456908226013</v>
+        <v>21.56251907348633</v>
       </c>
       <c r="H55" t="n">
-        <v>-5.975369930267334</v>
+        <v>-20.15036582946777</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.1256236135959625</v>
+        <v>0.01006663430482149</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1153108924627304</v>
+        <v>0.02855362325906754</v>
       </c>
       <c r="C56" t="n">
-        <v>8.168359756469727</v>
+        <v>41.51313400268555</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2284977436065674</v>
+        <v>20.60473251342773</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.694633960723877</v>
+        <v>-21.7288761138916</v>
       </c>
       <c r="F56" t="n">
-        <v>8.154050827026367</v>
+        <v>38.9401969909668</v>
       </c>
       <c r="G56" t="n">
-        <v>0.003976263571530581</v>
+        <v>21.56251907348633</v>
       </c>
       <c r="H56" t="n">
-        <v>-6.359474182128906</v>
+        <v>-17.09504890441895</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.1344762295484543</v>
+        <v>0.03161285344511271</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1155402585864067</v>
+        <v>0.05847084484994412</v>
       </c>
       <c r="C57" t="n">
-        <v>8.491007804870605</v>
+        <v>39.35647583007812</v>
       </c>
       <c r="D57" t="n">
-        <v>1.754295349121094</v>
+        <v>21.64399909973145</v>
       </c>
       <c r="E57" t="n">
-        <v>-4.585726261138916</v>
+        <v>-18.24536895751953</v>
       </c>
       <c r="F57" t="n">
-        <v>8.162520408630371</v>
+        <v>36.99808502197266</v>
       </c>
       <c r="G57" t="n">
-        <v>1.359761357307434</v>
+        <v>22.43879318237305</v>
       </c>
       <c r="H57" t="n">
-        <v>-5.670971393585205</v>
+        <v>-14.46335411071777</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.1220644488930702</v>
+        <v>0.0665517757833004</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.09669650346040726</v>
+        <v>0.08755787700414658</v>
       </c>
       <c r="C58" t="n">
-        <v>8.038640022277832</v>
+        <v>37.13505172729492</v>
       </c>
       <c r="D58" t="n">
-        <v>2.677775859832764</v>
+        <v>19.88082695007324</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.00797700881958</v>
+        <v>-14.90813732147217</v>
       </c>
       <c r="F58" t="n">
-        <v>7.466713905334473</v>
+        <v>35.43453979492188</v>
       </c>
       <c r="G58" t="n">
-        <v>2.285033941268921</v>
+        <v>23.02121925354004</v>
       </c>
       <c r="H58" t="n">
-        <v>-4.405387878417969</v>
+        <v>-10.77658081054688</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.09574056416749954</v>
+        <v>0.09078061744570733</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.06708335876464844</v>
+        <v>0.100995132625103</v>
       </c>
       <c r="C59" t="n">
-        <v>7.079222679138184</v>
+        <v>34.22484588623047</v>
       </c>
       <c r="D59" t="n">
-        <v>2.727005481719971</v>
+        <v>18.68070602416992</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.390804767608643</v>
+        <v>-11.95556640625</v>
       </c>
       <c r="F59" t="n">
-        <v>6.373247623443604</v>
+        <v>33.42435836791992</v>
       </c>
       <c r="G59" t="n">
-        <v>2.491384983062744</v>
+        <v>22.11517333984375</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.924087524414062</v>
+        <v>-7.596730709075928</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.06072501093149185</v>
+        <v>0.1289223565161228</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.03171846643090248</v>
+        <v>0.1288545002043247</v>
       </c>
       <c r="C60" t="n">
-        <v>5.803023338317871</v>
+        <v>31.57942962646484</v>
       </c>
       <c r="D60" t="n">
-        <v>1.952950239181519</v>
+        <v>18.68070602416992</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05395351722836494</v>
+        <v>-9.273933410644531</v>
       </c>
       <c r="F60" t="n">
-        <v>5.067397594451904</v>
+        <v>31.22067642211914</v>
       </c>
       <c r="G60" t="n">
-        <v>1.960256934165955</v>
+        <v>20.70585060119629</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.43791675567627</v>
+        <v>-5.916499137878418</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.0210034865885973</v>
+        <v>0.1541519287228584</v>
       </c>
       <c r="B61" t="n">
-        <v>0.006115777418017387</v>
+        <v>0.1560376423597336</v>
       </c>
       <c r="C61" t="n">
-        <v>4.355307102203369</v>
+        <v>29.06343078613281</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5891847610473633</v>
+        <v>17.07550430297852</v>
       </c>
       <c r="E61" t="n">
-        <v>1.238085031509399</v>
+        <v>-6.804433822631836</v>
       </c>
       <c r="F61" t="n">
-        <v>3.670366764068604</v>
+        <v>28.92827415466309</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8528527617454529</v>
+        <v>19.1087760925293</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.07593616843223572</v>
+        <v>-4.308749198913574</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.01982717961072922</v>
+        <v>0.1794446739554405</v>
       </c>
       <c r="B62" t="n">
-        <v>0.04366619884967804</v>
+        <v>0.1830386576056481</v>
       </c>
       <c r="C62" t="n">
-        <v>2.867166519165039</v>
+        <v>27.02417945861816</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.068350076675415</v>
+        <v>15.79520225524902</v>
       </c>
       <c r="E62" t="n">
-        <v>2.126999139785767</v>
+        <v>-5.56700325012207</v>
       </c>
       <c r="F62" t="n">
-        <v>2.28381609916687</v>
+        <v>26.56803703308105</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.5895873308181763</v>
+        <v>17.7467041015625</v>
       </c>
       <c r="H62" t="n">
-        <v>1.072210311889648</v>
+        <v>-2.694441795349121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0587436817586422</v>
+        <v>0.1960039359331131</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07869522273540497</v>
+        <v>0.2105720826983452</v>
       </c>
       <c r="C63" t="n">
-        <v>1.448790788650513</v>
+        <v>24.69997596740723</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.747562170028687</v>
+        <v>14.72413921356201</v>
       </c>
       <c r="E63" t="n">
-        <v>2.716540813446045</v>
+        <v>-3.363448858261108</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9903678894042969</v>
+        <v>23.75766563415527</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.126547336578369</v>
+        <v>16.29655647277832</v>
       </c>
       <c r="H63" t="n">
-        <v>1.951501250267029</v>
+        <v>-1.568661570549011</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.09411025792360306</v>
+        <v>0.2236554935574532</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1101592257618904</v>
+        <v>0.2475449904799462</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1597979962825775</v>
+        <v>22.24954986572266</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.256115436553955</v>
+        <v>13.50323295593262</v>
       </c>
       <c r="E64" t="n">
-        <v>3.043485164642334</v>
+        <v>-1.89864194393158</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.1714417785406113</v>
+        <v>21.5898551940918</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.574871063232422</v>
+        <v>15.26091384887695</v>
       </c>
       <c r="H64" t="n">
-        <v>2.559866189956665</v>
+        <v>-0.5597701668739319</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.126157745718956</v>
+        <v>0.2509625256061554</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1386357396841049</v>
+        <v>0.2648407682776451</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.008225917816162</v>
+        <v>19.83200836181641</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.503931522369385</v>
+        <v>12.46938228607178</v>
       </c>
       <c r="E65" t="n">
-        <v>3.197942972183228</v>
+        <v>0.7890973687171936</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.222937941551208</v>
+        <v>18.94162368774414</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.836105823516846</v>
+        <v>14.07127666473389</v>
       </c>
       <c r="H65" t="n">
-        <v>2.960889577865601</v>
+        <v>0.4925538003444672</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1564707607030869</v>
+        <v>0.2762348634004593</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1658570021390915</v>
+        <v>0.300318483710289</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.113033056259155</v>
+        <v>17.4853687286377</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.492503643035889</v>
+        <v>11.41579437255859</v>
       </c>
       <c r="E66" t="n">
-        <v>3.304794788360596</v>
+        <v>3.171710014343262</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.228084325790405</v>
+        <v>16.48164558410645</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.893185138702393</v>
+        <v>12.32456970214844</v>
       </c>
       <c r="H66" t="n">
-        <v>3.263394355773926</v>
+        <v>2.463440179824829</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.1868703365325928</v>
+        <v>0.3003529173135758</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1936802864074707</v>
+        <v>0.3260789889097214</v>
       </c>
       <c r="C67" t="n">
-        <v>-3.220995664596558</v>
+        <v>14.7629280090332</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.280184745788574</v>
+        <v>9.452310562133789</v>
       </c>
       <c r="E67" t="n">
-        <v>3.478527069091797</v>
+        <v>5.352363586425781</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.255459785461426</v>
+        <v>14.11795234680176</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.783063411712646</v>
+        <v>12.32456970214844</v>
       </c>
       <c r="H67" t="n">
-        <v>3.575425624847412</v>
+        <v>2.463440179824829</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2185583561658859</v>
+        <v>0.3331877589225769</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2232946455478668</v>
+        <v>0.3517905920743942</v>
       </c>
       <c r="C68" t="n">
-        <v>-4.375917434692383</v>
+        <v>12.61440467834473</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.938620090484619</v>
+        <v>8.710391044616699</v>
       </c>
       <c r="E68" t="n">
-        <v>3.786811590194702</v>
+        <v>7.388545989990234</v>
       </c>
       <c r="F68" t="n">
-        <v>-4.348971366882324</v>
+        <v>12.00724697113037</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.558556079864502</v>
+        <v>10.40451717376709</v>
       </c>
       <c r="H68" t="n">
-        <v>3.967219829559326</v>
+        <v>4.165771961212158</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2518298625946045</v>
+        <v>0.3498752623796463</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2549587190151215</v>
+        <v>0.3728563755750656</v>
       </c>
       <c r="C69" t="n">
-        <v>-5.588552474975586</v>
+        <v>10.36944198608398</v>
       </c>
       <c r="D69" t="n">
-        <v>-8.518318176269531</v>
+        <v>7.701413154602051</v>
       </c>
       <c r="E69" t="n">
-        <v>4.241596221923828</v>
+        <v>7.388545989990234</v>
       </c>
       <c r="F69" t="n">
-        <v>-5.518168449401855</v>
+        <v>10.08587455749512</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.256665229797363</v>
+        <v>8.565108299255371</v>
       </c>
       <c r="H69" t="n">
-        <v>4.460589408874512</v>
+        <v>6.971624374389648</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.2861788272857666</v>
+        <v>0.374689222574234</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2881147265434265</v>
+        <v>0.3924970501661301</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.840456008911133</v>
+        <v>8.830539703369141</v>
       </c>
       <c r="D70" t="n">
-        <v>-9.035343170166016</v>
+        <v>6.995898246765137</v>
       </c>
       <c r="E70" t="n">
-        <v>4.810922622680664</v>
+        <v>11.22525215148926</v>
       </c>
       <c r="F70" t="n">
-        <v>-6.74245548248291</v>
+        <v>8.407611846923828</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.885553359985352</v>
+        <v>8.868557929992676</v>
       </c>
       <c r="H70" t="n">
-        <v>5.037846088409424</v>
+        <v>8.819021224975586</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3206259608268738</v>
+        <v>0.3835155975818634</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3217235803604126</v>
+        <v>0.4087711608409882</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.095938682556152</v>
+        <v>6.643468856811523</v>
       </c>
       <c r="D71" t="n">
-        <v>-9.477573394775391</v>
+        <v>7.36650562286377</v>
       </c>
       <c r="E71" t="n">
-        <v>5.439813613891602</v>
+        <v>11.22525215148926</v>
       </c>
       <c r="F71" t="n">
-        <v>-7.983463764190674</v>
+        <v>7.304341316223145</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.42940616607666</v>
+        <v>8.69912052154541</v>
       </c>
       <c r="H71" t="n">
-        <v>5.659354209899902</v>
+        <v>10.67290687561035</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3541441857814789</v>
+        <v>0.4135631495714188</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3546991348266602</v>
+        <v>0.4147616600990295</v>
       </c>
       <c r="C72" t="n">
-        <v>-9.31756591796875</v>
+        <v>5.227504253387451</v>
       </c>
       <c r="D72" t="n">
-        <v>-9.820369720458984</v>
+        <v>6.830521583557129</v>
       </c>
       <c r="E72" t="n">
-        <v>6.072371006011963</v>
+        <v>12.76548385620117</v>
       </c>
       <c r="F72" t="n">
-        <v>-9.20108699798584</v>
+        <v>6.036871910095215</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.862116813659668</v>
+        <v>7.925381660461426</v>
       </c>
       <c r="H72" t="n">
-        <v>6.282802104949951</v>
+        <v>11.77433013916016</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.3860277235507965</v>
+        <v>0.4203973037004471</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3862826824188232</v>
+        <v>0.4309962195158005</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.47961330413818</v>
+        <v>3.678021430969238</v>
       </c>
       <c r="D73" t="n">
-        <v>-10.04193210601807</v>
+        <v>6.950457572937012</v>
       </c>
       <c r="E73" t="n">
-        <v>6.669145584106445</v>
+        <v>14.34758186340332</v>
       </c>
       <c r="F73" t="n">
-        <v>-10.36731052398682</v>
+        <v>4.488406181335449</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.16092586517334</v>
+        <v>9.08017635345459</v>
       </c>
       <c r="H73" t="n">
-        <v>6.87908411026001</v>
+        <v>14.35268020629883</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4159925580024719</v>
+        <v>0.438233562707901</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4161468744277954</v>
+        <v>0.4517416125535965</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.5717306137085</v>
+        <v>2.065948247909546</v>
       </c>
       <c r="D74" t="n">
-        <v>-10.1305513381958</v>
+        <v>6.923893928527832</v>
       </c>
       <c r="E74" t="n">
-        <v>7.210182666778564</v>
+        <v>15.35000419616699</v>
       </c>
       <c r="F74" t="n">
-        <v>-11.47004699707031</v>
+        <v>3.083777666091919</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.31288814544678</v>
+        <v>9.736088752746582</v>
       </c>
       <c r="H74" t="n">
-        <v>7.435593128204346</v>
+        <v>16.64253234863281</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4439025521278381</v>
+        <v>0.4559814631938934</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4441321790218353</v>
+        <v>0.4660385078191757</v>
       </c>
       <c r="C75" t="n">
-        <v>-12.58895587921143</v>
+        <v>0.003045320510864258</v>
       </c>
       <c r="D75" t="n">
-        <v>-10.07942008972168</v>
+        <v>7.409113883972168</v>
       </c>
       <c r="E75" t="n">
-        <v>7.676267147064209</v>
+        <v>16.24411392211914</v>
       </c>
       <c r="F75" t="n">
-        <v>-12.50340461730957</v>
+        <v>1.844724059104919</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.31021308898926</v>
+        <v>10.81292152404785</v>
       </c>
       <c r="H75" t="n">
-        <v>7.938621520996094</v>
+        <v>18.5633487701416</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4693436622619629</v>
+        <v>0.4826217311620712</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4698534905910492</v>
+        <v>0.4782113552093506</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.51620101928711</v>
+        <v>-1.357356071472168</v>
       </c>
       <c r="D76" t="n">
-        <v>-9.872265815734863</v>
+        <v>7.383715629577637</v>
       </c>
       <c r="E76" t="n">
-        <v>8.019218444824219</v>
+        <v>16.63613319396973</v>
       </c>
       <c r="F76" t="n">
-        <v>-13.45316505432129</v>
+        <v>0.6430487036705017</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.13759231567383</v>
+        <v>12.01089572906494</v>
       </c>
       <c r="H76" t="n">
-        <v>8.344324111938477</v>
+        <v>18.5633487701416</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4914151728153229</v>
+        <v>0.4895940935611725</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4925388991832733</v>
+        <v>0.4914140832424164</v>
       </c>
       <c r="C77" t="n">
-        <v>-14.320631980896</v>
+        <v>-2.688504457473755</v>
       </c>
       <c r="D77" t="n">
-        <v>-9.469701766967773</v>
+        <v>9.305472373962402</v>
       </c>
       <c r="E77" t="n">
-        <v>8.144138336181641</v>
+        <v>14.09650802612305</v>
       </c>
       <c r="F77" t="n">
-        <v>-14.29082489013672</v>
+        <v>-0.5524334907531738</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.760381698608398</v>
+        <v>13.71835136413574</v>
       </c>
       <c r="H77" t="n">
-        <v>8.560736656188965</v>
+        <v>20.29569625854492</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5087761878967285</v>
+        <v>0.5033914488554001</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5111169815063477</v>
+        <v>0.5049001777172089</v>
       </c>
       <c r="C78" t="n">
-        <v>-14.95338344573975</v>
+        <v>-4.315316677093506</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.802505493164062</v>
+        <v>11.71646404266357</v>
       </c>
       <c r="E78" t="n">
-        <v>7.907172679901123</v>
+        <v>12.21401596069336</v>
       </c>
       <c r="F78" t="n">
-        <v>-14.97682094573975</v>
+        <v>-0.5524334907531738</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.118640899658203</v>
+        <v>16.18408584594727</v>
       </c>
       <c r="H78" t="n">
-        <v>8.445342063903809</v>
+        <v>18.90784072875977</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.5196337699890137</v>
+        <v>0.5237656223773957</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5241934061050415</v>
+        <v>0.5051615571975708</v>
       </c>
       <c r="C79" t="n">
-        <v>-15.34910488128662</v>
+        <v>-4.315316677093506</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.764486789703369</v>
+        <v>13.43590927124023</v>
       </c>
       <c r="E79" t="n">
-        <v>7.102411270141602</v>
+        <v>7.576842308044434</v>
       </c>
       <c r="F79" t="n">
-        <v>-15.4596700668335</v>
+        <v>-1.770969867706299</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.118844985961914</v>
+        <v>17.74702453613281</v>
       </c>
       <c r="H79" t="n">
-        <v>7.791671276092529</v>
+        <v>16.02058029174805</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.521360456943512</v>
+        <v>0.5217855954170227</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5295335650444031</v>
+        <v>0.5241918408870697</v>
       </c>
       <c r="C80" t="n">
-        <v>-15.41203784942627</v>
+        <v>-5.755296230316162</v>
       </c>
       <c r="D80" t="n">
-        <v>-6.193415641784668</v>
+        <v>15.68001270294189</v>
       </c>
       <c r="E80" t="n">
-        <v>5.409660816192627</v>
+        <v>0.04604268074035645</v>
       </c>
       <c r="F80" t="n">
-        <v>-15.65685272216797</v>
+        <v>-3.449181079864502</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.609442710876465</v>
+        <v>20.46278381347656</v>
       </c>
       <c r="H80" t="n">
-        <v>6.273946285247803</v>
+        <v>9.556308746337891</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.5098022222518921</v>
+        <v>0.527028506398201</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5229208469390869</v>
+        <v>0.5143502748012543</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.99077701568604</v>
+        <v>-6.250009059906006</v>
       </c>
       <c r="D81" t="n">
-        <v>-3.862986087799072</v>
+        <v>19.74101448059082</v>
       </c>
       <c r="E81" t="n">
-        <v>2.338940143585205</v>
+        <v>-10.94347476959229</v>
       </c>
       <c r="F81" t="n">
-        <v>-15.41268062591553</v>
+        <v>-2.581285953521729</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.354093074798584</v>
+        <v>24.48770141601562</v>
       </c>
       <c r="H81" t="n">
-        <v>3.378555774688721</v>
+        <v>0.2843146324157715</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4796696901321411</v>
+        <v>0.510022634267807</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4978159964084625</v>
+        <v>0.5140462166070938</v>
       </c>
       <c r="C82" t="n">
-        <v>-13.89254951477051</v>
+        <v>-4.645360469818115</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.6214281320571899</v>
+        <v>24.56050300598145</v>
       </c>
       <c r="E82" t="n">
-        <v>-2.527422428131104</v>
+        <v>-25.22646522521973</v>
       </c>
       <c r="F82" t="n">
-        <v>-14.48568153381348</v>
+        <v>-1.499170780181885</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.130797386169434</v>
+        <v>29.55526542663574</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.381707787513733</v>
+        <v>-11.13381385803223</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4297179281711578</v>
+        <v>0.4891225743293762</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4513246715068817</v>
+        <v>0.4901127773523331</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.0719747543335</v>
+        <v>-1.271376848220825</v>
       </c>
       <c r="D83" t="n">
-        <v>3.254667043685913</v>
+        <v>31.48195266723633</v>
       </c>
       <c r="E83" t="n">
-        <v>-8.555264472961426</v>
+        <v>-42.64399719238281</v>
       </c>
       <c r="F83" t="n">
-        <v>-12.76898860931396</v>
+        <v>1.049363613128662</v>
       </c>
       <c r="G83" t="n">
-        <v>2.892359256744385</v>
+        <v>36.07901763916016</v>
       </c>
       <c r="H83" t="n">
-        <v>-7.47769021987915</v>
+        <v>-23.97636032104492</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.366864800453186</v>
+        <v>0.4594084280729294</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3909665644168854</v>
+        <v>0.4442806404829026</v>
       </c>
       <c r="C84" t="n">
-        <v>-9.781189918518066</v>
+        <v>1.646093010902405</v>
       </c>
       <c r="D84" t="n">
-        <v>7.152624607086182</v>
+        <v>39.10456848144531</v>
       </c>
       <c r="E84" t="n">
-        <v>-13.71256637573242</v>
+        <v>-56.46609878540039</v>
       </c>
       <c r="F84" t="n">
-        <v>-10.54026222229004</v>
+        <v>4.053094387054443</v>
       </c>
       <c r="G84" t="n">
-        <v>7.07252025604248</v>
+        <v>43.35609436035156</v>
       </c>
       <c r="H84" t="n">
-        <v>-12.88052177429199</v>
+        <v>-35.14306640625</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2976717948913574</v>
+        <v>0.4124274092912674</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6261205204846136</v>
+        <v>0.57528601746948</v>
       </c>
       <c r="C85" t="n">
-        <v>-7.259336471557617</v>
+        <v>6.431187629699707</v>
       </c>
       <c r="D85" t="n">
-        <v>10.80995655059814</v>
+        <v>47.92345809936523</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.3197193145752</v>
+        <v>-62.55775451660156</v>
       </c>
       <c r="F85" t="n">
-        <v>-8.1177978515625</v>
+        <v>8.726016044616699</v>
       </c>
       <c r="G85" t="n">
-        <v>10.87891960144043</v>
+        <v>50.880126953125</v>
       </c>
       <c r="H85" t="n">
-        <v>-15.75161933898926</v>
+        <v>-39.00532913208008</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7021171523628166</v>
+        <v>0.6209351805624082</v>
       </c>
       <c r="B86" t="n">
-        <v>0.817698363848255</v>
+        <v>0.7330387941545893</v>
       </c>
       <c r="C86" t="n">
-        <v>-4.603119850158691</v>
+        <v>11.80354499816895</v>
       </c>
       <c r="D86" t="n">
-        <v>14.46389102935791</v>
+        <v>55.66473007202148</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.01310348510742</v>
+        <v>-58.99349975585938</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.64616584777832</v>
+        <v>13.51193237304688</v>
       </c>
       <c r="G86" t="n">
-        <v>14.24940967559814</v>
+        <v>58.04203414916992</v>
       </c>
       <c r="H86" t="n">
-        <v>-15.65445041656494</v>
+        <v>-37.44898223876953</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9161314925676195</v>
+        <v>0.8006239443826269</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9344687944560867</v>
+        <v>0.8601784538341209</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.848795294761658</v>
+        <v>17.56062507629395</v>
       </c>
       <c r="D87" t="n">
-        <v>18.16638374328613</v>
+        <v>62.05156707763672</v>
       </c>
       <c r="E87" t="n">
-        <v>-13.35764312744141</v>
+        <v>-50.41098022460938</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.138650417327881</v>
+        <v>18.72025680541992</v>
       </c>
       <c r="G87" t="n">
-        <v>17.32137107849121</v>
+        <v>63.33349609375</v>
       </c>
       <c r="H87" t="n">
-        <v>-13.25248050689697</v>
+        <v>-32.34869003295898</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9883597640278922</v>
+        <v>0.9196202288798163</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9850269397512925</v>
+        <v>0.9436127885228744</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9088042378425598</v>
+        <v>23.03230285644531</v>
       </c>
       <c r="D88" t="n">
-        <v>21.26773262023926</v>
+        <v>65.74447631835938</v>
       </c>
       <c r="E88" t="n">
-        <v>-9.515528678894043</v>
+        <v>-39.60963439941406</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.5753691792488098</v>
+        <v>23.42764282226562</v>
       </c>
       <c r="G88" t="n">
-        <v>19.89162063598633</v>
+        <v>66.74301147460938</v>
       </c>
       <c r="H88" t="n">
-        <v>-9.721432685852051</v>
+        <v>-25.63241004943848</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.999926516407501</v>
+        <v>0.9759301396356319</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9985139766439511</v>
+        <v>0.9823349759974384</v>
       </c>
       <c r="C89" t="n">
-        <v>3.467856168746948</v>
+        <v>27.8475513458252</v>
       </c>
       <c r="D89" t="n">
-        <v>22.98388862609863</v>
+        <v>67.08203125</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.632405281066895</v>
+        <v>-30.04483032226562</v>
       </c>
       <c r="F89" t="n">
-        <v>1.953912019729614</v>
+        <v>27.54065704345703</v>
       </c>
       <c r="G89" t="n">
-        <v>21.47591972351074</v>
+        <v>68.44204711914062</v>
       </c>
       <c r="H89" t="n">
-        <v>-6.102744102478027</v>
+        <v>-19.93978500366211</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.000007789239625</v>
+        <v>0.9947938863713542</v>
       </c>
       <c r="B90" t="n">
-        <v>1.000027648977654</v>
+        <v>0.9957957676386426</v>
       </c>
       <c r="C90" t="n">
-        <v>5.637367248535156</v>
+        <v>32.07168579101562</v>
       </c>
       <c r="D90" t="n">
-        <v>23.01702308654785</v>
+        <v>67.08203125</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.355029106140137</v>
+        <v>-20.24791526794434</v>
       </c>
       <c r="F90" t="n">
-        <v>4.260316848754883</v>
+        <v>31.48978996276855</v>
       </c>
       <c r="G90" t="n">
-        <v>21.7309741973877</v>
+        <v>68.44204711914062</v>
       </c>
       <c r="H90" t="n">
-        <v>-2.993904829025269</v>
+        <v>-13.75672912597656</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9999984929946154</v>
+        <v>0.9992521636984302</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9999967767847918</v>
+        <v>0.999339892936452</v>
       </c>
       <c r="C91" t="n">
-        <v>7.327058792114258</v>
+        <v>34.76417541503906</v>
       </c>
       <c r="D91" t="n">
-        <v>21.47537994384766</v>
+        <v>62.68848419189453</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1295308172702789</v>
+        <v>-12.73511123657227</v>
       </c>
       <c r="F91" t="n">
-        <v>6.177621364593506</v>
+        <v>34.31430816650391</v>
       </c>
       <c r="G91" t="n">
-        <v>20.58388519287109</v>
+        <v>64.42976379394531</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.6140481233596802</v>
+        <v>-9.691879272460938</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.00000038624914</v>
+        <v>0.9999099354259483</v>
       </c>
       <c r="B92" t="n">
-        <v>1.000000615152203</v>
+        <v>0.9999203648337933</v>
       </c>
       <c r="C92" t="n">
-        <v>8.540722846984863</v>
+        <v>36.86504364013672</v>
       </c>
       <c r="D92" t="n">
-        <v>18.60765647888184</v>
+        <v>58.19631958007812</v>
       </c>
       <c r="E92" t="n">
-        <v>1.88653826713562</v>
+        <v>-8.291166305541992</v>
       </c>
       <c r="F92" t="n">
-        <v>7.631187438964844</v>
+        <v>36.21192169189453</v>
       </c>
       <c r="G92" t="n">
-        <v>18.13699531555176</v>
+        <v>59.99031829833984</v>
       </c>
       <c r="H92" t="n">
-        <v>1.059171438217163</v>
+        <v>-6.539540767669678</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9999998853821979</v>
+        <v>0.9999918712649424</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999998517698656</v>
+        <v>0.9999920467501743</v>
       </c>
       <c r="C93" t="n">
-        <v>9.321955680847168</v>
+        <v>38.49554443359375</v>
       </c>
       <c r="D93" t="n">
-        <v>14.69194889068604</v>
+        <v>51.77115631103516</v>
       </c>
       <c r="E93" t="n">
-        <v>3.052114725112915</v>
+        <v>-4.703264236450195</v>
       </c>
       <c r="F93" t="n">
-        <v>8.611941337585449</v>
+        <v>38.18120574951172</v>
       </c>
       <c r="G93" t="n">
-        <v>14.58410453796387</v>
+        <v>54.49868392944336</v>
       </c>
       <c r="H93" t="n">
-        <v>2.150555610656738</v>
+        <v>-4.266608715057373</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.000000036447696</v>
+        <v>0.9999994549151706</v>
       </c>
       <c r="B94" t="n">
-        <v>1.000000039830592</v>
+        <v>0.9999995529978073</v>
       </c>
       <c r="C94" t="n">
-        <v>9.732388496398926</v>
+        <v>39.79287719726562</v>
       </c>
       <c r="D94" t="n">
-        <v>10.06010150909424</v>
+        <v>44.26831817626953</v>
       </c>
       <c r="E94" t="n">
-        <v>3.736448049545288</v>
+        <v>-4.703264236450195</v>
       </c>
       <c r="F94" t="n">
-        <v>9.154875755310059</v>
+        <v>39.76142120361328</v>
       </c>
       <c r="G94" t="n">
-        <v>10.21485042572021</v>
+        <v>48.08152008056641</v>
       </c>
       <c r="H94" t="n">
-        <v>2.787182092666626</v>
+        <v>-2.212292909622192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9999999881259752</v>
+        <v>0.9999999739574845</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999999888700299</v>
+        <v>0.999999986268794</v>
       </c>
       <c r="C95" t="n">
-        <v>9.882851600646973</v>
+        <v>40.88317108154297</v>
       </c>
       <c r="D95" t="n">
-        <v>5.139281749725342</v>
+        <v>36.67032241821289</v>
       </c>
       <c r="E95" t="n">
-        <v>3.994474172592163</v>
+        <v>-5.757635116577148</v>
       </c>
       <c r="F95" t="n">
-        <v>9.364765167236328</v>
+        <v>41.01219177246094</v>
       </c>
       <c r="G95" t="n">
-        <v>5.440812587738037</v>
+        <v>41.93089294433594</v>
       </c>
       <c r="H95" t="n">
-        <v>3.046154975891113</v>
+        <v>-2.212292909622192</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.000000003920251</v>
+        <v>0.9999999992157191</v>
       </c>
       <c r="B96" t="n">
-        <v>1.000000003153476</v>
+        <v>0.9999999998488694</v>
       </c>
       <c r="C96" t="n">
-        <v>9.967283248901367</v>
+        <v>40.88317108154297</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4145487546920776</v>
+        <v>29.9326000213623</v>
       </c>
       <c r="E96" t="n">
-        <v>3.819015502929688</v>
+        <v>-9.501228332519531</v>
       </c>
       <c r="F96" t="n">
-        <v>9.441074371337891</v>
+        <v>42.04504013061523</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7490529417991638</v>
+        <v>35.75681304931641</v>
       </c>
       <c r="H96" t="n">
-        <v>2.932022333145142</v>
+        <v>-2.726014614105225</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9999999986557542</v>
+        <v>0.999999999987903</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999999990776129</v>
+        <v>1.000000000000972</v>
       </c>
       <c r="C97" t="n">
-        <v>10.21346378326416</v>
+        <v>42.70816802978516</v>
       </c>
       <c r="D97" t="n">
-        <v>-3.683112144470215</v>
+        <v>23.32364082336426</v>
       </c>
       <c r="E97" t="n">
-        <v>3.164083480834961</v>
+        <v>-13.69083499908447</v>
       </c>
       <c r="F97" t="n">
-        <v>9.620466232299805</v>
+        <v>42.04504013061523</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.416580200195312</v>
+        <v>29.27788925170898</v>
       </c>
       <c r="H97" t="n">
-        <v>2.398207664489746</v>
+        <v>-5.534879684448242</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.000000000496619</v>
+        <v>0.9999999999998094</v>
       </c>
       <c r="B98" t="n">
-        <v>1.000000000288728</v>
+        <v>0.9999999999999843</v>
       </c>
       <c r="C98" t="n">
-        <v>10.72618293762207</v>
+        <v>42.69152450561523</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.86154317855835</v>
+        <v>18.44886589050293</v>
       </c>
       <c r="E98" t="n">
-        <v>2.038980960845947</v>
+        <v>-16.71021842956543</v>
       </c>
       <c r="F98" t="n">
-        <v>10.02213191986084</v>
+        <v>43.53185272216797</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.74109935760498</v>
+        <v>23.74945449829102</v>
       </c>
       <c r="H98" t="n">
-        <v>1.439297080039978</v>
+        <v>-7.706907272338867</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9999999997994464</v>
+        <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999999999017718</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>11.39062213897705</v>
+        <v>43.6182861328125</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.9837646484375</v>
+        <v>14.22972106933594</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5974513292312622</v>
+        <v>-18.76067352294922</v>
       </c>
       <c r="F99" t="n">
-        <v>10.55419540405273</v>
+        <v>43.64569473266602</v>
       </c>
       <c r="G99" t="n">
-        <v>-9.058009147644043</v>
+        <v>19.35536003112793</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1789166629314423</v>
+        <v>-7.706907272338867</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.000000000087139</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1.000000000035698</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>11.98272132873535</v>
+        <v>43.62842178344727</v>
       </c>
       <c r="D100" t="n">
-        <v>-10.06118774414062</v>
+        <v>11.49193954467773</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.9172565937042236</v>
+        <v>-20.54092407226562</v>
       </c>
       <c r="F100" t="n">
-        <v>11.00837421417236</v>
+        <v>42.91286849975586</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.35521793365479</v>
+        <v>16.88737106323242</v>
       </c>
       <c r="H100" t="n">
-        <v>-1.172945499420166</v>
+        <v>-8.595626831054688</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9999999999607381</v>
+        <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999999999867292</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>12.29331874847412</v>
+        <v>43.29566955566406</v>
       </c>
       <c r="D101" t="n">
-        <v>-10.21463108062744</v>
+        <v>11.49193954467773</v>
       </c>
       <c r="E101" t="n">
-        <v>-2.272670745849609</v>
+        <v>-22.42871856689453</v>
       </c>
       <c r="F101" t="n">
-        <v>11.17148971557617</v>
+        <v>43.55525207519531</v>
       </c>
       <c r="G101" t="n">
-        <v>-10.73966217041016</v>
+        <v>15.68195533752441</v>
       </c>
       <c r="H101" t="n">
-        <v>-2.405729055404663</v>
+        <v>-9.389926910400391</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.000000000017351</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1.000000000004708</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>12.12653732299805</v>
+        <v>42.75710678100586</v>
       </c>
       <c r="D102" t="n">
-        <v>-9.625967025756836</v>
+        <v>10.98993873596191</v>
       </c>
       <c r="E102" t="n">
-        <v>-3.254382133483887</v>
+        <v>-26.74801826477051</v>
       </c>
       <c r="F102" t="n">
-        <v>10.8392972946167</v>
+        <v>43.13043594360352</v>
       </c>
       <c r="G102" t="n">
-        <v>-10.37274074554443</v>
+        <v>15.68195533752441</v>
       </c>
       <c r="H102" t="n">
-        <v>-3.312899112701416</v>
+        <v>-14.47594451904297</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.999999999993055</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9999999999985639</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>11.3215160369873</v>
+        <v>42.0483512878418</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.553956985473633</v>
+        <v>13.252197265625</v>
       </c>
       <c r="E103" t="n">
-        <v>-3.677172422409058</v>
+        <v>-27.79909324645996</v>
       </c>
       <c r="F103" t="n">
-        <v>9.865495681762695</v>
+        <v>42.38558578491211</v>
       </c>
       <c r="G103" t="n">
-        <v>-9.469011306762695</v>
+        <v>16.0344181060791</v>
       </c>
       <c r="H103" t="n">
-        <v>-3.70612907409668</v>
+        <v>-15.56005382537842</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.06615689396858215</v>
+        <v>0.01636402601376176</v>
       </c>
       <c r="B104" t="n">
-        <v>0.06134368479251862</v>
+        <v>0.01213066918775439</v>
       </c>
       <c r="C104" t="n">
-        <v>1.178603887557983</v>
+        <v>43.83364105224609</v>
       </c>
       <c r="D104" t="n">
-        <v>-2.168850183486938</v>
+        <v>16.77522850036621</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.113749265670776</v>
+        <v>-30.53456878662109</v>
       </c>
       <c r="F104" t="n">
-        <v>1.631074190139771</v>
+        <v>41.70762252807617</v>
       </c>
       <c r="G104" t="n">
-        <v>-1.974612832069397</v>
+        <v>19.49629974365234</v>
       </c>
       <c r="H104" t="n">
-        <v>-1.070942401885986</v>
+        <v>-18.92656517028809</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.01441615447402</v>
+        <v>-0.02386952187865973</v>
       </c>
       <c r="B105" t="n">
-        <v>0.008694466203451157</v>
+        <v>0.0005328858632128686</v>
       </c>
       <c r="C105" t="n">
-        <v>3.064380168914795</v>
+        <v>43.83364105224609</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.417830228805542</v>
+        <v>19.25097274780273</v>
       </c>
       <c r="E105" t="n">
-        <v>-2.864495038986206</v>
+        <v>-30.53456878662109</v>
       </c>
       <c r="F105" t="n">
-        <v>3.575148582458496</v>
+        <v>42.73038864135742</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.193083047866821</v>
+        <v>20.63506698608398</v>
       </c>
       <c r="H105" t="n">
-        <v>-2.830282926559448</v>
+        <v>-20.54430389404297</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.04268157109618187</v>
+        <v>-0.008866656795144081</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.04746102541685104</v>
+        <v>0.008234923081472516</v>
       </c>
       <c r="C106" t="n">
-        <v>5.145400524139404</v>
+        <v>44.31618118286133</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.16623067855835</v>
+        <v>21.03520011901855</v>
       </c>
       <c r="E106" t="n">
-        <v>-4.509831428527832</v>
+        <v>-25.92364501953125</v>
       </c>
       <c r="F106" t="n">
-        <v>5.64869213104248</v>
+        <v>42.05117416381836</v>
       </c>
       <c r="G106" t="n">
-        <v>-1.976397633552551</v>
+        <v>22.03742790222168</v>
       </c>
       <c r="H106" t="n">
-        <v>-4.593145847320557</v>
+        <v>-20.54430389404297</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.08500040322542191</v>
+        <v>0.007631750600412488</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.08630418032407761</v>
+        <v>0.02462227717041969</v>
       </c>
       <c r="C107" t="n">
-        <v>6.687779903411865</v>
+        <v>41.69063568115234</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.272972226142883</v>
+        <v>21.03520011901855</v>
       </c>
       <c r="E107" t="n">
-        <v>-5.178404808044434</v>
+        <v>-22.07394409179688</v>
       </c>
       <c r="F107" t="n">
-        <v>7.082977294921875</v>
+        <v>39.31028747558594</v>
       </c>
       <c r="G107" t="n">
-        <v>-1.174304962158203</v>
+        <v>22.03742790222168</v>
       </c>
       <c r="H107" t="n">
-        <v>-5.510445594787598</v>
+        <v>-17.68194198608398</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.1031831875443459</v>
+        <v>0.03028548739850521</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.09923170506954193</v>
+        <v>0.05400886192917824</v>
       </c>
       <c r="C108" t="n">
-        <v>7.350481033325195</v>
+        <v>39.55156707763672</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.002936603268608451</v>
+        <v>21.9453296661377</v>
       </c>
       <c r="E108" t="n">
-        <v>-4.706206798553467</v>
+        <v>-18.5869312286377</v>
       </c>
       <c r="F108" t="n">
-        <v>7.56032657623291</v>
+        <v>37.35099792480469</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02251414209604263</v>
+        <v>22.71414375305176</v>
       </c>
       <c r="H108" t="n">
-        <v>-5.366134643554688</v>
+        <v>-15.09549713134766</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.09983624517917633</v>
+        <v>0.06429780818521977</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.09056098759174347</v>
+        <v>0.08375076040625573</v>
       </c>
       <c r="C109" t="n">
-        <v>7.228496551513672</v>
+        <v>37.33351135253906</v>
       </c>
       <c r="D109" t="n">
-        <v>1.105361461639404</v>
+        <v>20.27890014648438</v>
       </c>
       <c r="E109" t="n">
-        <v>-3.493378162384033</v>
+        <v>-15.20237350463867</v>
       </c>
       <c r="F109" t="n">
-        <v>7.24015998840332</v>
+        <v>35.75468063354492</v>
       </c>
       <c r="G109" t="n">
-        <v>1.152446389198303</v>
+        <v>23.2825984954834</v>
       </c>
       <c r="H109" t="n">
-        <v>-4.464631080627441</v>
+        <v>-11.41625499725342</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.08172047138214111</v>
+        <v>0.08864170625805855</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.06843569874763489</v>
+        <v>0.09773643434047699</v>
       </c>
       <c r="C110" t="n">
-        <v>6.5682373046875</v>
+        <v>34.40323257446289</v>
       </c>
       <c r="D110" t="n">
-        <v>1.626237869262695</v>
+        <v>19.06759643554688</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.009828805923462</v>
+        <v>-12.20957660675049</v>
       </c>
       <c r="F110" t="n">
-        <v>6.423182964324951</v>
+        <v>33.68630981445312</v>
       </c>
       <c r="G110" t="n">
-        <v>1.805476546287537</v>
+        <v>22.42644309997559</v>
       </c>
       <c r="H110" t="n">
-        <v>-3.19402289390564</v>
+        <v>-8.209564208984375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.0543241947889328</v>
+        <v>0.1272445002198219</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.03895112127065659</v>
+        <v>0.1265438711643219</v>
       </c>
       <c r="C111" t="n">
-        <v>5.569735050201416</v>
+        <v>31.73978042602539</v>
       </c>
       <c r="D111" t="n">
-        <v>1.406702041625977</v>
+        <v>19.06759643554688</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.5539683699607849</v>
+        <v>-9.519189834594727</v>
       </c>
       <c r="F111" t="n">
-        <v>5.334463596343994</v>
+        <v>31.44784545898438</v>
       </c>
       <c r="G111" t="n">
-        <v>1.790346026420593</v>
+        <v>21.17712020874023</v>
       </c>
       <c r="H111" t="n">
-        <v>-1.817623615264893</v>
+        <v>-6.45473051071167</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.02106213755905628</v>
+        <v>0.1526437053084373</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.005543315317481756</v>
+        <v>0.1538560524582863</v>
       </c>
       <c r="C112" t="n">
-        <v>4.357444763183594</v>
+        <v>29.21649169921875</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5134742259979248</v>
+        <v>17.41942596435547</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7386435270309448</v>
+        <v>-7.042675495147705</v>
       </c>
       <c r="F112" t="n">
-        <v>4.100879192352295</v>
+        <v>29.14654159545898</v>
       </c>
       <c r="G112" t="n">
-        <v>1.118674397468567</v>
+        <v>19.57817268371582</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.4783154726028442</v>
+        <v>-4.82642936706543</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.01560438703745604</v>
+        <v>0.1778998214006424</v>
       </c>
       <c r="B113" t="n">
-        <v>0.02966791950166225</v>
+        <v>0.1806645554304123</v>
       </c>
       <c r="C113" t="n">
-        <v>3.02107310295105</v>
+        <v>27.14633941650391</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.8629165887832642</v>
+        <v>16.07193374633789</v>
       </c>
       <c r="E113" t="n">
-        <v>1.8196861743927</v>
+        <v>-5.787331581115723</v>
       </c>
       <c r="F113" t="n">
-        <v>2.800703048706055</v>
+        <v>26.78247833251953</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.06697901338338852</v>
+        <v>18.24890899658203</v>
       </c>
       <c r="H113" t="n">
-        <v>0.7446629405021667</v>
+        <v>-3.223262786865234</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.05327445641160011</v>
+        <v>0.1950368097424507</v>
       </c>
       <c r="B114" t="n">
-        <v>0.06483349204063416</v>
+        <v>0.2081837806105614</v>
       </c>
       <c r="C114" t="n">
-        <v>1.648125648498535</v>
+        <v>24.80331420898438</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.484391927719116</v>
+        <v>15.01413726806641</v>
       </c>
       <c r="E114" t="n">
-        <v>2.671140909194946</v>
+        <v>-3.60284161567688</v>
       </c>
       <c r="F114" t="n">
-        <v>1.502213001251221</v>
+        <v>24.01602935791016</v>
       </c>
       <c r="G114" t="n">
-        <v>-1.561032176017761</v>
+        <v>16.81974029541016</v>
       </c>
       <c r="H114" t="n">
-        <v>1.795618414878845</v>
+        <v>-2.064155101776123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.08961589634418488</v>
+        <v>0.2227597776055336</v>
       </c>
       <c r="B115" t="n">
-        <v>0.09822982549667358</v>
+        <v>0.2441171884536743</v>
       </c>
       <c r="C115" t="n">
-        <v>0.323602169752121</v>
+        <v>22.38177108764648</v>
       </c>
       <c r="D115" t="n">
-        <v>-4.123356342315674</v>
+        <v>13.78793334960938</v>
       </c>
       <c r="E115" t="n">
-        <v>3.283968448638916</v>
+        <v>-2.140385866165161</v>
       </c>
       <c r="F115" t="n">
-        <v>0.269052267074585</v>
+        <v>21.82144355773926</v>
       </c>
       <c r="G115" t="n">
-        <v>-3.151548385620117</v>
+        <v>15.76286506652832</v>
       </c>
       <c r="H115" t="n">
-        <v>2.631943702697754</v>
+        <v>-1.045267701148987</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.1230250298976898</v>
+        <v>0.249255203306675</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1287668198347092</v>
+        <v>0.262518253326416</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.8940486311912537</v>
+        <v>19.97512054443359</v>
       </c>
       <c r="D116" t="n">
-        <v>-5.605684757232666</v>
+        <v>12.72493743896484</v>
       </c>
       <c r="E116" t="n">
-        <v>3.666890382766724</v>
+        <v>0.5057879686355591</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.8585278391838074</v>
+        <v>19.2229175567627</v>
       </c>
       <c r="G116" t="n">
-        <v>-4.664812564849854</v>
+        <v>14.58112525939941</v>
       </c>
       <c r="H116" t="n">
-        <v>3.237459659576416</v>
+        <v>0.05550795793533325</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1532331258058548</v>
+        <v>0.2746027737855911</v>
       </c>
       <c r="B117" t="n">
-        <v>0.1565077006816864</v>
+        <v>0.2965650945901871</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.995032429695129</v>
+        <v>17.65938949584961</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.833010196685791</v>
+        <v>11.62440395355225</v>
       </c>
       <c r="E117" t="n">
-        <v>3.865418434143066</v>
+        <v>2.853095293045044</v>
       </c>
       <c r="F117" t="n">
-        <v>-1.882860541343689</v>
+        <v>16.79304504394531</v>
       </c>
       <c r="G117" t="n">
-        <v>-5.991254329681396</v>
+        <v>12.87273025512695</v>
       </c>
       <c r="H117" t="n">
-        <v>3.640918731689453</v>
+        <v>1.996960163116455</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1812915802001953</v>
+        <v>0.2981811362504959</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1826564818620682</v>
+        <v>0.322206472158432</v>
       </c>
       <c r="C118" t="n">
-        <v>-3.017668724060059</v>
+        <v>14.97498893737793</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.782037734985352</v>
+        <v>9.659727096557617</v>
       </c>
       <c r="E118" t="n">
-        <v>3.965810060501099</v>
+        <v>5.012502670288086</v>
       </c>
       <c r="F118" t="n">
-        <v>-2.848405599594116</v>
+        <v>14.42146682739258</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.089523792266846</v>
+        <v>12.87273025512695</v>
       </c>
       <c r="H118" t="n">
-        <v>3.917769908905029</v>
+        <v>1.996960163116455</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.2089344263076782</v>
+        <v>0.3305372244119644</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2089769542217255</v>
+        <v>0.3484382438659668</v>
       </c>
       <c r="C119" t="n">
-        <v>-4.02515697479248</v>
+        <v>12.85607719421387</v>
       </c>
       <c r="D119" t="n">
-        <v>-8.486124992370605</v>
+        <v>8.942563056945801</v>
       </c>
       <c r="E119" t="n">
-        <v>4.073345184326172</v>
+        <v>7.028006553649902</v>
       </c>
       <c r="F119" t="n">
-        <v>-3.820289611816406</v>
+        <v>12.33355140686035</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.972648143768311</v>
+        <v>10.97023010253906</v>
       </c>
       <c r="H119" t="n">
-        <v>4.16739559173584</v>
+        <v>3.76689600944519</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.2377405166625977</v>
+        <v>0.3470002144575119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2370160222053528</v>
+        <v>0.3688977748155594</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.075042724609375</v>
+        <v>10.64316368103027</v>
       </c>
       <c r="D120" t="n">
-        <v>-9.007229804992676</v>
+        <v>7.843592643737793</v>
       </c>
       <c r="E120" t="n">
-        <v>4.276809215545654</v>
+        <v>7.028006553649902</v>
       </c>
       <c r="F120" t="n">
-        <v>-4.855633735656738</v>
+        <v>10.43643379211426</v>
       </c>
       <c r="G120" t="n">
-        <v>-8.68358039855957</v>
+        <v>9.194544792175293</v>
       </c>
       <c r="H120" t="n">
-        <v>4.477766990661621</v>
+        <v>6.514631271362305</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2685212194919586</v>
+        <v>0.3714486730098724</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2675292789936066</v>
+        <v>0.3882468378543854</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.196896076202393</v>
+        <v>9.124334335327148</v>
       </c>
       <c r="D121" t="n">
-        <v>-9.406770706176758</v>
+        <v>7.136233329772949</v>
       </c>
       <c r="E121" t="n">
-        <v>4.620106220245361</v>
+        <v>10.86129665374756</v>
       </c>
       <c r="F121" t="n">
-        <v>-5.98233699798584</v>
+        <v>8.812023162841797</v>
       </c>
       <c r="G121" t="n">
-        <v>-9.268491744995117</v>
+        <v>9.441594123840332</v>
       </c>
       <c r="H121" t="n">
-        <v>4.896962642669678</v>
+        <v>8.344936370849609</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.3011278212070465</v>
+        <v>0.3801892167329788</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3003032505512238</v>
+        <v>0.4035746246576309</v>
       </c>
       <c r="C122" t="n">
-        <v>-7.385297298431396</v>
+        <v>6.963705062866211</v>
       </c>
       <c r="D122" t="n">
-        <v>-9.72386646270752</v>
+        <v>7.479619026184082</v>
       </c>
       <c r="E122" t="n">
-        <v>5.093910694122314</v>
+        <v>10.86129665374756</v>
       </c>
       <c r="F122" t="n">
-        <v>-7.192517280578613</v>
+        <v>7.705635070800781</v>
       </c>
       <c r="G122" t="n">
-        <v>-9.756204605102539</v>
+        <v>9.317889213562012</v>
       </c>
       <c r="H122" t="n">
-        <v>5.42353343963623</v>
+        <v>10.14141464233398</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.3346512615680695</v>
+        <v>0.4098890841007233</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3343583643436432</v>
+        <v>0.4102464669942856</v>
       </c>
       <c r="C123" t="n">
-        <v>-8.607113838195801</v>
+        <v>5.587486267089844</v>
       </c>
       <c r="D123" t="n">
-        <v>-9.966954231262207</v>
+        <v>6.909584999084473</v>
       </c>
       <c r="E123" t="n">
-        <v>5.647196769714355</v>
+        <v>12.3818359375</v>
       </c>
       <c r="F123" t="n">
-        <v>-8.450002670288086</v>
+        <v>6.428147315979004</v>
       </c>
       <c r="G123" t="n">
-        <v>-10.14970302581787</v>
+        <v>8.628525733947754</v>
       </c>
       <c r="H123" t="n">
-        <v>6.01580286026001</v>
+        <v>11.27099990844727</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.3678531348705292</v>
+        <v>0.4161609911918641</v>
       </c>
       <c r="B124" t="n">
-        <v>0.36838498711586</v>
+        <v>0.4266729068756104</v>
       </c>
       <c r="C124" t="n">
-        <v>-9.81721019744873</v>
+        <v>4.08119535446167</v>
       </c>
       <c r="D124" t="n">
-        <v>-10.11936187744141</v>
+        <v>7.136353492736816</v>
       </c>
       <c r="E124" t="n">
-        <v>6.210349559783936</v>
+        <v>14.02760696411133</v>
       </c>
       <c r="F124" t="n">
-        <v>-9.706436157226562</v>
+        <v>4.984694480895996</v>
       </c>
       <c r="G124" t="n">
-        <v>-10.43046283721924</v>
+        <v>9.649468421936035</v>
       </c>
       <c r="H124" t="n">
-        <v>6.612703800201416</v>
+        <v>13.79310512542725</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.399590790271759</v>
+        <v>0.4335030174255372</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4011772274971008</v>
+        <v>0.444923095703125</v>
       </c>
       <c r="C125" t="n">
-        <v>-10.97394180297852</v>
+        <v>2.514340400695801</v>
       </c>
       <c r="D125" t="n">
-        <v>-10.15280532836914</v>
+        <v>7.052786827087402</v>
       </c>
       <c r="E125" t="n">
-        <v>6.717779636383057</v>
+        <v>14.98476982116699</v>
       </c>
       <c r="F125" t="n">
-        <v>-10.91729259490967</v>
+        <v>3.633758783340454</v>
       </c>
       <c r="G125" t="n">
-        <v>-10.57028675079346</v>
+        <v>10.24712753295898</v>
       </c>
       <c r="H125" t="n">
-        <v>7.155065536499023</v>
+        <v>16.03341293334961</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4290083944797516</v>
+        <v>0.4507502406835556</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4318380951881409</v>
+        <v>0.4591931074857712</v>
       </c>
       <c r="C126" t="n">
-        <v>-12.04611492156982</v>
+        <v>0.5141457319259644</v>
       </c>
       <c r="D126" t="n">
-        <v>-10.03909301757812</v>
+        <v>7.52080249786377</v>
       </c>
       <c r="E126" t="n">
-        <v>7.117424488067627</v>
+        <v>15.95100784301758</v>
       </c>
       <c r="F126" t="n">
-        <v>-12.0494441986084</v>
+        <v>2.450423240661621</v>
       </c>
       <c r="G126" t="n">
-        <v>-10.54190540313721</v>
+        <v>11.29929637908936</v>
       </c>
       <c r="H126" t="n">
-        <v>7.595127582550049</v>
+        <v>17.9124641418457</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4554315209388733</v>
+        <v>0.4765405988693238</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4596960246562958</v>
+        <v>0.4707111477851868</v>
       </c>
       <c r="C127" t="n">
-        <v>-13.00914859771729</v>
+        <v>-0.8346864581108093</v>
       </c>
       <c r="D127" t="n">
-        <v>-9.752392768859863</v>
+        <v>7.558079719543457</v>
       </c>
       <c r="E127" t="n">
-        <v>7.361632823944092</v>
+        <v>16.37372207641602</v>
       </c>
       <c r="F127" t="n">
-        <v>-13.07810020446777</v>
+        <v>1.220614671707153</v>
       </c>
       <c r="G127" t="n">
-        <v>-10.32138061523438</v>
+        <v>12.42219829559326</v>
       </c>
       <c r="H127" t="n">
-        <v>7.888298988342285</v>
+        <v>17.9124641418457</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4781154096126556</v>
+        <v>0.4839322930574417</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4840872287750244</v>
+        <v>0.4851836860179901</v>
       </c>
       <c r="C128" t="n">
-        <v>-13.83590126037598</v>
+        <v>-2.161502599716187</v>
       </c>
       <c r="D128" t="n">
-        <v>-9.261692047119141</v>
+        <v>9.351296424865723</v>
       </c>
       <c r="E128" t="n">
-        <v>7.3865966796875</v>
+        <v>14.01227855682373</v>
       </c>
       <c r="F128" t="n">
-        <v>-13.97874736785889</v>
+        <v>0.06654775142669678</v>
       </c>
       <c r="G128" t="n">
-        <v>-9.881669044494629</v>
+        <v>14.11470031738281</v>
       </c>
       <c r="H128" t="n">
-        <v>7.973349571228027</v>
+        <v>19.64508056640625</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4960258305072784</v>
+        <v>0.497760449051857</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5041645765304565</v>
+        <v>0.4974115008115769</v>
       </c>
       <c r="C129" t="n">
-        <v>-14.48867511749268</v>
+        <v>-3.761703968048096</v>
       </c>
       <c r="D129" t="n">
-        <v>-8.518261909484863</v>
+        <v>11.7017936706543</v>
       </c>
       <c r="E129" t="n">
-        <v>7.091137886047363</v>
+        <v>12.22286987304688</v>
       </c>
       <c r="F129" t="n">
-        <v>-14.72010231018066</v>
+        <v>0.06654775142669678</v>
       </c>
       <c r="G129" t="n">
-        <v>-9.180962562561035</v>
+        <v>16.54726791381836</v>
       </c>
       <c r="H129" t="n">
-        <v>7.751258850097656</v>
+        <v>18.29502487182617</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.5076406598091125</v>
+        <v>0.5176164758205414</v>
       </c>
       <c r="B130" t="n">
-        <v>0.518694281578064</v>
+        <v>0.4987254112958908</v>
       </c>
       <c r="C130" t="n">
-        <v>-14.91199588775635</v>
+        <v>-3.761703968048096</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.440254211425781</v>
+        <v>13.37026309967041</v>
       </c>
       <c r="E130" t="n">
-        <v>6.313243389129639</v>
+        <v>7.732189178466797</v>
       </c>
       <c r="F130" t="n">
-        <v>-15.25661277770996</v>
+        <v>-1.203388690948486</v>
       </c>
       <c r="G130" t="n">
-        <v>-8.146748542785645</v>
+        <v>18.02066040039062</v>
       </c>
       <c r="H130" t="n">
-        <v>7.06093692779541</v>
+        <v>15.54256057739258</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.5105686187744141</v>
+        <v>0.5174068415164947</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5255745053291321</v>
+        <v>0.5184035205841064</v>
       </c>
       <c r="C131" t="n">
-        <v>-15.01871013641357</v>
+        <v>-5.34212064743042</v>
       </c>
       <c r="D131" t="n">
-        <v>-5.890322208404541</v>
+        <v>15.66696357727051</v>
       </c>
       <c r="E131" t="n">
-        <v>4.786559104919434</v>
+        <v>0.2507643699645996</v>
       </c>
       <c r="F131" t="n">
-        <v>-15.510666847229</v>
+        <v>-2.938728809356689</v>
       </c>
       <c r="G131" t="n">
-        <v>-6.64899206161499</v>
+        <v>20.73905754089355</v>
       </c>
       <c r="H131" t="n">
-        <v>5.632430553436279</v>
+        <v>9.159591674804688</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.5008465647697449</v>
+        <v>0.5245630288124085</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5207721590995789</v>
+        <v>0.5104067742824555</v>
       </c>
       <c r="C132" t="n">
-        <v>-14.66437530517578</v>
+        <v>-6.017369747161865</v>
       </c>
       <c r="D132" t="n">
-        <v>-3.654821872711182</v>
+        <v>19.76623344421387</v>
       </c>
       <c r="E132" t="n">
-        <v>2.080969095230103</v>
+        <v>-10.64585590362549</v>
       </c>
       <c r="F132" t="n">
-        <v>-15.33333969116211</v>
+        <v>-2.233524799346924</v>
       </c>
       <c r="G132" t="n">
-        <v>-4.463021278381348</v>
+        <v>24.68439102172852</v>
       </c>
       <c r="H132" t="n">
-        <v>3.015444993972778</v>
+        <v>0.08976602554321289</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.472990483045578</v>
+        <v>0.5093598347902298</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4976529181003571</v>
+        <v>0.51087497651577</v>
       </c>
       <c r="C133" t="n">
-        <v>-13.64911460876465</v>
+        <v>-4.582822322845459</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.531261146068573</v>
+        <v>24.72875022888184</v>
       </c>
       <c r="E133" t="n">
-        <v>-2.249190092086792</v>
+        <v>-25.102783203125</v>
       </c>
       <c r="F133" t="n">
-        <v>-14.479660987854</v>
+        <v>-2.274813175201416</v>
       </c>
       <c r="G133" t="n">
-        <v>-1.317337036132812</v>
+        <v>29.77428245544434</v>
       </c>
       <c r="H133" t="n">
-        <v>-1.301879048347473</v>
+        <v>-11.31412315368652</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4246067702770233</v>
+        <v>0.4920351833105088</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4520050585269928</v>
+        <v>0.4888563930988312</v>
       </c>
       <c r="C134" t="n">
-        <v>-11.8856897354126</v>
+        <v>-1.601917505264282</v>
       </c>
       <c r="D134" t="n">
-        <v>3.319847822189331</v>
+        <v>31.81437301635742</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.772619724273682</v>
+        <v>-42.8149528503418</v>
       </c>
       <c r="F134" t="n">
-        <v>-12.79411220550537</v>
+        <v>1.520790576934814</v>
       </c>
       <c r="G134" t="n">
-        <v>2.750841617584229</v>
+        <v>36.50521850585938</v>
       </c>
       <c r="H134" t="n">
-        <v>-7.002948760986328</v>
+        <v>-24.28935623168945</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3613532483577728</v>
+        <v>0.4635019201040268</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3897097110748291</v>
+        <v>0.446812110543251</v>
       </c>
       <c r="C135" t="n">
-        <v>-9.58031177520752</v>
+        <v>1.136198282241821</v>
       </c>
       <c r="D135" t="n">
-        <v>7.305473804473877</v>
+        <v>39.58285522460938</v>
       </c>
       <c r="E135" t="n">
-        <v>-12.6034984588623</v>
+        <v>-57.13845825195312</v>
       </c>
       <c r="F135" t="n">
-        <v>-10.49385261535645</v>
+        <v>4.094868659973145</v>
       </c>
       <c r="G135" t="n">
-        <v>7.153045654296875</v>
+        <v>43.82792663574219</v>
       </c>
       <c r="H135" t="n">
-        <v>-12.21987152099609</v>
+        <v>-35.60272979736328</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.2899170815944672</v>
+        <v>0.4197320401668549</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6321602247226132</v>
+        <v>0.5726298897756142</v>
       </c>
       <c r="C136" t="n">
-        <v>-6.976704120635986</v>
+        <v>5.821753978729248</v>
       </c>
       <c r="D136" t="n">
-        <v>11.02740859985352</v>
+        <v>48.54589080810547</v>
       </c>
       <c r="E136" t="n">
-        <v>-15.03437328338623</v>
+        <v>-63.47507476806641</v>
       </c>
       <c r="F136" t="n">
-        <v>-7.899380683898926</v>
+        <v>8.512542724609375</v>
       </c>
       <c r="G136" t="n">
-        <v>11.2449369430542</v>
+        <v>51.55570220947266</v>
       </c>
       <c r="H136" t="n">
-        <v>-15.05628108978271</v>
+        <v>-39.44956207275391</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.712859870525921</v>
+        <v>0.6174214163771252</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8288921431947693</v>
+        <v>0.727083343021967</v>
       </c>
       <c r="C137" t="n">
-        <v>-4.221407413482666</v>
+        <v>11.18527126312256</v>
       </c>
       <c r="D137" t="n">
-        <v>14.5233268737793</v>
+        <v>56.41548919677734</v>
       </c>
       <c r="E137" t="n">
-        <v>-14.72269821166992</v>
+        <v>-59.54054641723633</v>
       </c>
       <c r="F137" t="n">
-        <v>-5.207300662994385</v>
+        <v>13.2717866897583</v>
       </c>
       <c r="G137" t="n">
-        <v>14.7602596282959</v>
+        <v>58.60924911499023</v>
       </c>
       <c r="H137" t="n">
-        <v>-15.02133655548096</v>
+        <v>-37.73517990112305</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9248935984772488</v>
+        <v>0.7939783514852554</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9436399826034948</v>
+        <v>0.8555012760592493</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.462816953659058</v>
+        <v>17.05293464660645</v>
       </c>
       <c r="D138" t="n">
-        <v>17.74514770507812</v>
+        <v>62.72668838500977</v>
       </c>
       <c r="E138" t="n">
-        <v>-12.29155540466309</v>
+        <v>-50.69422149658203</v>
       </c>
       <c r="F138" t="n">
-        <v>-2.549921274185181</v>
+        <v>18.50799560546875</v>
       </c>
       <c r="G138" t="n">
-        <v>17.67045593261719</v>
+        <v>63.83949279785156</v>
       </c>
       <c r="H138" t="n">
-        <v>-12.7834939956665</v>
+        <v>-32.61631774902344</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9903892836024598</v>
+        <v>0.9153050819626878</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9887031122918766</v>
+        <v>0.9411565503827422</v>
       </c>
       <c r="C139" t="n">
-        <v>1.118007183074951</v>
+        <v>22.67026519775391</v>
       </c>
       <c r="D139" t="n">
-        <v>20.20178031921387</v>
+        <v>66.33002471923828</v>
       </c>
       <c r="E139" t="n">
-        <v>-8.830670356750488</v>
+        <v>-39.65758514404297</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.02650241553783417</v>
+        <v>23.30844116210938</v>
       </c>
       <c r="G139" t="n">
-        <v>19.8111515045166</v>
+        <v>67.12593078613281</v>
       </c>
       <c r="H139" t="n">
-        <v>-9.476943016052246</v>
+        <v>-25.96094512939453</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9998840515246413</v>
+        <v>0.9742715067186316</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9990624262317555</v>
+        <v>0.9815325690741827</v>
       </c>
       <c r="C140" t="n">
-        <v>3.356754064559937</v>
+        <v>27.60464668273926</v>
       </c>
       <c r="D140" t="n">
-        <v>21.3802375793457</v>
+        <v>67.51576232910156</v>
       </c>
       <c r="E140" t="n">
-        <v>-5.339835643768311</v>
+        <v>-29.98245620727539</v>
       </c>
       <c r="F140" t="n">
-        <v>2.271977424621582</v>
+        <v>27.50528526306152</v>
       </c>
       <c r="G140" t="n">
-        <v>20.91577339172363</v>
+        <v>68.69847106933594</v>
       </c>
       <c r="H140" t="n">
-        <v>-6.068911552429199</v>
+        <v>-20.33963203430176</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.000009484893393</v>
+        <v>0.9943714611335092</v>
       </c>
       <c r="B141" t="n">
-        <v>1.000017493492905</v>
+        <v>0.9956239435360336</v>
       </c>
       <c r="C141" t="n">
-        <v>5.169959545135498</v>
+        <v>32.02424621582031</v>
       </c>
       <c r="D141" t="n">
-        <v>21.13834762573242</v>
+        <v>66.46090698242188</v>
       </c>
       <c r="E141" t="n">
-        <v>-2.37195611000061</v>
+        <v>-20.13836860656738</v>
       </c>
       <c r="F141" t="n">
-        <v>4.26133918762207</v>
+        <v>31.52378463745117</v>
       </c>
       <c r="G141" t="n">
-        <v>20.83965492248535</v>
+        <v>68.69847106933594</v>
       </c>
       <c r="H141" t="n">
-        <v>-3.096632957458496</v>
+        <v>-14.22772789001465</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9999985423035299</v>
+        <v>0.999208144130163</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9999982196389923</v>
+        <v>0.9993225924857085</v>
       </c>
       <c r="C142" t="n">
-        <v>6.558512210845947</v>
+        <v>34.81995391845703</v>
       </c>
       <c r="D142" t="n">
-        <v>19.60534286499023</v>
+        <v>63.34036254882812</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.09184987843036652</v>
+        <v>-12.64723491668701</v>
       </c>
       <c r="F142" t="n">
-        <v>5.887912273406982</v>
+        <v>34.33483505249023</v>
       </c>
       <c r="G142" t="n">
-        <v>19.59079170227051</v>
+        <v>64.67510223388672</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.7570403814315796</v>
+        <v>-10.16060161590576</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.000000300401942</v>
+        <v>0.9999071516014283</v>
       </c>
       <c r="B143" t="n">
-        <v>1.000000295251003</v>
+        <v>0.9999183799946173</v>
       </c>
       <c r="C143" t="n">
-        <v>7.570588111877441</v>
+        <v>36.99628067016602</v>
       </c>
       <c r="D143" t="n">
-        <v>16.9798583984375</v>
+        <v>58.63050079345703</v>
       </c>
       <c r="E143" t="n">
-        <v>1.541178226470947</v>
+        <v>-8.158330917358398</v>
       </c>
       <c r="F143" t="n">
-        <v>7.141680717468262</v>
+        <v>36.30693817138672</v>
       </c>
       <c r="G143" t="n">
-        <v>17.2561092376709</v>
+        <v>60.30738830566406</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9478892683982849</v>
+        <v>-7.050075531005859</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999999273772056</v>
+        <v>0.9999920037559276</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9999999375540937</v>
+        <v>0.999992144544309</v>
       </c>
       <c r="C144" t="n">
-        <v>8.259657859802246</v>
+        <v>38.68537139892578</v>
       </c>
       <c r="D144" t="n">
-        <v>13.4579610824585</v>
+        <v>52.18553161621094</v>
       </c>
       <c r="E144" t="n">
-        <v>2.631835222244263</v>
+        <v>-4.608270645141602</v>
       </c>
       <c r="F144" t="n">
-        <v>8.035325050354004</v>
+        <v>38.24308013916016</v>
       </c>
       <c r="G144" t="n">
-        <v>13.96279716491699</v>
+        <v>54.82771301269531</v>
       </c>
       <c r="H144" t="n">
-        <v>2.100212812423706</v>
+        <v>-4.806243896484375</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.000000019087656</v>
+        <v>0.9999995035191026</v>
       </c>
       <c r="B145" t="n">
-        <v>1.000000014966529</v>
+        <v>0.9999995633226417</v>
       </c>
       <c r="C145" t="n">
-        <v>8.666869163513184</v>
+        <v>39.93925476074219</v>
       </c>
       <c r="D145" t="n">
-        <v>9.269167900085449</v>
+        <v>44.71248626708984</v>
       </c>
       <c r="E145" t="n">
-        <v>3.278121709823608</v>
+        <v>-4.608270645141602</v>
       </c>
       <c r="F145" t="n">
-        <v>8.586635589599609</v>
+        <v>39.80792236328125</v>
       </c>
       <c r="G145" t="n">
-        <v>9.907940864562988</v>
+        <v>48.41286468505859</v>
       </c>
       <c r="H145" t="n">
-        <v>2.798376560211182</v>
+        <v>-2.831462860107422</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999999948136761</v>
+        <v>0.999999977301393</v>
       </c>
       <c r="B146" t="n">
-        <v>0.999999996224429</v>
+        <v>0.9999999868767474</v>
       </c>
       <c r="C146" t="n">
-        <v>8.838363647460938</v>
+        <v>40.95552062988281</v>
       </c>
       <c r="D146" t="n">
-        <v>4.736067295074463</v>
+        <v>37.20785522460938</v>
       </c>
       <c r="E146" t="n">
-        <v>3.550774812698364</v>
+        <v>-5.613348007202148</v>
       </c>
       <c r="F146" t="n">
-        <v>8.833137512207031</v>
+        <v>41.02720642089844</v>
       </c>
       <c r="G146" t="n">
-        <v>5.410499572753906</v>
+        <v>42.23511123657227</v>
       </c>
       <c r="H146" t="n">
-        <v>3.124798774719238</v>
+        <v>-2.831462860107422</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.000000001416607</v>
+        <v>0.9999999993156587</v>
       </c>
       <c r="B147" t="n">
-        <v>1.000000000959941</v>
+        <v>0.999999999850938</v>
       </c>
       <c r="C147" t="n">
-        <v>8.866022109985352</v>
+        <v>40.95552062988281</v>
       </c>
       <c r="D147" t="n">
-        <v>0.2715692520141602</v>
+        <v>30.50032615661621</v>
       </c>
       <c r="E147" t="n">
-        <v>3.48332142829895</v>
+        <v>-9.351137161254883</v>
       </c>
       <c r="F147" t="n">
-        <v>8.871945381164551</v>
+        <v>42.04683685302734</v>
       </c>
       <c r="G147" t="n">
-        <v>0.9012654423713684</v>
+        <v>36.08316040039062</v>
       </c>
       <c r="H147" t="n">
-        <v>3.125420331954956</v>
+        <v>-3.363553524017334</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.999999999609782</v>
+        <v>0.9999999999888506</v>
       </c>
       <c r="B148" t="n">
-        <v>0.999999999755531</v>
+        <v>1.000000000000922</v>
       </c>
       <c r="C148" t="n">
-        <v>8.910778045654297</v>
+        <v>42.66476440429688</v>
       </c>
       <c r="D148" t="n">
-        <v>-3.714815378189087</v>
+        <v>23.90906524658203</v>
       </c>
       <c r="E148" t="n">
-        <v>3.059533596038818</v>
+        <v>-13.59144878387451</v>
       </c>
       <c r="F148" t="n">
-        <v>8.880168914794922</v>
+        <v>42.04683685302734</v>
       </c>
       <c r="G148" t="n">
-        <v>-3.184254169464111</v>
+        <v>29.62516021728516</v>
       </c>
       <c r="H148" t="n">
-        <v>2.793642520904541</v>
+        <v>-6.112309455871582</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.000000000112264</v>
+        <v>0.9999999999998157</v>
       </c>
       <c r="B149" t="n">
-        <v>1.000000000064416</v>
+        <v>0.9999999999999862</v>
       </c>
       <c r="C149" t="n">
-        <v>9.147157669067383</v>
+        <v>42.6528434753418</v>
       </c>
       <c r="D149" t="n">
-        <v>-6.921647071838379</v>
+        <v>19.01216697692871</v>
       </c>
       <c r="E149" t="n">
-        <v>2.237545013427734</v>
+        <v>-16.6530818939209</v>
       </c>
       <c r="F149" t="n">
-        <v>9.052851676940918</v>
+        <v>43.47745513916016</v>
       </c>
       <c r="G149" t="n">
-        <v>-6.522708415985107</v>
+        <v>24.14616012573242</v>
       </c>
       <c r="H149" t="n">
-        <v>2.090031147003174</v>
+        <v>-8.249150276184082</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.999999999964856</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999999816488</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>9.636834144592285</v>
+        <v>43.65598297119141</v>
       </c>
       <c r="D150" t="n">
-        <v>-9.184741020202637</v>
+        <v>14.80134582519531</v>
       </c>
       <c r="E150" t="n">
-        <v>1.036843419075012</v>
+        <v>-18.68198776245117</v>
       </c>
       <c r="F150" t="n">
-        <v>9.471447944641113</v>
+        <v>43.67282867431641</v>
       </c>
       <c r="G150" t="n">
-        <v>-8.933966636657715</v>
+        <v>19.78201103210449</v>
       </c>
       <c r="H150" t="n">
-        <v>1.021990299224854</v>
+        <v>-8.249150276184082</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.000000000012137</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>1.000000000005753</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>10.26057720184326</v>
+        <v>43.58249282836914</v>
       </c>
       <c r="D151" t="n">
-        <v>-10.45496559143066</v>
+        <v>12.08666801452637</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.3925987184047699</v>
+        <v>-20.46610641479492</v>
       </c>
       <c r="F151" t="n">
-        <v>10.0309944152832</v>
+        <v>43.00987243652344</v>
       </c>
       <c r="G151" t="n">
-        <v>-10.35792064666748</v>
+        <v>17.32436180114746</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.2852957844734192</v>
+        <v>-9.242834091186523</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9999999999954808</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>0.99999999999806</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>10.78255462646484</v>
+        <v>43.26713562011719</v>
       </c>
       <c r="D152" t="n">
-        <v>-10.77854347229004</v>
+        <v>12.08666801452637</v>
       </c>
       <c r="E152" t="n">
-        <v>-1.804680705070496</v>
+        <v>-22.37671661376953</v>
       </c>
       <c r="F152" t="n">
-        <v>10.49602222442627</v>
+        <v>43.60200500488281</v>
       </c>
       <c r="G152" t="n">
-        <v>-10.8349609375</v>
+        <v>16.11654472351074</v>
       </c>
       <c r="H152" t="n">
-        <v>-1.609408378601074</v>
+        <v>-10.01593589782715</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1.000000000001724</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>1.000000000000665</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>10.9589376449585</v>
+        <v>42.75552749633789</v>
       </c>
       <c r="D153" t="n">
-        <v>-10.28356742858887</v>
+        <v>11.53682422637939</v>
       </c>
       <c r="E153" t="n">
-        <v>-2.94633150100708</v>
+        <v>-26.74954223632812</v>
       </c>
       <c r="F153" t="n">
-        <v>10.60870933532715</v>
+        <v>43.19182205200195</v>
       </c>
       <c r="G153" t="n">
-        <v>-10.48695755004883</v>
+        <v>16.11654472351074</v>
       </c>
       <c r="H153" t="n">
-        <v>-2.708818912506104</v>
+        <v>-15.14478397369385</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.9999999999993732</v>
+        <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9999999999997864</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>10.61351585388184</v>
+        <v>41.93131637573242</v>
       </c>
       <c r="D154" t="n">
-        <v>-9.175721168518066</v>
+        <v>13.73306179046631</v>
       </c>
       <c r="E154" t="n">
-        <v>-3.624027729034424</v>
+        <v>-26.74954223632812</v>
       </c>
       <c r="F154" t="n">
-        <v>10.17949771881104</v>
+        <v>42.35175323486328</v>
       </c>
       <c r="G154" t="n">
-        <v>-9.503243446350098</v>
+        <v>16.58832550048828</v>
       </c>
       <c r="H154" t="n">
-        <v>-3.389720916748047</v>
+        <v>-15.14478397369385</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.07262327522039413</v>
+        <v>0.02248571947216988</v>
       </c>
       <c r="B155" t="n">
-        <v>0.06775466352701187</v>
+        <v>0.01722204566001892</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9429261088371277</v>
+        <v>43.57385635375977</v>
       </c>
       <c r="D155" t="n">
-        <v>-2.213085174560547</v>
+        <v>17.36750602722168</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.8032280206680298</v>
+        <v>-30.98376846313477</v>
       </c>
       <c r="F155" t="n">
-        <v>1.394348382949829</v>
+        <v>41.25863265991211</v>
       </c>
       <c r="G155" t="n">
-        <v>-2.022811412811279</v>
+        <v>19.93294525146484</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.7714744806289673</v>
+        <v>-19.68587684631348</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.03423967584967613</v>
+        <v>-0.02448487248271704</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02800272963941097</v>
+        <v>-0.002966018826700747</v>
       </c>
       <c r="C156" t="n">
-        <v>2.341879367828369</v>
+        <v>43.57385635375977</v>
       </c>
       <c r="D156" t="n">
-        <v>-2.60767674446106</v>
+        <v>19.74222946166992</v>
       </c>
       <c r="E156" t="n">
-        <v>-2.012161731719971</v>
+        <v>-30.98376846313477</v>
       </c>
       <c r="F156" t="n">
-        <v>2.862190246582031</v>
+        <v>43.03894424438477</v>
       </c>
       <c r="G156" t="n">
-        <v>-2.386498689651489</v>
+        <v>21.04310035705566</v>
       </c>
       <c r="H156" t="n">
-        <v>-1.984312534332275</v>
+        <v>-21.13027763366699</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.01262657437473536</v>
+        <v>-0.009852488487958909</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.01933233439922333</v>
+        <v>0.005265530245378614</v>
       </c>
       <c r="C157" t="n">
-        <v>4.049996852874756</v>
+        <v>44.40920257568359</v>
       </c>
       <c r="D157" t="n">
-        <v>-2.687633752822876</v>
+        <v>21.44850921630859</v>
       </c>
       <c r="E157" t="n">
-        <v>-3.42669415473938</v>
+        <v>-26.19816970825195</v>
       </c>
       <c r="F157" t="n">
-        <v>4.610039234161377</v>
+        <v>42.31303405761719</v>
       </c>
       <c r="G157" t="n">
-        <v>-2.47343373298645</v>
+        <v>22.36977005004883</v>
       </c>
       <c r="H157" t="n">
-        <v>-3.457347869873047</v>
+        <v>-21.13027763366699</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-0.05427873134613037</v>
+        <v>0.005198524901643396</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.05994152650237083</v>
+        <v>0.02085171665996313</v>
       </c>
       <c r="C158" t="n">
-        <v>5.56807804107666</v>
+        <v>41.88044738769531</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.281720876693726</v>
+        <v>21.44850921630859</v>
       </c>
       <c r="E158" t="n">
-        <v>-4.405337333679199</v>
+        <v>-22.4196949005127</v>
       </c>
       <c r="F158" t="n">
-        <v>6.109535217285156</v>
+        <v>39.66169357299805</v>
       </c>
       <c r="G158" t="n">
-        <v>-2.106746673583984</v>
+        <v>22.36977005004883</v>
       </c>
       <c r="H158" t="n">
-        <v>-4.576582431793213</v>
+        <v>-18.25417327880859</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.07815684378147125</v>
+        <v>0.02869546443223953</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.08119749277830124</v>
+        <v>0.04980975113809109</v>
       </c>
       <c r="C159" t="n">
-        <v>6.438354969024658</v>
+        <v>39.75572204589844</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.407149314880371</v>
+        <v>22.23541069030762</v>
       </c>
       <c r="E159" t="n">
-        <v>-4.490169048309326</v>
+        <v>-18.93635559082031</v>
       </c>
       <c r="F159" t="n">
-        <v>6.894412517547607</v>
+        <v>37.69173431396484</v>
       </c>
       <c r="G159" t="n">
-        <v>-1.265867829322815</v>
+        <v>22.9826545715332</v>
       </c>
       <c r="H159" t="n">
-        <v>-4.8758864402771</v>
+        <v>-15.71360015869141</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-0.08132249116897583</v>
+        <v>0.06198222734034062</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.08093342185020447</v>
+        <v>0.08000797778367996</v>
       </c>
       <c r="C160" t="n">
-        <v>6.553732395172119</v>
+        <v>37.54163360595703</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.391869068145752</v>
+        <v>20.66192626953125</v>
       </c>
       <c r="E160" t="n">
-        <v>-3.735172510147095</v>
+        <v>-15.5063533782959</v>
       </c>
       <c r="F160" t="n">
-        <v>6.884661674499512</v>
+        <v>36.06609344482422</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.2211560755968094</v>
+        <v>23.54021453857422</v>
       </c>
       <c r="H160" t="n">
-        <v>-4.357707023620605</v>
+        <v>-12.04680252075195</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-0.06833362579345703</v>
+        <v>0.0863940054178238</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.06473953276872635</v>
+        <v>0.09453764736652374</v>
       </c>
       <c r="C161" t="n">
-        <v>6.080331802368164</v>
+        <v>34.58917236328125</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3369696140289307</v>
+        <v>19.44775009155273</v>
       </c>
       <c r="E161" t="n">
-        <v>-2.500352621078491</v>
+        <v>-12.46965789794922</v>
       </c>
       <c r="F161" t="n">
-        <v>6.286701679229736</v>
+        <v>33.94301605224609</v>
       </c>
       <c r="G161" t="n">
-        <v>0.6280203461647034</v>
+        <v>22.73083305358887</v>
       </c>
       <c r="H161" t="n">
-        <v>-3.316617250442505</v>
+        <v>-8.813253402709961</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.04521728307008743</v>
+        <v>0.1255090624094009</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.03936315327882767</v>
+        <v>0.12425333365798</v>
       </c>
       <c r="C162" t="n">
-        <v>5.237818717956543</v>
+        <v>31.90509796142578</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5061404705047607</v>
+        <v>19.44775009155273</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.132909655570984</v>
+        <v>-9.769781112670898</v>
       </c>
       <c r="F162" t="n">
-        <v>5.349678039550781</v>
+        <v>31.67104911804199</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9880220293998718</v>
+        <v>21.61524963378906</v>
       </c>
       <c r="H162" t="n">
-        <v>-2.056304216384888</v>
+        <v>-6.983806610107422</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.01620819419622421</v>
+        <v>0.1511102411150932</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.009371412917971611</v>
+        <v>0.1517048999667168</v>
       </c>
       <c r="C163" t="n">
-        <v>4.180534839630127</v>
+        <v>29.3723201751709</v>
       </c>
       <c r="D163" t="n">
-        <v>0.05471444129943848</v>
+        <v>17.76086807250977</v>
       </c>
       <c r="E163" t="n">
-        <v>0.1614182442426682</v>
+        <v>-7.283720016479492</v>
       </c>
       <c r="F163" t="n">
-        <v>4.242231845855713</v>
+        <v>29.35863494873047</v>
       </c>
       <c r="G163" t="n">
-        <v>0.7516610026359558</v>
+        <v>20.02461242675781</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.7725703716278076</v>
+        <v>-5.331818103790283</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.01632367260754108</v>
+        <v>0.1763489350676537</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02283140458166599</v>
+        <v>0.1783854299783707</v>
       </c>
       <c r="C164" t="n">
-        <v>2.994857549667358</v>
+        <v>27.2692928314209</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.9280694723129272</v>
+        <v>16.35590171813965</v>
       </c>
       <c r="E164" t="n">
-        <v>1.298084735870361</v>
+        <v>-6.008417129516602</v>
       </c>
       <c r="F164" t="n">
-        <v>3.053141593933105</v>
+        <v>26.98885345458984</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.03770371526479721</v>
+        <v>18.72586441040039</v>
       </c>
       <c r="H164" t="n">
-        <v>0.4356068968772888</v>
+        <v>-3.736862182617188</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.05082802847027779</v>
+        <v>0.1940821459889412</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0559038482606411</v>
+        <v>0.2059084144234657</v>
       </c>
       <c r="C165" t="n">
-        <v>1.737289667129517</v>
+        <v>24.90735244750977</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.275208473205566</v>
+        <v>15.30070877075195</v>
       </c>
       <c r="E165" t="n">
-        <v>2.255841255187988</v>
+        <v>-3.839404582977295</v>
       </c>
       <c r="F165" t="n">
-        <v>1.831940412521362</v>
+        <v>24.25886344909668</v>
       </c>
       <c r="G165" t="n">
-        <v>-1.246094226837158</v>
+        <v>17.31435012817383</v>
       </c>
       <c r="H165" t="n">
-        <v>1.521640181541443</v>
+        <v>-2.541038036346436</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.08578532934188843</v>
+        <v>0.2218576961755753</v>
       </c>
       <c r="B166" t="n">
-        <v>0.08871927112340927</v>
+        <v>0.2409501025080681</v>
       </c>
       <c r="C166" t="n">
-        <v>0.4632134139537811</v>
+        <v>22.51010704040527</v>
       </c>
       <c r="D166" t="n">
-        <v>-3.794098854064941</v>
+        <v>14.06351566314697</v>
       </c>
       <c r="E166" t="n">
-        <v>3.031920194625854</v>
+        <v>-2.379038572311401</v>
       </c>
       <c r="F166" t="n">
-        <v>0.6202298402786255</v>
+        <v>22.04034042358398</v>
       </c>
       <c r="G166" t="n">
-        <v>-2.698812246322632</v>
+        <v>16.23771667480469</v>
       </c>
       <c r="H166" t="n">
-        <v>2.456602334976196</v>
+        <v>-1.510893940925598</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.1195890605449677</v>
+        <v>0.2476375821232796</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1201411336660385</v>
+        <v>0.2603075054287911</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.7688190937042236</v>
+        <v>20.11283302307129</v>
       </c>
       <c r="D167" t="n">
-        <v>-5.304594993591309</v>
+        <v>12.97597789764404</v>
       </c>
       <c r="E167" t="n">
-        <v>3.622676849365234</v>
+        <v>0.2305740118026733</v>
       </c>
       <c r="F167" t="n">
-        <v>-0.5400239229202271</v>
+        <v>19.48556137084961</v>
       </c>
       <c r="G167" t="n">
-        <v>-4.220372200012207</v>
+        <v>15.05814552307129</v>
       </c>
       <c r="H167" t="n">
-        <v>3.215755462646484</v>
+        <v>-0.3611724078655243</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.1509598940610886</v>
+        <v>0.2730439424514771</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1493154168128967</v>
+        <v>0.2930907440185547</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.912180781364441</v>
+        <v>17.8247184753418</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.66682243347168</v>
+        <v>11.82815933227539</v>
       </c>
       <c r="E168" t="n">
-        <v>4.028350353240967</v>
+        <v>2.545896053314209</v>
       </c>
       <c r="F168" t="n">
-        <v>-1.617285132408142</v>
+        <v>17.08398056030273</v>
       </c>
       <c r="G168" t="n">
-        <v>-5.665441036224365</v>
+        <v>13.38418197631836</v>
       </c>
       <c r="H168" t="n">
-        <v>3.785038232803345</v>
+        <v>1.55528736114502</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.1794764697551727</v>
+        <v>0.2961363172531128</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1761200875043869</v>
+        <v>0.3185865527391434</v>
       </c>
       <c r="C169" t="n">
-        <v>-2.951514005661011</v>
+        <v>15.17487907409668</v>
       </c>
       <c r="D169" t="n">
-        <v>-7.796230316162109</v>
+        <v>9.86424732208252</v>
       </c>
       <c r="E169" t="n">
-        <v>4.271057605743408</v>
+        <v>4.684343338012695</v>
       </c>
       <c r="F169" t="n">
-        <v>-2.607048273086548</v>
+        <v>14.70819759368896</v>
       </c>
       <c r="G169" t="n">
-        <v>-6.9371337890625</v>
+        <v>13.38418197631836</v>
       </c>
       <c r="H169" t="n">
-        <v>4.177508354187012</v>
+        <v>1.55528736114502</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.2058007568120956</v>
+        <v>0.3280525398254395</v>
       </c>
       <c r="B170" t="n">
-        <v>0.20136958360672</v>
+        <v>0.3452344971895218</v>
       </c>
       <c r="C170" t="n">
-        <v>-3.910945653915405</v>
+        <v>13.08527183532715</v>
       </c>
       <c r="D170" t="n">
-        <v>-8.664969444274902</v>
+        <v>9.161704063415527</v>
       </c>
       <c r="E170" t="n">
-        <v>4.407989978790283</v>
+        <v>6.680278778076172</v>
       </c>
       <c r="F170" t="n">
-        <v>-3.539387464523315</v>
+        <v>12.64254951477051</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.991285800933838</v>
+        <v>11.49318599700928</v>
       </c>
       <c r="H170" t="n">
-        <v>4.444284439086914</v>
+        <v>3.39629340171814</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.2314023375511169</v>
+        <v>0.3442606580257416</v>
       </c>
       <c r="B171" t="n">
-        <v>0.2265628576278687</v>
+        <v>0.3651413530111313</v>
       </c>
       <c r="C171" t="n">
-        <v>-4.844037055969238</v>
+        <v>10.90316581726074</v>
       </c>
       <c r="D171" t="n">
-        <v>-9.29218864440918</v>
+        <v>7.987593650817871</v>
       </c>
       <c r="E171" t="n">
-        <v>4.52472972869873</v>
+        <v>6.680278778076172</v>
       </c>
       <c r="F171" t="n">
-        <v>-4.469649791717529</v>
+        <v>10.76886177062988</v>
       </c>
       <c r="G171" t="n">
-        <v>-8.82921028137207</v>
+        <v>9.77415943145752</v>
       </c>
       <c r="H171" t="n">
-        <v>4.667132377624512</v>
+        <v>6.085289001464844</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.2579046487808228</v>
+        <v>0.3683667075634003</v>
       </c>
       <c r="B172" t="n">
-        <v>0.253273218870163</v>
+        <v>0.3842115354537964</v>
       </c>
       <c r="C172" t="n">
-        <v>-5.809957504272461</v>
+        <v>9.404958724975586</v>
       </c>
       <c r="D172" t="n">
-        <v>-9.726508140563965</v>
+        <v>7.273224830627441</v>
       </c>
       <c r="E172" t="n">
-        <v>4.708144187927246</v>
+        <v>10.51186943054199</v>
       </c>
       <c r="F172" t="n">
-        <v>-5.455931186676025</v>
+        <v>9.194272994995117</v>
       </c>
       <c r="G172" t="n">
-        <v>-9.48228645324707</v>
+        <v>9.974024772644043</v>
       </c>
       <c r="H172" t="n">
-        <v>4.932203769683838</v>
+        <v>7.901997089385986</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.2863921821117401</v>
+        <v>0.3769966530799866</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2824984192848206</v>
+        <v>0.3986751019954682</v>
       </c>
       <c r="C173" t="n">
-        <v>-6.848233699798584</v>
+        <v>7.272604942321777</v>
       </c>
       <c r="D173" t="n">
-        <v>-10.02392387390137</v>
+        <v>7.593297004699707</v>
       </c>
       <c r="E173" t="n">
-        <v>5.013669490814209</v>
+        <v>10.51186943054199</v>
       </c>
       <c r="F173" t="n">
-        <v>-6.535072803497314</v>
+        <v>8.085777282714844</v>
       </c>
       <c r="G173" t="n">
-        <v>-9.991717338562012</v>
+        <v>9.889716148376465</v>
       </c>
       <c r="H173" t="n">
-        <v>5.298168659210205</v>
+        <v>9.644692420959473</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.3170054256916046</v>
+        <v>0.4063157606124878</v>
       </c>
       <c r="B174" t="n">
-        <v>0.3142834007740021</v>
+        <v>0.4059597045183182</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.963983058929443</v>
+        <v>5.933276176452637</v>
       </c>
       <c r="D174" t="n">
-        <v>-10.22632122039795</v>
+        <v>6.992575645446777</v>
       </c>
       <c r="E174" t="n">
-        <v>5.445075035095215</v>
+        <v>12.01140213012695</v>
       </c>
       <c r="F174" t="n">
-        <v>-7.708734035491943</v>
+        <v>6.802948951721191</v>
       </c>
       <c r="G174" t="n">
-        <v>-10.38854122161865</v>
+        <v>9.274266242980957</v>
       </c>
       <c r="H174" t="n">
-        <v>5.775472164154053</v>
+        <v>10.80153751373291</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.348957747220993</v>
+        <v>0.4121054077148438</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3477523624897003</v>
+        <v>0.4224833798408508</v>
       </c>
       <c r="C175" t="n">
-        <v>-9.128537178039551</v>
+        <v>4.466366767883301</v>
       </c>
       <c r="D175" t="n">
-        <v>-10.34749794006348</v>
+        <v>7.301440238952637</v>
       </c>
       <c r="E175" t="n">
-        <v>5.95521879196167</v>
+        <v>13.72198295593262</v>
       </c>
       <c r="F175" t="n">
-        <v>-8.944576263427734</v>
+        <v>5.451677322387695</v>
       </c>
       <c r="G175" t="n">
-        <v>-10.68039989471436</v>
+        <v>10.17949771881104</v>
       </c>
       <c r="H175" t="n">
-        <v>6.325178623199463</v>
+        <v>13.26920604705811</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.3808852732181549</v>
+        <v>0.4290036511421204</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3814692497253418</v>
+        <v>0.4385823529958725</v>
       </c>
       <c r="C176" t="n">
-        <v>-10.29218769073486</v>
+        <v>2.944547653198242</v>
       </c>
       <c r="D176" t="n">
-        <v>-10.37154865264893</v>
+        <v>7.178196907043457</v>
       </c>
       <c r="E176" t="n">
-        <v>6.463818550109863</v>
+        <v>14.63458633422852</v>
       </c>
       <c r="F176" t="n">
-        <v>-10.18957424163818</v>
+        <v>4.150445938110352</v>
       </c>
       <c r="G176" t="n">
-        <v>-10.8496150970459</v>
+        <v>10.72690486907959</v>
       </c>
       <c r="H176" t="n">
-        <v>6.874406337738037</v>
+        <v>15.46133041381836</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.4112922549247742</v>
+        <v>0.4457136470079422</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4138972163200378</v>
+        <v>0.4527704507112503</v>
       </c>
       <c r="C177" t="n">
-        <v>-11.40042018890381</v>
+        <v>1.004375815391541</v>
       </c>
       <c r="D177" t="n">
-        <v>-10.26185417175293</v>
+        <v>7.633332252502441</v>
       </c>
       <c r="E177" t="n">
-        <v>6.880285263061523</v>
+        <v>15.66825485229492</v>
       </c>
       <c r="F177" t="n">
-        <v>-11.38697814941406</v>
+        <v>3.017385244369507</v>
       </c>
       <c r="G177" t="n">
-        <v>-10.86097049713135</v>
+        <v>11.75272560119629</v>
       </c>
       <c r="H177" t="n">
-        <v>7.337550640106201</v>
+        <v>17.29901313781738</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.4388503134250641</v>
+        <v>0.4707090628147125</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4437146484851837</v>
+        <v>0.4637119334936142</v>
       </c>
       <c r="C178" t="n">
-        <v>-12.40481948852539</v>
+        <v>-0.3270582556724548</v>
       </c>
       <c r="D178" t="n">
-        <v>-9.973023414611816</v>
+        <v>7.715479850769043</v>
       </c>
       <c r="E178" t="n">
-        <v>7.118899345397949</v>
+        <v>16.12281608581543</v>
       </c>
       <c r="F178" t="n">
-        <v>-12.48798751831055</v>
+        <v>1.76957380771637</v>
       </c>
       <c r="G178" t="n">
-        <v>-10.67241668701172</v>
+        <v>12.81031131744385</v>
       </c>
       <c r="H178" t="n">
-        <v>7.631204128265381</v>
+        <v>17.29901313781738</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4624422490596771</v>
+        <v>0.4783681386709214</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4698778688907623</v>
+        <v>0.4791628599166871</v>
       </c>
       <c r="C179" t="n">
-        <v>-13.26466751098633</v>
+        <v>-1.647871375083923</v>
       </c>
       <c r="D179" t="n">
-        <v>-9.457560539245605</v>
+        <v>9.397619247436523</v>
       </c>
       <c r="E179" t="n">
-        <v>7.099213123321533</v>
+        <v>13.92626857757568</v>
       </c>
       <c r="F179" t="n">
-        <v>-13.45406532287598</v>
+        <v>0.653623640537262</v>
       </c>
       <c r="G179" t="n">
-        <v>-10.24112224578857</v>
+        <v>14.46744918823242</v>
       </c>
       <c r="H179" t="n">
-        <v>7.675236701965332</v>
+        <v>19.03144836425781</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4809959828853607</v>
+        <v>0.4922534102201462</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4914680123329163</v>
+        <v>0.490322032570839</v>
       </c>
       <c r="C180" t="n">
-        <v>-13.94088840484619</v>
+        <v>-3.21885871887207</v>
       </c>
       <c r="D180" t="n">
-        <v>-8.663287162780762</v>
+        <v>11.68482208251953</v>
       </c>
       <c r="E180" t="n">
-        <v>6.732037544250488</v>
+        <v>12.22755432128906</v>
       </c>
       <c r="F180" t="n">
-        <v>-14.25128173828125</v>
+        <v>0.653623640537262</v>
       </c>
       <c r="G180" t="n">
-        <v>-9.520848274230957</v>
+        <v>16.87429046630859</v>
       </c>
       <c r="H180" t="n">
-        <v>7.379500865936279</v>
+        <v>17.7158260345459</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.493185818195343</v>
+        <v>0.5115538555383683</v>
       </c>
       <c r="B181" t="n">
-        <v>0.507378876209259</v>
+        <v>0.4925828355550766</v>
       </c>
       <c r="C181" t="n">
-        <v>-14.38516616821289</v>
+        <v>-3.21885871887207</v>
       </c>
       <c r="D181" t="n">
-        <v>-7.52105188369751</v>
+        <v>13.29736137390137</v>
       </c>
       <c r="E181" t="n">
-        <v>5.892903327941895</v>
+        <v>7.880657196044922</v>
       </c>
       <c r="F181" t="n">
-        <v>-14.838791847229</v>
+        <v>-0.6616978645324707</v>
       </c>
       <c r="G181" t="n">
-        <v>-8.449098587036133</v>
+        <v>18.26360130310059</v>
       </c>
       <c r="H181" t="n">
-        <v>6.617035388946533</v>
+        <v>15.08817481994629</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.4969686567783356</v>
+        <v>0.5129423195123672</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5157672166824341</v>
+        <v>0.5126625543832779</v>
       </c>
       <c r="C182" t="n">
-        <v>-14.52303791046143</v>
+        <v>-4.920857906341553</v>
       </c>
       <c r="D182" t="n">
-        <v>-5.921976566314697</v>
+        <v>15.64064025878906</v>
       </c>
       <c r="E182" t="n">
-        <v>4.378185272216797</v>
+        <v>0.4535539150238037</v>
       </c>
       <c r="F182" t="n">
-        <v>-15.14853096008301</v>
+        <v>-2.432451725006104</v>
       </c>
       <c r="G182" t="n">
-        <v>-6.920890331268311</v>
+        <v>20.98245620727539</v>
       </c>
       <c r="H182" t="n">
-        <v>5.177258491516113</v>
+        <v>8.780536651611328</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4888574182987213</v>
+        <v>0.5216515570878982</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5130398869514465</v>
+        <v>0.5063614892959595</v>
       </c>
       <c r="C183" t="n">
-        <v>-14.2274112701416</v>
+        <v>-5.74264669418335</v>
       </c>
       <c r="D183" t="n">
-        <v>-3.690015554428101</v>
+        <v>19.76021575927734</v>
       </c>
       <c r="E183" t="n">
-        <v>1.845868229866028</v>
+        <v>-10.34490871429443</v>
       </c>
       <c r="F183" t="n">
-        <v>-15.04782581329346</v>
+        <v>-1.876785755157471</v>
       </c>
       <c r="G183" t="n">
-        <v>-4.747963905334473</v>
+        <v>24.85070419311523</v>
       </c>
       <c r="H183" t="n">
-        <v>2.696213960647583</v>
+        <v>-0.09201240539550781</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4637080132961273</v>
+        <v>0.5082360672950745</v>
       </c>
       <c r="B184" t="n">
-        <v>0.493029773235321</v>
+        <v>0.5075495433807373</v>
       </c>
       <c r="C184" t="n">
-        <v>-13.31080055236816</v>
+        <v>-4.476783275604248</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.6272081136703491</v>
+        <v>24.85983467102051</v>
       </c>
       <c r="E184" t="n">
-        <v>-2.101325035095215</v>
+        <v>-24.94251823425293</v>
       </c>
       <c r="F184" t="n">
-        <v>-14.30895137786865</v>
+        <v>-1.981556415557861</v>
       </c>
       <c r="G184" t="n">
-        <v>-1.669056296348572</v>
+        <v>29.96610832214355</v>
       </c>
       <c r="H184" t="n">
-        <v>-1.286235094070435</v>
+        <v>-11.48584938049316</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.4185088872909546</v>
+        <v>0.4939713311195374</v>
       </c>
       <c r="B185" t="n">
-        <v>0.450911819934845</v>
+        <v>0.4872495758533478</v>
       </c>
       <c r="C185" t="n">
-        <v>-11.66344356536865</v>
+        <v>-1.843397378921509</v>
       </c>
       <c r="D185" t="n">
-        <v>3.191838979721069</v>
+        <v>32.11469650268555</v>
       </c>
       <c r="E185" t="n">
-        <v>-7.18129301071167</v>
+        <v>-42.90983963012695</v>
       </c>
       <c r="F185" t="n">
-        <v>-12.75374412536621</v>
+        <v>1.515914440155029</v>
       </c>
       <c r="G185" t="n">
-        <v>2.365715503692627</v>
+        <v>36.86849975585938</v>
       </c>
       <c r="H185" t="n">
-        <v>-6.599222660064697</v>
+        <v>-24.58804321289062</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.3576217293739319</v>
+        <v>0.4666840904951096</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3908003270626068</v>
+        <v>0.4485294944047928</v>
       </c>
       <c r="C186" t="n">
-        <v>-9.444310188293457</v>
+        <v>0.7057735919952393</v>
       </c>
       <c r="D186" t="n">
-        <v>7.251001834869385</v>
+        <v>39.99806213378906</v>
       </c>
       <c r="E186" t="n">
-        <v>-11.73162364959717</v>
+        <v>-57.74382781982422</v>
       </c>
       <c r="F186" t="n">
-        <v>-10.53412437438965</v>
+        <v>3.920362949371338</v>
       </c>
       <c r="G186" t="n">
-        <v>6.87790584564209</v>
+        <v>44.23559188842773</v>
       </c>
       <c r="H186" t="n">
-        <v>-11.60775470733643</v>
+        <v>-36.0621452331543</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.2872370183467865</v>
+        <v>0.42629603266716</v>
       </c>
       <c r="B187" t="n">
-        <v>0.6315921306035556</v>
+        <v>0.569896218453576</v>
       </c>
       <c r="C187" t="n">
-        <v>-6.879024028778076</v>
+        <v>5.278189659118652</v>
       </c>
       <c r="D187" t="n">
-        <v>11.10392189025879</v>
+        <v>49.11541366577148</v>
       </c>
       <c r="E187" t="n">
-        <v>-14.05147171020508</v>
+        <v>-64.36178588867188</v>
       </c>
       <c r="F187" t="n">
-        <v>-7.938746929168701</v>
+        <v>8.206521034240723</v>
       </c>
       <c r="G187" t="n">
-        <v>11.21545028686523</v>
+        <v>52.16477203369141</v>
       </c>
       <c r="H187" t="n">
-        <v>-14.41841793060303</v>
+        <v>-39.8953742980957</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.716147310682996</v>
+        <v>0.6142155690966041</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8296682658438252</v>
+        <v>0.7213112959639265</v>
       </c>
       <c r="C188" t="n">
-        <v>-4.102942943572998</v>
+        <v>10.61736965179443</v>
       </c>
       <c r="D188" t="n">
-        <v>14.6604528427124</v>
+        <v>57.11125183105469</v>
       </c>
       <c r="E188" t="n">
-        <v>-13.74202060699463</v>
+        <v>-60.0628776550293</v>
       </c>
       <c r="F188" t="n">
-        <v>-5.152034282684326</v>
+        <v>12.98101234436035</v>
       </c>
       <c r="G188" t="n">
-        <v>14.99457836151123</v>
+        <v>59.13933944702148</v>
       </c>
       <c r="H188" t="n">
-        <v>-14.43581104278564</v>
+        <v>-38.00201797485352</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9283946396350578</v>
+        <v>0.7876833642743549</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9457625453575195</v>
+        <v>0.8508023147816816</v>
       </c>
       <c r="C189" t="n">
-        <v>-1.2830810546875</v>
+        <v>16.56886863708496</v>
       </c>
       <c r="D189" t="n">
-        <v>17.76130294799805</v>
+        <v>63.38840103149414</v>
       </c>
       <c r="E189" t="n">
-        <v>-11.44111824035645</v>
+        <v>-50.95863342285156</v>
       </c>
       <c r="F189" t="n">
-        <v>-2.335421562194824</v>
+        <v>18.26240158081055</v>
       </c>
       <c r="G189" t="n">
-        <v>18.02688598632812</v>
+        <v>64.33089447021484</v>
       </c>
       <c r="H189" t="n">
-        <v>-12.29618740081787</v>
+        <v>-32.86019134521484</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9916372446287286</v>
+        <v>0.9110180564637956</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9900915365703312</v>
+        <v>0.938603261290351</v>
       </c>
       <c r="C190" t="n">
-        <v>1.333810329437256</v>
+        <v>22.32125282287598</v>
       </c>
       <c r="D190" t="n">
-        <v>19.92383766174316</v>
+        <v>66.90532684326172</v>
       </c>
       <c r="E190" t="n">
-        <v>-8.217233657836914</v>
+        <v>-39.68499755859375</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3209636211395264</v>
+        <v>23.15514945983887</v>
       </c>
       <c r="G190" t="n">
-        <v>20.06330299377441</v>
+        <v>67.50662231445312</v>
       </c>
       <c r="H190" t="n">
-        <v>-9.128037452697754</v>
+        <v>-26.26744079589844</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9999737115725423</v>
+        <v>0.9725885035567415</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9993667512435348</v>
+        <v>0.980651128144113</v>
       </c>
       <c r="C191" t="n">
-        <v>3.529078245162964</v>
+        <v>27.37064361572266</v>
       </c>
       <c r="D191" t="n">
-        <v>20.73782730102539</v>
+        <v>67.93711853027344</v>
       </c>
       <c r="E191" t="n">
-        <v>-4.993504047393799</v>
+        <v>-29.90460968017578</v>
       </c>
       <c r="F191" t="n">
-        <v>2.645458459854126</v>
+        <v>27.43717765808105</v>
       </c>
       <c r="G191" t="n">
-        <v>20.88521194458008</v>
+        <v>68.95735931396484</v>
       </c>
       <c r="H191" t="n">
-        <v>-5.877403736114502</v>
+        <v>-20.72392272949219</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.000002207768743</v>
+        <v>0.9939380540591374</v>
       </c>
       <c r="B192" t="n">
-        <v>1.000020815983862</v>
+        <v>0.9954221459348954</v>
       </c>
       <c r="C192" t="n">
-        <v>5.212067604064941</v>
+        <v>31.97546768188477</v>
       </c>
       <c r="D192" t="n">
-        <v>20.15970802307129</v>
+        <v>66.75503540039062</v>
       </c>
       <c r="E192" t="n">
-        <v>-2.25833535194397</v>
+        <v>-20.02464485168457</v>
       </c>
       <c r="F192" t="n">
-        <v>4.539500713348389</v>
+        <v>31.53079223632812</v>
       </c>
       <c r="G192" t="n">
-        <v>20.46305274963379</v>
+        <v>68.95735931396484</v>
       </c>
       <c r="H192" t="n">
-        <v>-3.049959182739258</v>
+        <v>-14.68872261047363</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9999996777598028</v>
+        <v>0.9991637089298092</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9999977786916022</v>
+        <v>0.9992993976849693</v>
       </c>
       <c r="C193" t="n">
-        <v>6.409218788146973</v>
+        <v>34.8718376159668</v>
       </c>
       <c r="D193" t="n">
-        <v>18.38658332824707</v>
+        <v>63.52091217041016</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.146917924284935</v>
+        <v>-12.55546855926514</v>
       </c>
       <c r="F193" t="n">
-        <v>5.984568119049072</v>
+        <v>34.34786987304688</v>
       </c>
       <c r="G193" t="n">
-        <v>18.91496467590332</v>
+        <v>64.89852905273438</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.8110326528549194</v>
+        <v>-10.62783908843994</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.000000060267162</v>
+        <v>0.9999044922746994</v>
       </c>
       <c r="B194" t="n">
-        <v>1.000000354286698</v>
+        <v>0.9999158709594088</v>
       </c>
       <c r="C194" t="n">
-        <v>7.202521324157715</v>
+        <v>37.13063430786133</v>
       </c>
       <c r="D194" t="n">
-        <v>15.66349315643311</v>
+        <v>58.82416534423828</v>
       </c>
       <c r="E194" t="n">
-        <v>1.380388736724854</v>
+        <v>-8.034566879272461</v>
       </c>
       <c r="F194" t="n">
-        <v>7.017544269561768</v>
+        <v>36.39229965209961</v>
       </c>
       <c r="G194" t="n">
-        <v>16.40617179870605</v>
+        <v>60.60694885253906</v>
       </c>
       <c r="H194" t="n">
-        <v>0.850462794303894</v>
+        <v>-7.558479309082031</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999999872413425</v>
+        <v>0.9999921888150002</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9999999312192768</v>
+        <v>0.9999921868934343</v>
       </c>
       <c r="C195" t="n">
-        <v>7.679182052612305</v>
+        <v>38.87425994873047</v>
       </c>
       <c r="D195" t="n">
-        <v>12.21119022369385</v>
+        <v>52.47367858886719</v>
       </c>
       <c r="E195" t="n">
-        <v>2.412375926971436</v>
+        <v>-4.519296646118164</v>
       </c>
       <c r="F195" t="n">
-        <v>7.695536613464355</v>
+        <v>38.30790710449219</v>
       </c>
       <c r="G195" t="n">
-        <v>13.10510540008545</v>
+        <v>55.14833831787109</v>
       </c>
       <c r="H195" t="n">
-        <v>2.00831127166748</v>
+        <v>-5.341373443603516</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1.000000002854873</v>
+        <v>0.999999553030843</v>
       </c>
       <c r="B196" t="n">
-        <v>1.000000014686777</v>
+        <v>0.9999995730822326</v>
       </c>
       <c r="C196" t="n">
-        <v>7.912103652954102</v>
+        <v>40.09207153320312</v>
       </c>
       <c r="D196" t="n">
-        <v>8.246940612792969</v>
+        <v>45.08526611328125</v>
       </c>
       <c r="E196" t="n">
-        <v>3.031776666641235</v>
+        <v>-4.519296646118164</v>
       </c>
       <c r="F196" t="n">
-        <v>8.075039863586426</v>
+        <v>39.8594970703125</v>
       </c>
       <c r="G196" t="n">
-        <v>9.203618049621582</v>
+        <v>48.74112701416016</v>
       </c>
       <c r="H196" t="n">
-        <v>2.742222785949707</v>
+        <v>-3.438563346862793</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999999993535383</v>
+        <v>0.9999999806085091</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999999967610239</v>
+        <v>0.9999999875200549</v>
       </c>
       <c r="C197" t="n">
-        <v>7.963907241821289</v>
+        <v>40.09207153320312</v>
       </c>
       <c r="D197" t="n">
-        <v>4.032328605651855</v>
+        <v>37.69414520263672</v>
       </c>
       <c r="E197" t="n">
-        <v>3.303541898727417</v>
+        <v>-5.487181663513184</v>
       </c>
       <c r="F197" t="n">
-        <v>8.212158203125</v>
+        <v>41.04551315307617</v>
       </c>
       <c r="G197" t="n">
-        <v>4.962009429931641</v>
+        <v>42.54309844970703</v>
       </c>
       <c r="H197" t="n">
-        <v>3.119272232055664</v>
+        <v>-3.438563346862793</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1.0000000001444</v>
+        <v>0.9999999994207818</v>
       </c>
       <c r="B198" t="n">
-        <v>1.000000000708985</v>
+        <v>0.9999999998542493</v>
       </c>
       <c r="C198" t="n">
-        <v>7.904583930969238</v>
+        <v>41.98575592041016</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.1119683980941772</v>
+        <v>31.0341682434082</v>
       </c>
       <c r="E198" t="n">
-        <v>3.272504329681396</v>
+        <v>-9.221291542053223</v>
       </c>
       <c r="F198" t="n">
-        <v>8.179961204528809</v>
+        <v>42.04970550537109</v>
       </c>
       <c r="G198" t="n">
-        <v>0.7204222083091736</v>
+        <v>36.40849304199219</v>
       </c>
       <c r="H198" t="n">
-        <v>3.188421010971069</v>
+        <v>-3.985863924026489</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9999999999682638</v>
+        <v>0.9999999999902561</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9999999998479524</v>
+        <v>1.000000000000862</v>
       </c>
       <c r="C199" t="n">
-        <v>7.835206985473633</v>
+        <v>42.63824462890625</v>
       </c>
       <c r="D199" t="n">
-        <v>-3.857110261917114</v>
+        <v>24.46507263183594</v>
       </c>
       <c r="E199" t="n">
-        <v>2.950989484786987</v>
+        <v>-13.50927925109863</v>
       </c>
       <c r="F199" t="n">
-        <v>8.093195915222168</v>
+        <v>42.04970550537109</v>
       </c>
       <c r="G199" t="n">
-        <v>-3.162836313247681</v>
+        <v>29.96300506591797</v>
       </c>
       <c r="H199" t="n">
-        <v>2.968809843063354</v>
+        <v>-6.679821968078613</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.000000000007067</v>
+        <v>0.9999999999998325</v>
       </c>
       <c r="B200" t="n">
-        <v>1.000000000032718</v>
+        <v>0.9999999999999881</v>
       </c>
       <c r="C200" t="n">
-        <v>7.891330718994141</v>
+        <v>42.61968612670898</v>
       </c>
       <c r="D200" t="n">
-        <v>-6.945143699645996</v>
+        <v>19.54899597167969</v>
       </c>
       <c r="E200" t="n">
-        <v>2.310948610305786</v>
+        <v>-16.61086273193359</v>
       </c>
       <c r="F200" t="n">
-        <v>8.107385635375977</v>
+        <v>43.42391204833984</v>
       </c>
       <c r="G200" t="n">
-        <v>-6.405205249786377</v>
+        <v>24.52338027954102</v>
       </c>
       <c r="H200" t="n">
-        <v>2.439280033111572</v>
+        <v>-8.778228759765625</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9999999999983181</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9999999999925464</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>8.18671703338623</v>
+        <v>43.70223236083984</v>
       </c>
       <c r="D201" t="n">
-        <v>-9.223773956298828</v>
+        <v>15.3399772644043</v>
       </c>
       <c r="E201" t="n">
-        <v>1.321404695510864</v>
+        <v>-18.62236022949219</v>
       </c>
       <c r="F201" t="n">
-        <v>8.354560852050781</v>
+        <v>43.70270156860352</v>
       </c>
       <c r="G201" t="n">
-        <v>-8.841069221496582</v>
+        <v>20.18416976928711</v>
       </c>
       <c r="H201" t="n">
-        <v>1.568098425865173</v>
+        <v>-8.778228759765625</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1.000000000000446</v>
+        <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>1.000000000001884</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>8.716710090637207</v>
+        <v>43.55130386352539</v>
       </c>
       <c r="D202" t="n">
-        <v>-10.62644577026367</v>
+        <v>12.64668464660645</v>
       </c>
       <c r="E202" t="n">
-        <v>0.03160453215241432</v>
+        <v>-20.41430473327637</v>
       </c>
       <c r="F202" t="n">
-        <v>8.842508316040039</v>
+        <v>43.10025787353516</v>
       </c>
       <c r="G202" t="n">
-        <v>-10.39811134338379</v>
+        <v>17.73543357849121</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3910620212554932</v>
+        <v>-9.861512184143066</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.9999999999998677</v>
+        <v>1</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9999999999994691</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>9.318112373352051</v>
+        <v>43.25741958618164</v>
       </c>
       <c r="D203" t="n">
-        <v>-11.14776992797852</v>
+        <v>12.64668464660645</v>
       </c>
       <c r="E203" t="n">
-        <v>-1.379281163215637</v>
+        <v>-22.34941291809082</v>
       </c>
       <c r="F203" t="n">
-        <v>9.412096977233887</v>
+        <v>43.64876174926758</v>
       </c>
       <c r="G203" t="n">
-        <v>-11.06852149963379</v>
+        <v>16.52625846862793</v>
       </c>
       <c r="H203" t="n">
-        <v>-0.9335067272186279</v>
+        <v>-10.62140846252441</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1.000000000000042</v>
+        <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>1.00000000000016</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>9.739204406738281</v>
+        <v>42.7680778503418</v>
       </c>
       <c r="D204" t="n">
-        <v>-10.84454536437988</v>
+        <v>12.06468963623047</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.651431322097778</v>
+        <v>-26.77760887145996</v>
       </c>
       <c r="F204" t="n">
-        <v>9.803718566894531</v>
+        <v>43.25067901611328</v>
       </c>
       <c r="G204" t="n">
-        <v>-10.90664005279541</v>
+        <v>16.52625846862793</v>
       </c>
       <c r="H204" t="n">
-        <v>-2.161948919296265</v>
+        <v>-15.21648693084717</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.9999999999999866</v>
+        <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9999999999999518</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>9.756174087524414</v>
+        <v>41.82514190673828</v>
       </c>
       <c r="D205" t="n">
-        <v>-9.85089111328125</v>
+        <v>12.06468963623047</v>
       </c>
       <c r="E205" t="n">
-        <v>-3.547884702682495</v>
+        <v>-26.77760887145996</v>
       </c>
       <c r="F205" t="n">
-        <v>9.778050422668457</v>
+        <v>42.31750106811523</v>
       </c>
       <c r="G205" t="n">
-        <v>-10.03757858276367</v>
+        <v>17.12056732177734</v>
       </c>
       <c r="H205" t="n">
-        <v>-3.06211256980896</v>
+        <v>-15.21648693084717</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_typical_lstm.xlsx
+++ b/Predictions/PV_typical_lstm.xlsx
@@ -483,1218 +483,1218 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.57532501220703</v>
+        <v>43.77653884887695</v>
       </c>
       <c r="D2" t="n">
-        <v>16.6346435546875</v>
+        <v>15.7843189239502</v>
       </c>
       <c r="E2" t="n">
-        <v>-31.48458862304688</v>
+        <v>-29.22662925720215</v>
       </c>
       <c r="F2" t="n">
-        <v>42.77738189697266</v>
+        <v>42.51075744628906</v>
       </c>
       <c r="G2" t="n">
-        <v>18.52597999572754</v>
+        <v>17.95701217651367</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.72320556640625</v>
+        <v>-19.84844970703125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.02322611302137375</v>
+        <v>-0.0004927566909464076</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008360714819282293</v>
+        <v>0.02504059609025717</v>
       </c>
       <c r="C3" t="n">
-        <v>44.57532501220703</v>
+        <v>43.82270812988281</v>
       </c>
       <c r="D3" t="n">
-        <v>18.76743316650391</v>
+        <v>18.5809268951416</v>
       </c>
       <c r="E3" t="n">
-        <v>-30.20091819763184</v>
+        <v>-29.22662925720215</v>
       </c>
       <c r="F3" t="n">
-        <v>42.04008102416992</v>
+        <v>41.32107162475586</v>
       </c>
       <c r="G3" t="n">
-        <v>19.74335670471191</v>
+        <v>19.64353942871094</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.72320556640625</v>
+        <v>-19.84844970703125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.006596193546429277</v>
+        <v>-0.003285628166049719</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01469534773379564</v>
+        <v>0.02894543580710888</v>
       </c>
       <c r="C4" t="n">
-        <v>44.10194396972656</v>
+        <v>43.06362152099609</v>
       </c>
       <c r="D4" t="n">
-        <v>20.44236373901367</v>
+        <v>20.63158416748047</v>
       </c>
       <c r="E4" t="n">
-        <v>-26.00321197509766</v>
+        <v>-25.06784820556641</v>
       </c>
       <c r="F4" t="n">
-        <v>41.48145294189453</v>
+        <v>40.97035980224609</v>
       </c>
       <c r="G4" t="n">
-        <v>21.33345794677734</v>
+        <v>20.98332405090332</v>
       </c>
       <c r="H4" t="n">
-        <v>-19.63864326477051</v>
+        <v>-18.70441627502441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01248813599348068</v>
+        <v>0.01850331332534552</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03265415009111166</v>
+        <v>0.04726476430892945</v>
       </c>
       <c r="C5" t="n">
-        <v>42.30117797851562</v>
+        <v>41.41415405273438</v>
       </c>
       <c r="D5" t="n">
-        <v>20.44236373901367</v>
+        <v>20.63158416748047</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.70505142211914</v>
+        <v>-20.9480094909668</v>
       </c>
       <c r="F5" t="n">
-        <v>38.54831695556641</v>
+        <v>38.19584274291992</v>
       </c>
       <c r="G5" t="n">
-        <v>21.33345794677734</v>
+        <v>20.98332405090332</v>
       </c>
       <c r="H5" t="n">
-        <v>-17.30145645141602</v>
+        <v>-16.43166160583496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03261744197458029</v>
+        <v>0.04281780265271664</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06325786598026753</v>
+        <v>0.07240929499268532</v>
       </c>
       <c r="C6" t="n">
-        <v>38.69705581665039</v>
+        <v>39.03041076660156</v>
       </c>
       <c r="D6" t="n">
-        <v>21.32942199707031</v>
+        <v>21.70413780212402</v>
       </c>
       <c r="E6" t="n">
-        <v>-18.07215881347656</v>
+        <v>-17.26384544372559</v>
       </c>
       <c r="F6" t="n">
-        <v>36.63195037841797</v>
+        <v>36.27763366699219</v>
       </c>
       <c r="G6" t="n">
-        <v>22.15726089477539</v>
+        <v>21.71288871765137</v>
       </c>
       <c r="H6" t="n">
-        <v>-14.22057151794434</v>
+        <v>-13.46963310241699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0687510484457016</v>
+        <v>0.07609587818384171</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0914177180826664</v>
+        <v>0.1025519105792046</v>
       </c>
       <c r="C7" t="n">
-        <v>36.71006011962891</v>
+        <v>36.75892639160156</v>
       </c>
       <c r="D7" t="n">
-        <v>19.46615600585938</v>
+        <v>19.54466438293457</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.70358467102051</v>
+        <v>-13.97278785705566</v>
       </c>
       <c r="F7" t="n">
-        <v>35.10457229614258</v>
+        <v>34.64257049560547</v>
       </c>
       <c r="G7" t="n">
-        <v>22.75563430786133</v>
+        <v>21.87126541137695</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.32971572875977</v>
+        <v>-9.772082328796387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.09280014827847481</v>
+        <v>0.09914087519049646</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1043266706168652</v>
+        <v>0.1176041732728481</v>
       </c>
       <c r="C8" t="n">
-        <v>33.93581771850586</v>
+        <v>34.16294860839844</v>
       </c>
       <c r="D8" t="n">
-        <v>18.28792572021484</v>
+        <v>18.15642166137695</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.7465648651123</v>
+        <v>-10.97054767608643</v>
       </c>
       <c r="F8" t="n">
-        <v>33.15647125244141</v>
+        <v>32.71209335327148</v>
       </c>
       <c r="G8" t="n">
-        <v>21.79647636413574</v>
+        <v>21.23284912109375</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.075088024139404</v>
+        <v>-6.548110961914062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1305444951355457</v>
+        <v>0.1303105756640434</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1311882929503918</v>
+        <v>0.1423873722553253</v>
       </c>
       <c r="C9" t="n">
-        <v>31.36453247070312</v>
+        <v>31.62387084960938</v>
       </c>
       <c r="D9" t="n">
-        <v>18.28792572021484</v>
+        <v>18.15642166137695</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.053489685058594</v>
+        <v>-8.291130065917969</v>
       </c>
       <c r="F9" t="n">
-        <v>30.98913764953613</v>
+        <v>30.6290168762207</v>
       </c>
       <c r="G9" t="n">
-        <v>20.19652557373047</v>
+        <v>19.99629211425781</v>
       </c>
       <c r="H9" t="n">
-        <v>-5.418384552001953</v>
+        <v>-4.765150547027588</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1556437566876412</v>
+        <v>0.1568024632334709</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1582510122656822</v>
+        <v>0.1672794556617737</v>
       </c>
       <c r="C10" t="n">
-        <v>28.88368034362793</v>
+        <v>29.19698524475098</v>
       </c>
       <c r="D10" t="n">
-        <v>16.72808837890625</v>
+        <v>16.28548812866211</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.578370571136475</v>
+        <v>-5.884769439697266</v>
       </c>
       <c r="F10" t="n">
-        <v>28.70307540893555</v>
+        <v>28.39592742919922</v>
       </c>
       <c r="G10" t="n">
-        <v>18.61480140686035</v>
+        <v>19.25042343139648</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.802824974060059</v>
+        <v>-3.201619148254395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1809771746397019</v>
+        <v>0.1815067729353905</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1855204358696938</v>
+        <v>0.1938130426406861</v>
       </c>
       <c r="C11" t="n">
-        <v>26.88778495788574</v>
+        <v>27.08697128295898</v>
       </c>
       <c r="D11" t="n">
-        <v>15.52697944641113</v>
+        <v>15.27742004394531</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.351638793945312</v>
+        <v>-4.626590728759766</v>
       </c>
       <c r="F11" t="n">
-        <v>26.34469223022461</v>
+        <v>26.13424682617188</v>
       </c>
       <c r="G11" t="n">
-        <v>17.21750640869141</v>
+        <v>16.31926345825195</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.161551713943481</v>
+        <v>-1.588643670082092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1969899532198906</v>
+        <v>0.2006446379423142</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2130836823582649</v>
+        <v>0.2193130055069923</v>
       </c>
       <c r="C12" t="n">
-        <v>24.58975601196289</v>
+        <v>24.79438209533691</v>
       </c>
       <c r="D12" t="n">
-        <v>14.42952728271484</v>
+        <v>14.10227108001709</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.122378826141357</v>
+        <v>-2.446279048919678</v>
       </c>
       <c r="F12" t="n">
-        <v>23.48140335083008</v>
+        <v>23.47785186767578</v>
       </c>
       <c r="G12" t="n">
-        <v>15.74252510070801</v>
+        <v>14.8541316986084</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.058617830276489</v>
+        <v>-0.3817102611064911</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2245462024211884</v>
+        <v>0.2270616561174393</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2512777826189995</v>
+        <v>0.253284156024456</v>
       </c>
       <c r="C13" t="n">
-        <v>22.10998153686523</v>
+        <v>22.42679977416992</v>
       </c>
       <c r="D13" t="n">
-        <v>13.20795822143555</v>
+        <v>13.16902160644531</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.654360294342041</v>
+        <v>-0.9757041931152344</v>
       </c>
       <c r="F13" t="n">
-        <v>21.34421539306641</v>
+        <v>21.09702301025391</v>
       </c>
       <c r="G13" t="n">
-        <v>14.72995471954346</v>
+        <v>13.75612545013428</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575516819953918</v>
+        <v>0.6416757106781006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2527527096867562</v>
+        <v>0.2531308633089066</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2672789990901947</v>
+        <v>0.276724294424057</v>
       </c>
       <c r="C14" t="n">
-        <v>19.68100357055664</v>
+        <v>19.95630264282227</v>
       </c>
       <c r="D14" t="n">
-        <v>12.20888233184814</v>
+        <v>12.03629779815674</v>
       </c>
       <c r="E14" t="n">
-        <v>1.081446170806885</v>
+        <v>1.710378885269165</v>
       </c>
       <c r="F14" t="n">
-        <v>18.63929557800293</v>
+        <v>18.55805397033691</v>
       </c>
       <c r="G14" t="n">
-        <v>13.52504348754883</v>
+        <v>12.64556121826172</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9507333040237427</v>
+        <v>1.656315088272095</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2779564172029496</v>
+        <v>0.2805964004993439</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3043896096944809</v>
+        <v>0.3067539978027344</v>
       </c>
       <c r="C15" t="n">
-        <v>17.30145263671875</v>
+        <v>17.538818359375</v>
       </c>
       <c r="D15" t="n">
-        <v>11.20184898376465</v>
+        <v>11.27183246612549</v>
       </c>
       <c r="E15" t="n">
-        <v>3.502781391143799</v>
+        <v>4.160125732421875</v>
       </c>
       <c r="F15" t="n">
-        <v>16.14787864685059</v>
+        <v>16.02249717712402</v>
       </c>
       <c r="G15" t="n">
-        <v>11.73648071289062</v>
+        <v>11.1019287109375</v>
       </c>
       <c r="H15" t="n">
-        <v>2.956245183944702</v>
+        <v>3.587795257568359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.302650870680809</v>
+        <v>0.3058320301771164</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3302202773094177</v>
+        <v>0.3349470317363739</v>
       </c>
       <c r="C16" t="n">
-        <v>14.53705024719238</v>
+        <v>14.94549560546875</v>
       </c>
       <c r="D16" t="n">
-        <v>9.241763114929199</v>
+        <v>9.349883079528809</v>
       </c>
       <c r="E16" t="n">
-        <v>5.705025196075439</v>
+        <v>6.451470375061035</v>
       </c>
       <c r="F16" t="n">
-        <v>13.79623222351074</v>
+        <v>13.55848693847656</v>
       </c>
       <c r="G16" t="n">
-        <v>11.73648071289062</v>
+        <v>9.868062973022461</v>
       </c>
       <c r="H16" t="n">
-        <v>2.956245183944702</v>
+        <v>3.587795257568359</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3360262882709503</v>
+        <v>0.3353868025541306</v>
       </c>
       <c r="B17" t="n">
-        <v>0.355302124619484</v>
+        <v>0.3615847724676132</v>
       </c>
       <c r="C17" t="n">
-        <v>12.35934162139893</v>
+        <v>12.65360546112061</v>
       </c>
       <c r="D17" t="n">
-        <v>8.46336841583252</v>
+        <v>8.166644096374512</v>
       </c>
       <c r="E17" t="n">
-        <v>7.76307487487793</v>
+        <v>8.555961608886719</v>
       </c>
       <c r="F17" t="n">
-        <v>11.66246700286865</v>
+        <v>11.28140449523926</v>
       </c>
       <c r="G17" t="n">
-        <v>9.791769981384277</v>
+        <v>8.596773147583008</v>
       </c>
       <c r="H17" t="n">
-        <v>4.596490383148193</v>
+        <v>5.574909687042236</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3528876972198486</v>
+        <v>0.3566306298971176</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3770275485515595</v>
+        <v>0.384856675863266</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08095264434814</v>
+        <v>10.44888114929199</v>
       </c>
       <c r="D18" t="n">
-        <v>7.561182975769043</v>
+        <v>7.231749534606934</v>
       </c>
       <c r="E18" t="n">
-        <v>7.76307487487793</v>
+        <v>8.555961608886719</v>
       </c>
       <c r="F18" t="n">
-        <v>9.71587085723877</v>
+        <v>9.207949638366699</v>
       </c>
       <c r="G18" t="n">
-        <v>7.881020545959473</v>
+        <v>8.596773147583008</v>
       </c>
       <c r="H18" t="n">
-        <v>7.458581924438477</v>
+        <v>8.003974914550781</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3781008344888687</v>
+        <v>0.379230951666832</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3969787573814392</v>
+        <v>0.4056753903627396</v>
       </c>
       <c r="C19" t="n">
-        <v>8.522717475891113</v>
+        <v>8.657371520996094</v>
       </c>
       <c r="D19" t="n">
-        <v>6.85145092010498</v>
+        <v>6.573878288269043</v>
       </c>
       <c r="E19" t="n">
-        <v>11.60489940643311</v>
+        <v>12.30310535430908</v>
       </c>
       <c r="F19" t="n">
-        <v>7.979160308837891</v>
+        <v>7.426688194274902</v>
       </c>
       <c r="G19" t="n">
-        <v>8.251326560974121</v>
+        <v>7.151820182800293</v>
       </c>
       <c r="H19" t="n">
-        <v>9.327085494995117</v>
+        <v>9.924312591552734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3869827455282212</v>
+        <v>0.3939412081241608</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4142923837900162</v>
+        <v>0.4222547280788422</v>
       </c>
       <c r="C20" t="n">
-        <v>6.311867713928223</v>
+        <v>6.745200157165527</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254521369934082</v>
+        <v>6.975815773010254</v>
       </c>
       <c r="E20" t="n">
-        <v>11.60489940643311</v>
+        <v>12.30310535430908</v>
       </c>
       <c r="F20" t="n">
-        <v>6.880180358886719</v>
+        <v>5.949736595153809</v>
       </c>
       <c r="G20" t="n">
-        <v>8.028862953186035</v>
+        <v>7.022322654724121</v>
       </c>
       <c r="H20" t="n">
-        <v>11.24228858947754</v>
+        <v>11.89617347717285</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4173294591903687</v>
+        <v>0.4156372845172882</v>
       </c>
       <c r="B21" t="n">
-        <v>0.419522784948349</v>
+        <v>0.4353109711408615</v>
       </c>
       <c r="C21" t="n">
-        <v>4.85204029083252</v>
+        <v>5.004842758178711</v>
       </c>
       <c r="D21" t="n">
-        <v>6.754996299743652</v>
+        <v>6.392884254455566</v>
       </c>
       <c r="E21" t="n">
-        <v>13.16309928894043</v>
+        <v>13.95982360839844</v>
       </c>
       <c r="F21" t="n">
-        <v>5.627863883972168</v>
+        <v>4.767190933227539</v>
       </c>
       <c r="G21" t="n">
-        <v>7.159176826477051</v>
+        <v>6.571457862854004</v>
       </c>
       <c r="H21" t="n">
-        <v>12.31475830078125</v>
+        <v>13.0310230255127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4248412919044495</v>
+        <v>0.4323781126737595</v>
       </c>
       <c r="B22" t="n">
-        <v>0.435462384223938</v>
+        <v>0.4451996070146561</v>
       </c>
       <c r="C22" t="n">
-        <v>3.254693984985352</v>
+        <v>3.366678714752197</v>
       </c>
       <c r="D22" t="n">
-        <v>6.739806175231934</v>
+        <v>6.476580619812012</v>
       </c>
       <c r="E22" t="n">
-        <v>14.68443298339844</v>
+        <v>15.3786449432373</v>
       </c>
       <c r="F22" t="n">
-        <v>3.959038019180298</v>
+        <v>3.417050123214722</v>
       </c>
       <c r="G22" t="n">
-        <v>8.46901798248291</v>
+        <v>7.06224536895752</v>
       </c>
       <c r="H22" t="n">
-        <v>14.95176696777344</v>
+        <v>15.46671295166016</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4432271933555603</v>
+        <v>0.4487712246179581</v>
       </c>
       <c r="B23" t="n">
-        <v>0.459109297990799</v>
+        <v>0.4620981031656266</v>
       </c>
       <c r="C23" t="n">
-        <v>1.598412871360779</v>
+        <v>1.749284386634827</v>
       </c>
       <c r="D23" t="n">
-        <v>6.792101860046387</v>
+        <v>6.869791984558105</v>
       </c>
       <c r="E23" t="n">
-        <v>15.73134803771973</v>
+        <v>16.15959930419922</v>
       </c>
       <c r="F23" t="n">
-        <v>2.496415138244629</v>
+        <v>2.051192283630371</v>
       </c>
       <c r="G23" t="n">
-        <v>9.191678047180176</v>
+        <v>8.07346248626709</v>
       </c>
       <c r="H23" t="n">
-        <v>17.29179382324219</v>
+        <v>17.82273101806641</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4614048820734024</v>
+        <v>0.4658117514848709</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4733566278219223</v>
+        <v>0.4774806362390518</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5311946272850037</v>
+        <v>-0.1864345669746399</v>
       </c>
       <c r="D24" t="n">
-        <v>7.298022270202637</v>
+        <v>7.298626899719238</v>
       </c>
       <c r="E24" t="n">
-        <v>16.54777526855469</v>
+        <v>17.09553337097168</v>
       </c>
       <c r="F24" t="n">
-        <v>1.195277452468872</v>
+        <v>0.6864635944366455</v>
       </c>
       <c r="G24" t="n">
-        <v>10.29099559783936</v>
+        <v>9.135821342468262</v>
       </c>
       <c r="H24" t="n">
-        <v>19.25475311279297</v>
+        <v>19.79401779174805</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4889904946088791</v>
+        <v>0.4898687726259232</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4862798750400543</v>
+        <v>0.4926630121469498</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.894223809242249</v>
+        <v>-1.689864158630371</v>
       </c>
       <c r="D25" t="n">
-        <v>8.224222183227539</v>
+        <v>7.281428337097168</v>
       </c>
       <c r="E25" t="n">
-        <v>16.91273880004883</v>
+        <v>17.38082122802734</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03475987911224365</v>
+        <v>-0.4985157251358032</v>
       </c>
       <c r="G25" t="n">
-        <v>11.5760440826416</v>
+        <v>10.49289321899414</v>
       </c>
       <c r="H25" t="n">
-        <v>19.25475311279297</v>
+        <v>19.79401779174805</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4953116196393967</v>
+        <v>0.5013008552789688</v>
       </c>
       <c r="B26" t="n">
-        <v>0.497845111489296</v>
+        <v>0.5038552916049958</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.229013919830322</v>
+        <v>-2.928894281387329</v>
       </c>
       <c r="D26" t="n">
-        <v>9.453692436218262</v>
+        <v>8.766022682189941</v>
       </c>
       <c r="E26" t="n">
-        <v>14.17936038970947</v>
+        <v>14.62242221832275</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.206083297729492</v>
+        <v>-1.697488784790039</v>
       </c>
       <c r="G26" t="n">
-        <v>13.27088737487793</v>
+        <v>12.39855098724365</v>
       </c>
       <c r="H26" t="n">
-        <v>20.9858341217041</v>
+        <v>21.73325347900391</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.509158319234848</v>
+        <v>0.5117028993368149</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5128266668319702</v>
+        <v>0.5173604983091354</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.879702568054199</v>
+        <v>-4.30860424041748</v>
       </c>
       <c r="D27" t="n">
-        <v>11.1125373840332</v>
+        <v>10.50430774688721</v>
       </c>
       <c r="E27" t="n">
-        <v>12.2017993927002</v>
+        <v>12.56702423095703</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.206083297729492</v>
+        <v>-1.697488784790039</v>
       </c>
       <c r="G27" t="n">
-        <v>15.78163146972656</v>
+        <v>15.11488151550293</v>
       </c>
       <c r="H27" t="n">
-        <v>19.55657005310059</v>
+        <v>20.056884765625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.53</v>
+        <v>0.5279297506809235</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5119125020503998</v>
+        <v>0.5229601919651031</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.879702568054199</v>
+        <v>-4.30860424041748</v>
       </c>
       <c r="D28" t="n">
-        <v>13.18332576751709</v>
+        <v>13.77263355255127</v>
       </c>
       <c r="E28" t="n">
-        <v>7.416179656982422</v>
+        <v>7.62470531463623</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.366308689117432</v>
+        <v>-3.399393558502197</v>
       </c>
       <c r="G28" t="n">
-        <v>17.43972015380859</v>
+        <v>17.00998306274414</v>
       </c>
       <c r="H28" t="n">
-        <v>16.52360725402832</v>
+        <v>16.96459579467773</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5260204863548279</v>
+        <v>0.53</v>
       </c>
       <c r="B29" t="n">
         <v>0.53</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.154891490936279</v>
+        <v>-5.882287502288818</v>
       </c>
       <c r="D29" t="n">
-        <v>15.52192687988281</v>
+        <v>15.80291557312012</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.1582300662994385</v>
+        <v>-0.02717041969299316</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.961378574371338</v>
+        <v>-4.03167200088501</v>
       </c>
       <c r="G29" t="n">
-        <v>20.15017318725586</v>
+        <v>19.56955528259277</v>
       </c>
       <c r="H29" t="n">
-        <v>9.970961570739746</v>
+        <v>10.33004570007324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5289575779438019</v>
+        <v>0.5284370303153992</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5181440681219102</v>
+        <v>0.5245970201492309</v>
       </c>
       <c r="C30" t="n">
-        <v>-6.432031154632568</v>
+        <v>-5.735843181610107</v>
       </c>
       <c r="D30" t="n">
-        <v>19.60211944580078</v>
+        <v>19.43759155273438</v>
       </c>
       <c r="E30" t="n">
-        <v>-11.23617172241211</v>
+        <v>-11.17486572265625</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.915846347808838</v>
+        <v>-3.546404361724854</v>
       </c>
       <c r="G30" t="n">
-        <v>24.25792503356934</v>
+        <v>23.48966979980469</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4917101860046387</v>
+        <v>0.7064046859741211</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.510180333852768</v>
+        <v>0.5094844907522201</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5170471841096879</v>
+        <v>0.512036589384079</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.479353427886963</v>
+        <v>-2.597613573074341</v>
       </c>
       <c r="D31" t="n">
-        <v>24.31168174743652</v>
+        <v>24.18348693847656</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.30944061279297</v>
+        <v>-25.093994140625</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.671346187591553</v>
+        <v>-1.217567920684814</v>
       </c>
       <c r="G31" t="n">
-        <v>29.30773162841797</v>
+        <v>28.46012306213379</v>
       </c>
       <c r="H31" t="n">
-        <v>-10.94549179077148</v>
+        <v>-10.70572280883789</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4851504844427109</v>
+        <v>0.4804020273685455</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4910165804624558</v>
+        <v>0.4852986437082291</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.439364314079285</v>
+        <v>-0.09102177619934082</v>
       </c>
       <c r="D32" t="n">
-        <v>31.10240936279297</v>
+        <v>30.50610733032227</v>
       </c>
       <c r="E32" t="n">
-        <v>-42.3912353515625</v>
+        <v>-41.83002090454102</v>
       </c>
       <c r="F32" t="n">
-        <v>1.112432479858398</v>
+        <v>1.427320957183838</v>
       </c>
       <c r="G32" t="n">
-        <v>35.58379364013672</v>
+        <v>34.68133544921875</v>
       </c>
       <c r="H32" t="n">
-        <v>-23.6504020690918</v>
+        <v>-23.20425415039062</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4544262331724167</v>
+        <v>0.4414384466409683</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4408978706598282</v>
+        <v>0.4397710388898849</v>
       </c>
       <c r="C33" t="n">
-        <v>1.939413785934448</v>
+        <v>3.350271701812744</v>
       </c>
       <c r="D33" t="n">
-        <v>38.55294036865234</v>
+        <v>37.88984680175781</v>
       </c>
       <c r="E33" t="n">
-        <v>-55.73432159423828</v>
+        <v>-54.63581085205078</v>
       </c>
       <c r="F33" t="n">
-        <v>4.296952247619629</v>
+        <v>4.982094764709473</v>
       </c>
       <c r="G33" t="n">
-        <v>42.81906127929688</v>
+        <v>41.67987823486328</v>
       </c>
       <c r="H33" t="n">
-        <v>-34.68646240234375</v>
+        <v>-33.94371032714844</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4044299679994584</v>
+        <v>0.3947341918945313</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5777804638206865</v>
+        <v>0.5876912404314026</v>
       </c>
       <c r="C34" t="n">
-        <v>6.953619480133057</v>
+        <v>8.297504425048828</v>
       </c>
       <c r="D34" t="n">
-        <v>47.24931335449219</v>
+        <v>46.55653381347656</v>
       </c>
       <c r="E34" t="n">
-        <v>-61.61735153198242</v>
+        <v>-60.07509613037109</v>
       </c>
       <c r="F34" t="n">
-        <v>9.095296859741211</v>
+        <v>9.727594375610352</v>
       </c>
       <c r="G34" t="n">
-        <v>50.14039611816406</v>
+        <v>49.12207794189453</v>
       </c>
       <c r="H34" t="n">
-        <v>-38.56329345703125</v>
+        <v>-37.66685485839844</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6247258881350938</v>
+        <v>0.6278636200083478</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7390756752675264</v>
+        <v>0.7479726788969526</v>
       </c>
       <c r="C35" t="n">
-        <v>12.39503192901611</v>
+        <v>13.53905296325684</v>
       </c>
       <c r="D35" t="n">
-        <v>54.85890197753906</v>
+        <v>54.42694091796875</v>
       </c>
       <c r="E35" t="n">
-        <v>-58.43009185791016</v>
+        <v>-56.82863616943359</v>
       </c>
       <c r="F35" t="n">
-        <v>13.82062816619873</v>
+        <v>14.74110698699951</v>
       </c>
       <c r="G35" t="n">
-        <v>57.44965744018555</v>
+        <v>55.91995239257812</v>
       </c>
       <c r="H35" t="n">
-        <v>-37.14342498779297</v>
+        <v>-36.42343139648438</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8075744345572263</v>
+        <v>0.8126838954843009</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8647253954512415</v>
+        <v>0.8739091166008668</v>
       </c>
       <c r="C36" t="n">
-        <v>18.04976844787598</v>
+        <v>18.89480590820312</v>
       </c>
       <c r="D36" t="n">
-        <v>61.37410736083984</v>
+        <v>60.93445205688477</v>
       </c>
       <c r="E36" t="n">
-        <v>-50.1121940612793</v>
+        <v>-48.51342391967773</v>
       </c>
       <c r="F36" t="n">
-        <v>18.95588874816895</v>
+        <v>19.84586524963379</v>
       </c>
       <c r="G36" t="n">
-        <v>62.82434844970703</v>
+        <v>61.39148712158203</v>
       </c>
       <c r="H36" t="n">
-        <v>-32.05435180664062</v>
+        <v>-31.26099967956543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9239106763654505</v>
+        <v>0.9263468171972411</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9459169916545842</v>
+        <v>0.9506794614540671</v>
       </c>
       <c r="C37" t="n">
-        <v>23.38709449768066</v>
+        <v>23.79419708251953</v>
       </c>
       <c r="D37" t="n">
-        <v>65.14924621582031</v>
+        <v>64.79498291015625</v>
       </c>
       <c r="E37" t="n">
-        <v>-39.5438346862793</v>
+        <v>-38.24790191650391</v>
       </c>
       <c r="F37" t="n">
-        <v>23.5367374420166</v>
+        <v>24.53171920776367</v>
       </c>
       <c r="G37" t="n">
-        <v>66.36549377441406</v>
+        <v>64.78036499023438</v>
       </c>
       <c r="H37" t="n">
-        <v>-25.27837944030762</v>
+        <v>-24.47490692138672</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9775503202651655</v>
+        <v>0.9776292036829728</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9830366525721204</v>
+        <v>0.9851292539826508</v>
       </c>
       <c r="C38" t="n">
-        <v>28.09052276611328</v>
+        <v>28.17798042297363</v>
       </c>
       <c r="D38" t="n">
-        <v>66.63694763183594</v>
+        <v>66.1851806640625</v>
       </c>
       <c r="E38" t="n">
-        <v>-30.09280967712402</v>
+        <v>-29.04880142211914</v>
       </c>
       <c r="F38" t="n">
-        <v>27.55318260192871</v>
+        <v>28.62282180786133</v>
       </c>
       <c r="G38" t="n">
-        <v>68.19408416748047</v>
+        <v>66.41276550292969</v>
       </c>
       <c r="H38" t="n">
-        <v>-19.52145385742188</v>
+        <v>-18.71216011047363</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9952031933824339</v>
+        <v>0.9949478577155476</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9959322622263781</v>
+        <v>0.9966085456431623</v>
       </c>
       <c r="C39" t="n">
-        <v>32.1132698059082</v>
+        <v>32.03659057617188</v>
       </c>
       <c r="D39" t="n">
-        <v>66.63694763183594</v>
+        <v>66.1851806640625</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.35467147827148</v>
+        <v>-19.53045463562012</v>
       </c>
       <c r="F39" t="n">
-        <v>31.43318939208984</v>
+        <v>32.19336700439453</v>
       </c>
       <c r="G39" t="n">
-        <v>67.17627716064453</v>
+        <v>66.41276550292969</v>
       </c>
       <c r="H39" t="n">
-        <v>-13.2750244140625</v>
+        <v>-12.55945110321045</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9992956308689603</v>
+        <v>0.9991981757266418</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9993503819701886</v>
+        <v>0.9994438385730536</v>
       </c>
       <c r="C40" t="n">
-        <v>34.70076751708984</v>
+        <v>34.75960159301758</v>
       </c>
       <c r="D40" t="n">
-        <v>62.55733489990234</v>
+        <v>61.69384765625</v>
       </c>
       <c r="E40" t="n">
-        <v>-12.81850147247314</v>
+        <v>-12.08692169189453</v>
       </c>
       <c r="F40" t="n">
-        <v>34.29127502441406</v>
+        <v>34.86981201171875</v>
       </c>
       <c r="G40" t="n">
-        <v>64.66719818115234</v>
+        <v>62.84925842285156</v>
       </c>
       <c r="H40" t="n">
-        <v>-9.222001075744629</v>
+        <v>-8.562309265136719</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999127984896857</v>
+        <v>0.9998983740988389</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9999217766700924</v>
+        <v>0.999929619780313</v>
       </c>
       <c r="C41" t="n">
-        <v>36.73772430419922</v>
+        <v>36.71428298950195</v>
       </c>
       <c r="D41" t="n">
-        <v>58.01882934570312</v>
+        <v>57.02787017822266</v>
       </c>
       <c r="E41" t="n">
-        <v>-8.432401657104492</v>
+        <v>-7.83323860168457</v>
       </c>
       <c r="F41" t="n">
-        <v>36.10892486572266</v>
+        <v>36.55462646484375</v>
       </c>
       <c r="G41" t="n">
-        <v>59.91000747680664</v>
+        <v>58.64509582519531</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.02670431137085</v>
+        <v>-5.435426712036133</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999917962167131</v>
+        <v>0.9999895474397881</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9999918815438387</v>
+        <v>0.9999921185246923</v>
       </c>
       <c r="C42" t="n">
-        <v>38.30427169799805</v>
+        <v>38.25328063964844</v>
       </c>
       <c r="D42" t="n">
-        <v>51.47936248779297</v>
+        <v>50.66463470458984</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.803554534912109</v>
+        <v>-4.291987419128418</v>
       </c>
       <c r="F42" t="n">
-        <v>38.12355041503906</v>
+        <v>38.13069152832031</v>
       </c>
       <c r="G42" t="n">
-        <v>54.28871536254883</v>
+        <v>53.10684967041016</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.721864700317383</v>
+        <v>-3.102177143096924</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999994080146128</v>
+        <v>0.9999991613622889</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9999995415737004</v>
+        <v>0.9999993603440605</v>
       </c>
       <c r="C43" t="n">
-        <v>39.65311431884766</v>
+        <v>39.5550537109375</v>
       </c>
       <c r="D43" t="n">
-        <v>43.87602233886719</v>
+        <v>43.12400817871094</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.803554534912109</v>
+        <v>-4.291987419128418</v>
       </c>
       <c r="F43" t="n">
-        <v>39.72051239013672</v>
+        <v>39.57353591918945</v>
       </c>
       <c r="G43" t="n">
-        <v>47.81186676025391</v>
+        <v>46.85139083862305</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.578917384147644</v>
+        <v>-0.8505924940109253</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999999706720343</v>
+        <v>0.9999999506919979</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999999856807984</v>
+        <v>0.9999999656842186</v>
       </c>
       <c r="C44" t="n">
-        <v>40.82315826416016</v>
+        <v>40.76129150390625</v>
       </c>
       <c r="D44" t="n">
-        <v>36.14080047607422</v>
+        <v>35.44835662841797</v>
       </c>
       <c r="E44" t="n">
-        <v>-5.922955513000488</v>
+        <v>-5.62000846862793</v>
       </c>
       <c r="F44" t="n">
-        <v>40.99988174438477</v>
+        <v>40.86276245117188</v>
       </c>
       <c r="G44" t="n">
-        <v>41.66461944580078</v>
+        <v>40.63213348388672</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.578917384147644</v>
+        <v>-0.8505924940109253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999991283512</v>
+        <v>0.9999999982037667</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9999999998473893</v>
+        <v>0.999999998977708</v>
       </c>
       <c r="C45" t="n">
-        <v>40.82315826416016</v>
+        <v>41.88589096069336</v>
       </c>
       <c r="D45" t="n">
-        <v>29.36025619506836</v>
+        <v>28.75137710571289</v>
       </c>
       <c r="E45" t="n">
-        <v>-9.673940658569336</v>
+        <v>-9.310663223266602</v>
       </c>
       <c r="F45" t="n">
-        <v>42.0430793762207</v>
+        <v>40.86276245117188</v>
       </c>
       <c r="G45" t="n">
-        <v>35.4459228515625</v>
+        <v>34.66825866699219</v>
       </c>
       <c r="H45" t="n">
-        <v>-2.070968627929688</v>
+        <v>-1.225305080413818</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999999999876404</v>
+        <v>0.9999999999722909</v>
       </c>
       <c r="B46" t="n">
-        <v>1.000000000001009</v>
+        <v>0.9999999999844835</v>
       </c>
       <c r="C46" t="n">
-        <v>42.77042388916016</v>
+        <v>41.88589096069336</v>
       </c>
       <c r="D46" t="n">
-        <v>22.72255516052246</v>
+        <v>22.37103271484375</v>
       </c>
       <c r="E46" t="n">
-        <v>-13.80857563018799</v>
+        <v>-13.44080543518066</v>
       </c>
       <c r="F46" t="n">
-        <v>42.0430793762207</v>
+        <v>42.84757614135742</v>
       </c>
       <c r="G46" t="n">
-        <v>28.92847442626953</v>
+        <v>28.37935638427734</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.945976257324219</v>
+        <v>-4.26267147064209</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999999998163</v>
+        <v>0.9999999999997117</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9999999999999826</v>
+        <v>0.9999999999999024</v>
       </c>
       <c r="C47" t="n">
-        <v>42.73592758178711</v>
+        <v>43.25983047485352</v>
       </c>
       <c r="D47" t="n">
-        <v>17.86500358581543</v>
+        <v>17.64588737487793</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.78289794921875</v>
+        <v>-16.01410484313965</v>
       </c>
       <c r="F47" t="n">
-        <v>43.5869255065918</v>
+        <v>43.270751953125</v>
       </c>
       <c r="G47" t="n">
-        <v>23.33540344238281</v>
+        <v>22.89970397949219</v>
       </c>
       <c r="H47" t="n">
-        <v>-7.149872303009033</v>
+        <v>-6.40190601348877</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="C48" t="n">
-        <v>43.58948135375977</v>
+        <v>43.65035247802734</v>
       </c>
       <c r="D48" t="n">
-        <v>13.62513637542725</v>
+        <v>13.75539970397949</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.85980987548828</v>
+        <v>-18.08703231811523</v>
       </c>
       <c r="F48" t="n">
-        <v>43.62106704711914</v>
+        <v>43.34914016723633</v>
       </c>
       <c r="G48" t="n">
-        <v>18.90376472473145</v>
+        <v>18.50256729125977</v>
       </c>
       <c r="H48" t="n">
-        <v>-7.149872303009033</v>
+        <v>-6.40190601348877</v>
       </c>
     </row>
     <row r="49">
@@ -1705,22 +1705,22 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>43.69182968139648</v>
+        <v>43.33395004272461</v>
       </c>
       <c r="D49" t="n">
-        <v>10.86062812805176</v>
+        <v>11.1363582611084</v>
       </c>
       <c r="E49" t="n">
-        <v>-20.64032363891602</v>
+        <v>-19.78070831298828</v>
       </c>
       <c r="F49" t="n">
-        <v>42.80806350708008</v>
+        <v>42.85869216918945</v>
       </c>
       <c r="G49" t="n">
-        <v>16.42304420471191</v>
+        <v>15.9200611114502</v>
       </c>
       <c r="H49" t="n">
-        <v>-7.915503978729248</v>
+        <v>-6.887413501739502</v>
       </c>
     </row>
     <row r="50">
@@ -1731,22 +1731,22 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>43.34545135498047</v>
+        <v>43.48094177246094</v>
       </c>
       <c r="D50" t="n">
-        <v>10.86062812805176</v>
+        <v>11.1363582611084</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.50719451904297</v>
+        <v>-21.51651763916016</v>
       </c>
       <c r="F50" t="n">
-        <v>43.50801467895508</v>
+        <v>43.41875076293945</v>
       </c>
       <c r="G50" t="n">
-        <v>15.22101211547852</v>
+        <v>15.9200611114502</v>
       </c>
       <c r="H50" t="n">
-        <v>-8.741446495056152</v>
+        <v>-7.888941287994385</v>
       </c>
     </row>
     <row r="51">
@@ -1757,22 +1757,22 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>42.77493286132812</v>
+        <v>42.82486343383789</v>
       </c>
       <c r="D51" t="n">
-        <v>10.42275619506836</v>
+        <v>10.7220401763916</v>
       </c>
       <c r="E51" t="n">
-        <v>-26.77426528930664</v>
+        <v>-25.85336685180664</v>
       </c>
       <c r="F51" t="n">
-        <v>43.06579971313477</v>
+        <v>42.77024459838867</v>
       </c>
       <c r="G51" t="n">
-        <v>15.22101211547852</v>
+        <v>14.07363986968994</v>
       </c>
       <c r="H51" t="n">
-        <v>-13.7878532409668</v>
+        <v>-13.06257820129395</v>
       </c>
     </row>
     <row r="52">
@@ -1783,1218 +1783,1218 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>42.17818832397461</v>
+        <v>42.29883575439453</v>
       </c>
       <c r="D52" t="n">
-        <v>12.7271614074707</v>
+        <v>11.75112438201904</v>
       </c>
       <c r="E52" t="n">
-        <v>-28.07158279418945</v>
+        <v>-25.85336685180664</v>
       </c>
       <c r="F52" t="n">
-        <v>42.41921234130859</v>
+        <v>42.08647537231445</v>
       </c>
       <c r="G52" t="n">
-        <v>16.49882888793945</v>
+        <v>15.50162506103516</v>
       </c>
       <c r="H52" t="n">
-        <v>-15.20054340362549</v>
+        <v>-15.77199077606201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.0090196355804801</v>
+        <v>0.002442286731675267</v>
       </c>
       <c r="B53" t="n">
-        <v>0.006442862330004573</v>
+        <v>-9.564920052071103e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>44.15973663330078</v>
+        <v>43.54770660400391</v>
       </c>
       <c r="D53" t="n">
-        <v>16.15047454833984</v>
+        <v>15.10613059997559</v>
       </c>
       <c r="E53" t="n">
-        <v>-30.57056999206543</v>
+        <v>-27.07331085205078</v>
       </c>
       <c r="F53" t="n">
-        <v>42.20920944213867</v>
+        <v>42.23960494995117</v>
       </c>
       <c r="G53" t="n">
-        <v>18.51047134399414</v>
+        <v>17.83150100708008</v>
       </c>
       <c r="H53" t="n">
-        <v>-18.5776538848877</v>
+        <v>-18.96767997741699</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.02343702476471663</v>
+        <v>0.01351667108014226</v>
       </c>
       <c r="B54" t="n">
-        <v>0.004312962321564555</v>
+        <v>0.02972286127507687</v>
       </c>
       <c r="C54" t="n">
-        <v>44.15973663330078</v>
+        <v>42.51008224487305</v>
       </c>
       <c r="D54" t="n">
-        <v>18.73497772216797</v>
+        <v>18.45915222167969</v>
       </c>
       <c r="E54" t="n">
-        <v>-30.57056999206543</v>
+        <v>-27.07331085205078</v>
       </c>
       <c r="F54" t="n">
-        <v>42.39703750610352</v>
+        <v>42.23960494995117</v>
       </c>
       <c r="G54" t="n">
-        <v>19.94302368164062</v>
+        <v>19.97901916503906</v>
       </c>
       <c r="H54" t="n">
-        <v>-20.15036582946777</v>
+        <v>-18.96767997741699</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.007794149266555906</v>
+        <v>0.0004794840695103631</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01137747459113598</v>
+        <v>0.02693077187985182</v>
       </c>
       <c r="C55" t="n">
-        <v>44.21498107910156</v>
+        <v>43.73161315917969</v>
       </c>
       <c r="D55" t="n">
-        <v>20.60473251342773</v>
+        <v>20.93812942504883</v>
       </c>
       <c r="E55" t="n">
-        <v>-25.6448974609375</v>
+        <v>-24.88619232177734</v>
       </c>
       <c r="F55" t="n">
-        <v>41.77404403686523</v>
+        <v>41.15130615234375</v>
       </c>
       <c r="G55" t="n">
-        <v>21.56251907348633</v>
+        <v>21.26499176025391</v>
       </c>
       <c r="H55" t="n">
-        <v>-20.15036582946777</v>
+        <v>-18.61224174499512</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.01006663430482149</v>
+        <v>0.01874751351773739</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02855362325906754</v>
+        <v>0.04803195446729661</v>
       </c>
       <c r="C56" t="n">
-        <v>41.51313400268555</v>
+        <v>40.80362701416016</v>
       </c>
       <c r="D56" t="n">
-        <v>20.60473251342773</v>
+        <v>20.93812942504883</v>
       </c>
       <c r="E56" t="n">
-        <v>-21.7288761138916</v>
+        <v>-20.80842590332031</v>
       </c>
       <c r="F56" t="n">
-        <v>38.9401969909668</v>
+        <v>38.16220855712891</v>
       </c>
       <c r="G56" t="n">
-        <v>21.56251907348633</v>
+        <v>21.26499176025391</v>
       </c>
       <c r="H56" t="n">
-        <v>-17.09504890441895</v>
+        <v>-16.28355598449707</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.03161285344511271</v>
+        <v>0.04471122831106186</v>
       </c>
       <c r="B57" t="n">
-        <v>0.05847084484994412</v>
+        <v>0.07239106729626656</v>
       </c>
       <c r="C57" t="n">
-        <v>39.35647583007812</v>
+        <v>38.61312866210938</v>
       </c>
       <c r="D57" t="n">
-        <v>21.64399909973145</v>
+        <v>22.33942031860352</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.24536895751953</v>
+        <v>-16.98271751403809</v>
       </c>
       <c r="F57" t="n">
-        <v>36.99808502197266</v>
+        <v>36.23359680175781</v>
       </c>
       <c r="G57" t="n">
-        <v>22.43879318237305</v>
+        <v>21.64186477661133</v>
       </c>
       <c r="H57" t="n">
-        <v>-14.46335411071777</v>
+        <v>-13.4050931930542</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.0665517757833004</v>
+        <v>0.07848702341318131</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08755787700414658</v>
+        <v>0.1031579577922821</v>
       </c>
       <c r="C58" t="n">
-        <v>37.13505172729492</v>
+        <v>36.46685791015625</v>
       </c>
       <c r="D58" t="n">
-        <v>19.88082695007324</v>
+        <v>20.00591278076172</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.90813732147217</v>
+        <v>-13.6294584274292</v>
       </c>
       <c r="F58" t="n">
-        <v>35.43453979492188</v>
+        <v>34.54333877563477</v>
       </c>
       <c r="G58" t="n">
-        <v>23.02121925354004</v>
+        <v>21.35763549804688</v>
       </c>
       <c r="H58" t="n">
-        <v>-10.77658081054688</v>
+        <v>-9.85124683380127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.09078061744570733</v>
+        <v>0.1009217242896557</v>
       </c>
       <c r="B59" t="n">
-        <v>0.100995132625103</v>
+        <v>0.1193235710263252</v>
       </c>
       <c r="C59" t="n">
-        <v>34.22484588623047</v>
+        <v>34.07646179199219</v>
       </c>
       <c r="D59" t="n">
-        <v>18.68070602416992</v>
+        <v>18.59700393676758</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.95556640625</v>
+        <v>-10.57382965087891</v>
       </c>
       <c r="F59" t="n">
-        <v>33.42435836791992</v>
+        <v>32.6290283203125</v>
       </c>
       <c r="G59" t="n">
-        <v>22.11517333984375</v>
+        <v>20.85553550720215</v>
       </c>
       <c r="H59" t="n">
-        <v>-7.596730709075928</v>
+        <v>-6.625523567199707</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1289223565161228</v>
+        <v>0.1290394939482212</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1288545002043247</v>
+        <v>0.1431321647763252</v>
       </c>
       <c r="C60" t="n">
-        <v>31.57942962646484</v>
+        <v>31.72691345214844</v>
       </c>
       <c r="D60" t="n">
-        <v>18.68070602416992</v>
+        <v>17.48110961914062</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.273933410644531</v>
+        <v>-7.848785400390625</v>
       </c>
       <c r="F60" t="n">
-        <v>31.22067642211914</v>
+        <v>30.58389282226562</v>
       </c>
       <c r="G60" t="n">
-        <v>20.70585060119629</v>
+        <v>19.93403816223145</v>
       </c>
       <c r="H60" t="n">
-        <v>-5.916499137878418</v>
+        <v>-4.675131320953369</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1541519287228584</v>
+        <v>0.1536799040436745</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1560376423597336</v>
+        <v>0.1673594111204147</v>
       </c>
       <c r="C61" t="n">
-        <v>29.06343078613281</v>
+        <v>29.44787788391113</v>
       </c>
       <c r="D61" t="n">
-        <v>17.07550430297852</v>
+        <v>16.43048477172852</v>
       </c>
       <c r="E61" t="n">
-        <v>-6.804433822631836</v>
+        <v>-5.468099594116211</v>
       </c>
       <c r="F61" t="n">
-        <v>28.92827415466309</v>
+        <v>28.39947509765625</v>
       </c>
       <c r="G61" t="n">
-        <v>19.1087760925293</v>
+        <v>19.12266731262207</v>
       </c>
       <c r="H61" t="n">
-        <v>-4.308749198913574</v>
+        <v>-3.123929500579834</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1794446739554405</v>
+        <v>0.1772510638833046</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1830386576056481</v>
+        <v>0.193231588602066</v>
       </c>
       <c r="C62" t="n">
-        <v>27.02417945861816</v>
+        <v>27.37507247924805</v>
       </c>
       <c r="D62" t="n">
-        <v>15.79520225524902</v>
+        <v>15.25911808013916</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.56700325012207</v>
+        <v>-4.15767765045166</v>
       </c>
       <c r="F62" t="n">
-        <v>26.56803703308105</v>
+        <v>26.18369293212891</v>
       </c>
       <c r="G62" t="n">
-        <v>17.7467041015625</v>
+        <v>16.55944442749023</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.694441795349121</v>
+        <v>-1.576505780220032</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1960039359331131</v>
+        <v>0.1971727040410042</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2105720826983452</v>
+        <v>0.2182514554262161</v>
       </c>
       <c r="C63" t="n">
-        <v>24.69997596740723</v>
+        <v>25.15017318725586</v>
       </c>
       <c r="D63" t="n">
-        <v>14.72413921356201</v>
+        <v>14.24239349365234</v>
       </c>
       <c r="E63" t="n">
-        <v>-3.363448858261108</v>
+        <v>-1.997390508651733</v>
       </c>
       <c r="F63" t="n">
-        <v>23.75766563415527</v>
+        <v>23.64517593383789</v>
       </c>
       <c r="G63" t="n">
-        <v>16.29655647277832</v>
+        <v>14.99447441101074</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.568661570549011</v>
+        <v>-0.2870513796806335</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2236554935574532</v>
+        <v>0.2225418981909752</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2475449904799462</v>
+        <v>0.2501087459921837</v>
       </c>
       <c r="C64" t="n">
-        <v>22.24954986572266</v>
+        <v>22.84729385375977</v>
       </c>
       <c r="D64" t="n">
-        <v>13.50323295593262</v>
+        <v>13.17139625549316</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.89864194393158</v>
+        <v>-0.5435229539871216</v>
       </c>
       <c r="F64" t="n">
-        <v>21.5898551940918</v>
+        <v>21.19329071044922</v>
       </c>
       <c r="G64" t="n">
-        <v>15.26091384887695</v>
+        <v>13.63075637817383</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.5597701668739319</v>
+        <v>0.7928593158721924</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2509625256061554</v>
+        <v>0.2479524284601212</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2648407682776451</v>
+        <v>0.2764435815811158</v>
       </c>
       <c r="C65" t="n">
-        <v>19.83200836181641</v>
+        <v>20.40877342224121</v>
       </c>
       <c r="D65" t="n">
-        <v>12.46938228607178</v>
+        <v>13.17139625549316</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7890973687171936</v>
+        <v>2.057519674301147</v>
       </c>
       <c r="F65" t="n">
-        <v>18.94162368774414</v>
+        <v>18.68981552124023</v>
       </c>
       <c r="G65" t="n">
-        <v>14.07127666473389</v>
+        <v>12.44555473327637</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4925538003444672</v>
+        <v>1.858421802520752</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2762348634004593</v>
+        <v>0.2754259896278382</v>
       </c>
       <c r="B66" t="n">
-        <v>0.300318483710289</v>
+        <v>0.3048917400836945</v>
       </c>
       <c r="C66" t="n">
-        <v>17.4853687286377</v>
+        <v>17.96025466918945</v>
       </c>
       <c r="D66" t="n">
-        <v>11.41579437255859</v>
+        <v>11.45894527435303</v>
       </c>
       <c r="E66" t="n">
-        <v>3.171710014343262</v>
+        <v>4.459084987640381</v>
       </c>
       <c r="F66" t="n">
-        <v>16.48164558410645</v>
+        <v>16.20068740844727</v>
       </c>
       <c r="G66" t="n">
-        <v>12.32456970214844</v>
+        <v>11.04294776916504</v>
       </c>
       <c r="H66" t="n">
-        <v>2.463440179824829</v>
+        <v>3.705793380737305</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.3003529173135758</v>
+        <v>0.3016653430461884</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3260789889097214</v>
+        <v>0.3324460780620575</v>
       </c>
       <c r="C67" t="n">
-        <v>14.7629280090332</v>
+        <v>15.45420455932617</v>
       </c>
       <c r="D67" t="n">
-        <v>9.452310562133789</v>
+        <v>9.711689949035645</v>
       </c>
       <c r="E67" t="n">
-        <v>5.352363586425781</v>
+        <v>6.794731140136719</v>
       </c>
       <c r="F67" t="n">
-        <v>14.11795234680176</v>
+        <v>13.72923851013184</v>
       </c>
       <c r="G67" t="n">
-        <v>12.32456970214844</v>
+        <v>9.692619323730469</v>
       </c>
       <c r="H67" t="n">
-        <v>2.463440179824829</v>
+        <v>4.862329483032227</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3331877589225769</v>
+        <v>0.3290259683132172</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3517905920743942</v>
+        <v>0.3597664570808411</v>
       </c>
       <c r="C68" t="n">
-        <v>12.61440467834473</v>
+        <v>13.14684200286865</v>
       </c>
       <c r="D68" t="n">
-        <v>8.710391044616699</v>
+        <v>8.285775184631348</v>
       </c>
       <c r="E68" t="n">
-        <v>7.388545989990234</v>
+        <v>8.920228958129883</v>
       </c>
       <c r="F68" t="n">
-        <v>12.00724697113037</v>
+        <v>11.38993835449219</v>
       </c>
       <c r="G68" t="n">
-        <v>10.40451717376709</v>
+        <v>8.452638626098633</v>
       </c>
       <c r="H68" t="n">
-        <v>4.165771961212158</v>
+        <v>4.862329483032227</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3498752623796463</v>
+        <v>0.3515314871072769</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3728563755750656</v>
+        <v>0.3843409931659699</v>
       </c>
       <c r="C69" t="n">
-        <v>10.36944198608398</v>
+        <v>10.99955749511719</v>
       </c>
       <c r="D69" t="n">
-        <v>7.701413154602051</v>
+        <v>7.204726219177246</v>
       </c>
       <c r="E69" t="n">
-        <v>7.388545989990234</v>
+        <v>8.920228958129883</v>
       </c>
       <c r="F69" t="n">
-        <v>10.08587455749512</v>
+        <v>9.219934463500977</v>
       </c>
       <c r="G69" t="n">
-        <v>8.565108299255371</v>
+        <v>8.452638626098633</v>
       </c>
       <c r="H69" t="n">
-        <v>6.971624374389648</v>
+        <v>8.091475486755371</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.374689222574234</v>
+        <v>0.3727405965328217</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3924970501661301</v>
+        <v>0.4066169440746308</v>
       </c>
       <c r="C70" t="n">
-        <v>8.830539703369141</v>
+        <v>9.160127639770508</v>
       </c>
       <c r="D70" t="n">
-        <v>6.995898246765137</v>
+        <v>6.454850196838379</v>
       </c>
       <c r="E70" t="n">
-        <v>11.22525215148926</v>
+        <v>12.59927272796631</v>
       </c>
       <c r="F70" t="n">
-        <v>8.407611846923828</v>
+        <v>7.371360778808594</v>
       </c>
       <c r="G70" t="n">
-        <v>8.868557929992676</v>
+        <v>6.824023246765137</v>
       </c>
       <c r="H70" t="n">
-        <v>8.819021224975586</v>
+        <v>9.956942558288574</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3835155975818634</v>
+        <v>0.3890868598222733</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4087711608409882</v>
+        <v>0.4236202573776245</v>
       </c>
       <c r="C71" t="n">
-        <v>6.643468856811523</v>
+        <v>7.356992721557617</v>
       </c>
       <c r="D71" t="n">
-        <v>7.36650562286377</v>
+        <v>6.799818992614746</v>
       </c>
       <c r="E71" t="n">
-        <v>11.22525215148926</v>
+        <v>12.59927272796631</v>
       </c>
       <c r="F71" t="n">
-        <v>7.304341316223145</v>
+        <v>5.752429008483887</v>
       </c>
       <c r="G71" t="n">
-        <v>8.69912052154541</v>
+        <v>6.756922721862793</v>
       </c>
       <c r="H71" t="n">
-        <v>10.67290687561035</v>
+        <v>11.93417167663574</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4135631495714188</v>
+        <v>0.4079439961910248</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4147616600990295</v>
+        <v>0.4390886533260346</v>
       </c>
       <c r="C72" t="n">
-        <v>5.227504253387451</v>
+        <v>5.622646808624268</v>
       </c>
       <c r="D72" t="n">
-        <v>6.830521583557129</v>
+        <v>6.321629524230957</v>
       </c>
       <c r="E72" t="n">
-        <v>12.76548385620117</v>
+        <v>14.28251838684082</v>
       </c>
       <c r="F72" t="n">
-        <v>6.036871910095215</v>
+        <v>4.442813873291016</v>
       </c>
       <c r="G72" t="n">
-        <v>7.925381660461426</v>
+        <v>6.518246650695801</v>
       </c>
       <c r="H72" t="n">
-        <v>11.77433013916016</v>
+        <v>13.12972068786621</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4203973037004471</v>
+        <v>0.4257202017307282</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4309962195158005</v>
+        <v>0.4502260285615921</v>
       </c>
       <c r="C73" t="n">
-        <v>3.678021430969238</v>
+        <v>3.976239681243896</v>
       </c>
       <c r="D73" t="n">
-        <v>6.950457572937012</v>
+        <v>6.344611167907715</v>
       </c>
       <c r="E73" t="n">
-        <v>14.34758186340332</v>
+        <v>15.69663429260254</v>
       </c>
       <c r="F73" t="n">
-        <v>4.488406181335449</v>
+        <v>3.185367345809937</v>
       </c>
       <c r="G73" t="n">
-        <v>9.08017635345459</v>
+        <v>6.711125373840332</v>
       </c>
       <c r="H73" t="n">
-        <v>14.35268020629883</v>
+        <v>15.34633255004883</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.438233562707901</v>
+        <v>0.4423534643650055</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4517416125535965</v>
+        <v>0.463645625114441</v>
       </c>
       <c r="C74" t="n">
-        <v>2.065948247909546</v>
+        <v>2.372930526733398</v>
       </c>
       <c r="D74" t="n">
-        <v>6.923893928527832</v>
+        <v>6.857636451721191</v>
       </c>
       <c r="E74" t="n">
-        <v>15.35000419616699</v>
+        <v>16.3164005279541</v>
       </c>
       <c r="F74" t="n">
-        <v>3.083777666091919</v>
+        <v>1.990103363990784</v>
       </c>
       <c r="G74" t="n">
-        <v>9.736088752746582</v>
+        <v>7.652606010437012</v>
       </c>
       <c r="H74" t="n">
-        <v>16.64253234863281</v>
+        <v>17.65132904052734</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4559814631938934</v>
+        <v>0.4590053337812424</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4660385078191757</v>
+        <v>0.4762614023685456</v>
       </c>
       <c r="C75" t="n">
-        <v>0.003045320510864258</v>
+        <v>0.5785354375839233</v>
       </c>
       <c r="D75" t="n">
-        <v>7.409113883972168</v>
+        <v>7.36580753326416</v>
       </c>
       <c r="E75" t="n">
-        <v>16.24411392211914</v>
+        <v>17.28524398803711</v>
       </c>
       <c r="F75" t="n">
-        <v>1.844724059104919</v>
+        <v>0.7737799286842346</v>
       </c>
       <c r="G75" t="n">
-        <v>10.81292152404785</v>
+        <v>8.656266212463379</v>
       </c>
       <c r="H75" t="n">
-        <v>18.5633487701416</v>
+        <v>19.61418914794922</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4826217311620712</v>
+        <v>0.480196025967598</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4782113552093506</v>
+        <v>0.4900384765863419</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.357356071472168</v>
+        <v>-0.9739107489585876</v>
       </c>
       <c r="D76" t="n">
-        <v>7.383715629577637</v>
+        <v>7.521368980407715</v>
       </c>
       <c r="E76" t="n">
-        <v>16.63613319396973</v>
+        <v>17.56292724609375</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6430487036705017</v>
+        <v>-0.3400876224040985</v>
       </c>
       <c r="G76" t="n">
-        <v>12.01089572906494</v>
+        <v>9.915581703186035</v>
       </c>
       <c r="H76" t="n">
-        <v>18.5633487701416</v>
+        <v>20.65913772583008</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4895940935611725</v>
+        <v>0.4941827344894409</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4914140832424164</v>
+        <v>0.5012995916604996</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.688504457473755</v>
+        <v>-2.194875955581665</v>
       </c>
       <c r="D77" t="n">
-        <v>9.305472373962402</v>
+        <v>8.586544990539551</v>
       </c>
       <c r="E77" t="n">
-        <v>14.09650802612305</v>
+        <v>14.96048450469971</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.5524334907531738</v>
+        <v>-1.437907338142395</v>
       </c>
       <c r="G77" t="n">
-        <v>13.71835136413574</v>
+        <v>11.80984306335449</v>
       </c>
       <c r="H77" t="n">
-        <v>20.29569625854492</v>
+        <v>20.65913772583008</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5033914488554001</v>
+        <v>0.5036760473251343</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5049001777172089</v>
+        <v>0.5133440870046616</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.315316677093506</v>
+        <v>-3.387065887451172</v>
       </c>
       <c r="D78" t="n">
-        <v>11.71646404266357</v>
+        <v>11.30747032165527</v>
       </c>
       <c r="E78" t="n">
-        <v>12.21401596069336</v>
+        <v>12.91145324707031</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5524334907531738</v>
+        <v>-1.437907338142395</v>
       </c>
       <c r="G78" t="n">
-        <v>16.18408584594727</v>
+        <v>14.85959053039551</v>
       </c>
       <c r="H78" t="n">
-        <v>18.90784072875977</v>
+        <v>19.93473625183105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.5237656223773957</v>
+        <v>0.5160929626226426</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5051615571975708</v>
+        <v>0.5216502302885055</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.315316677093506</v>
+        <v>-3.387065887451172</v>
       </c>
       <c r="D79" t="n">
-        <v>13.43590927124023</v>
+        <v>13.06142997741699</v>
       </c>
       <c r="E79" t="n">
-        <v>7.576842308044434</v>
+        <v>7.974974632263184</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.770969867706299</v>
+        <v>-3.281742572784424</v>
       </c>
       <c r="G79" t="n">
-        <v>17.74702453613281</v>
+        <v>16.82147026062012</v>
       </c>
       <c r="H79" t="n">
-        <v>16.02058029174805</v>
+        <v>16.8738899230957</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.5217855954170227</v>
+        <v>0.5203803569078446</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5241918408870697</v>
+        <v>0.5273963141441346</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.755296230316162</v>
+        <v>-4.980966091156006</v>
       </c>
       <c r="D80" t="n">
-        <v>15.68001270294189</v>
+        <v>15.40339374542236</v>
       </c>
       <c r="E80" t="n">
-        <v>0.04604268074035645</v>
+        <v>0.2846207618713379</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.449181079864502</v>
+        <v>-3.797823429107666</v>
       </c>
       <c r="G80" t="n">
-        <v>20.46278381347656</v>
+        <v>19.39592552185059</v>
       </c>
       <c r="H80" t="n">
-        <v>9.556308746337891</v>
+        <v>10.26677417755127</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.527028506398201</v>
+        <v>0.5189138644933701</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5143502748012543</v>
+        <v>0.5240206521749496</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.250009059906006</v>
+        <v>-4.843558788299561</v>
       </c>
       <c r="D81" t="n">
-        <v>19.74101448059082</v>
+        <v>19.06141471862793</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.94347476959229</v>
+        <v>-10.89502429962158</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.581285953521729</v>
+        <v>-3.494640827178955</v>
       </c>
       <c r="G81" t="n">
-        <v>24.48770141601562</v>
+        <v>23.16600799560547</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2843146324157715</v>
+        <v>0.6531128883361816</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.510022634267807</v>
+        <v>0.5020667344331742</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5140462166070938</v>
+        <v>0.5098184019327164</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.645360469818115</v>
+        <v>-1.891286134719849</v>
       </c>
       <c r="D82" t="n">
-        <v>24.56050300598145</v>
+        <v>23.98383712768555</v>
       </c>
       <c r="E82" t="n">
-        <v>-25.22646522521973</v>
+        <v>-24.87253570556641</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.499170780181885</v>
+        <v>-0.935631275177002</v>
       </c>
       <c r="G82" t="n">
-        <v>29.55526542663574</v>
+        <v>28.07583427429199</v>
       </c>
       <c r="H82" t="n">
-        <v>-11.13381385803223</v>
+        <v>-10.68997859954834</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4891225743293762</v>
+        <v>0.4727427619695664</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4901127773523331</v>
+        <v>0.4812386691570282</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.271376848220825</v>
+        <v>0.6645429134368896</v>
       </c>
       <c r="D83" t="n">
-        <v>31.48195266723633</v>
+        <v>30.30618476867676</v>
       </c>
       <c r="E83" t="n">
-        <v>-42.64399719238281</v>
+        <v>-41.62871551513672</v>
       </c>
       <c r="F83" t="n">
-        <v>1.049363613128662</v>
+        <v>1.690078258514404</v>
       </c>
       <c r="G83" t="n">
-        <v>36.07901763916016</v>
+        <v>34.28490829467773</v>
       </c>
       <c r="H83" t="n">
-        <v>-23.97636032104492</v>
+        <v>-23.06488800048828</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4594084280729294</v>
+        <v>0.4328489369153977</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4442806404829026</v>
+        <v>0.4370589977502823</v>
       </c>
       <c r="C84" t="n">
-        <v>1.646093010902405</v>
+        <v>4.12896728515625</v>
       </c>
       <c r="D84" t="n">
-        <v>39.10456848144531</v>
+        <v>37.76748657226562</v>
       </c>
       <c r="E84" t="n">
-        <v>-56.46609878540039</v>
+        <v>-54.34040832519531</v>
       </c>
       <c r="F84" t="n">
-        <v>4.053094387054443</v>
+        <v>5.282801628112793</v>
       </c>
       <c r="G84" t="n">
-        <v>43.35609436035156</v>
+        <v>41.25151824951172</v>
       </c>
       <c r="H84" t="n">
-        <v>-35.14306640625</v>
+        <v>-33.66014862060547</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4124274092912674</v>
+        <v>0.3861764305830002</v>
       </c>
       <c r="B85" t="n">
-        <v>0.57528601746948</v>
+        <v>0.5897002546191502</v>
       </c>
       <c r="C85" t="n">
-        <v>6.431187629699707</v>
+        <v>8.979108810424805</v>
       </c>
       <c r="D85" t="n">
-        <v>47.92345809936523</v>
+        <v>46.48059844970703</v>
       </c>
       <c r="E85" t="n">
-        <v>-62.55775451660156</v>
+        <v>-59.4343147277832</v>
       </c>
       <c r="F85" t="n">
-        <v>8.726016044616699</v>
+        <v>9.996045112609863</v>
       </c>
       <c r="G85" t="n">
-        <v>50.880126953125</v>
+        <v>48.80980682373047</v>
       </c>
       <c r="H85" t="n">
-        <v>-39.00532913208008</v>
+        <v>-37.18671417236328</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6209351805624082</v>
+        <v>0.6298270939980013</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7330387941545893</v>
+        <v>0.75123656790636</v>
       </c>
       <c r="C86" t="n">
-        <v>11.80354499816895</v>
+        <v>14.24895000457764</v>
       </c>
       <c r="D86" t="n">
-        <v>55.66473007202148</v>
+        <v>54.59586334228516</v>
       </c>
       <c r="E86" t="n">
-        <v>-58.99349975585938</v>
+        <v>-55.76057434082031</v>
       </c>
       <c r="F86" t="n">
-        <v>13.51193237304688</v>
+        <v>15.12035942077637</v>
       </c>
       <c r="G86" t="n">
-        <v>58.04203414916992</v>
+        <v>55.41596984863281</v>
       </c>
       <c r="H86" t="n">
-        <v>-37.44898223876953</v>
+        <v>-36.06604766845703</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8006239443826269</v>
+        <v>0.8191749209719406</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8601784538341209</v>
+        <v>0.8781030545626074</v>
       </c>
       <c r="C87" t="n">
-        <v>17.56062507629395</v>
+        <v>19.43898010253906</v>
       </c>
       <c r="D87" t="n">
-        <v>62.05156707763672</v>
+        <v>61.02170181274414</v>
       </c>
       <c r="E87" t="n">
-        <v>-50.41098022460938</v>
+        <v>-47.21044158935547</v>
       </c>
       <c r="F87" t="n">
-        <v>18.72025680541992</v>
+        <v>20.29417037963867</v>
       </c>
       <c r="G87" t="n">
-        <v>63.33349609375</v>
+        <v>60.66436004638672</v>
       </c>
       <c r="H87" t="n">
-        <v>-32.34869003295898</v>
+        <v>-30.82036399841309</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9196202288798163</v>
+        <v>0.9302771820694775</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9436127885228744</v>
+        <v>0.9536447529848788</v>
       </c>
       <c r="C88" t="n">
-        <v>23.03230285644531</v>
+        <v>24.16088104248047</v>
       </c>
       <c r="D88" t="n">
-        <v>65.74447631835938</v>
+        <v>64.81352233886719</v>
       </c>
       <c r="E88" t="n">
-        <v>-39.60963439941406</v>
+        <v>-36.97420883178711</v>
       </c>
       <c r="F88" t="n">
-        <v>23.42764282226562</v>
+        <v>25.10704612731934</v>
       </c>
       <c r="G88" t="n">
-        <v>66.74301147460938</v>
+        <v>63.83548355102539</v>
       </c>
       <c r="H88" t="n">
-        <v>-25.63241004943848</v>
+        <v>-24.07036399841309</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9759301396356319</v>
+        <v>0.9790886145021299</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9823349759974384</v>
+        <v>0.9867072843815002</v>
       </c>
       <c r="C89" t="n">
-        <v>27.8475513458252</v>
+        <v>28.3510856628418</v>
       </c>
       <c r="D89" t="n">
-        <v>67.08203125</v>
+        <v>66.02854919433594</v>
       </c>
       <c r="E89" t="n">
-        <v>-30.04483032226562</v>
+        <v>-27.90883255004883</v>
       </c>
       <c r="F89" t="n">
-        <v>27.54065704345703</v>
+        <v>29.34376907348633</v>
       </c>
       <c r="G89" t="n">
-        <v>68.44204711914062</v>
+        <v>65.16720581054688</v>
       </c>
       <c r="H89" t="n">
-        <v>-19.93978500366211</v>
+        <v>-18.35160255432129</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9947938863713542</v>
+        <v>0.9952688245383052</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9957957676386426</v>
+        <v>0.9972104228259503</v>
       </c>
       <c r="C90" t="n">
-        <v>32.07168579101562</v>
+        <v>32.02002716064453</v>
       </c>
       <c r="D90" t="n">
-        <v>67.08203125</v>
+        <v>64.94963073730469</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.24791526794434</v>
+        <v>-18.56951904296875</v>
       </c>
       <c r="F90" t="n">
-        <v>31.48978996276855</v>
+        <v>32.90457916259766</v>
       </c>
       <c r="G90" t="n">
-        <v>68.44204711914062</v>
+        <v>65.16720581054688</v>
       </c>
       <c r="H90" t="n">
-        <v>-13.75672912597656</v>
+        <v>-12.31124401092529</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9992521636984302</v>
+        <v>0.9992294676376487</v>
       </c>
       <c r="B91" t="n">
-        <v>0.999339892936452</v>
+        <v>0.9995836478638251</v>
       </c>
       <c r="C91" t="n">
-        <v>34.76417541503906</v>
+        <v>34.77736282348633</v>
       </c>
       <c r="D91" t="n">
-        <v>62.68848419189453</v>
+        <v>61.63883209228516</v>
       </c>
       <c r="E91" t="n">
-        <v>-12.73511123657227</v>
+        <v>-11.27632522583008</v>
       </c>
       <c r="F91" t="n">
-        <v>34.31430816650391</v>
+        <v>35.52460861206055</v>
       </c>
       <c r="G91" t="n">
-        <v>64.42976379394531</v>
+        <v>61.53964233398438</v>
       </c>
       <c r="H91" t="n">
-        <v>-9.691879272460938</v>
+        <v>-8.354511260986328</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999099354259483</v>
+        <v>0.9999031483324936</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9999203648337933</v>
+        <v>0.9999525459565525</v>
       </c>
       <c r="C92" t="n">
-        <v>36.86504364013672</v>
+        <v>36.72140502929688</v>
       </c>
       <c r="D92" t="n">
-        <v>58.19631958007812</v>
+        <v>56.64541244506836</v>
       </c>
       <c r="E92" t="n">
-        <v>-8.291166305541992</v>
+        <v>-7.120942115783691</v>
       </c>
       <c r="F92" t="n">
-        <v>36.21192169189453</v>
+        <v>37.138427734375</v>
       </c>
       <c r="G92" t="n">
-        <v>59.99031829833984</v>
+        <v>57.62315368652344</v>
       </c>
       <c r="H92" t="n">
-        <v>-6.539540767669678</v>
+        <v>-5.338022232055664</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9999918712649424</v>
+        <v>0.9999900316333119</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999920467501743</v>
+        <v>0.9999951971135275</v>
       </c>
       <c r="C93" t="n">
-        <v>38.49554443359375</v>
+        <v>38.25749206542969</v>
       </c>
       <c r="D93" t="n">
-        <v>51.77115631103516</v>
+        <v>50.30321884155273</v>
       </c>
       <c r="E93" t="n">
-        <v>-4.703264236450195</v>
+        <v>-3.705856084823608</v>
       </c>
       <c r="F93" t="n">
-        <v>38.18120574951172</v>
+        <v>38.39761352539062</v>
       </c>
       <c r="G93" t="n">
-        <v>54.49868392944336</v>
+        <v>52.26937866210938</v>
       </c>
       <c r="H93" t="n">
-        <v>-4.266608715057373</v>
+        <v>-3.034032821655273</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9999994549151706</v>
+        <v>0.9999992004715909</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9999995529978073</v>
+        <v>0.9999996051607529</v>
       </c>
       <c r="C94" t="n">
-        <v>39.79287719726562</v>
+        <v>39.53361511230469</v>
       </c>
       <c r="D94" t="n">
-        <v>44.26831817626953</v>
+        <v>42.90251922607422</v>
       </c>
       <c r="E94" t="n">
-        <v>-4.703264236450195</v>
+        <v>-3.705856084823608</v>
       </c>
       <c r="F94" t="n">
-        <v>39.76142120361328</v>
+        <v>39.56051635742188</v>
       </c>
       <c r="G94" t="n">
-        <v>48.08152008056641</v>
+        <v>46.23162078857422</v>
       </c>
       <c r="H94" t="n">
-        <v>-2.212292909622192</v>
+        <v>-0.8126696348190308</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9999999739574845</v>
+        <v>0.9999999522331733</v>
       </c>
       <c r="B95" t="n">
-        <v>0.999999986268794</v>
+        <v>0.9999999763879864</v>
       </c>
       <c r="C95" t="n">
-        <v>40.88317108154297</v>
+        <v>40.77768707275391</v>
       </c>
       <c r="D95" t="n">
-        <v>36.67032241821289</v>
+        <v>35.35909652709961</v>
       </c>
       <c r="E95" t="n">
-        <v>-5.757635116577148</v>
+        <v>-5.117697715759277</v>
       </c>
       <c r="F95" t="n">
-        <v>41.01219177246094</v>
+        <v>40.72819900512695</v>
       </c>
       <c r="G95" t="n">
-        <v>41.93089294433594</v>
+        <v>40.05747604370117</v>
       </c>
       <c r="H95" t="n">
-        <v>-2.212292909622192</v>
+        <v>-0.8126696348190308</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9999999992157191</v>
+        <v>0.9999999983120735</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9999999998488694</v>
+        <v>0.9999999991695416</v>
       </c>
       <c r="C96" t="n">
-        <v>40.88317108154297</v>
+        <v>41.92487335205078</v>
       </c>
       <c r="D96" t="n">
-        <v>29.9326000213623</v>
+        <v>28.80960655212402</v>
       </c>
       <c r="E96" t="n">
-        <v>-9.501228332519531</v>
+        <v>-8.754719734191895</v>
       </c>
       <c r="F96" t="n">
-        <v>42.04504013061523</v>
+        <v>40.72819900512695</v>
       </c>
       <c r="G96" t="n">
-        <v>35.75681304931641</v>
+        <v>34.25048828125</v>
       </c>
       <c r="H96" t="n">
-        <v>-2.726014614105225</v>
+        <v>-1.068293333053589</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.999999999987903</v>
+        <v>0.9999999999760543</v>
       </c>
       <c r="B97" t="n">
-        <v>1.000000000000972</v>
+        <v>0.9999999999827025</v>
       </c>
       <c r="C97" t="n">
-        <v>42.70816802978516</v>
+        <v>41.92487335205078</v>
       </c>
       <c r="D97" t="n">
-        <v>23.32364082336426</v>
+        <v>22.68129730224609</v>
       </c>
       <c r="E97" t="n">
-        <v>-13.69083499908447</v>
+        <v>-12.93891334533691</v>
       </c>
       <c r="F97" t="n">
-        <v>42.04504013061523</v>
+        <v>42.57859039306641</v>
       </c>
       <c r="G97" t="n">
-        <v>29.27788925170898</v>
+        <v>28.19345092773438</v>
       </c>
       <c r="H97" t="n">
-        <v>-5.534879684448242</v>
+        <v>-4.17139720916748</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999999999998094</v>
+        <v>0.9999999999999177</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9999999999999843</v>
+        <v>0.999999999999802</v>
       </c>
       <c r="C98" t="n">
-        <v>42.69152450561523</v>
+        <v>43.60585403442383</v>
       </c>
       <c r="D98" t="n">
-        <v>18.44886589050293</v>
+        <v>18.08168792724609</v>
       </c>
       <c r="E98" t="n">
-        <v>-16.71021842956543</v>
+        <v>-15.16245460510254</v>
       </c>
       <c r="F98" t="n">
-        <v>43.53185272216797</v>
+        <v>43.02519989013672</v>
       </c>
       <c r="G98" t="n">
-        <v>23.74945449829102</v>
+        <v>22.88224029541016</v>
       </c>
       <c r="H98" t="n">
-        <v>-7.706907272338867</v>
+        <v>-6.218677043914795</v>
       </c>
     </row>
     <row r="99">
@@ -3002,25 +3002,25 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="C99" t="n">
-        <v>43.6182861328125</v>
+        <v>43.74788284301758</v>
       </c>
       <c r="D99" t="n">
-        <v>14.22972106933594</v>
+        <v>14.36443710327148</v>
       </c>
       <c r="E99" t="n">
-        <v>-18.76067352294922</v>
+        <v>-17.19387435913086</v>
       </c>
       <c r="F99" t="n">
-        <v>43.64569473266602</v>
+        <v>43.01808166503906</v>
       </c>
       <c r="G99" t="n">
-        <v>19.35536003112793</v>
+        <v>18.67455673217773</v>
       </c>
       <c r="H99" t="n">
-        <v>-7.706907272338867</v>
+        <v>-6.218677043914795</v>
       </c>
     </row>
     <row r="100">
@@ -3031,22 +3031,22 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>43.62842178344727</v>
+        <v>43.20934295654297</v>
       </c>
       <c r="D100" t="n">
-        <v>11.49193954467773</v>
+        <v>11.87741470336914</v>
       </c>
       <c r="E100" t="n">
-        <v>-20.54092407226562</v>
+        <v>-18.8007640838623</v>
       </c>
       <c r="F100" t="n">
-        <v>42.91286849975586</v>
+        <v>42.74211120605469</v>
       </c>
       <c r="G100" t="n">
-        <v>16.88737106323242</v>
+        <v>16.02078628540039</v>
       </c>
       <c r="H100" t="n">
-        <v>-8.595626831054688</v>
+        <v>-6.605629444122314</v>
       </c>
     </row>
     <row r="101">
@@ -3057,22 +3057,22 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>43.29566955566406</v>
+        <v>43.60932922363281</v>
       </c>
       <c r="D101" t="n">
-        <v>11.49193954467773</v>
+        <v>11.87741470336914</v>
       </c>
       <c r="E101" t="n">
-        <v>-22.42871856689453</v>
+        <v>-20.45773887634277</v>
       </c>
       <c r="F101" t="n">
-        <v>43.55525207519531</v>
+        <v>43.42916870117188</v>
       </c>
       <c r="G101" t="n">
-        <v>15.68195533752441</v>
+        <v>16.02078628540039</v>
       </c>
       <c r="H101" t="n">
-        <v>-9.389926910400391</v>
+        <v>-8.717430114746094</v>
       </c>
     </row>
     <row r="102">
@@ -3083,22 +3083,22 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>42.75710678100586</v>
+        <v>42.69634628295898</v>
       </c>
       <c r="D102" t="n">
-        <v>10.98993873596191</v>
+        <v>10.66244697570801</v>
       </c>
       <c r="E102" t="n">
-        <v>-26.74801826477051</v>
+        <v>-24.9468879699707</v>
       </c>
       <c r="F102" t="n">
-        <v>43.13043594360352</v>
+        <v>42.50666046142578</v>
       </c>
       <c r="G102" t="n">
-        <v>15.68195533752441</v>
+        <v>14.378737449646</v>
       </c>
       <c r="H102" t="n">
-        <v>-14.47594451904297</v>
+        <v>-12.51201725006104</v>
       </c>
     </row>
     <row r="103">
@@ -3109,1244 +3109,1244 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>42.0483512878418</v>
+        <v>42.22769165039062</v>
       </c>
       <c r="D103" t="n">
-        <v>13.252197265625</v>
+        <v>12.56859970092773</v>
       </c>
       <c r="E103" t="n">
-        <v>-27.79909324645996</v>
+        <v>-23.63747024536133</v>
       </c>
       <c r="F103" t="n">
-        <v>42.38558578491211</v>
+        <v>41.8295783996582</v>
       </c>
       <c r="G103" t="n">
-        <v>16.0344181060791</v>
+        <v>16.00517845153809</v>
       </c>
       <c r="H103" t="n">
-        <v>-15.56005382537842</v>
+        <v>-15.54851722717285</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.01636402601376176</v>
+        <v>0.003151069828309119</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01213066918775439</v>
+        <v>9.896209594444372e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>43.83364105224609</v>
+        <v>43.48129653930664</v>
       </c>
       <c r="D104" t="n">
-        <v>16.77522850036621</v>
+        <v>15.50073146820068</v>
       </c>
       <c r="E104" t="n">
-        <v>-30.53456878662109</v>
+        <v>-25.97509384155273</v>
       </c>
       <c r="F104" t="n">
-        <v>41.70762252807617</v>
+        <v>42.01655197143555</v>
       </c>
       <c r="G104" t="n">
-        <v>19.49629974365234</v>
+        <v>17.60453796386719</v>
       </c>
       <c r="H104" t="n">
-        <v>-18.92656517028809</v>
+        <v>-19.03689002990723</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.02386952187865973</v>
+        <v>0.02319229938089848</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0005328858632128686</v>
+        <v>0.03449521258473397</v>
       </c>
       <c r="C105" t="n">
-        <v>43.83364105224609</v>
+        <v>41.603515625</v>
       </c>
       <c r="D105" t="n">
-        <v>19.25097274780273</v>
+        <v>18.70306777954102</v>
       </c>
       <c r="E105" t="n">
-        <v>-30.53456878662109</v>
+        <v>-25.97509384155273</v>
       </c>
       <c r="F105" t="n">
-        <v>42.73038864135742</v>
+        <v>42.01655197143555</v>
       </c>
       <c r="G105" t="n">
-        <v>20.63506698608398</v>
+        <v>20.1848087310791</v>
       </c>
       <c r="H105" t="n">
-        <v>-20.54430389404297</v>
+        <v>-19.03689002990723</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.008866656795144081</v>
+        <v>0.00490224339067936</v>
       </c>
       <c r="B106" t="n">
-        <v>0.008234923081472516</v>
+        <v>0.02453733239322901</v>
       </c>
       <c r="C106" t="n">
-        <v>44.31618118286133</v>
+        <v>43.31721878051758</v>
       </c>
       <c r="D106" t="n">
-        <v>21.03520011901855</v>
+        <v>21.32694435119629</v>
       </c>
       <c r="E106" t="n">
-        <v>-25.92364501953125</v>
+        <v>-24.56923675537109</v>
       </c>
       <c r="F106" t="n">
-        <v>42.05117416381836</v>
+        <v>40.36455535888672</v>
       </c>
       <c r="G106" t="n">
-        <v>22.03742790222168</v>
+        <v>21.66481399536133</v>
       </c>
       <c r="H106" t="n">
-        <v>-20.54430389404297</v>
+        <v>-18.71827697753906</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.007631750600412488</v>
+        <v>0.02013983745127916</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02462227717041969</v>
+        <v>0.04684364371001721</v>
       </c>
       <c r="C107" t="n">
-        <v>41.69063568115234</v>
+        <v>40.71714782714844</v>
       </c>
       <c r="D107" t="n">
-        <v>21.03520011901855</v>
+        <v>21.32694435119629</v>
       </c>
       <c r="E107" t="n">
-        <v>-22.07394409179688</v>
+        <v>-20.59468460083008</v>
       </c>
       <c r="F107" t="n">
-        <v>39.31028747558594</v>
+        <v>38.71967315673828</v>
       </c>
       <c r="G107" t="n">
-        <v>22.03742790222168</v>
+        <v>21.66481399536133</v>
       </c>
       <c r="H107" t="n">
-        <v>-17.68194198608398</v>
+        <v>-16.24465179443359</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.03028548739850521</v>
+        <v>0.04516485944390297</v>
       </c>
       <c r="B108" t="n">
-        <v>0.05400886192917824</v>
+        <v>0.07231890678405763</v>
       </c>
       <c r="C108" t="n">
-        <v>39.55156707763672</v>
+        <v>38.50066757202148</v>
       </c>
       <c r="D108" t="n">
-        <v>21.9453296661377</v>
+        <v>22.88689422607422</v>
       </c>
       <c r="E108" t="n">
-        <v>-18.5869312286377</v>
+        <v>-16.69727897644043</v>
       </c>
       <c r="F108" t="n">
-        <v>37.35099792480469</v>
+        <v>36.44125366210938</v>
       </c>
       <c r="G108" t="n">
-        <v>22.71414375305176</v>
+        <v>21.79740905761719</v>
       </c>
       <c r="H108" t="n">
-        <v>-15.09549713134766</v>
+        <v>-13.37628936767578</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.06429780818521977</v>
+        <v>0.07996456459164619</v>
       </c>
       <c r="B109" t="n">
-        <v>0.08375076040625573</v>
+        <v>0.1047406794130802</v>
       </c>
       <c r="C109" t="n">
-        <v>37.33351135253906</v>
+        <v>36.32429504394531</v>
       </c>
       <c r="D109" t="n">
-        <v>20.27890014648438</v>
+        <v>21.38639259338379</v>
       </c>
       <c r="E109" t="n">
-        <v>-15.20237350463867</v>
+        <v>-13.29479598999023</v>
       </c>
       <c r="F109" t="n">
-        <v>35.75468063354492</v>
+        <v>34.54112243652344</v>
       </c>
       <c r="G109" t="n">
-        <v>23.2825984954834</v>
+        <v>20.98710823059082</v>
       </c>
       <c r="H109" t="n">
-        <v>-11.41625499725342</v>
+        <v>-9.923155784606934</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.08864170625805855</v>
+        <v>0.1027645064890385</v>
       </c>
       <c r="B110" t="n">
-        <v>0.09773643434047699</v>
+        <v>0.1216850212216377</v>
       </c>
       <c r="C110" t="n">
-        <v>34.40323257446289</v>
+        <v>33.99298477172852</v>
       </c>
       <c r="D110" t="n">
-        <v>19.06759643554688</v>
+        <v>19.39187622070312</v>
       </c>
       <c r="E110" t="n">
-        <v>-12.20957660675049</v>
+        <v>-10.21983814239502</v>
       </c>
       <c r="F110" t="n">
-        <v>33.68630981445312</v>
+        <v>32.58694458007812</v>
       </c>
       <c r="G110" t="n">
-        <v>22.42644309997559</v>
+        <v>20.43890380859375</v>
       </c>
       <c r="H110" t="n">
-        <v>-8.209564208984375</v>
+        <v>-6.692444801330566</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1272445002198219</v>
+        <v>0.1292998230457306</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1265438711643219</v>
+        <v>0.1440446236729622</v>
       </c>
       <c r="C111" t="n">
-        <v>31.73978042602539</v>
+        <v>31.74396896362305</v>
       </c>
       <c r="D111" t="n">
-        <v>19.06759643554688</v>
+        <v>17.67445182800293</v>
       </c>
       <c r="E111" t="n">
-        <v>-9.519189834594727</v>
+        <v>-7.464065551757812</v>
       </c>
       <c r="F111" t="n">
-        <v>31.44784545898438</v>
+        <v>30.57875442504883</v>
       </c>
       <c r="G111" t="n">
-        <v>21.17712020874023</v>
+        <v>19.72258567810059</v>
       </c>
       <c r="H111" t="n">
-        <v>-6.45473051071167</v>
+        <v>-4.587464332580566</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1526437053084373</v>
+        <v>0.1524248623847962</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1538560524582863</v>
+        <v>0.1670053136348724</v>
       </c>
       <c r="C112" t="n">
-        <v>29.21649169921875</v>
+        <v>29.57883453369141</v>
       </c>
       <c r="D112" t="n">
-        <v>17.41942596435547</v>
+        <v>16.62461280822754</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.042675495147705</v>
+        <v>-5.087213516235352</v>
       </c>
       <c r="F112" t="n">
-        <v>29.14654159545898</v>
+        <v>28.45305442810059</v>
       </c>
       <c r="G112" t="n">
-        <v>19.57817268371582</v>
+        <v>18.92438507080078</v>
       </c>
       <c r="H112" t="n">
-        <v>-4.82642936706543</v>
+        <v>-3.020299434661865</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1778998214006424</v>
+        <v>0.1746377587318421</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1806645554304123</v>
+        <v>0.1919812855124474</v>
       </c>
       <c r="C113" t="n">
-        <v>27.14633941650391</v>
+        <v>27.58273315429688</v>
       </c>
       <c r="D113" t="n">
-        <v>16.07193374633789</v>
+        <v>15.59296131134033</v>
       </c>
       <c r="E113" t="n">
-        <v>-5.787331581115723</v>
+        <v>-3.727036237716675</v>
       </c>
       <c r="F113" t="n">
-        <v>26.78247833251953</v>
+        <v>26.28993034362793</v>
       </c>
       <c r="G113" t="n">
-        <v>18.24890899658203</v>
+        <v>17.61234855651855</v>
       </c>
       <c r="H113" t="n">
-        <v>-3.223262786865234</v>
+        <v>-1.535142302513123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1950368097424507</v>
+        <v>0.1941377136111259</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2081837806105614</v>
+        <v>0.2164822790026665</v>
       </c>
       <c r="C114" t="n">
-        <v>24.80331420898438</v>
+        <v>25.457763671875</v>
       </c>
       <c r="D114" t="n">
-        <v>15.01413726806641</v>
+        <v>14.18078231811523</v>
       </c>
       <c r="E114" t="n">
-        <v>-3.60284161567688</v>
+        <v>-1.558164238929749</v>
       </c>
       <c r="F114" t="n">
-        <v>24.01602935791016</v>
+        <v>23.82207107543945</v>
       </c>
       <c r="G114" t="n">
-        <v>16.81974029541016</v>
+        <v>14.64066314697266</v>
       </c>
       <c r="H114" t="n">
-        <v>-2.064155101776123</v>
+        <v>-0.1995988488197327</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2227597776055336</v>
+        <v>0.2181925550103188</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2441171884536743</v>
+        <v>0.2473524940013886</v>
       </c>
       <c r="C115" t="n">
-        <v>22.38177108764648</v>
+        <v>23.23500633239746</v>
       </c>
       <c r="D115" t="n">
-        <v>13.78793334960938</v>
+        <v>13.25937271118164</v>
       </c>
       <c r="E115" t="n">
-        <v>-2.140385866165161</v>
+        <v>-0.1060596108436584</v>
       </c>
       <c r="F115" t="n">
-        <v>21.82144355773926</v>
+        <v>21.33797073364258</v>
       </c>
       <c r="G115" t="n">
-        <v>15.76286506652832</v>
+        <v>13.35419464111328</v>
       </c>
       <c r="H115" t="n">
-        <v>-1.045267701148987</v>
+        <v>0.9304400682449341</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.249255203306675</v>
+        <v>0.2429593032598496</v>
       </c>
       <c r="B116" t="n">
-        <v>0.262518253326416</v>
+        <v>0.2751913672685623</v>
       </c>
       <c r="C116" t="n">
-        <v>19.97512054443359</v>
+        <v>20.8612060546875</v>
       </c>
       <c r="D116" t="n">
-        <v>12.72493743896484</v>
+        <v>12.09787750244141</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5057879686355591</v>
+        <v>2.417293548583984</v>
       </c>
       <c r="F116" t="n">
-        <v>19.2229175567627</v>
+        <v>18.81510925292969</v>
       </c>
       <c r="G116" t="n">
-        <v>14.58112525939941</v>
+        <v>12.17774772644043</v>
       </c>
       <c r="H116" t="n">
-        <v>0.05550795793533325</v>
+        <v>2.044698715209961</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2746027737855911</v>
+        <v>0.2699065357446671</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2965650945901871</v>
+        <v>0.3037125945091247</v>
       </c>
       <c r="C117" t="n">
-        <v>17.65938949584961</v>
+        <v>18.40747261047363</v>
       </c>
       <c r="D117" t="n">
-        <v>11.62440395355225</v>
+        <v>11.54430103302002</v>
       </c>
       <c r="E117" t="n">
-        <v>2.853095293045044</v>
+        <v>4.757246971130371</v>
       </c>
       <c r="F117" t="n">
-        <v>16.79304504394531</v>
+        <v>16.33107566833496</v>
       </c>
       <c r="G117" t="n">
-        <v>12.87273025512695</v>
+        <v>10.89815902709961</v>
       </c>
       <c r="H117" t="n">
-        <v>1.996960163116455</v>
+        <v>3.821363687515259</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.2981811362504959</v>
+        <v>0.2969479078054428</v>
       </c>
       <c r="B118" t="n">
-        <v>0.322206472158432</v>
+        <v>0.3309376019239426</v>
       </c>
       <c r="C118" t="n">
-        <v>14.97498893737793</v>
+        <v>15.92708969116211</v>
       </c>
       <c r="D118" t="n">
-        <v>9.659727096557617</v>
+        <v>10.02032852172852</v>
       </c>
       <c r="E118" t="n">
-        <v>5.012502670288086</v>
+        <v>7.108388423919678</v>
       </c>
       <c r="F118" t="n">
-        <v>14.42146682739258</v>
+        <v>13.87949275970459</v>
       </c>
       <c r="G118" t="n">
-        <v>12.87273025512695</v>
+        <v>9.535247802734375</v>
       </c>
       <c r="H118" t="n">
-        <v>1.996960163116455</v>
+        <v>5.107483863830566</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.3305372244119644</v>
+        <v>0.3237050288915634</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3484382438659668</v>
+        <v>0.3578723245859146</v>
       </c>
       <c r="C119" t="n">
-        <v>12.85607719421387</v>
+        <v>13.60086059570312</v>
       </c>
       <c r="D119" t="n">
-        <v>8.942563056945801</v>
+        <v>8.482270240783691</v>
       </c>
       <c r="E119" t="n">
-        <v>7.028006553649902</v>
+        <v>9.254783630371094</v>
       </c>
       <c r="F119" t="n">
-        <v>12.33355140686035</v>
+        <v>11.52425003051758</v>
       </c>
       <c r="G119" t="n">
-        <v>10.97023010253906</v>
+        <v>8.277450561523438</v>
       </c>
       <c r="H119" t="n">
-        <v>3.76689600944519</v>
+        <v>5.107483863830566</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.3470002144575119</v>
+        <v>0.3468872153759003</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3688977748155594</v>
+        <v>0.3830230706930161</v>
       </c>
       <c r="C120" t="n">
-        <v>10.64316368103027</v>
+        <v>11.47032165527344</v>
       </c>
       <c r="D120" t="n">
-        <v>7.843592643737793</v>
+        <v>7.266470909118652</v>
       </c>
       <c r="E120" t="n">
-        <v>7.028006553649902</v>
+        <v>9.254783630371094</v>
       </c>
       <c r="F120" t="n">
-        <v>10.43643379211426</v>
+        <v>9.307037353515625</v>
       </c>
       <c r="G120" t="n">
-        <v>9.194544792175293</v>
+        <v>8.277450561523438</v>
       </c>
       <c r="H120" t="n">
-        <v>6.514631271362305</v>
+        <v>8.229151725769043</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3714486730098724</v>
+        <v>0.3675375211238861</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3882468378543854</v>
+        <v>0.4061727505922318</v>
       </c>
       <c r="C121" t="n">
-        <v>9.124334335327148</v>
+        <v>9.62592601776123</v>
       </c>
       <c r="D121" t="n">
-        <v>7.136233329772949</v>
+        <v>6.384390830993652</v>
       </c>
       <c r="E121" t="n">
-        <v>10.86129665374756</v>
+        <v>12.8864107131958</v>
       </c>
       <c r="F121" t="n">
-        <v>8.812023162841797</v>
+        <v>7.390145301818848</v>
       </c>
       <c r="G121" t="n">
-        <v>9.441594123840332</v>
+        <v>6.495800971984863</v>
       </c>
       <c r="H121" t="n">
-        <v>8.344936370849609</v>
+        <v>9.996264457702637</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.3801892167329788</v>
+        <v>0.3841684460639954</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4035746246576309</v>
+        <v>0.4241717636585236</v>
       </c>
       <c r="C122" t="n">
-        <v>6.963705062866211</v>
+        <v>7.886015892028809</v>
       </c>
       <c r="D122" t="n">
-        <v>7.479619026184082</v>
+        <v>6.663397789001465</v>
       </c>
       <c r="E122" t="n">
-        <v>10.86129665374756</v>
+        <v>12.8864107131958</v>
       </c>
       <c r="F122" t="n">
-        <v>7.705635070800781</v>
+        <v>5.695047378540039</v>
       </c>
       <c r="G122" t="n">
-        <v>9.317889213562012</v>
+        <v>6.455851554870605</v>
       </c>
       <c r="H122" t="n">
-        <v>10.14141464233398</v>
+        <v>11.96082496643066</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4098890841007233</v>
+        <v>0.4016230607032776</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4102464669942856</v>
+        <v>0.4405755531787873</v>
       </c>
       <c r="C123" t="n">
-        <v>5.587486267089844</v>
+        <v>6.206918716430664</v>
       </c>
       <c r="D123" t="n">
-        <v>6.909584999084473</v>
+        <v>6.299914360046387</v>
       </c>
       <c r="E123" t="n">
-        <v>12.3818359375</v>
+        <v>14.5792350769043</v>
       </c>
       <c r="F123" t="n">
-        <v>6.428147315979004</v>
+        <v>4.278822898864746</v>
       </c>
       <c r="G123" t="n">
-        <v>8.628525733947754</v>
+        <v>6.351458549499512</v>
       </c>
       <c r="H123" t="n">
-        <v>11.27099990844727</v>
+        <v>13.20945739746094</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4161609911918641</v>
+        <v>0.4188947349786759</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4266729068756104</v>
+        <v>0.4532388740777969</v>
       </c>
       <c r="C124" t="n">
-        <v>4.08119535446167</v>
+        <v>4.593225955963135</v>
       </c>
       <c r="D124" t="n">
-        <v>7.136353492736816</v>
+        <v>6.272696495056152</v>
       </c>
       <c r="E124" t="n">
-        <v>14.02760696411133</v>
+        <v>15.96053123474121</v>
       </c>
       <c r="F124" t="n">
-        <v>4.984694480895996</v>
+        <v>2.986987352371216</v>
       </c>
       <c r="G124" t="n">
-        <v>9.649468421936035</v>
+        <v>6.453780174255371</v>
       </c>
       <c r="H124" t="n">
-        <v>13.79310512542725</v>
+        <v>15.23465728759766</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4335030174255372</v>
+        <v>0.4354193264245987</v>
       </c>
       <c r="B125" t="n">
-        <v>0.444923095703125</v>
+        <v>0.4662372750043869</v>
       </c>
       <c r="C125" t="n">
-        <v>2.514340400695801</v>
+        <v>3.010401248931885</v>
       </c>
       <c r="D125" t="n">
-        <v>7.052786827087402</v>
+        <v>6.782084465026855</v>
       </c>
       <c r="E125" t="n">
-        <v>14.98476982116699</v>
+        <v>16.50588989257812</v>
       </c>
       <c r="F125" t="n">
-        <v>3.633758783340454</v>
+        <v>1.834422469139099</v>
       </c>
       <c r="G125" t="n">
-        <v>10.24712753295898</v>
+        <v>7.310261726379395</v>
       </c>
       <c r="H125" t="n">
-        <v>16.03341293334961</v>
+        <v>17.4661750793457</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4507502406835556</v>
+        <v>0.451983090043068</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4591931074857712</v>
+        <v>0.4775193345546723</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5141457319259644</v>
+        <v>1.295838952064514</v>
       </c>
       <c r="D126" t="n">
-        <v>7.52080249786377</v>
+        <v>7.365344047546387</v>
       </c>
       <c r="E126" t="n">
-        <v>15.95100784301758</v>
+        <v>17.4697151184082</v>
       </c>
       <c r="F126" t="n">
-        <v>2.450423240661621</v>
+        <v>0.7229532599449158</v>
       </c>
       <c r="G126" t="n">
-        <v>11.29929637908936</v>
+        <v>8.291707038879395</v>
       </c>
       <c r="H126" t="n">
-        <v>17.9124641418457</v>
+        <v>19.42986679077148</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4765405988693238</v>
+        <v>0.4716883671283722</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4707111477851868</v>
+        <v>0.489436931014061</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.8346864581108093</v>
+        <v>-0.2820890545845032</v>
       </c>
       <c r="D127" t="n">
-        <v>7.558079719543457</v>
+        <v>7.662777900695801</v>
       </c>
       <c r="E127" t="n">
-        <v>16.37372207641602</v>
+        <v>17.75860786437988</v>
       </c>
       <c r="F127" t="n">
-        <v>1.220614671707153</v>
+        <v>-0.2872186005115509</v>
       </c>
       <c r="G127" t="n">
-        <v>12.42219829559326</v>
+        <v>9.467225074768066</v>
       </c>
       <c r="H127" t="n">
-        <v>17.9124641418457</v>
+        <v>20.54286003112793</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4839322930574417</v>
+        <v>0.4870709949731827</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4851836860179901</v>
+        <v>0.4995563668012619</v>
       </c>
       <c r="C128" t="n">
-        <v>-2.161502599716187</v>
+        <v>-1.523191928863525</v>
       </c>
       <c r="D128" t="n">
-        <v>9.351296424865723</v>
+        <v>8.502823829650879</v>
       </c>
       <c r="E128" t="n">
-        <v>14.01227855682373</v>
+        <v>15.28122901916504</v>
       </c>
       <c r="F128" t="n">
-        <v>0.06654775142669678</v>
+        <v>-0.2872186005115509</v>
       </c>
       <c r="G128" t="n">
-        <v>14.11470031738281</v>
+        <v>12.2902946472168</v>
       </c>
       <c r="H128" t="n">
-        <v>19.64508056640625</v>
+        <v>20.54286003112793</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.497760449051857</v>
+        <v>0.4967221969366074</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4974115008115769</v>
+        <v>0.5096121793985368</v>
       </c>
       <c r="C129" t="n">
-        <v>-3.761703968048096</v>
+        <v>-2.616274833679199</v>
       </c>
       <c r="D129" t="n">
-        <v>11.7017936706543</v>
+        <v>11.14236640930176</v>
       </c>
       <c r="E129" t="n">
-        <v>12.22286987304688</v>
+        <v>13.23876762390137</v>
       </c>
       <c r="F129" t="n">
-        <v>0.06654775142669678</v>
+        <v>-2.200548648834229</v>
       </c>
       <c r="G129" t="n">
-        <v>16.54726791381836</v>
+        <v>13.98586273193359</v>
       </c>
       <c r="H129" t="n">
-        <v>18.29502487182617</v>
+        <v>19.84357261657715</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.5176164758205414</v>
+        <v>0.5068087154626847</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4987254112958908</v>
+        <v>0.5178944718837738</v>
       </c>
       <c r="C130" t="n">
-        <v>-3.761703968048096</v>
+        <v>-2.616274833679199</v>
       </c>
       <c r="D130" t="n">
-        <v>13.37026309967041</v>
+        <v>12.88473129272461</v>
       </c>
       <c r="E130" t="n">
-        <v>7.732189178466797</v>
+        <v>8.304069519042969</v>
       </c>
       <c r="F130" t="n">
-        <v>-1.203388690948486</v>
+        <v>-2.944418430328369</v>
       </c>
       <c r="G130" t="n">
-        <v>18.02066040039062</v>
+        <v>16.27382278442383</v>
       </c>
       <c r="H130" t="n">
-        <v>15.54256057739258</v>
+        <v>16.80036735534668</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.5174068415164947</v>
+        <v>0.5110091412067413</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5184035205841064</v>
+        <v>0.5235158997774124</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.34212064743042</v>
+        <v>-4.102921962738037</v>
       </c>
       <c r="D131" t="n">
-        <v>15.66696357727051</v>
+        <v>15.25566005706787</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2507643699645996</v>
+        <v>0.5798029899597168</v>
       </c>
       <c r="F131" t="n">
-        <v>-2.938728809356689</v>
+        <v>-3.449305057525635</v>
       </c>
       <c r="G131" t="n">
-        <v>20.73905754089355</v>
+        <v>19.05064964294434</v>
       </c>
       <c r="H131" t="n">
-        <v>9.159591674804688</v>
+        <v>10.21493148803711</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.5245630288124085</v>
+        <v>0.5094743502140046</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5104067742824555</v>
+        <v>0.5211732459068299</v>
       </c>
       <c r="C132" t="n">
-        <v>-6.017369747161865</v>
+        <v>-3.95911717414856</v>
       </c>
       <c r="D132" t="n">
-        <v>19.76623344421387</v>
+        <v>18.83040809631348</v>
       </c>
       <c r="E132" t="n">
-        <v>-10.64585590362549</v>
+        <v>-10.64591217041016</v>
       </c>
       <c r="F132" t="n">
-        <v>-2.233524799346924</v>
+        <v>-3.238903522491455</v>
       </c>
       <c r="G132" t="n">
-        <v>24.68439102172852</v>
+        <v>22.83621978759766</v>
       </c>
       <c r="H132" t="n">
-        <v>0.08976602554321289</v>
+        <v>0.5911340713500977</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.5093598347902298</v>
+        <v>0.4940137887001038</v>
       </c>
       <c r="B133" t="n">
-        <v>0.51087497651577</v>
+        <v>0.507327651977539</v>
       </c>
       <c r="C133" t="n">
-        <v>-4.582822322845459</v>
+        <v>-1.138635873794556</v>
       </c>
       <c r="D133" t="n">
-        <v>24.72875022888184</v>
+        <v>23.78956604003906</v>
       </c>
       <c r="E133" t="n">
-        <v>-25.102783203125</v>
+        <v>-24.66415214538574</v>
       </c>
       <c r="F133" t="n">
-        <v>-2.274813175201416</v>
+        <v>-0.6887297630310059</v>
       </c>
       <c r="G133" t="n">
-        <v>29.77428245544434</v>
+        <v>27.75306701660156</v>
       </c>
       <c r="H133" t="n">
-        <v>-11.31412315368652</v>
+        <v>-10.69301986694336</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4920351833105088</v>
+        <v>0.4647299045324326</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4888563930988312</v>
+        <v>0.4782313835620881</v>
       </c>
       <c r="C134" t="n">
-        <v>-1.601917505264282</v>
+        <v>1.398111581802368</v>
       </c>
       <c r="D134" t="n">
-        <v>31.81437301635742</v>
+        <v>30.13359069824219</v>
       </c>
       <c r="E134" t="n">
-        <v>-42.8149528503418</v>
+        <v>-41.43835830688477</v>
       </c>
       <c r="F134" t="n">
-        <v>1.520790576934814</v>
+        <v>1.946361541748047</v>
       </c>
       <c r="G134" t="n">
-        <v>36.50521850585938</v>
+        <v>33.94058227539062</v>
       </c>
       <c r="H134" t="n">
-        <v>-24.28935623168945</v>
+        <v>-22.9373893737793</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4635019201040268</v>
+        <v>0.4252233153581619</v>
       </c>
       <c r="B135" t="n">
-        <v>0.446812110543251</v>
+        <v>0.4341010880470276</v>
       </c>
       <c r="C135" t="n">
-        <v>1.136198282241821</v>
+        <v>4.879764080047607</v>
       </c>
       <c r="D135" t="n">
-        <v>39.58285522460938</v>
+        <v>37.65313720703125</v>
       </c>
       <c r="E135" t="n">
-        <v>-57.13845825195312</v>
+        <v>-54.05397796630859</v>
       </c>
       <c r="F135" t="n">
-        <v>4.094868659973145</v>
+        <v>5.565589427947998</v>
       </c>
       <c r="G135" t="n">
-        <v>43.82792663574219</v>
+        <v>40.88645172119141</v>
       </c>
       <c r="H135" t="n">
-        <v>-35.60272979736328</v>
+        <v>-33.39131927490234</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4197320401668549</v>
+        <v>0.3779794323444366</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5726298897756142</v>
+        <v>0.5912213024255939</v>
       </c>
       <c r="C136" t="n">
-        <v>5.821753978729248</v>
+        <v>9.669811248779297</v>
       </c>
       <c r="D136" t="n">
-        <v>48.54589080810547</v>
+        <v>46.40048980712891</v>
       </c>
       <c r="E136" t="n">
-        <v>-63.47507476806641</v>
+        <v>-58.76420593261719</v>
       </c>
       <c r="F136" t="n">
-        <v>8.512542724609375</v>
+        <v>10.27084064483643</v>
       </c>
       <c r="G136" t="n">
-        <v>51.55570220947266</v>
+        <v>48.47552490234375</v>
       </c>
       <c r="H136" t="n">
-        <v>-39.44956207275391</v>
+        <v>-36.71508026123047</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.6174214163771252</v>
+        <v>0.6327827223170376</v>
       </c>
       <c r="B137" t="n">
-        <v>0.727083343021967</v>
+        <v>0.7544499436918197</v>
       </c>
       <c r="C137" t="n">
-        <v>11.18527126312256</v>
+        <v>15.02367973327637</v>
       </c>
       <c r="D137" t="n">
-        <v>56.41548919677734</v>
+        <v>54.66971588134766</v>
       </c>
       <c r="E137" t="n">
-        <v>-59.54054641723633</v>
+        <v>-54.67276000976562</v>
       </c>
       <c r="F137" t="n">
-        <v>13.2717866897583</v>
+        <v>15.46271705627441</v>
       </c>
       <c r="G137" t="n">
-        <v>58.60924911499023</v>
+        <v>55.04600524902344</v>
       </c>
       <c r="H137" t="n">
-        <v>-37.73517990112305</v>
+        <v>-36.71508026123047</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7939783514852554</v>
+        <v>0.8269690502380547</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8555012760592493</v>
+        <v>0.8817921757575189</v>
       </c>
       <c r="C138" t="n">
-        <v>17.05293464660645</v>
+        <v>20.12005233764648</v>
       </c>
       <c r="D138" t="n">
-        <v>62.72668838500977</v>
+        <v>61.01948928833008</v>
       </c>
       <c r="E138" t="n">
-        <v>-50.69422149658203</v>
+        <v>-45.90336227416992</v>
       </c>
       <c r="F138" t="n">
-        <v>18.50799560546875</v>
+        <v>20.6462516784668</v>
       </c>
       <c r="G138" t="n">
-        <v>63.83949279785156</v>
+        <v>60.11408996582031</v>
       </c>
       <c r="H138" t="n">
-        <v>-32.61631774902344</v>
+        <v>-29.91279792785645</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9153050819626878</v>
+        <v>0.9353292295547543</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9411565503827422</v>
+        <v>0.95594611832086</v>
       </c>
       <c r="C139" t="n">
-        <v>22.67026519775391</v>
+        <v>24.72019958496094</v>
       </c>
       <c r="D139" t="n">
-        <v>66.33002471923828</v>
+        <v>64.69387817382812</v>
       </c>
       <c r="E139" t="n">
-        <v>-39.65758514404297</v>
+        <v>-35.67534637451172</v>
       </c>
       <c r="F139" t="n">
-        <v>23.30844116210938</v>
+        <v>25.4993839263916</v>
       </c>
       <c r="G139" t="n">
-        <v>67.12593078613281</v>
+        <v>63.07507705688477</v>
       </c>
       <c r="H139" t="n">
-        <v>-25.96094512939453</v>
+        <v>-23.44895172119141</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9742715067186316</v>
+        <v>0.9811736770470945</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9815325690741827</v>
+        <v>0.9877675701833638</v>
       </c>
       <c r="C140" t="n">
-        <v>27.60464668273926</v>
+        <v>28.76011276245117</v>
       </c>
       <c r="D140" t="n">
-        <v>67.51576232910156</v>
+        <v>65.73916625976562</v>
       </c>
       <c r="E140" t="n">
-        <v>-29.98245620727539</v>
+        <v>-26.7292423248291</v>
       </c>
       <c r="F140" t="n">
-        <v>27.50528526306152</v>
+        <v>29.81426239013672</v>
       </c>
       <c r="G140" t="n">
-        <v>68.69847106933594</v>
+        <v>64.14923858642578</v>
       </c>
       <c r="H140" t="n">
-        <v>-20.33963203430176</v>
+        <v>-17.8873119354248</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9943714611335092</v>
+        <v>0.995838657534677</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9956239435360336</v>
+        <v>0.9975739195303603</v>
       </c>
       <c r="C141" t="n">
-        <v>32.02424621582031</v>
+        <v>32.20557403564453</v>
       </c>
       <c r="D141" t="n">
-        <v>66.46090698242188</v>
+        <v>64.49403381347656</v>
       </c>
       <c r="E141" t="n">
-        <v>-20.13836860656738</v>
+        <v>-17.56694030761719</v>
       </c>
       <c r="F141" t="n">
-        <v>31.52378463745117</v>
+        <v>33.38860321044922</v>
       </c>
       <c r="G141" t="n">
-        <v>68.69847106933594</v>
+        <v>64.14923858642578</v>
       </c>
       <c r="H141" t="n">
-        <v>-14.22772789001465</v>
+        <v>-11.99743843078613</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.999208144130163</v>
+        <v>0.9993190937766384</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9993225924857085</v>
+        <v>0.9996632590357694</v>
       </c>
       <c r="C142" t="n">
-        <v>34.81995391845703</v>
+        <v>34.87150955200195</v>
       </c>
       <c r="D142" t="n">
-        <v>63.34036254882812</v>
+        <v>61.08729553222656</v>
       </c>
       <c r="E142" t="n">
-        <v>-12.64723491668701</v>
+        <v>-10.44540405273438</v>
       </c>
       <c r="F142" t="n">
-        <v>34.33483505249023</v>
+        <v>36.04245758056641</v>
       </c>
       <c r="G142" t="n">
-        <v>64.67510223388672</v>
+        <v>60.20058441162109</v>
       </c>
       <c r="H142" t="n">
-        <v>-10.16060161590576</v>
+        <v>-8.103312492370605</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999071516014283</v>
+        <v>0.9999144515040362</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9999183799946173</v>
+        <v>0.9999655223110979</v>
       </c>
       <c r="C143" t="n">
-        <v>36.99628067016602</v>
+        <v>36.73451995849609</v>
       </c>
       <c r="D143" t="n">
-        <v>58.63050079345703</v>
+        <v>56.06217956542969</v>
       </c>
       <c r="E143" t="n">
-        <v>-8.158330917358398</v>
+        <v>-6.430471420288086</v>
       </c>
       <c r="F143" t="n">
-        <v>36.30693817138672</v>
+        <v>37.64862823486328</v>
       </c>
       <c r="G143" t="n">
-        <v>60.30738830566406</v>
+        <v>56.46908187866211</v>
       </c>
       <c r="H143" t="n">
-        <v>-7.050075531005859</v>
+        <v>-5.198015213012695</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999920037559276</v>
+        <v>0.9999910779995148</v>
       </c>
       <c r="B144" t="n">
-        <v>0.999992144544309</v>
+        <v>0.9999968744631789</v>
       </c>
       <c r="C144" t="n">
-        <v>38.68537139892578</v>
+        <v>38.19549942016602</v>
       </c>
       <c r="D144" t="n">
-        <v>52.18553161621094</v>
+        <v>49.83608245849609</v>
       </c>
       <c r="E144" t="n">
-        <v>-4.608270645141602</v>
+        <v>-3.147399663925171</v>
       </c>
       <c r="F144" t="n">
-        <v>38.24308013916016</v>
+        <v>38.73265838623047</v>
       </c>
       <c r="G144" t="n">
-        <v>54.82771301269531</v>
+        <v>51.33500671386719</v>
       </c>
       <c r="H144" t="n">
-        <v>-4.806243896484375</v>
+        <v>-2.939085245132446</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999995035191026</v>
+        <v>0.999999259765468</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9999995633226417</v>
+        <v>0.9999997535513986</v>
       </c>
       <c r="C145" t="n">
-        <v>39.93925476074219</v>
+        <v>39.43979644775391</v>
       </c>
       <c r="D145" t="n">
-        <v>44.71248626708984</v>
+        <v>42.64437866210938</v>
       </c>
       <c r="E145" t="n">
-        <v>-4.608270645141602</v>
+        <v>-3.147399663925171</v>
       </c>
       <c r="F145" t="n">
-        <v>39.80792236328125</v>
+        <v>38.73265838623047</v>
       </c>
       <c r="G145" t="n">
-        <v>48.41286468505859</v>
+        <v>45.53823089599609</v>
       </c>
       <c r="H145" t="n">
-        <v>-2.831462860107422</v>
+        <v>-0.7819631099700928</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.999999977301393</v>
+        <v>0.9999999539027015</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999999868767474</v>
+        <v>0.9999999845918509</v>
       </c>
       <c r="C146" t="n">
-        <v>40.95552062988281</v>
+        <v>40.74606323242188</v>
       </c>
       <c r="D146" t="n">
-        <v>37.20785522460938</v>
+        <v>35.28014755249023</v>
       </c>
       <c r="E146" t="n">
-        <v>-5.613348007202148</v>
+        <v>-4.625091075897217</v>
       </c>
       <c r="F146" t="n">
-        <v>41.02720642089844</v>
+        <v>40.59398651123047</v>
       </c>
       <c r="G146" t="n">
-        <v>42.23511123657227</v>
+        <v>39.50780868530273</v>
       </c>
       <c r="H146" t="n">
-        <v>-2.831462860107422</v>
+        <v>-0.7819631099700928</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999999993156587</v>
+        <v>0.9999999983994513</v>
       </c>
       <c r="B147" t="n">
-        <v>0.999999999850938</v>
+        <v>0.9999999993916959</v>
       </c>
       <c r="C147" t="n">
-        <v>40.95552062988281</v>
+        <v>41.92453765869141</v>
       </c>
       <c r="D147" t="n">
-        <v>30.50032615661621</v>
+        <v>28.90151214599609</v>
       </c>
       <c r="E147" t="n">
-        <v>-9.351137161254883</v>
+        <v>-8.201132774353027</v>
       </c>
       <c r="F147" t="n">
-        <v>42.04683685302734</v>
+        <v>41.6907958984375</v>
       </c>
       <c r="G147" t="n">
-        <v>36.08316040039062</v>
+        <v>33.84822845458984</v>
       </c>
       <c r="H147" t="n">
-        <v>-3.363553524017334</v>
+        <v>-0.9429757595062256</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999999999888506</v>
+        <v>0.9999999999782917</v>
       </c>
       <c r="B148" t="n">
-        <v>1.000000000000922</v>
+        <v>0.9999999999833957</v>
       </c>
       <c r="C148" t="n">
-        <v>42.66476440429688</v>
+        <v>41.92453765869141</v>
       </c>
       <c r="D148" t="n">
-        <v>23.90906524658203</v>
+        <v>23.00738143920898</v>
       </c>
       <c r="E148" t="n">
-        <v>-13.59144878387451</v>
+        <v>-12.44571685791016</v>
       </c>
       <c r="F148" t="n">
-        <v>42.04683685302734</v>
+        <v>42.27074813842773</v>
       </c>
       <c r="G148" t="n">
-        <v>29.62516021728516</v>
+        <v>28.0054817199707</v>
       </c>
       <c r="H148" t="n">
-        <v>-6.112309455871582</v>
+        <v>-4.085970401763916</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999999999998157</v>
+        <v>1.000000000000054</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999999999999862</v>
+        <v>0.9999999999997385</v>
       </c>
       <c r="C149" t="n">
-        <v>42.6528434753418</v>
+        <v>43.89943313598633</v>
       </c>
       <c r="D149" t="n">
-        <v>19.01216697692871</v>
+        <v>18.55798530578613</v>
       </c>
       <c r="E149" t="n">
-        <v>-16.6530818939209</v>
+        <v>-14.32105922698975</v>
       </c>
       <c r="F149" t="n">
-        <v>43.47745513916016</v>
+        <v>42.82047653198242</v>
       </c>
       <c r="G149" t="n">
-        <v>24.14616012573242</v>
+        <v>22.84698486328125</v>
       </c>
       <c r="H149" t="n">
-        <v>-8.249150276184082</v>
+        <v>-6.038295745849609</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0.9999999999999949</v>
       </c>
       <c r="C150" t="n">
-        <v>43.65598297119141</v>
+        <v>43.81055068969727</v>
       </c>
       <c r="D150" t="n">
-        <v>14.80134582519531</v>
+        <v>14.9194450378418</v>
       </c>
       <c r="E150" t="n">
-        <v>-18.68198776245117</v>
+        <v>-16.33370971679688</v>
       </c>
       <c r="F150" t="n">
-        <v>43.67282867431641</v>
+        <v>42.64412689208984</v>
       </c>
       <c r="G150" t="n">
-        <v>19.78201103210449</v>
+        <v>18.83858299255371</v>
       </c>
       <c r="H150" t="n">
-        <v>-8.249150276184082</v>
+        <v>-6.038295745849609</v>
       </c>
     </row>
     <row r="151">
@@ -4354,25 +4354,25 @@
         <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>43.58249282836914</v>
+        <v>43.18249893188477</v>
       </c>
       <c r="D151" t="n">
-        <v>12.08666801452637</v>
+        <v>12.48673439025879</v>
       </c>
       <c r="E151" t="n">
-        <v>-20.46610641479492</v>
+        <v>-17.83799362182617</v>
       </c>
       <c r="F151" t="n">
-        <v>43.00987243652344</v>
+        <v>42.52143478393555</v>
       </c>
       <c r="G151" t="n">
-        <v>17.32436180114746</v>
+        <v>16.17021942138672</v>
       </c>
       <c r="H151" t="n">
-        <v>-9.242834091186523</v>
+        <v>-6.332048892974854</v>
       </c>
     </row>
     <row r="152">
@@ -4383,22 +4383,22 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>43.26713562011719</v>
+        <v>43.85538864135742</v>
       </c>
       <c r="D152" t="n">
-        <v>12.08666801452637</v>
+        <v>12.48673439025879</v>
       </c>
       <c r="E152" t="n">
-        <v>-22.37671661376953</v>
+        <v>-19.41839981079102</v>
       </c>
       <c r="F152" t="n">
-        <v>43.60200500488281</v>
+        <v>43.45596694946289</v>
       </c>
       <c r="G152" t="n">
-        <v>16.11654472351074</v>
+        <v>16.17021942138672</v>
       </c>
       <c r="H152" t="n">
-        <v>-10.01593589782715</v>
+        <v>-8.559464454650879</v>
       </c>
     </row>
     <row r="153">
@@ -4409,22 +4409,22 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>42.75552749633789</v>
+        <v>42.52229690551758</v>
       </c>
       <c r="D153" t="n">
-        <v>11.53682422637939</v>
+        <v>11.53997993469238</v>
       </c>
       <c r="E153" t="n">
-        <v>-26.74954223632812</v>
+        <v>-24.10454940795898</v>
       </c>
       <c r="F153" t="n">
-        <v>43.19182205200195</v>
+        <v>42.12949371337891</v>
       </c>
       <c r="G153" t="n">
-        <v>16.11654472351074</v>
+        <v>14.6332540512085</v>
       </c>
       <c r="H153" t="n">
-        <v>-15.14478397369385</v>
+        <v>-12.44124603271484</v>
       </c>
     </row>
     <row r="154">
@@ -4435,1244 +4435,1244 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>41.93131637573242</v>
+        <v>42.17340087890625</v>
       </c>
       <c r="D154" t="n">
-        <v>13.73306179046631</v>
+        <v>13.33986473083496</v>
       </c>
       <c r="E154" t="n">
-        <v>-26.74954223632812</v>
+        <v>-22.53454971313477</v>
       </c>
       <c r="F154" t="n">
-        <v>42.35175323486328</v>
+        <v>41.62379455566406</v>
       </c>
       <c r="G154" t="n">
-        <v>16.58832550048828</v>
+        <v>16.41133117675781</v>
       </c>
       <c r="H154" t="n">
-        <v>-15.14478397369385</v>
+        <v>-15.4697437286377</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.02248571947216988</v>
+        <v>0.003488707696087659</v>
       </c>
       <c r="B155" t="n">
-        <v>0.01722204566001892</v>
+        <v>0.0004461788997286931</v>
       </c>
       <c r="C155" t="n">
-        <v>43.57385635375977</v>
+        <v>42.2166748046875</v>
       </c>
       <c r="D155" t="n">
-        <v>17.36750602722168</v>
+        <v>15.42373085021973</v>
       </c>
       <c r="E155" t="n">
-        <v>-30.98376846313477</v>
+        <v>-24.65644073486328</v>
       </c>
       <c r="F155" t="n">
-        <v>41.25863265991211</v>
+        <v>41.80717086791992</v>
       </c>
       <c r="G155" t="n">
-        <v>19.93294525146484</v>
+        <v>17.34389877319336</v>
       </c>
       <c r="H155" t="n">
-        <v>-19.68587684631348</v>
+        <v>-19.09371948242188</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.02448487248271704</v>
+        <v>0.02980760663747788</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.002966018826700747</v>
+        <v>0.03881051309406758</v>
       </c>
       <c r="C156" t="n">
-        <v>43.57385635375977</v>
+        <v>42.2166748046875</v>
       </c>
       <c r="D156" t="n">
-        <v>19.74222946166992</v>
+        <v>18.63026237487793</v>
       </c>
       <c r="E156" t="n">
-        <v>-30.98376846313477</v>
+        <v>-25.96148681640625</v>
       </c>
       <c r="F156" t="n">
-        <v>43.03894424438477</v>
+        <v>41.80717086791992</v>
       </c>
       <c r="G156" t="n">
-        <v>21.04310035705566</v>
+        <v>20.24168968200684</v>
       </c>
       <c r="H156" t="n">
-        <v>-21.13027763366699</v>
+        <v>-20.12918090820312</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.009852488487958909</v>
+        <v>0.00877903275191784</v>
       </c>
       <c r="B157" t="n">
-        <v>0.005265530245378614</v>
+        <v>0.02286024414002896</v>
       </c>
       <c r="C157" t="n">
-        <v>44.40920257568359</v>
+        <v>42.9539794921875</v>
       </c>
       <c r="D157" t="n">
-        <v>21.44850921630859</v>
+        <v>21.48662567138672</v>
       </c>
       <c r="E157" t="n">
-        <v>-26.19816970825195</v>
+        <v>-23.53006744384766</v>
       </c>
       <c r="F157" t="n">
-        <v>42.31303405761719</v>
+        <v>41.51689910888672</v>
       </c>
       <c r="G157" t="n">
-        <v>22.36977005004883</v>
+        <v>22.06175231933594</v>
       </c>
       <c r="H157" t="n">
-        <v>-21.13027763366699</v>
+        <v>-18.42026519775391</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.005198524901643396</v>
+        <v>0.02222356010228396</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02085171665996313</v>
+        <v>0.04478782333433629</v>
       </c>
       <c r="C158" t="n">
-        <v>41.88044738769531</v>
+        <v>40.61295318603516</v>
       </c>
       <c r="D158" t="n">
-        <v>21.44850921630859</v>
+        <v>21.48662567138672</v>
       </c>
       <c r="E158" t="n">
-        <v>-22.4196949005127</v>
+        <v>-19.99761009216309</v>
       </c>
       <c r="F158" t="n">
-        <v>39.66169357299805</v>
+        <v>38.37433624267578</v>
       </c>
       <c r="G158" t="n">
-        <v>22.36977005004883</v>
+        <v>22.06175231933594</v>
       </c>
       <c r="H158" t="n">
-        <v>-18.25417327880859</v>
+        <v>-16.02545928955078</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.02869546443223953</v>
+        <v>0.04530520007014275</v>
       </c>
       <c r="B159" t="n">
-        <v>0.04980975113809109</v>
+        <v>0.07091148063540459</v>
       </c>
       <c r="C159" t="n">
-        <v>39.75572204589844</v>
+        <v>38.41378402709961</v>
       </c>
       <c r="D159" t="n">
-        <v>22.23541069030762</v>
+        <v>23.35054397583008</v>
       </c>
       <c r="E159" t="n">
-        <v>-18.93635559082031</v>
+        <v>-16.22975540161133</v>
       </c>
       <c r="F159" t="n">
-        <v>37.69173431396484</v>
+        <v>36.20891189575195</v>
       </c>
       <c r="G159" t="n">
-        <v>22.9826545715332</v>
+        <v>22.21600341796875</v>
       </c>
       <c r="H159" t="n">
-        <v>-15.71360015869141</v>
+        <v>-13.2454776763916</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.06198222734034062</v>
+        <v>0.08070709839463235</v>
       </c>
       <c r="B160" t="n">
-        <v>0.08000797778367996</v>
+        <v>0.1060695321857929</v>
       </c>
       <c r="C160" t="n">
-        <v>37.54163360595703</v>
+        <v>36.20932006835938</v>
       </c>
       <c r="D160" t="n">
-        <v>20.66192626953125</v>
+        <v>21.67795944213867</v>
       </c>
       <c r="E160" t="n">
-        <v>-15.5063533782959</v>
+        <v>-12.87106323242188</v>
       </c>
       <c r="F160" t="n">
-        <v>36.06609344482422</v>
+        <v>34.28408813476562</v>
       </c>
       <c r="G160" t="n">
-        <v>23.54021453857422</v>
+        <v>20.8114185333252</v>
       </c>
       <c r="H160" t="n">
-        <v>-12.04680252075195</v>
+        <v>-9.925924301147461</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.0863940054178238</v>
+        <v>0.1042914709448814</v>
       </c>
       <c r="B161" t="n">
-        <v>0.09453764736652374</v>
+        <v>0.1248217803239823</v>
       </c>
       <c r="C161" t="n">
-        <v>34.58917236328125</v>
+        <v>33.90811920166016</v>
       </c>
       <c r="D161" t="n">
-        <v>19.44775009155273</v>
+        <v>19.69951248168945</v>
       </c>
       <c r="E161" t="n">
-        <v>-12.46965789794922</v>
+        <v>-9.839680671691895</v>
       </c>
       <c r="F161" t="n">
-        <v>33.94301605224609</v>
+        <v>32.36996841430664</v>
       </c>
       <c r="G161" t="n">
-        <v>22.73083305358887</v>
+        <v>20.03476142883301</v>
       </c>
       <c r="H161" t="n">
-        <v>-8.813253402709961</v>
+        <v>-6.723924160003662</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.1255090624094009</v>
+        <v>0.1298842860758305</v>
       </c>
       <c r="B162" t="n">
-        <v>0.12425333365798</v>
+        <v>0.1460144785046578</v>
       </c>
       <c r="C162" t="n">
-        <v>31.90509796142578</v>
+        <v>31.72017288208008</v>
       </c>
       <c r="D162" t="n">
-        <v>19.44775009155273</v>
+        <v>18.10752296447754</v>
       </c>
       <c r="E162" t="n">
-        <v>-9.769781112670898</v>
+        <v>-7.100008487701416</v>
       </c>
       <c r="F162" t="n">
-        <v>31.67104911804199</v>
+        <v>30.46107864379883</v>
       </c>
       <c r="G162" t="n">
-        <v>21.61524963378906</v>
+        <v>19.4425048828125</v>
       </c>
       <c r="H162" t="n">
-        <v>-6.983806610107422</v>
+        <v>-4.493091106414795</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1511102411150932</v>
+        <v>0.1520270910859108</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1517048999667168</v>
+        <v>0.1672098618745804</v>
       </c>
       <c r="C163" t="n">
-        <v>29.3723201751709</v>
+        <v>29.63249015808105</v>
       </c>
       <c r="D163" t="n">
-        <v>17.76086807250977</v>
+        <v>16.97224807739258</v>
       </c>
       <c r="E163" t="n">
-        <v>-7.283720016479492</v>
+        <v>-4.730893135070801</v>
       </c>
       <c r="F163" t="n">
-        <v>29.35863494873047</v>
+        <v>28.44829940795898</v>
       </c>
       <c r="G163" t="n">
-        <v>20.02461242675781</v>
+        <v>18.6988353729248</v>
       </c>
       <c r="H163" t="n">
-        <v>-5.331818103790283</v>
+        <v>-2.892606258392334</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1763489350676537</v>
+        <v>0.1732384434342384</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1783854299783707</v>
+        <v>0.190776978135109</v>
       </c>
       <c r="C164" t="n">
-        <v>27.2692928314209</v>
+        <v>27.707763671875</v>
       </c>
       <c r="D164" t="n">
-        <v>16.35590171813965</v>
+        <v>15.8932523727417</v>
       </c>
       <c r="E164" t="n">
-        <v>-6.008417129516602</v>
+        <v>-3.3278968334198</v>
       </c>
       <c r="F164" t="n">
-        <v>26.98885345458984</v>
+        <v>26.38615226745605</v>
       </c>
       <c r="G164" t="n">
-        <v>18.72586441040039</v>
+        <v>17.53904914855957</v>
       </c>
       <c r="H164" t="n">
-        <v>-3.736862182617188</v>
+        <v>-1.457507014274597</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1940821459889412</v>
+        <v>0.1920414969325066</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2059084144234657</v>
+        <v>0.2142866629362107</v>
       </c>
       <c r="C165" t="n">
-        <v>24.90735244750977</v>
+        <v>25.67918395996094</v>
       </c>
       <c r="D165" t="n">
-        <v>15.30070877075195</v>
+        <v>14.38062858581543</v>
       </c>
       <c r="E165" t="n">
-        <v>-3.839404582977295</v>
+        <v>-1.137282490730286</v>
       </c>
       <c r="F165" t="n">
-        <v>24.25886344909668</v>
+        <v>24.00980377197266</v>
       </c>
       <c r="G165" t="n">
-        <v>17.31435012817383</v>
+        <v>14.72568893432617</v>
       </c>
       <c r="H165" t="n">
-        <v>-2.541038036346436</v>
+        <v>-0.09887295961380005</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2218576961755753</v>
+        <v>0.2148005765676499</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2409501025080681</v>
+        <v>0.2442433607578278</v>
       </c>
       <c r="C166" t="n">
-        <v>22.51010704040527</v>
+        <v>23.54753112792969</v>
       </c>
       <c r="D166" t="n">
-        <v>14.06351566314697</v>
+        <v>13.34797763824463</v>
       </c>
       <c r="E166" t="n">
-        <v>-2.379038572311401</v>
+        <v>0.3292962908744812</v>
       </c>
       <c r="F166" t="n">
-        <v>22.04034042358398</v>
+        <v>21.53060340881348</v>
       </c>
       <c r="G166" t="n">
-        <v>16.23771667480469</v>
+        <v>13.3472843170166</v>
       </c>
       <c r="H166" t="n">
-        <v>-1.510893940925598</v>
+        <v>1.069268226623535</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2476375821232796</v>
+        <v>0.2386514541506767</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2603075054287911</v>
+        <v>0.2729920393228531</v>
       </c>
       <c r="C167" t="n">
-        <v>20.11283302307129</v>
+        <v>21.26593780517578</v>
       </c>
       <c r="D167" t="n">
-        <v>12.97597789764404</v>
+        <v>12.08973217010498</v>
       </c>
       <c r="E167" t="n">
-        <v>0.2305740118026733</v>
+        <v>2.786986112594604</v>
       </c>
       <c r="F167" t="n">
-        <v>19.48556137084961</v>
+        <v>18.98130416870117</v>
       </c>
       <c r="G167" t="n">
-        <v>15.05814552307129</v>
+        <v>12.0679988861084</v>
       </c>
       <c r="H167" t="n">
-        <v>-0.3611724078655243</v>
+        <v>2.223515510559082</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2730439424514771</v>
+        <v>0.2646027973294258</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2930907440185547</v>
+        <v>0.302156543135643</v>
       </c>
       <c r="C168" t="n">
-        <v>17.8247184753418</v>
+        <v>18.85322189331055</v>
       </c>
       <c r="D168" t="n">
-        <v>11.82815933227539</v>
+        <v>11.55930614471436</v>
       </c>
       <c r="E168" t="n">
-        <v>2.545896053314209</v>
+        <v>5.060004711151123</v>
       </c>
       <c r="F168" t="n">
-        <v>17.08398056030273</v>
+        <v>16.46810531616211</v>
       </c>
       <c r="G168" t="n">
-        <v>13.38418197631836</v>
+        <v>10.80663871765137</v>
       </c>
       <c r="H168" t="n">
-        <v>1.55528736114502</v>
+        <v>3.935077905654907</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2961363172531128</v>
+        <v>0.2917526984214783</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3185865527391434</v>
+        <v>0.3297366589307785</v>
       </c>
       <c r="C169" t="n">
-        <v>15.17487907409668</v>
+        <v>16.39735794067383</v>
       </c>
       <c r="D169" t="n">
-        <v>9.86424732208252</v>
+        <v>10.25139331817627</v>
       </c>
       <c r="E169" t="n">
-        <v>4.684343338012695</v>
+        <v>7.398983001708984</v>
       </c>
       <c r="F169" t="n">
-        <v>14.70819759368896</v>
+        <v>14.01611328125</v>
       </c>
       <c r="G169" t="n">
-        <v>13.38418197631836</v>
+        <v>9.440269470214844</v>
       </c>
       <c r="H169" t="n">
-        <v>1.55528736114502</v>
+        <v>5.316301345825195</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3280525398254395</v>
+        <v>0.3184242409467697</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3452344971895218</v>
+        <v>0.3563557612895966</v>
       </c>
       <c r="C170" t="n">
-        <v>13.08527183532715</v>
+        <v>14.0505428314209</v>
       </c>
       <c r="D170" t="n">
-        <v>9.161704063415527</v>
+        <v>8.708388328552246</v>
       </c>
       <c r="E170" t="n">
-        <v>6.680278778076172</v>
+        <v>9.562141418457031</v>
       </c>
       <c r="F170" t="n">
-        <v>12.64254951477051</v>
+        <v>11.65166664123535</v>
       </c>
       <c r="G170" t="n">
-        <v>11.49318599700928</v>
+        <v>8.143320083618164</v>
       </c>
       <c r="H170" t="n">
-        <v>3.39629340171814</v>
+        <v>6.356192588806152</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.3442606580257416</v>
+        <v>0.3423075461387635</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3651413530111313</v>
+        <v>0.3817068856954575</v>
       </c>
       <c r="C171" t="n">
-        <v>10.90316581726074</v>
+        <v>11.90723037719727</v>
       </c>
       <c r="D171" t="n">
-        <v>7.987593650817871</v>
+        <v>7.382098197937012</v>
       </c>
       <c r="E171" t="n">
-        <v>6.680278778076172</v>
+        <v>9.562141418457031</v>
       </c>
       <c r="F171" t="n">
-        <v>10.76886177062988</v>
+        <v>9.413700103759766</v>
       </c>
       <c r="G171" t="n">
-        <v>9.77415943145752</v>
+        <v>8.143320083618164</v>
       </c>
       <c r="H171" t="n">
-        <v>6.085289001464844</v>
+        <v>7.872049331665039</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.3683667075634003</v>
+        <v>0.3630107659101486</v>
       </c>
       <c r="B172" t="n">
-        <v>0.3842115354537964</v>
+        <v>0.4052162861824036</v>
       </c>
       <c r="C172" t="n">
-        <v>9.404958724975586</v>
+        <v>10.05413246154785</v>
       </c>
       <c r="D172" t="n">
-        <v>7.273224830627441</v>
+        <v>6.354428291320801</v>
       </c>
       <c r="E172" t="n">
-        <v>10.51186943054199</v>
+        <v>13.17029094696045</v>
       </c>
       <c r="F172" t="n">
-        <v>9.194272994995117</v>
+        <v>7.451225280761719</v>
       </c>
       <c r="G172" t="n">
-        <v>9.974024772644043</v>
+        <v>6.182852745056152</v>
       </c>
       <c r="H172" t="n">
-        <v>7.901997089385986</v>
+        <v>9.783409118652344</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.3769966530799866</v>
+        <v>0.3796911615133285</v>
       </c>
       <c r="B173" t="n">
-        <v>0.3986751019954682</v>
+        <v>0.4239991849660874</v>
       </c>
       <c r="C173" t="n">
-        <v>7.272604942321777</v>
+        <v>8.35513973236084</v>
       </c>
       <c r="D173" t="n">
-        <v>7.593297004699707</v>
+        <v>6.557583808898926</v>
       </c>
       <c r="E173" t="n">
-        <v>10.51186943054199</v>
+        <v>13.17029094696045</v>
       </c>
       <c r="F173" t="n">
-        <v>8.085777282714844</v>
+        <v>5.712235450744629</v>
       </c>
       <c r="G173" t="n">
-        <v>9.889716148376465</v>
+        <v>6.127900123596191</v>
       </c>
       <c r="H173" t="n">
-        <v>9.644692420959473</v>
+        <v>11.84721565246582</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.4063157606124878</v>
+        <v>0.3961794871091843</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4059597045183182</v>
+        <v>0.4408729141950607</v>
       </c>
       <c r="C174" t="n">
-        <v>5.933276176452637</v>
+        <v>6.737257957458496</v>
       </c>
       <c r="D174" t="n">
-        <v>6.992575645446777</v>
+        <v>6.288086891174316</v>
       </c>
       <c r="E174" t="n">
-        <v>12.01140213012695</v>
+        <v>14.86099243164062</v>
       </c>
       <c r="F174" t="n">
-        <v>6.802948951721191</v>
+        <v>4.232578277587891</v>
       </c>
       <c r="G174" t="n">
-        <v>9.274266242980957</v>
+        <v>6.115612983703613</v>
       </c>
       <c r="H174" t="n">
-        <v>10.80153751373291</v>
+        <v>13.20599746704102</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.4121054077148438</v>
+        <v>0.412581160068512</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4224833798408508</v>
+        <v>0.4544600349664688</v>
       </c>
       <c r="C175" t="n">
-        <v>4.466366767883301</v>
+        <v>5.178926467895508</v>
       </c>
       <c r="D175" t="n">
-        <v>7.301440238952637</v>
+        <v>6.258158683776855</v>
       </c>
       <c r="E175" t="n">
-        <v>13.72198295593262</v>
+        <v>16.18295097351074</v>
       </c>
       <c r="F175" t="n">
-        <v>5.451677322387695</v>
+        <v>2.892981290817261</v>
       </c>
       <c r="G175" t="n">
-        <v>10.17949771881104</v>
+        <v>6.208834648132324</v>
       </c>
       <c r="H175" t="n">
-        <v>13.26920604705811</v>
+        <v>15.10104465484619</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.4290036511421204</v>
+        <v>0.4285774010419846</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4385823529958725</v>
+        <v>0.4678157556056977</v>
       </c>
       <c r="C176" t="n">
-        <v>2.944547653198242</v>
+        <v>3.640945911407471</v>
       </c>
       <c r="D176" t="n">
-        <v>7.178196907043457</v>
+        <v>6.72385311126709</v>
       </c>
       <c r="E176" t="n">
-        <v>14.63458633422852</v>
+        <v>16.69084930419922</v>
       </c>
       <c r="F176" t="n">
-        <v>4.150445938110352</v>
+        <v>1.71943199634552</v>
       </c>
       <c r="G176" t="n">
-        <v>10.72690486907959</v>
+        <v>6.996834754943848</v>
       </c>
       <c r="H176" t="n">
-        <v>15.46133041381836</v>
+        <v>17.25530433654785</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.4457136470079422</v>
+        <v>0.4447747784852982</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4527704507112503</v>
+        <v>0.4790332758426666</v>
       </c>
       <c r="C177" t="n">
-        <v>1.004375815391541</v>
+        <v>1.994239449501038</v>
       </c>
       <c r="D177" t="n">
-        <v>7.633332252502441</v>
+        <v>7.348076820373535</v>
       </c>
       <c r="E177" t="n">
-        <v>15.66825485229492</v>
+        <v>17.63648986816406</v>
       </c>
       <c r="F177" t="n">
-        <v>3.017385244369507</v>
+        <v>0.6384270787239075</v>
       </c>
       <c r="G177" t="n">
-        <v>11.75272560119629</v>
+        <v>7.981062889099121</v>
       </c>
       <c r="H177" t="n">
-        <v>17.29901313781738</v>
+        <v>19.22263717651367</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.4707090628147125</v>
+        <v>0.4635101968050003</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4637119334936142</v>
+        <v>0.4900388556718827</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.3270582556724548</v>
+        <v>0.4074088931083679</v>
       </c>
       <c r="D178" t="n">
-        <v>7.715479850769043</v>
+        <v>7.746108055114746</v>
       </c>
       <c r="E178" t="n">
-        <v>16.12281608581543</v>
+        <v>17.95482063293457</v>
       </c>
       <c r="F178" t="n">
-        <v>1.76957380771637</v>
+        <v>0.6384270787239075</v>
       </c>
       <c r="G178" t="n">
-        <v>12.81031131744385</v>
+        <v>9.11928653717041</v>
       </c>
       <c r="H178" t="n">
-        <v>17.29901313781738</v>
+        <v>20.40577697753906</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4783681386709214</v>
+        <v>0.4798071473836899</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4791628599166871</v>
+        <v>0.4992520874738693</v>
       </c>
       <c r="C179" t="n">
-        <v>-1.647871375083923</v>
+        <v>-0.8736991882324219</v>
       </c>
       <c r="D179" t="n">
-        <v>9.397619247436523</v>
+        <v>8.451657295227051</v>
       </c>
       <c r="E179" t="n">
-        <v>13.92626857757568</v>
+        <v>15.5939302444458</v>
       </c>
       <c r="F179" t="n">
-        <v>0.653623640537262</v>
+        <v>-1.270060062408447</v>
       </c>
       <c r="G179" t="n">
-        <v>14.46744918823242</v>
+        <v>11.82777881622314</v>
       </c>
       <c r="H179" t="n">
-        <v>19.03144836425781</v>
+        <v>20.40577697753906</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4922534102201462</v>
+        <v>0.4902172785997391</v>
       </c>
       <c r="B180" t="n">
-        <v>0.490322032570839</v>
+        <v>0.5074031215906143</v>
       </c>
       <c r="C180" t="n">
-        <v>-3.21885871887207</v>
+        <v>-1.931232094764709</v>
       </c>
       <c r="D180" t="n">
-        <v>11.68482208251953</v>
+        <v>10.96745014190674</v>
       </c>
       <c r="E180" t="n">
-        <v>12.22755432128906</v>
+        <v>13.55948257446289</v>
       </c>
       <c r="F180" t="n">
-        <v>0.653623640537262</v>
+        <v>-2.002144336700439</v>
       </c>
       <c r="G180" t="n">
-        <v>16.87429046630859</v>
+        <v>13.58401679992676</v>
       </c>
       <c r="H180" t="n">
-        <v>17.7158260345459</v>
+        <v>19.76738739013672</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.5115538555383683</v>
+        <v>0.4991179543733597</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4925828355550766</v>
+        <v>0.5141957026720048</v>
       </c>
       <c r="C181" t="n">
-        <v>-3.21885871887207</v>
+        <v>-1.931232094764709</v>
       </c>
       <c r="D181" t="n">
-        <v>13.29736137390137</v>
+        <v>12.71503829956055</v>
       </c>
       <c r="E181" t="n">
-        <v>7.880657196044922</v>
+        <v>8.613644599914551</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.6616978645324707</v>
+        <v>-2.612215518951416</v>
       </c>
       <c r="G181" t="n">
-        <v>18.26360130310059</v>
+        <v>15.94100952148438</v>
       </c>
       <c r="H181" t="n">
-        <v>15.08817481994629</v>
+        <v>16.74104690551758</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.5129423195123672</v>
+        <v>0.5026929521560669</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5126625543832779</v>
+        <v>0.5189489614963532</v>
       </c>
       <c r="C182" t="n">
-        <v>-4.920857906341553</v>
+        <v>-3.323725938796997</v>
       </c>
       <c r="D182" t="n">
-        <v>15.64064025878906</v>
+        <v>15.11112880706787</v>
       </c>
       <c r="E182" t="n">
-        <v>0.4535539150238037</v>
+        <v>0.8526020050048828</v>
       </c>
       <c r="F182" t="n">
-        <v>-2.432451725006104</v>
+        <v>-3.039125919342041</v>
       </c>
       <c r="G182" t="n">
-        <v>20.98245620727539</v>
+        <v>18.79607391357422</v>
       </c>
       <c r="H182" t="n">
-        <v>8.780536651611328</v>
+        <v>10.17136096954346</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.5216515570878982</v>
+        <v>0.500748148560524</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5063614892959595</v>
+        <v>0.5167654919624329</v>
       </c>
       <c r="C183" t="n">
-        <v>-5.74264669418335</v>
+        <v>-3.141507387161255</v>
       </c>
       <c r="D183" t="n">
-        <v>19.76021575927734</v>
+        <v>18.6240234375</v>
       </c>
       <c r="E183" t="n">
-        <v>-10.34490871429443</v>
+        <v>-10.42470359802246</v>
       </c>
       <c r="F183" t="n">
-        <v>-1.876785755157471</v>
+        <v>-2.843019962310791</v>
       </c>
       <c r="G183" t="n">
-        <v>24.85070419311523</v>
+        <v>22.58051300048828</v>
       </c>
       <c r="H183" t="n">
-        <v>-0.09201240539550781</v>
+        <v>0.5318689346313477</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.5082360672950745</v>
+        <v>0.4860314792394638</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5075495433807373</v>
+        <v>0.5034289467334747</v>
       </c>
       <c r="C184" t="n">
-        <v>-4.476783275604248</v>
+        <v>-0.3938572406768799</v>
       </c>
       <c r="D184" t="n">
-        <v>24.85983467102051</v>
+        <v>23.57867813110352</v>
       </c>
       <c r="E184" t="n">
-        <v>-24.94251823425293</v>
+        <v>-24.45975875854492</v>
       </c>
       <c r="F184" t="n">
-        <v>-1.981556415557861</v>
+        <v>-0.3513493537902832</v>
       </c>
       <c r="G184" t="n">
-        <v>29.96610832214355</v>
+        <v>27.49787330627441</v>
       </c>
       <c r="H184" t="n">
-        <v>-11.48584938049316</v>
+        <v>-10.69503021240234</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.4939713311195374</v>
+        <v>0.4568144404888153</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4872495758533478</v>
+        <v>0.4746172767877579</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.843397378921509</v>
+        <v>2.116607189178467</v>
       </c>
       <c r="D185" t="n">
-        <v>32.11469650268555</v>
+        <v>29.94302177429199</v>
       </c>
       <c r="E185" t="n">
-        <v>-42.90983963012695</v>
+        <v>-41.23575592041016</v>
       </c>
       <c r="F185" t="n">
-        <v>1.515914440155029</v>
+        <v>2.256546497344971</v>
       </c>
       <c r="G185" t="n">
-        <v>36.86849975585938</v>
+        <v>33.66872024536133</v>
       </c>
       <c r="H185" t="n">
-        <v>-24.58804321289062</v>
+        <v>-22.81288719177246</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.4666840904951096</v>
+        <v>0.4178354436159134</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4485294944047928</v>
+        <v>0.4309502869844437</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7057735919952393</v>
+        <v>5.607983589172363</v>
       </c>
       <c r="D186" t="n">
-        <v>39.99806213378906</v>
+        <v>37.52477645874023</v>
       </c>
       <c r="E186" t="n">
-        <v>-57.74382781982422</v>
+        <v>-53.76191711425781</v>
       </c>
       <c r="F186" t="n">
-        <v>3.920362949371338</v>
+        <v>5.868569374084473</v>
       </c>
       <c r="G186" t="n">
-        <v>44.23559188842773</v>
+        <v>40.59504699707031</v>
       </c>
       <c r="H186" t="n">
-        <v>-36.0621452331543</v>
+        <v>-33.13437652587891</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.42629603266716</v>
+        <v>0.3701034879684448</v>
       </c>
       <c r="B187" t="n">
-        <v>0.569896218453576</v>
+        <v>0.5924810911230347</v>
       </c>
       <c r="C187" t="n">
-        <v>5.278189659118652</v>
+        <v>10.36366939544678</v>
       </c>
       <c r="D187" t="n">
-        <v>49.11541366577148</v>
+        <v>46.31890106201172</v>
       </c>
       <c r="E187" t="n">
-        <v>-64.36178588867188</v>
+        <v>-58.06581878662109</v>
       </c>
       <c r="F187" t="n">
-        <v>8.206521034240723</v>
+        <v>10.55440902709961</v>
       </c>
       <c r="G187" t="n">
-        <v>52.16477203369141</v>
+        <v>48.16917419433594</v>
       </c>
       <c r="H187" t="n">
-        <v>-39.8953742980957</v>
+        <v>-36.26015472412109</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.6142155690966041</v>
+        <v>0.6364984339933628</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7213112959639265</v>
+        <v>0.7574681324901924</v>
       </c>
       <c r="C188" t="n">
-        <v>10.61736965179443</v>
+        <v>15.80587005615234</v>
       </c>
       <c r="D188" t="n">
-        <v>57.11125183105469</v>
+        <v>54.70414733886719</v>
       </c>
       <c r="E188" t="n">
-        <v>-60.0628776550293</v>
+        <v>-53.5775146484375</v>
       </c>
       <c r="F188" t="n">
-        <v>12.98101234436035</v>
+        <v>15.80052661895752</v>
       </c>
       <c r="G188" t="n">
-        <v>59.13933944702148</v>
+        <v>54.74006652832031</v>
       </c>
       <c r="H188" t="n">
-        <v>-38.00201797485352</v>
+        <v>-36.26015472412109</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.7876833642743549</v>
+        <v>0.8350920886238817</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8508023147816816</v>
+        <v>0.8852426431125049</v>
       </c>
       <c r="C189" t="n">
-        <v>16.56886863708496</v>
+        <v>20.85763168334961</v>
       </c>
       <c r="D189" t="n">
-        <v>63.38840103149414</v>
+        <v>60.97193145751953</v>
       </c>
       <c r="E189" t="n">
-        <v>-50.95863342285156</v>
+        <v>-44.60326385498047</v>
       </c>
       <c r="F189" t="n">
-        <v>18.26240158081055</v>
+        <v>20.97630882263184</v>
       </c>
       <c r="G189" t="n">
-        <v>64.33089447021484</v>
+        <v>59.6808967590332</v>
       </c>
       <c r="H189" t="n">
-        <v>-32.86019134521484</v>
+        <v>-29.58672332763672</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9110180564637956</v>
+        <v>0.9406664708005048</v>
       </c>
       <c r="B190" t="n">
-        <v>0.938603261290351</v>
+        <v>0.9580090566697917</v>
       </c>
       <c r="C190" t="n">
-        <v>22.32125282287598</v>
+        <v>25.37761688232422</v>
       </c>
       <c r="D190" t="n">
-        <v>66.90532684326172</v>
+        <v>64.48916625976562</v>
       </c>
       <c r="E190" t="n">
-        <v>-39.68499755859375</v>
+        <v>-34.36848068237305</v>
       </c>
       <c r="F190" t="n">
-        <v>23.15514945983887</v>
+        <v>25.81661605834961</v>
       </c>
       <c r="G190" t="n">
-        <v>67.50662231445312</v>
+        <v>62.44184875488281</v>
       </c>
       <c r="H190" t="n">
-        <v>-26.26744079589844</v>
+        <v>-23.13531112670898</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9725885035567415</v>
+        <v>0.9834171206976238</v>
       </c>
       <c r="B191" t="n">
-        <v>0.980651128144113</v>
+        <v>0.9886089141052689</v>
       </c>
       <c r="C191" t="n">
-        <v>27.37064361572266</v>
+        <v>29.3082103729248</v>
       </c>
       <c r="D191" t="n">
-        <v>67.93711853027344</v>
+        <v>64.48916625976562</v>
       </c>
       <c r="E191" t="n">
-        <v>-29.90460968017578</v>
+        <v>-25.52606964111328</v>
       </c>
       <c r="F191" t="n">
-        <v>27.43717765808105</v>
+        <v>30.1436939239502</v>
       </c>
       <c r="G191" t="n">
-        <v>68.95735931396484</v>
+        <v>62.44184875488281</v>
       </c>
       <c r="H191" t="n">
-        <v>-20.72392272949219</v>
+        <v>-17.58208274841309</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9939380540591374</v>
+        <v>0.9964810688198578</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9954221459348954</v>
+        <v>0.9978225374640108</v>
       </c>
       <c r="C192" t="n">
-        <v>31.97546768188477</v>
+        <v>32.55166244506836</v>
       </c>
       <c r="D192" t="n">
-        <v>66.75503540039062</v>
+        <v>64.36003875732422</v>
       </c>
       <c r="E192" t="n">
-        <v>-20.02464485168457</v>
+        <v>-16.53791236877441</v>
       </c>
       <c r="F192" t="n">
-        <v>31.53079223632812</v>
+        <v>33.69302749633789</v>
       </c>
       <c r="G192" t="n">
-        <v>68.95735931396484</v>
+        <v>62.62653350830078</v>
       </c>
       <c r="H192" t="n">
-        <v>-14.68872261047363</v>
+        <v>-11.75692272186279</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9991637089298092</v>
+        <v>0.9994344189638127</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9992993976849693</v>
+        <v>0.9997105490324231</v>
       </c>
       <c r="C193" t="n">
-        <v>34.8718376159668</v>
+        <v>35.08431243896484</v>
       </c>
       <c r="D193" t="n">
-        <v>63.52091217041016</v>
+        <v>60.66533660888672</v>
       </c>
       <c r="E193" t="n">
-        <v>-12.55546855926514</v>
+        <v>-9.595272064208984</v>
       </c>
       <c r="F193" t="n">
-        <v>34.34786987304688</v>
+        <v>36.38180541992188</v>
       </c>
       <c r="G193" t="n">
-        <v>64.89852905273438</v>
+        <v>59.69699478149414</v>
       </c>
       <c r="H193" t="n">
-        <v>-10.62783908843994</v>
+        <v>-7.877912998199463</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999044922746994</v>
+        <v>0.9999298465587961</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9999158709594088</v>
+        <v>0.9999726399866552</v>
       </c>
       <c r="C194" t="n">
-        <v>37.13063430786133</v>
+        <v>36.82138824462891</v>
       </c>
       <c r="D194" t="n">
-        <v>58.82416534423828</v>
+        <v>55.54513549804688</v>
       </c>
       <c r="E194" t="n">
-        <v>-8.034566879272461</v>
+        <v>-5.749434471130371</v>
       </c>
       <c r="F194" t="n">
-        <v>36.39229965209961</v>
+        <v>38.01576995849609</v>
       </c>
       <c r="G194" t="n">
-        <v>60.60694885253906</v>
+        <v>55.70071792602539</v>
       </c>
       <c r="H194" t="n">
-        <v>-7.558479309082031</v>
+        <v>-5.049912452697754</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999921888150002</v>
+        <v>0.9999926283870681</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9999921868934343</v>
+        <v>0.9999977467027419</v>
       </c>
       <c r="C195" t="n">
-        <v>38.87425994873047</v>
+        <v>38.14701843261719</v>
       </c>
       <c r="D195" t="n">
-        <v>52.47367858886719</v>
+        <v>49.39584350585938</v>
       </c>
       <c r="E195" t="n">
-        <v>-4.519296646118164</v>
+        <v>-2.606955289840698</v>
       </c>
       <c r="F195" t="n">
-        <v>38.30790710449219</v>
+        <v>39.0206298828125</v>
       </c>
       <c r="G195" t="n">
-        <v>55.14833831787109</v>
+        <v>50.56845855712891</v>
       </c>
       <c r="H195" t="n">
-        <v>-5.341373443603516</v>
+        <v>-2.827580690383911</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.999999553030843</v>
+        <v>0.9999993611076977</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999995730822326</v>
+        <v>0.9999998322117625</v>
       </c>
       <c r="C196" t="n">
-        <v>40.09207153320312</v>
+        <v>39.32177734375</v>
       </c>
       <c r="D196" t="n">
-        <v>45.08526611328125</v>
+        <v>42.39554214477539</v>
       </c>
       <c r="E196" t="n">
-        <v>-4.519296646118164</v>
+        <v>-2.606955289840698</v>
       </c>
       <c r="F196" t="n">
-        <v>39.8594970703125</v>
+        <v>39.0206298828125</v>
       </c>
       <c r="G196" t="n">
-        <v>48.74112701416016</v>
+        <v>44.90322875976562</v>
       </c>
       <c r="H196" t="n">
-        <v>-3.438563346862793</v>
+        <v>-0.7467911243438721</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999999806085091</v>
+        <v>0.9999999578006357</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999999875200549</v>
+        <v>0.9999999895522047</v>
       </c>
       <c r="C197" t="n">
-        <v>40.09207153320312</v>
+        <v>40.66942596435547</v>
       </c>
       <c r="D197" t="n">
-        <v>37.69414520263672</v>
+        <v>35.22632598876953</v>
       </c>
       <c r="E197" t="n">
-        <v>-5.487181663513184</v>
+        <v>-4.150301933288574</v>
       </c>
       <c r="F197" t="n">
-        <v>41.04551315307617</v>
+        <v>40.60602951049805</v>
       </c>
       <c r="G197" t="n">
-        <v>42.54309844970703</v>
+        <v>39.00364685058594</v>
       </c>
       <c r="H197" t="n">
-        <v>-3.438563346862793</v>
+        <v>-0.7467911243438721</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999994207818</v>
+        <v>0.9999999985048355</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999999998542493</v>
+        <v>0.999999999569775</v>
       </c>
       <c r="C198" t="n">
-        <v>41.98575592041016</v>
+        <v>41.86872863769531</v>
       </c>
       <c r="D198" t="n">
-        <v>31.0341682434082</v>
+        <v>29.03396987915039</v>
       </c>
       <c r="E198" t="n">
-        <v>-9.221291542053223</v>
+        <v>-7.652619361877441</v>
       </c>
       <c r="F198" t="n">
-        <v>42.04970550537109</v>
+        <v>41.60991287231445</v>
       </c>
       <c r="G198" t="n">
-        <v>36.40849304199219</v>
+        <v>33.46887969970703</v>
       </c>
       <c r="H198" t="n">
-        <v>-3.985863924026489</v>
+        <v>-0.8455872535705566</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9999999999902561</v>
+        <v>0.9999999999786678</v>
       </c>
       <c r="B199" t="n">
-        <v>1.000000000000862</v>
+        <v>0.999999999985697</v>
       </c>
       <c r="C199" t="n">
-        <v>42.63824462890625</v>
+        <v>43.00945663452148</v>
       </c>
       <c r="D199" t="n">
-        <v>24.46507263183594</v>
+        <v>23.35872650146484</v>
       </c>
       <c r="E199" t="n">
-        <v>-13.50927925109863</v>
+        <v>-11.96298408508301</v>
       </c>
       <c r="F199" t="n">
-        <v>42.04970550537109</v>
+        <v>41.98754119873047</v>
       </c>
       <c r="G199" t="n">
-        <v>29.96300506591797</v>
+        <v>27.81563186645508</v>
       </c>
       <c r="H199" t="n">
-        <v>-6.679821968078613</v>
+        <v>-4.005710601806641</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9999999999998325</v>
+        <v>1.000000000000161</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9999999999999881</v>
+        <v>0.9999999999997217</v>
       </c>
       <c r="C200" t="n">
-        <v>42.61968612670898</v>
+        <v>43.00945663452148</v>
       </c>
       <c r="D200" t="n">
-        <v>19.54899597167969</v>
+        <v>19.08029174804688</v>
       </c>
       <c r="E200" t="n">
-        <v>-16.61086273193359</v>
+        <v>-13.48975944519043</v>
       </c>
       <c r="F200" t="n">
-        <v>43.42391204833984</v>
+        <v>42.64364624023438</v>
       </c>
       <c r="G200" t="n">
-        <v>24.52338027954102</v>
+        <v>22.79873275756836</v>
       </c>
       <c r="H200" t="n">
-        <v>-8.778228759765625</v>
+        <v>-5.863319396972656</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0.9999999999999921</v>
       </c>
       <c r="C201" t="n">
-        <v>43.70223236083984</v>
+        <v>43.82348251342773</v>
       </c>
       <c r="D201" t="n">
-        <v>15.3399772644043</v>
+        <v>15.46604061126709</v>
       </c>
       <c r="E201" t="n">
-        <v>-18.62236022949219</v>
+        <v>-15.52349376678467</v>
       </c>
       <c r="F201" t="n">
-        <v>43.70270156860352</v>
+        <v>42.22734832763672</v>
       </c>
       <c r="G201" t="n">
-        <v>20.18416976928711</v>
+        <v>18.96746444702148</v>
       </c>
       <c r="H201" t="n">
-        <v>-8.778228759765625</v>
+        <v>-5.863319396972656</v>
       </c>
     </row>
     <row r="202">
@@ -5680,25 +5680,25 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="C202" t="n">
-        <v>43.55130386352539</v>
+        <v>43.18613052368164</v>
       </c>
       <c r="D202" t="n">
-        <v>12.64668464660645</v>
+        <v>13.02840709686279</v>
       </c>
       <c r="E202" t="n">
-        <v>-20.41430473327637</v>
+        <v>-16.90615272521973</v>
       </c>
       <c r="F202" t="n">
-        <v>43.10025787353516</v>
+        <v>42.2648811340332</v>
       </c>
       <c r="G202" t="n">
-        <v>17.73543357849121</v>
+        <v>16.32120132446289</v>
       </c>
       <c r="H202" t="n">
-        <v>-9.861512184143066</v>
+        <v>-6.061046123504639</v>
       </c>
     </row>
     <row r="203">
@@ -5709,22 +5709,22 @@
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>43.25741958618164</v>
+        <v>44.18797302246094</v>
       </c>
       <c r="D203" t="n">
-        <v>12.64668464660645</v>
+        <v>13.02840709686279</v>
       </c>
       <c r="E203" t="n">
-        <v>-22.34941291809082</v>
+        <v>-18.39412689208984</v>
       </c>
       <c r="F203" t="n">
-        <v>43.64876174926758</v>
+        <v>43.52096557617188</v>
       </c>
       <c r="G203" t="n">
-        <v>16.52625846862793</v>
+        <v>16.32120132446289</v>
       </c>
       <c r="H203" t="n">
-        <v>-10.62140846252441</v>
+        <v>-8.409008979797363</v>
       </c>
     </row>
     <row r="204">
@@ -5735,22 +5735,22 @@
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>42.7680778503418</v>
+        <v>42.29831314086914</v>
       </c>
       <c r="D204" t="n">
-        <v>12.06468963623047</v>
+        <v>12.33650970458984</v>
       </c>
       <c r="E204" t="n">
-        <v>-26.77760887145996</v>
+        <v>-23.32441902160645</v>
       </c>
       <c r="F204" t="n">
-        <v>43.25067901611328</v>
+        <v>41.63058471679688</v>
       </c>
       <c r="G204" t="n">
-        <v>16.52625846862793</v>
+        <v>14.8884220123291</v>
       </c>
       <c r="H204" t="n">
-        <v>-15.21648693084717</v>
+        <v>-12.35797119140625</v>
       </c>
     </row>
     <row r="205">
@@ -5761,22 +5761,22 @@
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>41.82514190673828</v>
+        <v>42.19088363647461</v>
       </c>
       <c r="D205" t="n">
-        <v>12.06468963623047</v>
+        <v>14.01644229888916</v>
       </c>
       <c r="E205" t="n">
-        <v>-26.77760887145996</v>
+        <v>-23.32441902160645</v>
       </c>
       <c r="F205" t="n">
-        <v>42.31750106811523</v>
+        <v>42.51075744628906</v>
       </c>
       <c r="G205" t="n">
-        <v>17.12056732177734</v>
+        <v>16.76905632019043</v>
       </c>
       <c r="H205" t="n">
-        <v>-15.21648693084717</v>
+        <v>-12.35797119140625</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_typical_lstm.xlsx
+++ b/Predictions/PV_typical_lstm.xlsx
@@ -483,1218 +483,1218 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>43.77653884887695</v>
+        <v>42.42443084716797</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7843189239502</v>
+        <v>12.3286075592041</v>
       </c>
       <c r="E2" t="n">
-        <v>-29.22662925720215</v>
+        <v>-17.59198760986328</v>
       </c>
       <c r="F2" t="n">
-        <v>42.51075744628906</v>
+        <v>2.319316387176514</v>
       </c>
       <c r="G2" t="n">
-        <v>17.95701217651367</v>
+        <v>29.58777236938477</v>
       </c>
       <c r="H2" t="n">
-        <v>-19.84844970703125</v>
+        <v>3.351534843444824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0004927566909464076</v>
+        <v>-0.008293762784451247</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02504059609025717</v>
+        <v>-0.0610473708063364</v>
       </c>
       <c r="C3" t="n">
-        <v>43.82270812988281</v>
+        <v>41.34615707397461</v>
       </c>
       <c r="D3" t="n">
-        <v>18.5809268951416</v>
+        <v>15.05491256713867</v>
       </c>
       <c r="E3" t="n">
-        <v>-29.22662925720215</v>
+        <v>-17.59198760986328</v>
       </c>
       <c r="F3" t="n">
-        <v>41.32107162475586</v>
+        <v>6.318756103515625</v>
       </c>
       <c r="G3" t="n">
-        <v>19.64353942871094</v>
+        <v>35.51597595214844</v>
       </c>
       <c r="H3" t="n">
-        <v>-19.84844970703125</v>
+        <v>-1.923416376113892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.003285628166049719</v>
+        <v>-0.006457123449072242</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02894543580710888</v>
+        <v>-0.1446997466683388</v>
       </c>
       <c r="C4" t="n">
-        <v>43.06362152099609</v>
+        <v>41.19431686401367</v>
       </c>
       <c r="D4" t="n">
-        <v>20.63158416748047</v>
+        <v>18.60806274414062</v>
       </c>
       <c r="E4" t="n">
-        <v>-25.06784820556641</v>
+        <v>-19.40524482727051</v>
       </c>
       <c r="F4" t="n">
-        <v>40.97035980224609</v>
+        <v>9.775424957275391</v>
       </c>
       <c r="G4" t="n">
-        <v>20.98332405090332</v>
+        <v>41.29978179931641</v>
       </c>
       <c r="H4" t="n">
-        <v>-18.70441627502441</v>
+        <v>-8.019608497619629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01850331332534552</v>
+        <v>-0.0019154964084737</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04726476430892945</v>
+        <v>-0.2305123138427735</v>
       </c>
       <c r="C5" t="n">
-        <v>41.41415405273438</v>
+        <v>40.81884765625</v>
       </c>
       <c r="D5" t="n">
-        <v>20.63158416748047</v>
+        <v>21.94161987304688</v>
       </c>
       <c r="E5" t="n">
-        <v>-20.9480094909668</v>
+        <v>-16.73461151123047</v>
       </c>
       <c r="F5" t="n">
-        <v>38.19584274291992</v>
+        <v>12.91168975830078</v>
       </c>
       <c r="G5" t="n">
-        <v>20.98332405090332</v>
+        <v>46.70721435546875</v>
       </c>
       <c r="H5" t="n">
-        <v>-16.43166160583496</v>
+        <v>-13.18655967712402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04281780265271664</v>
+        <v>0.011813620403409</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07240929499268532</v>
+        <v>-0.3134377181529999</v>
       </c>
       <c r="C6" t="n">
-        <v>39.03041076660156</v>
+        <v>39.68382263183594</v>
       </c>
       <c r="D6" t="n">
-        <v>21.70413780212402</v>
+        <v>24.29169464111328</v>
       </c>
       <c r="E6" t="n">
-        <v>-17.26384544372559</v>
+        <v>-13.85995674133301</v>
       </c>
       <c r="F6" t="n">
-        <v>36.27763366699219</v>
+        <v>16.01304244995117</v>
       </c>
       <c r="G6" t="n">
-        <v>21.71288871765137</v>
+        <v>51.50063705444336</v>
       </c>
       <c r="H6" t="n">
-        <v>-13.46963310241699</v>
+        <v>-16.24483489990234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.07609587818384171</v>
+        <v>0.03314889028668404</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1025519105792046</v>
+        <v>-0.403742527961731</v>
       </c>
       <c r="C7" t="n">
-        <v>36.75892639160156</v>
+        <v>36.88784790039062</v>
       </c>
       <c r="D7" t="n">
-        <v>19.54466438293457</v>
+        <v>24.29169464111328</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.97278785705566</v>
+        <v>-10.1919059753418</v>
       </c>
       <c r="F7" t="n">
-        <v>34.64257049560547</v>
+        <v>19.12129402160645</v>
       </c>
       <c r="G7" t="n">
-        <v>21.87126541137695</v>
+        <v>55.24056243896484</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.772082328796387</v>
+        <v>-16.24483489990234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.09914087519049646</v>
+        <v>0.05811780169606209</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1176041732728481</v>
+        <v>-0.4954818606376648</v>
       </c>
       <c r="C8" t="n">
-        <v>34.16294860839844</v>
+        <v>35.13764190673828</v>
       </c>
       <c r="D8" t="n">
-        <v>18.15642166137695</v>
+        <v>26.20057678222656</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.97054767608643</v>
+        <v>-6.443380355834961</v>
       </c>
       <c r="F8" t="n">
-        <v>32.71209335327148</v>
+        <v>22.1865234375</v>
       </c>
       <c r="G8" t="n">
-        <v>21.23284912109375</v>
+        <v>57.61863708496094</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.548110961914062</v>
+        <v>-15.12557601928711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1303105756640434</v>
+        <v>0.08797385230660439</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1423873722553253</v>
+        <v>-0.5844840693473816</v>
       </c>
       <c r="C9" t="n">
-        <v>31.62387084960938</v>
+        <v>32.97660064697266</v>
       </c>
       <c r="D9" t="n">
-        <v>18.15642166137695</v>
+        <v>23.14058494567871</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.291130065917969</v>
+        <v>-3.173806667327881</v>
       </c>
       <c r="F9" t="n">
-        <v>30.6290168762207</v>
+        <v>25.13864898681641</v>
       </c>
       <c r="G9" t="n">
-        <v>19.99629211425781</v>
+        <v>57.61863708496094</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.765150547027588</v>
+        <v>-11.34687805175781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1568024632334709</v>
+        <v>0.1190829859673977</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1672794556617737</v>
+        <v>-0.668091448545456</v>
       </c>
       <c r="C10" t="n">
-        <v>29.19698524475098</v>
+        <v>30.51079559326172</v>
       </c>
       <c r="D10" t="n">
-        <v>16.28548812866211</v>
+        <v>21.23291015625</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.884769439697266</v>
+        <v>-0.5904645919799805</v>
       </c>
       <c r="F10" t="n">
-        <v>28.39592742919922</v>
+        <v>27.94828414916992</v>
       </c>
       <c r="G10" t="n">
-        <v>19.25042343139648</v>
+        <v>57.78247833251953</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.201619148254395</v>
+        <v>-6.597594261169434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1815067729353905</v>
+        <v>0.1525954508781433</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1938130426406861</v>
+        <v>-0.746637340784073</v>
       </c>
       <c r="C11" t="n">
-        <v>27.08697128295898</v>
+        <v>27.86712455749512</v>
       </c>
       <c r="D11" t="n">
-        <v>15.27742004394531</v>
+        <v>18.9872932434082</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.626590728759766</v>
+        <v>1.277745962142944</v>
       </c>
       <c r="F11" t="n">
-        <v>26.13424682617188</v>
+        <v>30.49856376647949</v>
       </c>
       <c r="G11" t="n">
-        <v>16.31926345825195</v>
+        <v>55.11418914794922</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.588643670082092</v>
+        <v>-1.904265999794006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2006446379423142</v>
+        <v>0.1867243799567223</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2193130055069923</v>
+        <v>-0.8141036999225617</v>
       </c>
       <c r="C12" t="n">
-        <v>24.79438209533691</v>
+        <v>25.05502319335938</v>
       </c>
       <c r="D12" t="n">
-        <v>14.10227108001709</v>
+        <v>16.62939643859863</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.446279048919678</v>
+        <v>2.636622905731201</v>
       </c>
       <c r="F12" t="n">
-        <v>23.47785186767578</v>
+        <v>32.78253555297852</v>
       </c>
       <c r="G12" t="n">
-        <v>14.8541316986084</v>
+        <v>51.18772125244141</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3817102611064911</v>
+        <v>1.90095329284668</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2270616561174393</v>
+        <v>0.2227765047550201</v>
       </c>
       <c r="B13" t="n">
-        <v>0.253284156024456</v>
+        <v>-0.873522641658783</v>
       </c>
       <c r="C13" t="n">
-        <v>22.42679977416992</v>
+        <v>22.11127853393555</v>
       </c>
       <c r="D13" t="n">
-        <v>13.16902160644531</v>
+        <v>14.14046669006348</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9757041931152344</v>
+        <v>3.654015064239502</v>
       </c>
       <c r="F13" t="n">
-        <v>21.09702301025391</v>
+        <v>34.72552108764648</v>
       </c>
       <c r="G13" t="n">
-        <v>13.75612545013428</v>
+        <v>46.15382385253906</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6416757106781006</v>
+        <v>4.660103797912598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2531308633089066</v>
+        <v>0.2599760109186173</v>
       </c>
       <c r="B14" t="n">
-        <v>0.276724294424057</v>
+        <v>-0.9207005953788758</v>
       </c>
       <c r="C14" t="n">
-        <v>19.95630264282227</v>
+        <v>19.08881378173828</v>
       </c>
       <c r="D14" t="n">
-        <v>12.03629779815674</v>
+        <v>11.67589569091797</v>
       </c>
       <c r="E14" t="n">
-        <v>1.710378885269165</v>
+        <v>3.654015064239502</v>
       </c>
       <c r="F14" t="n">
-        <v>18.55805397033691</v>
+        <v>36.33581161499023</v>
       </c>
       <c r="G14" t="n">
-        <v>12.64556121826172</v>
+        <v>40.31509399414062</v>
       </c>
       <c r="H14" t="n">
-        <v>1.656315088272095</v>
+        <v>6.384145736694336</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2805964004993439</v>
+        <v>0.297487536072731</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3067539978027344</v>
+        <v>-0.9583250880241394</v>
       </c>
       <c r="C15" t="n">
-        <v>17.538818359375</v>
+        <v>16.03458023071289</v>
       </c>
       <c r="D15" t="n">
-        <v>11.27183246612549</v>
+        <v>9.438617706298828</v>
       </c>
       <c r="E15" t="n">
-        <v>4.160125732421875</v>
+        <v>5.220301151275635</v>
       </c>
       <c r="F15" t="n">
-        <v>16.02249717712402</v>
+        <v>37.66021728515625</v>
       </c>
       <c r="G15" t="n">
-        <v>11.1019287109375</v>
+        <v>34.00614547729492</v>
       </c>
       <c r="H15" t="n">
-        <v>3.587795257568359</v>
+        <v>6.384145736694336</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3058320301771164</v>
+        <v>0.3348154258728028</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3349470317363739</v>
+        <v>-0.9889090144634247</v>
       </c>
       <c r="C16" t="n">
-        <v>14.94549560546875</v>
+        <v>13.01682758331299</v>
       </c>
       <c r="D16" t="n">
-        <v>9.349883079528809</v>
+        <v>7.593024730682373</v>
       </c>
       <c r="E16" t="n">
-        <v>6.451470375061035</v>
+        <v>7.39666748046875</v>
       </c>
       <c r="F16" t="n">
-        <v>13.55848693847656</v>
+        <v>38.70145416259766</v>
       </c>
       <c r="G16" t="n">
-        <v>9.868062973022461</v>
+        <v>27.54652404785156</v>
       </c>
       <c r="H16" t="n">
-        <v>3.587795257568359</v>
+        <v>7.997960567474365</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3353868025541306</v>
+        <v>0.3708765065670014</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3615847724676132</v>
+        <v>-1.011233425140381</v>
       </c>
       <c r="C17" t="n">
-        <v>12.65360546112061</v>
+        <v>10.20595836639404</v>
       </c>
       <c r="D17" t="n">
-        <v>8.166644096374512</v>
+        <v>6.2310791015625</v>
       </c>
       <c r="E17" t="n">
-        <v>8.555961608886719</v>
+        <v>9.017831802368164</v>
       </c>
       <c r="F17" t="n">
-        <v>11.28140449523926</v>
+        <v>38.70145416259766</v>
       </c>
       <c r="G17" t="n">
-        <v>8.596773147583008</v>
+        <v>21.24814033508301</v>
       </c>
       <c r="H17" t="n">
-        <v>5.574909687042236</v>
+        <v>7.20055627822876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3566306298971176</v>
+        <v>0.4023739975690842</v>
       </c>
       <c r="B18" t="n">
-        <v>0.384856675863266</v>
+        <v>-1.025038393735886</v>
       </c>
       <c r="C18" t="n">
-        <v>10.44888114929199</v>
+        <v>7.601559638977051</v>
       </c>
       <c r="D18" t="n">
-        <v>7.231749534606934</v>
+        <v>6.2310791015625</v>
       </c>
       <c r="E18" t="n">
-        <v>8.555961608886719</v>
+        <v>11.29489326477051</v>
       </c>
       <c r="F18" t="n">
-        <v>9.207949638366699</v>
+        <v>40.21145629882812</v>
       </c>
       <c r="G18" t="n">
-        <v>8.596773147583008</v>
+        <v>15.4437198638916</v>
       </c>
       <c r="H18" t="n">
-        <v>8.003974914550781</v>
+        <v>5.906537532806396</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.379230951666832</v>
+        <v>0.4313790011405945</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4056753903627396</v>
+        <v>-1.034094494581222</v>
       </c>
       <c r="C19" t="n">
-        <v>8.657371520996094</v>
+        <v>5.239054679870605</v>
       </c>
       <c r="D19" t="n">
-        <v>6.573878288269043</v>
+        <v>4.585299491882324</v>
       </c>
       <c r="E19" t="n">
-        <v>12.30310535430908</v>
+        <v>13.75189685821533</v>
       </c>
       <c r="F19" t="n">
-        <v>7.426688194274902</v>
+        <v>40.51897048950195</v>
       </c>
       <c r="G19" t="n">
-        <v>7.151820182800293</v>
+        <v>10.42676544189453</v>
       </c>
       <c r="H19" t="n">
-        <v>9.924312591552734</v>
+        <v>4.523989200592041</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3939412081241608</v>
+        <v>0.4570296663045884</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4222547280788422</v>
+        <v>-1.040983300209045</v>
       </c>
       <c r="C20" t="n">
-        <v>6.745200157165527</v>
+        <v>3.107450485229492</v>
       </c>
       <c r="D20" t="n">
-        <v>6.975815773010254</v>
+        <v>4.816679954528809</v>
       </c>
       <c r="E20" t="n">
-        <v>12.30310535430908</v>
+        <v>16.36763763427734</v>
       </c>
       <c r="F20" t="n">
-        <v>5.949736595153809</v>
+        <v>40.75289154052734</v>
       </c>
       <c r="G20" t="n">
-        <v>7.022322654724121</v>
+        <v>6.440340518951416</v>
       </c>
       <c r="H20" t="n">
-        <v>11.89617347717285</v>
+        <v>3.685211896896362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4156372845172882</v>
+        <v>0.4800203198194504</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4353109711408615</v>
+        <v>-1.046397020816803</v>
       </c>
       <c r="C21" t="n">
-        <v>5.004842758178711</v>
+        <v>1.225160956382751</v>
       </c>
       <c r="D21" t="n">
-        <v>6.392884254455566</v>
+        <v>5.657723426818848</v>
       </c>
       <c r="E21" t="n">
-        <v>13.95982360839844</v>
+        <v>18.87204360961914</v>
       </c>
       <c r="F21" t="n">
-        <v>4.767190933227539</v>
+        <v>40.93672180175781</v>
       </c>
       <c r="G21" t="n">
-        <v>6.571457862854004</v>
+        <v>3.601802349090576</v>
       </c>
       <c r="H21" t="n">
-        <v>13.0310230255127</v>
+        <v>2.814823865890503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4323781126737595</v>
+        <v>0.4997725403308869</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4451996070146561</v>
+        <v>-1.05264441370964</v>
       </c>
       <c r="C22" t="n">
-        <v>3.366678714752197</v>
+        <v>-0.33687824010849</v>
       </c>
       <c r="D22" t="n">
-        <v>6.476580619812012</v>
+        <v>6.973183631896973</v>
       </c>
       <c r="E22" t="n">
-        <v>15.3786449432373</v>
+        <v>20.72063636779785</v>
       </c>
       <c r="F22" t="n">
-        <v>3.417050123214722</v>
+        <v>41.14886093139648</v>
       </c>
       <c r="G22" t="n">
-        <v>7.06224536895752</v>
+        <v>1.86529266834259</v>
       </c>
       <c r="H22" t="n">
-        <v>15.46671295166016</v>
+        <v>1.879747152328491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4487712246179581</v>
+        <v>0.5147930783033371</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4620981031656266</v>
+        <v>-1.058152463436127</v>
       </c>
       <c r="C23" t="n">
-        <v>1.749284386634827</v>
+        <v>-1.540848612785339</v>
       </c>
       <c r="D23" t="n">
-        <v>6.869791984558105</v>
+        <v>10.42094612121582</v>
       </c>
       <c r="E23" t="n">
-        <v>16.15959930419922</v>
+        <v>20.72063636779785</v>
       </c>
       <c r="F23" t="n">
-        <v>2.051192283630371</v>
+        <v>41.33589553833008</v>
       </c>
       <c r="G23" t="n">
-        <v>8.07346248626709</v>
+        <v>1.86529266834259</v>
       </c>
       <c r="H23" t="n">
-        <v>17.82273101806641</v>
+        <v>-1.479673981666565</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4658117514848709</v>
+        <v>0.525025007724762</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4774806362390518</v>
+        <v>-1.06840571641922</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1864345669746399</v>
+        <v>-1.540848612785339</v>
       </c>
       <c r="D24" t="n">
-        <v>7.298626899719238</v>
+        <v>12.9503231048584</v>
       </c>
       <c r="E24" t="n">
-        <v>17.09553337097168</v>
+        <v>20.31867599487305</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6864635944366455</v>
+        <v>41.68406295776367</v>
       </c>
       <c r="G24" t="n">
-        <v>9.135821342468262</v>
+        <v>2.149155378341675</v>
       </c>
       <c r="H24" t="n">
-        <v>19.79401779174805</v>
+        <v>-4.596071720123291</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4898687726259232</v>
+        <v>0.53</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4926630121469498</v>
+        <v>-1.076423754692078</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.689864158630371</v>
+        <v>-3.156115770339966</v>
       </c>
       <c r="D25" t="n">
-        <v>7.281428337097168</v>
+        <v>16.3560733795166</v>
       </c>
       <c r="E25" t="n">
-        <v>17.38082122802734</v>
+        <v>16.02074432373047</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4985157251358032</v>
+        <v>41.95632553100586</v>
       </c>
       <c r="G25" t="n">
-        <v>10.49289321899414</v>
+        <v>4.268875122070312</v>
       </c>
       <c r="H25" t="n">
-        <v>19.79401779174805</v>
+        <v>-8.669920921325684</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5013008552789688</v>
+        <v>0.5271445065736771</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5038552916049958</v>
+        <v>-1.079860923290253</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.928894281387329</v>
+        <v>-2.920043230056763</v>
       </c>
       <c r="D26" t="n">
-        <v>8.766022682189941</v>
+        <v>20.45601654052734</v>
       </c>
       <c r="E26" t="n">
-        <v>14.62242221832275</v>
+        <v>8.51187801361084</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.697488784790039</v>
+        <v>42.07304000854492</v>
       </c>
       <c r="G26" t="n">
-        <v>12.39855098724365</v>
+        <v>7.201813220977783</v>
       </c>
       <c r="H26" t="n">
-        <v>21.73325347900391</v>
+        <v>-12.98678970336914</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5117028993368149</v>
+        <v>0.5175676685571671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5173604983091354</v>
+        <v>-1.077022457122803</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.30860424041748</v>
+        <v>-2.128298997879028</v>
       </c>
       <c r="D27" t="n">
-        <v>10.50430774688721</v>
+        <v>25.18948745727539</v>
       </c>
       <c r="E27" t="n">
-        <v>12.56702423095703</v>
+        <v>-1.750156879425049</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.697488784790039</v>
+        <v>41.97665786743164</v>
       </c>
       <c r="G27" t="n">
-        <v>15.11488151550293</v>
+        <v>10.69681167602539</v>
       </c>
       <c r="H27" t="n">
-        <v>20.056884765625</v>
+        <v>-16.73619079589844</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5279297506809235</v>
+        <v>0.500922401547432</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5229601919651031</v>
+        <v>-1.069337635040283</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.30860424041748</v>
+        <v>0.2588126659393311</v>
       </c>
       <c r="D28" t="n">
-        <v>13.77263355255127</v>
+        <v>30.51456451416016</v>
       </c>
       <c r="E28" t="n">
-        <v>7.62470531463623</v>
+        <v>-13.15753078460693</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.399393558502197</v>
+        <v>41.71570587158203</v>
       </c>
       <c r="G28" t="n">
-        <v>17.00998306274414</v>
+        <v>14.31158828735352</v>
       </c>
       <c r="H28" t="n">
-        <v>16.96459579467773</v>
+        <v>-19.6001091003418</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.53</v>
+        <v>0.4764645290374756</v>
       </c>
       <c r="B29" t="n">
-        <v>0.53</v>
+        <v>-1.051948412656784</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.882287502288818</v>
+        <v>2.104530096054077</v>
       </c>
       <c r="D29" t="n">
-        <v>15.80291557312012</v>
+        <v>36.33094024658203</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02717041969299316</v>
+        <v>-24.04243087768555</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.03167200088501</v>
+        <v>41.12522888183594</v>
       </c>
       <c r="G29" t="n">
-        <v>19.56955528259277</v>
+        <v>17.58969116210938</v>
       </c>
       <c r="H29" t="n">
-        <v>10.33004570007324</v>
+        <v>-21.21002197265625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.5284370303153992</v>
+        <v>0.4440423220396042</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5245970201492309</v>
+        <v>-1.020097519159317</v>
       </c>
       <c r="C30" t="n">
-        <v>-5.735843181610107</v>
+        <v>4.704962730407715</v>
       </c>
       <c r="D30" t="n">
-        <v>19.43759155273438</v>
+        <v>42.45419311523438</v>
       </c>
       <c r="E30" t="n">
-        <v>-11.17486572265625</v>
+        <v>-33.00922393798828</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.546404361724854</v>
+        <v>40.04368209838867</v>
       </c>
       <c r="G30" t="n">
-        <v>23.48966979980469</v>
+        <v>19.90275955200195</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7064046859741211</v>
+        <v>-21.21002197265625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5094844907522201</v>
+        <v>0.4034588772058487</v>
       </c>
       <c r="B31" t="n">
-        <v>0.512036589384079</v>
+        <v>-0.9647547578811646</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.597613573074341</v>
+        <v>7.9674391746521</v>
       </c>
       <c r="D31" t="n">
-        <v>24.18348693847656</v>
+        <v>48.57413482666016</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.093994140625</v>
+        <v>-39.28734970092773</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.217567920684814</v>
+        <v>37.01627349853516</v>
       </c>
       <c r="G31" t="n">
-        <v>28.46012306213379</v>
+        <v>21.14797592163086</v>
       </c>
       <c r="H31" t="n">
-        <v>-10.70572280883789</v>
+        <v>-18.83713150024414</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4804020273685455</v>
+        <v>0.3559883958101273</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4852986437082291</v>
+        <v>-0.8971294355392456</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.09102177619934082</v>
+        <v>11.75178623199463</v>
       </c>
       <c r="D32" t="n">
-        <v>30.50610733032227</v>
+        <v>54.36393737792969</v>
       </c>
       <c r="E32" t="n">
-        <v>-41.83002090454102</v>
+        <v>-41.71135711669922</v>
       </c>
       <c r="F32" t="n">
-        <v>1.427320957183838</v>
+        <v>35.02993774414062</v>
       </c>
       <c r="G32" t="n">
-        <v>34.68133544921875</v>
+        <v>21.14797592163086</v>
       </c>
       <c r="H32" t="n">
-        <v>-23.20425415039062</v>
+        <v>-15.97474098205566</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4414384466409683</v>
+        <v>0.3039009684324265</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4397710388898849</v>
+        <v>1.32399989003901</v>
       </c>
       <c r="C33" t="n">
-        <v>3.350271701812744</v>
+        <v>15.85380363464355</v>
       </c>
       <c r="D33" t="n">
-        <v>37.88984680175781</v>
+        <v>59.46878433227539</v>
       </c>
       <c r="E33" t="n">
-        <v>-54.63581085205078</v>
+        <v>-39.87028503417969</v>
       </c>
       <c r="F33" t="n">
-        <v>4.982094764709473</v>
+        <v>32.43034362792969</v>
       </c>
       <c r="G33" t="n">
-        <v>41.67987823486328</v>
+        <v>21.47602653503418</v>
       </c>
       <c r="H33" t="n">
-        <v>-33.94371032714844</v>
+        <v>-13.00801944732666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3947341918945313</v>
+        <v>0.2504409986734391</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5876912404314026</v>
+        <v>-0.2700833851530372</v>
       </c>
       <c r="C34" t="n">
-        <v>8.297504425048828</v>
+        <v>20.02773094177246</v>
       </c>
       <c r="D34" t="n">
-        <v>46.55653381347656</v>
+        <v>63.44869995117188</v>
       </c>
       <c r="E34" t="n">
-        <v>-60.07509613037109</v>
+        <v>-34.47172546386719</v>
       </c>
       <c r="F34" t="n">
-        <v>9.727594375610352</v>
+        <v>29.3861198425293</v>
       </c>
       <c r="G34" t="n">
-        <v>49.12207794189453</v>
+        <v>18.17723846435547</v>
       </c>
       <c r="H34" t="n">
-        <v>-37.66685485839844</v>
+        <v>-10.53323554992676</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6278636200083478</v>
+        <v>0.7184431747670645</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7479726788969526</v>
+        <v>1.744345665857452</v>
       </c>
       <c r="C35" t="n">
-        <v>13.53905296325684</v>
+        <v>24.05736923217773</v>
       </c>
       <c r="D35" t="n">
-        <v>54.42694091796875</v>
+        <v>65.90234375</v>
       </c>
       <c r="E35" t="n">
-        <v>-56.82863616943359</v>
+        <v>-27.37088012695312</v>
       </c>
       <c r="F35" t="n">
-        <v>14.74110698699951</v>
+        <v>26.06277656555176</v>
       </c>
       <c r="G35" t="n">
-        <v>55.91995239257812</v>
+        <v>15.97522735595703</v>
       </c>
       <c r="H35" t="n">
-        <v>-36.42343139648438</v>
+        <v>-8.634027481079102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8126838954843009</v>
+        <v>0.9192053155256001</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8739091166008668</v>
+        <v>0.3122928073037374</v>
       </c>
       <c r="C36" t="n">
-        <v>18.89480590820312</v>
+        <v>27.71968460083008</v>
       </c>
       <c r="D36" t="n">
-        <v>60.93445205688477</v>
+        <v>65.90234375</v>
       </c>
       <c r="E36" t="n">
-        <v>-48.51342391967773</v>
+        <v>-20.14629745483398</v>
       </c>
       <c r="F36" t="n">
-        <v>19.84586524963379</v>
+        <v>22.64790153503418</v>
       </c>
       <c r="G36" t="n">
-        <v>61.39148712158203</v>
+        <v>13.41847991943359</v>
       </c>
       <c r="H36" t="n">
-        <v>-31.26099967956543</v>
+        <v>-7.203488349914551</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9263468171972411</v>
+        <v>0.9828911280569633</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9506794614540671</v>
+        <v>0.3122928073037374</v>
       </c>
       <c r="C37" t="n">
-        <v>23.79419708251953</v>
+        <v>30.9047908782959</v>
       </c>
       <c r="D37" t="n">
-        <v>64.79498291015625</v>
+        <v>65.51088714599609</v>
       </c>
       <c r="E37" t="n">
-        <v>-38.24790191650391</v>
+        <v>-14.11881637573242</v>
       </c>
       <c r="F37" t="n">
-        <v>24.53171920776367</v>
+        <v>19.24832534790039</v>
       </c>
       <c r="G37" t="n">
-        <v>64.78036499023438</v>
+        <v>10.8620433807373</v>
       </c>
       <c r="H37" t="n">
-        <v>-24.47490692138672</v>
+        <v>-5.904520988464355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9776292036829728</v>
+        <v>0.9974344109833456</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9851292539826508</v>
+        <v>2.230145876723553</v>
       </c>
       <c r="C38" t="n">
-        <v>28.17798042297363</v>
+        <v>33.45602035522461</v>
       </c>
       <c r="D38" t="n">
-        <v>66.1851806640625</v>
+        <v>62.10127258300781</v>
       </c>
       <c r="E38" t="n">
-        <v>-29.04880142211914</v>
+        <v>-9.633147239685059</v>
       </c>
       <c r="F38" t="n">
-        <v>28.62282180786133</v>
+        <v>15.89554119110107</v>
       </c>
       <c r="G38" t="n">
-        <v>66.41276550292969</v>
+        <v>8.536432266235352</v>
       </c>
       <c r="H38" t="n">
-        <v>-18.71216011047363</v>
+        <v>-4.554913520812988</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9949478577155476</v>
+        <v>0.9997275393183938</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9966085456431623</v>
+        <v>0.5120922200485856</v>
       </c>
       <c r="C39" t="n">
-        <v>32.03659057617188</v>
+        <v>35.315673828125</v>
       </c>
       <c r="D39" t="n">
-        <v>66.1851806640625</v>
+        <v>56.97611999511719</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.53045463562012</v>
+        <v>-6.907734870910645</v>
       </c>
       <c r="F39" t="n">
-        <v>32.19336700439453</v>
+        <v>12.72887802124023</v>
       </c>
       <c r="G39" t="n">
-        <v>66.41276550292969</v>
+        <v>6.622400760650635</v>
       </c>
       <c r="H39" t="n">
-        <v>-12.55945110321045</v>
+        <v>-2.935962677001953</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9991981757266418</v>
+        <v>0.9999783285514027</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9994438385730536</v>
+        <v>1.112712750979838</v>
       </c>
       <c r="C40" t="n">
-        <v>34.75960159301758</v>
+        <v>36.59838104248047</v>
       </c>
       <c r="D40" t="n">
-        <v>61.69384765625</v>
+        <v>50.40819931030273</v>
       </c>
       <c r="E40" t="n">
-        <v>-12.08692169189453</v>
+        <v>-6.907734870910645</v>
       </c>
       <c r="F40" t="n">
-        <v>34.86981201171875</v>
+        <v>9.708878517150879</v>
       </c>
       <c r="G40" t="n">
-        <v>62.84925842285156</v>
+        <v>5.226304531097412</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.562309265136719</v>
+        <v>-0.9152384996414185</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9998983740988389</v>
+        <v>0.9999986253261905</v>
       </c>
       <c r="B41" t="n">
-        <v>0.999929619780313</v>
+        <v>0.9919572974689984</v>
       </c>
       <c r="C41" t="n">
-        <v>36.71428298950195</v>
+        <v>36.59838104248047</v>
       </c>
       <c r="D41" t="n">
-        <v>57.02787017822266</v>
+        <v>42.84107208251953</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.83323860168457</v>
+        <v>-5.974082946777344</v>
       </c>
       <c r="F41" t="n">
-        <v>36.55462646484375</v>
+        <v>6.86064338684082</v>
       </c>
       <c r="G41" t="n">
-        <v>58.64509582519531</v>
+        <v>5.226304531097412</v>
       </c>
       <c r="H41" t="n">
-        <v>-5.435426712036133</v>
+        <v>1.4680335521698</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999895474397881</v>
+        <v>0.9999999228138008</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9999921185246923</v>
+        <v>0.9993778000868814</v>
       </c>
       <c r="C42" t="n">
-        <v>38.25328063964844</v>
+        <v>38.20024108886719</v>
       </c>
       <c r="D42" t="n">
-        <v>50.66463470458984</v>
+        <v>34.76802825927734</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.291987419128418</v>
+        <v>-7.811023235321045</v>
       </c>
       <c r="F42" t="n">
-        <v>38.13069152832031</v>
+        <v>4.145649909973145</v>
       </c>
       <c r="G42" t="n">
-        <v>53.10684967041016</v>
+        <v>3.491326093673706</v>
       </c>
       <c r="H42" t="n">
-        <v>-3.102177143096924</v>
+        <v>4.316538333892822</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999991613622889</v>
+        <v>0.9999999957144687</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9999993603440605</v>
+        <v>0.9998626077478541</v>
       </c>
       <c r="C43" t="n">
-        <v>39.5550537109375</v>
+        <v>38.22770309448242</v>
       </c>
       <c r="D43" t="n">
-        <v>43.12400817871094</v>
+        <v>26.93992233276367</v>
       </c>
       <c r="E43" t="n">
-        <v>-4.291987419128418</v>
+        <v>-9.801290512084961</v>
       </c>
       <c r="F43" t="n">
-        <v>39.57353591918945</v>
+        <v>1.623094797134399</v>
       </c>
       <c r="G43" t="n">
-        <v>46.85139083862305</v>
+        <v>3.683659315109253</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.8505924940109253</v>
+        <v>7.260428428649902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999999506919979</v>
+        <v>0.9999999997711845</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999999656842186</v>
+        <v>0.9999518729251164</v>
       </c>
       <c r="C44" t="n">
-        <v>40.76129150390625</v>
+        <v>38.32100677490234</v>
       </c>
       <c r="D44" t="n">
-        <v>35.44835662841797</v>
+        <v>19.91564178466797</v>
       </c>
       <c r="E44" t="n">
-        <v>-5.62000846862793</v>
+        <v>-11.56549167633057</v>
       </c>
       <c r="F44" t="n">
-        <v>40.86276245117188</v>
+        <v>-0.7431002855300903</v>
       </c>
       <c r="G44" t="n">
-        <v>40.63213348388672</v>
+        <v>4.158709526062012</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.8505924940109253</v>
+        <v>10.18130302429199</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999982037667</v>
+        <v>0.9999999999882773</v>
       </c>
       <c r="B45" t="n">
-        <v>0.999999998977708</v>
+        <v>0.9999772320982744</v>
       </c>
       <c r="C45" t="n">
-        <v>41.88589096069336</v>
+        <v>38.41567230224609</v>
       </c>
       <c r="D45" t="n">
-        <v>28.75137710571289</v>
+        <v>14.25295257568359</v>
       </c>
       <c r="E45" t="n">
-        <v>-9.310663223266602</v>
+        <v>-12.78831672668457</v>
       </c>
       <c r="F45" t="n">
-        <v>40.86276245117188</v>
+        <v>-3.000899076461792</v>
       </c>
       <c r="G45" t="n">
-        <v>34.66825866699219</v>
+        <v>4.823613166809082</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.225305080413818</v>
+        <v>12.70191955566406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999999999722909</v>
+        <v>0.9999999999994704</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9999999999844835</v>
+        <v>0.9999865097856887</v>
       </c>
       <c r="C46" t="n">
-        <v>41.88589096069336</v>
+        <v>38.6812629699707</v>
       </c>
       <c r="D46" t="n">
-        <v>22.37103271484375</v>
+        <v>10.17074203491211</v>
       </c>
       <c r="E46" t="n">
-        <v>-13.44080543518066</v>
+        <v>-12.78831672668457</v>
       </c>
       <c r="F46" t="n">
-        <v>42.84757614135742</v>
+        <v>-5.278042316436768</v>
       </c>
       <c r="G46" t="n">
-        <v>28.37935638427734</v>
+        <v>5.422179222106934</v>
       </c>
       <c r="H46" t="n">
-        <v>-4.26267147064209</v>
+        <v>14.88237380981445</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999999997117</v>
+        <v>0.9999999999999838</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9999999999999024</v>
+        <v>0.9999902855032048</v>
       </c>
       <c r="C47" t="n">
-        <v>43.25983047485352</v>
+        <v>39.31613159179688</v>
       </c>
       <c r="D47" t="n">
-        <v>17.64588737487793</v>
+        <v>7.844399929046631</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.01410484313965</v>
+        <v>-14.32871913909912</v>
       </c>
       <c r="F47" t="n">
-        <v>43.270751953125</v>
+        <v>-7.313690185546875</v>
       </c>
       <c r="G47" t="n">
-        <v>22.89970397949219</v>
+        <v>6.281363487243652</v>
       </c>
       <c r="H47" t="n">
-        <v>-6.40190601348877</v>
+        <v>16.47904968261719</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9999920359954019</v>
       </c>
       <c r="C48" t="n">
-        <v>43.65035247802734</v>
+        <v>39.9261589050293</v>
       </c>
       <c r="D48" t="n">
-        <v>13.75539970397949</v>
+        <v>7.844399929046631</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.08703231811523</v>
+        <v>-14.2365894317627</v>
       </c>
       <c r="F48" t="n">
-        <v>43.34914016723633</v>
+        <v>-9.154003143310547</v>
       </c>
       <c r="G48" t="n">
-        <v>18.50256729125977</v>
+        <v>7.541489601135254</v>
       </c>
       <c r="H48" t="n">
-        <v>-6.40190601348877</v>
+        <v>16.47904968261719</v>
       </c>
     </row>
     <row r="49">
@@ -1702,25 +1702,25 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0.9999927431256423</v>
       </c>
       <c r="C49" t="n">
-        <v>43.33395004272461</v>
+        <v>40.47029495239258</v>
       </c>
       <c r="D49" t="n">
-        <v>11.1363582611084</v>
+        <v>6.331116676330566</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.78070831298828</v>
+        <v>-14.67994785308838</v>
       </c>
       <c r="F49" t="n">
-        <v>42.85869216918945</v>
+        <v>-10.69128036499023</v>
       </c>
       <c r="G49" t="n">
-        <v>15.9200611114502</v>
+        <v>10.22250175476074</v>
       </c>
       <c r="H49" t="n">
-        <v>-6.887413501739502</v>
+        <v>16.32684135437012</v>
       </c>
     </row>
     <row r="50">
@@ -1728,25 +1728,25 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0.9999928897890765</v>
       </c>
       <c r="C50" t="n">
-        <v>43.48094177246094</v>
+        <v>41.45297622680664</v>
       </c>
       <c r="D50" t="n">
-        <v>11.1363582611084</v>
+        <v>7.469704627990723</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.51651763916016</v>
+        <v>-14.08051681518555</v>
       </c>
       <c r="F50" t="n">
-        <v>43.41875076293945</v>
+        <v>-10.69128036499023</v>
       </c>
       <c r="G50" t="n">
-        <v>15.9200611114502</v>
+        <v>12.23432159423828</v>
       </c>
       <c r="H50" t="n">
-        <v>-7.888941287994385</v>
+        <v>13.10362434387207</v>
       </c>
     </row>
     <row r="51">
@@ -1754,25 +1754,25 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0.9999928897890765</v>
       </c>
       <c r="C51" t="n">
-        <v>42.82486343383789</v>
+        <v>42.40357208251953</v>
       </c>
       <c r="D51" t="n">
-        <v>10.7220401763916</v>
+        <v>8.166754722595215</v>
       </c>
       <c r="E51" t="n">
-        <v>-25.85336685180664</v>
+        <v>-14.36383152008057</v>
       </c>
       <c r="F51" t="n">
-        <v>42.77024459838867</v>
+        <v>-12.59228038787842</v>
       </c>
       <c r="G51" t="n">
-        <v>14.07363986968994</v>
+        <v>15.18154621124268</v>
       </c>
       <c r="H51" t="n">
-        <v>-13.06257820129395</v>
+        <v>7.221260070800781</v>
       </c>
     </row>
     <row r="52">
@@ -1780,1247 +1780,1247 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0.9999930534047778</v>
       </c>
       <c r="C52" t="n">
-        <v>42.29883575439453</v>
+        <v>41.6063232421875</v>
       </c>
       <c r="D52" t="n">
-        <v>11.75112438201904</v>
+        <v>11.26504707336426</v>
       </c>
       <c r="E52" t="n">
-        <v>-25.85336685180664</v>
+        <v>-15.54843902587891</v>
       </c>
       <c r="F52" t="n">
-        <v>42.08647537231445</v>
+        <v>-3.518818616867065</v>
       </c>
       <c r="G52" t="n">
-        <v>15.50162506103516</v>
+        <v>21.76527976989746</v>
       </c>
       <c r="H52" t="n">
-        <v>-15.77199077606201</v>
+        <v>7.221260070800781</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.002442286731675267</v>
+        <v>0.007507594162598253</v>
       </c>
       <c r="B53" t="n">
-        <v>-9.564920052071103e-05</v>
+        <v>0.007780032278969885</v>
       </c>
       <c r="C53" t="n">
-        <v>43.54770660400391</v>
+        <v>41.6063232421875</v>
       </c>
       <c r="D53" t="n">
-        <v>15.10613059997559</v>
+        <v>12.49809074401855</v>
       </c>
       <c r="E53" t="n">
-        <v>-27.07331085205078</v>
+        <v>-18.28981971740723</v>
       </c>
       <c r="F53" t="n">
-        <v>42.23960494995117</v>
+        <v>1.17546021938324</v>
       </c>
       <c r="G53" t="n">
-        <v>17.83150100708008</v>
+        <v>28.20643615722656</v>
       </c>
       <c r="H53" t="n">
-        <v>-18.96767997741699</v>
+        <v>4.027650833129883</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.01351667108014226</v>
+        <v>-0.01047669922932983</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02972286127507687</v>
+        <v>-0.01369537930935621</v>
       </c>
       <c r="C54" t="n">
-        <v>42.51008224487305</v>
+        <v>41.52662658691406</v>
       </c>
       <c r="D54" t="n">
-        <v>18.45915222167969</v>
+        <v>14.46988201141357</v>
       </c>
       <c r="E54" t="n">
-        <v>-27.07331085205078</v>
+        <v>-18.28981971740723</v>
       </c>
       <c r="F54" t="n">
-        <v>42.23960494995117</v>
+        <v>5.392667293548584</v>
       </c>
       <c r="G54" t="n">
-        <v>19.97901916503906</v>
+        <v>34.85195159912109</v>
       </c>
       <c r="H54" t="n">
-        <v>-18.96767997741699</v>
+        <v>-1.521633148193359</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0004794840695103631</v>
+        <v>-0.001637351894751191</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02693077187985182</v>
+        <v>-0.1238401304185391</v>
       </c>
       <c r="C55" t="n">
-        <v>43.73161315917969</v>
+        <v>40.79585266113281</v>
       </c>
       <c r="D55" t="n">
-        <v>20.93812942504883</v>
+        <v>17.2487678527832</v>
       </c>
       <c r="E55" t="n">
-        <v>-24.88619232177734</v>
+        <v>-19.09488296508789</v>
       </c>
       <c r="F55" t="n">
-        <v>41.15130615234375</v>
+        <v>9.207921981811523</v>
       </c>
       <c r="G55" t="n">
-        <v>21.26499176025391</v>
+        <v>41.03834533691406</v>
       </c>
       <c r="H55" t="n">
-        <v>-18.61224174499512</v>
+        <v>-7.707375049591064</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.01874751351773739</v>
+        <v>0.004258776288479567</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04803195446729661</v>
+        <v>-0.2243598029017448</v>
       </c>
       <c r="C56" t="n">
-        <v>40.80362701416016</v>
+        <v>40.30840301513672</v>
       </c>
       <c r="D56" t="n">
-        <v>20.93812942504883</v>
+        <v>20.51332473754883</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.80842590332031</v>
+        <v>-16.57238960266113</v>
       </c>
       <c r="F56" t="n">
-        <v>38.16220855712891</v>
+        <v>12.65398025512695</v>
       </c>
       <c r="G56" t="n">
-        <v>21.26499176025391</v>
+        <v>46.44366836547852</v>
       </c>
       <c r="H56" t="n">
-        <v>-16.28355598449707</v>
+        <v>-12.88787746429443</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.04471122831106186</v>
+        <v>0.01469408608973026</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07239106729626656</v>
+        <v>-0.3149715614318848</v>
       </c>
       <c r="C57" t="n">
-        <v>38.61312866210938</v>
+        <v>39.44568634033203</v>
       </c>
       <c r="D57" t="n">
-        <v>22.33942031860352</v>
+        <v>23.41173934936523</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.98271751403809</v>
+        <v>-13.88722610473633</v>
       </c>
       <c r="F57" t="n">
-        <v>36.23359680175781</v>
+        <v>15.88613414764404</v>
       </c>
       <c r="G57" t="n">
-        <v>21.64186477661133</v>
+        <v>51.04318618774414</v>
       </c>
       <c r="H57" t="n">
-        <v>-13.4050931930542</v>
+        <v>-16.00798606872559</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.07848702341318131</v>
+        <v>0.0335390680283308</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1031579577922821</v>
+        <v>-0.4038571697473526</v>
       </c>
       <c r="C58" t="n">
-        <v>36.46685791015625</v>
+        <v>36.87451553344727</v>
       </c>
       <c r="D58" t="n">
-        <v>20.00591278076172</v>
+        <v>25.04423904418945</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.6294584274292</v>
+        <v>-10.33463096618652</v>
       </c>
       <c r="F58" t="n">
-        <v>34.54333877563477</v>
+        <v>18.97981262207031</v>
       </c>
       <c r="G58" t="n">
-        <v>21.35763549804688</v>
+        <v>54.68657684326172</v>
       </c>
       <c r="H58" t="n">
-        <v>-9.85124683380127</v>
+        <v>-16.00798606872559</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1009217242896557</v>
+        <v>0.05805020600557328</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1193235710263252</v>
+        <v>-0.4908861750364304</v>
       </c>
       <c r="C59" t="n">
-        <v>34.07646179199219</v>
+        <v>35.15311431884766</v>
       </c>
       <c r="D59" t="n">
-        <v>18.59700393676758</v>
+        <v>25.04423904418945</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.57382965087891</v>
+        <v>-6.629764556884766</v>
       </c>
       <c r="F59" t="n">
-        <v>32.6290283203125</v>
+        <v>21.98233795166016</v>
       </c>
       <c r="G59" t="n">
-        <v>20.85553550720215</v>
+        <v>57.05780410766602</v>
       </c>
       <c r="H59" t="n">
-        <v>-6.625523567199707</v>
+        <v>-15.07504463195801</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1290394939482212</v>
+        <v>0.0874383781850338</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1431321647763252</v>
+        <v>-0.5766243624687195</v>
       </c>
       <c r="C60" t="n">
-        <v>31.72691345214844</v>
+        <v>32.99700164794922</v>
       </c>
       <c r="D60" t="n">
-        <v>17.48110961914062</v>
+        <v>23.5500373840332</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.848785400390625</v>
+        <v>-3.366239786148071</v>
       </c>
       <c r="F60" t="n">
-        <v>30.58389282226562</v>
+        <v>24.87314224243164</v>
       </c>
       <c r="G60" t="n">
-        <v>19.93403816223145</v>
+        <v>57.05780410766602</v>
       </c>
       <c r="H60" t="n">
-        <v>-4.675131320953369</v>
+        <v>-11.32904624938965</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1536799040436745</v>
+        <v>0.1187765821814537</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1673594111204147</v>
+        <v>-0.6584667193889618</v>
       </c>
       <c r="C61" t="n">
-        <v>29.44787788391113</v>
+        <v>30.56840133666992</v>
       </c>
       <c r="D61" t="n">
-        <v>16.43048477172852</v>
+        <v>21.28445434570312</v>
       </c>
       <c r="E61" t="n">
-        <v>-5.468099594116211</v>
+        <v>-0.7741578817367554</v>
       </c>
       <c r="F61" t="n">
-        <v>28.39947509765625</v>
+        <v>27.63615798950195</v>
       </c>
       <c r="G61" t="n">
-        <v>19.12266731262207</v>
+        <v>57.30262756347656</v>
       </c>
       <c r="H61" t="n">
-        <v>-3.123929500579834</v>
+        <v>-6.648401260375977</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1772510638833046</v>
+        <v>0.1514486381411553</v>
       </c>
       <c r="B62" t="n">
-        <v>0.193231588602066</v>
+        <v>-0.736072542667389</v>
       </c>
       <c r="C62" t="n">
-        <v>27.37507247924805</v>
+        <v>27.99778175354004</v>
       </c>
       <c r="D62" t="n">
-        <v>15.25911808013916</v>
+        <v>18.76328659057617</v>
       </c>
       <c r="E62" t="n">
-        <v>-4.15767765045166</v>
+        <v>1.123236656188965</v>
       </c>
       <c r="F62" t="n">
-        <v>26.18369293212891</v>
+        <v>30.19133949279785</v>
       </c>
       <c r="G62" t="n">
-        <v>16.55944442749023</v>
+        <v>54.60231781005859</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.576505780220032</v>
+        <v>-2.003445625305176</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1971727040410042</v>
+        <v>0.1842603397369385</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2182514554262161</v>
+        <v>-0.8052004969120026</v>
       </c>
       <c r="C63" t="n">
-        <v>25.15017318725586</v>
+        <v>25.29055786132812</v>
       </c>
       <c r="D63" t="n">
-        <v>14.24239349365234</v>
+        <v>16.32692909240723</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.997390508651733</v>
+        <v>2.502429246902466</v>
       </c>
       <c r="F63" t="n">
-        <v>23.64517593383789</v>
+        <v>32.49287414550781</v>
       </c>
       <c r="G63" t="n">
-        <v>14.99447441101074</v>
+        <v>50.68682098388672</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.2870513796806335</v>
+        <v>1.793992280960083</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2225418981909752</v>
+        <v>0.2186589249968529</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2501087459921837</v>
+        <v>-0.8655095946788788</v>
       </c>
       <c r="C64" t="n">
-        <v>22.84729385375977</v>
+        <v>22.44684600830078</v>
       </c>
       <c r="D64" t="n">
-        <v>13.17139625549316</v>
+        <v>13.95456886291504</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5435229539871216</v>
+        <v>3.518145084381104</v>
       </c>
       <c r="F64" t="n">
-        <v>21.19329071044922</v>
+        <v>34.45207214355469</v>
       </c>
       <c r="G64" t="n">
-        <v>13.63075637817383</v>
+        <v>45.73871994018555</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7928593158721924</v>
+        <v>4.553112030029297</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2479524284601212</v>
+        <v>0.2547070693969727</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2764435815811158</v>
+        <v>-0.9131251394748688</v>
       </c>
       <c r="C65" t="n">
-        <v>20.40877342224121</v>
+        <v>19.46945190429688</v>
       </c>
       <c r="D65" t="n">
-        <v>13.17139625549316</v>
+        <v>11.64426231384277</v>
       </c>
       <c r="E65" t="n">
-        <v>2.057519674301147</v>
+        <v>3.518145084381104</v>
       </c>
       <c r="F65" t="n">
-        <v>18.68981552124023</v>
+        <v>36.05622863769531</v>
       </c>
       <c r="G65" t="n">
-        <v>12.44555473327637</v>
+        <v>40.00772476196289</v>
       </c>
       <c r="H65" t="n">
-        <v>1.858421802520752</v>
+        <v>6.286668300628662</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2754259896278382</v>
+        <v>0.2923382276296616</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3048917400836945</v>
+        <v>-0.949910968542099</v>
       </c>
       <c r="C66" t="n">
-        <v>17.96025466918945</v>
+        <v>16.38834190368652</v>
       </c>
       <c r="D66" t="n">
-        <v>11.45894527435303</v>
+        <v>9.522089004516602</v>
       </c>
       <c r="E66" t="n">
-        <v>4.459084987640381</v>
+        <v>5.143378734588623</v>
       </c>
       <c r="F66" t="n">
-        <v>16.20068740844727</v>
+        <v>37.35433959960938</v>
       </c>
       <c r="G66" t="n">
-        <v>11.04294776916504</v>
+        <v>33.82814025878906</v>
       </c>
       <c r="H66" t="n">
-        <v>3.705793380737305</v>
+        <v>6.286668300628662</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.3016653430461884</v>
+        <v>0.330861468911171</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3324460780620575</v>
+        <v>-0.9791265857219696</v>
       </c>
       <c r="C67" t="n">
-        <v>15.45420455932617</v>
+        <v>13.31274032592773</v>
       </c>
       <c r="D67" t="n">
-        <v>9.711689949035645</v>
+        <v>7.735997676849365</v>
       </c>
       <c r="E67" t="n">
-        <v>6.794731140136719</v>
+        <v>7.389278411865234</v>
       </c>
       <c r="F67" t="n">
-        <v>13.72923851013184</v>
+        <v>38.38481903076172</v>
       </c>
       <c r="G67" t="n">
-        <v>9.692619323730469</v>
+        <v>27.55656433105469</v>
       </c>
       <c r="H67" t="n">
-        <v>4.862329483032227</v>
+        <v>7.903448581695557</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3290259683132172</v>
+        <v>0.3679969412088394</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3597664570808411</v>
+        <v>-1.001592016220093</v>
       </c>
       <c r="C68" t="n">
-        <v>13.14684200286865</v>
+        <v>10.43102169036865</v>
       </c>
       <c r="D68" t="n">
-        <v>8.285775184631348</v>
+        <v>6.377803802490234</v>
       </c>
       <c r="E68" t="n">
-        <v>8.920228958129883</v>
+        <v>9.071821212768555</v>
       </c>
       <c r="F68" t="n">
-        <v>11.38993835449219</v>
+        <v>38.38481903076172</v>
       </c>
       <c r="G68" t="n">
-        <v>8.452638626098633</v>
+        <v>21.51105880737305</v>
       </c>
       <c r="H68" t="n">
-        <v>4.862329483032227</v>
+        <v>7.131670475006104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3515314871072769</v>
+        <v>0.4005086123943329</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3843409931659699</v>
+        <v>-1.017488399744034</v>
       </c>
       <c r="C69" t="n">
-        <v>10.99955749511719</v>
+        <v>7.795016288757324</v>
       </c>
       <c r="D69" t="n">
-        <v>7.204726219177246</v>
+        <v>6.377803802490234</v>
       </c>
       <c r="E69" t="n">
-        <v>8.920228958129883</v>
+        <v>11.32848453521729</v>
       </c>
       <c r="F69" t="n">
-        <v>9.219934463500977</v>
+        <v>39.95508575439453</v>
       </c>
       <c r="G69" t="n">
-        <v>8.452638626098633</v>
+        <v>15.9952564239502</v>
       </c>
       <c r="H69" t="n">
-        <v>8.091475486755371</v>
+        <v>5.873180866241455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3727405965328217</v>
+        <v>0.4294212770462036</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4066169440746308</v>
+        <v>-1.027668615579605</v>
       </c>
       <c r="C70" t="n">
-        <v>9.160127639770508</v>
+        <v>5.452637672424316</v>
       </c>
       <c r="D70" t="n">
-        <v>6.454850196838379</v>
+        <v>4.647967338562012</v>
       </c>
       <c r="E70" t="n">
-        <v>12.59927272796631</v>
+        <v>13.73718452453613</v>
       </c>
       <c r="F70" t="n">
-        <v>7.371360778808594</v>
+        <v>40.3007698059082</v>
       </c>
       <c r="G70" t="n">
-        <v>6.824023246765137</v>
+        <v>11.26836204528809</v>
       </c>
       <c r="H70" t="n">
-        <v>9.956942558288574</v>
+        <v>4.414149761199951</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3890868598222733</v>
+        <v>0.4542027306556702</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4236202573776245</v>
+        <v>-1.034472948312759</v>
       </c>
       <c r="C71" t="n">
-        <v>7.356992721557617</v>
+        <v>3.366891860961914</v>
       </c>
       <c r="D71" t="n">
-        <v>6.799818992614746</v>
+        <v>4.728493690490723</v>
       </c>
       <c r="E71" t="n">
-        <v>12.59927272796631</v>
+        <v>16.23018836975098</v>
       </c>
       <c r="F71" t="n">
-        <v>5.752429008483887</v>
+        <v>40.53182220458984</v>
       </c>
       <c r="G71" t="n">
-        <v>6.756922721862793</v>
+        <v>7.526984691619873</v>
       </c>
       <c r="H71" t="n">
-        <v>11.93417167663574</v>
+        <v>3.298351049423218</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4079439961910248</v>
+        <v>0.4763274264335632</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4390886533260346</v>
+        <v>-1.039519840478897</v>
       </c>
       <c r="C72" t="n">
-        <v>5.622646808624268</v>
+        <v>1.52993905544281</v>
       </c>
       <c r="D72" t="n">
-        <v>6.321629524230957</v>
+        <v>5.38054370880127</v>
       </c>
       <c r="E72" t="n">
-        <v>14.28251838684082</v>
+        <v>18.58993148803711</v>
       </c>
       <c r="F72" t="n">
-        <v>4.442813873291016</v>
+        <v>40.70319747924805</v>
       </c>
       <c r="G72" t="n">
-        <v>6.518246650695801</v>
+        <v>4.855502128601074</v>
       </c>
       <c r="H72" t="n">
-        <v>13.12972068786621</v>
+        <v>2.272085905075073</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4257202017307282</v>
+        <v>0.49553761780262</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4502260285615921</v>
+        <v>-1.044711606502533</v>
       </c>
       <c r="C73" t="n">
-        <v>3.976239681243896</v>
+        <v>-0.01648515462875366</v>
       </c>
       <c r="D73" t="n">
-        <v>6.344611167907715</v>
+        <v>6.57005786895752</v>
       </c>
       <c r="E73" t="n">
-        <v>15.69663429260254</v>
+        <v>20.35439300537109</v>
       </c>
       <c r="F73" t="n">
-        <v>3.185367345809937</v>
+        <v>40.87948989868164</v>
       </c>
       <c r="G73" t="n">
-        <v>6.711125373840332</v>
+        <v>3.201558113098145</v>
       </c>
       <c r="H73" t="n">
-        <v>15.34633255004883</v>
+        <v>1.206529855728149</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4423534643650055</v>
+        <v>0.5107287442684174</v>
       </c>
       <c r="B74" t="n">
-        <v>0.463645625114441</v>
+        <v>-1.050675253868103</v>
       </c>
       <c r="C74" t="n">
-        <v>2.372930526733398</v>
+        <v>-1.219753861427307</v>
       </c>
       <c r="D74" t="n">
-        <v>6.857636451721191</v>
+        <v>9.775445938110352</v>
       </c>
       <c r="E74" t="n">
-        <v>16.3164005279541</v>
+        <v>20.35439300537109</v>
       </c>
       <c r="F74" t="n">
-        <v>1.990103363990784</v>
+        <v>41.08199691772461</v>
       </c>
       <c r="G74" t="n">
-        <v>7.652606010437012</v>
+        <v>3.201558113098145</v>
       </c>
       <c r="H74" t="n">
-        <v>17.65132904052734</v>
+        <v>-1.797514081001282</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4590053337812424</v>
+        <v>0.5211325889825821</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4762614023685456</v>
+        <v>-1.062221441268921</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5785354375839233</v>
+        <v>-1.219753861427307</v>
       </c>
       <c r="D75" t="n">
-        <v>7.36580753326416</v>
+        <v>12.25220680236816</v>
       </c>
       <c r="E75" t="n">
-        <v>17.28524398803711</v>
+        <v>19.99410247802734</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7737799286842346</v>
+        <v>41.47406387329102</v>
       </c>
       <c r="G75" t="n">
-        <v>8.656266212463379</v>
+        <v>2.030068159103394</v>
       </c>
       <c r="H75" t="n">
-        <v>19.61418914794922</v>
+        <v>-4.605879306793213</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.480196025967598</v>
+        <v>0.5264320784807206</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4900384765863419</v>
+        <v>-1.073618648052216</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.9739107489585876</v>
+        <v>-2.861144304275513</v>
       </c>
       <c r="D76" t="n">
-        <v>7.521368980407715</v>
+        <v>15.64293956756592</v>
       </c>
       <c r="E76" t="n">
-        <v>17.56292724609375</v>
+        <v>15.86475849151611</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.3400876224040985</v>
+        <v>41.86107635498047</v>
       </c>
       <c r="G76" t="n">
-        <v>9.915581703186035</v>
+        <v>5.025633811950684</v>
       </c>
       <c r="H76" t="n">
-        <v>20.65913772583008</v>
+        <v>-8.46455192565918</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4941827344894409</v>
+        <v>0.5244610548019409</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5012995916604996</v>
+        <v>-1.081564154624939</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.194875955581665</v>
+        <v>-2.698195695877075</v>
       </c>
       <c r="D77" t="n">
-        <v>8.586544990539551</v>
+        <v>19.77494621276855</v>
       </c>
       <c r="E77" t="n">
-        <v>14.96048450469971</v>
+        <v>8.557384490966797</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.437907338142395</v>
+        <v>42.13087844848633</v>
       </c>
       <c r="G77" t="n">
-        <v>11.80984306335449</v>
+        <v>7.431756973266602</v>
       </c>
       <c r="H77" t="n">
-        <v>20.65913772583008</v>
+        <v>-12.75853538513184</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5036760473251343</v>
+        <v>0.5155946230888367</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5133440870046616</v>
+        <v>-1.083080496788025</v>
       </c>
       <c r="C78" t="n">
-        <v>-3.387065887451172</v>
+        <v>-1.965182542800903</v>
       </c>
       <c r="D78" t="n">
-        <v>11.30747032165527</v>
+        <v>24.54010391235352</v>
       </c>
       <c r="E78" t="n">
-        <v>12.91145324707031</v>
+        <v>-1.452837467193604</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.437907338142395</v>
+        <v>42.18236541748047</v>
       </c>
       <c r="G78" t="n">
-        <v>14.85959053039551</v>
+        <v>10.6570987701416</v>
       </c>
       <c r="H78" t="n">
-        <v>19.93473625183105</v>
+        <v>-16.61300277709961</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.5160929626226426</v>
+        <v>0.5000669950246811</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5216502302885055</v>
+        <v>-1.078379962444306</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.387065887451172</v>
+        <v>-0.6814682483673096</v>
       </c>
       <c r="D79" t="n">
-        <v>13.06142997741699</v>
+        <v>29.88221168518066</v>
       </c>
       <c r="E79" t="n">
-        <v>7.974974632263184</v>
+        <v>-12.59089088439941</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.281742572784424</v>
+        <v>42.02275085449219</v>
       </c>
       <c r="G79" t="n">
-        <v>16.82147026062012</v>
+        <v>14.2389965057373</v>
       </c>
       <c r="H79" t="n">
-        <v>16.8738899230957</v>
+        <v>-19.48998641967773</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.5203803569078446</v>
+        <v>0.4771554440259934</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5273963141441346</v>
+        <v>-1.062450788021088</v>
       </c>
       <c r="C80" t="n">
-        <v>-4.980966091156006</v>
+        <v>2.505205869674683</v>
       </c>
       <c r="D80" t="n">
-        <v>15.40339374542236</v>
+        <v>35.71621322631836</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2846207618713379</v>
+        <v>-23.27555847167969</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.797823429107666</v>
+        <v>41.48185348510742</v>
       </c>
       <c r="G80" t="n">
-        <v>19.39592552185059</v>
+        <v>17.59306335449219</v>
       </c>
       <c r="H80" t="n">
-        <v>10.26677417755127</v>
+        <v>-21.07419395446777</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.5189138644933701</v>
+        <v>0.4458872681856156</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5240206521749496</v>
+        <v>-1.030355131626129</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.843558788299561</v>
+        <v>4.792673587799072</v>
       </c>
       <c r="D81" t="n">
-        <v>19.06141471862793</v>
+        <v>41.84426116943359</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.89502429962158</v>
+        <v>-32.25461578369141</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.494640827178955</v>
+        <v>40.39199447631836</v>
       </c>
       <c r="G81" t="n">
-        <v>23.16600799560547</v>
+        <v>20.08008575439453</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6531128883361816</v>
+        <v>-21.07419395446777</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.5020667344331742</v>
+        <v>0.406183522939682</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5098184019327164</v>
+        <v>-0.9731960451602937</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.891286134719849</v>
+        <v>7.892034530639648</v>
       </c>
       <c r="D82" t="n">
-        <v>23.98383712768555</v>
+        <v>47.99040985107422</v>
       </c>
       <c r="E82" t="n">
-        <v>-24.87253570556641</v>
+        <v>-38.61240386962891</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.935631275177002</v>
+        <v>37.17813110351562</v>
       </c>
       <c r="G82" t="n">
-        <v>28.07583427429199</v>
+        <v>21.42214965820312</v>
       </c>
       <c r="H82" t="n">
-        <v>-10.68997859954834</v>
+        <v>-18.91424369812012</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4727427619695664</v>
+        <v>0.3588735210895538</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4812386691570282</v>
+        <v>-0.8982214546203614</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6645429134368896</v>
+        <v>11.61322402954102</v>
       </c>
       <c r="D83" t="n">
-        <v>30.30618476867676</v>
+        <v>53.79421997070312</v>
       </c>
       <c r="E83" t="n">
-        <v>-41.62871551513672</v>
+        <v>-41.15869140625</v>
       </c>
       <c r="F83" t="n">
-        <v>1.690078258514404</v>
+        <v>35.02802658081055</v>
       </c>
       <c r="G83" t="n">
-        <v>34.28490829467773</v>
+        <v>21.42214965820312</v>
       </c>
       <c r="H83" t="n">
-        <v>-23.06488800048828</v>
+        <v>-16.02808380126953</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4328489369153977</v>
+        <v>0.3063409525156021</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4370589977502823</v>
+        <v>1.309167430080281</v>
       </c>
       <c r="C84" t="n">
-        <v>4.12896728515625</v>
+        <v>15.72749328613281</v>
       </c>
       <c r="D84" t="n">
-        <v>37.76748657226562</v>
+        <v>58.86464691162109</v>
       </c>
       <c r="E84" t="n">
-        <v>-54.34040832519531</v>
+        <v>-39.36907958984375</v>
       </c>
       <c r="F84" t="n">
-        <v>5.282801628112793</v>
+        <v>32.29050064086914</v>
       </c>
       <c r="G84" t="n">
-        <v>41.25151824951172</v>
+        <v>21.78999710083008</v>
       </c>
       <c r="H84" t="n">
-        <v>-33.66014862060547</v>
+        <v>-12.95284175872803</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.3861764305830002</v>
+        <v>0.2518206173181534</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5897002546191502</v>
+        <v>-0.24104174752081</v>
       </c>
       <c r="C85" t="n">
-        <v>8.979108810424805</v>
+        <v>19.95227813720703</v>
       </c>
       <c r="D85" t="n">
-        <v>46.48059844970703</v>
+        <v>62.73830795288086</v>
       </c>
       <c r="E85" t="n">
-        <v>-59.4343147277832</v>
+        <v>-34.00325012207031</v>
       </c>
       <c r="F85" t="n">
-        <v>9.996045112609863</v>
+        <v>29.19487380981445</v>
       </c>
       <c r="G85" t="n">
-        <v>48.80980682373047</v>
+        <v>18.41404724121094</v>
       </c>
       <c r="H85" t="n">
-        <v>-37.18671417236328</v>
+        <v>-10.34610080718994</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6298270939980013</v>
+        <v>0.7185413981384007</v>
       </c>
       <c r="B86" t="n">
-        <v>0.75123656790636</v>
+        <v>1.715415084179753</v>
       </c>
       <c r="C86" t="n">
-        <v>14.24895000457764</v>
+        <v>24.02900695800781</v>
       </c>
       <c r="D86" t="n">
-        <v>54.59586334228516</v>
+        <v>64.98908233642578</v>
       </c>
       <c r="E86" t="n">
-        <v>-55.76057434082031</v>
+        <v>-26.96826934814453</v>
       </c>
       <c r="F86" t="n">
-        <v>15.12035942077637</v>
+        <v>25.91341209411621</v>
       </c>
       <c r="G86" t="n">
-        <v>55.41596984863281</v>
+        <v>16.17534255981445</v>
       </c>
       <c r="H86" t="n">
-        <v>-36.06604766845703</v>
+        <v>-8.361274719238281</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8191749209719406</v>
+        <v>0.9193537912346919</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8781030545626074</v>
+        <v>0.3295308321412107</v>
       </c>
       <c r="C87" t="n">
-        <v>19.43898010253906</v>
+        <v>27.72453308105469</v>
       </c>
       <c r="D87" t="n">
-        <v>61.02170181274414</v>
+        <v>64.98908233642578</v>
       </c>
       <c r="E87" t="n">
-        <v>-47.21044158935547</v>
+        <v>-19.87265396118164</v>
       </c>
       <c r="F87" t="n">
-        <v>20.29417037963867</v>
+        <v>22.58455848693848</v>
       </c>
       <c r="G87" t="n">
-        <v>60.66436004638672</v>
+        <v>13.60260581970215</v>
       </c>
       <c r="H87" t="n">
-        <v>-30.82036399841309</v>
+        <v>-6.876288414001465</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9302771820694775</v>
+        <v>0.9829926254471079</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9536447529848788</v>
+        <v>0.3295308321412107</v>
       </c>
       <c r="C88" t="n">
-        <v>24.16088104248047</v>
+        <v>30.91840171813965</v>
       </c>
       <c r="D88" t="n">
-        <v>64.81352233886719</v>
+        <v>64.05881500244141</v>
       </c>
       <c r="E88" t="n">
-        <v>-36.97420883178711</v>
+        <v>-13.9411735534668</v>
       </c>
       <c r="F88" t="n">
-        <v>25.10704612731934</v>
+        <v>19.27619361877441</v>
       </c>
       <c r="G88" t="n">
-        <v>63.83548355102539</v>
+        <v>11.08352661132812</v>
       </c>
       <c r="H88" t="n">
-        <v>-24.07036399841309</v>
+        <v>-5.581372737884521</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9790886145021299</v>
+        <v>0.9974583153280088</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9867072843815002</v>
+        <v>2.206955702244537</v>
       </c>
       <c r="C89" t="n">
-        <v>28.3510856628418</v>
+        <v>33.4842643737793</v>
       </c>
       <c r="D89" t="n">
-        <v>66.02854919433594</v>
+        <v>60.67360687255859</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.90883255004883</v>
+        <v>-9.536018371582031</v>
       </c>
       <c r="F89" t="n">
-        <v>29.34376907348633</v>
+        <v>16.00875473022461</v>
       </c>
       <c r="G89" t="n">
-        <v>65.16720581054688</v>
+        <v>8.838447570800781</v>
       </c>
       <c r="H89" t="n">
-        <v>-18.35160255432129</v>
+        <v>-4.254605293273926</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9952688245383052</v>
+        <v>0.9997325653278346</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9972104228259503</v>
+        <v>0.5079737579138405</v>
       </c>
       <c r="C90" t="n">
-        <v>32.02002716064453</v>
+        <v>35.35297012329102</v>
       </c>
       <c r="D90" t="n">
-        <v>64.94963073730469</v>
+        <v>55.68979263305664</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.56951904296875</v>
+        <v>-6.8232421875</v>
       </c>
       <c r="F90" t="n">
-        <v>32.90457916259766</v>
+        <v>12.85235214233398</v>
       </c>
       <c r="G90" t="n">
-        <v>65.16720581054688</v>
+        <v>6.997616291046143</v>
       </c>
       <c r="H90" t="n">
-        <v>-12.31124401092529</v>
+        <v>-2.669815540313721</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9992294676376487</v>
+        <v>0.9999790112073635</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9995836478638251</v>
+        <v>1.117320392256654</v>
       </c>
       <c r="C91" t="n">
-        <v>34.77736282348633</v>
+        <v>36.60469818115234</v>
       </c>
       <c r="D91" t="n">
-        <v>61.63883209228516</v>
+        <v>49.32527923583984</v>
       </c>
       <c r="E91" t="n">
-        <v>-11.27632522583008</v>
+        <v>-5.78806209564209</v>
       </c>
       <c r="F91" t="n">
-        <v>35.52460861206055</v>
+        <v>9.799492835998535</v>
       </c>
       <c r="G91" t="n">
-        <v>61.53964233398438</v>
+        <v>5.628236770629883</v>
       </c>
       <c r="H91" t="n">
-        <v>-8.354511260986328</v>
+        <v>-0.6913310289382935</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999031483324936</v>
+        <v>0.9999986568152874</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9999525459565525</v>
+        <v>0.9912520200676608</v>
       </c>
       <c r="C92" t="n">
-        <v>36.72140502929688</v>
+        <v>36.60469818115234</v>
       </c>
       <c r="D92" t="n">
-        <v>56.64541244506836</v>
+        <v>41.96829986572266</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.120942115783691</v>
+        <v>-5.78806209564209</v>
       </c>
       <c r="F92" t="n">
-        <v>37.138427734375</v>
+        <v>6.907858848571777</v>
       </c>
       <c r="G92" t="n">
-        <v>57.62315368652344</v>
+        <v>5.628236770629883</v>
       </c>
       <c r="H92" t="n">
-        <v>-5.338022232055664</v>
+        <v>1.653627634048462</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9999900316333119</v>
+        <v>0.9999999211286833</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9999951971135275</v>
+        <v>0.9993250935627568</v>
       </c>
       <c r="C93" t="n">
-        <v>38.25749206542969</v>
+        <v>38.08759307861328</v>
       </c>
       <c r="D93" t="n">
-        <v>50.30321884155273</v>
+        <v>34.08810424804688</v>
       </c>
       <c r="E93" t="n">
-        <v>-3.705856084823608</v>
+        <v>-7.972145080566406</v>
       </c>
       <c r="F93" t="n">
-        <v>38.39761352539062</v>
+        <v>4.183329582214355</v>
       </c>
       <c r="G93" t="n">
-        <v>52.26937866210938</v>
+        <v>3.930498838424683</v>
       </c>
       <c r="H93" t="n">
-        <v>-3.034032821655273</v>
+        <v>4.452705860137939</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9999992004715909</v>
+        <v>0.9999999953410259</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9999996051607529</v>
+        <v>0.9998520247195875</v>
       </c>
       <c r="C94" t="n">
-        <v>39.53361511230469</v>
+        <v>38.07221603393555</v>
       </c>
       <c r="D94" t="n">
-        <v>42.90251922607422</v>
+        <v>26.41444778442383</v>
       </c>
       <c r="E94" t="n">
-        <v>-3.705856084823608</v>
+        <v>-9.652482032775879</v>
       </c>
       <c r="F94" t="n">
-        <v>39.56051635742188</v>
+        <v>1.710229158401489</v>
       </c>
       <c r="G94" t="n">
-        <v>46.23162078857422</v>
+        <v>4.174496650695801</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.8126696348190308</v>
+        <v>7.345316886901855</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9999999522331733</v>
+        <v>0.9999999997251584</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999999763879864</v>
+        <v>0.9999492888674694</v>
       </c>
       <c r="C95" t="n">
-        <v>40.77768707275391</v>
+        <v>38.07566452026367</v>
       </c>
       <c r="D95" t="n">
-        <v>35.35909652709961</v>
+        <v>19.49654960632324</v>
       </c>
       <c r="E95" t="n">
-        <v>-5.117697715759277</v>
+        <v>-11.23159408569336</v>
       </c>
       <c r="F95" t="n">
-        <v>40.72819900512695</v>
+        <v>-0.5828033685684204</v>
       </c>
       <c r="G95" t="n">
-        <v>40.05747604370117</v>
+        <v>4.834542274475098</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.8126696348190308</v>
+        <v>10.25007247924805</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9999999983120735</v>
+        <v>0.9999999999853396</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9999999991695416</v>
+        <v>0.9999766674678253</v>
       </c>
       <c r="C96" t="n">
-        <v>41.92487335205078</v>
+        <v>38.32325744628906</v>
       </c>
       <c r="D96" t="n">
-        <v>28.80960655212402</v>
+        <v>13.87966346740723</v>
       </c>
       <c r="E96" t="n">
-        <v>-8.754719734191895</v>
+        <v>-12.34577941894531</v>
       </c>
       <c r="F96" t="n">
-        <v>40.72819900512695</v>
+        <v>-2.740363121032715</v>
       </c>
       <c r="G96" t="n">
-        <v>34.25048828125</v>
+        <v>5.65027904510498</v>
       </c>
       <c r="H96" t="n">
-        <v>-1.068293333053589</v>
+        <v>12.76638603210449</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9999999999760543</v>
+        <v>0.999999999999364</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999999999827025</v>
+        <v>0.9999866429703174</v>
       </c>
       <c r="C97" t="n">
-        <v>41.92487335205078</v>
+        <v>38.75950622558594</v>
       </c>
       <c r="D97" t="n">
-        <v>22.68129730224609</v>
+        <v>9.772356033325195</v>
       </c>
       <c r="E97" t="n">
-        <v>-12.93891334533691</v>
+        <v>-12.34577941894531</v>
       </c>
       <c r="F97" t="n">
-        <v>42.57859039306641</v>
+        <v>-4.957626342773438</v>
       </c>
       <c r="G97" t="n">
-        <v>28.19345092773438</v>
+        <v>6.407660484313965</v>
       </c>
       <c r="H97" t="n">
-        <v>-4.17139720916748</v>
+        <v>14.99866580963135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999999999999177</v>
+        <v>0.9999999999999851</v>
       </c>
       <c r="B98" t="n">
-        <v>0.999999999999802</v>
+        <v>0.9999906636607716</v>
       </c>
       <c r="C98" t="n">
-        <v>43.60585403442383</v>
+        <v>39.63299560546875</v>
       </c>
       <c r="D98" t="n">
-        <v>18.08168792724609</v>
+        <v>7.469239711761475</v>
       </c>
       <c r="E98" t="n">
-        <v>-15.16245460510254</v>
+        <v>-13.84155368804932</v>
       </c>
       <c r="F98" t="n">
-        <v>43.02519989013672</v>
+        <v>-6.905019283294678</v>
       </c>
       <c r="G98" t="n">
-        <v>22.88224029541016</v>
+        <v>7.210894584655762</v>
       </c>
       <c r="H98" t="n">
-        <v>-6.218677043914795</v>
+        <v>16.54998779296875</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9999926038026764</v>
       </c>
       <c r="C99" t="n">
-        <v>43.74788284301758</v>
+        <v>40.30374526977539</v>
       </c>
       <c r="D99" t="n">
-        <v>14.36443710327148</v>
+        <v>7.469239711761475</v>
       </c>
       <c r="E99" t="n">
-        <v>-17.19387435913086</v>
+        <v>-13.7298641204834</v>
       </c>
       <c r="F99" t="n">
-        <v>43.01808166503906</v>
+        <v>-8.716865539550781</v>
       </c>
       <c r="G99" t="n">
-        <v>18.67455673217773</v>
+        <v>8.521645545959473</v>
       </c>
       <c r="H99" t="n">
-        <v>-6.218677043914795</v>
+        <v>16.54998779296875</v>
       </c>
     </row>
     <row r="100">
@@ -3028,25 +3028,25 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0.999993451865212</v>
       </c>
       <c r="C100" t="n">
-        <v>43.20934295654297</v>
+        <v>40.99121475219727</v>
       </c>
       <c r="D100" t="n">
-        <v>11.87741470336914</v>
+        <v>5.868996620178223</v>
       </c>
       <c r="E100" t="n">
-        <v>-18.8007640838623</v>
+        <v>-14.15157985687256</v>
       </c>
       <c r="F100" t="n">
-        <v>42.74211120605469</v>
+        <v>-10.31541633605957</v>
       </c>
       <c r="G100" t="n">
-        <v>16.02078628540039</v>
+        <v>11.12493324279785</v>
       </c>
       <c r="H100" t="n">
-        <v>-6.605629444122314</v>
+        <v>16.37671852111816</v>
       </c>
     </row>
     <row r="101">
@@ -3054,25 +3054,25 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0.9999936986674566</v>
       </c>
       <c r="C101" t="n">
-        <v>43.60932922363281</v>
+        <v>41.73520278930664</v>
       </c>
       <c r="D101" t="n">
-        <v>11.87741470336914</v>
+        <v>7.247481346130371</v>
       </c>
       <c r="E101" t="n">
-        <v>-20.45773887634277</v>
+        <v>-13.7272834777832</v>
       </c>
       <c r="F101" t="n">
-        <v>43.42916870117188</v>
+        <v>-11.36020278930664</v>
       </c>
       <c r="G101" t="n">
-        <v>16.02078628540039</v>
+        <v>12.99103450775146</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.717430114746094</v>
+        <v>13.25316047668457</v>
       </c>
     </row>
     <row r="102">
@@ -3080,25 +3080,25 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0.9999937642439234</v>
       </c>
       <c r="C102" t="n">
-        <v>42.69634628295898</v>
+        <v>42.7935905456543</v>
       </c>
       <c r="D102" t="n">
-        <v>10.66244697570801</v>
+        <v>8.034466743469238</v>
       </c>
       <c r="E102" t="n">
-        <v>-24.9468879699707</v>
+        <v>-13.99962520599365</v>
       </c>
       <c r="F102" t="n">
-        <v>42.50666046142578</v>
+        <v>-11.36020278930664</v>
       </c>
       <c r="G102" t="n">
-        <v>14.378737449646</v>
+        <v>15.77771759033203</v>
       </c>
       <c r="H102" t="n">
-        <v>-12.51201725006104</v>
+        <v>7.32036828994751</v>
       </c>
     </row>
     <row r="103">
@@ -3106,1221 +3106,1221 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9999940504850485</v>
       </c>
       <c r="C103" t="n">
-        <v>42.22769165039062</v>
+        <v>41.46556091308594</v>
       </c>
       <c r="D103" t="n">
-        <v>12.56859970092773</v>
+        <v>11.60074901580811</v>
       </c>
       <c r="E103" t="n">
-        <v>-23.63747024536133</v>
+        <v>-15.12425136566162</v>
       </c>
       <c r="F103" t="n">
-        <v>41.8295783996582</v>
+        <v>-3.132591962814331</v>
       </c>
       <c r="G103" t="n">
-        <v>16.00517845153809</v>
+        <v>21.84405517578125</v>
       </c>
       <c r="H103" t="n">
-        <v>-15.54851722717285</v>
+        <v>6.0253586769104</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.003151069828309119</v>
+        <v>0.01612975114956498</v>
       </c>
       <c r="B104" t="n">
-        <v>9.896209594444372e-05</v>
+        <v>-0.0028355877334252</v>
       </c>
       <c r="C104" t="n">
-        <v>43.48129653930664</v>
+        <v>41.46556091308594</v>
       </c>
       <c r="D104" t="n">
-        <v>15.50073146820068</v>
+        <v>11.60074901580811</v>
       </c>
       <c r="E104" t="n">
-        <v>-25.97509384155273</v>
+        <v>-18.27340507507324</v>
       </c>
       <c r="F104" t="n">
-        <v>42.01655197143555</v>
+        <v>0.5771383047103882</v>
       </c>
       <c r="G104" t="n">
-        <v>17.60453796386719</v>
+        <v>28.03172874450684</v>
       </c>
       <c r="H104" t="n">
-        <v>-19.03689002990723</v>
+        <v>3.781415462493896</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.02319229938089848</v>
+        <v>-0.01648490592837334</v>
       </c>
       <c r="B105" t="n">
-        <v>0.03449521258473397</v>
+        <v>0.03291920591145754</v>
       </c>
       <c r="C105" t="n">
-        <v>41.603515625</v>
+        <v>42.02334213256836</v>
       </c>
       <c r="D105" t="n">
-        <v>18.70306777954102</v>
+        <v>14.68903732299805</v>
       </c>
       <c r="E105" t="n">
-        <v>-25.97509384155273</v>
+        <v>-18.27340507507324</v>
       </c>
       <c r="F105" t="n">
-        <v>42.01655197143555</v>
+        <v>4.660055160522461</v>
       </c>
       <c r="G105" t="n">
-        <v>20.1848087310791</v>
+        <v>34.68854141235352</v>
       </c>
       <c r="H105" t="n">
-        <v>-19.03689002990723</v>
+        <v>-1.661468744277954</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.00490224339067936</v>
+        <v>0.002038695754017681</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02453733239322901</v>
+        <v>-0.09831037774682046</v>
       </c>
       <c r="C106" t="n">
-        <v>43.31721878051758</v>
+        <v>40.491943359375</v>
       </c>
       <c r="D106" t="n">
-        <v>21.32694435119629</v>
+        <v>16.58623504638672</v>
       </c>
       <c r="E106" t="n">
-        <v>-24.56923675537109</v>
+        <v>-18.92357063293457</v>
       </c>
       <c r="F106" t="n">
-        <v>40.36455535888672</v>
+        <v>8.57697868347168</v>
       </c>
       <c r="G106" t="n">
-        <v>21.66481399536133</v>
+        <v>41.02892303466797</v>
       </c>
       <c r="H106" t="n">
-        <v>-18.71827697753906</v>
+        <v>-7.669491767883301</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.02013983745127916</v>
+        <v>0.01142132017761469</v>
       </c>
       <c r="B107" t="n">
-        <v>0.04684364371001721</v>
+        <v>-0.2087730059027672</v>
       </c>
       <c r="C107" t="n">
-        <v>40.71714782714844</v>
+        <v>39.71625518798828</v>
       </c>
       <c r="D107" t="n">
-        <v>21.32694435119629</v>
+        <v>19.26513290405273</v>
       </c>
       <c r="E107" t="n">
-        <v>-20.59468460083008</v>
+        <v>-16.36970329284668</v>
       </c>
       <c r="F107" t="n">
-        <v>38.71967315673828</v>
+        <v>12.2414379119873</v>
       </c>
       <c r="G107" t="n">
-        <v>21.66481399536133</v>
+        <v>46.42680358886719</v>
       </c>
       <c r="H107" t="n">
-        <v>-16.24465179443359</v>
+        <v>-12.71399307250977</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.04516485944390297</v>
+        <v>0.02067465409636498</v>
       </c>
       <c r="B108" t="n">
-        <v>0.07231890678405763</v>
+        <v>-0.3092542564868927</v>
       </c>
       <c r="C108" t="n">
-        <v>38.50066757202148</v>
+        <v>38.95125579833984</v>
       </c>
       <c r="D108" t="n">
-        <v>22.88689422607422</v>
+        <v>22.22111511230469</v>
       </c>
       <c r="E108" t="n">
-        <v>-16.69727897644043</v>
+        <v>-13.84281921386719</v>
       </c>
       <c r="F108" t="n">
-        <v>36.44125366210938</v>
+        <v>15.65366172790527</v>
       </c>
       <c r="G108" t="n">
-        <v>21.79740905761719</v>
+        <v>50.79370880126953</v>
       </c>
       <c r="H108" t="n">
-        <v>-13.37628936767578</v>
+        <v>-15.83258152008057</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.07996456459164619</v>
+        <v>0.03549401611089707</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1047406794130802</v>
+        <v>-0.4023139756917954</v>
       </c>
       <c r="C109" t="n">
-        <v>36.32429504394531</v>
+        <v>37.72609710693359</v>
       </c>
       <c r="D109" t="n">
-        <v>21.38639259338379</v>
+        <v>24.4398136138916</v>
       </c>
       <c r="E109" t="n">
-        <v>-13.29479598999023</v>
+        <v>-10.42441177368164</v>
       </c>
       <c r="F109" t="n">
-        <v>34.54112243652344</v>
+        <v>18.8292236328125</v>
       </c>
       <c r="G109" t="n">
-        <v>20.98710823059082</v>
+        <v>54.19841766357422</v>
       </c>
       <c r="H109" t="n">
-        <v>-9.923155784606934</v>
+        <v>-15.83258152008057</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.1027645064890385</v>
+        <v>0.05673280082643033</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1216850212216377</v>
+        <v>-0.4888628059625626</v>
       </c>
       <c r="C110" t="n">
-        <v>33.99298477172852</v>
+        <v>34.8137092590332</v>
       </c>
       <c r="D110" t="n">
-        <v>19.39187622070312</v>
+        <v>24.4398136138916</v>
       </c>
       <c r="E110" t="n">
-        <v>-10.21983814239502</v>
+        <v>-6.791374206542969</v>
       </c>
       <c r="F110" t="n">
-        <v>32.58694458007812</v>
+        <v>21.81317520141602</v>
       </c>
       <c r="G110" t="n">
-        <v>20.43890380859375</v>
+        <v>56.48352813720703</v>
       </c>
       <c r="H110" t="n">
-        <v>-6.692444801330566</v>
+        <v>-15.07556629180908</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.1292998230457306</v>
+        <v>0.0847109603881836</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1440446236729622</v>
+        <v>-0.5710955893993378</v>
       </c>
       <c r="C111" t="n">
-        <v>31.74396896362305</v>
+        <v>32.9042854309082</v>
       </c>
       <c r="D111" t="n">
-        <v>17.67445182800293</v>
+        <v>24.24882316589355</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.464065551757812</v>
+        <v>-3.552837133407593</v>
       </c>
       <c r="F111" t="n">
-        <v>30.57875442504883</v>
+        <v>24.62753868103027</v>
       </c>
       <c r="G111" t="n">
-        <v>19.72258567810059</v>
+        <v>56.48352813720703</v>
       </c>
       <c r="H111" t="n">
-        <v>-4.587464332580566</v>
+        <v>-11.31393623352051</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1524248623847962</v>
+        <v>0.1169141981005669</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1670053136348724</v>
+        <v>-0.6489826309680939</v>
       </c>
       <c r="C112" t="n">
-        <v>29.57883453369141</v>
+        <v>30.54374504089355</v>
       </c>
       <c r="D112" t="n">
-        <v>16.62461280822754</v>
+        <v>21.70210838317871</v>
       </c>
       <c r="E112" t="n">
-        <v>-5.087213516235352</v>
+        <v>-0.957771897315979</v>
       </c>
       <c r="F112" t="n">
-        <v>28.45305442810059</v>
+        <v>27.30920028686523</v>
       </c>
       <c r="G112" t="n">
-        <v>18.92438507080078</v>
+        <v>56.83946990966797</v>
       </c>
       <c r="H112" t="n">
-        <v>-3.020299434661865</v>
+        <v>-6.643388271331787</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1746377587318421</v>
+        <v>0.1509236046671867</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1919812855124474</v>
+        <v>-0.7240479493141174</v>
       </c>
       <c r="C113" t="n">
-        <v>27.58273315429688</v>
+        <v>27.99365997314453</v>
       </c>
       <c r="D113" t="n">
-        <v>15.59296131134033</v>
+        <v>18.7855396270752</v>
       </c>
       <c r="E113" t="n">
-        <v>-3.727036237716675</v>
+        <v>0.9762143492698669</v>
       </c>
       <c r="F113" t="n">
-        <v>26.28993034362793</v>
+        <v>29.83989715576172</v>
       </c>
       <c r="G113" t="n">
-        <v>17.61234855651855</v>
+        <v>54.11428070068359</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.535142302513123</v>
+        <v>-2.042660713195801</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1941377136111259</v>
+        <v>0.184061841070652</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2164822790026665</v>
+        <v>-0.7941296195983887</v>
       </c>
       <c r="C114" t="n">
-        <v>25.457763671875</v>
+        <v>25.36096572875977</v>
       </c>
       <c r="D114" t="n">
-        <v>14.18078231811523</v>
+        <v>16.07419204711914</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.558164238929749</v>
+        <v>2.388094186782837</v>
       </c>
       <c r="F114" t="n">
-        <v>23.82207107543945</v>
+        <v>32.17462921142578</v>
       </c>
       <c r="G114" t="n">
-        <v>14.64066314697266</v>
+        <v>50.18079376220703</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.1995988488197327</v>
+        <v>1.702727556228638</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2181925550103188</v>
+        <v>0.2169057807326317</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2473524940013886</v>
+        <v>-0.8571150612831117</v>
       </c>
       <c r="C115" t="n">
-        <v>23.23500633239746</v>
+        <v>22.65623092651367</v>
       </c>
       <c r="D115" t="n">
-        <v>13.25937271118164</v>
+        <v>13.67120933532715</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.1060596108436584</v>
+        <v>3.401534557342529</v>
       </c>
       <c r="F115" t="n">
-        <v>21.33797073364258</v>
+        <v>34.19294738769531</v>
       </c>
       <c r="G115" t="n">
-        <v>13.35419464111328</v>
+        <v>45.29682159423828</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9304400682449341</v>
+        <v>4.41651725769043</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.2429593032598496</v>
+        <v>0.2504932966828347</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2751913672685623</v>
+        <v>-0.9072350978851319</v>
       </c>
       <c r="C116" t="n">
-        <v>20.8612060546875</v>
+        <v>19.81036376953125</v>
       </c>
       <c r="D116" t="n">
-        <v>12.09787750244141</v>
+        <v>11.49317741394043</v>
       </c>
       <c r="E116" t="n">
-        <v>2.417293548583984</v>
+        <v>3.401534557342529</v>
       </c>
       <c r="F116" t="n">
-        <v>18.81510925292969</v>
+        <v>35.82781982421875</v>
       </c>
       <c r="G116" t="n">
-        <v>12.17774772644043</v>
+        <v>39.69083023071289</v>
       </c>
       <c r="H116" t="n">
-        <v>2.044698715209961</v>
+        <v>6.14527416229248</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2699065357446671</v>
+        <v>0.2866236710548401</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3037125945091247</v>
+        <v>-0.9440890359878541</v>
       </c>
       <c r="C117" t="n">
-        <v>18.40747261047363</v>
+        <v>16.78336143493652</v>
       </c>
       <c r="D117" t="n">
-        <v>11.54430103302002</v>
+        <v>9.530630111694336</v>
       </c>
       <c r="E117" t="n">
-        <v>4.757246971130371</v>
+        <v>5.037084102630615</v>
       </c>
       <c r="F117" t="n">
-        <v>16.33107566833496</v>
+        <v>37.11166000366211</v>
       </c>
       <c r="G117" t="n">
-        <v>10.89815902709961</v>
+        <v>33.65279769897461</v>
       </c>
       <c r="H117" t="n">
-        <v>3.821363687515259</v>
+        <v>6.14527416229248</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.2969479078054428</v>
+        <v>0.3254288887977601</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3309376019239426</v>
+        <v>-0.9715595960617066</v>
       </c>
       <c r="C118" t="n">
-        <v>15.92708969116211</v>
+        <v>13.67856502532959</v>
       </c>
       <c r="D118" t="n">
-        <v>10.02032852172852</v>
+        <v>7.855926036834717</v>
       </c>
       <c r="E118" t="n">
-        <v>7.108388423919678</v>
+        <v>7.371996879577637</v>
       </c>
       <c r="F118" t="n">
-        <v>13.87949275970459</v>
+        <v>38.11592483520508</v>
       </c>
       <c r="G118" t="n">
-        <v>9.535247802734375</v>
+        <v>27.54465293884277</v>
       </c>
       <c r="H118" t="n">
-        <v>5.107483863830566</v>
+        <v>7.802265644073486</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.3237050288915634</v>
+        <v>0.3639250886440277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3578723245859146</v>
+        <v>-0.9929012274742127</v>
       </c>
       <c r="C119" t="n">
-        <v>13.60086059570312</v>
+        <v>10.71459674835205</v>
       </c>
       <c r="D119" t="n">
-        <v>8.482270240783691</v>
+        <v>6.542372703552246</v>
       </c>
       <c r="E119" t="n">
-        <v>9.254783630371094</v>
+        <v>9.123817443847656</v>
       </c>
       <c r="F119" t="n">
-        <v>11.52425003051758</v>
+        <v>38.11592483520508</v>
       </c>
       <c r="G119" t="n">
-        <v>8.277450561523438</v>
+        <v>21.70741271972656</v>
       </c>
       <c r="H119" t="n">
-        <v>5.107483863830566</v>
+        <v>7.076368808746338</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.3468872153759003</v>
+        <v>0.3980733984708786</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3830230706930161</v>
+        <v>-1.00974728345871</v>
       </c>
       <c r="C120" t="n">
-        <v>11.47032165527344</v>
+        <v>8.000611305236816</v>
       </c>
       <c r="D120" t="n">
-        <v>7.266470909118652</v>
+        <v>6.542372703552246</v>
       </c>
       <c r="E120" t="n">
-        <v>9.254783630371094</v>
+        <v>11.38277626037598</v>
       </c>
       <c r="F120" t="n">
-        <v>9.307037353515625</v>
+        <v>39.69222259521484</v>
       </c>
       <c r="G120" t="n">
-        <v>8.277450561523438</v>
+        <v>16.43255996704102</v>
       </c>
       <c r="H120" t="n">
-        <v>8.229151725769043</v>
+        <v>5.858414173126221</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.3675375211238861</v>
+        <v>0.4278777039051056</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4061727505922318</v>
+        <v>-1.021793547868729</v>
       </c>
       <c r="C121" t="n">
-        <v>9.62592601776123</v>
+        <v>5.609488487243652</v>
       </c>
       <c r="D121" t="n">
-        <v>6.384390830993652</v>
+        <v>4.778243064880371</v>
       </c>
       <c r="E121" t="n">
-        <v>12.8864107131958</v>
+        <v>13.76279354095459</v>
       </c>
       <c r="F121" t="n">
-        <v>7.390145301818848</v>
+        <v>40.10127258300781</v>
       </c>
       <c r="G121" t="n">
-        <v>6.495800971984863</v>
+        <v>11.9479866027832</v>
       </c>
       <c r="H121" t="n">
-        <v>9.996264457702637</v>
+        <v>4.357669353485107</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.3841684460639954</v>
+        <v>0.4528951066732407</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4241717636585236</v>
+        <v>-1.029656034708023</v>
       </c>
       <c r="C122" t="n">
-        <v>7.886015892028809</v>
+        <v>3.515583038330078</v>
       </c>
       <c r="D122" t="n">
-        <v>6.663397789001465</v>
+        <v>4.743645668029785</v>
       </c>
       <c r="E122" t="n">
-        <v>12.8864107131958</v>
+        <v>16.16552925109863</v>
       </c>
       <c r="F122" t="n">
-        <v>5.695047378540039</v>
+        <v>40.36825561523438</v>
       </c>
       <c r="G122" t="n">
-        <v>6.455851554870605</v>
+        <v>8.419950485229492</v>
       </c>
       <c r="H122" t="n">
-        <v>11.96082496643066</v>
+        <v>3.036189794540405</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4016230607032776</v>
+        <v>0.4746276068687439</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4405755531787873</v>
+        <v>-1.034835922718048</v>
       </c>
       <c r="C123" t="n">
-        <v>6.206918716430664</v>
+        <v>1.698852896690369</v>
       </c>
       <c r="D123" t="n">
-        <v>6.299914360046387</v>
+        <v>5.228512763977051</v>
       </c>
       <c r="E123" t="n">
-        <v>14.5792350769043</v>
+        <v>18.41454315185547</v>
       </c>
       <c r="F123" t="n">
-        <v>4.278822898864746</v>
+        <v>40.54414749145508</v>
       </c>
       <c r="G123" t="n">
-        <v>6.351458549499512</v>
+        <v>5.912686824798584</v>
       </c>
       <c r="H123" t="n">
-        <v>13.20945739746094</v>
+        <v>1.84032130241394</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4188947349786759</v>
+        <v>0.4932498681545258</v>
       </c>
       <c r="B124" t="n">
-        <v>0.4532388740777969</v>
+        <v>-1.039400870800018</v>
       </c>
       <c r="C124" t="n">
-        <v>4.593225955963135</v>
+        <v>0.1776452660560608</v>
       </c>
       <c r="D124" t="n">
-        <v>6.272696495056152</v>
+        <v>6.265397071838379</v>
       </c>
       <c r="E124" t="n">
-        <v>15.96053123474121</v>
+        <v>20.10425186157227</v>
       </c>
       <c r="F124" t="n">
-        <v>2.986987352371216</v>
+        <v>40.69915771484375</v>
       </c>
       <c r="G124" t="n">
-        <v>6.453780174255371</v>
+        <v>4.369498252868652</v>
       </c>
       <c r="H124" t="n">
-        <v>15.23465728759766</v>
+        <v>0.649181067943573</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4354193264245987</v>
+        <v>0.5080755877494813</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4662372750043869</v>
+        <v>-1.044893883466721</v>
       </c>
       <c r="C125" t="n">
-        <v>3.010401248931885</v>
+        <v>-0.9986509084701538</v>
       </c>
       <c r="D125" t="n">
-        <v>6.782084465026855</v>
+        <v>9.205101013183594</v>
       </c>
       <c r="E125" t="n">
-        <v>16.50588989257812</v>
+        <v>20.10425186157227</v>
       </c>
       <c r="F125" t="n">
-        <v>1.834422469139099</v>
+        <v>40.88568115234375</v>
       </c>
       <c r="G125" t="n">
-        <v>7.310261726379395</v>
+        <v>4.369498252868652</v>
       </c>
       <c r="H125" t="n">
-        <v>17.4661750793457</v>
+        <v>-2.133035182952881</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.451983090043068</v>
+        <v>0.518131874203682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4775193345546723</v>
+        <v>-1.05577578663826</v>
       </c>
       <c r="C126" t="n">
-        <v>1.295838952064514</v>
+        <v>-0.9986509084701538</v>
       </c>
       <c r="D126" t="n">
-        <v>7.365344047546387</v>
+        <v>11.57503223419189</v>
       </c>
       <c r="E126" t="n">
-        <v>17.4697151184082</v>
+        <v>19.77433776855469</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7229532599449158</v>
+        <v>41.25519180297852</v>
       </c>
       <c r="G126" t="n">
-        <v>8.291707038879395</v>
+        <v>3.14143443107605</v>
       </c>
       <c r="H126" t="n">
-        <v>19.42986679077148</v>
+        <v>-4.64940071105957</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4716883671283722</v>
+        <v>0.5230066615343094</v>
       </c>
       <c r="B127" t="n">
-        <v>0.489436931014061</v>
+        <v>-1.06887767791748</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.2820890545845032</v>
+        <v>-2.577958345413208</v>
       </c>
       <c r="D127" t="n">
-        <v>7.662777900695801</v>
+        <v>14.90410041809082</v>
       </c>
       <c r="E127" t="n">
-        <v>17.75860786437988</v>
+        <v>15.77599143981934</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.2872186005115509</v>
+        <v>41.70008850097656</v>
       </c>
       <c r="G127" t="n">
-        <v>9.467225074768066</v>
+        <v>5.484955787658691</v>
       </c>
       <c r="H127" t="n">
-        <v>20.54286003112793</v>
+        <v>-8.25468635559082</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4870709949731827</v>
+        <v>0.5210882991552354</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4995563668012619</v>
+        <v>-1.080582196712494</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.523191928863525</v>
+        <v>-2.419362306594849</v>
       </c>
       <c r="D128" t="n">
-        <v>8.502823829650879</v>
+        <v>19.0443115234375</v>
       </c>
       <c r="E128" t="n">
-        <v>15.28122901916504</v>
+        <v>8.625921249389648</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.2872186005115509</v>
+        <v>42.09753036499023</v>
       </c>
       <c r="G128" t="n">
-        <v>12.2902946472168</v>
+        <v>7.556998252868652</v>
       </c>
       <c r="H128" t="n">
-        <v>20.54286003112793</v>
+        <v>-12.4707498550415</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4967221969366074</v>
+        <v>0.5125332230329513</v>
       </c>
       <c r="B129" t="n">
-        <v>0.5096121793985368</v>
+        <v>-1.086826367378235</v>
       </c>
       <c r="C129" t="n">
-        <v>-2.616274833679199</v>
+        <v>-1.712090730667114</v>
       </c>
       <c r="D129" t="n">
-        <v>11.14236640930176</v>
+        <v>23.85091590881348</v>
       </c>
       <c r="E129" t="n">
-        <v>13.23876762390137</v>
+        <v>-1.190619945526123</v>
       </c>
       <c r="F129" t="n">
-        <v>-2.200548648834229</v>
+        <v>42.30956268310547</v>
       </c>
       <c r="G129" t="n">
-        <v>13.98586273193359</v>
+        <v>10.51924419403076</v>
       </c>
       <c r="H129" t="n">
-        <v>19.84357261657715</v>
+        <v>-16.41592025756836</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.5068087154626847</v>
+        <v>0.4979644602537155</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5178944718837738</v>
+        <v>-1.086057834625244</v>
       </c>
       <c r="C130" t="n">
-        <v>-2.616274833679199</v>
+        <v>-0.5076477527618408</v>
       </c>
       <c r="D130" t="n">
-        <v>12.88473129272461</v>
+        <v>29.22445678710938</v>
       </c>
       <c r="E130" t="n">
-        <v>8.304069519042969</v>
+        <v>-12.09342193603516</v>
       </c>
       <c r="F130" t="n">
-        <v>-2.944418430328369</v>
+        <v>42.28346633911133</v>
       </c>
       <c r="G130" t="n">
-        <v>16.27382278442383</v>
+        <v>14.01902008056641</v>
       </c>
       <c r="H130" t="n">
-        <v>16.80036735534668</v>
+        <v>-19.35499382019043</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.5110091412067413</v>
+        <v>0.4767003202438355</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5235158997774124</v>
+        <v>-1.073012363910675</v>
       </c>
       <c r="C131" t="n">
-        <v>-4.102921962738037</v>
+        <v>2.478832006454468</v>
       </c>
       <c r="D131" t="n">
-        <v>15.25566005706787</v>
+        <v>35.08519744873047</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5798029899597168</v>
+        <v>-22.56053733825684</v>
       </c>
       <c r="F131" t="n">
-        <v>-3.449305057525635</v>
+        <v>41.84048843383789</v>
       </c>
       <c r="G131" t="n">
-        <v>19.05064964294434</v>
+        <v>17.44348526000977</v>
       </c>
       <c r="H131" t="n">
-        <v>10.21493148803711</v>
+        <v>-20.93960571289062</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.5094743502140046</v>
+        <v>0.4469804561138153</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5211732459068299</v>
+        <v>-1.041956412792206</v>
       </c>
       <c r="C132" t="n">
-        <v>-3.95911717414856</v>
+        <v>4.688828468322754</v>
       </c>
       <c r="D132" t="n">
-        <v>18.83040809631348</v>
+        <v>41.24366760253906</v>
       </c>
       <c r="E132" t="n">
-        <v>-10.64591217041016</v>
+        <v>-31.51101684570312</v>
       </c>
       <c r="F132" t="n">
-        <v>-3.238903522491455</v>
+        <v>40.78593444824219</v>
       </c>
       <c r="G132" t="n">
-        <v>22.83621978759766</v>
+        <v>20.10491180419922</v>
       </c>
       <c r="H132" t="n">
-        <v>0.5911340713500977</v>
+        <v>-20.93960571289062</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4940137887001038</v>
+        <v>0.4083766907453537</v>
       </c>
       <c r="B133" t="n">
-        <v>0.507327651977539</v>
+        <v>-0.9844310033321381</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.138635873794556</v>
+        <v>7.726558208465576</v>
       </c>
       <c r="D133" t="n">
-        <v>23.78956604003906</v>
+        <v>47.42527008056641</v>
       </c>
       <c r="E133" t="n">
-        <v>-24.66415214538574</v>
+        <v>-37.97147750854492</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.6887297630310059</v>
+        <v>37.45647430419922</v>
       </c>
       <c r="G133" t="n">
-        <v>27.75306701660156</v>
+        <v>21.59666442871094</v>
       </c>
       <c r="H133" t="n">
-        <v>-10.69301986694336</v>
+        <v>-18.97503280639648</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4647299045324326</v>
+        <v>0.3616205960512162</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4782313835620881</v>
+        <v>-0.9033806824684143</v>
       </c>
       <c r="C134" t="n">
-        <v>1.398111581802368</v>
+        <v>11.41685199737549</v>
       </c>
       <c r="D134" t="n">
-        <v>30.13359069824219</v>
+        <v>53.26378631591797</v>
       </c>
       <c r="E134" t="n">
-        <v>-41.43835830688477</v>
+        <v>-40.64276885986328</v>
       </c>
       <c r="F134" t="n">
-        <v>1.946361541748047</v>
+        <v>35.11973190307617</v>
       </c>
       <c r="G134" t="n">
-        <v>33.94058227539062</v>
+        <v>21.59666442871094</v>
       </c>
       <c r="H134" t="n">
-        <v>-22.9373893737793</v>
+        <v>-16.0805549621582</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4252233153581619</v>
+        <v>0.3090899229049683</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4341010880470276</v>
+        <v>1.294135654212804</v>
       </c>
       <c r="C135" t="n">
-        <v>4.879764080047607</v>
+        <v>15.53220558166504</v>
       </c>
       <c r="D135" t="n">
-        <v>37.65313720703125</v>
+        <v>58.3363151550293</v>
       </c>
       <c r="E135" t="n">
-        <v>-54.05397796630859</v>
+        <v>-38.88288879394531</v>
       </c>
       <c r="F135" t="n">
-        <v>5.565589427947998</v>
+        <v>32.19134521484375</v>
       </c>
       <c r="G135" t="n">
-        <v>40.88645172119141</v>
+        <v>21.07339477539062</v>
       </c>
       <c r="H135" t="n">
-        <v>-33.39131927490234</v>
+        <v>-12.91156196594238</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.3779794323444366</v>
+        <v>0.2541696840524674</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5912213024255939</v>
+        <v>-0.2088643297392853</v>
       </c>
       <c r="C136" t="n">
-        <v>9.669811248779297</v>
+        <v>19.78259086608887</v>
       </c>
       <c r="D136" t="n">
-        <v>46.40048980712891</v>
+        <v>62.13881683349609</v>
       </c>
       <c r="E136" t="n">
-        <v>-58.76420593261719</v>
+        <v>-33.50457763671875</v>
       </c>
       <c r="F136" t="n">
-        <v>10.27084064483643</v>
+        <v>28.98895835876465</v>
       </c>
       <c r="G136" t="n">
-        <v>48.47552490234375</v>
+        <v>19.15156364440918</v>
       </c>
       <c r="H136" t="n">
-        <v>-36.71508026123047</v>
+        <v>-10.17577362060547</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.6327827223170376</v>
+        <v>0.7169725353833281</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7544499436918197</v>
+        <v>1.679340935415969</v>
       </c>
       <c r="C137" t="n">
-        <v>15.02367973327637</v>
+        <v>23.89389038085938</v>
       </c>
       <c r="D137" t="n">
-        <v>54.66971588134766</v>
+        <v>64.21279907226562</v>
       </c>
       <c r="E137" t="n">
-        <v>-54.67276000976562</v>
+        <v>-26.50727844238281</v>
       </c>
       <c r="F137" t="n">
-        <v>15.46271705627441</v>
+        <v>25.71643447875977</v>
       </c>
       <c r="G137" t="n">
-        <v>55.04600524902344</v>
+        <v>16.62158966064453</v>
       </c>
       <c r="H137" t="n">
-        <v>-36.71508026123047</v>
+        <v>-8.096136093139648</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.8269690502380547</v>
+        <v>0.9182548153933086</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8817921757575189</v>
+        <v>0.3529681888431412</v>
       </c>
       <c r="C138" t="n">
-        <v>20.12005233764648</v>
+        <v>27.62858200073242</v>
       </c>
       <c r="D138" t="n">
-        <v>61.01948928833008</v>
+        <v>64.21279907226562</v>
       </c>
       <c r="E138" t="n">
-        <v>-45.90336227416992</v>
+        <v>-19.53659820556641</v>
       </c>
       <c r="F138" t="n">
-        <v>20.6462516784668</v>
+        <v>22.47675895690918</v>
       </c>
       <c r="G138" t="n">
-        <v>60.11408996582031</v>
+        <v>13.89817237854004</v>
       </c>
       <c r="H138" t="n">
-        <v>-29.91279792785645</v>
+        <v>-6.5572509765625</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9353292295547543</v>
+        <v>0.9826549163519995</v>
       </c>
       <c r="B139" t="n">
-        <v>0.95594611832086</v>
+        <v>0.3529681888431412</v>
       </c>
       <c r="C139" t="n">
-        <v>24.72019958496094</v>
+        <v>30.85966682434082</v>
       </c>
       <c r="D139" t="n">
-        <v>64.69387817382812</v>
+        <v>62.67081451416016</v>
       </c>
       <c r="E139" t="n">
-        <v>-35.67534637451172</v>
+        <v>-13.7191104888916</v>
       </c>
       <c r="F139" t="n">
-        <v>25.4993839263916</v>
+        <v>19.28988075256348</v>
       </c>
       <c r="G139" t="n">
-        <v>63.07507705688477</v>
+        <v>11.33508682250977</v>
       </c>
       <c r="H139" t="n">
-        <v>-23.44895172119141</v>
+        <v>-5.268168926239014</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9811736770470945</v>
+        <v>0.9973993277250377</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9877675701833638</v>
+        <v>2.173091585384493</v>
       </c>
       <c r="C140" t="n">
-        <v>28.76011276245117</v>
+        <v>33.47751617431641</v>
       </c>
       <c r="D140" t="n">
-        <v>65.73916625976562</v>
+        <v>59.23347091674805</v>
       </c>
       <c r="E140" t="n">
-        <v>-26.7292423248291</v>
+        <v>-9.417099952697754</v>
       </c>
       <c r="F140" t="n">
-        <v>29.81426239013672</v>
+        <v>16.13715744018555</v>
       </c>
       <c r="G140" t="n">
-        <v>64.14923858642578</v>
+        <v>9.127918243408203</v>
       </c>
       <c r="H140" t="n">
-        <v>-17.8873119354248</v>
+        <v>-3.974501609802246</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.995838657534677</v>
+        <v>0.9997290435246204</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9975739195303603</v>
+        <v>0.5059317170149993</v>
       </c>
       <c r="C141" t="n">
-        <v>32.20557403564453</v>
+        <v>35.4063720703125</v>
       </c>
       <c r="D141" t="n">
-        <v>64.49403381347656</v>
+        <v>54.33474349975586</v>
       </c>
       <c r="E141" t="n">
-        <v>-17.56694030761719</v>
+        <v>-6.744184494018555</v>
       </c>
       <c r="F141" t="n">
-        <v>33.38860321044922</v>
+        <v>13.02557373046875</v>
       </c>
       <c r="G141" t="n">
-        <v>64.14923858642578</v>
+        <v>7.348897457122803</v>
       </c>
       <c r="H141" t="n">
-        <v>-11.99743843078613</v>
+        <v>-2.433847188949585</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9993190937766384</v>
+        <v>0.999979436977948</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9996632590357694</v>
+        <v>1.123793163378778</v>
       </c>
       <c r="C142" t="n">
-        <v>34.87150955200195</v>
+        <v>36.67813110351562</v>
       </c>
       <c r="D142" t="n">
-        <v>61.08729553222656</v>
+        <v>48.16090393066406</v>
       </c>
       <c r="E142" t="n">
-        <v>-10.44540405273438</v>
+        <v>-5.67393684387207</v>
       </c>
       <c r="F142" t="n">
-        <v>36.04245758056641</v>
+        <v>9.946246147155762</v>
       </c>
       <c r="G142" t="n">
-        <v>60.20058441162109</v>
+        <v>6.015490531921387</v>
       </c>
       <c r="H142" t="n">
-        <v>-8.103312492370605</v>
+        <v>-0.4959189891815186</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999144515040362</v>
+        <v>0.9999987279214075</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9999655223110979</v>
+        <v>0.9899419914486858</v>
       </c>
       <c r="C143" t="n">
-        <v>36.73451995849609</v>
+        <v>36.67813110351562</v>
       </c>
       <c r="D143" t="n">
-        <v>56.06217956542969</v>
+        <v>41.0373649597168</v>
       </c>
       <c r="E143" t="n">
-        <v>-6.430471420288086</v>
+        <v>-5.67393684387207</v>
       </c>
       <c r="F143" t="n">
-        <v>37.64862823486328</v>
+        <v>6.993773460388184</v>
       </c>
       <c r="G143" t="n">
-        <v>56.46908187866211</v>
+        <v>6.015490531921387</v>
       </c>
       <c r="H143" t="n">
-        <v>-5.198015213012695</v>
+        <v>1.820887923240662</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999910779995148</v>
+        <v>0.99999992491916</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9999968744631789</v>
+        <v>0.9992380391196745</v>
       </c>
       <c r="C144" t="n">
-        <v>38.19549942016602</v>
+        <v>38.07433700561523</v>
       </c>
       <c r="D144" t="n">
-        <v>49.83608245849609</v>
+        <v>33.38933563232422</v>
       </c>
       <c r="E144" t="n">
-        <v>-3.147399663925171</v>
+        <v>-7.631378173828125</v>
       </c>
       <c r="F144" t="n">
-        <v>38.73265838623047</v>
+        <v>4.230281829833984</v>
       </c>
       <c r="G144" t="n">
-        <v>51.33500671386719</v>
+        <v>4.343070030212402</v>
       </c>
       <c r="H144" t="n">
-        <v>-2.939085245132446</v>
+        <v>4.585790634155273</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.999999259765468</v>
+        <v>0.9999999953512507</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9999997535513986</v>
+        <v>0.9998332760472413</v>
       </c>
       <c r="C145" t="n">
-        <v>39.43979644775391</v>
+        <v>37.94751358032227</v>
       </c>
       <c r="D145" t="n">
-        <v>42.64437866210938</v>
+        <v>25.91696548461914</v>
       </c>
       <c r="E145" t="n">
-        <v>-3.147399663925171</v>
+        <v>-9.251605987548828</v>
       </c>
       <c r="F145" t="n">
-        <v>38.73265838623047</v>
+        <v>1.791569471359253</v>
       </c>
       <c r="G145" t="n">
-        <v>45.53823089599609</v>
+        <v>4.610440254211426</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.7819631099700928</v>
+        <v>7.432729244232178</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999999539027015</v>
+        <v>0.9999999996980012</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999999845918509</v>
+        <v>0.9999439358047331</v>
       </c>
       <c r="C146" t="n">
-        <v>40.74606323242188</v>
+        <v>37.81401062011719</v>
       </c>
       <c r="D146" t="n">
-        <v>35.28014755249023</v>
+        <v>19.11928558349609</v>
       </c>
       <c r="E146" t="n">
-        <v>-4.625091075897217</v>
+        <v>-10.78799057006836</v>
       </c>
       <c r="F146" t="n">
-        <v>40.59398651123047</v>
+        <v>-0.4578884840011597</v>
       </c>
       <c r="G146" t="n">
-        <v>39.50780868530273</v>
+        <v>5.409157752990723</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.7819631099700928</v>
+        <v>10.34439754486084</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999999983994513</v>
+        <v>0.9999999999828382</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9999999993916959</v>
+        <v>0.999974729366402</v>
       </c>
       <c r="C147" t="n">
-        <v>41.92453765869141</v>
+        <v>38.17050170898438</v>
       </c>
       <c r="D147" t="n">
-        <v>28.90151214599609</v>
+        <v>13.55759048461914</v>
       </c>
       <c r="E147" t="n">
-        <v>-8.201132774353027</v>
+        <v>-11.87271690368652</v>
       </c>
       <c r="F147" t="n">
-        <v>41.6907958984375</v>
+        <v>-2.529085874557495</v>
       </c>
       <c r="G147" t="n">
-        <v>33.84822845458984</v>
+        <v>6.370671272277832</v>
       </c>
       <c r="H147" t="n">
-        <v>-0.9429757595062256</v>
+        <v>12.87745761871338</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999999999782917</v>
+        <v>0.9999999999992699</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9999999999833957</v>
+        <v>0.9999859514115176</v>
       </c>
       <c r="C148" t="n">
-        <v>41.92453765869141</v>
+        <v>38.79638671875</v>
       </c>
       <c r="D148" t="n">
-        <v>23.00738143920898</v>
+        <v>9.405206680297852</v>
       </c>
       <c r="E148" t="n">
-        <v>-12.44571685791016</v>
+        <v>-11.87271690368652</v>
       </c>
       <c r="F148" t="n">
-        <v>42.27074813842773</v>
+        <v>-4.700086116790771</v>
       </c>
       <c r="G148" t="n">
-        <v>28.0054817199707</v>
+        <v>7.293545722961426</v>
       </c>
       <c r="H148" t="n">
-        <v>-4.085970401763916</v>
+        <v>15.19128227233887</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.000000000000054</v>
+        <v>0.9999999999999882</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999999999997385</v>
+        <v>0.9999904174235986</v>
       </c>
       <c r="C149" t="n">
-        <v>43.89943313598633</v>
+        <v>39.95708084106445</v>
       </c>
       <c r="D149" t="n">
-        <v>18.55798530578613</v>
+        <v>7.12483549118042</v>
       </c>
       <c r="E149" t="n">
-        <v>-14.32105922698975</v>
+        <v>-13.4284200668335</v>
       </c>
       <c r="F149" t="n">
-        <v>42.82047653198242</v>
+        <v>-6.520092010498047</v>
       </c>
       <c r="G149" t="n">
-        <v>22.84698486328125</v>
+        <v>8.100998878479004</v>
       </c>
       <c r="H149" t="n">
-        <v>-6.038295745849609</v>
+        <v>16.66510391235352</v>
       </c>
     </row>
     <row r="150">
@@ -4328,25 +4328,25 @@
         <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999999999999949</v>
+        <v>0.9999926815189655</v>
       </c>
       <c r="C150" t="n">
-        <v>43.81055068969727</v>
+        <v>40.66362380981445</v>
       </c>
       <c r="D150" t="n">
-        <v>14.9194450378418</v>
+        <v>7.12483549118042</v>
       </c>
       <c r="E150" t="n">
-        <v>-16.33370971679688</v>
+        <v>-13.25907039642334</v>
       </c>
       <c r="F150" t="n">
-        <v>42.64412689208984</v>
+        <v>-8.323013305664062</v>
       </c>
       <c r="G150" t="n">
-        <v>18.83858299255371</v>
+        <v>9.455206871032715</v>
       </c>
       <c r="H150" t="n">
-        <v>-6.038295745849609</v>
+        <v>16.66510391235352</v>
       </c>
     </row>
     <row r="151">
@@ -4354,25 +4354,25 @@
         <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999936844606113</v>
       </c>
       <c r="C151" t="n">
-        <v>43.18249893188477</v>
+        <v>41.54368591308594</v>
       </c>
       <c r="D151" t="n">
-        <v>12.48673439025879</v>
+        <v>5.404522895812988</v>
       </c>
       <c r="E151" t="n">
-        <v>-17.83799362182617</v>
+        <v>-13.7213191986084</v>
       </c>
       <c r="F151" t="n">
-        <v>42.52143478393555</v>
+        <v>-9.928964614868164</v>
       </c>
       <c r="G151" t="n">
-        <v>16.17021942138672</v>
+        <v>10.98462009429932</v>
       </c>
       <c r="H151" t="n">
-        <v>-6.332048892974854</v>
+        <v>16.4577808380127</v>
       </c>
     </row>
     <row r="152">
@@ -4380,25 +4380,25 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0.9999940555137676</v>
       </c>
       <c r="C152" t="n">
-        <v>43.85538864135742</v>
+        <v>42.04931640625</v>
       </c>
       <c r="D152" t="n">
-        <v>12.48673439025879</v>
+        <v>6.959321022033691</v>
       </c>
       <c r="E152" t="n">
-        <v>-19.41839981079102</v>
+        <v>-13.37840557098389</v>
       </c>
       <c r="F152" t="n">
-        <v>43.45596694946289</v>
+        <v>-11.11703109741211</v>
       </c>
       <c r="G152" t="n">
-        <v>16.17021942138672</v>
+        <v>14.20903968811035</v>
       </c>
       <c r="H152" t="n">
-        <v>-8.559464454650879</v>
+        <v>13.43718338012695</v>
       </c>
     </row>
     <row r="153">
@@ -4406,25 +4406,25 @@
         <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0.9999941503713171</v>
       </c>
       <c r="C153" t="n">
-        <v>42.52229690551758</v>
+        <v>43.17628479003906</v>
       </c>
       <c r="D153" t="n">
-        <v>11.53997993469238</v>
+        <v>7.819687843322754</v>
       </c>
       <c r="E153" t="n">
-        <v>-24.10454940795898</v>
+        <v>-13.72056102752686</v>
       </c>
       <c r="F153" t="n">
-        <v>42.12949371337891</v>
+        <v>-11.11703109741211</v>
       </c>
       <c r="G153" t="n">
-        <v>14.6332540512085</v>
+        <v>16.62125396728516</v>
       </c>
       <c r="H153" t="n">
-        <v>-12.44124603271484</v>
+        <v>7.422078132629395</v>
       </c>
     </row>
     <row r="154">
@@ -4432,1247 +4432,1247 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0.9999945289197492</v>
       </c>
       <c r="C154" t="n">
-        <v>42.17340087890625</v>
+        <v>41.22343826293945</v>
       </c>
       <c r="D154" t="n">
-        <v>13.33986473083496</v>
+        <v>11.96974563598633</v>
       </c>
       <c r="E154" t="n">
-        <v>-22.53454971313477</v>
+        <v>-14.70820140838623</v>
       </c>
       <c r="F154" t="n">
-        <v>41.62379455566406</v>
+        <v>-2.591804265975952</v>
       </c>
       <c r="G154" t="n">
-        <v>16.41133117675781</v>
+        <v>22.11603927612305</v>
       </c>
       <c r="H154" t="n">
-        <v>-15.4697437286377</v>
+        <v>5.4165358543396</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.003488707696087659</v>
+        <v>0.02619929276406765</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0004461788997286931</v>
+        <v>-0.0247180100902915</v>
       </c>
       <c r="C155" t="n">
-        <v>42.2166748046875</v>
+        <v>41.22343826293945</v>
       </c>
       <c r="D155" t="n">
-        <v>15.42373085021973</v>
+        <v>11.96974563598633</v>
       </c>
       <c r="E155" t="n">
-        <v>-24.65644073486328</v>
+        <v>-18.29653167724609</v>
       </c>
       <c r="F155" t="n">
-        <v>41.80717086791992</v>
+        <v>0.08227813243865967</v>
       </c>
       <c r="G155" t="n">
-        <v>17.34389877319336</v>
+        <v>27.92737579345703</v>
       </c>
       <c r="H155" t="n">
-        <v>-19.09371948242188</v>
+        <v>3.362196445465088</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.02980760663747788</v>
+        <v>-0.025466093942523</v>
       </c>
       <c r="B156" t="n">
-        <v>0.03881051309406758</v>
+        <v>0.07799174815416336</v>
       </c>
       <c r="C156" t="n">
-        <v>42.2166748046875</v>
+        <v>41.54050445556641</v>
       </c>
       <c r="D156" t="n">
-        <v>18.63026237487793</v>
+        <v>14.4555549621582</v>
       </c>
       <c r="E156" t="n">
-        <v>-25.96148681640625</v>
+        <v>-18.29653167724609</v>
       </c>
       <c r="F156" t="n">
-        <v>41.80717086791992</v>
+        <v>4.034212112426758</v>
       </c>
       <c r="G156" t="n">
-        <v>20.24168968200684</v>
+        <v>34.46482086181641</v>
       </c>
       <c r="H156" t="n">
-        <v>-20.12918090820312</v>
+        <v>-1.969297409057617</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.00877903275191784</v>
+        <v>0.004176966371014714</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02286024414002896</v>
+        <v>-0.07602230399847031</v>
       </c>
       <c r="C157" t="n">
-        <v>42.9539794921875</v>
+        <v>40.37470245361328</v>
       </c>
       <c r="D157" t="n">
-        <v>21.48662567138672</v>
+        <v>15.98776435852051</v>
       </c>
       <c r="E157" t="n">
-        <v>-23.53006744384766</v>
+        <v>-18.88284492492676</v>
       </c>
       <c r="F157" t="n">
-        <v>41.51689910888672</v>
+        <v>7.929286479949951</v>
       </c>
       <c r="G157" t="n">
-        <v>22.06175231933594</v>
+        <v>40.92190933227539</v>
       </c>
       <c r="H157" t="n">
-        <v>-18.42026519775391</v>
+        <v>-7.747933864593506</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.02222356010228396</v>
+        <v>0.01755821753293276</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04478782333433629</v>
+        <v>-0.1890554243326187</v>
       </c>
       <c r="C158" t="n">
-        <v>40.61295318603516</v>
+        <v>39.35540008544922</v>
       </c>
       <c r="D158" t="n">
-        <v>21.48662567138672</v>
+        <v>18.13801193237305</v>
       </c>
       <c r="E158" t="n">
-        <v>-19.99761009216309</v>
+        <v>-16.20553970336914</v>
       </c>
       <c r="F158" t="n">
-        <v>38.37433624267578</v>
+        <v>11.70556831359863</v>
       </c>
       <c r="G158" t="n">
-        <v>22.06175231933594</v>
+        <v>46.42214202880859</v>
       </c>
       <c r="H158" t="n">
-        <v>-16.02545928955078</v>
+        <v>-12.59188842773438</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.04530520007014275</v>
+        <v>0.02811548132449389</v>
       </c>
       <c r="B159" t="n">
-        <v>0.07091148063540459</v>
+        <v>-0.2967663258314133</v>
       </c>
       <c r="C159" t="n">
-        <v>38.41378402709961</v>
+        <v>38.3503303527832</v>
       </c>
       <c r="D159" t="n">
-        <v>23.35054397583008</v>
+        <v>20.86533355712891</v>
       </c>
       <c r="E159" t="n">
-        <v>-16.22975540161133</v>
+        <v>-13.78593254089355</v>
       </c>
       <c r="F159" t="n">
-        <v>36.20891189575195</v>
+        <v>15.26547908782959</v>
       </c>
       <c r="G159" t="n">
-        <v>22.21600341796875</v>
+        <v>50.67630767822266</v>
       </c>
       <c r="H159" t="n">
-        <v>-13.2454776763916</v>
+        <v>-15.67103004455566</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.08070709839463235</v>
+        <v>0.04010056488215923</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1060695321857929</v>
+        <v>-0.3952315205335618</v>
       </c>
       <c r="C160" t="n">
-        <v>36.20932006835938</v>
+        <v>37.16127395629883</v>
       </c>
       <c r="D160" t="n">
-        <v>21.67795944213867</v>
+        <v>23.41375732421875</v>
       </c>
       <c r="E160" t="n">
-        <v>-12.87106323242188</v>
+        <v>-10.48224449157715</v>
       </c>
       <c r="F160" t="n">
-        <v>34.28408813476562</v>
+        <v>18.5683536529541</v>
       </c>
       <c r="G160" t="n">
-        <v>20.8114185333252</v>
+        <v>53.81357192993164</v>
       </c>
       <c r="H160" t="n">
-        <v>-9.925924301147461</v>
+        <v>-15.67103004455566</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.1042914709448814</v>
+        <v>0.05670871704816818</v>
       </c>
       <c r="B161" t="n">
-        <v>0.1248217803239823</v>
+        <v>-0.484929603934288</v>
       </c>
       <c r="C161" t="n">
-        <v>33.90811920166016</v>
+        <v>35.56863403320312</v>
       </c>
       <c r="D161" t="n">
-        <v>19.69951248168945</v>
+        <v>24.75255584716797</v>
       </c>
       <c r="E161" t="n">
-        <v>-9.839680671691895</v>
+        <v>-6.927264213562012</v>
       </c>
       <c r="F161" t="n">
-        <v>32.36996841430664</v>
+        <v>21.61599731445312</v>
       </c>
       <c r="G161" t="n">
-        <v>20.03476142883301</v>
+        <v>55.90866851806641</v>
       </c>
       <c r="H161" t="n">
-        <v>-6.723924160003662</v>
+        <v>-15.1338005065918</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.1298842860758305</v>
+        <v>0.08085482329130173</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1460144785046578</v>
+        <v>-0.5671644723415376</v>
       </c>
       <c r="C162" t="n">
-        <v>31.72017288208008</v>
+        <v>33.46866989135742</v>
       </c>
       <c r="D162" t="n">
-        <v>18.10752296447754</v>
+        <v>24.75255584716797</v>
       </c>
       <c r="E162" t="n">
-        <v>-7.100008487701416</v>
+        <v>-3.730148553848267</v>
       </c>
       <c r="F162" t="n">
-        <v>30.46107864379883</v>
+        <v>24.40895843505859</v>
       </c>
       <c r="G162" t="n">
-        <v>19.4425048828125</v>
+        <v>55.90866851806641</v>
       </c>
       <c r="H162" t="n">
-        <v>-4.493091106414795</v>
+        <v>-11.34686470031738</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1520270910859108</v>
+        <v>0.112392181456089</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1672098618745804</v>
+        <v>-0.6419152128696441</v>
       </c>
       <c r="C163" t="n">
-        <v>29.63249015808105</v>
+        <v>30.91846466064453</v>
       </c>
       <c r="D163" t="n">
-        <v>16.97224807739258</v>
+        <v>21.74885940551758</v>
       </c>
       <c r="E163" t="n">
-        <v>-4.730893135070801</v>
+        <v>-1.145575881004333</v>
       </c>
       <c r="F163" t="n">
-        <v>28.44829940795898</v>
+        <v>27.00647163391113</v>
       </c>
       <c r="G163" t="n">
-        <v>18.6988353729248</v>
+        <v>56.34099960327148</v>
       </c>
       <c r="H163" t="n">
-        <v>-2.892606258392334</v>
+        <v>-6.622192859649658</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1732384434342384</v>
+        <v>0.1486852151155472</v>
       </c>
       <c r="B164" t="n">
-        <v>0.190776978135109</v>
+        <v>-0.7126546597480774</v>
       </c>
       <c r="C164" t="n">
-        <v>27.707763671875</v>
+        <v>28.15708160400391</v>
       </c>
       <c r="D164" t="n">
-        <v>15.8932523727417</v>
+        <v>18.80820846557617</v>
       </c>
       <c r="E164" t="n">
-        <v>-3.3278968334198</v>
+        <v>0.8275514245033264</v>
       </c>
       <c r="F164" t="n">
-        <v>26.38615226745605</v>
+        <v>29.46825790405273</v>
       </c>
       <c r="G164" t="n">
-        <v>17.53904914855957</v>
+        <v>53.636474609375</v>
       </c>
       <c r="H164" t="n">
-        <v>-1.457507014274597</v>
+        <v>-2.014693260192871</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1920414969325066</v>
+        <v>0.1846409574151039</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2142866629362107</v>
+        <v>-0.7811557960510255</v>
       </c>
       <c r="C165" t="n">
-        <v>25.67918395996094</v>
+        <v>25.40230178833008</v>
       </c>
       <c r="D165" t="n">
-        <v>14.38062858581543</v>
+        <v>15.84661293029785</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.137282490730286</v>
+        <v>2.292139053344727</v>
       </c>
       <c r="F165" t="n">
-        <v>24.00980377197266</v>
+        <v>31.80732727050781</v>
       </c>
       <c r="G165" t="n">
-        <v>14.72568893432617</v>
+        <v>49.67408752441406</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.09887295961380005</v>
+        <v>1.669013738632202</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2148005765676499</v>
+        <v>0.2178825104236603</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2442433607578278</v>
+        <v>-0.8464259862899781</v>
       </c>
       <c r="C166" t="n">
-        <v>23.54753112792969</v>
+        <v>22.7380256652832</v>
       </c>
       <c r="D166" t="n">
-        <v>13.34797763824463</v>
+        <v>13.30424690246582</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3292962908744812</v>
+        <v>3.31335711479187</v>
       </c>
       <c r="F166" t="n">
-        <v>21.53060340881348</v>
+        <v>33.90298461914062</v>
       </c>
       <c r="G166" t="n">
-        <v>13.3472843170166</v>
+        <v>44.82181549072266</v>
       </c>
       <c r="H166" t="n">
-        <v>1.069268226623535</v>
+        <v>4.287089347839355</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2386514541506767</v>
+        <v>0.2490145313739777</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2729920393228531</v>
+        <v>-0.9009734892845154</v>
       </c>
       <c r="C167" t="n">
-        <v>21.26593780517578</v>
+        <v>20.04485511779785</v>
       </c>
       <c r="D167" t="n">
-        <v>12.08973217010498</v>
+        <v>11.19144248962402</v>
       </c>
       <c r="E167" t="n">
-        <v>2.786986112594604</v>
+        <v>3.31335711479187</v>
       </c>
       <c r="F167" t="n">
-        <v>18.98130416870117</v>
+        <v>35.62085723876953</v>
       </c>
       <c r="G167" t="n">
-        <v>12.0679988861084</v>
+        <v>39.34151458740234</v>
       </c>
       <c r="H167" t="n">
-        <v>2.223515510559082</v>
+        <v>5.96555233001709</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2646027973294258</v>
+        <v>0.2819402903318405</v>
       </c>
       <c r="B168" t="n">
-        <v>0.302156543135643</v>
+        <v>-0.9404382526874543</v>
       </c>
       <c r="C168" t="n">
-        <v>18.85322189331055</v>
+        <v>17.16133499145508</v>
       </c>
       <c r="D168" t="n">
-        <v>11.55930614471436</v>
+        <v>9.405345916748047</v>
       </c>
       <c r="E168" t="n">
-        <v>5.060004711151123</v>
+        <v>4.912267208099365</v>
       </c>
       <c r="F168" t="n">
-        <v>16.46810531616211</v>
+        <v>36.93238830566406</v>
       </c>
       <c r="G168" t="n">
-        <v>10.80663871765137</v>
+        <v>33.46786117553711</v>
       </c>
       <c r="H168" t="n">
-        <v>3.935077905654907</v>
+        <v>5.96555233001709</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2917526984214783</v>
+        <v>0.3191214108467102</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3297366589307785</v>
+        <v>-0.9670956110954285</v>
       </c>
       <c r="C169" t="n">
-        <v>16.39735794067383</v>
+        <v>14.10624313354492</v>
       </c>
       <c r="D169" t="n">
-        <v>10.25139331817627</v>
+        <v>7.899365901947021</v>
       </c>
       <c r="E169" t="n">
-        <v>7.398983001708984</v>
+        <v>7.324106216430664</v>
       </c>
       <c r="F169" t="n">
-        <v>14.01611328125</v>
+        <v>36.93238830566406</v>
       </c>
       <c r="G169" t="n">
-        <v>9.440269470214844</v>
+        <v>27.5238037109375</v>
       </c>
       <c r="H169" t="n">
-        <v>5.316301345825195</v>
+        <v>7.652003765106201</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3184242409467697</v>
+        <v>0.3581507313251496</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3563557612895966</v>
+        <v>-0.9862564897537232</v>
       </c>
       <c r="C170" t="n">
-        <v>14.0505428314209</v>
+        <v>11.09076309204102</v>
       </c>
       <c r="D170" t="n">
-        <v>8.708388328552246</v>
+        <v>6.686648368835449</v>
       </c>
       <c r="E170" t="n">
-        <v>9.562141418457031</v>
+        <v>9.160427093505859</v>
       </c>
       <c r="F170" t="n">
-        <v>11.65166664123535</v>
+        <v>38.89455795288086</v>
       </c>
       <c r="G170" t="n">
-        <v>8.143320083618164</v>
+        <v>21.86341857910156</v>
       </c>
       <c r="H170" t="n">
-        <v>6.356192588806152</v>
+        <v>7.014623165130615</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.3423075461387635</v>
+        <v>0.3941464513540268</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3817068856954575</v>
+        <v>-1.002348607778549</v>
       </c>
       <c r="C171" t="n">
-        <v>11.90723037719727</v>
+        <v>8.278285980224609</v>
       </c>
       <c r="D171" t="n">
-        <v>7.382098197937012</v>
+        <v>6.686648368835449</v>
       </c>
       <c r="E171" t="n">
-        <v>9.562141418457031</v>
+        <v>11.4440803527832</v>
       </c>
       <c r="F171" t="n">
-        <v>9.413700103759766</v>
+        <v>39.44099044799805</v>
       </c>
       <c r="G171" t="n">
-        <v>8.143320083618164</v>
+        <v>16.7884349822998</v>
       </c>
       <c r="H171" t="n">
-        <v>7.872049331665039</v>
+        <v>5.859489917755127</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.3630107659101486</v>
+        <v>0.4257103139162064</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4052162861824036</v>
+        <v>-1.015719397068024</v>
       </c>
       <c r="C172" t="n">
-        <v>10.05413246154785</v>
+        <v>5.783931255340576</v>
       </c>
       <c r="D172" t="n">
-        <v>6.354428291320801</v>
+        <v>4.967392921447754</v>
       </c>
       <c r="E172" t="n">
-        <v>13.17029094696045</v>
+        <v>13.8101749420166</v>
       </c>
       <c r="F172" t="n">
-        <v>7.451225280761719</v>
+        <v>39.89501571655273</v>
       </c>
       <c r="G172" t="n">
-        <v>6.182852745056152</v>
+        <v>12.51106643676758</v>
       </c>
       <c r="H172" t="n">
-        <v>9.783409118652344</v>
+        <v>4.344500064849854</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.3796911615133285</v>
+        <v>0.4520337295532227</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4239991849660874</v>
+        <v>-1.025230021476746</v>
       </c>
       <c r="C173" t="n">
-        <v>8.35513973236084</v>
+        <v>3.618584632873535</v>
       </c>
       <c r="D173" t="n">
-        <v>6.557583808898926</v>
+        <v>4.832781791687012</v>
       </c>
       <c r="E173" t="n">
-        <v>13.17029094696045</v>
+        <v>16.146484375</v>
       </c>
       <c r="F173" t="n">
-        <v>5.712235450744629</v>
+        <v>40.21796417236328</v>
       </c>
       <c r="G173" t="n">
-        <v>6.127900123596191</v>
+        <v>9.170375823974609</v>
       </c>
       <c r="H173" t="n">
-        <v>11.84721565246582</v>
+        <v>2.869051694869995</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.3961794871091843</v>
+        <v>0.4742458361387253</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4408729141950607</v>
+        <v>-1.031251479387283</v>
       </c>
       <c r="C174" t="n">
-        <v>6.737257957458496</v>
+        <v>1.771981120109558</v>
       </c>
       <c r="D174" t="n">
-        <v>6.288086891174316</v>
+        <v>5.169865608215332</v>
       </c>
       <c r="E174" t="n">
-        <v>14.86099243164062</v>
+        <v>18.31216812133789</v>
       </c>
       <c r="F174" t="n">
-        <v>4.232578277587891</v>
+        <v>40.42243194580078</v>
       </c>
       <c r="G174" t="n">
-        <v>6.115612983703613</v>
+        <v>6.814417362213135</v>
       </c>
       <c r="H174" t="n">
-        <v>13.20599746704102</v>
+        <v>1.507210493087769</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.412581160068512</v>
+        <v>0.4927266669273377</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4544600349664688</v>
+        <v>-1.035730501413345</v>
       </c>
       <c r="C175" t="n">
-        <v>5.178926467895508</v>
+        <v>0.252672016620636</v>
       </c>
       <c r="D175" t="n">
-        <v>6.258158683776855</v>
+        <v>6.054821968078613</v>
       </c>
       <c r="E175" t="n">
-        <v>16.18295097351074</v>
+        <v>19.94462585449219</v>
       </c>
       <c r="F175" t="n">
-        <v>2.892981290817261</v>
+        <v>40.57452392578125</v>
       </c>
       <c r="G175" t="n">
-        <v>6.208834648132324</v>
+        <v>5.385168552398682</v>
       </c>
       <c r="H175" t="n">
-        <v>15.10104465484619</v>
+        <v>0.187972754240036</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.4285774010419846</v>
+        <v>0.5071450906991959</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4678157556056977</v>
+        <v>-1.040714402198792</v>
       </c>
       <c r="C176" t="n">
-        <v>3.640945911407471</v>
+        <v>-0.9009473323822021</v>
       </c>
       <c r="D176" t="n">
-        <v>6.72385311126709</v>
+        <v>8.734207153320312</v>
       </c>
       <c r="E176" t="n">
-        <v>16.69084930419922</v>
+        <v>19.94462585449219</v>
       </c>
       <c r="F176" t="n">
-        <v>1.71943199634552</v>
+        <v>40.74375915527344</v>
       </c>
       <c r="G176" t="n">
-        <v>6.996834754943848</v>
+        <v>5.385168552398682</v>
       </c>
       <c r="H176" t="n">
-        <v>17.25530433654785</v>
+        <v>-2.469029426574707</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.4447747784852982</v>
+        <v>0.5166757750511169</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4790332758426666</v>
+        <v>-1.050328706502915</v>
       </c>
       <c r="C177" t="n">
-        <v>1.994239449501038</v>
+        <v>-0.9009473323822021</v>
       </c>
       <c r="D177" t="n">
-        <v>7.348076820373535</v>
+        <v>10.97084617614746</v>
       </c>
       <c r="E177" t="n">
-        <v>17.63648986816406</v>
+        <v>19.65687561035156</v>
       </c>
       <c r="F177" t="n">
-        <v>0.6384270787239075</v>
+        <v>41.07022857666016</v>
       </c>
       <c r="G177" t="n">
-        <v>7.981062889099121</v>
+        <v>4.22544002532959</v>
       </c>
       <c r="H177" t="n">
-        <v>19.22263717651367</v>
+        <v>-4.732460975646973</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.4635101968050003</v>
+        <v>0.5207756799459458</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4900388556718827</v>
+        <v>-1.06367359161377</v>
       </c>
       <c r="C178" t="n">
-        <v>0.4074088931083679</v>
+        <v>-2.393515825271606</v>
       </c>
       <c r="D178" t="n">
-        <v>7.746108055114746</v>
+        <v>14.19784736633301</v>
       </c>
       <c r="E178" t="n">
-        <v>17.95482063293457</v>
+        <v>15.76992988586426</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6384270787239075</v>
+        <v>41.52337646484375</v>
       </c>
       <c r="G178" t="n">
-        <v>9.11928653717041</v>
+        <v>5.249917030334473</v>
       </c>
       <c r="H178" t="n">
-        <v>20.40577697753906</v>
+        <v>-8.073213577270508</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.4798071473836899</v>
+        <v>0.5181962555646896</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4992520874738693</v>
+        <v>-1.077901935577393</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.8736991882324219</v>
+        <v>-2.180268526077271</v>
       </c>
       <c r="D179" t="n">
-        <v>8.451657295227051</v>
+        <v>18.31005096435547</v>
       </c>
       <c r="E179" t="n">
-        <v>15.5939302444458</v>
+        <v>8.744143486022949</v>
       </c>
       <c r="F179" t="n">
-        <v>-1.270060062408447</v>
+        <v>42.00651931762695</v>
       </c>
       <c r="G179" t="n">
-        <v>11.82777881622314</v>
+        <v>8.31318473815918</v>
       </c>
       <c r="H179" t="n">
-        <v>20.40577697753906</v>
+        <v>-12.15971660614014</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.4902172785997391</v>
+        <v>0.5091668170690536</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5074031215906143</v>
+        <v>-1.088436722755432</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.931232094764709</v>
+        <v>-1.433776140213013</v>
       </c>
       <c r="D180" t="n">
-        <v>10.96745014190674</v>
+        <v>23.14463424682617</v>
       </c>
       <c r="E180" t="n">
-        <v>13.55948257446289</v>
+        <v>-0.9348955154418945</v>
       </c>
       <c r="F180" t="n">
-        <v>-2.002144336700439</v>
+        <v>42.3642463684082</v>
       </c>
       <c r="G180" t="n">
-        <v>13.58401679992676</v>
+        <v>10.71500968933105</v>
       </c>
       <c r="H180" t="n">
-        <v>19.76738739013672</v>
+        <v>-16.1580638885498</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4991179543733597</v>
+        <v>0.4948440176248551</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5141957026720048</v>
+        <v>-1.091894993782043</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.931232094764709</v>
+        <v>-0.2496731579303741</v>
       </c>
       <c r="D181" t="n">
-        <v>12.71503829956055</v>
+        <v>28.54844093322754</v>
       </c>
       <c r="E181" t="n">
-        <v>8.613644599914551</v>
+        <v>-11.65030097961426</v>
       </c>
       <c r="F181" t="n">
-        <v>-2.612215518951416</v>
+        <v>42.48167419433594</v>
       </c>
       <c r="G181" t="n">
-        <v>15.94100952148438</v>
+        <v>13.90096092224121</v>
       </c>
       <c r="H181" t="n">
-        <v>16.74104690551758</v>
+        <v>-19.18196868896484</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.5026929521560669</v>
+        <v>0.474867599606514</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5189489614963532</v>
+        <v>-1.082561402320862</v>
       </c>
       <c r="C182" t="n">
-        <v>-3.323725938796997</v>
+        <v>2.559873342514038</v>
       </c>
       <c r="D182" t="n">
-        <v>15.11112880706787</v>
+        <v>34.43000793457031</v>
       </c>
       <c r="E182" t="n">
-        <v>0.8526020050048828</v>
+        <v>-21.90096664428711</v>
       </c>
       <c r="F182" t="n">
-        <v>-3.039125919342041</v>
+        <v>42.16474151611328</v>
       </c>
       <c r="G182" t="n">
-        <v>18.79607391357422</v>
+        <v>17.25253677368164</v>
       </c>
       <c r="H182" t="n">
-        <v>10.17136096954346</v>
+        <v>-20.79541397094727</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.500748148560524</v>
+        <v>0.4468526411056519</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5167654919624329</v>
+        <v>-1.054016197919846</v>
       </c>
       <c r="C183" t="n">
-        <v>-3.141507387161255</v>
+        <v>4.676794052124023</v>
       </c>
       <c r="D183" t="n">
-        <v>18.6240234375</v>
+        <v>40.62279510498047</v>
       </c>
       <c r="E183" t="n">
-        <v>-10.42470359802246</v>
+        <v>-30.77934646606445</v>
       </c>
       <c r="F183" t="n">
-        <v>-2.843019962310791</v>
+        <v>41.19544219970703</v>
       </c>
       <c r="G183" t="n">
-        <v>22.58051300048828</v>
+        <v>20.02178192138672</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5318689346313477</v>
+        <v>-20.79541397094727</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4860314792394638</v>
+        <v>0.4096481120586395</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5034289467334747</v>
+        <v>-0.9978572654724122</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.3938572406768799</v>
+        <v>7.629640579223633</v>
       </c>
       <c r="D184" t="n">
-        <v>23.57867813110352</v>
+        <v>46.85202026367188</v>
       </c>
       <c r="E184" t="n">
-        <v>-24.45975875854492</v>
+        <v>-37.35361480712891</v>
       </c>
       <c r="F184" t="n">
-        <v>-0.3513493537902832</v>
+        <v>37.84365844726562</v>
       </c>
       <c r="G184" t="n">
-        <v>27.49787330627441</v>
+        <v>21.67147064208984</v>
       </c>
       <c r="H184" t="n">
-        <v>-10.69503021240234</v>
+        <v>-19.01859092712402</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.4568144404888153</v>
+        <v>0.3638196080923081</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4746172767877579</v>
+        <v>-0.912759006023407</v>
       </c>
       <c r="C185" t="n">
-        <v>2.116607189178467</v>
+        <v>11.26173973083496</v>
       </c>
       <c r="D185" t="n">
-        <v>29.94302177429199</v>
+        <v>52.746826171875</v>
       </c>
       <c r="E185" t="n">
-        <v>-41.23575592041016</v>
+        <v>-40.16827011108398</v>
       </c>
       <c r="F185" t="n">
-        <v>2.256546497344971</v>
+        <v>35.3240966796875</v>
       </c>
       <c r="G185" t="n">
-        <v>33.66872024536133</v>
+        <v>21.67147064208984</v>
       </c>
       <c r="H185" t="n">
-        <v>-22.81288719177246</v>
+        <v>-16.12829208374023</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.4178354436159134</v>
+        <v>0.3116700422763825</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4309502869844437</v>
+        <v>1.280980640398151</v>
       </c>
       <c r="C186" t="n">
-        <v>5.607983589172363</v>
+        <v>15.34537792205811</v>
       </c>
       <c r="D186" t="n">
-        <v>37.52477645874023</v>
+        <v>57.85588836669922</v>
       </c>
       <c r="E186" t="n">
-        <v>-53.76191711425781</v>
+        <v>-38.41905212402344</v>
       </c>
       <c r="F186" t="n">
-        <v>5.868569374084473</v>
+        <v>32.16147232055664</v>
       </c>
       <c r="G186" t="n">
-        <v>40.59504699707031</v>
+        <v>21.33637619018555</v>
       </c>
       <c r="H186" t="n">
-        <v>-33.13437652587891</v>
+        <v>-12.87649250030518</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.3701034879684448</v>
+        <v>0.2568131422996521</v>
       </c>
       <c r="B187" t="n">
-        <v>0.5924810911230347</v>
+        <v>-0.1765834051454194</v>
       </c>
       <c r="C187" t="n">
-        <v>10.36366939544678</v>
+        <v>19.58177757263184</v>
       </c>
       <c r="D187" t="n">
-        <v>46.31890106201172</v>
+        <v>61.62505722045898</v>
       </c>
       <c r="E187" t="n">
-        <v>-58.06581878662109</v>
+        <v>-32.97814559936523</v>
       </c>
       <c r="F187" t="n">
-        <v>10.55440902709961</v>
+        <v>28.78926086425781</v>
       </c>
       <c r="G187" t="n">
-        <v>48.16917419433594</v>
+        <v>19.37179946899414</v>
       </c>
       <c r="H187" t="n">
-        <v>-36.26015472412109</v>
+        <v>-10.01339340209961</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.6364984339933628</v>
+        <v>0.7143323875231589</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7574681324901924</v>
+        <v>1.638274413325511</v>
       </c>
       <c r="C188" t="n">
-        <v>15.80587005615234</v>
+        <v>23.69128608703613</v>
       </c>
       <c r="D188" t="n">
-        <v>54.70414733886719</v>
+        <v>63.55472564697266</v>
       </c>
       <c r="E188" t="n">
-        <v>-53.5775146484375</v>
+        <v>-25.98446655273438</v>
       </c>
       <c r="F188" t="n">
-        <v>15.80052661895752</v>
+        <v>25.47709655761719</v>
       </c>
       <c r="G188" t="n">
-        <v>54.74006652832031</v>
+        <v>16.80046463012695</v>
       </c>
       <c r="H188" t="n">
-        <v>-36.26015472412109</v>
+        <v>-7.830915451049805</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.8350920886238817</v>
+        <v>0.9161596846801332</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8852426431125049</v>
+        <v>0.3828236896638866</v>
       </c>
       <c r="C189" t="n">
-        <v>20.85763168334961</v>
+        <v>27.44076919555664</v>
       </c>
       <c r="D189" t="n">
-        <v>60.97193145751953</v>
+        <v>63.55472564697266</v>
       </c>
       <c r="E189" t="n">
-        <v>-44.60326385498047</v>
+        <v>-19.13402557373047</v>
       </c>
       <c r="F189" t="n">
-        <v>20.97630882263184</v>
+        <v>22.30999374389648</v>
       </c>
       <c r="G189" t="n">
-        <v>59.6808967590332</v>
+        <v>14.05355834960938</v>
       </c>
       <c r="H189" t="n">
-        <v>-29.58672332763672</v>
+        <v>-6.237128257751465</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9406664708005048</v>
+        <v>0.9818792961118431</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9580090566697917</v>
+        <v>0.3828236896638866</v>
       </c>
       <c r="C190" t="n">
-        <v>25.37761688232422</v>
+        <v>30.7050838470459</v>
       </c>
       <c r="D190" t="n">
-        <v>64.48916625976562</v>
+        <v>61.38172912597656</v>
       </c>
       <c r="E190" t="n">
-        <v>-34.36848068237305</v>
+        <v>-13.44893741607666</v>
       </c>
       <c r="F190" t="n">
-        <v>25.81661605834961</v>
+        <v>19.26007652282715</v>
       </c>
       <c r="G190" t="n">
-        <v>62.44184875488281</v>
+        <v>11.50564575195312</v>
       </c>
       <c r="H190" t="n">
-        <v>-23.13531112670898</v>
+        <v>-4.958227634429932</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9834171206976238</v>
+        <v>0.9972328468866072</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9886089141052689</v>
+        <v>2.124334234168377</v>
       </c>
       <c r="C191" t="n">
-        <v>29.3082103729248</v>
+        <v>33.39435195922852</v>
       </c>
       <c r="D191" t="n">
-        <v>64.48916625976562</v>
+        <v>57.82460021972656</v>
       </c>
       <c r="E191" t="n">
-        <v>-25.52606964111328</v>
+        <v>-9.272140502929688</v>
       </c>
       <c r="F191" t="n">
-        <v>30.1436939239502</v>
+        <v>16.25326919555664</v>
       </c>
       <c r="G191" t="n">
-        <v>62.44184875488281</v>
+        <v>9.358789443969727</v>
       </c>
       <c r="H191" t="n">
-        <v>-17.58208274841309</v>
+        <v>-3.709628105163574</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9964810688198578</v>
+        <v>0.999710956850085</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9978225374640108</v>
+        <v>0.5100970608469729</v>
       </c>
       <c r="C192" t="n">
-        <v>32.55166244506836</v>
+        <v>35.43061065673828</v>
       </c>
       <c r="D192" t="n">
-        <v>64.36003875732422</v>
+        <v>52.93962097167969</v>
       </c>
       <c r="E192" t="n">
-        <v>-16.53791236877441</v>
+        <v>-6.664982318878174</v>
       </c>
       <c r="F192" t="n">
-        <v>33.69302749633789</v>
+        <v>13.22926998138428</v>
       </c>
       <c r="G192" t="n">
-        <v>62.62653350830078</v>
+        <v>7.656680583953857</v>
       </c>
       <c r="H192" t="n">
-        <v>-11.75692272186279</v>
+        <v>-2.225866556167603</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9994344189638127</v>
+        <v>0.9999789327643955</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9997105490324231</v>
+        <v>1.130678546579235</v>
       </c>
       <c r="C193" t="n">
-        <v>35.08431243896484</v>
+        <v>36.78964233398438</v>
       </c>
       <c r="D193" t="n">
-        <v>60.66533660888672</v>
+        <v>46.91616821289062</v>
       </c>
       <c r="E193" t="n">
-        <v>-9.595272064208984</v>
+        <v>-5.582213401794434</v>
       </c>
       <c r="F193" t="n">
-        <v>36.38180541992188</v>
+        <v>10.15058708190918</v>
       </c>
       <c r="G193" t="n">
-        <v>59.69699478149414</v>
+        <v>6.375327110290527</v>
       </c>
       <c r="H193" t="n">
-        <v>-7.877912998199463</v>
+        <v>-0.3297631740570068</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999298465587961</v>
+        <v>0.9999987923076132</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9999726399866552</v>
+        <v>0.9878941279846117</v>
       </c>
       <c r="C194" t="n">
-        <v>36.82138824462891</v>
+        <v>36.78964233398438</v>
       </c>
       <c r="D194" t="n">
-        <v>55.54513549804688</v>
+        <v>40.02686309814453</v>
       </c>
       <c r="E194" t="n">
-        <v>-5.749434471130371</v>
+        <v>-5.582213401794434</v>
       </c>
       <c r="F194" t="n">
-        <v>38.01576995849609</v>
+        <v>7.1375732421875</v>
       </c>
       <c r="G194" t="n">
-        <v>55.70071792602539</v>
+        <v>6.375327110290527</v>
       </c>
       <c r="H194" t="n">
-        <v>-5.049912452697754</v>
+        <v>1.966808199882507</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999926283870681</v>
+        <v>0.9999999319935065</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9999977467027419</v>
+        <v>0.9991389041190293</v>
       </c>
       <c r="C195" t="n">
-        <v>38.14701843261719</v>
+        <v>38.1931266784668</v>
       </c>
       <c r="D195" t="n">
-        <v>49.39584350585938</v>
+        <v>32.64310455322266</v>
       </c>
       <c r="E195" t="n">
-        <v>-2.606955289840698</v>
+        <v>-7.314927101135254</v>
       </c>
       <c r="F195" t="n">
-        <v>39.0206298828125</v>
+        <v>4.311770439147949</v>
       </c>
       <c r="G195" t="n">
-        <v>50.56845855712891</v>
+        <v>4.739317893981934</v>
       </c>
       <c r="H195" t="n">
-        <v>-2.827580690383911</v>
+        <v>4.709630489349365</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999993611076977</v>
+        <v>0.9999999957165523</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999998322117625</v>
+        <v>0.9998125019414471</v>
       </c>
       <c r="C196" t="n">
-        <v>39.32177734375</v>
+        <v>37.90066146850586</v>
       </c>
       <c r="D196" t="n">
-        <v>42.39554214477539</v>
+        <v>25.42484283447266</v>
       </c>
       <c r="E196" t="n">
-        <v>-2.606955289840698</v>
+        <v>-8.857871055603027</v>
       </c>
       <c r="F196" t="n">
-        <v>39.0206298828125</v>
+        <v>1.882156610488892</v>
       </c>
       <c r="G196" t="n">
-        <v>44.90322875976562</v>
+        <v>5.006300926208496</v>
       </c>
       <c r="H196" t="n">
-        <v>-0.7467911243438721</v>
+        <v>7.514225006103516</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999999578006357</v>
+        <v>0.9999999996966242</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999999895522047</v>
+        <v>0.9999379886610827</v>
       </c>
       <c r="C197" t="n">
-        <v>40.66942596435547</v>
+        <v>37.55717086791992</v>
       </c>
       <c r="D197" t="n">
-        <v>35.22632598876953</v>
+        <v>18.77627182006836</v>
       </c>
       <c r="E197" t="n">
-        <v>-4.150301933288574</v>
+        <v>-10.36104774475098</v>
       </c>
       <c r="F197" t="n">
-        <v>40.60602951049805</v>
+        <v>-0.3662053346633911</v>
       </c>
       <c r="G197" t="n">
-        <v>39.00364685058594</v>
+        <v>5.906085014343262</v>
       </c>
       <c r="H197" t="n">
-        <v>-0.7467911243438721</v>
+        <v>10.4609489440918</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999985048355</v>
+        <v>0.9999999999813449</v>
       </c>
       <c r="B198" t="n">
-        <v>0.999999999569775</v>
+        <v>0.9999723684083809</v>
       </c>
       <c r="C198" t="n">
-        <v>41.86872863769531</v>
+        <v>37.96612930297852</v>
       </c>
       <c r="D198" t="n">
-        <v>29.03396987915039</v>
+        <v>13.29182624816895</v>
       </c>
       <c r="E198" t="n">
-        <v>-7.652619361877441</v>
+        <v>-11.42668151855469</v>
       </c>
       <c r="F198" t="n">
-        <v>41.60991287231445</v>
+        <v>-2.372181177139282</v>
       </c>
       <c r="G198" t="n">
-        <v>33.46887969970703</v>
+        <v>6.986540794372559</v>
       </c>
       <c r="H198" t="n">
-        <v>-0.8455872535705566</v>
+        <v>13.0318775177002</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9999999999786678</v>
+        <v>0.9999999999991946</v>
       </c>
       <c r="B199" t="n">
-        <v>0.999999999985697</v>
+        <v>0.9999849799353043</v>
       </c>
       <c r="C199" t="n">
-        <v>43.00945663452148</v>
+        <v>38.76897811889648</v>
       </c>
       <c r="D199" t="n">
-        <v>23.35872650146484</v>
+        <v>9.083841323852539</v>
       </c>
       <c r="E199" t="n">
-        <v>-11.96298408508301</v>
+        <v>-11.42668151855469</v>
       </c>
       <c r="F199" t="n">
-        <v>41.98754119873047</v>
+        <v>-4.514488697052002</v>
       </c>
       <c r="G199" t="n">
-        <v>27.81563186645508</v>
+        <v>8.085761070251465</v>
       </c>
       <c r="H199" t="n">
-        <v>-4.005710601806641</v>
+        <v>15.46557331085205</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.000000000000161</v>
+        <v>0.9999999999999929</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9999999999997217</v>
+        <v>0.9999899336217897</v>
       </c>
       <c r="C200" t="n">
-        <v>43.00945663452148</v>
+        <v>40.27690505981445</v>
       </c>
       <c r="D200" t="n">
-        <v>19.08029174804688</v>
+        <v>6.834872722625732</v>
       </c>
       <c r="E200" t="n">
-        <v>-13.48975944519043</v>
+        <v>-13.0856761932373</v>
       </c>
       <c r="F200" t="n">
-        <v>42.64364624023438</v>
+        <v>-6.152041912078857</v>
       </c>
       <c r="G200" t="n">
-        <v>22.79873275756836</v>
+        <v>8.938427925109863</v>
       </c>
       <c r="H200" t="n">
-        <v>-5.863319396972656</v>
+        <v>16.80644989013672</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9999999999999921</v>
+        <v>0.9999926199427883</v>
       </c>
       <c r="C201" t="n">
-        <v>43.82348251342773</v>
+        <v>40.98038482666016</v>
       </c>
       <c r="D201" t="n">
-        <v>15.46604061126709</v>
+        <v>6.834872722625732</v>
       </c>
       <c r="E201" t="n">
-        <v>-15.52349376678467</v>
+        <v>-12.79806995391846</v>
       </c>
       <c r="F201" t="n">
-        <v>42.22734832763672</v>
+        <v>-7.973580360412598</v>
       </c>
       <c r="G201" t="n">
-        <v>18.96746444702148</v>
+        <v>10.37574005126953</v>
       </c>
       <c r="H201" t="n">
-        <v>-5.863319396972656</v>
+        <v>16.80644989013672</v>
       </c>
     </row>
     <row r="202">
@@ -5680,25 +5680,25 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999937669807435</v>
       </c>
       <c r="C202" t="n">
-        <v>43.18613052368164</v>
+        <v>42.156494140625</v>
       </c>
       <c r="D202" t="n">
-        <v>13.02840709686279</v>
+        <v>4.886834144592285</v>
       </c>
       <c r="E202" t="n">
-        <v>-16.90615272521973</v>
+        <v>-13.39825344085693</v>
       </c>
       <c r="F202" t="n">
-        <v>42.2648811340332</v>
+        <v>-9.518760681152344</v>
       </c>
       <c r="G202" t="n">
-        <v>16.32120132446289</v>
+        <v>11.78403949737549</v>
       </c>
       <c r="H202" t="n">
-        <v>-6.061046123504639</v>
+        <v>16.56567764282227</v>
       </c>
     </row>
     <row r="203">
@@ -5706,25 +5706,25 @@
         <v>1</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0.9999942963014139</v>
       </c>
       <c r="C203" t="n">
-        <v>44.18797302246094</v>
+        <v>42.355224609375</v>
       </c>
       <c r="D203" t="n">
-        <v>13.02840709686279</v>
+        <v>6.668139457702637</v>
       </c>
       <c r="E203" t="n">
-        <v>-18.39412689208984</v>
+        <v>-13.02090167999268</v>
       </c>
       <c r="F203" t="n">
-        <v>43.52096557617188</v>
+        <v>-10.90724182128906</v>
       </c>
       <c r="G203" t="n">
-        <v>16.32120132446289</v>
+        <v>14.88585948944092</v>
       </c>
       <c r="H203" t="n">
-        <v>-8.409008979797363</v>
+        <v>13.67138290405273</v>
       </c>
     </row>
     <row r="204">
@@ -5732,25 +5732,25 @@
         <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0.9999943902883187</v>
       </c>
       <c r="C204" t="n">
-        <v>42.29831314086914</v>
+        <v>43.59712982177734</v>
       </c>
       <c r="D204" t="n">
-        <v>12.33650970458984</v>
+        <v>8.996686935424805</v>
       </c>
       <c r="E204" t="n">
-        <v>-23.32441902160645</v>
+        <v>-14.72735023498535</v>
       </c>
       <c r="F204" t="n">
-        <v>41.63058471679688</v>
+        <v>-6.873129367828369</v>
       </c>
       <c r="G204" t="n">
-        <v>14.8884220123291</v>
+        <v>19.55622100830078</v>
       </c>
       <c r="H204" t="n">
-        <v>-12.35797119140625</v>
+        <v>9.210906028747559</v>
       </c>
     </row>
     <row r="205">
@@ -5758,25 +5758,25 @@
         <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0.9999948608215455</v>
       </c>
       <c r="C205" t="n">
-        <v>42.19088363647461</v>
+        <v>42.42443084716797</v>
       </c>
       <c r="D205" t="n">
-        <v>14.01644229888916</v>
+        <v>8.996686935424805</v>
       </c>
       <c r="E205" t="n">
-        <v>-23.32441902160645</v>
+        <v>-14.72735023498535</v>
       </c>
       <c r="F205" t="n">
-        <v>42.51075744628906</v>
+        <v>-6.873129367828369</v>
       </c>
       <c r="G205" t="n">
-        <v>16.76905632019043</v>
+        <v>19.55622100830078</v>
       </c>
       <c r="H205" t="n">
-        <v>-12.35797119140625</v>
+        <v>9.210906028747559</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_typical_lstm.xlsx
+++ b/Predictions/PV_typical_lstm.xlsx
@@ -483,594 +483,594 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>42.42443084716797</v>
+        <v>40.75923156738281</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3286075592041</v>
+        <v>12.53551483154297</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.59198760986328</v>
+        <v>-17.49242401123047</v>
       </c>
       <c r="F2" t="n">
-        <v>2.319316387176514</v>
+        <v>2.48622465133667</v>
       </c>
       <c r="G2" t="n">
-        <v>29.58777236938477</v>
+        <v>29.65530967712402</v>
       </c>
       <c r="H2" t="n">
-        <v>3.351534843444824</v>
+        <v>3.399565696716309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.008293762784451247</v>
+        <v>-0.008455547410994768</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0610473708063364</v>
+        <v>-0.07706021651625633</v>
       </c>
       <c r="C3" t="n">
-        <v>41.34615707397461</v>
+        <v>41.46233367919922</v>
       </c>
       <c r="D3" t="n">
-        <v>15.05491256713867</v>
+        <v>15.45943832397461</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.59198760986328</v>
+        <v>-17.49242401123047</v>
       </c>
       <c r="F3" t="n">
-        <v>6.318756103515625</v>
+        <v>6.430924415588379</v>
       </c>
       <c r="G3" t="n">
-        <v>35.51597595214844</v>
+        <v>35.56062316894531</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.923416376113892</v>
+        <v>-1.886887073516846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.006457123449072242</v>
+        <v>0.001542802383191884</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1446997466683388</v>
+        <v>-0.1656609183549881</v>
       </c>
       <c r="C4" t="n">
-        <v>41.19431686401367</v>
+        <v>40.63094329833984</v>
       </c>
       <c r="D4" t="n">
-        <v>18.60806274414062</v>
+        <v>19.07236671447754</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.40524482727051</v>
+        <v>-19.04212760925293</v>
       </c>
       <c r="F4" t="n">
-        <v>9.775424957275391</v>
+        <v>9.62681770324707</v>
       </c>
       <c r="G4" t="n">
-        <v>41.29978179931641</v>
+        <v>41.37603759765625</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.019608497619629</v>
+        <v>-7.995255470275879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0019154964084737</v>
+        <v>-0.0001890999486204237</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2305123138427735</v>
+        <v>-0.2407993054389954</v>
       </c>
       <c r="C5" t="n">
-        <v>40.81884765625</v>
+        <v>40.77495574951172</v>
       </c>
       <c r="D5" t="n">
-        <v>21.94161987304688</v>
+        <v>22.23557662963867</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.73461151123047</v>
+        <v>-16.50828742980957</v>
       </c>
       <c r="F5" t="n">
-        <v>12.91168975830078</v>
+        <v>12.68490219116211</v>
       </c>
       <c r="G5" t="n">
-        <v>46.70721435546875</v>
+        <v>46.87643814086914</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.18655967712402</v>
+        <v>-13.22414207458496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.011813620403409</v>
+        <v>0.007932609766721726</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3134377181529999</v>
+        <v>-0.3304670935869217</v>
       </c>
       <c r="C6" t="n">
-        <v>39.68382263183594</v>
+        <v>40.09961318969727</v>
       </c>
       <c r="D6" t="n">
-        <v>24.29169464111328</v>
+        <v>24.32830429077148</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.85995674133301</v>
+        <v>-13.67082023620605</v>
       </c>
       <c r="F6" t="n">
-        <v>16.01304244995117</v>
+        <v>15.86399936676025</v>
       </c>
       <c r="G6" t="n">
-        <v>51.50063705444336</v>
+        <v>51.76183319091797</v>
       </c>
       <c r="H6" t="n">
-        <v>-16.24483489990234</v>
+        <v>-16.26008033752441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03314889028668404</v>
+        <v>0.02661836393177509</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.403742527961731</v>
+        <v>-0.4317977643013001</v>
       </c>
       <c r="C7" t="n">
-        <v>36.88784790039062</v>
+        <v>37.50534057617188</v>
       </c>
       <c r="D7" t="n">
-        <v>24.29169464111328</v>
+        <v>24.32830429077148</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.1919059753418</v>
+        <v>-10.04379844665527</v>
       </c>
       <c r="F7" t="n">
-        <v>19.12129402160645</v>
+        <v>19.10311508178711</v>
       </c>
       <c r="G7" t="n">
-        <v>55.24056243896484</v>
+        <v>55.57374572753906</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.24483489990234</v>
+        <v>-16.26008033752441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05811780169606209</v>
+        <v>0.05164456464350223</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4954818606376648</v>
+        <v>-0.5330984556674958</v>
       </c>
       <c r="C8" t="n">
-        <v>35.13764190673828</v>
+        <v>35.66972351074219</v>
       </c>
       <c r="D8" t="n">
-        <v>26.20057678222656</v>
+        <v>25.88910484313965</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.443380355834961</v>
+        <v>-6.291198253631592</v>
       </c>
       <c r="F8" t="n">
-        <v>22.1865234375</v>
+        <v>22.29004287719727</v>
       </c>
       <c r="G8" t="n">
-        <v>57.61863708496094</v>
+        <v>57.99260711669922</v>
       </c>
       <c r="H8" t="n">
-        <v>-15.12557601928711</v>
+        <v>-15.06157398223877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08797385230660439</v>
+        <v>0.08328191846609116</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5844840693473816</v>
+        <v>-0.6293513703346253</v>
       </c>
       <c r="C9" t="n">
-        <v>32.97660064697266</v>
+        <v>33.35540771484375</v>
       </c>
       <c r="D9" t="n">
-        <v>23.14058494567871</v>
+        <v>22.97564315795898</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.173806667327881</v>
+        <v>-3.014362335205078</v>
       </c>
       <c r="F9" t="n">
-        <v>25.13864898681641</v>
+        <v>25.31798553466797</v>
       </c>
       <c r="G9" t="n">
-        <v>57.61863708496094</v>
+        <v>57.99260711669922</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.34687805175781</v>
+        <v>-11.33265399932861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1190829859673977</v>
+        <v>0.1168709033727646</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.668091448545456</v>
+        <v>-0.7174435842037201</v>
       </c>
       <c r="C10" t="n">
-        <v>30.51079559326172</v>
+        <v>30.68042755126953</v>
       </c>
       <c r="D10" t="n">
-        <v>21.23291015625</v>
+        <v>21.08703804016113</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5904645919799805</v>
+        <v>-0.4664795398712158</v>
       </c>
       <c r="F10" t="n">
-        <v>27.94828414916992</v>
+        <v>28.15021514892578</v>
       </c>
       <c r="G10" t="n">
-        <v>57.78247833251953</v>
+        <v>58.13152313232422</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.597594261169434</v>
+        <v>-6.66082763671875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1525954508781433</v>
+        <v>0.1533777412772179</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.746637340784073</v>
+        <v>-0.7983983123302461</v>
       </c>
       <c r="C11" t="n">
-        <v>27.86712455749512</v>
+        <v>27.80392456054688</v>
       </c>
       <c r="D11" t="n">
-        <v>18.9872932434082</v>
+        <v>18.81418037414551</v>
       </c>
       <c r="E11" t="n">
-        <v>1.277745962142944</v>
+        <v>1.309972405433655</v>
       </c>
       <c r="F11" t="n">
-        <v>30.49856376647949</v>
+        <v>30.69358444213867</v>
       </c>
       <c r="G11" t="n">
-        <v>55.11418914794922</v>
+        <v>55.37771987915039</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.904265999794006</v>
+        <v>-2.045375823974609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1867243799567223</v>
+        <v>0.1903942596912384</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8141036999225617</v>
+        <v>-0.8676236283779145</v>
       </c>
       <c r="C12" t="n">
-        <v>25.05502319335938</v>
+        <v>24.79779243469238</v>
       </c>
       <c r="D12" t="n">
-        <v>16.62939643859863</v>
+        <v>16.40098190307617</v>
       </c>
       <c r="E12" t="n">
-        <v>2.636622905731201</v>
+        <v>2.558766841888428</v>
       </c>
       <c r="F12" t="n">
-        <v>32.78253555297852</v>
+        <v>32.96942901611328</v>
       </c>
       <c r="G12" t="n">
-        <v>51.18772125244141</v>
+        <v>51.3939208984375</v>
       </c>
       <c r="H12" t="n">
-        <v>1.90095329284668</v>
+        <v>1.721489667892456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2227765047550201</v>
+        <v>0.2281051364541054</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.873522641658783</v>
+        <v>-0.9292895996570588</v>
       </c>
       <c r="C13" t="n">
-        <v>22.11127853393555</v>
+        <v>21.75687217712402</v>
       </c>
       <c r="D13" t="n">
-        <v>14.14046669006348</v>
+        <v>13.89336395263672</v>
       </c>
       <c r="E13" t="n">
-        <v>3.654015064239502</v>
+        <v>2.558766841888428</v>
       </c>
       <c r="F13" t="n">
-        <v>34.72552108764648</v>
+        <v>34.92425918579102</v>
       </c>
       <c r="G13" t="n">
-        <v>46.15382385253906</v>
+        <v>46.38709259033203</v>
       </c>
       <c r="H13" t="n">
-        <v>4.660103797912598</v>
+        <v>4.463618755340576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2599760109186173</v>
+        <v>0.2650937920808792</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9207005953788758</v>
+        <v>-0.9794563269615174</v>
       </c>
       <c r="C14" t="n">
-        <v>19.08881378173828</v>
+        <v>18.72336196899414</v>
       </c>
       <c r="D14" t="n">
-        <v>11.67589569091797</v>
+        <v>11.43346405029297</v>
       </c>
       <c r="E14" t="n">
-        <v>3.654015064239502</v>
+        <v>4.465059757232666</v>
       </c>
       <c r="F14" t="n">
-        <v>36.33581161499023</v>
+        <v>36.54858779907227</v>
       </c>
       <c r="G14" t="n">
-        <v>40.31509399414062</v>
+        <v>40.63829040527344</v>
       </c>
       <c r="H14" t="n">
-        <v>6.384145736694336</v>
+        <v>6.20028829574585</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.297487536072731</v>
+        <v>0.3014858460426331</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9583250880241394</v>
+        <v>-1.01918360710144</v>
       </c>
       <c r="C15" t="n">
-        <v>16.03458023071289</v>
+        <v>15.71506404876709</v>
       </c>
       <c r="D15" t="n">
-        <v>9.438617706298828</v>
+        <v>9.202436447143555</v>
       </c>
       <c r="E15" t="n">
-        <v>5.220301151275635</v>
+        <v>5.022277355194092</v>
       </c>
       <c r="F15" t="n">
-        <v>37.66021728515625</v>
+        <v>37.88936233520508</v>
       </c>
       <c r="G15" t="n">
-        <v>34.00614547729492</v>
+        <v>34.43172836303711</v>
       </c>
       <c r="H15" t="n">
-        <v>6.384145736694336</v>
+        <v>6.20028829574585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3348154258728028</v>
+        <v>0.3373606061935425</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.9889090144634247</v>
+        <v>-1.051645839214325</v>
       </c>
       <c r="C16" t="n">
-        <v>13.01682758331299</v>
+        <v>12.74844741821289</v>
       </c>
       <c r="D16" t="n">
-        <v>7.593024730682373</v>
+        <v>7.369740962982178</v>
       </c>
       <c r="E16" t="n">
-        <v>7.39666748046875</v>
+        <v>6.184474468231201</v>
       </c>
       <c r="F16" t="n">
-        <v>38.70145416259766</v>
+        <v>38.93824005126953</v>
       </c>
       <c r="G16" t="n">
-        <v>27.54652404785156</v>
+        <v>28.05173110961914</v>
       </c>
       <c r="H16" t="n">
-        <v>7.997960567474365</v>
+        <v>7.816959857940674</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3708765065670014</v>
+        <v>0.3725360798835755</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.011233425140381</v>
+        <v>-1.074888963699341</v>
       </c>
       <c r="C17" t="n">
-        <v>10.20595836639404</v>
+        <v>9.953490257263184</v>
       </c>
       <c r="D17" t="n">
-        <v>6.2310791015625</v>
+        <v>6.047325134277344</v>
       </c>
       <c r="E17" t="n">
-        <v>9.017831802368164</v>
+        <v>9.244749069213867</v>
       </c>
       <c r="F17" t="n">
-        <v>38.70145416259766</v>
+        <v>38.93824005126953</v>
       </c>
       <c r="G17" t="n">
-        <v>21.24814033508301</v>
+        <v>21.79055786132812</v>
       </c>
       <c r="H17" t="n">
-        <v>7.20055627822876</v>
+        <v>6.967374324798584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4023739975690842</v>
+        <v>0.4040839892625809</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.025038393735886</v>
+        <v>-1.08662570476532</v>
       </c>
       <c r="C18" t="n">
-        <v>7.601559638977051</v>
+        <v>7.366122245788574</v>
       </c>
       <c r="D18" t="n">
-        <v>6.2310791015625</v>
+        <v>6.047325134277344</v>
       </c>
       <c r="E18" t="n">
-        <v>11.29489326477051</v>
+        <v>11.25124454498291</v>
       </c>
       <c r="F18" t="n">
-        <v>40.21145629882812</v>
+        <v>40.36935043334961</v>
       </c>
       <c r="G18" t="n">
-        <v>15.4437198638916</v>
+        <v>15.97420310974121</v>
       </c>
       <c r="H18" t="n">
-        <v>5.906537532806396</v>
+        <v>5.610848903656006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4313790011405945</v>
+        <v>0.4327033364772797</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.034094494581222</v>
+        <v>-1.094027729034424</v>
       </c>
       <c r="C19" t="n">
-        <v>5.239054679870605</v>
+        <v>5.01885986328125</v>
       </c>
       <c r="D19" t="n">
-        <v>4.585299491882324</v>
+        <v>4.549454689025879</v>
       </c>
       <c r="E19" t="n">
-        <v>13.75189685821533</v>
+        <v>13.60013961791992</v>
       </c>
       <c r="F19" t="n">
-        <v>40.51897048950195</v>
+        <v>40.61042022705078</v>
       </c>
       <c r="G19" t="n">
-        <v>10.42676544189453</v>
+        <v>10.91214942932129</v>
       </c>
       <c r="H19" t="n">
-        <v>4.523989200592041</v>
+        <v>4.155072689056396</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4570296663045884</v>
+        <v>0.4580441623926163</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.040983300209045</v>
+        <v>-1.098861575126648</v>
       </c>
       <c r="C20" t="n">
-        <v>3.107450485229492</v>
+        <v>2.913487911224365</v>
       </c>
       <c r="D20" t="n">
-        <v>4.816679954528809</v>
+        <v>4.926289558410645</v>
       </c>
       <c r="E20" t="n">
-        <v>16.36763763427734</v>
+        <v>16.14497756958008</v>
       </c>
       <c r="F20" t="n">
-        <v>40.75289154052734</v>
+        <v>40.76784515380859</v>
       </c>
       <c r="G20" t="n">
-        <v>6.440340518951416</v>
+        <v>6.8433518409729</v>
       </c>
       <c r="H20" t="n">
-        <v>3.685211896896362</v>
+        <v>3.265493154525757</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4800203198194504</v>
+        <v>0.480454467535019</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.046397020816803</v>
+        <v>-1.105198621749878</v>
       </c>
       <c r="C21" t="n">
-        <v>1.225160956382751</v>
+        <v>1.069105267524719</v>
       </c>
       <c r="D21" t="n">
-        <v>5.657723426818848</v>
+        <v>5.839375495910645</v>
       </c>
       <c r="E21" t="n">
-        <v>18.87204360961914</v>
+        <v>18.64258193969727</v>
       </c>
       <c r="F21" t="n">
-        <v>40.93672180175781</v>
+        <v>40.97422790527344</v>
       </c>
       <c r="G21" t="n">
-        <v>3.601802349090576</v>
+        <v>3.903635501861572</v>
       </c>
       <c r="H21" t="n">
-        <v>2.814823865890503</v>
+        <v>2.424785375595093</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4997725403308869</v>
+        <v>0.49949647128582</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.05264441370964</v>
+        <v>-1.113595871925354</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.33687824010849</v>
+        <v>-0.4742141366004944</v>
       </c>
       <c r="D22" t="n">
-        <v>6.973183631896973</v>
+        <v>7.202347755432129</v>
       </c>
       <c r="E22" t="n">
-        <v>20.72063636779785</v>
+        <v>20.52272987365723</v>
       </c>
       <c r="F22" t="n">
-        <v>41.14886093139648</v>
+        <v>41.24770736694336</v>
       </c>
       <c r="G22" t="n">
-        <v>1.86529266834259</v>
+        <v>2.060733318328857</v>
       </c>
       <c r="H22" t="n">
-        <v>1.879747152328491</v>
+        <v>1.545847654342651</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5147930783033371</v>
+        <v>0.5144359165430069</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.058152463436127</v>
+        <v>-1.120547163486481</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.540848612785339</v>
+        <v>-1.689209342002869</v>
       </c>
       <c r="D23" t="n">
-        <v>10.42094612121582</v>
+        <v>10.62477874755859</v>
       </c>
       <c r="E23" t="n">
-        <v>20.72063636779785</v>
+        <v>20.52272987365723</v>
       </c>
       <c r="F23" t="n">
-        <v>41.33589553833008</v>
+        <v>41.47409439086914</v>
       </c>
       <c r="G23" t="n">
-        <v>1.86529266834259</v>
+        <v>2.060733318328857</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.479673981666565</v>
+        <v>-1.625107049942017</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.525025007724762</v>
+        <v>0.5250990873575211</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.06840571641922</v>
+        <v>-1.132409255504608</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.540848612785339</v>
+        <v>-1.689209342002869</v>
       </c>
       <c r="D24" t="n">
-        <v>12.9503231048584</v>
+        <v>13.20322418212891</v>
       </c>
       <c r="E24" t="n">
-        <v>20.31867599487305</v>
+        <v>20.18066024780273</v>
       </c>
       <c r="F24" t="n">
-        <v>41.68406295776367</v>
+        <v>41.86041641235352</v>
       </c>
       <c r="G24" t="n">
-        <v>2.149155378341675</v>
+        <v>2.12920355796814</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.596071720123291</v>
+        <v>-4.737808227539062</v>
       </c>
     </row>
     <row r="25">
@@ -1078,623 +1078,623 @@
         <v>0.53</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.076423754692078</v>
+        <v>-1.144277286529541</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.156115770339966</v>
+        <v>-3.311730623245239</v>
       </c>
       <c r="D25" t="n">
-        <v>16.3560733795166</v>
+        <v>16.73322868347168</v>
       </c>
       <c r="E25" t="n">
-        <v>16.02074432373047</v>
+        <v>15.93406581878662</v>
       </c>
       <c r="F25" t="n">
-        <v>41.95632553100586</v>
+        <v>42.24693298339844</v>
       </c>
       <c r="G25" t="n">
-        <v>4.268875122070312</v>
+        <v>4.335982799530029</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.669920921325684</v>
+        <v>-8.847517013549805</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5271445065736771</v>
+        <v>0.5272499871253967</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.079860923290253</v>
+        <v>-1.147469944953919</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.920043230056763</v>
+        <v>-3.083058595657349</v>
       </c>
       <c r="D26" t="n">
-        <v>20.45601654052734</v>
+        <v>20.99229049682617</v>
       </c>
       <c r="E26" t="n">
-        <v>8.51187801361084</v>
+        <v>8.414023399353027</v>
       </c>
       <c r="F26" t="n">
-        <v>42.07304000854492</v>
+        <v>42.35091018676758</v>
       </c>
       <c r="G26" t="n">
-        <v>7.201813220977783</v>
+        <v>7.424709320068359</v>
       </c>
       <c r="H26" t="n">
-        <v>-12.98678970336914</v>
+        <v>-13.16325950622559</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5175676685571671</v>
+        <v>0.5168637382984161</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.077022457122803</v>
+        <v>-1.141822328567505</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.128298997879028</v>
+        <v>-2.219413042068481</v>
       </c>
       <c r="D27" t="n">
-        <v>25.18948745727539</v>
+        <v>25.83243751525879</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.750156879425049</v>
+        <v>-1.874629974365234</v>
       </c>
       <c r="F27" t="n">
-        <v>41.97665786743164</v>
+        <v>42.1669807434082</v>
       </c>
       <c r="G27" t="n">
-        <v>10.69681167602539</v>
+        <v>11.06118011474609</v>
       </c>
       <c r="H27" t="n">
-        <v>-16.73619079589844</v>
+        <v>-16.78713798522949</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.500922401547432</v>
+        <v>0.4989333713054657</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.069337635040283</v>
+        <v>-1.127926948070526</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2588126659393311</v>
+        <v>0.3230369091033936</v>
       </c>
       <c r="D28" t="n">
-        <v>30.51456451416016</v>
+        <v>31.12419509887695</v>
       </c>
       <c r="E28" t="n">
-        <v>-13.15753078460693</v>
+        <v>-13.28751087188721</v>
       </c>
       <c r="F28" t="n">
-        <v>41.71570587158203</v>
+        <v>41.71443939208984</v>
       </c>
       <c r="G28" t="n">
-        <v>14.31158828735352</v>
+        <v>14.74486827850342</v>
       </c>
       <c r="H28" t="n">
-        <v>-19.6001091003418</v>
+        <v>-19.47896385192871</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4764645290374756</v>
+        <v>0.4736428058147431</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.051948412656784</v>
+        <v>-1.103680763244629</v>
       </c>
       <c r="C29" t="n">
-        <v>2.104530096054077</v>
+        <v>2.226603031158447</v>
       </c>
       <c r="D29" t="n">
-        <v>36.33094024658203</v>
+        <v>36.80231475830078</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.04243087768555</v>
+        <v>-24.08573150634766</v>
       </c>
       <c r="F29" t="n">
-        <v>41.12522888183594</v>
+        <v>40.92479705810547</v>
       </c>
       <c r="G29" t="n">
-        <v>17.58969116210938</v>
+        <v>18.05050086975098</v>
       </c>
       <c r="H29" t="n">
-        <v>-21.21002197265625</v>
+        <v>-20.97320556640625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4440423220396042</v>
+        <v>0.4405032742023468</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.020097519159317</v>
+        <v>-1.065570409297943</v>
       </c>
       <c r="C30" t="n">
-        <v>4.704962730407715</v>
+        <v>4.918371677398682</v>
       </c>
       <c r="D30" t="n">
-        <v>42.45419311523438</v>
+        <v>42.79707336425781</v>
       </c>
       <c r="E30" t="n">
-        <v>-33.00922393798828</v>
+        <v>-32.82627868652344</v>
       </c>
       <c r="F30" t="n">
-        <v>40.04368209838867</v>
+        <v>39.68362808227539</v>
       </c>
       <c r="G30" t="n">
-        <v>19.90275955200195</v>
+        <v>20.38558578491211</v>
       </c>
       <c r="H30" t="n">
-        <v>-21.21002197265625</v>
+        <v>-20.97320556640625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4034588772058487</v>
+        <v>0.398652925491333</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.9647547578811646</v>
+        <v>-1.008189241886139</v>
       </c>
       <c r="C31" t="n">
-        <v>7.9674391746521</v>
+        <v>8.254871368408203</v>
       </c>
       <c r="D31" t="n">
-        <v>48.57413482666016</v>
+        <v>48.76502990722656</v>
       </c>
       <c r="E31" t="n">
-        <v>-39.28734970092773</v>
+        <v>-38.88937377929688</v>
       </c>
       <c r="F31" t="n">
-        <v>37.01627349853516</v>
+        <v>36.67726135253906</v>
       </c>
       <c r="G31" t="n">
-        <v>21.14797592163086</v>
+        <v>21.59808349609375</v>
       </c>
       <c r="H31" t="n">
-        <v>-18.83713150024414</v>
+        <v>-18.64997100830078</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3559883958101273</v>
+        <v>0.3507744532823563</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.8971294355392456</v>
+        <v>-0.9383290839195252</v>
       </c>
       <c r="C32" t="n">
-        <v>11.75178623199463</v>
+        <v>12.06556987762451</v>
       </c>
       <c r="D32" t="n">
-        <v>54.36393737792969</v>
+        <v>54.41712188720703</v>
       </c>
       <c r="E32" t="n">
-        <v>-41.71135711669922</v>
+        <v>-41.16016387939453</v>
       </c>
       <c r="F32" t="n">
-        <v>35.02993774414062</v>
+        <v>34.74925231933594</v>
       </c>
       <c r="G32" t="n">
-        <v>21.14797592163086</v>
+        <v>21.59808349609375</v>
       </c>
       <c r="H32" t="n">
-        <v>-15.97474098205566</v>
+        <v>-15.98745346069336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3039009684324265</v>
+        <v>0.299243997335434</v>
       </c>
       <c r="B33" t="n">
-        <v>1.32399989003901</v>
+        <v>1.398705948226899</v>
       </c>
       <c r="C33" t="n">
-        <v>15.85380363464355</v>
+        <v>16.14481163024902</v>
       </c>
       <c r="D33" t="n">
-        <v>59.46878433227539</v>
+        <v>59.41263580322266</v>
       </c>
       <c r="E33" t="n">
-        <v>-39.87028503417969</v>
+        <v>-39.28279113769531</v>
       </c>
       <c r="F33" t="n">
-        <v>32.43034362792969</v>
+        <v>32.20555114746094</v>
       </c>
       <c r="G33" t="n">
-        <v>21.47602653503418</v>
+        <v>21.77798652648926</v>
       </c>
       <c r="H33" t="n">
-        <v>-13.00801944732666</v>
+        <v>-13.21564960479736</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2504409986734391</v>
+        <v>0.2469572815299034</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2700833851530372</v>
+        <v>-0.4264977845960988</v>
       </c>
       <c r="C34" t="n">
-        <v>20.02773094177246</v>
+        <v>20.27109909057617</v>
       </c>
       <c r="D34" t="n">
-        <v>63.44869995117188</v>
+        <v>63.3305549621582</v>
       </c>
       <c r="E34" t="n">
-        <v>-34.47172546386719</v>
+        <v>-33.94918441772461</v>
       </c>
       <c r="F34" t="n">
-        <v>29.3861198425293</v>
+        <v>29.17397308349609</v>
       </c>
       <c r="G34" t="n">
-        <v>18.17723846435547</v>
+        <v>18.52513885498047</v>
       </c>
       <c r="H34" t="n">
-        <v>-10.53323554992676</v>
+        <v>-10.8835563659668</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7184431747670645</v>
+        <v>0.720424367090823</v>
       </c>
       <c r="B35" t="n">
-        <v>1.744345665857452</v>
+        <v>1.931697215594118</v>
       </c>
       <c r="C35" t="n">
-        <v>24.05736923217773</v>
+        <v>24.26321792602539</v>
       </c>
       <c r="D35" t="n">
-        <v>65.90234375</v>
+        <v>65.80467224121094</v>
       </c>
       <c r="E35" t="n">
-        <v>-27.37088012695312</v>
+        <v>-26.94489669799805</v>
       </c>
       <c r="F35" t="n">
-        <v>26.06277656555176</v>
+        <v>25.80900955200195</v>
       </c>
       <c r="G35" t="n">
-        <v>15.97522735595703</v>
+        <v>16.36159133911133</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.634027481079102</v>
+        <v>-9.049241065979004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9192053155256001</v>
+        <v>0.9206782949194244</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3122928073037374</v>
+        <v>0.1458004777049333</v>
       </c>
       <c r="C36" t="n">
-        <v>27.71968460083008</v>
+        <v>27.91485023498535</v>
       </c>
       <c r="D36" t="n">
-        <v>65.90234375</v>
+        <v>65.80467224121094</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.14629745483398</v>
+        <v>-19.84437561035156</v>
       </c>
       <c r="F36" t="n">
-        <v>22.64790153503418</v>
+        <v>22.32054138183594</v>
       </c>
       <c r="G36" t="n">
-        <v>13.41847991943359</v>
+        <v>13.74724769592285</v>
       </c>
       <c r="H36" t="n">
-        <v>-7.203488349914551</v>
+        <v>-7.657941341400146</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9828911280569633</v>
+        <v>0.9834543084517469</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3122928073037374</v>
+        <v>1.369120162654532</v>
       </c>
       <c r="C37" t="n">
-        <v>30.9047908782959</v>
+        <v>31.12031555175781</v>
       </c>
       <c r="D37" t="n">
-        <v>65.51088714599609</v>
+        <v>65.63514709472656</v>
       </c>
       <c r="E37" t="n">
-        <v>-14.11881637573242</v>
+        <v>-13.92477798461914</v>
       </c>
       <c r="F37" t="n">
-        <v>19.24832534790039</v>
+        <v>18.85615158081055</v>
       </c>
       <c r="G37" t="n">
-        <v>10.8620433807373</v>
+        <v>11.03920936584473</v>
       </c>
       <c r="H37" t="n">
-        <v>-5.904520988464355</v>
+        <v>-6.361337661743164</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9974344109833456</v>
+        <v>0.9975846712464644</v>
       </c>
       <c r="B38" t="n">
-        <v>2.230145876723553</v>
+        <v>1.369120162654532</v>
       </c>
       <c r="C38" t="n">
-        <v>33.45602035522461</v>
+        <v>33.69731140136719</v>
       </c>
       <c r="D38" t="n">
-        <v>62.10127258300781</v>
+        <v>62.26764678955078</v>
       </c>
       <c r="E38" t="n">
-        <v>-9.633147239685059</v>
+        <v>-9.538602828979492</v>
       </c>
       <c r="F38" t="n">
-        <v>15.89554119110107</v>
+        <v>15.48449516296387</v>
       </c>
       <c r="G38" t="n">
-        <v>8.536432266235352</v>
+        <v>8.511423110961914</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.554913520812988</v>
+        <v>-5.02256965637207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9997275393183938</v>
+        <v>0.999754201714385</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5120922200485856</v>
+        <v>0.3419843272717955</v>
       </c>
       <c r="C39" t="n">
-        <v>35.315673828125</v>
+        <v>35.56474685668945</v>
       </c>
       <c r="D39" t="n">
-        <v>56.97611999511719</v>
+        <v>57.16182708740234</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.907734870910645</v>
+        <v>-6.875565528869629</v>
       </c>
       <c r="F39" t="n">
-        <v>12.72887802124023</v>
+        <v>12.34233379364014</v>
       </c>
       <c r="G39" t="n">
-        <v>6.622400760650635</v>
+        <v>6.4421067237854</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.935962677001953</v>
+        <v>-3.368668556213379</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9999783285514027</v>
+        <v>0.999981443948927</v>
       </c>
       <c r="B40" t="n">
-        <v>1.112712750979838</v>
+        <v>1.160864217548897</v>
       </c>
       <c r="C40" t="n">
-        <v>36.59838104248047</v>
+        <v>36.81798553466797</v>
       </c>
       <c r="D40" t="n">
-        <v>50.40819931030273</v>
+        <v>50.60357666015625</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.907734870910645</v>
+        <v>-6.875565528869629</v>
       </c>
       <c r="F40" t="n">
-        <v>9.708878517150879</v>
+        <v>9.381521224975586</v>
       </c>
       <c r="G40" t="n">
-        <v>5.226304531097412</v>
+        <v>4.961412906646729</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.9152384996414185</v>
+        <v>-1.253230214118958</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999986253261905</v>
+        <v>0.9999988682161535</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9919572974689984</v>
+        <v>0.9865771572682798</v>
       </c>
       <c r="C41" t="n">
-        <v>36.59838104248047</v>
+        <v>36.81798553466797</v>
       </c>
       <c r="D41" t="n">
-        <v>42.84107208251953</v>
+        <v>43.04551696777344</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.974082946777344</v>
+        <v>-5.972501754760742</v>
       </c>
       <c r="F41" t="n">
-        <v>6.86064338684082</v>
+        <v>6.594456672668457</v>
       </c>
       <c r="G41" t="n">
-        <v>5.226304531097412</v>
+        <v>4.961412906646729</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4680335521698</v>
+        <v>1.255706071853638</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999999228138008</v>
+        <v>0.9999999370136818</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9993778000868814</v>
+        <v>0.9990877973320706</v>
       </c>
       <c r="C42" t="n">
-        <v>38.20024108886719</v>
+        <v>38.30658340454102</v>
       </c>
       <c r="D42" t="n">
-        <v>34.76802825927734</v>
+        <v>34.99357223510742</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.811023235321045</v>
+        <v>-7.811778545379639</v>
       </c>
       <c r="F42" t="n">
-        <v>4.145649909973145</v>
+        <v>3.94106125831604</v>
       </c>
       <c r="G42" t="n">
-        <v>3.491326093673706</v>
+        <v>3.192867994308472</v>
       </c>
       <c r="H42" t="n">
-        <v>4.316538333892822</v>
+        <v>4.183464527130127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999999957144687</v>
+        <v>0.9999999964877239</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9998626077478541</v>
+        <v>0.9998048453307636</v>
       </c>
       <c r="C43" t="n">
-        <v>38.22770309448242</v>
+        <v>38.30172348022461</v>
       </c>
       <c r="D43" t="n">
-        <v>26.93992233276367</v>
+        <v>27.208740234375</v>
       </c>
       <c r="E43" t="n">
-        <v>-9.801290512084961</v>
+        <v>-9.846829414367676</v>
       </c>
       <c r="F43" t="n">
-        <v>1.623094797134399</v>
+        <v>1.460076212882996</v>
       </c>
       <c r="G43" t="n">
-        <v>3.683659315109253</v>
+        <v>3.453795194625854</v>
       </c>
       <c r="H43" t="n">
-        <v>7.260428428649902</v>
+        <v>7.161200523376465</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999999997711845</v>
+        <v>0.9999999998076112</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999518729251164</v>
+        <v>0.9999321478858412</v>
       </c>
       <c r="C44" t="n">
-        <v>38.32100677490234</v>
+        <v>38.34519577026367</v>
       </c>
       <c r="D44" t="n">
-        <v>19.91564178466797</v>
+        <v>20.21856307983398</v>
       </c>
       <c r="E44" t="n">
-        <v>-11.56549167633057</v>
+        <v>-11.64878463745117</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.7431002855300903</v>
+        <v>-0.8965585827827454</v>
       </c>
       <c r="G44" t="n">
-        <v>4.158709526062012</v>
+        <v>3.991692304611206</v>
       </c>
       <c r="H44" t="n">
-        <v>10.18130302429199</v>
+        <v>10.07305431365967</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999999882773</v>
+        <v>0.9999999999898695</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9999772320982744</v>
+        <v>0.9999676338694492</v>
       </c>
       <c r="C45" t="n">
-        <v>38.41567230224609</v>
+        <v>38.43861770629883</v>
       </c>
       <c r="D45" t="n">
-        <v>14.25295257568359</v>
+        <v>14.61556434631348</v>
       </c>
       <c r="E45" t="n">
-        <v>-12.78831672668457</v>
+        <v>-12.90064811706543</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.000899076461792</v>
+        <v>-3.14676308631897</v>
       </c>
       <c r="G45" t="n">
-        <v>4.823613166809082</v>
+        <v>4.711874961853027</v>
       </c>
       <c r="H45" t="n">
-        <v>12.70191955566406</v>
+        <v>12.54094409942627</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999999999994704</v>
+        <v>0.9999999999995117</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9999865097856887</v>
+        <v>0.9999805412162789</v>
       </c>
       <c r="C46" t="n">
-        <v>38.6812629699707</v>
+        <v>38.6352653503418</v>
       </c>
       <c r="D46" t="n">
-        <v>10.17074203491211</v>
+        <v>10.57353591918945</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.78831672668457</v>
+        <v>-12.90064811706543</v>
       </c>
       <c r="F46" t="n">
-        <v>-5.278042316436768</v>
+        <v>-5.382569789886475</v>
       </c>
       <c r="G46" t="n">
-        <v>5.422179222106934</v>
+        <v>5.342720985412598</v>
       </c>
       <c r="H46" t="n">
-        <v>14.88237380981445</v>
+        <v>14.6192741394043</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999999999838</v>
+        <v>0.9999999999999825</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9999902855032048</v>
+        <v>0.9999857969508323</v>
       </c>
       <c r="C47" t="n">
-        <v>39.31613159179688</v>
+        <v>39.17629623413086</v>
       </c>
       <c r="D47" t="n">
-        <v>7.844399929046631</v>
+        <v>8.257017135620117</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.32871913909912</v>
+        <v>-14.4956111907959</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.313690185546875</v>
+        <v>-7.34031867980957</v>
       </c>
       <c r="G47" t="n">
-        <v>6.281363487243652</v>
+        <v>6.247454643249512</v>
       </c>
       <c r="H47" t="n">
-        <v>16.47904968261719</v>
+        <v>16.12210083007812</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9999920359954019</v>
+        <v>0.9999882510074835</v>
       </c>
       <c r="C48" t="n">
-        <v>39.9261589050293</v>
+        <v>39.69712066650391</v>
       </c>
       <c r="D48" t="n">
-        <v>7.844399929046631</v>
+        <v>8.257017135620117</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.2365894317627</v>
+        <v>-14.44487476348877</v>
       </c>
       <c r="F48" t="n">
-        <v>-9.154003143310547</v>
+        <v>-9.070285797119141</v>
       </c>
       <c r="G48" t="n">
-        <v>7.541489601135254</v>
+        <v>7.51615047454834</v>
       </c>
       <c r="H48" t="n">
-        <v>16.47904968261719</v>
+        <v>16.12210083007812</v>
       </c>
     </row>
     <row r="49">
@@ -1702,25 +1702,25 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9999927431256423</v>
+        <v>0.9999892585484277</v>
       </c>
       <c r="C49" t="n">
-        <v>40.47029495239258</v>
+        <v>40.12249374389648</v>
       </c>
       <c r="D49" t="n">
-        <v>6.331116676330566</v>
+        <v>6.724596977233887</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.67994785308838</v>
+        <v>-14.906081199646</v>
       </c>
       <c r="F49" t="n">
-        <v>-10.69128036499023</v>
+        <v>-10.50393104553223</v>
       </c>
       <c r="G49" t="n">
-        <v>10.22250175476074</v>
+        <v>10.1077356338501</v>
       </c>
       <c r="H49" t="n">
-        <v>16.32684135437012</v>
+        <v>15.91539192199707</v>
       </c>
     </row>
     <row r="50">
@@ -1728,25 +1728,25 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9999928897890765</v>
+        <v>0.9999894719322378</v>
       </c>
       <c r="C50" t="n">
-        <v>41.45297622680664</v>
+        <v>41.13940048217773</v>
       </c>
       <c r="D50" t="n">
-        <v>7.469704627990723</v>
+        <v>7.75011157989502</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.08051681518555</v>
+        <v>-14.34924507141113</v>
       </c>
       <c r="F50" t="n">
-        <v>-10.69128036499023</v>
+        <v>-10.50393104553223</v>
       </c>
       <c r="G50" t="n">
-        <v>12.23432159423828</v>
+        <v>12.20274353027344</v>
       </c>
       <c r="H50" t="n">
-        <v>13.10362434387207</v>
+        <v>12.77626037597656</v>
       </c>
     </row>
     <row r="51">
@@ -1754,25 +1754,25 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9999928897890765</v>
+        <v>0.9999894719322378</v>
       </c>
       <c r="C51" t="n">
-        <v>42.40357208251953</v>
+        <v>42.07223892211914</v>
       </c>
       <c r="D51" t="n">
-        <v>8.166754722595215</v>
+        <v>8.501824378967285</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.36383152008057</v>
+        <v>-14.5494966506958</v>
       </c>
       <c r="F51" t="n">
-        <v>-12.59228038787842</v>
+        <v>-12.2804708480835</v>
       </c>
       <c r="G51" t="n">
-        <v>15.18154621124268</v>
+        <v>15.23317241668701</v>
       </c>
       <c r="H51" t="n">
-        <v>7.221260070800781</v>
+        <v>7.014360427856445</v>
       </c>
     </row>
     <row r="52">
@@ -1780,1247 +1780,1247 @@
         <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9999930534047778</v>
+        <v>0.9999896705393346</v>
       </c>
       <c r="C52" t="n">
-        <v>41.6063232421875</v>
+        <v>41.62387847900391</v>
       </c>
       <c r="D52" t="n">
-        <v>11.26504707336426</v>
+        <v>11.16701316833496</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.54843902587891</v>
+        <v>-15.5684232711792</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.518818616867065</v>
+        <v>-3.84093451499939</v>
       </c>
       <c r="G52" t="n">
-        <v>21.76527976989746</v>
+        <v>21.45298194885254</v>
       </c>
       <c r="H52" t="n">
-        <v>7.221260070800781</v>
+        <v>7.014360427856445</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.007507594162598253</v>
+        <v>0.003472016332671047</v>
       </c>
       <c r="B53" t="n">
-        <v>0.007780032278969885</v>
+        <v>0.02172215826809406</v>
       </c>
       <c r="C53" t="n">
-        <v>41.6063232421875</v>
+        <v>41.62387847900391</v>
       </c>
       <c r="D53" t="n">
-        <v>12.49809074401855</v>
+        <v>12.29563331604004</v>
       </c>
       <c r="E53" t="n">
-        <v>-18.28981971740723</v>
+        <v>-17.37236785888672</v>
       </c>
       <c r="F53" t="n">
-        <v>1.17546021938324</v>
+        <v>1.054924845695496</v>
       </c>
       <c r="G53" t="n">
-        <v>28.20643615722656</v>
+        <v>28.09824371337891</v>
       </c>
       <c r="H53" t="n">
-        <v>4.027650833129883</v>
+        <v>4.713173389434814</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.01047669922932983</v>
+        <v>-0.01156610913574696</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.01369537930935621</v>
+        <v>-0.02979513432830572</v>
       </c>
       <c r="C54" t="n">
-        <v>41.52662658691406</v>
+        <v>41.72098541259766</v>
       </c>
       <c r="D54" t="n">
-        <v>14.46988201141357</v>
+        <v>14.73878288269043</v>
       </c>
       <c r="E54" t="n">
-        <v>-18.28981971740723</v>
+        <v>-19.02085876464844</v>
       </c>
       <c r="F54" t="n">
-        <v>5.392667293548584</v>
+        <v>5.495882987976074</v>
       </c>
       <c r="G54" t="n">
-        <v>34.85195159912109</v>
+        <v>34.77017974853516</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.521633148193359</v>
+        <v>-1.118715763092041</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.001637351894751191</v>
+        <v>0.01055353907868266</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1238401304185391</v>
+        <v>-0.1521879813075066</v>
       </c>
       <c r="C55" t="n">
-        <v>40.79585266113281</v>
+        <v>39.88167572021484</v>
       </c>
       <c r="D55" t="n">
-        <v>17.2487678527832</v>
+        <v>17.83687973022461</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.09488296508789</v>
+        <v>-18.43346786499023</v>
       </c>
       <c r="F55" t="n">
-        <v>9.207921981811523</v>
+        <v>8.940820693969727</v>
       </c>
       <c r="G55" t="n">
-        <v>41.03834533691406</v>
+        <v>41.12882232666016</v>
       </c>
       <c r="H55" t="n">
-        <v>-7.707375049591064</v>
+        <v>-7.496102333068848</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.004258776288479567</v>
+        <v>0.007509084837511182</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.2243598029017448</v>
+        <v>-0.2273825994133949</v>
       </c>
       <c r="C56" t="n">
-        <v>40.30840301513672</v>
+        <v>40.13483047485352</v>
       </c>
       <c r="D56" t="n">
-        <v>20.51332473754883</v>
+        <v>21.1264762878418</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.57238960266113</v>
+        <v>-16.1353759765625</v>
       </c>
       <c r="F56" t="n">
-        <v>12.65398025512695</v>
+        <v>12.18214225769043</v>
       </c>
       <c r="G56" t="n">
-        <v>46.44366836547852</v>
+        <v>46.83452606201172</v>
       </c>
       <c r="H56" t="n">
-        <v>-12.88787746429443</v>
+        <v>-12.88984298706055</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.01469408608973026</v>
+        <v>0.01001027790829539</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.3149715614318848</v>
+        <v>-0.3206560754776001</v>
       </c>
       <c r="C57" t="n">
-        <v>39.44568634033203</v>
+        <v>39.92684936523438</v>
       </c>
       <c r="D57" t="n">
-        <v>23.41173934936523</v>
+        <v>23.69371795654297</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.88722610473633</v>
+        <v>-13.46884727478027</v>
       </c>
       <c r="F57" t="n">
-        <v>15.88613414764404</v>
+        <v>15.4482421875</v>
       </c>
       <c r="G57" t="n">
-        <v>51.04318618774414</v>
+        <v>51.64792633056641</v>
       </c>
       <c r="H57" t="n">
-        <v>-16.00798606872559</v>
+        <v>-16.00203323364258</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.0335390680283308</v>
+        <v>0.02329415887594223</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.4038571697473526</v>
+        <v>-0.4217032849788666</v>
       </c>
       <c r="C58" t="n">
-        <v>36.87451553344727</v>
+        <v>38.82225799560547</v>
       </c>
       <c r="D58" t="n">
-        <v>25.04423904418945</v>
+        <v>24.91489028930664</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.33463096618652</v>
+        <v>-9.975484848022461</v>
       </c>
       <c r="F58" t="n">
-        <v>18.97981262207031</v>
+        <v>18.75446701049805</v>
       </c>
       <c r="G58" t="n">
-        <v>54.68657684326172</v>
+        <v>55.36869812011719</v>
       </c>
       <c r="H58" t="n">
-        <v>-16.00798606872559</v>
+        <v>-16.00203323364258</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.05805020600557328</v>
+        <v>0.04613653466105461</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.4908861750364304</v>
+        <v>-0.5244537889957428</v>
       </c>
       <c r="C59" t="n">
-        <v>35.15311431884766</v>
+        <v>35.62545776367188</v>
       </c>
       <c r="D59" t="n">
-        <v>25.04423904418945</v>
+        <v>24.91489028930664</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.629764556884766</v>
+        <v>-6.274004936218262</v>
       </c>
       <c r="F59" t="n">
-        <v>21.98233795166016</v>
+        <v>22.04879951477051</v>
       </c>
       <c r="G59" t="n">
-        <v>57.05780410766602</v>
+        <v>57.76152801513672</v>
       </c>
       <c r="H59" t="n">
-        <v>-15.07504463195801</v>
+        <v>-14.94776725769043</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.0874383781850338</v>
+        <v>0.077341648042202</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5766243624687195</v>
+        <v>-0.625241893529892</v>
       </c>
       <c r="C60" t="n">
-        <v>32.99700164794922</v>
+        <v>33.52239608764648</v>
       </c>
       <c r="D60" t="n">
-        <v>23.5500373840332</v>
+        <v>23.08926582336426</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.366239786148071</v>
+        <v>-2.988730192184448</v>
       </c>
       <c r="F60" t="n">
-        <v>24.87314224243164</v>
+        <v>25.18593215942383</v>
       </c>
       <c r="G60" t="n">
-        <v>57.05780410766602</v>
+        <v>57.76152801513672</v>
       </c>
       <c r="H60" t="n">
-        <v>-11.32904624938965</v>
+        <v>-11.32902240753174</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1187765821814537</v>
+        <v>0.1123221611976624</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.6584667193889618</v>
+        <v>-0.7167413914203644</v>
       </c>
       <c r="C61" t="n">
-        <v>30.56840133666992</v>
+        <v>30.89186096191406</v>
       </c>
       <c r="D61" t="n">
-        <v>21.28445434570312</v>
+        <v>20.90392684936523</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7741578817367554</v>
+        <v>-0.447454571723938</v>
       </c>
       <c r="F61" t="n">
-        <v>27.63615798950195</v>
+        <v>28.07539939880371</v>
       </c>
       <c r="G61" t="n">
-        <v>57.30262756347656</v>
+        <v>58.03329086303711</v>
       </c>
       <c r="H61" t="n">
-        <v>-6.648401260375977</v>
+        <v>-6.79726505279541</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1514486381411553</v>
+        <v>0.1503005775809288</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.736072542667389</v>
+        <v>-0.7978586208820343</v>
       </c>
       <c r="C62" t="n">
-        <v>27.99778175354004</v>
+        <v>27.95722198486328</v>
       </c>
       <c r="D62" t="n">
-        <v>18.76328659057617</v>
+        <v>18.35958480834961</v>
       </c>
       <c r="E62" t="n">
-        <v>1.123236656188965</v>
+        <v>1.268457174301147</v>
       </c>
       <c r="F62" t="n">
-        <v>30.19133949279785</v>
+        <v>30.6391487121582</v>
       </c>
       <c r="G62" t="n">
-        <v>54.60231781005859</v>
+        <v>55.21656036376953</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.003445625305176</v>
+        <v>-2.264529228210449</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1842603397369385</v>
+        <v>0.1892498478293419</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.8052004969120026</v>
+        <v>-0.8665778577327728</v>
       </c>
       <c r="C63" t="n">
-        <v>25.29055786132812</v>
+        <v>24.85630416870117</v>
       </c>
       <c r="D63" t="n">
-        <v>16.32692909240723</v>
+        <v>15.8204231262207</v>
       </c>
       <c r="E63" t="n">
-        <v>2.502429246902466</v>
+        <v>2.400912284851074</v>
       </c>
       <c r="F63" t="n">
-        <v>32.49287414550781</v>
+        <v>32.90041351318359</v>
       </c>
       <c r="G63" t="n">
-        <v>50.68682098388672</v>
+        <v>51.14836120605469</v>
       </c>
       <c r="H63" t="n">
-        <v>1.793992280960083</v>
+        <v>1.481554746627808</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2186589249968529</v>
+        <v>0.2285413533449173</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.8655095946788788</v>
+        <v>-0.9267228746414184</v>
       </c>
       <c r="C64" t="n">
-        <v>22.44684600830078</v>
+        <v>21.74748611450195</v>
       </c>
       <c r="D64" t="n">
-        <v>13.95456886291504</v>
+        <v>13.4043140411377</v>
       </c>
       <c r="E64" t="n">
-        <v>3.518145084381104</v>
+        <v>2.400912284851074</v>
       </c>
       <c r="F64" t="n">
-        <v>34.45207214355469</v>
+        <v>34.84744644165039</v>
       </c>
       <c r="G64" t="n">
-        <v>45.73871994018555</v>
+        <v>46.15972137451172</v>
       </c>
       <c r="H64" t="n">
-        <v>4.553112030029297</v>
+        <v>4.210597515106201</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2547070693969727</v>
+        <v>0.2660232150554657</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.9131251394748688</v>
+        <v>-0.9768583273887634</v>
       </c>
       <c r="C65" t="n">
-        <v>19.46945190429688</v>
+        <v>18.69660377502441</v>
       </c>
       <c r="D65" t="n">
-        <v>11.64426231384277</v>
+        <v>11.13060569763184</v>
       </c>
       <c r="E65" t="n">
-        <v>3.518145084381104</v>
+        <v>4.083639621734619</v>
       </c>
       <c r="F65" t="n">
-        <v>36.05622863769531</v>
+        <v>36.47519683837891</v>
       </c>
       <c r="G65" t="n">
-        <v>40.00772476196289</v>
+        <v>40.55178451538086</v>
       </c>
       <c r="H65" t="n">
-        <v>6.286668300628662</v>
+        <v>5.942327499389648</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2923382276296616</v>
+        <v>0.3020165657997131</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.949910968542099</v>
+        <v>-1.017035076618195</v>
       </c>
       <c r="C66" t="n">
-        <v>16.38834190368652</v>
+        <v>15.69436836242676</v>
       </c>
       <c r="D66" t="n">
-        <v>9.522089004516602</v>
+        <v>9.067569732666016</v>
       </c>
       <c r="E66" t="n">
-        <v>5.143378734588623</v>
+        <v>4.697805881500244</v>
       </c>
       <c r="F66" t="n">
-        <v>37.35433959960938</v>
+        <v>37.81781387329102</v>
       </c>
       <c r="G66" t="n">
-        <v>33.82814025878906</v>
+        <v>34.58142471313477</v>
       </c>
       <c r="H66" t="n">
-        <v>6.286668300628662</v>
+        <v>5.942327499389648</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.330861468911171</v>
+        <v>0.3375365966558457</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.9791265857219696</v>
+        <v>-1.049505522251129</v>
       </c>
       <c r="C67" t="n">
-        <v>13.31274032592773</v>
+        <v>12.7480354309082</v>
       </c>
       <c r="D67" t="n">
-        <v>7.735997676849365</v>
+        <v>7.331332683563232</v>
       </c>
       <c r="E67" t="n">
-        <v>7.389278411865234</v>
+        <v>6.902676105499268</v>
       </c>
       <c r="F67" t="n">
-        <v>38.38481903076172</v>
+        <v>38.88008499145508</v>
       </c>
       <c r="G67" t="n">
-        <v>27.55656433105469</v>
+        <v>28.5023021697998</v>
       </c>
       <c r="H67" t="n">
-        <v>7.903448581695557</v>
+        <v>7.536646366119385</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3679969412088394</v>
+        <v>0.3722970980405808</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.001592016220093</v>
+        <v>-1.073514778614044</v>
       </c>
       <c r="C68" t="n">
-        <v>10.43102169036865</v>
+        <v>9.947732925415039</v>
       </c>
       <c r="D68" t="n">
-        <v>6.377803802490234</v>
+        <v>6.030899047851562</v>
       </c>
       <c r="E68" t="n">
-        <v>9.071821212768555</v>
+        <v>8.545907974243164</v>
       </c>
       <c r="F68" t="n">
-        <v>38.38481903076172</v>
+        <v>38.88008499145508</v>
       </c>
       <c r="G68" t="n">
-        <v>21.51105880737305</v>
+        <v>22.559814453125</v>
       </c>
       <c r="H68" t="n">
-        <v>7.131670475006104</v>
+        <v>6.676777362823486</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4005086123943329</v>
+        <v>0.4042175221443177</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.017488399744034</v>
+        <v>-1.086232087612152</v>
       </c>
       <c r="C69" t="n">
-        <v>7.795016288757324</v>
+        <v>7.362217903137207</v>
       </c>
       <c r="D69" t="n">
-        <v>6.377803802490234</v>
+        <v>6.030899047851562</v>
       </c>
       <c r="E69" t="n">
-        <v>11.32848453521729</v>
+        <v>10.76803302764893</v>
       </c>
       <c r="F69" t="n">
-        <v>39.95508575439453</v>
+        <v>40.35653305053711</v>
       </c>
       <c r="G69" t="n">
-        <v>15.9952564239502</v>
+        <v>17.03533363342285</v>
       </c>
       <c r="H69" t="n">
-        <v>5.873180866241455</v>
+        <v>5.307338237762451</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4294212770462036</v>
+        <v>0.4327280402183533</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.027668615579605</v>
+        <v>-1.09225209236145</v>
       </c>
       <c r="C70" t="n">
-        <v>5.452637672424316</v>
+        <v>5.057454109191895</v>
       </c>
       <c r="D70" t="n">
-        <v>4.647967338562012</v>
+        <v>4.504754066467285</v>
       </c>
       <c r="E70" t="n">
-        <v>13.73718452453613</v>
+        <v>13.19608688354492</v>
       </c>
       <c r="F70" t="n">
-        <v>40.3007698059082</v>
+        <v>40.55258941650391</v>
       </c>
       <c r="G70" t="n">
-        <v>11.26836204528809</v>
+        <v>12.21807670593262</v>
       </c>
       <c r="H70" t="n">
-        <v>4.414149761199951</v>
+        <v>3.717931509017944</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4542027306556702</v>
+        <v>0.4570689332485199</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.034472948312759</v>
+        <v>-1.094365999698639</v>
       </c>
       <c r="C71" t="n">
-        <v>3.366891860961914</v>
+        <v>3.028554916381836</v>
       </c>
       <c r="D71" t="n">
-        <v>4.728493690490723</v>
+        <v>4.83143138885498</v>
       </c>
       <c r="E71" t="n">
-        <v>16.23018836975098</v>
+        <v>15.67543792724609</v>
       </c>
       <c r="F71" t="n">
-        <v>40.53182220458984</v>
+        <v>40.62143325805664</v>
       </c>
       <c r="G71" t="n">
-        <v>7.526984691619873</v>
+        <v>8.325645446777344</v>
       </c>
       <c r="H71" t="n">
-        <v>3.298351049423218</v>
+        <v>2.503480672836304</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4763274264335632</v>
+        <v>0.4781510174274445</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.039519840478897</v>
+        <v>-1.098350946903229</v>
       </c>
       <c r="C72" t="n">
-        <v>1.52993905544281</v>
+        <v>1.264604926109314</v>
       </c>
       <c r="D72" t="n">
-        <v>5.38054370880127</v>
+        <v>5.678952217102051</v>
       </c>
       <c r="E72" t="n">
-        <v>18.58993148803711</v>
+        <v>18.05968475341797</v>
       </c>
       <c r="F72" t="n">
-        <v>40.70319747924805</v>
+        <v>40.75121688842773</v>
       </c>
       <c r="G72" t="n">
-        <v>4.855502128601074</v>
+        <v>5.474134922027588</v>
       </c>
       <c r="H72" t="n">
-        <v>2.272085905075073</v>
+        <v>1.50564169883728</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.49553761780262</v>
+        <v>0.4961780828237534</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.044711606502533</v>
+        <v>-1.105732753276825</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.01648515462875366</v>
+        <v>-0.229787290096283</v>
       </c>
       <c r="D73" t="n">
-        <v>6.57005786895752</v>
+        <v>7.000893592834473</v>
       </c>
       <c r="E73" t="n">
-        <v>20.35439300537109</v>
+        <v>19.9029712677002</v>
       </c>
       <c r="F73" t="n">
-        <v>40.87948989868164</v>
+        <v>40.99162292480469</v>
       </c>
       <c r="G73" t="n">
-        <v>3.201558113098145</v>
+        <v>3.632495403289795</v>
       </c>
       <c r="H73" t="n">
-        <v>1.206529855728149</v>
+        <v>0.547801673412323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.5107287442684174</v>
+        <v>0.5109080201387406</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.050675253868103</v>
+        <v>-1.114336731433868</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.219753861427307</v>
+        <v>-1.43807065486908</v>
       </c>
       <c r="D74" t="n">
-        <v>9.775445938110352</v>
+        <v>10.20664405822754</v>
       </c>
       <c r="E74" t="n">
-        <v>20.35439300537109</v>
+        <v>19.9029712677002</v>
       </c>
       <c r="F74" t="n">
-        <v>41.08199691772461</v>
+        <v>41.27183532714844</v>
       </c>
       <c r="G74" t="n">
-        <v>3.201558113098145</v>
+        <v>3.632495403289795</v>
       </c>
       <c r="H74" t="n">
-        <v>-1.797514081001282</v>
+        <v>-2.142157316207886</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.5211325889825821</v>
+        <v>0.5219981676340103</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.062221441268921</v>
+        <v>-1.128392591476441</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.219753861427307</v>
+        <v>-1.43807065486908</v>
       </c>
       <c r="D75" t="n">
-        <v>12.25220680236816</v>
+        <v>12.71429252624512</v>
       </c>
       <c r="E75" t="n">
-        <v>19.99410247802734</v>
+        <v>19.64878082275391</v>
       </c>
       <c r="F75" t="n">
-        <v>41.47406387329102</v>
+        <v>41.7296028137207</v>
       </c>
       <c r="G75" t="n">
-        <v>2.030068159103394</v>
+        <v>2.089945554733276</v>
       </c>
       <c r="H75" t="n">
-        <v>-4.605879306793213</v>
+        <v>-4.888234615325928</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5264320784807206</v>
+        <v>0.5278523224592209</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.073618648052216</v>
+        <v>-1.146382095813751</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.861144304275513</v>
+        <v>-3.133143663406372</v>
       </c>
       <c r="D76" t="n">
-        <v>15.64293956756592</v>
+        <v>16.28453063964844</v>
       </c>
       <c r="E76" t="n">
-        <v>15.86475849151611</v>
+        <v>15.61235332489014</v>
       </c>
       <c r="F76" t="n">
-        <v>41.86107635498047</v>
+        <v>42.31547927856445</v>
       </c>
       <c r="G76" t="n">
-        <v>5.025633811950684</v>
+        <v>5.154900550842285</v>
       </c>
       <c r="H76" t="n">
-        <v>-8.46455192565918</v>
+        <v>-8.793233871459961</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.5244610548019409</v>
+        <v>0.5262897002696991</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.081564154624939</v>
+        <v>-1.157827067375183</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.698195695877075</v>
+        <v>-3.003207445144653</v>
       </c>
       <c r="D77" t="n">
-        <v>19.77494621276855</v>
+        <v>20.72709083557129</v>
       </c>
       <c r="E77" t="n">
-        <v>8.557384490966797</v>
+        <v>8.314243316650391</v>
       </c>
       <c r="F77" t="n">
-        <v>42.13087844848633</v>
+        <v>42.68821716308594</v>
       </c>
       <c r="G77" t="n">
-        <v>7.431756973266602</v>
+        <v>7.800200462341309</v>
       </c>
       <c r="H77" t="n">
-        <v>-12.75853538513184</v>
+        <v>-13.12343215942383</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5155946230888367</v>
+        <v>0.5163024073839187</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.083080496788025</v>
+        <v>-1.15756676197052</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.965182542800903</v>
+        <v>-2.172738313674927</v>
       </c>
       <c r="D78" t="n">
-        <v>24.54010391235352</v>
+        <v>25.78950881958008</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.452837467193604</v>
+        <v>-1.708935737609863</v>
       </c>
       <c r="F78" t="n">
-        <v>42.18236541748047</v>
+        <v>42.67974090576172</v>
       </c>
       <c r="G78" t="n">
-        <v>10.6570987701416</v>
+        <v>11.28771781921387</v>
       </c>
       <c r="H78" t="n">
-        <v>-16.61300277709961</v>
+        <v>-16.80713272094727</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.5000669950246811</v>
+        <v>0.4983697658777237</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.078379962444306</v>
+        <v>-1.143785865306854</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.6814682483673096</v>
+        <v>0.354501485824585</v>
       </c>
       <c r="D79" t="n">
-        <v>29.88221168518066</v>
+        <v>31.19964218139648</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.59089088439941</v>
+        <v>-12.83602905273438</v>
       </c>
       <c r="F79" t="n">
-        <v>42.02275085449219</v>
+        <v>42.23092651367188</v>
       </c>
       <c r="G79" t="n">
-        <v>14.2389965057373</v>
+        <v>15.03849601745605</v>
       </c>
       <c r="H79" t="n">
-        <v>-19.48998641967773</v>
+        <v>-19.36400413513184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4771554440259934</v>
+        <v>0.4734496301412582</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.062450788021088</v>
+        <v>-1.114992423057556</v>
       </c>
       <c r="C80" t="n">
-        <v>2.505205869674683</v>
+        <v>2.226432800292969</v>
       </c>
       <c r="D80" t="n">
-        <v>35.71621322631836</v>
+        <v>36.81600189208984</v>
       </c>
       <c r="E80" t="n">
-        <v>-23.27555847167969</v>
+        <v>-23.3720760345459</v>
       </c>
       <c r="F80" t="n">
-        <v>41.48185348510742</v>
+        <v>41.29319000244141</v>
       </c>
       <c r="G80" t="n">
-        <v>17.59306335449219</v>
+        <v>18.47945404052734</v>
       </c>
       <c r="H80" t="n">
-        <v>-21.07419395446777</v>
+        <v>-20.6778450012207</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4458872681856156</v>
+        <v>0.4408857399225235</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.030355131626129</v>
+        <v>-1.069941518306732</v>
       </c>
       <c r="C81" t="n">
-        <v>4.792673587799072</v>
+        <v>4.898097991943359</v>
       </c>
       <c r="D81" t="n">
-        <v>41.84426116943359</v>
+        <v>42.62596893310547</v>
       </c>
       <c r="E81" t="n">
-        <v>-32.25461578369141</v>
+        <v>-31.92181396484375</v>
       </c>
       <c r="F81" t="n">
-        <v>40.39199447631836</v>
+        <v>38.79497528076172</v>
       </c>
       <c r="G81" t="n">
-        <v>20.08008575439453</v>
+        <v>21.02572631835938</v>
       </c>
       <c r="H81" t="n">
-        <v>-21.07419395446777</v>
+        <v>-20.6778450012207</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.406183522939682</v>
+        <v>0.3991385340690613</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9731960451602937</v>
+        <v>-1.006626840829849</v>
       </c>
       <c r="C82" t="n">
-        <v>7.892034530639648</v>
+        <v>8.262350082397461</v>
       </c>
       <c r="D82" t="n">
-        <v>47.99040985107422</v>
+        <v>48.41870880126953</v>
       </c>
       <c r="E82" t="n">
-        <v>-38.61240386962891</v>
+        <v>-37.82111358642578</v>
       </c>
       <c r="F82" t="n">
-        <v>37.17813110351562</v>
+        <v>37.01906967163086</v>
       </c>
       <c r="G82" t="n">
-        <v>21.42214965820312</v>
+        <v>22.34140777587891</v>
       </c>
       <c r="H82" t="n">
-        <v>-18.91424369812012</v>
+        <v>-18.46648406982422</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3588735210895538</v>
+        <v>0.3503507304191589</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.8982214546203614</v>
+        <v>-0.9292248392105104</v>
       </c>
       <c r="C83" t="n">
-        <v>11.61322402954102</v>
+        <v>12.12550640106201</v>
       </c>
       <c r="D83" t="n">
-        <v>53.79421997070312</v>
+        <v>53.89064788818359</v>
       </c>
       <c r="E83" t="n">
-        <v>-41.15869140625</v>
+        <v>-40.05126190185547</v>
       </c>
       <c r="F83" t="n">
-        <v>35.02802658081055</v>
+        <v>34.70277404785156</v>
       </c>
       <c r="G83" t="n">
-        <v>21.42214965820312</v>
+        <v>22.34140777587891</v>
       </c>
       <c r="H83" t="n">
-        <v>-16.02808380126953</v>
+        <v>-15.95359420776367</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3063409525156021</v>
+        <v>0.2978923362493515</v>
       </c>
       <c r="B84" t="n">
-        <v>1.309167430080281</v>
+        <v>1.371520598456432</v>
       </c>
       <c r="C84" t="n">
-        <v>15.72749328613281</v>
+        <v>16.2702465057373</v>
       </c>
       <c r="D84" t="n">
-        <v>58.86464691162109</v>
+        <v>58.70138168334961</v>
       </c>
       <c r="E84" t="n">
-        <v>-39.36907958984375</v>
+        <v>-38.20527648925781</v>
       </c>
       <c r="F84" t="n">
-        <v>32.29050064086914</v>
+        <v>31.95439529418945</v>
       </c>
       <c r="G84" t="n">
-        <v>21.78999710083008</v>
+        <v>21.41456413269043</v>
       </c>
       <c r="H84" t="n">
-        <v>-12.95284175872803</v>
+        <v>-13.29421806335449</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2518206173181534</v>
+        <v>0.2446610814332962</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.24104174752081</v>
+        <v>-0.3682178093991032</v>
       </c>
       <c r="C85" t="n">
-        <v>19.95227813720703</v>
+        <v>20.4537353515625</v>
       </c>
       <c r="D85" t="n">
-        <v>62.73830795288086</v>
+        <v>62.43159484863281</v>
       </c>
       <c r="E85" t="n">
-        <v>-34.00325012207031</v>
+        <v>-32.98787307739258</v>
       </c>
       <c r="F85" t="n">
-        <v>29.19487380981445</v>
+        <v>28.84563636779785</v>
       </c>
       <c r="G85" t="n">
-        <v>18.41404724121094</v>
+        <v>19.55573081970215</v>
       </c>
       <c r="H85" t="n">
-        <v>-10.34610080718994</v>
+        <v>-11.01049518585205</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7185413981384007</v>
+        <v>0.7236824254166829</v>
       </c>
       <c r="B86" t="n">
-        <v>1.715415084179753</v>
+        <v>1.856836619070361</v>
       </c>
       <c r="C86" t="n">
-        <v>24.02900695800781</v>
+        <v>24.47910308837891</v>
       </c>
       <c r="D86" t="n">
-        <v>64.98908233642578</v>
+        <v>64.71138000488281</v>
       </c>
       <c r="E86" t="n">
-        <v>-26.96826934814453</v>
+        <v>-26.15223693847656</v>
       </c>
       <c r="F86" t="n">
-        <v>25.91341209411621</v>
+        <v>25.47109794616699</v>
       </c>
       <c r="G86" t="n">
-        <v>16.17534255981445</v>
+        <v>17.11101913452148</v>
       </c>
       <c r="H86" t="n">
-        <v>-8.361274719238281</v>
+        <v>-9.18985652923584</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9193537912346919</v>
+        <v>0.9231646822376621</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3295308321412107</v>
+        <v>0.2225742212289948</v>
       </c>
       <c r="C87" t="n">
-        <v>27.72453308105469</v>
+        <v>28.15070724487305</v>
       </c>
       <c r="D87" t="n">
-        <v>64.98908233642578</v>
+        <v>64.71138000488281</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.87265396118164</v>
+        <v>-19.28489112854004</v>
       </c>
       <c r="F87" t="n">
-        <v>22.58455848693848</v>
+        <v>21.97938919067383</v>
       </c>
       <c r="G87" t="n">
-        <v>13.60260581970215</v>
+        <v>14.32910346984863</v>
       </c>
       <c r="H87" t="n">
-        <v>-6.876288414001465</v>
+        <v>-7.788244724273682</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9829926254471079</v>
+        <v>0.9844189702547321</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3295308321412107</v>
+        <v>1.314179696164518</v>
       </c>
       <c r="C88" t="n">
-        <v>30.91840171813965</v>
+        <v>31.35930824279785</v>
       </c>
       <c r="D88" t="n">
-        <v>64.05881500244141</v>
+        <v>64.23023986816406</v>
       </c>
       <c r="E88" t="n">
-        <v>-13.9411735534668</v>
+        <v>-13.57126426696777</v>
       </c>
       <c r="F88" t="n">
-        <v>19.27619361877441</v>
+        <v>18.5106372833252</v>
       </c>
       <c r="G88" t="n">
-        <v>11.08352661132812</v>
+        <v>11.5019416809082</v>
       </c>
       <c r="H88" t="n">
-        <v>-5.581372737884521</v>
+        <v>-6.489063739776611</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9974583153280088</v>
+        <v>0.9978110943090749</v>
       </c>
       <c r="B89" t="n">
-        <v>2.206955702244537</v>
+        <v>1.314179696164518</v>
       </c>
       <c r="C89" t="n">
-        <v>33.4842643737793</v>
+        <v>33.9431037902832</v>
       </c>
       <c r="D89" t="n">
-        <v>60.67360687255859</v>
+        <v>60.94976806640625</v>
       </c>
       <c r="E89" t="n">
-        <v>-9.536018371582031</v>
+        <v>-9.366484642028809</v>
       </c>
       <c r="F89" t="n">
-        <v>16.00875473022461</v>
+        <v>15.16471481323242</v>
       </c>
       <c r="G89" t="n">
-        <v>8.838447570800781</v>
+        <v>8.877433776855469</v>
       </c>
       <c r="H89" t="n">
-        <v>-4.254605293273926</v>
+        <v>-5.152749061584473</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9997325653278346</v>
+        <v>0.9997897894652535</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5079737579138405</v>
+        <v>0.4430602985001229</v>
       </c>
       <c r="C90" t="n">
-        <v>35.35297012329102</v>
+        <v>35.81114196777344</v>
       </c>
       <c r="D90" t="n">
-        <v>55.68979263305664</v>
+        <v>56.01762771606445</v>
       </c>
       <c r="E90" t="n">
-        <v>-6.8232421875</v>
+        <v>-6.786400318145752</v>
       </c>
       <c r="F90" t="n">
-        <v>12.85235214233398</v>
+        <v>12.04242324829102</v>
       </c>
       <c r="G90" t="n">
-        <v>6.997616291046143</v>
+        <v>6.725242137908936</v>
       </c>
       <c r="H90" t="n">
-        <v>-2.669815540313721</v>
+        <v>-3.497073173522949</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9999790112073635</v>
+        <v>0.9999853087102749</v>
       </c>
       <c r="B91" t="n">
-        <v>1.117320392256654</v>
+        <v>1.127118519904647</v>
       </c>
       <c r="C91" t="n">
-        <v>36.60469818115234</v>
+        <v>37.01572799682617</v>
       </c>
       <c r="D91" t="n">
-        <v>49.32527923583984</v>
+        <v>49.6820068359375</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.78806209564209</v>
+        <v>-6.786400318145752</v>
       </c>
       <c r="F91" t="n">
-        <v>9.799492835998535</v>
+        <v>9.114219665527344</v>
       </c>
       <c r="G91" t="n">
-        <v>5.628236770629883</v>
+        <v>5.184414863586426</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.6913310289382935</v>
+        <v>-1.343561768531799</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999986568152874</v>
+        <v>0.9999991536383064</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9912520200676608</v>
+        <v>0.9911213774734831</v>
       </c>
       <c r="C92" t="n">
-        <v>36.60469818115234</v>
+        <v>37.01572799682617</v>
       </c>
       <c r="D92" t="n">
-        <v>41.96829986572266</v>
+        <v>42.36908721923828</v>
       </c>
       <c r="E92" t="n">
-        <v>-5.78806209564209</v>
+        <v>-4.795693397521973</v>
       </c>
       <c r="F92" t="n">
-        <v>6.907858848571777</v>
+        <v>6.366455078125</v>
       </c>
       <c r="G92" t="n">
-        <v>5.628236770629883</v>
+        <v>5.184414863586426</v>
       </c>
       <c r="H92" t="n">
-        <v>1.653627634048462</v>
+        <v>1.229208946228027</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9999999211286833</v>
+        <v>0.9999999530072968</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9993250935627568</v>
+        <v>0.9992995539460838</v>
       </c>
       <c r="C93" t="n">
-        <v>38.08759307861328</v>
+        <v>38.31227111816406</v>
       </c>
       <c r="D93" t="n">
-        <v>34.08810424804688</v>
+        <v>34.57092666625977</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.972145080566406</v>
+        <v>-7.965192794799805</v>
       </c>
       <c r="F93" t="n">
-        <v>4.183329582214355</v>
+        <v>3.774446249008179</v>
       </c>
       <c r="G93" t="n">
-        <v>3.930498838424683</v>
+        <v>3.406183958053589</v>
       </c>
       <c r="H93" t="n">
-        <v>4.452705860137939</v>
+        <v>4.17545223236084</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9999999953410259</v>
+        <v>0.999999997288092</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9998520247195875</v>
+        <v>0.9998458779205504</v>
       </c>
       <c r="C94" t="n">
-        <v>38.07221603393555</v>
+        <v>38.21593475341797</v>
       </c>
       <c r="D94" t="n">
-        <v>26.41444778442383</v>
+        <v>26.98694229125977</v>
       </c>
       <c r="E94" t="n">
-        <v>-9.652482032775879</v>
+        <v>-9.732100486755371</v>
       </c>
       <c r="F94" t="n">
-        <v>1.710229158401489</v>
+        <v>1.387906670570374</v>
       </c>
       <c r="G94" t="n">
-        <v>4.174496650695801</v>
+        <v>3.780468702316284</v>
       </c>
       <c r="H94" t="n">
-        <v>7.345316886901855</v>
+        <v>7.125438690185547</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9999999997251584</v>
+        <v>0.9999999998394062</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999492888674694</v>
+        <v>0.9999466131531379</v>
       </c>
       <c r="C95" t="n">
-        <v>38.07566452026367</v>
+        <v>38.14943695068359</v>
       </c>
       <c r="D95" t="n">
-        <v>19.49654960632324</v>
+        <v>20.12134742736816</v>
       </c>
       <c r="E95" t="n">
-        <v>-11.23159408569336</v>
+        <v>-11.39663887023926</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5828033685684204</v>
+        <v>-0.8831276297569275</v>
       </c>
       <c r="G95" t="n">
-        <v>4.834542274475098</v>
+        <v>4.542466163635254</v>
       </c>
       <c r="H95" t="n">
-        <v>10.25007247924805</v>
+        <v>10.01608085632324</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9999999999853396</v>
+        <v>0.999999999991376</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9999766674678253</v>
+        <v>0.9999748402431877</v>
       </c>
       <c r="C96" t="n">
-        <v>38.32325744628906</v>
+        <v>38.39259338378906</v>
       </c>
       <c r="D96" t="n">
-        <v>13.87966346740723</v>
+        <v>14.58254051208496</v>
       </c>
       <c r="E96" t="n">
-        <v>-12.34577941894531</v>
+        <v>-12.55985641479492</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.740363121032715</v>
+        <v>-3.013352870941162</v>
       </c>
       <c r="G96" t="n">
-        <v>5.65027904510498</v>
+        <v>5.456978797912598</v>
       </c>
       <c r="H96" t="n">
-        <v>12.76638603210449</v>
+        <v>12.42024040222168</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.999999999999364</v>
+        <v>0.9999999999995981</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999866429703174</v>
+        <v>0.9999852430917927</v>
       </c>
       <c r="C97" t="n">
-        <v>38.75950622558594</v>
+        <v>38.70553588867188</v>
       </c>
       <c r="D97" t="n">
-        <v>9.772356033325195</v>
+        <v>10.53480911254883</v>
       </c>
       <c r="E97" t="n">
-        <v>-12.34577941894531</v>
+        <v>-12.55985641479492</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.957626342773438</v>
+        <v>-5.148815155029297</v>
       </c>
       <c r="G97" t="n">
-        <v>6.407660484313965</v>
+        <v>6.279374122619629</v>
       </c>
       <c r="H97" t="n">
-        <v>14.99866580963135</v>
+        <v>14.44838619232178</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999999999999851</v>
+        <v>0.9999999999999875</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9999906636607716</v>
+        <v>0.9999895145019047</v>
       </c>
       <c r="C98" t="n">
-        <v>39.63299560546875</v>
+        <v>39.38886260986328</v>
       </c>
       <c r="D98" t="n">
-        <v>7.469239711761475</v>
+        <v>8.226408004760742</v>
       </c>
       <c r="E98" t="n">
-        <v>-13.84155368804932</v>
+        <v>-14.1310920715332</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.905019283294678</v>
+        <v>-6.9460768699646</v>
       </c>
       <c r="G98" t="n">
-        <v>7.210894584655762</v>
+        <v>7.157736778259277</v>
       </c>
       <c r="H98" t="n">
-        <v>16.54998779296875</v>
+        <v>15.81343650817871</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999926038026764</v>
+        <v>0.9999916632082197</v>
       </c>
       <c r="C99" t="n">
-        <v>40.30374526977539</v>
+        <v>39.86100769042969</v>
       </c>
       <c r="D99" t="n">
-        <v>7.469239711761475</v>
+        <v>8.226408004760742</v>
       </c>
       <c r="E99" t="n">
-        <v>-13.7298641204834</v>
+        <v>-14.10644626617432</v>
       </c>
       <c r="F99" t="n">
-        <v>-8.716865539550781</v>
+        <v>-8.54277229309082</v>
       </c>
       <c r="G99" t="n">
-        <v>8.521645545959473</v>
+        <v>8.466172218322754</v>
       </c>
       <c r="H99" t="n">
-        <v>16.54998779296875</v>
+        <v>15.81343650817871</v>
       </c>
     </row>
     <row r="100">
@@ -3028,25 +3028,25 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>0.999993451865212</v>
+        <v>0.9999926972851647</v>
       </c>
       <c r="C100" t="n">
-        <v>40.99121475219727</v>
+        <v>40.31669235229492</v>
       </c>
       <c r="D100" t="n">
-        <v>5.868996620178223</v>
+        <v>6.547051429748535</v>
       </c>
       <c r="E100" t="n">
-        <v>-14.15157985687256</v>
+        <v>-14.55509662628174</v>
       </c>
       <c r="F100" t="n">
-        <v>-10.31541633605957</v>
+        <v>-9.937284469604492</v>
       </c>
       <c r="G100" t="n">
-        <v>11.12493324279785</v>
+        <v>9.967717170715332</v>
       </c>
       <c r="H100" t="n">
-        <v>16.37671852111816</v>
+        <v>15.54689598083496</v>
       </c>
     </row>
     <row r="101">
@@ -3054,25 +3054,25 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999936986674566</v>
+        <v>0.9999930986484946</v>
       </c>
       <c r="C101" t="n">
-        <v>41.73520278930664</v>
+        <v>41.10409545898438</v>
       </c>
       <c r="D101" t="n">
-        <v>7.247481346130371</v>
+        <v>7.755671501159668</v>
       </c>
       <c r="E101" t="n">
-        <v>-13.7272834777832</v>
+        <v>-14.21177864074707</v>
       </c>
       <c r="F101" t="n">
-        <v>-11.36020278930664</v>
+        <v>-9.937284469604492</v>
       </c>
       <c r="G101" t="n">
-        <v>12.99103450775146</v>
+        <v>13.35769081115723</v>
       </c>
       <c r="H101" t="n">
-        <v>13.25316047668457</v>
+        <v>12.57960319519043</v>
       </c>
     </row>
     <row r="102">
@@ -3080,25 +3080,25 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9999937642439234</v>
+        <v>0.99999332389522</v>
       </c>
       <c r="C102" t="n">
-        <v>42.7935905456543</v>
+        <v>42.10826873779297</v>
       </c>
       <c r="D102" t="n">
-        <v>8.034466743469238</v>
+        <v>8.662495613098145</v>
       </c>
       <c r="E102" t="n">
-        <v>-13.99962520599365</v>
+        <v>-14.33318710327148</v>
       </c>
       <c r="F102" t="n">
-        <v>-11.36020278930664</v>
+        <v>-11.71710872650146</v>
       </c>
       <c r="G102" t="n">
-        <v>15.77771759033203</v>
+        <v>16.06322860717773</v>
       </c>
       <c r="H102" t="n">
-        <v>7.32036828994751</v>
+        <v>6.884932518005371</v>
       </c>
     </row>
     <row r="103">
@@ -3106,1247 +3106,1247 @@
         <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9999940504850485</v>
+        <v>0.9999937110492175</v>
       </c>
       <c r="C103" t="n">
-        <v>41.46556091308594</v>
+        <v>41.50615692138672</v>
       </c>
       <c r="D103" t="n">
-        <v>11.60074901580811</v>
+        <v>11.44649124145508</v>
       </c>
       <c r="E103" t="n">
-        <v>-15.12425136566162</v>
+        <v>-16.17959022521973</v>
       </c>
       <c r="F103" t="n">
-        <v>-3.132591962814331</v>
+        <v>-3.601404905319214</v>
       </c>
       <c r="G103" t="n">
-        <v>21.84405517578125</v>
+        <v>21.52974128723145</v>
       </c>
       <c r="H103" t="n">
-        <v>6.0253586769104</v>
+        <v>6.884932518005371</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.01612975114956498</v>
+        <v>0.006786679094657302</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.0028355877334252</v>
+        <v>0.0277495551854372</v>
       </c>
       <c r="C104" t="n">
-        <v>41.46556091308594</v>
+        <v>41.50615692138672</v>
       </c>
       <c r="D104" t="n">
-        <v>11.60074901580811</v>
+        <v>11.44649124145508</v>
       </c>
       <c r="E104" t="n">
-        <v>-18.27340507507324</v>
+        <v>-17.71673774719238</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5771383047103882</v>
+        <v>0.4567826986312866</v>
       </c>
       <c r="G104" t="n">
-        <v>28.03172874450684</v>
+        <v>27.78247833251953</v>
       </c>
       <c r="H104" t="n">
-        <v>3.781415462493896</v>
+        <v>4.207324504852295</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.01648490592837334</v>
+        <v>-0.01700385626405478</v>
       </c>
       <c r="B105" t="n">
-        <v>0.03291920591145754</v>
+        <v>0.01429188225418329</v>
       </c>
       <c r="C105" t="n">
-        <v>42.02334213256836</v>
+        <v>40.75900268554688</v>
       </c>
       <c r="D105" t="n">
-        <v>14.68903732299805</v>
+        <v>14.82762241363525</v>
       </c>
       <c r="E105" t="n">
-        <v>-18.27340507507324</v>
+        <v>-17.71673774719238</v>
       </c>
       <c r="F105" t="n">
-        <v>4.660055160522461</v>
+        <v>4.911826133728027</v>
       </c>
       <c r="G105" t="n">
-        <v>34.68854141235352</v>
+        <v>34.42640686035156</v>
       </c>
       <c r="H105" t="n">
-        <v>-1.661468744277954</v>
+        <v>-1.297316789627075</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.002038695754017681</v>
+        <v>0.01700936090201139</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.09831037774682046</v>
+        <v>-0.1346868813037872</v>
       </c>
       <c r="C106" t="n">
-        <v>40.491943359375</v>
+        <v>40.75900268554688</v>
       </c>
       <c r="D106" t="n">
-        <v>16.58623504638672</v>
+        <v>17.15395736694336</v>
       </c>
       <c r="E106" t="n">
-        <v>-18.92357063293457</v>
+        <v>-18.00576782226562</v>
       </c>
       <c r="F106" t="n">
-        <v>8.57697868347168</v>
+        <v>8.363685607910156</v>
       </c>
       <c r="G106" t="n">
-        <v>41.02892303466797</v>
+        <v>41.04548645019531</v>
       </c>
       <c r="H106" t="n">
-        <v>-7.669491767883301</v>
+        <v>-7.42945384979248</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.01142132017761469</v>
+        <v>0.01564786037430167</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2087730059027672</v>
+        <v>-0.2098740756511688</v>
       </c>
       <c r="C107" t="n">
-        <v>39.71625518798828</v>
+        <v>39.45806884765625</v>
       </c>
       <c r="D107" t="n">
-        <v>19.26513290405273</v>
+        <v>20.12443542480469</v>
       </c>
       <c r="E107" t="n">
-        <v>-16.36970329284668</v>
+        <v>-15.76484870910645</v>
       </c>
       <c r="F107" t="n">
-        <v>12.2414379119873</v>
+        <v>11.70915126800537</v>
       </c>
       <c r="G107" t="n">
-        <v>46.42680358886719</v>
+        <v>46.99322509765625</v>
       </c>
       <c r="H107" t="n">
-        <v>-12.71399307250977</v>
+        <v>-12.77325439453125</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.02067465409636498</v>
+        <v>0.01683370411396027</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.3092542564868927</v>
+        <v>-0.309330547451973</v>
       </c>
       <c r="C108" t="n">
-        <v>38.95125579833984</v>
+        <v>39.35946273803711</v>
       </c>
       <c r="D108" t="n">
-        <v>22.22111511230469</v>
+        <v>22.87819671630859</v>
       </c>
       <c r="E108" t="n">
-        <v>-13.84281921386719</v>
+        <v>-13.19902610778809</v>
       </c>
       <c r="F108" t="n">
-        <v>15.65366172790527</v>
+        <v>15.00972175598145</v>
       </c>
       <c r="G108" t="n">
-        <v>50.79370880126953</v>
+        <v>51.79876708984375</v>
       </c>
       <c r="H108" t="n">
-        <v>-15.83258152008057</v>
+        <v>-15.85854339599609</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.03549401611089707</v>
+        <v>0.02413409989327192</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4023139756917954</v>
+        <v>-0.4092968261241913</v>
       </c>
       <c r="C109" t="n">
-        <v>37.72609710693359</v>
+        <v>38.75241470336914</v>
       </c>
       <c r="D109" t="n">
-        <v>24.4398136138916</v>
+        <v>24.54378509521484</v>
       </c>
       <c r="E109" t="n">
-        <v>-10.42441177368164</v>
+        <v>-9.823169708251953</v>
       </c>
       <c r="F109" t="n">
-        <v>18.8292236328125</v>
+        <v>18.32098388671875</v>
       </c>
       <c r="G109" t="n">
-        <v>54.19841766357422</v>
+        <v>55.32499694824219</v>
       </c>
       <c r="H109" t="n">
-        <v>-15.83258152008057</v>
+        <v>-15.85854339599609</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.05673280082643033</v>
+        <v>0.04201652243733407</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.4888628059625626</v>
+        <v>-0.5112981939315796</v>
       </c>
       <c r="C110" t="n">
-        <v>34.8137092590332</v>
+        <v>36.05863189697266</v>
       </c>
       <c r="D110" t="n">
-        <v>24.4398136138916</v>
+        <v>24.54378509521484</v>
       </c>
       <c r="E110" t="n">
-        <v>-6.791374206542969</v>
+        <v>-6.198918342590332</v>
       </c>
       <c r="F110" t="n">
-        <v>21.81317520141602</v>
+        <v>21.67007446289062</v>
       </c>
       <c r="G110" t="n">
-        <v>56.48352813720703</v>
+        <v>57.53528594970703</v>
       </c>
       <c r="H110" t="n">
-        <v>-15.07556629180908</v>
+        <v>-14.82528591156006</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0847109603881836</v>
+        <v>0.07104281798005105</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.5710955893993378</v>
+        <v>-0.6152944362163544</v>
       </c>
       <c r="C111" t="n">
-        <v>32.9042854309082</v>
+        <v>33.97859191894531</v>
       </c>
       <c r="D111" t="n">
-        <v>24.24882316589355</v>
+        <v>23.46886444091797</v>
       </c>
       <c r="E111" t="n">
-        <v>-3.552837133407593</v>
+        <v>-2.926826238632202</v>
       </c>
       <c r="F111" t="n">
-        <v>24.62753868103027</v>
+        <v>24.92333602905273</v>
       </c>
       <c r="G111" t="n">
-        <v>56.48352813720703</v>
+        <v>57.53528594970703</v>
       </c>
       <c r="H111" t="n">
-        <v>-11.31393623352051</v>
+        <v>-11.3158016204834</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1169141981005669</v>
+        <v>0.1065590579807758</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.6489826309680939</v>
+        <v>-0.7122442364692688</v>
       </c>
       <c r="C112" t="n">
-        <v>30.54374504089355</v>
+        <v>31.2866153717041</v>
       </c>
       <c r="D112" t="n">
-        <v>21.70210838317871</v>
+        <v>21.02722930908203</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.957771897315979</v>
+        <v>-0.3797489404678345</v>
       </c>
       <c r="F112" t="n">
-        <v>27.30920028686523</v>
+        <v>27.93745422363281</v>
       </c>
       <c r="G112" t="n">
-        <v>56.83946990966797</v>
+        <v>57.84060668945312</v>
       </c>
       <c r="H112" t="n">
-        <v>-6.643388271331787</v>
+        <v>-6.911016464233398</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1509236046671867</v>
+        <v>0.1462921112775803</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.7240479493141174</v>
+        <v>-0.7974504721164704</v>
       </c>
       <c r="C113" t="n">
-        <v>27.99365997314453</v>
+        <v>28.22098350524902</v>
       </c>
       <c r="D113" t="n">
-        <v>18.7855396270752</v>
+        <v>18.09836959838867</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9762143492698669</v>
+        <v>1.306565761566162</v>
       </c>
       <c r="F113" t="n">
-        <v>29.83989715576172</v>
+        <v>30.59130668640137</v>
       </c>
       <c r="G113" t="n">
-        <v>54.11428070068359</v>
+        <v>55.08248138427734</v>
       </c>
       <c r="H113" t="n">
-        <v>-2.042660713195801</v>
+        <v>-2.452744960784912</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.184061841070652</v>
+        <v>0.187653186917305</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7941296195983887</v>
+        <v>-0.8678755939006806</v>
       </c>
       <c r="C114" t="n">
-        <v>25.36096572875977</v>
+        <v>24.96671676635742</v>
       </c>
       <c r="D114" t="n">
-        <v>16.07419204711914</v>
+        <v>15.234619140625</v>
       </c>
       <c r="E114" t="n">
-        <v>2.388094186782837</v>
+        <v>2.334335803985596</v>
       </c>
       <c r="F114" t="n">
-        <v>32.17462921142578</v>
+        <v>32.88363647460938</v>
       </c>
       <c r="G114" t="n">
-        <v>50.18079376220703</v>
+        <v>50.97100067138672</v>
       </c>
       <c r="H114" t="n">
-        <v>1.702727556228638</v>
+        <v>1.270679473876953</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2169057807326317</v>
+        <v>0.2290577468276024</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.8571150612831117</v>
+        <v>-0.9271615397930145</v>
       </c>
       <c r="C115" t="n">
-        <v>22.65623092651367</v>
+        <v>21.74315643310547</v>
       </c>
       <c r="D115" t="n">
-        <v>13.67120933532715</v>
+        <v>12.73708343505859</v>
       </c>
       <c r="E115" t="n">
-        <v>3.401534557342529</v>
+        <v>2.334335803985596</v>
       </c>
       <c r="F115" t="n">
-        <v>34.19294738769531</v>
+        <v>34.83202362060547</v>
       </c>
       <c r="G115" t="n">
-        <v>45.29682159423828</v>
+        <v>45.93603515625</v>
       </c>
       <c r="H115" t="n">
-        <v>4.41651725769043</v>
+        <v>3.976814031600952</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.2504932966828347</v>
+        <v>0.2674551790952683</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.9072350978851319</v>
+        <v>-0.9764263594150544</v>
       </c>
       <c r="C116" t="n">
-        <v>19.81036376953125</v>
+        <v>18.65694236755371</v>
       </c>
       <c r="D116" t="n">
-        <v>11.49317741394043</v>
+        <v>10.62930107116699</v>
       </c>
       <c r="E116" t="n">
-        <v>3.401534557342529</v>
+        <v>3.732532024383545</v>
       </c>
       <c r="F116" t="n">
-        <v>35.82781982421875</v>
+        <v>36.45758056640625</v>
       </c>
       <c r="G116" t="n">
-        <v>39.69083023071289</v>
+        <v>40.39357376098633</v>
       </c>
       <c r="H116" t="n">
-        <v>6.14527416229248</v>
+        <v>5.68654203414917</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.2866236710548401</v>
+        <v>0.3029184418916702</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9440890359878541</v>
+        <v>-1.016426833868027</v>
       </c>
       <c r="C117" t="n">
-        <v>16.78336143493652</v>
+        <v>15.67742919921875</v>
       </c>
       <c r="D117" t="n">
-        <v>9.530630111694336</v>
+        <v>8.833185195922852</v>
       </c>
       <c r="E117" t="n">
-        <v>5.037084102630615</v>
+        <v>4.315785884857178</v>
       </c>
       <c r="F117" t="n">
-        <v>37.11166000366211</v>
+        <v>37.80087280273438</v>
       </c>
       <c r="G117" t="n">
-        <v>33.65279769897461</v>
+        <v>34.62326431274414</v>
       </c>
       <c r="H117" t="n">
-        <v>6.14527416229248</v>
+        <v>5.68654203414917</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.3254288887977601</v>
+        <v>0.3374670660495758</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.9715595960617066</v>
+        <v>-1.04900620341301</v>
       </c>
       <c r="C118" t="n">
-        <v>13.67856502532959</v>
+        <v>12.77020359039307</v>
       </c>
       <c r="D118" t="n">
-        <v>7.855926036834717</v>
+        <v>7.313042163848877</v>
       </c>
       <c r="E118" t="n">
-        <v>7.371996879577637</v>
+        <v>6.590919017791748</v>
       </c>
       <c r="F118" t="n">
-        <v>38.11592483520508</v>
+        <v>38.87422561645508</v>
       </c>
       <c r="G118" t="n">
-        <v>27.54465293884277</v>
+        <v>28.83498382568359</v>
       </c>
       <c r="H118" t="n">
-        <v>7.802265644073486</v>
+        <v>7.252246379852295</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.3639250886440277</v>
+        <v>0.3715601873397827</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.9929012274742127</v>
+        <v>-1.073675131797791</v>
       </c>
       <c r="C119" t="n">
-        <v>10.71459674835205</v>
+        <v>9.982595443725586</v>
       </c>
       <c r="D119" t="n">
-        <v>6.542372703552246</v>
+        <v>6.103799819946289</v>
       </c>
       <c r="E119" t="n">
-        <v>9.123817443847656</v>
+        <v>8.315668106079102</v>
       </c>
       <c r="F119" t="n">
-        <v>38.11592483520508</v>
+        <v>38.87422561645508</v>
       </c>
       <c r="G119" t="n">
-        <v>21.70741271972656</v>
+        <v>23.21022415161133</v>
       </c>
       <c r="H119" t="n">
-        <v>7.076368808746338</v>
+        <v>6.398065090179443</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.3980733984708786</v>
+        <v>0.4036455768346787</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.00974728345871</v>
+        <v>-1.087502782344818</v>
       </c>
       <c r="C120" t="n">
-        <v>8.000611305236816</v>
+        <v>7.383761405944824</v>
       </c>
       <c r="D120" t="n">
-        <v>6.542372703552246</v>
+        <v>6.103799819946289</v>
       </c>
       <c r="E120" t="n">
-        <v>11.38277626037598</v>
+        <v>10.56132793426514</v>
       </c>
       <c r="F120" t="n">
-        <v>39.69222259521484</v>
+        <v>40.39791488647461</v>
       </c>
       <c r="G120" t="n">
-        <v>16.43255996704102</v>
+        <v>17.96625137329102</v>
       </c>
       <c r="H120" t="n">
-        <v>5.858414173126221</v>
+        <v>5.034183979034424</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4278777039051056</v>
+        <v>0.4326291304826737</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.021793547868729</v>
+        <v>-1.093282194137573</v>
       </c>
       <c r="C121" t="n">
-        <v>5.609488487243652</v>
+        <v>5.066512107849121</v>
       </c>
       <c r="D121" t="n">
-        <v>4.778243064880371</v>
+        <v>4.53975772857666</v>
       </c>
       <c r="E121" t="n">
-        <v>13.76279354095459</v>
+        <v>12.97967720031738</v>
       </c>
       <c r="F121" t="n">
-        <v>40.10127258300781</v>
+        <v>40.58613967895508</v>
       </c>
       <c r="G121" t="n">
-        <v>11.9479866027832</v>
+        <v>13.36108779907227</v>
       </c>
       <c r="H121" t="n">
-        <v>4.357669353485107</v>
+        <v>3.366941213607788</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4528951066732407</v>
+        <v>0.4571101272106171</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.029656034708023</v>
+        <v>-1.093713846206665</v>
       </c>
       <c r="C122" t="n">
-        <v>3.515583038330078</v>
+        <v>3.060189247131348</v>
       </c>
       <c r="D122" t="n">
-        <v>4.743645668029785</v>
+        <v>4.758610725402832</v>
       </c>
       <c r="E122" t="n">
-        <v>16.16552925109863</v>
+        <v>15.37004947662354</v>
       </c>
       <c r="F122" t="n">
-        <v>40.36825561523438</v>
+        <v>40.60019683837891</v>
       </c>
       <c r="G122" t="n">
-        <v>8.419950485229492</v>
+        <v>9.615020751953125</v>
       </c>
       <c r="H122" t="n">
-        <v>3.036189794540405</v>
+        <v>1.905996084213257</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4746276068687439</v>
+        <v>0.4774990850687027</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.034835922718048</v>
+        <v>-1.094883325099945</v>
       </c>
       <c r="C123" t="n">
-        <v>1.698852896690369</v>
+        <v>1.353617548942566</v>
       </c>
       <c r="D123" t="n">
-        <v>5.228512763977051</v>
+        <v>5.535233497619629</v>
       </c>
       <c r="E123" t="n">
-        <v>18.41454315185547</v>
+        <v>17.62320709228516</v>
       </c>
       <c r="F123" t="n">
-        <v>40.54414749145508</v>
+        <v>40.63828277587891</v>
       </c>
       <c r="G123" t="n">
-        <v>5.912686824798584</v>
+        <v>6.852307796478271</v>
       </c>
       <c r="H123" t="n">
-        <v>1.84032130241394</v>
+        <v>0.7180010676383972</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4932498681545258</v>
+        <v>0.4944176095724106</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.039400870800018</v>
+        <v>-1.100042300224304</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1776452660560608</v>
+        <v>-0.07265299558639526</v>
       </c>
       <c r="D124" t="n">
-        <v>6.265397071838379</v>
+        <v>6.820372581481934</v>
       </c>
       <c r="E124" t="n">
-        <v>20.10425186157227</v>
+        <v>19.39346694946289</v>
       </c>
       <c r="F124" t="n">
-        <v>40.69915771484375</v>
+        <v>40.80629730224609</v>
       </c>
       <c r="G124" t="n">
-        <v>4.369498252868652</v>
+        <v>5.051190376281738</v>
       </c>
       <c r="H124" t="n">
-        <v>0.649181067943573</v>
+        <v>-0.3296783268451691</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.5080755877494813</v>
+        <v>0.5081991064548492</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.044893883466721</v>
+        <v>-1.10824937582016</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.9986509084701538</v>
+        <v>-1.225131750106812</v>
       </c>
       <c r="D125" t="n">
-        <v>9.205101013183594</v>
+        <v>9.85963249206543</v>
       </c>
       <c r="E125" t="n">
-        <v>20.10425186157227</v>
+        <v>19.39346694946289</v>
       </c>
       <c r="F125" t="n">
-        <v>40.88568115234375</v>
+        <v>41.07358551025391</v>
       </c>
       <c r="G125" t="n">
-        <v>4.369498252868652</v>
+        <v>5.051190376281738</v>
       </c>
       <c r="H125" t="n">
-        <v>-2.133035182952881</v>
+        <v>-2.692075729370117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.518131874203682</v>
+        <v>0.5187662106752395</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.05577578663826</v>
+        <v>-1.122131993770599</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.9986509084701538</v>
+        <v>-1.225131750106812</v>
       </c>
       <c r="D126" t="n">
-        <v>11.57503223419189</v>
+        <v>12.22914886474609</v>
       </c>
       <c r="E126" t="n">
-        <v>19.77433776855469</v>
+        <v>19.16489410400391</v>
       </c>
       <c r="F126" t="n">
-        <v>41.25519180297852</v>
+        <v>41.52571105957031</v>
       </c>
       <c r="G126" t="n">
-        <v>3.14143443107605</v>
+        <v>3.325770139694214</v>
       </c>
       <c r="H126" t="n">
-        <v>-4.64940071105957</v>
+        <v>-5.06983470916748</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.5230066615343094</v>
+        <v>0.5247965770959855</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.06887767791748</v>
+        <v>-1.143056631088257</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.577958345413208</v>
+        <v>-2.879052400588989</v>
       </c>
       <c r="D127" t="n">
-        <v>14.90410041809082</v>
+        <v>15.72107410430908</v>
       </c>
       <c r="E127" t="n">
-        <v>15.77599143981934</v>
+        <v>15.27658271789551</v>
       </c>
       <c r="F127" t="n">
-        <v>41.70008850097656</v>
+        <v>42.20718002319336</v>
       </c>
       <c r="G127" t="n">
-        <v>5.484955787658691</v>
+        <v>5.695558547973633</v>
       </c>
       <c r="H127" t="n">
-        <v>-8.25468635559082</v>
+        <v>-8.688934326171875</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.5210882991552354</v>
+        <v>0.523939938545227</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.080582196712494</v>
+        <v>-1.162040350437164</v>
       </c>
       <c r="C128" t="n">
-        <v>-2.419362306594849</v>
+        <v>-2.807820558547974</v>
       </c>
       <c r="D128" t="n">
-        <v>19.0443115234375</v>
+        <v>20.25091934204102</v>
       </c>
       <c r="E128" t="n">
-        <v>8.625921249389648</v>
+        <v>8.177078247070312</v>
       </c>
       <c r="F128" t="n">
-        <v>42.09753036499023</v>
+        <v>42.82543563842773</v>
       </c>
       <c r="G128" t="n">
-        <v>7.556998252868652</v>
+        <v>8.044767379760742</v>
       </c>
       <c r="H128" t="n">
-        <v>-12.4707498550415</v>
+        <v>-12.97893810272217</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.5125332230329513</v>
+        <v>0.5144020831584931</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.086826367378235</v>
+        <v>-1.169928488731384</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.712090730667114</v>
+        <v>-2.014722108840942</v>
       </c>
       <c r="D129" t="n">
-        <v>23.85091590881348</v>
+        <v>25.56067276000977</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.190619945526123</v>
+        <v>-1.589288711547852</v>
       </c>
       <c r="F129" t="n">
-        <v>42.30956268310547</v>
+        <v>43.08233261108398</v>
       </c>
       <c r="G129" t="n">
-        <v>10.51924419403076</v>
+        <v>11.35627555847168</v>
       </c>
       <c r="H129" t="n">
-        <v>-16.41592025756836</v>
+        <v>-16.77845191955566</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4979644602537155</v>
+        <v>0.4965466487407685</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.086057834625244</v>
+        <v>-1.160778880119324</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.5076477527618408</v>
+        <v>0.4897029399871826</v>
       </c>
       <c r="D130" t="n">
-        <v>29.22445678710938</v>
+        <v>31.23635673522949</v>
       </c>
       <c r="E130" t="n">
-        <v>-12.09342193603516</v>
+        <v>-12.42784214019775</v>
       </c>
       <c r="F130" t="n">
-        <v>42.28346633911133</v>
+        <v>42.78435134887695</v>
       </c>
       <c r="G130" t="n">
-        <v>14.01902008056641</v>
+        <v>15.12500286102295</v>
       </c>
       <c r="H130" t="n">
-        <v>-19.35499382019043</v>
+        <v>-19.3161678314209</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4767003202438355</v>
+        <v>0.4720208567380905</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.073012363910675</v>
+        <v>-1.131555428504944</v>
       </c>
       <c r="C131" t="n">
-        <v>2.478832006454468</v>
+        <v>2.303452014923096</v>
       </c>
       <c r="D131" t="n">
-        <v>35.08519744873047</v>
+        <v>36.94855880737305</v>
       </c>
       <c r="E131" t="n">
-        <v>-22.56053733825684</v>
+        <v>-22.69915008544922</v>
       </c>
       <c r="F131" t="n">
-        <v>41.84048843383789</v>
+        <v>41.83261108398438</v>
       </c>
       <c r="G131" t="n">
-        <v>17.44348526000977</v>
+        <v>18.7146167755127</v>
       </c>
       <c r="H131" t="n">
-        <v>-20.93960571289062</v>
+        <v>-20.4851131439209</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4469804561138153</v>
+        <v>0.4406592047214508</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.041956412792206</v>
+        <v>-1.081585762500763</v>
       </c>
       <c r="C132" t="n">
-        <v>4.688828468322754</v>
+        <v>4.892264842987061</v>
       </c>
       <c r="D132" t="n">
-        <v>41.24366760253906</v>
+        <v>42.63478851318359</v>
       </c>
       <c r="E132" t="n">
-        <v>-31.51101684570312</v>
+        <v>-31.05585098266602</v>
       </c>
       <c r="F132" t="n">
-        <v>40.78593444824219</v>
+        <v>39.06452941894531</v>
       </c>
       <c r="G132" t="n">
-        <v>20.10491180419922</v>
+        <v>21.49054336547852</v>
       </c>
       <c r="H132" t="n">
-        <v>-20.93960571289062</v>
+        <v>-20.4851131439209</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4083766907453537</v>
+        <v>0.4002050280570984</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.9844310033321381</v>
+        <v>-1.01153580904007</v>
       </c>
       <c r="C133" t="n">
-        <v>7.726558208465576</v>
+        <v>8.217076301574707</v>
       </c>
       <c r="D133" t="n">
-        <v>47.42527008056641</v>
+        <v>48.21224975585938</v>
       </c>
       <c r="E133" t="n">
-        <v>-37.97147750854492</v>
+        <v>-36.79184722900391</v>
       </c>
       <c r="F133" t="n">
-        <v>37.45647430419922</v>
+        <v>37.09306335449219</v>
       </c>
       <c r="G133" t="n">
-        <v>21.59666442871094</v>
+        <v>22.99221420288086</v>
       </c>
       <c r="H133" t="n">
-        <v>-18.97503280639648</v>
+        <v>-18.26420974731445</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3616205960512162</v>
+        <v>0.3513694912195206</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.9033806824684143</v>
+        <v>-0.9254919838905334</v>
       </c>
       <c r="C134" t="n">
-        <v>11.41685199737549</v>
+        <v>12.09594345092773</v>
       </c>
       <c r="D134" t="n">
-        <v>53.26378631591797</v>
+        <v>53.45351028442383</v>
       </c>
       <c r="E134" t="n">
-        <v>-40.64276885986328</v>
+        <v>-38.95602798461914</v>
       </c>
       <c r="F134" t="n">
-        <v>35.11973190307617</v>
+        <v>34.55349731445312</v>
       </c>
       <c r="G134" t="n">
-        <v>21.59666442871094</v>
+        <v>22.99221420288086</v>
       </c>
       <c r="H134" t="n">
-        <v>-16.0805549621582</v>
+        <v>-15.87280559539795</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3090899229049683</v>
+        <v>0.2980589443445206</v>
       </c>
       <c r="B135" t="n">
-        <v>1.294135654212804</v>
+        <v>1.343088274860538</v>
       </c>
       <c r="C135" t="n">
-        <v>15.53220558166504</v>
+        <v>16.29067230224609</v>
       </c>
       <c r="D135" t="n">
-        <v>58.3363151550293</v>
+        <v>58.04425048828125</v>
       </c>
       <c r="E135" t="n">
-        <v>-38.88288879394531</v>
+        <v>-37.12490844726562</v>
       </c>
       <c r="F135" t="n">
-        <v>32.19134521484375</v>
+        <v>31.63335418701172</v>
       </c>
       <c r="G135" t="n">
-        <v>21.07339477539062</v>
+        <v>22.07170486450195</v>
       </c>
       <c r="H135" t="n">
-        <v>-12.91156196594238</v>
+        <v>-13.33185386657715</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.2541696840524674</v>
+        <v>0.2438143149018288</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.2088643297392853</v>
+        <v>-0.3066393856639212</v>
       </c>
       <c r="C136" t="n">
-        <v>19.78259086608887</v>
+        <v>20.53459930419922</v>
       </c>
       <c r="D136" t="n">
-        <v>62.13881683349609</v>
+        <v>61.56931304931641</v>
       </c>
       <c r="E136" t="n">
-        <v>-33.50457763671875</v>
+        <v>-32.01255798339844</v>
       </c>
       <c r="F136" t="n">
-        <v>28.98895835876465</v>
+        <v>28.4468994140625</v>
       </c>
       <c r="G136" t="n">
-        <v>19.15156364440918</v>
+        <v>20.10133361816406</v>
       </c>
       <c r="H136" t="n">
-        <v>-10.17577362060547</v>
+        <v>-11.1208324432373</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7169725353833281</v>
+        <v>0.7257972079002957</v>
       </c>
       <c r="B137" t="n">
-        <v>1.679340935415969</v>
+        <v>1.778490185062499</v>
       </c>
       <c r="C137" t="n">
-        <v>23.89389038085938</v>
+        <v>24.61213493347168</v>
       </c>
       <c r="D137" t="n">
-        <v>64.21279907226562</v>
+        <v>63.6536865234375</v>
       </c>
       <c r="E137" t="n">
-        <v>-26.50727844238281</v>
+        <v>-25.34358215332031</v>
       </c>
       <c r="F137" t="n">
-        <v>25.71643447875977</v>
+        <v>25.07335472106934</v>
       </c>
       <c r="G137" t="n">
-        <v>16.62158966064453</v>
+        <v>17.56912803649902</v>
       </c>
       <c r="H137" t="n">
-        <v>-8.096136093139648</v>
+        <v>-9.332889556884766</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9182548153933086</v>
+        <v>0.9249050337931219</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3529681888431412</v>
+        <v>0.2970873993117665</v>
       </c>
       <c r="C138" t="n">
-        <v>27.62858200073242</v>
+        <v>28.32963943481445</v>
       </c>
       <c r="D138" t="n">
-        <v>64.21279907226562</v>
+        <v>63.6536865234375</v>
       </c>
       <c r="E138" t="n">
-        <v>-19.53659820556641</v>
+        <v>-18.69998931884766</v>
       </c>
       <c r="F138" t="n">
-        <v>22.47675895690918</v>
+        <v>21.61003303527832</v>
       </c>
       <c r="G138" t="n">
-        <v>13.89817237854004</v>
+        <v>14.71920204162598</v>
       </c>
       <c r="H138" t="n">
-        <v>-6.5572509765625</v>
+        <v>-7.928072452545166</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9826549163519995</v>
+        <v>0.9851549851723843</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3529681888431412</v>
+        <v>0.2970873993117665</v>
       </c>
       <c r="C139" t="n">
-        <v>30.85966682434082</v>
+        <v>31.56873321533203</v>
       </c>
       <c r="D139" t="n">
-        <v>62.67081451416016</v>
+        <v>62.8098030090332</v>
       </c>
       <c r="E139" t="n">
-        <v>-13.7191104888916</v>
+        <v>-13.19767189025879</v>
       </c>
       <c r="F139" t="n">
-        <v>19.28988075256348</v>
+        <v>18.16952514648438</v>
       </c>
       <c r="G139" t="n">
-        <v>11.33508682250977</v>
+        <v>11.83479690551758</v>
       </c>
       <c r="H139" t="n">
-        <v>-5.268168926239014</v>
+        <v>-6.624747276306152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9973993277250377</v>
+        <v>0.9979953083139601</v>
       </c>
       <c r="B140" t="n">
-        <v>2.173091585384493</v>
+        <v>2.23365564773192</v>
       </c>
       <c r="C140" t="n">
-        <v>33.47751617431641</v>
+        <v>34.1761360168457</v>
       </c>
       <c r="D140" t="n">
-        <v>59.23347091674805</v>
+        <v>59.56459045410156</v>
       </c>
       <c r="E140" t="n">
-        <v>-9.417099952697754</v>
+        <v>-9.185873985290527</v>
       </c>
       <c r="F140" t="n">
-        <v>16.13715744018555</v>
+        <v>14.86064434051514</v>
       </c>
       <c r="G140" t="n">
-        <v>9.127918243408203</v>
+        <v>9.171525955200195</v>
       </c>
       <c r="H140" t="n">
-        <v>-3.974501609802246</v>
+        <v>-5.27931022644043</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9997290435246204</v>
+        <v>0.999819154426869</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5059317170149993</v>
+        <v>0.5303389692787086</v>
       </c>
       <c r="C141" t="n">
-        <v>35.4063720703125</v>
+        <v>36.06362533569336</v>
       </c>
       <c r="D141" t="n">
-        <v>54.33474349975586</v>
+        <v>54.77028656005859</v>
       </c>
       <c r="E141" t="n">
-        <v>-6.744184494018555</v>
+        <v>-6.717022895812988</v>
       </c>
       <c r="F141" t="n">
-        <v>13.02557373046875</v>
+        <v>11.77072715759277</v>
       </c>
       <c r="G141" t="n">
-        <v>7.348897457122803</v>
+        <v>6.989222049713135</v>
       </c>
       <c r="H141" t="n">
-        <v>-2.433847188949585</v>
+        <v>-3.615214824676514</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.999979436977948</v>
+        <v>0.9999884768677375</v>
       </c>
       <c r="B142" t="n">
-        <v>1.123793163378778</v>
+        <v>1.100685768370111</v>
       </c>
       <c r="C142" t="n">
-        <v>36.67813110351562</v>
+        <v>37.25424194335938</v>
       </c>
       <c r="D142" t="n">
-        <v>48.16090393066406</v>
+        <v>48.65510559082031</v>
       </c>
       <c r="E142" t="n">
-        <v>-5.67393684387207</v>
+        <v>-5.711162090301514</v>
       </c>
       <c r="F142" t="n">
-        <v>9.946246147155762</v>
+        <v>8.875856399536133</v>
       </c>
       <c r="G142" t="n">
-        <v>6.015490531921387</v>
+        <v>5.432568073272705</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.4959189891815186</v>
+        <v>-1.429251313209534</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999987279214075</v>
+        <v>0.9999993948672365</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9899419914486858</v>
+        <v>0.9941635569718345</v>
       </c>
       <c r="C143" t="n">
-        <v>36.67813110351562</v>
+        <v>37.25424194335938</v>
       </c>
       <c r="D143" t="n">
-        <v>41.0373649597168</v>
+        <v>41.62137603759766</v>
       </c>
       <c r="E143" t="n">
-        <v>-5.67393684387207</v>
+        <v>-5.711162090301514</v>
       </c>
       <c r="F143" t="n">
-        <v>6.993773460388184</v>
+        <v>6.165461540222168</v>
       </c>
       <c r="G143" t="n">
-        <v>6.015490531921387</v>
+        <v>5.432568073272705</v>
       </c>
       <c r="H143" t="n">
-        <v>1.820887923240662</v>
+        <v>1.196704864501953</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.99999992491916</v>
+        <v>0.9999999677258699</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9992380391196745</v>
+        <v>0.9994842291579829</v>
       </c>
       <c r="C144" t="n">
-        <v>38.07433700561523</v>
+        <v>38.40875244140625</v>
       </c>
       <c r="D144" t="n">
-        <v>33.38933563232422</v>
+        <v>34.13814926147461</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.631378173828125</v>
+        <v>-7.612769603729248</v>
       </c>
       <c r="F144" t="n">
-        <v>4.230281829833984</v>
+        <v>3.622493028640747</v>
       </c>
       <c r="G144" t="n">
-        <v>4.343070030212402</v>
+        <v>3.677345991134644</v>
       </c>
       <c r="H144" t="n">
-        <v>4.585790634155273</v>
+        <v>4.161596298217773</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999999953512507</v>
+        <v>0.9999999981036632</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9998332760472413</v>
+        <v>0.9998834376522442</v>
       </c>
       <c r="C145" t="n">
-        <v>37.94751358032227</v>
+        <v>38.16974639892578</v>
       </c>
       <c r="D145" t="n">
-        <v>25.91696548461914</v>
+        <v>26.8175163269043</v>
       </c>
       <c r="E145" t="n">
-        <v>-9.251605987548828</v>
+        <v>-9.359767913818359</v>
       </c>
       <c r="F145" t="n">
-        <v>1.791569471359253</v>
+        <v>1.314936995506287</v>
       </c>
       <c r="G145" t="n">
-        <v>4.610440254211426</v>
+        <v>4.128397941589355</v>
       </c>
       <c r="H145" t="n">
-        <v>7.432729244232178</v>
+        <v>7.085443019866943</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999999996980012</v>
+        <v>0.9999999998796321</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999439358047331</v>
+        <v>0.9999596642018922</v>
       </c>
       <c r="C146" t="n">
-        <v>37.81401062011719</v>
+        <v>37.96187591552734</v>
       </c>
       <c r="D146" t="n">
-        <v>19.11928558349609</v>
+        <v>20.08878135681152</v>
       </c>
       <c r="E146" t="n">
-        <v>-10.78799057006836</v>
+        <v>-11.03669357299805</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.4578884840011597</v>
+        <v>-0.895142138004303</v>
       </c>
       <c r="G146" t="n">
-        <v>5.409157752990723</v>
+        <v>5.040364265441895</v>
       </c>
       <c r="H146" t="n">
-        <v>10.34439754486084</v>
+        <v>9.976277351379395</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999999999828382</v>
+        <v>0.9999999999933037</v>
       </c>
       <c r="B147" t="n">
-        <v>0.999974729366402</v>
+        <v>0.9999811052106053</v>
       </c>
       <c r="C147" t="n">
-        <v>38.17050170898438</v>
+        <v>38.3074836730957</v>
       </c>
       <c r="D147" t="n">
-        <v>13.55759048461914</v>
+        <v>14.60262680053711</v>
       </c>
       <c r="E147" t="n">
-        <v>-11.87271690368652</v>
+        <v>-12.18504333496094</v>
       </c>
       <c r="F147" t="n">
-        <v>-2.529085874557495</v>
+        <v>-2.907300472259521</v>
       </c>
       <c r="G147" t="n">
-        <v>6.370671272277832</v>
+        <v>6.12781810760498</v>
       </c>
       <c r="H147" t="n">
-        <v>12.87745761871338</v>
+        <v>12.32888507843018</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999999999992699</v>
+        <v>0.9999999999996948</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9999859514115176</v>
+        <v>0.9999891630062139</v>
       </c>
       <c r="C148" t="n">
-        <v>38.79638671875</v>
+        <v>38.75089263916016</v>
       </c>
       <c r="D148" t="n">
-        <v>9.405206680297852</v>
+        <v>10.49507522583008</v>
       </c>
       <c r="E148" t="n">
-        <v>-11.87271690368652</v>
+        <v>-12.18504333496094</v>
       </c>
       <c r="F148" t="n">
-        <v>-4.700086116790771</v>
+        <v>-4.954015731811523</v>
       </c>
       <c r="G148" t="n">
-        <v>7.293545722961426</v>
+        <v>7.149462699890137</v>
       </c>
       <c r="H148" t="n">
-        <v>15.19128227233887</v>
+        <v>14.33648300170898</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999999999999882</v>
+        <v>0.9999999999999922</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999904174235986</v>
+        <v>0.9999924778113614</v>
       </c>
       <c r="C149" t="n">
-        <v>39.95708084106445</v>
+        <v>39.6402473449707</v>
       </c>
       <c r="D149" t="n">
-        <v>7.12483549118042</v>
+        <v>8.16731071472168</v>
       </c>
       <c r="E149" t="n">
-        <v>-13.4284200668335</v>
+        <v>-13.7974796295166</v>
       </c>
       <c r="F149" t="n">
-        <v>-6.520092010498047</v>
+        <v>-6.565451145172119</v>
       </c>
       <c r="G149" t="n">
-        <v>8.100998878479004</v>
+        <v>8.05243968963623</v>
       </c>
       <c r="H149" t="n">
-        <v>16.66510391235352</v>
+        <v>15.54701328277588</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999926815189655</v>
+        <v>0.9999942661274088</v>
       </c>
       <c r="C150" t="n">
-        <v>40.66362380981445</v>
+        <v>40.03525161743164</v>
       </c>
       <c r="D150" t="n">
-        <v>7.12483549118042</v>
+        <v>8.16731071472168</v>
       </c>
       <c r="E150" t="n">
-        <v>-13.25907039642334</v>
+        <v>-13.76321983337402</v>
       </c>
       <c r="F150" t="n">
-        <v>-8.323013305664062</v>
+        <v>-8.053292274475098</v>
       </c>
       <c r="G150" t="n">
-        <v>9.455206871032715</v>
+        <v>9.369643211364746</v>
       </c>
       <c r="H150" t="n">
-        <v>16.66510391235352</v>
+        <v>15.54701328277588</v>
       </c>
     </row>
     <row r="151">
@@ -4354,25 +4354,25 @@
         <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9999936844606113</v>
+        <v>0.999995176104257</v>
       </c>
       <c r="C151" t="n">
-        <v>41.54368591308594</v>
+        <v>40.55836486816406</v>
       </c>
       <c r="D151" t="n">
-        <v>5.404522895812988</v>
+        <v>6.267378807067871</v>
       </c>
       <c r="E151" t="n">
-        <v>-13.7213191986084</v>
+        <v>-14.24797058105469</v>
       </c>
       <c r="F151" t="n">
-        <v>-9.928964614868164</v>
+        <v>-9.35692024230957</v>
       </c>
       <c r="G151" t="n">
-        <v>10.98462009429932</v>
+        <v>10.79412651062012</v>
       </c>
       <c r="H151" t="n">
-        <v>16.4577808380127</v>
+        <v>15.21871566772461</v>
       </c>
     </row>
     <row r="152">
@@ -4380,25 +4380,25 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9999940555137676</v>
+        <v>0.9999956288234247</v>
       </c>
       <c r="C152" t="n">
-        <v>42.04931640625</v>
+        <v>41.10195922851562</v>
       </c>
       <c r="D152" t="n">
-        <v>6.959321022033691</v>
+        <v>7.61611270904541</v>
       </c>
       <c r="E152" t="n">
-        <v>-13.37840557098389</v>
+        <v>-14.03157329559326</v>
       </c>
       <c r="F152" t="n">
-        <v>-11.11703109741211</v>
+        <v>-9.35692024230957</v>
       </c>
       <c r="G152" t="n">
-        <v>14.20903968811035</v>
+        <v>13.95736885070801</v>
       </c>
       <c r="H152" t="n">
-        <v>13.43718338012695</v>
+        <v>12.40596580505371</v>
       </c>
     </row>
     <row r="153">
@@ -4406,25 +4406,25 @@
         <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9999941503713171</v>
+        <v>0.9999959078650539</v>
       </c>
       <c r="C153" t="n">
-        <v>43.17628479003906</v>
+        <v>42.11603164672852</v>
       </c>
       <c r="D153" t="n">
-        <v>7.819687843322754</v>
+        <v>8.705014228820801</v>
       </c>
       <c r="E153" t="n">
-        <v>-13.72056102752686</v>
+        <v>-14.15037059783936</v>
       </c>
       <c r="F153" t="n">
-        <v>-11.11703109741211</v>
+        <v>-11.17859172821045</v>
       </c>
       <c r="G153" t="n">
-        <v>16.62125396728516</v>
+        <v>16.58837127685547</v>
       </c>
       <c r="H153" t="n">
-        <v>7.422078132629395</v>
+        <v>6.756947994232178</v>
       </c>
     </row>
     <row r="154">
@@ -4432,1221 +4432,1221 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9999945289197492</v>
+        <v>0.9999962940595886</v>
       </c>
       <c r="C154" t="n">
-        <v>41.22343826293945</v>
+        <v>41.32633972167969</v>
       </c>
       <c r="D154" t="n">
-        <v>11.96974563598633</v>
+        <v>11.74838733673096</v>
       </c>
       <c r="E154" t="n">
-        <v>-14.70820140838623</v>
+        <v>-15.88839912414551</v>
       </c>
       <c r="F154" t="n">
-        <v>-2.591804265975952</v>
+        <v>-3.248678922653198</v>
       </c>
       <c r="G154" t="n">
-        <v>22.11603927612305</v>
+        <v>21.55385971069336</v>
       </c>
       <c r="H154" t="n">
-        <v>5.4165358543396</v>
+        <v>6.756947994232178</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.02619929276406765</v>
+        <v>0.01062193933874369</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.0247180100902915</v>
+        <v>0.02537190895527601</v>
       </c>
       <c r="C155" t="n">
-        <v>41.22343826293945</v>
+        <v>41.32633972167969</v>
       </c>
       <c r="D155" t="n">
-        <v>11.96974563598633</v>
+        <v>11.74838733673096</v>
       </c>
       <c r="E155" t="n">
-        <v>-18.29653167724609</v>
+        <v>-17.74030685424805</v>
       </c>
       <c r="F155" t="n">
-        <v>0.08227813243865967</v>
+        <v>-0.02640879154205322</v>
       </c>
       <c r="G155" t="n">
-        <v>27.92737579345703</v>
+        <v>27.42409324645996</v>
       </c>
       <c r="H155" t="n">
-        <v>3.362196445465088</v>
+        <v>3.776833534240723</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.025466093942523</v>
+        <v>-0.02378709446638823</v>
       </c>
       <c r="B156" t="n">
-        <v>0.07799174815416336</v>
+        <v>0.05479544468224049</v>
       </c>
       <c r="C156" t="n">
-        <v>41.54050445556641</v>
+        <v>40.86326599121094</v>
       </c>
       <c r="D156" t="n">
-        <v>14.4555549621582</v>
+        <v>14.52279186248779</v>
       </c>
       <c r="E156" t="n">
-        <v>-18.29653167724609</v>
+        <v>-17.74030685424805</v>
       </c>
       <c r="F156" t="n">
-        <v>4.034212112426758</v>
+        <v>4.402693271636963</v>
       </c>
       <c r="G156" t="n">
-        <v>34.46482086181641</v>
+        <v>33.94277572631836</v>
       </c>
       <c r="H156" t="n">
-        <v>-1.969297409057617</v>
+        <v>-1.499111175537109</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.004176966371014714</v>
+        <v>0.02128480017185211</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.07602230399847031</v>
+        <v>-0.1182572981715202</v>
       </c>
       <c r="C157" t="n">
-        <v>40.37470245361328</v>
+        <v>40.86326599121094</v>
       </c>
       <c r="D157" t="n">
-        <v>15.98776435852051</v>
+        <v>16.43986701965332</v>
       </c>
       <c r="E157" t="n">
-        <v>-18.88284492492676</v>
+        <v>-17.69735908508301</v>
       </c>
       <c r="F157" t="n">
-        <v>7.929286479949951</v>
+        <v>7.794527053833008</v>
       </c>
       <c r="G157" t="n">
-        <v>40.92190933227539</v>
+        <v>40.7566032409668</v>
       </c>
       <c r="H157" t="n">
-        <v>-7.747933864593506</v>
+        <v>-7.346327304840088</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.01755821753293276</v>
+        <v>0.02216240491718054</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.1890554243326187</v>
+        <v>-0.190554818212986</v>
       </c>
       <c r="C158" t="n">
-        <v>39.35540008544922</v>
+        <v>38.91636657714844</v>
       </c>
       <c r="D158" t="n">
-        <v>18.13801193237305</v>
+        <v>19.09810256958008</v>
       </c>
       <c r="E158" t="n">
-        <v>-16.20553970336914</v>
+        <v>-15.45874214172363</v>
       </c>
       <c r="F158" t="n">
-        <v>11.70556831359863</v>
+        <v>11.23552703857422</v>
       </c>
       <c r="G158" t="n">
-        <v>46.42214202880859</v>
+        <v>47.04486465454102</v>
       </c>
       <c r="H158" t="n">
-        <v>-12.59188842773438</v>
+        <v>-12.64334774017334</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.02811548132449389</v>
+        <v>0.02584278848022223</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.2967663258314133</v>
+        <v>-0.2977211791276932</v>
       </c>
       <c r="C159" t="n">
-        <v>38.3503303527832</v>
+        <v>38.61033248901367</v>
       </c>
       <c r="D159" t="n">
-        <v>20.86533355712891</v>
+        <v>21.86861228942871</v>
       </c>
       <c r="E159" t="n">
-        <v>-13.78593254089355</v>
+        <v>-12.93055152893066</v>
       </c>
       <c r="F159" t="n">
-        <v>15.26547908782959</v>
+        <v>14.56395053863525</v>
       </c>
       <c r="G159" t="n">
-        <v>50.67630767822266</v>
+        <v>52.04322052001953</v>
       </c>
       <c r="H159" t="n">
-        <v>-15.67103004455566</v>
+        <v>-15.71759414672852</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.04010056488215923</v>
+        <v>0.02891417112201452</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.3952315205335618</v>
+        <v>-0.3964645594358445</v>
       </c>
       <c r="C160" t="n">
-        <v>37.16127395629883</v>
+        <v>38.35493850708008</v>
       </c>
       <c r="D160" t="n">
-        <v>23.41375732421875</v>
+        <v>23.8993091583252</v>
       </c>
       <c r="E160" t="n">
-        <v>-10.48224449157715</v>
+        <v>-9.622947692871094</v>
       </c>
       <c r="F160" t="n">
-        <v>18.5683536529541</v>
+        <v>17.83767890930176</v>
       </c>
       <c r="G160" t="n">
-        <v>53.81357192993164</v>
+        <v>55.46446990966797</v>
       </c>
       <c r="H160" t="n">
-        <v>-15.67103004455566</v>
+        <v>-15.71759414672852</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.05670871704816818</v>
+        <v>0.04081815406680107</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.484929603934288</v>
+        <v>-0.4953057438135147</v>
       </c>
       <c r="C161" t="n">
-        <v>35.56863403320312</v>
+        <v>36.33725738525391</v>
       </c>
       <c r="D161" t="n">
-        <v>24.75255584716797</v>
+        <v>23.8993091583252</v>
       </c>
       <c r="E161" t="n">
-        <v>-6.927264213562012</v>
+        <v>-6.071100234985352</v>
       </c>
       <c r="F161" t="n">
-        <v>21.61599731445312</v>
+        <v>21.1699047088623</v>
       </c>
       <c r="G161" t="n">
-        <v>55.90866851806641</v>
+        <v>57.40666961669922</v>
       </c>
       <c r="H161" t="n">
-        <v>-15.1338005065918</v>
+        <v>-14.68527889251709</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.08085482329130173</v>
+        <v>0.06553964897990228</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5671644723415376</v>
+        <v>-0.5994187760353089</v>
       </c>
       <c r="C162" t="n">
-        <v>33.46866989135742</v>
+        <v>34.39244842529297</v>
       </c>
       <c r="D162" t="n">
-        <v>24.75255584716797</v>
+        <v>23.9328498840332</v>
       </c>
       <c r="E162" t="n">
-        <v>-3.730148553848267</v>
+        <v>-2.835930585861206</v>
       </c>
       <c r="F162" t="n">
-        <v>24.40895843505859</v>
+        <v>24.49544906616211</v>
       </c>
       <c r="G162" t="n">
-        <v>55.90866851806641</v>
+        <v>57.40666961669922</v>
       </c>
       <c r="H162" t="n">
-        <v>-11.34686470031738</v>
+        <v>-11.2864351272583</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.112392181456089</v>
+        <v>0.09995574325323105</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.6419152128696441</v>
+        <v>-0.7013251829147339</v>
       </c>
       <c r="C163" t="n">
-        <v>30.91846466064453</v>
+        <v>31.7170295715332</v>
       </c>
       <c r="D163" t="n">
-        <v>21.74885940551758</v>
+        <v>21.40469741821289</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.145575881004333</v>
+        <v>-0.2935701608657837</v>
       </c>
       <c r="F163" t="n">
-        <v>27.00647163391113</v>
+        <v>27.66060638427734</v>
       </c>
       <c r="G163" t="n">
-        <v>56.34099960327148</v>
+        <v>57.44387054443359</v>
       </c>
       <c r="H163" t="n">
-        <v>-6.622192859649658</v>
+        <v>-7.01264476776123</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1486852151155472</v>
+        <v>0.1409168362617493</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.7126546597480774</v>
+        <v>-0.793587464094162</v>
       </c>
       <c r="C164" t="n">
-        <v>28.15708160400391</v>
+        <v>28.54440689086914</v>
       </c>
       <c r="D164" t="n">
-        <v>18.80820846557617</v>
+        <v>18.12257194519043</v>
       </c>
       <c r="E164" t="n">
-        <v>0.8275514245033264</v>
+        <v>1.389397144317627</v>
       </c>
       <c r="F164" t="n">
-        <v>29.46825790405273</v>
+        <v>30.48321723937988</v>
       </c>
       <c r="G164" t="n">
-        <v>53.636474609375</v>
+        <v>54.85176849365234</v>
       </c>
       <c r="H164" t="n">
-        <v>-2.014693260192871</v>
+        <v>-2.628078460693359</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1846409574151039</v>
+        <v>0.1850503382086754</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.7811557960510255</v>
+        <v>-0.8697384202480316</v>
       </c>
       <c r="C165" t="n">
-        <v>25.40230178833008</v>
+        <v>25.11282348632812</v>
       </c>
       <c r="D165" t="n">
-        <v>15.84661293029785</v>
+        <v>14.79214000701904</v>
       </c>
       <c r="E165" t="n">
-        <v>2.292139053344727</v>
+        <v>1.389397144317627</v>
       </c>
       <c r="F165" t="n">
-        <v>31.80732727050781</v>
+        <v>32.88865280151367</v>
       </c>
       <c r="G165" t="n">
-        <v>49.67408752441406</v>
+        <v>50.81826019287109</v>
       </c>
       <c r="H165" t="n">
-        <v>1.669013738632202</v>
+        <v>1.081351518630981</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2178825104236603</v>
+        <v>0.2294330888986588</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.8464259862899781</v>
+        <v>-0.9307883775234223</v>
       </c>
       <c r="C166" t="n">
-        <v>22.7380256652832</v>
+        <v>21.72623062133789</v>
       </c>
       <c r="D166" t="n">
-        <v>13.30424690246582</v>
+        <v>11.98507881164551</v>
       </c>
       <c r="E166" t="n">
-        <v>3.31335711479187</v>
+        <v>3.31425142288208</v>
       </c>
       <c r="F166" t="n">
-        <v>33.90298461914062</v>
+        <v>34.88135147094727</v>
       </c>
       <c r="G166" t="n">
-        <v>44.82181549072266</v>
+        <v>45.76033782958984</v>
       </c>
       <c r="H166" t="n">
-        <v>4.287089347839355</v>
+        <v>3.768902778625488</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2490145313739777</v>
+        <v>0.2696193784475326</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.9009734892845154</v>
+        <v>-0.9793015968799591</v>
       </c>
       <c r="C167" t="n">
-        <v>20.04485511779785</v>
+        <v>18.57240867614746</v>
       </c>
       <c r="D167" t="n">
-        <v>11.19144248962402</v>
+        <v>9.896020889282227</v>
       </c>
       <c r="E167" t="n">
-        <v>3.31335711479187</v>
+        <v>3.477535724639893</v>
       </c>
       <c r="F167" t="n">
-        <v>35.62085723876953</v>
+        <v>36.51102447509766</v>
       </c>
       <c r="G167" t="n">
-        <v>39.34151458740234</v>
+        <v>40.22025680541992</v>
       </c>
       <c r="H167" t="n">
-        <v>5.96555233001709</v>
+        <v>5.442802429199219</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2819402903318405</v>
+        <v>0.3047480982542038</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.9404382526874543</v>
+        <v>-1.01819425702095</v>
       </c>
       <c r="C168" t="n">
-        <v>17.16133499145508</v>
+        <v>15.62867546081543</v>
       </c>
       <c r="D168" t="n">
-        <v>9.405345916748047</v>
+        <v>8.388391494750977</v>
       </c>
       <c r="E168" t="n">
-        <v>4.912267208099365</v>
+        <v>3.932555675506592</v>
       </c>
       <c r="F168" t="n">
-        <v>36.93238830566406</v>
+        <v>37.84692764282227</v>
       </c>
       <c r="G168" t="n">
-        <v>33.46786117553711</v>
+        <v>34.58021545410156</v>
       </c>
       <c r="H168" t="n">
-        <v>5.96555233001709</v>
+        <v>5.442802429199219</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3191214108467102</v>
+        <v>0.3376230597496033</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.9670956110954285</v>
+        <v>-1.050193309783936</v>
       </c>
       <c r="C169" t="n">
-        <v>14.10624313354492</v>
+        <v>12.80062294006348</v>
       </c>
       <c r="D169" t="n">
-        <v>7.899365901947021</v>
+        <v>7.22165060043335</v>
       </c>
       <c r="E169" t="n">
-        <v>7.324106216430664</v>
+        <v>6.210949897766113</v>
       </c>
       <c r="F169" t="n">
-        <v>36.93238830566406</v>
+        <v>38.92069625854492</v>
       </c>
       <c r="G169" t="n">
-        <v>27.5238037109375</v>
+        <v>29.04778671264648</v>
       </c>
       <c r="H169" t="n">
-        <v>7.652003765106201</v>
+        <v>6.950260639190674</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3581507313251496</v>
+        <v>0.3702422016859055</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.9862564897537232</v>
+        <v>-1.075114772319794</v>
       </c>
       <c r="C170" t="n">
-        <v>11.09076309204102</v>
+        <v>10.06416797637939</v>
       </c>
       <c r="D170" t="n">
-        <v>6.686648368835449</v>
+        <v>7.22165060043335</v>
       </c>
       <c r="E170" t="n">
-        <v>9.160427093505859</v>
+        <v>8.030811309814453</v>
       </c>
       <c r="F170" t="n">
-        <v>38.89455795288086</v>
+        <v>38.92069625854492</v>
       </c>
       <c r="G170" t="n">
-        <v>21.86341857910156</v>
+        <v>23.73719215393066</v>
       </c>
       <c r="H170" t="n">
-        <v>7.014623165130615</v>
+        <v>6.107911586761475</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.3941464513540268</v>
+        <v>0.4020494371652603</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.002348607778549</v>
+        <v>-1.089915409088135</v>
       </c>
       <c r="C171" t="n">
-        <v>8.278285980224609</v>
+        <v>7.460137367248535</v>
       </c>
       <c r="D171" t="n">
-        <v>6.686648368835449</v>
+        <v>5.267819404602051</v>
       </c>
       <c r="E171" t="n">
-        <v>11.4440803527832</v>
+        <v>10.34867763519287</v>
       </c>
       <c r="F171" t="n">
-        <v>39.44099044799805</v>
+        <v>40.47649002075195</v>
       </c>
       <c r="G171" t="n">
-        <v>16.7884349822998</v>
+        <v>18.78235244750977</v>
       </c>
       <c r="H171" t="n">
-        <v>5.859489917755127</v>
+        <v>4.76980447769165</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4257103139162064</v>
+        <v>0.4317731237411499</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.015719397068024</v>
+        <v>-1.096006429195404</v>
       </c>
       <c r="C172" t="n">
-        <v>5.783931255340576</v>
+        <v>5.097126960754395</v>
       </c>
       <c r="D172" t="n">
-        <v>4.967392921447754</v>
+        <v>4.766144752502441</v>
       </c>
       <c r="E172" t="n">
-        <v>13.8101749420166</v>
+        <v>12.80396842956543</v>
       </c>
       <c r="F172" t="n">
-        <v>39.89501571655273</v>
+        <v>40.67486190795898</v>
       </c>
       <c r="G172" t="n">
-        <v>12.51106643676758</v>
+        <v>14.38970756530762</v>
       </c>
       <c r="H172" t="n">
-        <v>4.344500064849854</v>
+        <v>3.075513601303101</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.4520337295532227</v>
+        <v>0.4572923094034195</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.025230021476746</v>
+        <v>-1.0956471824646</v>
       </c>
       <c r="C173" t="n">
-        <v>3.618584632873535</v>
+        <v>3.054777145385742</v>
       </c>
       <c r="D173" t="n">
-        <v>4.832781791687012</v>
+        <v>4.769314765930176</v>
       </c>
       <c r="E173" t="n">
-        <v>16.146484375</v>
+        <v>15.15071678161621</v>
       </c>
       <c r="F173" t="n">
-        <v>40.21796417236328</v>
+        <v>40.66316223144531</v>
       </c>
       <c r="G173" t="n">
-        <v>9.170375823974609</v>
+        <v>10.77559471130371</v>
       </c>
       <c r="H173" t="n">
-        <v>2.869051694869995</v>
+        <v>1.438500642776489</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.4742458361387253</v>
+        <v>0.4779974246025085</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.031251479387283</v>
+        <v>-1.094432466030121</v>
       </c>
       <c r="C174" t="n">
-        <v>1.771981120109558</v>
+        <v>1.355610251426697</v>
       </c>
       <c r="D174" t="n">
-        <v>5.169865608215332</v>
+        <v>5.38872241973877</v>
       </c>
       <c r="E174" t="n">
-        <v>18.31216812133789</v>
+        <v>17.29225540161133</v>
       </c>
       <c r="F174" t="n">
-        <v>40.42243194580078</v>
+        <v>40.62360000610352</v>
       </c>
       <c r="G174" t="n">
-        <v>6.814417362213135</v>
+        <v>8.08680534362793</v>
       </c>
       <c r="H174" t="n">
-        <v>1.507210493087769</v>
+        <v>0.05632564052939415</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.4927266669273377</v>
+        <v>0.4943045473098755</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.035730501413345</v>
+        <v>-1.096848883628845</v>
       </c>
       <c r="C175" t="n">
-        <v>0.252672016620636</v>
+        <v>-0.01962131261825562</v>
       </c>
       <c r="D175" t="n">
-        <v>6.054821968078613</v>
+        <v>6.612374305725098</v>
       </c>
       <c r="E175" t="n">
-        <v>19.94462585449219</v>
+        <v>18.97343826293945</v>
       </c>
       <c r="F175" t="n">
-        <v>40.57452392578125</v>
+        <v>40.70229721069336</v>
       </c>
       <c r="G175" t="n">
-        <v>5.385168552398682</v>
+        <v>6.327829837799072</v>
       </c>
       <c r="H175" t="n">
-        <v>0.187972754240036</v>
+        <v>-1.105786561965942</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.5071450906991959</v>
+        <v>0.5069475239515305</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.040714402198792</v>
+        <v>-1.103366754055023</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.9009473323822021</v>
+        <v>-1.099782824516296</v>
       </c>
       <c r="D176" t="n">
-        <v>8.734207153320312</v>
+        <v>9.566473960876465</v>
       </c>
       <c r="E176" t="n">
-        <v>19.94462585449219</v>
+        <v>18.97343826293945</v>
       </c>
       <c r="F176" t="n">
-        <v>40.74375915527344</v>
+        <v>40.91456985473633</v>
       </c>
       <c r="G176" t="n">
-        <v>5.385168552398682</v>
+        <v>6.327829837799072</v>
       </c>
       <c r="H176" t="n">
-        <v>-2.469029426574707</v>
+        <v>-2.311277627944946</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.5166757750511169</v>
+        <v>0.5163890600204468</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.050328706502915</v>
+        <v>-1.115753121376038</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.9009473323822021</v>
+        <v>-1.099782824516296</v>
       </c>
       <c r="D177" t="n">
-        <v>10.97084617614746</v>
+        <v>11.80291175842285</v>
       </c>
       <c r="E177" t="n">
-        <v>19.65687561035156</v>
+        <v>18.72934722900391</v>
       </c>
       <c r="F177" t="n">
-        <v>41.07022857666016</v>
+        <v>41.31796646118164</v>
       </c>
       <c r="G177" t="n">
-        <v>4.22544002532959</v>
+        <v>4.550959587097168</v>
       </c>
       <c r="H177" t="n">
-        <v>-4.732460975646973</v>
+        <v>-5.76359748840332</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.5207756799459458</v>
+        <v>0.5218660879135132</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.06367359161377</v>
+        <v>-1.137020578384399</v>
       </c>
       <c r="C178" t="n">
-        <v>-2.393515825271606</v>
+        <v>-2.63537335395813</v>
       </c>
       <c r="D178" t="n">
-        <v>14.19784736633301</v>
+        <v>15.1461181640625</v>
       </c>
       <c r="E178" t="n">
-        <v>15.76992988586426</v>
+        <v>14.94567394256592</v>
       </c>
       <c r="F178" t="n">
-        <v>41.52337646484375</v>
+        <v>42.01059722900391</v>
       </c>
       <c r="G178" t="n">
-        <v>5.249917030334473</v>
+        <v>5.453221321105957</v>
       </c>
       <c r="H178" t="n">
-        <v>-8.073213577270508</v>
+        <v>-8.813434600830078</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.5181962555646896</v>
+        <v>0.5211319255828858</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.077901935577393</v>
+        <v>-1.161095290184021</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.180268526077271</v>
+        <v>-2.574326753616333</v>
       </c>
       <c r="D179" t="n">
-        <v>18.31005096435547</v>
+        <v>19.63813591003418</v>
       </c>
       <c r="E179" t="n">
-        <v>8.744143486022949</v>
+        <v>8.016596794128418</v>
       </c>
       <c r="F179" t="n">
-        <v>42.00651931762695</v>
+        <v>42.79465484619141</v>
       </c>
       <c r="G179" t="n">
-        <v>8.31318473815918</v>
+        <v>8.946845054626465</v>
       </c>
       <c r="H179" t="n">
-        <v>-12.15971660614014</v>
+        <v>-12.86477661132812</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.5091668170690536</v>
+        <v>0.5117261183261872</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.088436722755432</v>
+        <v>-1.177143244743347</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.433776140213013</v>
+        <v>-1.792207002639771</v>
       </c>
       <c r="D180" t="n">
-        <v>23.14463424682617</v>
+        <v>25.11570739746094</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.9348955154418945</v>
+        <v>-1.504065036773682</v>
       </c>
       <c r="F180" t="n">
-        <v>42.3642463684082</v>
+        <v>43.31730270385742</v>
       </c>
       <c r="G180" t="n">
-        <v>10.71500968933105</v>
+        <v>11.73749732971191</v>
       </c>
       <c r="H180" t="n">
-        <v>-16.1580638885498</v>
+        <v>-16.71700096130371</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4948440176248551</v>
+        <v>0.4934934306144715</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.091894993782043</v>
+        <v>-1.175139651298523</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.2496731579303741</v>
+        <v>0.756488561630249</v>
       </c>
       <c r="D181" t="n">
-        <v>28.54844093322754</v>
+        <v>31.11462783813477</v>
       </c>
       <c r="E181" t="n">
-        <v>-11.65030097961426</v>
+        <v>-12.04835987091064</v>
       </c>
       <c r="F181" t="n">
-        <v>42.48167419433594</v>
+        <v>43.25204849243164</v>
       </c>
       <c r="G181" t="n">
-        <v>13.90096092224121</v>
+        <v>15.27399063110352</v>
       </c>
       <c r="H181" t="n">
-        <v>-19.18196868896484</v>
+        <v>-19.29720497131348</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.474867599606514</v>
+        <v>0.4686572939157486</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.082561402320862</v>
+        <v>-1.149154601097107</v>
       </c>
       <c r="C182" t="n">
-        <v>2.559873342514038</v>
+        <v>2.533597946166992</v>
       </c>
       <c r="D182" t="n">
-        <v>34.43000793457031</v>
+        <v>37.08763122558594</v>
       </c>
       <c r="E182" t="n">
-        <v>-21.90096664428711</v>
+        <v>-22.04978179931641</v>
       </c>
       <c r="F182" t="n">
-        <v>42.16474151611328</v>
+        <v>42.4057731628418</v>
       </c>
       <c r="G182" t="n">
-        <v>17.25253677368164</v>
+        <v>18.87249374389648</v>
       </c>
       <c r="H182" t="n">
-        <v>-20.79541397094727</v>
+        <v>-20.37177658081055</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4468526411056519</v>
+        <v>0.4383321249485016</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.054016197919846</v>
+        <v>-1.097884292602539</v>
       </c>
       <c r="C183" t="n">
-        <v>4.676794052124023</v>
+        <v>5.002817153930664</v>
       </c>
       <c r="D183" t="n">
-        <v>40.62279510498047</v>
+        <v>42.78805541992188</v>
       </c>
       <c r="E183" t="n">
-        <v>-30.77934646606445</v>
+        <v>-30.21229934692383</v>
       </c>
       <c r="F183" t="n">
-        <v>41.19544219970703</v>
+        <v>39.51852416992188</v>
       </c>
       <c r="G183" t="n">
-        <v>20.02178192138672</v>
+        <v>21.82384872436523</v>
       </c>
       <c r="H183" t="n">
-        <v>-20.79541397094727</v>
+        <v>-20.37177658081055</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4096481120586395</v>
+        <v>0.4003137624263763</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.9978572654724122</v>
+        <v>-1.023117377758026</v>
       </c>
       <c r="C184" t="n">
-        <v>7.629640579223633</v>
+        <v>8.196654319763184</v>
       </c>
       <c r="D184" t="n">
-        <v>46.85202026367188</v>
+        <v>48.17835998535156</v>
       </c>
       <c r="E184" t="n">
-        <v>-37.35361480712891</v>
+        <v>-35.789794921875</v>
       </c>
       <c r="F184" t="n">
-        <v>37.84365844726562</v>
+        <v>37.37663269042969</v>
       </c>
       <c r="G184" t="n">
-        <v>21.67147064208984</v>
+        <v>23.54602432250977</v>
       </c>
       <c r="H184" t="n">
-        <v>-19.01859092712402</v>
+        <v>-18.09674644470215</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.3638196080923081</v>
+        <v>0.3531902074813843</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.912759006023407</v>
+        <v>-0.9289663028717041</v>
       </c>
       <c r="C185" t="n">
-        <v>11.26173973083496</v>
+        <v>12.00614356994629</v>
       </c>
       <c r="D185" t="n">
-        <v>52.746826171875</v>
+        <v>53.15060424804688</v>
       </c>
       <c r="E185" t="n">
-        <v>-40.16827011108398</v>
+        <v>-37.86919403076172</v>
       </c>
       <c r="F185" t="n">
-        <v>35.3240966796875</v>
+        <v>34.5906982421875</v>
       </c>
       <c r="G185" t="n">
-        <v>21.67147064208984</v>
+        <v>23.54602432250977</v>
       </c>
       <c r="H185" t="n">
-        <v>-16.12829208374023</v>
+        <v>-15.79598045349121</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.3116700422763825</v>
+        <v>0.2999731999635696</v>
       </c>
       <c r="B186" t="n">
-        <v>1.280980640398151</v>
+        <v>1.317812486712104</v>
       </c>
       <c r="C186" t="n">
-        <v>15.34537792205811</v>
+        <v>16.20342254638672</v>
       </c>
       <c r="D186" t="n">
-        <v>57.85588836669922</v>
+        <v>57.46643447875977</v>
       </c>
       <c r="E186" t="n">
-        <v>-38.41905212402344</v>
+        <v>-36.02654266357422</v>
       </c>
       <c r="F186" t="n">
-        <v>32.16147232055664</v>
+        <v>31.42411613464355</v>
       </c>
       <c r="G186" t="n">
-        <v>21.33637619018555</v>
+        <v>22.79249572753906</v>
       </c>
       <c r="H186" t="n">
-        <v>-12.87649250030518</v>
+        <v>-13.35619354248047</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.2568131422996521</v>
+        <v>0.2448329177498818</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.1765834051454194</v>
+        <v>-0.2475764212481435</v>
       </c>
       <c r="C187" t="n">
-        <v>19.58177757263184</v>
+        <v>20.49770355224609</v>
       </c>
       <c r="D187" t="n">
-        <v>61.62505722045898</v>
+        <v>60.74168395996094</v>
       </c>
       <c r="E187" t="n">
-        <v>-32.97814559936523</v>
+        <v>-31.00458526611328</v>
       </c>
       <c r="F187" t="n">
-        <v>28.78926086425781</v>
+        <v>28.07394790649414</v>
       </c>
       <c r="G187" t="n">
-        <v>19.37179946899414</v>
+        <v>20.6828441619873</v>
       </c>
       <c r="H187" t="n">
-        <v>-10.01339340209961</v>
+        <v>-11.21933364868164</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7143323875231589</v>
+        <v>0.7263972098181208</v>
       </c>
       <c r="B188" t="n">
-        <v>1.638274413325511</v>
+        <v>1.69931536882409</v>
       </c>
       <c r="C188" t="n">
-        <v>23.69128608703613</v>
+        <v>24.64158248901367</v>
       </c>
       <c r="D188" t="n">
-        <v>63.55472564697266</v>
+        <v>62.60817337036133</v>
       </c>
       <c r="E188" t="n">
-        <v>-25.98446655273438</v>
+        <v>-24.50861358642578</v>
       </c>
       <c r="F188" t="n">
-        <v>25.47709655761719</v>
+        <v>24.64600372314453</v>
       </c>
       <c r="G188" t="n">
-        <v>16.80046463012695</v>
+        <v>18.01671981811523</v>
       </c>
       <c r="H188" t="n">
-        <v>-7.830915451049805</v>
+        <v>-9.47244930267334</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9161596846801332</v>
+        <v>0.9256640580632756</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3828236896638866</v>
+        <v>0.3702749427326717</v>
       </c>
       <c r="C189" t="n">
-        <v>27.44076919555664</v>
+        <v>28.42946624755859</v>
       </c>
       <c r="D189" t="n">
-        <v>63.55472564697266</v>
+        <v>62.60817337036133</v>
       </c>
       <c r="E189" t="n">
-        <v>-19.13402557373047</v>
+        <v>-18.09492492675781</v>
       </c>
       <c r="F189" t="n">
-        <v>22.30999374389648</v>
+        <v>21.20161056518555</v>
       </c>
       <c r="G189" t="n">
-        <v>14.05355834960938</v>
+        <v>15.06460285186768</v>
       </c>
       <c r="H189" t="n">
-        <v>-6.237128257751465</v>
+        <v>-8.071974754333496</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9818792961118431</v>
+        <v>0.9855921269383996</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3828236896638866</v>
+        <v>0.3702749427326717</v>
       </c>
       <c r="C190" t="n">
-        <v>30.7050838470459</v>
+        <v>31.72879600524902</v>
       </c>
       <c r="D190" t="n">
-        <v>61.38172912597656</v>
+        <v>61.37805557250977</v>
       </c>
       <c r="E190" t="n">
-        <v>-13.44893741607666</v>
+        <v>-12.81297302246094</v>
       </c>
       <c r="F190" t="n">
-        <v>19.26007652282715</v>
+        <v>17.80964279174805</v>
       </c>
       <c r="G190" t="n">
-        <v>11.50564575195312</v>
+        <v>12.10900115966797</v>
       </c>
       <c r="H190" t="n">
-        <v>-4.958227634429932</v>
+        <v>-6.766095161437988</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9972328468866072</v>
+        <v>0.998126361598156</v>
       </c>
       <c r="B191" t="n">
-        <v>2.124334234168377</v>
+        <v>2.070938677708526</v>
       </c>
       <c r="C191" t="n">
-        <v>33.39435195922852</v>
+        <v>34.38668823242188</v>
       </c>
       <c r="D191" t="n">
-        <v>57.82460021972656</v>
+        <v>58.1411247253418</v>
       </c>
       <c r="E191" t="n">
-        <v>-9.272140502929688</v>
+        <v>-9.00039005279541</v>
       </c>
       <c r="F191" t="n">
-        <v>16.25326919555664</v>
+        <v>14.56209564208984</v>
       </c>
       <c r="G191" t="n">
-        <v>9.358789443969727</v>
+        <v>9.412059783935547</v>
       </c>
       <c r="H191" t="n">
-        <v>-3.709628105163574</v>
+        <v>-5.407145023345947</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.999710956850085</v>
+        <v>0.9998420747725715</v>
       </c>
       <c r="B192" t="n">
-        <v>0.5100970608469729</v>
+        <v>0.6070042982999441</v>
       </c>
       <c r="C192" t="n">
-        <v>35.43061065673828</v>
+        <v>36.31600189208984</v>
       </c>
       <c r="D192" t="n">
-        <v>52.93962097167969</v>
+        <v>53.45111846923828</v>
       </c>
       <c r="E192" t="n">
-        <v>-6.664982318878174</v>
+        <v>-6.659551620483398</v>
       </c>
       <c r="F192" t="n">
-        <v>13.22926998138428</v>
+        <v>11.52842140197754</v>
       </c>
       <c r="G192" t="n">
-        <v>7.656680583953857</v>
+        <v>7.223679065704346</v>
       </c>
       <c r="H192" t="n">
-        <v>-2.225866556167603</v>
+        <v>-3.730623722076416</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9999789327643955</v>
+        <v>0.9999909915429129</v>
       </c>
       <c r="B193" t="n">
-        <v>1.130678546579235</v>
+        <v>1.080014007463287</v>
       </c>
       <c r="C193" t="n">
-        <v>36.78964233398438</v>
+        <v>37.52426910400391</v>
       </c>
       <c r="D193" t="n">
-        <v>46.91616821289062</v>
+        <v>47.53909301757812</v>
       </c>
       <c r="E193" t="n">
-        <v>-5.582213401794434</v>
+        <v>-6.659551620483398</v>
       </c>
       <c r="F193" t="n">
-        <v>10.15058708190918</v>
+        <v>8.679242134094238</v>
       </c>
       <c r="G193" t="n">
-        <v>6.375327110290527</v>
+        <v>5.68426513671875</v>
       </c>
       <c r="H193" t="n">
-        <v>-0.3297631740570068</v>
+        <v>-1.51513683795929</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999987923076132</v>
+        <v>0.9999995857264931</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9878941279846117</v>
+        <v>0.9960614475103475</v>
       </c>
       <c r="C194" t="n">
-        <v>36.78964233398438</v>
+        <v>37.52426910400391</v>
       </c>
       <c r="D194" t="n">
-        <v>40.02686309814453</v>
+        <v>40.79380798339844</v>
       </c>
       <c r="E194" t="n">
-        <v>-5.582213401794434</v>
+        <v>-4.664694786071777</v>
       </c>
       <c r="F194" t="n">
-        <v>7.1375732421875</v>
+        <v>6.009224891662598</v>
       </c>
       <c r="G194" t="n">
-        <v>6.375327110290527</v>
+        <v>5.68426513671875</v>
       </c>
       <c r="H194" t="n">
-        <v>1.966808199882507</v>
+        <v>1.154993295669556</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999999319935065</v>
+        <v>0.9999999797210004</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9991389041190293</v>
+        <v>0.999625510928478</v>
       </c>
       <c r="C195" t="n">
-        <v>38.1931266784668</v>
+        <v>38.60192489624023</v>
       </c>
       <c r="D195" t="n">
-        <v>32.64310455322266</v>
+        <v>33.66058349609375</v>
       </c>
       <c r="E195" t="n">
-        <v>-7.314927101135254</v>
+        <v>-7.274026870727539</v>
       </c>
       <c r="F195" t="n">
-        <v>4.311770439147949</v>
+        <v>3.505424737930298</v>
       </c>
       <c r="G195" t="n">
-        <v>4.739317893981934</v>
+        <v>4.008206367492676</v>
       </c>
       <c r="H195" t="n">
-        <v>4.709630489349365</v>
+        <v>4.135644912719727</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999999957165523</v>
+        <v>0.9999999988227919</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9998125019414471</v>
+        <v>0.9999136767201392</v>
       </c>
       <c r="C196" t="n">
-        <v>37.90066146850586</v>
+        <v>38.20088577270508</v>
       </c>
       <c r="D196" t="n">
-        <v>25.42484283447266</v>
+        <v>26.66242599487305</v>
       </c>
       <c r="E196" t="n">
-        <v>-8.857871055603027</v>
+        <v>-8.986955642700195</v>
       </c>
       <c r="F196" t="n">
-        <v>1.882156610488892</v>
+        <v>1.252389788627625</v>
       </c>
       <c r="G196" t="n">
-        <v>5.006300926208496</v>
+        <v>4.522097587585449</v>
       </c>
       <c r="H196" t="n">
-        <v>7.514225006103516</v>
+        <v>7.036741733551025</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999999996966242</v>
+        <v>0.999999999921119</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999379886610827</v>
+        <v>0.9999700881357177</v>
       </c>
       <c r="C197" t="n">
-        <v>37.55717086791992</v>
+        <v>37.80617523193359</v>
       </c>
       <c r="D197" t="n">
-        <v>18.77627182006836</v>
+        <v>20.10975646972656</v>
       </c>
       <c r="E197" t="n">
-        <v>-10.36104774475098</v>
+        <v>-10.69517421722412</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.3662053346633911</v>
+        <v>-0.9318726658821106</v>
       </c>
       <c r="G197" t="n">
-        <v>5.906085014343262</v>
+        <v>5.524884223937988</v>
       </c>
       <c r="H197" t="n">
-        <v>10.4609489440918</v>
+        <v>9.949789047241211</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999999813449</v>
+        <v>0.9999999999953981</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999723684083809</v>
+        <v>0.9999859692563565</v>
       </c>
       <c r="C198" t="n">
-        <v>37.96612930297852</v>
+        <v>38.18814468383789</v>
       </c>
       <c r="D198" t="n">
-        <v>13.29182624816895</v>
+        <v>14.69572448730469</v>
       </c>
       <c r="E198" t="n">
-        <v>-11.42668151855469</v>
+        <v>-11.84123992919922</v>
       </c>
       <c r="F198" t="n">
-        <v>-2.372181177139282</v>
+        <v>-2.834789276123047</v>
       </c>
       <c r="G198" t="n">
-        <v>6.986540794372559</v>
+        <v>6.735316276550293</v>
       </c>
       <c r="H198" t="n">
-        <v>13.0318775177002</v>
+        <v>12.25902938842773</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9999999999991946</v>
+        <v>0.9999999999997883</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9999849799353043</v>
+        <v>0.9999921004910773</v>
       </c>
       <c r="C199" t="n">
-        <v>38.76897811889648</v>
+        <v>38.73157501220703</v>
       </c>
       <c r="D199" t="n">
-        <v>9.083841323852539</v>
+        <v>10.48634338378906</v>
       </c>
       <c r="E199" t="n">
-        <v>-11.42668151855469</v>
+        <v>-11.84123992919922</v>
       </c>
       <c r="F199" t="n">
-        <v>-4.514488697052002</v>
+        <v>-4.810068130493164</v>
       </c>
       <c r="G199" t="n">
-        <v>8.085761070251465</v>
+        <v>7.95708179473877</v>
       </c>
       <c r="H199" t="n">
-        <v>15.46557331085205</v>
+        <v>14.28523921966553</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9999999999999929</v>
+        <v>0.9999999999999959</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9999899336217897</v>
+        <v>0.9999946153533148</v>
       </c>
       <c r="C200" t="n">
-        <v>40.27690505981445</v>
+        <v>39.90944671630859</v>
       </c>
       <c r="D200" t="n">
-        <v>6.834872722625732</v>
+        <v>8.111103057861328</v>
       </c>
       <c r="E200" t="n">
-        <v>-13.0856761932373</v>
+        <v>-13.50664615631104</v>
       </c>
       <c r="F200" t="n">
-        <v>-6.152041912078857</v>
+        <v>-6.199097633361816</v>
       </c>
       <c r="G200" t="n">
-        <v>8.938427925109863</v>
+        <v>8.919474601745605</v>
       </c>
       <c r="H200" t="n">
-        <v>16.80644989013672</v>
+        <v>15.31526756286621</v>
       </c>
     </row>
     <row r="201">
@@ -5654,25 +5654,25 @@
         <v>1</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9999926199427883</v>
+        <v>0.9999960791596938</v>
       </c>
       <c r="C201" t="n">
-        <v>40.98038482666016</v>
+        <v>40.20692825317383</v>
       </c>
       <c r="D201" t="n">
-        <v>6.834872722625732</v>
+        <v>6.981578350067139</v>
       </c>
       <c r="E201" t="n">
-        <v>-12.79806995391846</v>
+        <v>-13.399338722229</v>
       </c>
       <c r="F201" t="n">
-        <v>-7.973580360412598</v>
+        <v>-7.605894088745117</v>
       </c>
       <c r="G201" t="n">
-        <v>10.37574005126953</v>
+        <v>10.25931167602539</v>
       </c>
       <c r="H201" t="n">
-        <v>16.80644989013672</v>
+        <v>15.31526756286621</v>
       </c>
     </row>
     <row r="202">
@@ -5680,25 +5680,25 @@
         <v>1</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999937669807435</v>
+        <v>0.9999968214413016</v>
       </c>
       <c r="C202" t="n">
-        <v>42.156494140625</v>
+        <v>40.87424850463867</v>
       </c>
       <c r="D202" t="n">
-        <v>4.886834144592285</v>
+        <v>6.981578350067139</v>
       </c>
       <c r="E202" t="n">
-        <v>-13.39825344085693</v>
+        <v>-13.98257160186768</v>
       </c>
       <c r="F202" t="n">
-        <v>-9.518760681152344</v>
+        <v>-8.756778717041016</v>
       </c>
       <c r="G202" t="n">
-        <v>11.78403949737549</v>
+        <v>11.56073951721191</v>
       </c>
       <c r="H202" t="n">
-        <v>16.56567764282227</v>
+        <v>14.92935562133789</v>
       </c>
     </row>
     <row r="203">
@@ -5706,25 +5706,25 @@
         <v>1</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9999942963014139</v>
+        <v>0.999997258388806</v>
       </c>
       <c r="C203" t="n">
-        <v>42.355224609375</v>
+        <v>41.09865570068359</v>
       </c>
       <c r="D203" t="n">
-        <v>6.668139457702637</v>
+        <v>7.378348350524902</v>
       </c>
       <c r="E203" t="n">
-        <v>-13.02090167999268</v>
+        <v>-13.80324840545654</v>
       </c>
       <c r="F203" t="n">
-        <v>-10.90724182128906</v>
+        <v>-8.756778717041016</v>
       </c>
       <c r="G203" t="n">
-        <v>14.88585948944092</v>
+        <v>14.51625442504883</v>
       </c>
       <c r="H203" t="n">
-        <v>13.67138290405273</v>
+        <v>12.26332473754883</v>
       </c>
     </row>
     <row r="204">
@@ -5732,25 +5732,25 @@
         <v>1</v>
       </c>
       <c r="B204" t="n">
-        <v>0.9999943902883187</v>
+        <v>0.999997515321698</v>
       </c>
       <c r="C204" t="n">
-        <v>43.59712982177734</v>
+        <v>42.1367073059082</v>
       </c>
       <c r="D204" t="n">
-        <v>8.996686935424805</v>
+        <v>9.852453231811523</v>
       </c>
       <c r="E204" t="n">
-        <v>-14.72735023498535</v>
+        <v>-14.0001745223999</v>
       </c>
       <c r="F204" t="n">
-        <v>-6.873129367828369</v>
+        <v>-6.590250015258789</v>
       </c>
       <c r="G204" t="n">
-        <v>19.55622100830078</v>
+        <v>19.29608154296875</v>
       </c>
       <c r="H204" t="n">
-        <v>9.210906028747559</v>
+        <v>8.57069206237793</v>
       </c>
     </row>
     <row r="205">
@@ -5758,25 +5758,25 @@
         <v>1</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9999948608215455</v>
+        <v>0.9999978413279604</v>
       </c>
       <c r="C205" t="n">
-        <v>42.42443084716797</v>
+        <v>42.64085006713867</v>
       </c>
       <c r="D205" t="n">
-        <v>8.996686935424805</v>
+        <v>9.852453231811523</v>
       </c>
       <c r="E205" t="n">
-        <v>-14.72735023498535</v>
+        <v>-15.96817970275879</v>
       </c>
       <c r="F205" t="n">
-        <v>-6.873129367828369</v>
+        <v>-6.590250015258789</v>
       </c>
       <c r="G205" t="n">
-        <v>19.55622100830078</v>
+        <v>19.29608154296875</v>
       </c>
       <c r="H205" t="n">
-        <v>9.210906028747559</v>
+        <v>8.57069206237793</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_typical_lstm.xlsx
+++ b/Predictions/PV_typical_lstm.xlsx
@@ -480,5303 +480,5303 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>33720022562.06591</v>
       </c>
       <c r="C2" t="n">
-        <v>40.75923156738281</v>
+        <v>41.00515365600586</v>
       </c>
       <c r="D2" t="n">
-        <v>12.53551483154297</v>
+        <v>14.89558982849121</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.49242401123047</v>
+        <v>-20.23999404907227</v>
       </c>
       <c r="F2" t="n">
-        <v>2.48622465133667</v>
+        <v>-5.627250671386719</v>
       </c>
       <c r="G2" t="n">
-        <v>29.65530967712402</v>
+        <v>27.48018455505371</v>
       </c>
       <c r="H2" t="n">
-        <v>3.399565696716309</v>
+        <v>-18.03631401062012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.008455547410994768</v>
+        <v>0.1206103610992432</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07706021651625633</v>
+        <v>16860011281.08651</v>
       </c>
       <c r="C3" t="n">
-        <v>41.46233367919922</v>
+        <v>40.69644927978516</v>
       </c>
       <c r="D3" t="n">
-        <v>15.45943832397461</v>
+        <v>14.89558982849121</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.49242401123047</v>
+        <v>-18.21515274047852</v>
       </c>
       <c r="F3" t="n">
-        <v>6.430924415588379</v>
+        <v>-8.710721969604492</v>
       </c>
       <c r="G3" t="n">
-        <v>35.56062316894531</v>
+        <v>24.89443206787109</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.886887073516846</v>
+        <v>-12.91875076293945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001542802383191884</v>
+        <v>0.2396230188012123</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1656609183549881</v>
+        <v>8430005640.627057</v>
       </c>
       <c r="C4" t="n">
-        <v>40.63094329833984</v>
+        <v>40.3918342590332</v>
       </c>
       <c r="D4" t="n">
-        <v>19.07236671447754</v>
+        <v>14.23484420776367</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.04212760925293</v>
+        <v>-18.21515274047852</v>
       </c>
       <c r="F4" t="n">
-        <v>9.62681770324707</v>
+        <v>-10.58371925354004</v>
       </c>
       <c r="G4" t="n">
-        <v>41.37603759765625</v>
+        <v>24.89443206787109</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.995255470275879</v>
+        <v>-12.91875076293945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0001890999486204237</v>
+        <v>0.2953340458869934</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2407993054389954</v>
+        <v>4215002820.428366</v>
       </c>
       <c r="C5" t="n">
-        <v>40.77495574951172</v>
+        <v>40.24924087524414</v>
       </c>
       <c r="D5" t="n">
-        <v>22.23557662963867</v>
+        <v>15.3409366607666</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.50828742980957</v>
+        <v>-16.52813529968262</v>
       </c>
       <c r="F5" t="n">
-        <v>12.68490219116211</v>
+        <v>-11.86000061035156</v>
       </c>
       <c r="G5" t="n">
-        <v>46.87643814086914</v>
+        <v>23.90071868896484</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.22414207458496</v>
+        <v>-12.82324409484863</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.007932609766721726</v>
+        <v>0.2868343162536621</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3304670935869217</v>
+        <v>2107501410.359419</v>
       </c>
       <c r="C6" t="n">
-        <v>40.09961318969727</v>
+        <v>40.27099609375</v>
       </c>
       <c r="D6" t="n">
-        <v>24.32830429077148</v>
+        <v>16.27765464782715</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.67082023620605</v>
+        <v>-16.96491050720215</v>
       </c>
       <c r="F6" t="n">
-        <v>15.86399936676025</v>
+        <v>-11.86000061035156</v>
       </c>
       <c r="G6" t="n">
-        <v>51.76183319091797</v>
+        <v>25.30037498474121</v>
       </c>
       <c r="H6" t="n">
-        <v>-16.26008033752441</v>
+        <v>-15.02207946777344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02661836393177509</v>
+        <v>0.2243196198344231</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4317977643013001</v>
+        <v>1053750705.353402</v>
       </c>
       <c r="C7" t="n">
-        <v>37.50534057617188</v>
+        <v>40.43100357055664</v>
       </c>
       <c r="D7" t="n">
-        <v>24.32830429077148</v>
+        <v>17.06915473937988</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.04379844665527</v>
+        <v>-17.48136711120605</v>
       </c>
       <c r="F7" t="n">
-        <v>19.10311508178711</v>
+        <v>-13.80197048187256</v>
       </c>
       <c r="G7" t="n">
-        <v>55.57374572753906</v>
+        <v>26.56240272521973</v>
       </c>
       <c r="H7" t="n">
-        <v>-16.26008033752441</v>
+        <v>-17.4106502532959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05164456464350223</v>
+        <v>0.1190841943025589</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5330984556674958</v>
+        <v>526875352.8758553</v>
       </c>
       <c r="C8" t="n">
-        <v>35.66972351074219</v>
+        <v>40.70035552978516</v>
       </c>
       <c r="D8" t="n">
-        <v>25.88910484313965</v>
+        <v>17.73327445983887</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.291198253631592</v>
+        <v>-18.05971145629883</v>
       </c>
       <c r="F8" t="n">
-        <v>22.29004287719727</v>
+        <v>-14.42509746551514</v>
       </c>
       <c r="G8" t="n">
-        <v>57.99260711669922</v>
+        <v>27.72360420227051</v>
       </c>
       <c r="H8" t="n">
-        <v>-15.06157398223877</v>
+        <v>-19.77556610107422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08328191846609116</v>
+        <v>-0.01832591906189919</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6293513703346253</v>
+        <v>263437676.6588129</v>
       </c>
       <c r="C9" t="n">
-        <v>33.35540771484375</v>
+        <v>41.05205917358398</v>
       </c>
       <c r="D9" t="n">
-        <v>22.97564315795898</v>
+        <v>18.2861442565918</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.014362335205078</v>
+        <v>-18.68314552307129</v>
       </c>
       <c r="F9" t="n">
-        <v>25.31798553466797</v>
+        <v>-14.98268032073975</v>
       </c>
       <c r="G9" t="n">
-        <v>57.99260711669922</v>
+        <v>28.80981254577637</v>
       </c>
       <c r="H9" t="n">
-        <v>-11.33265399932861</v>
+        <v>-22.02013397216797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1168709033727646</v>
+        <v>-0.178175448179245</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7174435842037201</v>
+        <v>131718838.5678454</v>
       </c>
       <c r="C10" t="n">
-        <v>30.68042755126953</v>
+        <v>41.46119689941406</v>
       </c>
       <c r="D10" t="n">
-        <v>21.08703804016113</v>
+        <v>18.74114799499512</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4664795398712158</v>
+        <v>-19.33608436584473</v>
       </c>
       <c r="F10" t="n">
-        <v>28.15021514892578</v>
+        <v>-15.45854091644287</v>
       </c>
       <c r="G10" t="n">
-        <v>58.13152313232422</v>
+        <v>29.83911895751953</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.66082763671875</v>
+        <v>-24.10627365112305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1533777412772179</v>
+        <v>-0.3517396050691605</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7983983123302461</v>
+        <v>65859419.53552815</v>
       </c>
       <c r="C11" t="n">
-        <v>27.80392456054688</v>
+        <v>41.90543746948242</v>
       </c>
       <c r="D11" t="n">
-        <v>18.81418037414551</v>
+        <v>19.1090202331543</v>
       </c>
       <c r="E11" t="n">
-        <v>1.309972405433655</v>
+        <v>-20.00450134277344</v>
       </c>
       <c r="F11" t="n">
-        <v>30.69358444213867</v>
+        <v>-15.84293651580811</v>
       </c>
       <c r="G11" t="n">
-        <v>55.37771987915039</v>
+        <v>30.82417869567871</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.045375823974609</v>
+        <v>-26.02579498291016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1903942596912384</v>
+        <v>-0.5314426732063293</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8676236283779145</v>
+        <v>32929710.02811898</v>
       </c>
       <c r="C12" t="n">
-        <v>24.79779243469238</v>
+        <v>42.36539077758789</v>
       </c>
       <c r="D12" t="n">
-        <v>16.40098190307617</v>
+        <v>19.39839172363281</v>
       </c>
       <c r="E12" t="n">
-        <v>2.558766841888428</v>
+        <v>-20.67604827880859</v>
       </c>
       <c r="F12" t="n">
-        <v>32.96942901611328</v>
+        <v>-16.13125801086426</v>
       </c>
       <c r="G12" t="n">
-        <v>51.3939208984375</v>
+        <v>31.77383041381836</v>
       </c>
       <c r="H12" t="n">
-        <v>1.721489667892456</v>
+        <v>-27.78601455688477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2281051364541054</v>
+        <v>-0.7108805394172669</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9292895996570588</v>
+        <v>16464855.27882902</v>
       </c>
       <c r="C13" t="n">
-        <v>21.75687217712402</v>
+        <v>42.82466506958008</v>
       </c>
       <c r="D13" t="n">
-        <v>13.89336395263672</v>
+        <v>19.61653518676758</v>
       </c>
       <c r="E13" t="n">
-        <v>2.558766841888428</v>
+        <v>-21.34006881713867</v>
       </c>
       <c r="F13" t="n">
-        <v>34.92425918579102</v>
+        <v>-16.32285499572754</v>
       </c>
       <c r="G13" t="n">
-        <v>46.38709259033203</v>
+        <v>32.69437789916992</v>
       </c>
       <c r="H13" t="n">
-        <v>4.463618755340576</v>
+        <v>-29.40234756469727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2650937920808792</v>
+        <v>-0.8848232448101044</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9794563269615174</v>
+        <v>8232427.904414511</v>
       </c>
       <c r="C14" t="n">
-        <v>18.72336196899414</v>
+        <v>43.26987457275391</v>
       </c>
       <c r="D14" t="n">
-        <v>11.43346405029297</v>
+        <v>19.7699031829834</v>
       </c>
       <c r="E14" t="n">
-        <v>4.465059757232666</v>
+        <v>-21.98750305175781</v>
       </c>
       <c r="F14" t="n">
-        <v>36.54858779907227</v>
+        <v>-16.41952705383301</v>
       </c>
       <c r="G14" t="n">
-        <v>40.63829040527344</v>
+        <v>33.59050750732422</v>
       </c>
       <c r="H14" t="n">
-        <v>6.20028829574585</v>
+        <v>-30.89420127868652</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3014858460426331</v>
+        <v>-1.049133512973786</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.01918360710144</v>
+        <v>4116214.213434565</v>
       </c>
       <c r="C15" t="n">
-        <v>15.71506404876709</v>
+        <v>43.6904296875</v>
       </c>
       <c r="D15" t="n">
-        <v>9.202436447143555</v>
+        <v>19.86462020874023</v>
       </c>
       <c r="E15" t="n">
-        <v>5.022277355194092</v>
+        <v>-22.61082458496094</v>
       </c>
       <c r="F15" t="n">
-        <v>37.88936233520508</v>
+        <v>-16.42457389831543</v>
       </c>
       <c r="G15" t="n">
-        <v>34.43172836303711</v>
+        <v>34.46599960327148</v>
       </c>
       <c r="H15" t="n">
-        <v>6.20028829574585</v>
+        <v>-32.2824592590332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.3373606061935425</v>
+        <v>-1.200668156147003</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.051645839214325</v>
+        <v>2058107.360355315</v>
       </c>
       <c r="C16" t="n">
-        <v>12.74844741821289</v>
+        <v>44.07828521728516</v>
       </c>
       <c r="D16" t="n">
-        <v>7.369740962982178</v>
+        <v>19.90678787231445</v>
       </c>
       <c r="E16" t="n">
-        <v>6.184474468231201</v>
+        <v>-23.20398330688477</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93824005126953</v>
+        <v>-16.34195899963379</v>
       </c>
       <c r="G16" t="n">
-        <v>28.05173110961914</v>
+        <v>35.32418441772461</v>
       </c>
       <c r="H16" t="n">
-        <v>7.816959857940674</v>
+        <v>-33.58781433105469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3725360798835755</v>
+        <v>-1.337164602279663</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.074888963699341</v>
+        <v>1029053.922590698</v>
       </c>
       <c r="C17" t="n">
-        <v>9.953490257263184</v>
+        <v>44.42765045166016</v>
       </c>
       <c r="D17" t="n">
-        <v>6.047325134277344</v>
+        <v>19.90263557434082</v>
       </c>
       <c r="E17" t="n">
-        <v>9.244749069213867</v>
+        <v>-23.7623291015625</v>
       </c>
       <c r="F17" t="n">
-        <v>38.93824005126953</v>
+        <v>-16.17576789855957</v>
       </c>
       <c r="G17" t="n">
-        <v>21.79055786132812</v>
+        <v>36.16812896728516</v>
       </c>
       <c r="H17" t="n">
-        <v>6.967374324798584</v>
+        <v>-34.82961273193359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4040839892625809</v>
+        <v>-1.457110300064087</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.08662570476532</v>
+        <v>514527.189017783</v>
       </c>
       <c r="C18" t="n">
-        <v>7.366122245788574</v>
+        <v>44.73465347290039</v>
       </c>
       <c r="D18" t="n">
-        <v>6.047325134277344</v>
+        <v>19.85859107971191</v>
       </c>
       <c r="E18" t="n">
-        <v>11.25124454498291</v>
+        <v>-24.28254508972168</v>
       </c>
       <c r="F18" t="n">
-        <v>40.36935043334961</v>
+        <v>-15.92996120452881</v>
       </c>
       <c r="G18" t="n">
-        <v>15.97420310974121</v>
+        <v>37.00072479248047</v>
       </c>
       <c r="H18" t="n">
-        <v>5.610848903656006</v>
+        <v>-36.02497100830078</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4327033364772797</v>
+        <v>-1.559600372314453</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.094027729034424</v>
+        <v>257263.8042388988</v>
       </c>
       <c r="C19" t="n">
-        <v>5.01885986328125</v>
+        <v>44.99697875976562</v>
       </c>
       <c r="D19" t="n">
-        <v>4.549454689025879</v>
+        <v>19.78125190734863</v>
       </c>
       <c r="E19" t="n">
-        <v>13.60013961791992</v>
+        <v>-24.7625904083252</v>
       </c>
       <c r="F19" t="n">
-        <v>40.61042022705078</v>
+        <v>-15.60826396942139</v>
       </c>
       <c r="G19" t="n">
-        <v>10.91214942932129</v>
+        <v>37.82456207275391</v>
       </c>
       <c r="H19" t="n">
-        <v>4.155072689056396</v>
+        <v>-37.18825531005859</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4580441623926163</v>
+        <v>-1.644208726882935</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.098861575126648</v>
+        <v>128632.0907147903</v>
       </c>
       <c r="C20" t="n">
-        <v>2.913487911224365</v>
+        <v>45.21353530883789</v>
       </c>
       <c r="D20" t="n">
-        <v>4.926289558410645</v>
+        <v>19.67732238769531</v>
       </c>
       <c r="E20" t="n">
-        <v>16.14497756958008</v>
+        <v>-25.2015552520752</v>
       </c>
       <c r="F20" t="n">
-        <v>40.76784515380859</v>
+        <v>-15.21426296234131</v>
       </c>
       <c r="G20" t="n">
-        <v>6.8433518409729</v>
+        <v>38.64180755615234</v>
       </c>
       <c r="H20" t="n">
-        <v>3.265493154525757</v>
+        <v>-38.33076858520508</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.480454467535019</v>
+        <v>-1.710872688293457</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.105198621749878</v>
+        <v>64316.20984182151</v>
       </c>
       <c r="C21" t="n">
-        <v>1.069105267524719</v>
+        <v>45.38416290283203</v>
       </c>
       <c r="D21" t="n">
-        <v>5.839375495910645</v>
+        <v>19.55352210998535</v>
       </c>
       <c r="E21" t="n">
-        <v>18.64258193969727</v>
+        <v>-25.59955787658691</v>
       </c>
       <c r="F21" t="n">
-        <v>40.97422790527344</v>
+        <v>-14.75145244598389</v>
       </c>
       <c r="G21" t="n">
-        <v>3.903635501861572</v>
+        <v>39.45397186279297</v>
       </c>
       <c r="H21" t="n">
-        <v>2.424785375595093</v>
+        <v>-39.46061706542969</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.49949647128582</v>
+        <v>-1.75979190826416</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.113595871925354</v>
+        <v>32158.24249882475</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4742141366004944</v>
+        <v>45.50937271118164</v>
       </c>
       <c r="D22" t="n">
-        <v>7.202347755432129</v>
+        <v>19.41645812988281</v>
       </c>
       <c r="E22" t="n">
-        <v>20.52272987365723</v>
+        <v>-25.9576416015625</v>
       </c>
       <c r="F22" t="n">
-        <v>41.24770736694336</v>
+        <v>-14.22346782684326</v>
       </c>
       <c r="G22" t="n">
-        <v>2.060733318328857</v>
+        <v>40.26175308227539</v>
       </c>
       <c r="H22" t="n">
-        <v>1.545847654342651</v>
+        <v>-40.58280944824219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5144359165430069</v>
+        <v>-1.791363036632538</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.120547163486481</v>
+        <v>16079.2293285244</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.689209342002869</v>
+        <v>45.59017944335938</v>
       </c>
       <c r="D23" t="n">
-        <v>10.62477874755859</v>
+        <v>19.27249336242676</v>
       </c>
       <c r="E23" t="n">
-        <v>20.52272987365723</v>
+        <v>-26.27756881713867</v>
       </c>
       <c r="F23" t="n">
-        <v>41.47409439086914</v>
+        <v>-13.63426494598389</v>
       </c>
       <c r="G23" t="n">
-        <v>2.060733318328857</v>
+        <v>41.06491088867188</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.625107049942017</v>
+        <v>-41.69944000244141</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5250990873575211</v>
+        <v>-1.806141812801361</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.132409255504608</v>
+        <v>8039.690883619602</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.689209342002869</v>
+        <v>45.62800598144531</v>
       </c>
       <c r="D24" t="n">
-        <v>13.20322418212891</v>
+        <v>19.12758827209473</v>
       </c>
       <c r="E24" t="n">
-        <v>20.18066024780273</v>
+        <v>-26.5617504119873</v>
       </c>
       <c r="F24" t="n">
-        <v>41.86041641235352</v>
+        <v>-12.98829555511475</v>
       </c>
       <c r="G24" t="n">
-        <v>2.12920355796814</v>
+        <v>41.86214065551758</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.737808227539062</v>
+        <v>-42.81004333496094</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.53</v>
+        <v>-1.80480642080307</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.144277286529541</v>
+        <v>4019.887704895792</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.311730623245239</v>
+        <v>45.62458801269531</v>
       </c>
       <c r="D25" t="n">
-        <v>16.73322868347168</v>
+        <v>18.98713684082031</v>
       </c>
       <c r="E25" t="n">
-        <v>15.93406581878662</v>
+        <v>-26.81309509277344</v>
       </c>
       <c r="F25" t="n">
-        <v>42.24693298339844</v>
+        <v>-12.29062557220459</v>
       </c>
       <c r="G25" t="n">
-        <v>4.335982799530029</v>
+        <v>42.65110778808594</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.847517013549805</v>
+        <v>-43.91200256347656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5272499871253967</v>
+        <v>-1.78816014289856</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.147469944953919</v>
+        <v>2009.950360624986</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.083058595657349</v>
+        <v>45.58198165893555</v>
       </c>
       <c r="D26" t="n">
-        <v>20.99229049682617</v>
+        <v>18.85581398010254</v>
       </c>
       <c r="E26" t="n">
-        <v>8.414023399353027</v>
+        <v>-27.03487777709961</v>
       </c>
       <c r="F26" t="n">
-        <v>42.35091018676758</v>
+        <v>-11.54704570770264</v>
       </c>
       <c r="G26" t="n">
-        <v>7.424709320068359</v>
+        <v>43.42852020263672</v>
       </c>
       <c r="H26" t="n">
-        <v>-13.16325950622559</v>
+        <v>-45.00106048583984</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5168637382984161</v>
+        <v>-1.757134644985199</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.141822328567505</v>
+        <v>1004.944462274672</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.219413042068481</v>
+        <v>45.50257110595703</v>
       </c>
       <c r="D27" t="n">
-        <v>25.83243751525879</v>
+        <v>18.73745727539062</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.874629974365234</v>
+        <v>-27.23065567016602</v>
       </c>
       <c r="F27" t="n">
-        <v>42.1669807434082</v>
+        <v>-10.76407909393311</v>
       </c>
       <c r="G27" t="n">
-        <v>11.06118011474609</v>
+        <v>44.19025802612305</v>
       </c>
       <c r="H27" t="n">
-        <v>-16.78713798522949</v>
+        <v>-46.07179260253906</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4989333713054657</v>
+        <v>-1.712784795761108</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.127926948070526</v>
+        <v>502.4031693809039</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3230369091033936</v>
+        <v>45.38905715942383</v>
       </c>
       <c r="D28" t="n">
-        <v>31.12419509887695</v>
+        <v>18.63494110107422</v>
       </c>
       <c r="E28" t="n">
-        <v>-13.28751087188721</v>
+        <v>-27.4041690826416</v>
       </c>
       <c r="F28" t="n">
-        <v>41.71443939208984</v>
+        <v>-9.948893547058105</v>
       </c>
       <c r="G28" t="n">
-        <v>14.74486827850342</v>
+        <v>44.93161773681641</v>
       </c>
       <c r="H28" t="n">
-        <v>-19.47896385192871</v>
+        <v>-47.11820220947266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4736428058147431</v>
+        <v>-1.656301808357239</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.103680763244629</v>
+        <v>251.0934317120317</v>
       </c>
       <c r="C29" t="n">
-        <v>2.226603031158447</v>
+        <v>45.24448776245117</v>
       </c>
       <c r="D29" t="n">
-        <v>36.80231475830078</v>
+        <v>18.55013656616211</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.08573150634766</v>
+        <v>-27.55918502807617</v>
       </c>
       <c r="F29" t="n">
-        <v>40.92479705810547</v>
+        <v>-9.109236717224121</v>
       </c>
       <c r="G29" t="n">
-        <v>18.05050086975098</v>
+        <v>45.64752960205078</v>
       </c>
       <c r="H29" t="n">
-        <v>-20.97320556640625</v>
+        <v>-48.13410949707031</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4405032742023468</v>
+        <v>-1.588996939659119</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.065570409297943</v>
+        <v>125.3991020630004</v>
       </c>
       <c r="C30" t="n">
-        <v>4.918371677398682</v>
+        <v>45.07221984863281</v>
       </c>
       <c r="D30" t="n">
-        <v>42.79707336425781</v>
+        <v>18.48392868041992</v>
       </c>
       <c r="E30" t="n">
-        <v>-32.82627868652344</v>
+        <v>-27.69940567016602</v>
       </c>
       <c r="F30" t="n">
-        <v>39.68362808227539</v>
+        <v>-8.25321102142334</v>
       </c>
       <c r="G30" t="n">
-        <v>20.38558578491211</v>
+        <v>46.33290481567383</v>
       </c>
       <c r="H30" t="n">
-        <v>-20.97320556640625</v>
+        <v>-48.13410949707031</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.398652925491333</v>
+        <v>-1.512277355194092</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.008189241886139</v>
+        <v>62.51247994622596</v>
       </c>
       <c r="C31" t="n">
-        <v>8.254871368408203</v>
+        <v>44.8758544921875</v>
       </c>
       <c r="D31" t="n">
-        <v>48.76502990722656</v>
+        <v>18.4362907409668</v>
       </c>
       <c r="E31" t="n">
-        <v>-38.88937377929688</v>
+        <v>-27.82828712463379</v>
       </c>
       <c r="F31" t="n">
-        <v>36.67726135253906</v>
+        <v>-7.389091968536377</v>
       </c>
       <c r="G31" t="n">
-        <v>21.59808349609375</v>
+        <v>46.9828987121582</v>
       </c>
       <c r="H31" t="n">
-        <v>-18.64997100830078</v>
+        <v>-50.09323120117188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3507744532823563</v>
+        <v>-1.427631723880768</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.9383290839195252</v>
+        <v>31.0300699103922</v>
       </c>
       <c r="C32" t="n">
-        <v>12.06556987762451</v>
+        <v>44.65920257568359</v>
       </c>
       <c r="D32" t="n">
-        <v>54.41712188720703</v>
+        <v>18.40638542175293</v>
       </c>
       <c r="E32" t="n">
-        <v>-41.16016387939453</v>
+        <v>-27.9489860534668</v>
       </c>
       <c r="F32" t="n">
-        <v>34.74925231933594</v>
+        <v>-6.525049686431885</v>
       </c>
       <c r="G32" t="n">
-        <v>21.59808349609375</v>
+        <v>47.59321975708008</v>
       </c>
       <c r="H32" t="n">
-        <v>-15.98745346069336</v>
+        <v>-50.98958206176758</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.299243997335434</v>
+        <v>-1.336580431461334</v>
       </c>
       <c r="B33" t="n">
-        <v>1.398705948226899</v>
+        <v>16.74005786498502</v>
       </c>
       <c r="C33" t="n">
-        <v>16.14481163024902</v>
+        <v>44.42615509033203</v>
       </c>
       <c r="D33" t="n">
-        <v>59.41263580322266</v>
+        <v>18.39272117614746</v>
       </c>
       <c r="E33" t="n">
-        <v>-39.28279113769531</v>
+        <v>-28.06422805786133</v>
       </c>
       <c r="F33" t="n">
-        <v>32.20555114746094</v>
+        <v>-5.668854236602783</v>
       </c>
       <c r="G33" t="n">
-        <v>21.77798652648926</v>
+        <v>48.16029357910156</v>
       </c>
       <c r="H33" t="n">
-        <v>-13.21564960479736</v>
+        <v>-51.83552551269531</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2469572815299034</v>
+        <v>2.292228043580454</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4264977845960988</v>
+        <v>8.043732581706967</v>
       </c>
       <c r="C34" t="n">
-        <v>20.27109909057617</v>
+        <v>44.18061828613281</v>
       </c>
       <c r="D34" t="n">
-        <v>63.3305549621582</v>
+        <v>18.3932991027832</v>
       </c>
       <c r="E34" t="n">
-        <v>-33.94918441772461</v>
+        <v>-28.17628479003906</v>
       </c>
       <c r="F34" t="n">
-        <v>29.17397308349609</v>
+        <v>-4.827717304229736</v>
       </c>
       <c r="G34" t="n">
-        <v>18.52513885498047</v>
+        <v>48.68146896362305</v>
       </c>
       <c r="H34" t="n">
-        <v>-10.8835563659668</v>
+        <v>-52.62870788574219</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.720424367090823</v>
+        <v>-3.088041745852204</v>
       </c>
       <c r="B35" t="n">
-        <v>1.931697215594118</v>
+        <v>5.576485692344342</v>
       </c>
       <c r="C35" t="n">
-        <v>24.26321792602539</v>
+        <v>43.9263916015625</v>
       </c>
       <c r="D35" t="n">
-        <v>65.80467224121094</v>
+        <v>18.40581703186035</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.94489669799805</v>
+        <v>-28.28691482543945</v>
       </c>
       <c r="F35" t="n">
-        <v>25.80900955200195</v>
+        <v>-4.007967472076416</v>
       </c>
       <c r="G35" t="n">
-        <v>16.36159133911133</v>
+        <v>49.15504837036133</v>
       </c>
       <c r="H35" t="n">
-        <v>-9.049241065979004</v>
+        <v>-53.36806869506836</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9206782949194244</v>
+        <v>7.335012820846882</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1458004777049333</v>
+        <v>1.803780652414084</v>
       </c>
       <c r="C36" t="n">
-        <v>27.91485023498535</v>
+        <v>43.6671028137207</v>
       </c>
       <c r="D36" t="n">
-        <v>65.80467224121094</v>
+        <v>18.42781639099121</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.84437561035156</v>
+        <v>-28.39739608764648</v>
       </c>
       <c r="F36" t="n">
-        <v>22.32054138183594</v>
+        <v>-3.2150559425354</v>
       </c>
       <c r="G36" t="n">
-        <v>13.74724769592285</v>
+        <v>49.58037948608398</v>
       </c>
       <c r="H36" t="n">
-        <v>-7.657941341400146</v>
+        <v>-54.05348205566406</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9834543084517469</v>
+        <v>-9.058765641239603</v>
       </c>
       <c r="B37" t="n">
-        <v>1.369120162654532</v>
+        <v>3.677410303873229</v>
       </c>
       <c r="C37" t="n">
-        <v>31.12031555175781</v>
+        <v>43.4061164855957</v>
       </c>
       <c r="D37" t="n">
-        <v>65.63514709472656</v>
+        <v>18.45683097839355</v>
       </c>
       <c r="E37" t="n">
-        <v>-13.92477798461914</v>
+        <v>-28.50856590270996</v>
       </c>
       <c r="F37" t="n">
-        <v>18.85615158081055</v>
+        <v>-2.453352451324463</v>
       </c>
       <c r="G37" t="n">
-        <v>11.03920936584473</v>
+        <v>49.95769882202148</v>
       </c>
       <c r="H37" t="n">
-        <v>-6.361337661743164</v>
+        <v>-54.68592834472656</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9975846712464644</v>
+        <v>14.35573414163032</v>
       </c>
       <c r="B38" t="n">
-        <v>1.369120162654532</v>
+        <v>-1.420110872821617</v>
       </c>
       <c r="C38" t="n">
-        <v>33.69731140136719</v>
+        <v>43.14645385742188</v>
       </c>
       <c r="D38" t="n">
-        <v>62.26764678955078</v>
+        <v>18.49052619934082</v>
       </c>
       <c r="E38" t="n">
-        <v>-9.538602828979492</v>
+        <v>-28.62082672119141</v>
       </c>
       <c r="F38" t="n">
-        <v>15.48449516296387</v>
+        <v>-1.726171970367432</v>
       </c>
       <c r="G38" t="n">
-        <v>8.511423110961914</v>
+        <v>50.28816223144531</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.02256965637207</v>
+        <v>-55.26722717285156</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.999754201714385</v>
+        <v>-14.49899608284799</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3419843272717955</v>
+        <v>6.421322653411569</v>
       </c>
       <c r="C39" t="n">
-        <v>35.56474685668945</v>
+        <v>42.89081192016602</v>
       </c>
       <c r="D39" t="n">
-        <v>57.16182708740234</v>
+        <v>18.52676582336426</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.875565528869629</v>
+        <v>-28.7342472076416</v>
       </c>
       <c r="F39" t="n">
-        <v>12.34233379364014</v>
+        <v>-1.035860538482666</v>
       </c>
       <c r="G39" t="n">
-        <v>6.4421067237854</v>
+        <v>50.57362365722656</v>
       </c>
       <c r="H39" t="n">
-        <v>-3.368668556213379</v>
+        <v>-55.79980087280273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.999981443948927</v>
+        <v>16.05916343233634</v>
       </c>
       <c r="B40" t="n">
-        <v>1.160864217548897</v>
+        <v>-8.689369302811338</v>
       </c>
       <c r="C40" t="n">
-        <v>36.81798553466797</v>
+        <v>42.64147186279297</v>
       </c>
       <c r="D40" t="n">
-        <v>50.60357666015625</v>
+        <v>18.56371879577637</v>
       </c>
       <c r="E40" t="n">
-        <v>-6.875565528869629</v>
+        <v>-28.84861946105957</v>
       </c>
       <c r="F40" t="n">
-        <v>9.381521224975586</v>
+        <v>-0.3837724030017853</v>
       </c>
       <c r="G40" t="n">
-        <v>4.961412906646729</v>
+        <v>50.81656265258789</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.253230214118958</v>
+        <v>-56.28667449951172</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9999988682161535</v>
+        <v>-11.03817299004447</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9865771572682798</v>
+        <v>20.57002575924466</v>
       </c>
       <c r="C41" t="n">
-        <v>36.81798553466797</v>
+        <v>42.40034484863281</v>
       </c>
       <c r="D41" t="n">
-        <v>43.04551696777344</v>
+        <v>18.59985160827637</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.972501754760742</v>
+        <v>-28.96353912353516</v>
       </c>
       <c r="F41" t="n">
-        <v>6.594456672668457</v>
+        <v>0.2295050323009491</v>
       </c>
       <c r="G41" t="n">
-        <v>4.961412906646729</v>
+        <v>51.01987838745117</v>
       </c>
       <c r="H41" t="n">
-        <v>1.255706071853638</v>
+        <v>-56.73107528686523</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9999999370136818</v>
+        <v>8.587549090276669</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9990877973320706</v>
+        <v>-39.54361240103233</v>
       </c>
       <c r="C42" t="n">
-        <v>38.30658340454102</v>
+        <v>42.1689453125</v>
       </c>
       <c r="D42" t="n">
-        <v>34.99357223510742</v>
+        <v>18.63395881652832</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.811778545379639</v>
+        <v>-29.07845115661621</v>
       </c>
       <c r="F42" t="n">
-        <v>3.94106125831604</v>
+        <v>0.8041243553161621</v>
       </c>
       <c r="G42" t="n">
-        <v>3.192867994308472</v>
+        <v>51.18676376342773</v>
       </c>
       <c r="H42" t="n">
-        <v>4.183464527130127</v>
+        <v>-57.13654708862305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9999999964877239</v>
+        <v>-2.573728286472993</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9998048453307636</v>
+        <v>88.81154180661484</v>
       </c>
       <c r="C43" t="n">
-        <v>38.30172348022461</v>
+        <v>41.94844055175781</v>
       </c>
       <c r="D43" t="n">
-        <v>27.208740234375</v>
+        <v>18.66515350341797</v>
       </c>
       <c r="E43" t="n">
-        <v>-9.846829414367676</v>
+        <v>-29.19273567199707</v>
       </c>
       <c r="F43" t="n">
-        <v>1.460076212882996</v>
+        <v>1.340800762176514</v>
       </c>
       <c r="G43" t="n">
-        <v>3.453795194625854</v>
+        <v>51.32060623168945</v>
       </c>
       <c r="H43" t="n">
-        <v>7.161200523376465</v>
+        <v>-57.50661849975586</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9999999998076112</v>
+        <v>2.13523403841229</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9999321478858412</v>
+        <v>-195.8634836181241</v>
       </c>
       <c r="C44" t="n">
-        <v>38.34519577026367</v>
+        <v>41.73967361450195</v>
       </c>
       <c r="D44" t="n">
-        <v>20.21856307983398</v>
+        <v>18.69282913208008</v>
       </c>
       <c r="E44" t="n">
-        <v>-11.64878463745117</v>
+        <v>-29.30574607849121</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.8965585827827454</v>
+        <v>1.840709209442139</v>
       </c>
       <c r="G44" t="n">
-        <v>3.991692304611206</v>
+        <v>51.42484283447266</v>
       </c>
       <c r="H44" t="n">
-        <v>10.07305431365967</v>
+        <v>-57.8448371887207</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9999999999898695</v>
+        <v>0.8048442965383013</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9999676338694492</v>
+        <v>456.8026415398301</v>
       </c>
       <c r="C45" t="n">
-        <v>38.43861770629883</v>
+        <v>41.54318618774414</v>
       </c>
       <c r="D45" t="n">
-        <v>14.61556434631348</v>
+        <v>18.71665382385254</v>
       </c>
       <c r="E45" t="n">
-        <v>-12.90064811706543</v>
+        <v>-29.41682434082031</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.14676308631897</v>
+        <v>2.30537748336792</v>
       </c>
       <c r="G45" t="n">
-        <v>4.711874961853027</v>
+        <v>51.50285720825195</v>
       </c>
       <c r="H45" t="n">
-        <v>12.54094409942627</v>
+        <v>-58.15460205078125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9999999999995117</v>
+        <v>0.8048442965383013</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9999805412162789</v>
+        <v>-1085.080966426567</v>
       </c>
       <c r="C46" t="n">
-        <v>38.6352653503418</v>
+        <v>41.35926055908203</v>
       </c>
       <c r="D46" t="n">
-        <v>10.57353591918945</v>
+        <v>18.73650741577148</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.90064811706543</v>
+        <v>-29.5253734588623</v>
       </c>
       <c r="F46" t="n">
-        <v>-5.382569789886475</v>
+        <v>2.736575603485107</v>
       </c>
       <c r="G46" t="n">
-        <v>5.342720985412598</v>
+        <v>51.55794525146484</v>
       </c>
       <c r="H46" t="n">
-        <v>14.6192741394043</v>
+        <v>-58.43912124633789</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9999999999999825</v>
+        <v>1.20556961895065</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9999857969508323</v>
+        <v>2656.976235663295</v>
       </c>
       <c r="C47" t="n">
-        <v>39.17629623413086</v>
+        <v>41.18795013427734</v>
       </c>
       <c r="D47" t="n">
-        <v>8.257017135620117</v>
+        <v>18.7524585723877</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.4956111907959</v>
+        <v>-29.63086128234863</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.34031867980957</v>
+        <v>3.136254787445068</v>
       </c>
       <c r="G47" t="n">
-        <v>6.247454643249512</v>
+        <v>51.59323120117188</v>
       </c>
       <c r="H47" t="n">
-        <v>16.12210083007812</v>
+        <v>-58.70148086547852</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.9963639017372976</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9999882510074835</v>
+        <v>-6648.27126127761</v>
       </c>
       <c r="C48" t="n">
-        <v>39.69712066650391</v>
+        <v>41.02914810180664</v>
       </c>
       <c r="D48" t="n">
-        <v>8.257017135620117</v>
+        <v>18.76470756530762</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.44487476348877</v>
+        <v>-29.73280143737793</v>
       </c>
       <c r="F48" t="n">
-        <v>-9.070285797119141</v>
+        <v>3.506431102752686</v>
       </c>
       <c r="G48" t="n">
-        <v>7.51615047454834</v>
+        <v>51.61162567138672</v>
       </c>
       <c r="H48" t="n">
-        <v>16.12210083007812</v>
+        <v>-58.94441604614258</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0.9996714106640133</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9999892585484277</v>
+        <v>17005.22855935351</v>
       </c>
       <c r="C49" t="n">
-        <v>40.12249374389648</v>
+        <v>40.88256454467773</v>
       </c>
       <c r="D49" t="n">
-        <v>6.724596977233887</v>
+        <v>18.7735424041748</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.906081199646</v>
+        <v>-29.83083343505859</v>
       </c>
       <c r="F49" t="n">
-        <v>-10.50393104553223</v>
+        <v>3.849175930023193</v>
       </c>
       <c r="G49" t="n">
-        <v>10.1077356338501</v>
+        <v>51.6158561706543</v>
       </c>
       <c r="H49" t="n">
-        <v>15.91539192199707</v>
+        <v>-59.17050933837891</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>0.9999376723475709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9999894719322378</v>
+        <v>-44332.08316179823</v>
       </c>
       <c r="C50" t="n">
-        <v>41.13940048217773</v>
+        <v>40.74784088134766</v>
       </c>
       <c r="D50" t="n">
-        <v>7.75011157989502</v>
+        <v>18.77934455871582</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.34924507141113</v>
+        <v>-29.9246711730957</v>
       </c>
       <c r="F50" t="n">
-        <v>-10.50393104553223</v>
+        <v>4.166554927825928</v>
       </c>
       <c r="G50" t="n">
-        <v>12.20274353027344</v>
+        <v>51.60833358764648</v>
       </c>
       <c r="H50" t="n">
-        <v>12.77626037597656</v>
+        <v>-59.38201522827148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>0.9999825110650928</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9999894719322378</v>
+        <v>117636.7142563806</v>
       </c>
       <c r="C51" t="n">
-        <v>42.07223892211914</v>
+        <v>40.62451171875</v>
       </c>
       <c r="D51" t="n">
-        <v>8.501824378967285</v>
+        <v>18.78254699707031</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.5494966506958</v>
+        <v>-30.01408958435059</v>
       </c>
       <c r="F51" t="n">
-        <v>-12.2804708480835</v>
+        <v>4.4606032371521</v>
       </c>
       <c r="G51" t="n">
-        <v>15.23317241668701</v>
+        <v>51.59128189086914</v>
       </c>
       <c r="H51" t="n">
-        <v>7.014360427856445</v>
+        <v>-59.58105850219727</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>0.999993643029619</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9999896705393346</v>
+        <v>58817.64437856962</v>
       </c>
       <c r="C52" t="n">
-        <v>41.62387847900391</v>
+        <v>40.51206970214844</v>
       </c>
       <c r="D52" t="n">
-        <v>11.16701316833496</v>
+        <v>18.78358268737793</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.5684232711792</v>
+        <v>-30.09896469116211</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.84093451499939</v>
+        <v>4.733243465423584</v>
       </c>
       <c r="G52" t="n">
-        <v>21.45298194885254</v>
+        <v>51.56658172607422</v>
       </c>
       <c r="H52" t="n">
-        <v>7.014360427856445</v>
+        <v>-59.76944732666016</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.003472016332671047</v>
+        <v>0.2325436279177666</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02172215826809406</v>
+        <v>29408.0986941054</v>
       </c>
       <c r="C53" t="n">
-        <v>41.62387847900391</v>
+        <v>40.40995407104492</v>
       </c>
       <c r="D53" t="n">
-        <v>12.29563331604004</v>
+        <v>18.78289604187012</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.37236785888672</v>
+        <v>-30.17924118041992</v>
       </c>
       <c r="F53" t="n">
-        <v>1.054924845695496</v>
+        <v>4.986342906951904</v>
       </c>
       <c r="G53" t="n">
-        <v>28.09824371337891</v>
+        <v>51.53593826293945</v>
       </c>
       <c r="H53" t="n">
-        <v>4.713173389434814</v>
+        <v>-59.9488639831543</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.01156610913574696</v>
+        <v>0.2686753290891647</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.02979513432830572</v>
+        <v>14703.31584521544</v>
       </c>
       <c r="C54" t="n">
-        <v>41.72098541259766</v>
+        <v>40.31747436523438</v>
       </c>
       <c r="D54" t="n">
-        <v>14.73878288269043</v>
+        <v>18.78097152709961</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.02085876464844</v>
+        <v>-30.25491333007812</v>
       </c>
       <c r="F54" t="n">
-        <v>5.495882987976074</v>
+        <v>5.22165060043335</v>
       </c>
       <c r="G54" t="n">
-        <v>34.77017974853516</v>
+        <v>51.5009880065918</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.118715763092041</v>
+        <v>-60.12054061889648</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.01055353907868266</v>
+        <v>0.3012658184766769</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1521879813075066</v>
+        <v>7350.915084462227</v>
       </c>
       <c r="C55" t="n">
-        <v>39.88167572021484</v>
+        <v>40.23405838012695</v>
       </c>
       <c r="D55" t="n">
-        <v>17.83687973022461</v>
+        <v>18.7782096862793</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.43346786499023</v>
+        <v>-30.32602310180664</v>
       </c>
       <c r="F55" t="n">
-        <v>8.940820693969727</v>
+        <v>5.440778255462646</v>
       </c>
       <c r="G55" t="n">
-        <v>41.12882232666016</v>
+        <v>51.46289443969727</v>
       </c>
       <c r="H55" t="n">
-        <v>-7.496102333068848</v>
+        <v>-60.28582763671875</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.007509084837511182</v>
+        <v>0.3305670142173767</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.2273825994133949</v>
+        <v>3674.705974187882</v>
       </c>
       <c r="C56" t="n">
-        <v>40.13483047485352</v>
+        <v>40.15906143188477</v>
       </c>
       <c r="D56" t="n">
-        <v>21.1264762878418</v>
+        <v>18.77499580383301</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.1353759765625</v>
+        <v>-30.39267158508301</v>
       </c>
       <c r="F56" t="n">
-        <v>12.18214225769043</v>
+        <v>5.645225048065186</v>
       </c>
       <c r="G56" t="n">
-        <v>46.83452606201172</v>
+        <v>51.42276000976562</v>
       </c>
       <c r="H56" t="n">
-        <v>-12.88984298706055</v>
+        <v>-60.44569778442383</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.01001027790829539</v>
+        <v>0.3568188774585724</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.3206560754776001</v>
+        <v>1836.593236678854</v>
       </c>
       <c r="C57" t="n">
-        <v>39.92684936523438</v>
+        <v>40.09186935424805</v>
       </c>
       <c r="D57" t="n">
-        <v>23.69371795654297</v>
+        <v>18.77168464660645</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.46884727478027</v>
+        <v>-30.45497894287109</v>
       </c>
       <c r="F57" t="n">
-        <v>15.4482421875</v>
+        <v>5.836394786834717</v>
       </c>
       <c r="G57" t="n">
-        <v>51.64792633056641</v>
+        <v>51.38151931762695</v>
       </c>
       <c r="H57" t="n">
-        <v>-16.00203323364258</v>
+        <v>-60.60100173950195</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.02329415887594223</v>
+        <v>0.3802657920122147</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.4217032849788666</v>
+        <v>917.5291796904879</v>
       </c>
       <c r="C58" t="n">
-        <v>38.82225799560547</v>
+        <v>40.03185653686523</v>
       </c>
       <c r="D58" t="n">
-        <v>24.91489028930664</v>
+        <v>18.76858711242676</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.975484848022461</v>
+        <v>-30.51310920715332</v>
       </c>
       <c r="F58" t="n">
-        <v>18.75446701049805</v>
+        <v>6.015573024749756</v>
       </c>
       <c r="G58" t="n">
-        <v>55.36869812011719</v>
+        <v>51.33993148803711</v>
       </c>
       <c r="H58" t="n">
-        <v>-16.00203323364258</v>
+        <v>-60.75244903564453</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.04613653466105461</v>
+        <v>0.4011343246698379</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.5244537889957428</v>
+        <v>457.9899085775056</v>
       </c>
       <c r="C59" t="n">
-        <v>35.62545776367188</v>
+        <v>39.97844314575195</v>
       </c>
       <c r="D59" t="n">
-        <v>24.91489028930664</v>
+        <v>18.76597785949707</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.274004936218262</v>
+        <v>-30.5672721862793</v>
       </c>
       <c r="F59" t="n">
-        <v>22.04879951477051</v>
+        <v>6.18393087387085</v>
       </c>
       <c r="G59" t="n">
-        <v>57.76152801513672</v>
+        <v>51.29866790771484</v>
       </c>
       <c r="H59" t="n">
-        <v>-14.94776725769043</v>
+        <v>-60.90064239501953</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.077341648042202</v>
+        <v>0.4196465563774109</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.625241893529892</v>
+        <v>228.2134319801648</v>
       </c>
       <c r="C60" t="n">
-        <v>33.52239608764648</v>
+        <v>39.93106079101562</v>
       </c>
       <c r="D60" t="n">
-        <v>23.08926582336426</v>
+        <v>18.76408767700195</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.988730192184448</v>
+        <v>-30.61762809753418</v>
       </c>
       <c r="F60" t="n">
-        <v>25.18593215942383</v>
+        <v>6.342530727386475</v>
       </c>
       <c r="G60" t="n">
-        <v>57.76152801513672</v>
+        <v>51.25822067260742</v>
       </c>
       <c r="H60" t="n">
-        <v>-11.32902240753174</v>
+        <v>-61.04598236083984</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1123221611976624</v>
+        <v>0.4360111105442047</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.7167413914203644</v>
+        <v>113.3187146673361</v>
       </c>
       <c r="C61" t="n">
-        <v>30.89186096191406</v>
+        <v>39.88917541503906</v>
       </c>
       <c r="D61" t="n">
-        <v>20.90392684936523</v>
+        <v>18.76311111450195</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.447454571723938</v>
+        <v>-30.66441535949707</v>
       </c>
       <c r="F61" t="n">
-        <v>28.07539939880371</v>
+        <v>6.492337703704834</v>
       </c>
       <c r="G61" t="n">
-        <v>58.03329086303711</v>
+        <v>51.21900939941406</v>
       </c>
       <c r="H61" t="n">
-        <v>-6.79726505279541</v>
+        <v>-61.18885040283203</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1503005775809288</v>
+        <v>0.4504217630624771</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.7978586208820343</v>
+        <v>55.86520458985168</v>
       </c>
       <c r="C62" t="n">
-        <v>27.95722198486328</v>
+        <v>39.85229110717773</v>
       </c>
       <c r="D62" t="n">
-        <v>18.35958480834961</v>
+        <v>18.76321029663086</v>
       </c>
       <c r="E62" t="n">
-        <v>1.268457174301147</v>
+        <v>-30.70784187316895</v>
       </c>
       <c r="F62" t="n">
-        <v>30.6391487121582</v>
+        <v>6.634215831756592</v>
       </c>
       <c r="G62" t="n">
-        <v>55.21656036376953</v>
+        <v>51.18138122558594</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.264529228210449</v>
+        <v>-61.32952499389648</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1892498478293419</v>
+        <v>0.4630692571401596</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.8665778577327728</v>
+        <v>27.13259394312301</v>
       </c>
       <c r="C63" t="n">
-        <v>24.85630416870117</v>
+        <v>39.81991958618164</v>
       </c>
       <c r="D63" t="n">
-        <v>15.8204231262207</v>
+        <v>18.7645149230957</v>
       </c>
       <c r="E63" t="n">
-        <v>2.400912284851074</v>
+        <v>-30.74813842773438</v>
       </c>
       <c r="F63" t="n">
-        <v>32.90041351318359</v>
+        <v>6.768920421600342</v>
       </c>
       <c r="G63" t="n">
-        <v>51.14836120605469</v>
+        <v>51.14557647705078</v>
       </c>
       <c r="H63" t="n">
-        <v>1.481554746627808</v>
+        <v>-61.46818161010742</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.2285413533449173</v>
+        <v>0.4741235494613648</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9267228746414184</v>
+        <v>12.76070077252586</v>
       </c>
       <c r="C64" t="n">
-        <v>21.74748611450195</v>
+        <v>39.7916259765625</v>
       </c>
       <c r="D64" t="n">
-        <v>13.4043140411377</v>
+        <v>18.76712036132812</v>
       </c>
       <c r="E64" t="n">
-        <v>2.400912284851074</v>
+        <v>-30.78553009033203</v>
       </c>
       <c r="F64" t="n">
-        <v>34.84744644165039</v>
+        <v>6.897147655487061</v>
       </c>
       <c r="G64" t="n">
-        <v>46.15972137451172</v>
+        <v>51.11178588867188</v>
       </c>
       <c r="H64" t="n">
-        <v>4.210597515106201</v>
+        <v>-61.6049690246582</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2660232150554657</v>
+        <v>0.4837410759925843</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.9768583273887634</v>
+        <v>5.56941002881626</v>
       </c>
       <c r="C65" t="n">
-        <v>18.69660377502441</v>
+        <v>39.76700973510742</v>
       </c>
       <c r="D65" t="n">
-        <v>11.13060569763184</v>
+        <v>18.77110481262207</v>
       </c>
       <c r="E65" t="n">
-        <v>4.083639621734619</v>
+        <v>-30.82024002075195</v>
       </c>
       <c r="F65" t="n">
-        <v>36.47519683837891</v>
+        <v>7.019511699676514</v>
       </c>
       <c r="G65" t="n">
-        <v>40.55178451538086</v>
+        <v>51.08011627197266</v>
       </c>
       <c r="H65" t="n">
-        <v>5.942327499389648</v>
+        <v>-61.73992919921875</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.3020165657997131</v>
+        <v>0.4920723968744278</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.017035076618195</v>
+        <v>1.968643464029331</v>
       </c>
       <c r="C66" t="n">
-        <v>15.69436836242676</v>
+        <v>39.74568557739258</v>
       </c>
       <c r="D66" t="n">
-        <v>9.067569732666016</v>
+        <v>18.77651977539062</v>
       </c>
       <c r="E66" t="n">
-        <v>4.697805881500244</v>
+        <v>-30.85249137878418</v>
       </c>
       <c r="F66" t="n">
-        <v>37.81781387329102</v>
+        <v>7.136538982391357</v>
       </c>
       <c r="G66" t="n">
-        <v>34.58142471313477</v>
+        <v>51.0506706237793</v>
       </c>
       <c r="H66" t="n">
-        <v>5.942327499389648</v>
+        <v>-61.87309265136719</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.3375365966558457</v>
+        <v>0.4992531299591065</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.049505522251129</v>
+        <v>0.1633421785535905</v>
       </c>
       <c r="C67" t="n">
-        <v>12.7480354309082</v>
+        <v>39.7273063659668</v>
       </c>
       <c r="D67" t="n">
-        <v>7.331332683563232</v>
+        <v>18.78339576721191</v>
       </c>
       <c r="E67" t="n">
-        <v>6.902676105499268</v>
+        <v>-30.88251113891602</v>
       </c>
       <c r="F67" t="n">
-        <v>38.88008499145508</v>
+        <v>7.248683452606201</v>
       </c>
       <c r="G67" t="n">
-        <v>28.5023021697998</v>
+        <v>51.02347564697266</v>
       </c>
       <c r="H67" t="n">
-        <v>7.536646366119385</v>
+        <v>-62.00448989868164</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3722970980405808</v>
+        <v>0.5054039824008942</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.073514778614044</v>
+        <v>0.1633421785535905</v>
       </c>
       <c r="C68" t="n">
-        <v>9.947732925415039</v>
+        <v>39.71156311035156</v>
       </c>
       <c r="D68" t="n">
-        <v>6.030899047851562</v>
+        <v>18.79175186157227</v>
       </c>
       <c r="E68" t="n">
-        <v>8.545907974243164</v>
+        <v>-30.9105052947998</v>
       </c>
       <c r="F68" t="n">
-        <v>38.88008499145508</v>
+        <v>7.356378078460693</v>
       </c>
       <c r="G68" t="n">
-        <v>22.559814453125</v>
+        <v>50.99852752685547</v>
       </c>
       <c r="H68" t="n">
-        <v>6.676777362823486</v>
+        <v>-62.13409042358398</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4042175221443177</v>
+        <v>0.5106367528438568</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.086232087612152</v>
+        <v>-1.651419944763184</v>
       </c>
       <c r="C69" t="n">
-        <v>7.362217903137207</v>
+        <v>39.69816970825195</v>
       </c>
       <c r="D69" t="n">
-        <v>6.030899047851562</v>
+        <v>18.80158615112305</v>
       </c>
       <c r="E69" t="n">
-        <v>10.76803302764893</v>
+        <v>-30.93667411804199</v>
       </c>
       <c r="F69" t="n">
-        <v>40.35653305053711</v>
+        <v>7.45996618270874</v>
       </c>
       <c r="G69" t="n">
-        <v>17.03533363342285</v>
+        <v>50.97579956054688</v>
       </c>
       <c r="H69" t="n">
-        <v>5.307338237762451</v>
+        <v>-62.26188278198242</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4327280402183533</v>
+        <v>0.515052815079689</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.09225209236145</v>
+        <v>-1.660535941123962</v>
       </c>
       <c r="C70" t="n">
-        <v>5.057454109191895</v>
+        <v>39.68686676025391</v>
       </c>
       <c r="D70" t="n">
-        <v>4.504754066467285</v>
+        <v>18.81288719177246</v>
       </c>
       <c r="E70" t="n">
-        <v>13.19608688354492</v>
+        <v>-30.96121597290039</v>
       </c>
       <c r="F70" t="n">
-        <v>40.55258941650391</v>
+        <v>7.559777736663818</v>
       </c>
       <c r="G70" t="n">
-        <v>12.21807670593262</v>
+        <v>50.95526123046875</v>
       </c>
       <c r="H70" t="n">
-        <v>3.717931509017944</v>
+        <v>-62.38780212402344</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4570689332485199</v>
+        <v>0.5187415385246277</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.094365999698639</v>
+        <v>-1.669329335689545</v>
       </c>
       <c r="C71" t="n">
-        <v>3.028554916381836</v>
+        <v>39.67742538452148</v>
       </c>
       <c r="D71" t="n">
-        <v>4.83143138885498</v>
+        <v>18.82563972473145</v>
       </c>
       <c r="E71" t="n">
-        <v>15.67543792724609</v>
+        <v>-30.98432540893555</v>
       </c>
       <c r="F71" t="n">
-        <v>40.62143325805664</v>
+        <v>7.656056880950928</v>
       </c>
       <c r="G71" t="n">
-        <v>8.325645446777344</v>
+        <v>50.93679809570312</v>
       </c>
       <c r="H71" t="n">
-        <v>2.503480672836304</v>
+        <v>-62.51180648803711</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4781510174274445</v>
+        <v>0.521783447265625</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.098350946903229</v>
+        <v>-1.677823505401612</v>
       </c>
       <c r="C72" t="n">
-        <v>1.264604926109314</v>
+        <v>39.66963958740234</v>
       </c>
       <c r="D72" t="n">
-        <v>5.678952217102051</v>
+        <v>18.83981704711914</v>
       </c>
       <c r="E72" t="n">
-        <v>18.05968475341797</v>
+        <v>-31.00617790222168</v>
       </c>
       <c r="F72" t="n">
-        <v>40.75121688842773</v>
+        <v>7.749061107635498</v>
       </c>
       <c r="G72" t="n">
-        <v>5.474134922027588</v>
+        <v>50.92036819458008</v>
       </c>
       <c r="H72" t="n">
-        <v>1.50564169883728</v>
+        <v>-62.63385391235352</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4961780828237534</v>
+        <v>0.5242500621080399</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.105732753276825</v>
+        <v>-1.686037657260895</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.229787290096283</v>
+        <v>39.66332626342773</v>
       </c>
       <c r="D73" t="n">
-        <v>7.000893592834473</v>
+        <v>18.85537719726562</v>
       </c>
       <c r="E73" t="n">
-        <v>19.9029712677002</v>
+        <v>-31.02693176269531</v>
       </c>
       <c r="F73" t="n">
-        <v>40.99162292480469</v>
+        <v>7.838998317718506</v>
       </c>
       <c r="G73" t="n">
-        <v>3.632495403289795</v>
+        <v>50.90584945678711</v>
       </c>
       <c r="H73" t="n">
-        <v>0.547801673412323</v>
+        <v>-62.75387573242188</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.5109080201387406</v>
+        <v>0.5262039637565613</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.114336731433868</v>
+        <v>-1.693987712860108</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.43807065486908</v>
+        <v>39.6583251953125</v>
       </c>
       <c r="D74" t="n">
-        <v>10.20664405822754</v>
+        <v>18.87229156494141</v>
       </c>
       <c r="E74" t="n">
-        <v>19.9029712677002</v>
+        <v>-31.04676055908203</v>
       </c>
       <c r="F74" t="n">
-        <v>41.27183532714844</v>
+        <v>7.92604398727417</v>
       </c>
       <c r="G74" t="n">
-        <v>3.632495403289795</v>
+        <v>50.89310836791992</v>
       </c>
       <c r="H74" t="n">
-        <v>-2.142157316207886</v>
+        <v>-62.87188339233398</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.5219981676340103</v>
+        <v>0.5277003091573715</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.128392591476441</v>
+        <v>-1.701688456535339</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.43807065486908</v>
+        <v>39.65449523925781</v>
       </c>
       <c r="D75" t="n">
-        <v>12.71429252624512</v>
+        <v>18.89051055908203</v>
       </c>
       <c r="E75" t="n">
-        <v>19.64878082275391</v>
+        <v>-31.0658016204834</v>
       </c>
       <c r="F75" t="n">
-        <v>41.7296028137207</v>
+        <v>8.010359764099121</v>
       </c>
       <c r="G75" t="n">
-        <v>2.089945554733276</v>
+        <v>50.8820686340332</v>
       </c>
       <c r="H75" t="n">
-        <v>-4.888234615325928</v>
+        <v>-62.98781204223633</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5278523224592209</v>
+        <v>0.5287883162498475</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.146382095813751</v>
+        <v>-1.709152903556824</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.133143663406372</v>
+        <v>39.65171051025391</v>
       </c>
       <c r="D76" t="n">
-        <v>16.28453063964844</v>
+        <v>18.90999031066895</v>
       </c>
       <c r="E76" t="n">
-        <v>15.61235332489014</v>
+        <v>-31.08421325683594</v>
       </c>
       <c r="F76" t="n">
-        <v>42.31547927856445</v>
+        <v>8.09208869934082</v>
       </c>
       <c r="G76" t="n">
-        <v>5.154900550842285</v>
+        <v>50.87256240844727</v>
       </c>
       <c r="H76" t="n">
-        <v>-8.793233871459961</v>
+        <v>-63.10163879394531</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.5262897002696991</v>
+        <v>0.5295111376047135</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.157827067375183</v>
+        <v>-1.716393437385559</v>
       </c>
       <c r="C77" t="n">
-        <v>-3.003207445144653</v>
+        <v>39.64986038208008</v>
       </c>
       <c r="D77" t="n">
-        <v>20.72709083557129</v>
+        <v>18.93066787719727</v>
       </c>
       <c r="E77" t="n">
-        <v>8.314243316650391</v>
+        <v>-31.10210227966309</v>
       </c>
       <c r="F77" t="n">
-        <v>42.68821716308594</v>
+        <v>8.171363830566406</v>
       </c>
       <c r="G77" t="n">
-        <v>7.800200462341309</v>
+        <v>50.86448287963867</v>
       </c>
       <c r="H77" t="n">
-        <v>-13.12343215942383</v>
+        <v>-63.21333312988281</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5163024073839187</v>
+        <v>0.5299016273021698</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.15756676197052</v>
+        <v>-1.723422062397003</v>
       </c>
       <c r="C78" t="n">
-        <v>-2.172738313674927</v>
+        <v>39.64886093139648</v>
       </c>
       <c r="D78" t="n">
-        <v>25.78950881958008</v>
+        <v>18.95249366760254</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.708935737609863</v>
+        <v>-31.11958312988281</v>
       </c>
       <c r="F78" t="n">
-        <v>42.67974090576172</v>
+        <v>8.248323440551758</v>
       </c>
       <c r="G78" t="n">
-        <v>11.28771781921387</v>
+        <v>50.85769271850586</v>
       </c>
       <c r="H78" t="n">
-        <v>-16.80713272094727</v>
+        <v>-63.3229866027832</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4983697658777237</v>
+        <v>0.53</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.143785865306854</v>
+        <v>-1.730249898433685</v>
       </c>
       <c r="C79" t="n">
-        <v>0.354501485824585</v>
+        <v>39.64860916137695</v>
       </c>
       <c r="D79" t="n">
-        <v>31.19964218139648</v>
+        <v>18.97543334960938</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.83602905273438</v>
+        <v>-31.13675689697266</v>
       </c>
       <c r="F79" t="n">
-        <v>42.23092651367188</v>
+        <v>8.323081016540527</v>
       </c>
       <c r="G79" t="n">
-        <v>15.03849601745605</v>
+        <v>50.85208511352539</v>
       </c>
       <c r="H79" t="n">
-        <v>-19.36400413513184</v>
+        <v>-63.43052673339844</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4734496301412582</v>
+        <v>0.5298285901546479</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.114992423057556</v>
+        <v>-1.736887180805206</v>
       </c>
       <c r="C80" t="n">
-        <v>2.226432800292969</v>
+        <v>39.6490478515625</v>
       </c>
       <c r="D80" t="n">
-        <v>36.81600189208984</v>
+        <v>18.99943542480469</v>
       </c>
       <c r="E80" t="n">
-        <v>-23.3720760345459</v>
+        <v>-31.15373039245605</v>
       </c>
       <c r="F80" t="n">
-        <v>41.29319000244141</v>
+        <v>8.395753860473633</v>
       </c>
       <c r="G80" t="n">
-        <v>18.47945404052734</v>
+        <v>50.84751129150391</v>
       </c>
       <c r="H80" t="n">
-        <v>-20.6778450012207</v>
+        <v>-63.53599166870117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4408857399225235</v>
+        <v>0.5294142812490463</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.069941518306732</v>
+        <v>-1.743341112136841</v>
       </c>
       <c r="C81" t="n">
-        <v>4.898097991943359</v>
+        <v>39.65010833740234</v>
       </c>
       <c r="D81" t="n">
-        <v>42.62596893310547</v>
+        <v>19.02446365356445</v>
       </c>
       <c r="E81" t="n">
-        <v>-31.92181396484375</v>
+        <v>-31.17059898376465</v>
       </c>
       <c r="F81" t="n">
-        <v>38.79497528076172</v>
+        <v>8.466418266296387</v>
       </c>
       <c r="G81" t="n">
-        <v>21.02572631835938</v>
+        <v>50.84387969970703</v>
       </c>
       <c r="H81" t="n">
-        <v>-20.6778450012207</v>
+        <v>-63.63935852050781</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3991385340690613</v>
+        <v>0.5287838304042817</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.006626840829849</v>
+        <v>-1.749619905948639</v>
       </c>
       <c r="C82" t="n">
-        <v>8.262350082397461</v>
+        <v>39.6517219543457</v>
       </c>
       <c r="D82" t="n">
-        <v>48.41870880126953</v>
+        <v>19.05047225952148</v>
       </c>
       <c r="E82" t="n">
-        <v>-37.82111358642578</v>
+        <v>-31.18743515014648</v>
       </c>
       <c r="F82" t="n">
-        <v>37.01906967163086</v>
+        <v>8.535164833068848</v>
       </c>
       <c r="G82" t="n">
-        <v>22.34140777587891</v>
+        <v>50.8410530090332</v>
       </c>
       <c r="H82" t="n">
-        <v>-18.46648406982422</v>
+        <v>-63.74061584472656</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3503507304191589</v>
+        <v>0.5279581505060196</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9292248392105104</v>
+        <v>-1.755730512142182</v>
       </c>
       <c r="C83" t="n">
-        <v>12.12550640106201</v>
+        <v>39.65383529663086</v>
       </c>
       <c r="D83" t="n">
-        <v>53.89064788818359</v>
+        <v>19.07741355895996</v>
       </c>
       <c r="E83" t="n">
-        <v>-40.05126190185547</v>
+        <v>-31.20434379577637</v>
       </c>
       <c r="F83" t="n">
-        <v>34.70277404785156</v>
+        <v>8.602070808410645</v>
       </c>
       <c r="G83" t="n">
-        <v>22.34140777587891</v>
+        <v>50.83892059326172</v>
       </c>
       <c r="H83" t="n">
-        <v>-15.95359420776367</v>
+        <v>-63.83977508544922</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2978923362493515</v>
+        <v>0.5269551217556</v>
       </c>
       <c r="B84" t="n">
-        <v>1.371520598456432</v>
+        <v>4.224047206260961</v>
       </c>
       <c r="C84" t="n">
-        <v>16.2702465057373</v>
+        <v>39.65640258789062</v>
       </c>
       <c r="D84" t="n">
-        <v>58.70138168334961</v>
+        <v>19.10524368286133</v>
       </c>
       <c r="E84" t="n">
-        <v>-38.20527648925781</v>
+        <v>-31.22138214111328</v>
       </c>
       <c r="F84" t="n">
-        <v>31.95439529418945</v>
+        <v>8.667191505432129</v>
       </c>
       <c r="G84" t="n">
-        <v>21.41456413269043</v>
+        <v>50.83737945556641</v>
       </c>
       <c r="H84" t="n">
-        <v>-13.29421806335449</v>
+        <v>-63.93679046630859</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2446610814332962</v>
+        <v>0.5257896232604981</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.3682178093991032</v>
+        <v>-12.79357071172143</v>
       </c>
       <c r="C85" t="n">
-        <v>20.4537353515625</v>
+        <v>39.65938568115234</v>
       </c>
       <c r="D85" t="n">
-        <v>62.43159484863281</v>
+        <v>19.13392639160156</v>
       </c>
       <c r="E85" t="n">
-        <v>-32.98787307739258</v>
+        <v>-31.23861122131348</v>
       </c>
       <c r="F85" t="n">
-        <v>28.84563636779785</v>
+        <v>8.730591773986816</v>
       </c>
       <c r="G85" t="n">
-        <v>19.55573081970215</v>
+        <v>50.83632278442383</v>
       </c>
       <c r="H85" t="n">
-        <v>-11.01049518585205</v>
+        <v>-64.03173065185547</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7236824254166829</v>
+        <v>0.5307302870377255</v>
       </c>
       <c r="B86" t="n">
-        <v>1.856836619070361</v>
+        <v>45.80219906813016</v>
       </c>
       <c r="C86" t="n">
-        <v>24.47910308837891</v>
+        <v>39.66274261474609</v>
       </c>
       <c r="D86" t="n">
-        <v>64.71138000488281</v>
+        <v>19.16341590881348</v>
       </c>
       <c r="E86" t="n">
-        <v>-26.15223693847656</v>
+        <v>-31.25609970092773</v>
       </c>
       <c r="F86" t="n">
-        <v>25.47109794616699</v>
+        <v>8.792348861694336</v>
       </c>
       <c r="G86" t="n">
-        <v>17.11101913452148</v>
+        <v>50.83566665649414</v>
       </c>
       <c r="H86" t="n">
-        <v>-9.18985652923584</v>
+        <v>-64.12457275390625</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9231646822376621</v>
+        <v>0.5369047843436238</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2225742212289948</v>
+        <v>-150.6160164780193</v>
       </c>
       <c r="C87" t="n">
-        <v>28.15070724487305</v>
+        <v>39.66645812988281</v>
       </c>
       <c r="D87" t="n">
-        <v>64.71138000488281</v>
+        <v>19.19368171691895</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.28489112854004</v>
+        <v>-31.27387237548828</v>
       </c>
       <c r="F87" t="n">
-        <v>21.97938919067383</v>
+        <v>8.852519989013672</v>
       </c>
       <c r="G87" t="n">
-        <v>14.32910346984863</v>
+        <v>50.83530044555664</v>
       </c>
       <c r="H87" t="n">
-        <v>-7.788244724273682</v>
+        <v>-64.21536254882812</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9844189702547321</v>
+        <v>0.5443797331298434</v>
       </c>
       <c r="B88" t="n">
-        <v>1.314179696164518</v>
+        <v>512.6439468161275</v>
       </c>
       <c r="C88" t="n">
-        <v>31.35930824279785</v>
+        <v>39.67050552368164</v>
       </c>
       <c r="D88" t="n">
-        <v>64.23023986816406</v>
+        <v>19.22467803955078</v>
       </c>
       <c r="E88" t="n">
-        <v>-13.57126426696777</v>
+        <v>-31.29197883605957</v>
       </c>
       <c r="F88" t="n">
-        <v>18.5106372833252</v>
+        <v>8.911189079284668</v>
       </c>
       <c r="G88" t="n">
-        <v>11.5019416809082</v>
+        <v>50.83518218994141</v>
       </c>
       <c r="H88" t="n">
-        <v>-6.489063739776611</v>
+        <v>-64.30416107177734</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9978110943090749</v>
+        <v>0.5531933542760423</v>
       </c>
       <c r="B89" t="n">
-        <v>1.314179696164518</v>
+        <v>-1731.964417247836</v>
       </c>
       <c r="C89" t="n">
-        <v>33.9431037902832</v>
+        <v>39.67485046386719</v>
       </c>
       <c r="D89" t="n">
-        <v>60.94976806640625</v>
+        <v>19.25639724731445</v>
       </c>
       <c r="E89" t="n">
-        <v>-9.366484642028809</v>
+        <v>-31.31045150756836</v>
       </c>
       <c r="F89" t="n">
-        <v>15.16471481323242</v>
+        <v>8.968411445617676</v>
       </c>
       <c r="G89" t="n">
-        <v>8.877433776855469</v>
+        <v>50.835205078125</v>
       </c>
       <c r="H89" t="n">
-        <v>-5.152749061584473</v>
+        <v>-64.39100646972656</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9997897894652535</v>
+        <v>0.5633618146226129</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4430602985001229</v>
+        <v>5886.103064320867</v>
       </c>
       <c r="C90" t="n">
-        <v>35.81114196777344</v>
+        <v>39.67948150634766</v>
       </c>
       <c r="D90" t="n">
-        <v>56.01762771606445</v>
+        <v>19.2888240814209</v>
       </c>
       <c r="E90" t="n">
-        <v>-6.786400318145752</v>
+        <v>-31.32934188842773</v>
       </c>
       <c r="F90" t="n">
-        <v>12.04242324829102</v>
+        <v>9.024215698242188</v>
       </c>
       <c r="G90" t="n">
-        <v>6.725242137908936</v>
+        <v>50.83526611328125</v>
       </c>
       <c r="H90" t="n">
-        <v>-3.497073173522949</v>
+        <v>-64.47590637207031</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9999853087102749</v>
+        <v>0.5748717450231293</v>
       </c>
       <c r="B91" t="n">
-        <v>1.127118519904647</v>
+        <v>-20038.75131608755</v>
       </c>
       <c r="C91" t="n">
-        <v>37.01572799682617</v>
+        <v>39.68436813354492</v>
       </c>
       <c r="D91" t="n">
-        <v>49.6820068359375</v>
+        <v>19.32195091247559</v>
       </c>
       <c r="E91" t="n">
-        <v>-6.786400318145752</v>
+        <v>-31.34865379333496</v>
       </c>
       <c r="F91" t="n">
-        <v>9.114219665527344</v>
+        <v>9.078658103942871</v>
       </c>
       <c r="G91" t="n">
-        <v>5.184414863586426</v>
+        <v>50.83533477783203</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.343561768531799</v>
+        <v>-64.55894470214844</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9999991536383064</v>
+        <v>0.5876897904939036</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9911213774734831</v>
+        <v>68418.08368676942</v>
       </c>
       <c r="C92" t="n">
-        <v>37.01572799682617</v>
+        <v>39.68951034545898</v>
       </c>
       <c r="D92" t="n">
-        <v>42.36908721923828</v>
+        <v>19.35577964782715</v>
       </c>
       <c r="E92" t="n">
-        <v>-4.795693397521973</v>
+        <v>-31.36843872070312</v>
       </c>
       <c r="F92" t="n">
-        <v>6.366455078125</v>
+        <v>9.131809234619141</v>
       </c>
       <c r="G92" t="n">
-        <v>5.184414863586426</v>
+        <v>50.83532333374023</v>
       </c>
       <c r="H92" t="n">
-        <v>1.229208946228027</v>
+        <v>-64.64019012451172</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9999999530072968</v>
+        <v>0.6017561763146847</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9992995539460838</v>
+        <v>-234175.5348099843</v>
       </c>
       <c r="C93" t="n">
-        <v>38.31227111816406</v>
+        <v>39.69488906860352</v>
       </c>
       <c r="D93" t="n">
-        <v>34.57092666625977</v>
+        <v>19.39030647277832</v>
       </c>
       <c r="E93" t="n">
-        <v>-7.965192794799805</v>
+        <v>-31.38870811462402</v>
       </c>
       <c r="F93" t="n">
-        <v>3.774446249008179</v>
+        <v>9.183703422546387</v>
       </c>
       <c r="G93" t="n">
-        <v>3.406183958053589</v>
+        <v>50.83514404296875</v>
       </c>
       <c r="H93" t="n">
-        <v>4.17545223236084</v>
+        <v>-64.71974182128906</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.999999997288092</v>
+        <v>0.6169900300690543</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9998458779205504</v>
+        <v>803529.138978201</v>
       </c>
       <c r="C94" t="n">
-        <v>38.21593475341797</v>
+        <v>39.70050048828125</v>
       </c>
       <c r="D94" t="n">
-        <v>26.98694229125977</v>
+        <v>19.42552947998047</v>
       </c>
       <c r="E94" t="n">
-        <v>-9.732100486755371</v>
+        <v>-31.40946388244629</v>
       </c>
       <c r="F94" t="n">
-        <v>1.387906670570374</v>
+        <v>9.234406471252441</v>
       </c>
       <c r="G94" t="n">
-        <v>3.780468702316284</v>
+        <v>50.83477401733398</v>
       </c>
       <c r="H94" t="n">
-        <v>7.125438690185547</v>
+        <v>-64.79761505126953</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9999999998394062</v>
+        <v>0.6333116551199065</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9999466131531379</v>
+        <v>-2763843.856387171</v>
       </c>
       <c r="C95" t="n">
-        <v>38.14943695068359</v>
+        <v>39.70641708374023</v>
       </c>
       <c r="D95" t="n">
-        <v>20.12134742736816</v>
+        <v>19.46164131164551</v>
       </c>
       <c r="E95" t="n">
-        <v>-11.39663887023926</v>
+        <v>-31.43074989318848</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.8831276297569275</v>
+        <v>9.283971786499023</v>
       </c>
       <c r="G95" t="n">
-        <v>4.542466163635254</v>
+        <v>50.83391571044922</v>
       </c>
       <c r="H95" t="n">
-        <v>10.01608085632324</v>
+        <v>-64.87444305419922</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.999999999991376</v>
+        <v>0.6506432759988037</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9999748402431877</v>
+        <v>9529459.717457369</v>
       </c>
       <c r="C96" t="n">
-        <v>38.39259338378906</v>
+        <v>39.71272659301758</v>
       </c>
       <c r="D96" t="n">
-        <v>14.58254051208496</v>
+        <v>19.49884414672852</v>
       </c>
       <c r="E96" t="n">
-        <v>-12.55985641479492</v>
+        <v>-31.45259284973145</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.013352870941162</v>
+        <v>9.33253288269043</v>
       </c>
       <c r="G96" t="n">
-        <v>5.456978797912598</v>
+        <v>50.83230209350586</v>
       </c>
       <c r="H96" t="n">
-        <v>12.42024040222168</v>
+        <v>-64.95078277587891</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9999999999995981</v>
+        <v>0.6689260257349254</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9999852430917927</v>
+        <v>-32934195.42383236</v>
       </c>
       <c r="C97" t="n">
-        <v>38.70553588867188</v>
+        <v>39.71960067749023</v>
       </c>
       <c r="D97" t="n">
-        <v>10.53480911254883</v>
+        <v>19.53742980957031</v>
       </c>
       <c r="E97" t="n">
-        <v>-12.55985641479492</v>
+        <v>-31.47495269775391</v>
       </c>
       <c r="F97" t="n">
-        <v>-5.148815155029297</v>
+        <v>9.380553245544434</v>
       </c>
       <c r="G97" t="n">
-        <v>6.279374122619629</v>
+        <v>50.82982635498047</v>
       </c>
       <c r="H97" t="n">
-        <v>14.44838619232178</v>
+        <v>-65.02747344970703</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999999999999875</v>
+        <v>0.6880330001558982</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9999895145019047</v>
+        <v>114083977.725793</v>
       </c>
       <c r="C98" t="n">
-        <v>39.38886260986328</v>
+        <v>39.72689819335938</v>
       </c>
       <c r="D98" t="n">
-        <v>8.226408004760742</v>
+        <v>19.57720565795898</v>
       </c>
       <c r="E98" t="n">
-        <v>-14.1310920715332</v>
+        <v>-31.49784088134766</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.9460768699646</v>
+        <v>9.427899360656738</v>
       </c>
       <c r="G98" t="n">
-        <v>7.157736778259277</v>
+        <v>50.82665634155273</v>
       </c>
       <c r="H98" t="n">
-        <v>15.81343650817871</v>
+        <v>-65.10385894775391</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.7077602348385401</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9999916632082197</v>
+        <v>-396075465.7257171</v>
       </c>
       <c r="C99" t="n">
-        <v>39.86100769042969</v>
+        <v>39.73439025878906</v>
       </c>
       <c r="D99" t="n">
-        <v>8.226408004760742</v>
+        <v>19.61782455444336</v>
       </c>
       <c r="E99" t="n">
-        <v>-14.10644626617432</v>
+        <v>-31.52127456665039</v>
       </c>
       <c r="F99" t="n">
-        <v>-8.54277229309082</v>
+        <v>9.474220275878906</v>
       </c>
       <c r="G99" t="n">
-        <v>8.466172218322754</v>
+        <v>50.82306289672852</v>
       </c>
       <c r="H99" t="n">
-        <v>15.81343650817871</v>
+        <v>-65.17891693115234</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0.7278934763297541</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9999926972851647</v>
+        <v>1378112482.520337</v>
       </c>
       <c r="C100" t="n">
-        <v>40.31669235229492</v>
+        <v>39.7420654296875</v>
       </c>
       <c r="D100" t="n">
-        <v>6.547051429748535</v>
+        <v>19.65929985046387</v>
       </c>
       <c r="E100" t="n">
-        <v>-14.55509662628174</v>
+        <v>-31.54526710510254</v>
       </c>
       <c r="F100" t="n">
-        <v>-9.937284469604492</v>
+        <v>9.519565582275391</v>
       </c>
       <c r="G100" t="n">
-        <v>9.967717170715332</v>
+        <v>50.81900405883789</v>
       </c>
       <c r="H100" t="n">
-        <v>15.54689598083496</v>
+        <v>-65.25269317626953</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0.7482144261036938</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9999930986484946</v>
+        <v>-4805334010.491468</v>
       </c>
       <c r="C101" t="n">
-        <v>41.10409545898438</v>
+        <v>39.74991607666016</v>
       </c>
       <c r="D101" t="n">
-        <v>7.755671501159668</v>
+        <v>19.70162582397461</v>
       </c>
       <c r="E101" t="n">
-        <v>-14.21177864074707</v>
+        <v>-31.5698070526123</v>
       </c>
       <c r="F101" t="n">
-        <v>-9.937284469604492</v>
+        <v>9.563974380493164</v>
       </c>
       <c r="G101" t="n">
-        <v>13.35769081115723</v>
+        <v>50.81446838378906</v>
       </c>
       <c r="H101" t="n">
-        <v>12.57960319519043</v>
+        <v>-65.32517242431641</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0.7685039775942947</v>
       </c>
       <c r="B102" t="n">
-        <v>0.99999332389522</v>
+        <v>16790859666.71891</v>
       </c>
       <c r="C102" t="n">
-        <v>42.10826873779297</v>
+        <v>39.7579231262207</v>
       </c>
       <c r="D102" t="n">
-        <v>8.662495613098145</v>
+        <v>19.74477386474609</v>
       </c>
       <c r="E102" t="n">
-        <v>-14.33318710327148</v>
+        <v>-31.59490776062012</v>
       </c>
       <c r="F102" t="n">
-        <v>-11.71710872650146</v>
+        <v>9.607481956481934</v>
       </c>
       <c r="G102" t="n">
-        <v>16.06322860717773</v>
+        <v>50.80947875976562</v>
       </c>
       <c r="H102" t="n">
-        <v>6.884932518005371</v>
+        <v>-65.39640045166016</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0.7885503444398876</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9999937110492175</v>
+        <v>8395429832.431829</v>
       </c>
       <c r="C103" t="n">
-        <v>41.50615692138672</v>
+        <v>39.76607894897461</v>
       </c>
       <c r="D103" t="n">
-        <v>11.44649124145508</v>
+        <v>19.78871536254883</v>
       </c>
       <c r="E103" t="n">
-        <v>-16.17959022521973</v>
+        <v>-31.62056350708008</v>
       </c>
       <c r="F103" t="n">
-        <v>-3.601404905319214</v>
+        <v>9.65007209777832</v>
       </c>
       <c r="G103" t="n">
-        <v>21.52974128723145</v>
+        <v>50.80399703979492</v>
       </c>
       <c r="H103" t="n">
-        <v>6.884932518005371</v>
+        <v>-65.46628570556641</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.006786679094657302</v>
+        <v>0.4808675760030747</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0277495551854372</v>
+        <v>4197714915.286424</v>
       </c>
       <c r="C104" t="n">
-        <v>41.50615692138672</v>
+        <v>39.77436447143555</v>
       </c>
       <c r="D104" t="n">
-        <v>11.44649124145508</v>
+        <v>19.83341979980469</v>
       </c>
       <c r="E104" t="n">
-        <v>-17.71673774719238</v>
+        <v>-31.64677429199219</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4567826986312866</v>
+        <v>9.691773414611816</v>
       </c>
       <c r="G104" t="n">
-        <v>27.78247833251953</v>
+        <v>50.79803466796875</v>
       </c>
       <c r="H104" t="n">
-        <v>4.207324504852295</v>
+        <v>-65.5347900390625</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.01700385626405478</v>
+        <v>0.4775752812623978</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01429188225418329</v>
+        <v>2098857456.711898</v>
       </c>
       <c r="C105" t="n">
-        <v>40.75900268554688</v>
+        <v>39.78279113769531</v>
       </c>
       <c r="D105" t="n">
-        <v>14.82762241363525</v>
+        <v>19.87885856628418</v>
       </c>
       <c r="E105" t="n">
-        <v>-17.71673774719238</v>
+        <v>-31.67354393005371</v>
       </c>
       <c r="F105" t="n">
-        <v>4.911826133728027</v>
+        <v>9.732580184936523</v>
       </c>
       <c r="G105" t="n">
-        <v>34.42640686035156</v>
+        <v>50.79157257080078</v>
       </c>
       <c r="H105" t="n">
-        <v>-1.297316789627075</v>
+        <v>-65.6019287109375</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.01700936090201139</v>
+        <v>0.4742323470115662</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1346868813037872</v>
+        <v>1049428727.422854</v>
       </c>
       <c r="C106" t="n">
-        <v>40.75900268554688</v>
+        <v>39.79134750366211</v>
       </c>
       <c r="D106" t="n">
-        <v>17.15395736694336</v>
+        <v>19.92499923706055</v>
       </c>
       <c r="E106" t="n">
-        <v>-18.00576782226562</v>
+        <v>-31.70085716247559</v>
       </c>
       <c r="F106" t="n">
-        <v>8.363685607910156</v>
+        <v>9.772489547729492</v>
       </c>
       <c r="G106" t="n">
-        <v>41.04548645019531</v>
+        <v>50.78462219238281</v>
       </c>
       <c r="H106" t="n">
-        <v>-7.42945384979248</v>
+        <v>-65.66768646240234</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.01564786037430167</v>
+        <v>0.4708342242240906</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2098740756511688</v>
+        <v>524714362.7765928</v>
       </c>
       <c r="C107" t="n">
-        <v>39.45806884765625</v>
+        <v>39.80004501342773</v>
       </c>
       <c r="D107" t="n">
-        <v>20.12443542480469</v>
+        <v>19.97179985046387</v>
       </c>
       <c r="E107" t="n">
-        <v>-15.76484870910645</v>
+        <v>-31.72871589660645</v>
       </c>
       <c r="F107" t="n">
-        <v>11.70915126800537</v>
+        <v>9.811494827270508</v>
       </c>
       <c r="G107" t="n">
-        <v>46.99322509765625</v>
+        <v>50.77717971801758</v>
       </c>
       <c r="H107" t="n">
-        <v>-12.77325439453125</v>
+        <v>-65.73197937011719</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.01683370411396027</v>
+        <v>0.4673839455842972</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.309330547451973</v>
+        <v>262357180.4517647</v>
       </c>
       <c r="C108" t="n">
-        <v>39.35946273803711</v>
+        <v>39.80887603759766</v>
       </c>
       <c r="D108" t="n">
-        <v>22.87819671630859</v>
+        <v>20.01922225952148</v>
       </c>
       <c r="E108" t="n">
-        <v>-13.19902610778809</v>
+        <v>-31.75708961486816</v>
       </c>
       <c r="F108" t="n">
-        <v>15.00972175598145</v>
+        <v>9.849589347839355</v>
       </c>
       <c r="G108" t="n">
-        <v>51.79876708984375</v>
+        <v>50.76925659179688</v>
       </c>
       <c r="H108" t="n">
-        <v>-15.85854339599609</v>
+        <v>-65.79476928710938</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.02413409989327192</v>
+        <v>0.4638785415887833</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.4092968261241913</v>
+        <v>131178589.2876958</v>
       </c>
       <c r="C109" t="n">
-        <v>38.75241470336914</v>
+        <v>39.81784820556641</v>
       </c>
       <c r="D109" t="n">
-        <v>24.54378509521484</v>
+        <v>20.06723022460938</v>
       </c>
       <c r="E109" t="n">
-        <v>-9.823169708251953</v>
+        <v>-31.78598403930664</v>
       </c>
       <c r="F109" t="n">
-        <v>18.32098388671875</v>
+        <v>9.88675594329834</v>
       </c>
       <c r="G109" t="n">
-        <v>55.32499694824219</v>
+        <v>50.7608528137207</v>
       </c>
       <c r="H109" t="n">
-        <v>-15.85854339599609</v>
+        <v>-65.85602569580078</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.04201652243733407</v>
+        <v>0.460313526391983</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.5112981939315796</v>
+        <v>65589293.70404987</v>
       </c>
       <c r="C110" t="n">
-        <v>36.05863189697266</v>
+        <v>39.82697296142578</v>
       </c>
       <c r="D110" t="n">
-        <v>24.54378509521484</v>
+        <v>20.11577415466309</v>
       </c>
       <c r="E110" t="n">
-        <v>-6.198918342590332</v>
+        <v>-31.81535530090332</v>
       </c>
       <c r="F110" t="n">
-        <v>21.67007446289062</v>
+        <v>9.922995567321777</v>
       </c>
       <c r="G110" t="n">
-        <v>57.53528594970703</v>
+        <v>50.75198745727539</v>
       </c>
       <c r="H110" t="n">
-        <v>-14.82528591156006</v>
+        <v>-65.91569519042969</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.07104281798005105</v>
+        <v>0.4566903531551361</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.6152944362163544</v>
+        <v>32794645.91065919</v>
       </c>
       <c r="C111" t="n">
-        <v>33.97859191894531</v>
+        <v>39.83624649047852</v>
       </c>
       <c r="D111" t="n">
-        <v>23.46886444091797</v>
+        <v>20.16480445861816</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.926826238632202</v>
+        <v>-31.84519577026367</v>
       </c>
       <c r="F111" t="n">
-        <v>24.92333602905273</v>
+        <v>9.958282470703125</v>
       </c>
       <c r="G111" t="n">
-        <v>57.53528594970703</v>
+        <v>50.74269104003906</v>
       </c>
       <c r="H111" t="n">
-        <v>-11.3158016204834</v>
+        <v>-65.97372436523438</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1065590579807758</v>
+        <v>0.4529986602067947</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7122442364692688</v>
+        <v>16397322.01244125</v>
       </c>
       <c r="C112" t="n">
-        <v>31.2866153717041</v>
+        <v>39.84569549560547</v>
       </c>
       <c r="D112" t="n">
-        <v>21.02722930908203</v>
+        <v>20.21427726745605</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.3797489404678345</v>
+        <v>-31.87546348571777</v>
       </c>
       <c r="F112" t="n">
-        <v>27.93745422363281</v>
+        <v>9.992613792419434</v>
       </c>
       <c r="G112" t="n">
-        <v>57.84060668945312</v>
+        <v>50.73297500610352</v>
       </c>
       <c r="H112" t="n">
-        <v>-6.911016464233398</v>
+        <v>-66.03010559082031</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1462921112775803</v>
+        <v>0.4492398691177368</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.7974504721164704</v>
+        <v>8198660.06185435</v>
       </c>
       <c r="C113" t="n">
-        <v>28.22098350524902</v>
+        <v>39.85531616210938</v>
       </c>
       <c r="D113" t="n">
-        <v>18.09836959838867</v>
+        <v>20.26413154602051</v>
       </c>
       <c r="E113" t="n">
-        <v>1.306565761566162</v>
+        <v>-31.90614891052246</v>
       </c>
       <c r="F113" t="n">
-        <v>30.59130668640137</v>
+        <v>10.02595710754395</v>
       </c>
       <c r="G113" t="n">
-        <v>55.08248138427734</v>
+        <v>50.72286605834961</v>
       </c>
       <c r="H113" t="n">
-        <v>-2.452744960784912</v>
+        <v>-66.08474731445312</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.187653186917305</v>
+        <v>0.44540955722332</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.8678755939006806</v>
+        <v>4099329.085129032</v>
       </c>
       <c r="C114" t="n">
-        <v>24.96671676635742</v>
+        <v>39.86511993408203</v>
       </c>
       <c r="D114" t="n">
-        <v>15.234619140625</v>
+        <v>20.3143138885498</v>
       </c>
       <c r="E114" t="n">
-        <v>2.334335803985596</v>
+        <v>-31.93720054626465</v>
       </c>
       <c r="F114" t="n">
-        <v>32.88363647460938</v>
+        <v>10.05831909179688</v>
       </c>
       <c r="G114" t="n">
-        <v>50.97100067138672</v>
+        <v>50.71240615844727</v>
       </c>
       <c r="H114" t="n">
-        <v>1.270679473876953</v>
+        <v>-66.13763427734375</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2290577468276024</v>
+        <v>0.4415047234296799</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.9271615397930145</v>
+        <v>2049663.595380499</v>
       </c>
       <c r="C115" t="n">
-        <v>21.74315643310547</v>
+        <v>39.87511444091797</v>
       </c>
       <c r="D115" t="n">
-        <v>12.73708343505859</v>
+        <v>20.36476707458496</v>
       </c>
       <c r="E115" t="n">
-        <v>2.334335803985596</v>
+        <v>-31.96857833862305</v>
       </c>
       <c r="F115" t="n">
-        <v>34.83202362060547</v>
+        <v>10.089674949646</v>
       </c>
       <c r="G115" t="n">
-        <v>45.93603515625</v>
+        <v>50.70163345336914</v>
       </c>
       <c r="H115" t="n">
-        <v>3.976814031600952</v>
+        <v>-66.18868255615234</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.2674551790952683</v>
+        <v>0.4375193971395493</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.9764263594150544</v>
+        <v>1024830.849167366</v>
       </c>
       <c r="C116" t="n">
-        <v>18.65694236755371</v>
+        <v>39.88531494140625</v>
       </c>
       <c r="D116" t="n">
-        <v>10.62930107116699</v>
+        <v>20.41543197631836</v>
       </c>
       <c r="E116" t="n">
-        <v>3.732532024383545</v>
+        <v>-32.00025177001953</v>
       </c>
       <c r="F116" t="n">
-        <v>36.45758056640625</v>
+        <v>10.12002277374268</v>
       </c>
       <c r="G116" t="n">
-        <v>40.39357376098633</v>
+        <v>50.69057464599609</v>
       </c>
       <c r="H116" t="n">
-        <v>5.68654203414917</v>
+        <v>-66.2379150390625</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.3029184418916702</v>
+        <v>0.4334520936012268</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.016426833868027</v>
+        <v>512414.4747690022</v>
       </c>
       <c r="C117" t="n">
-        <v>15.67742919921875</v>
+        <v>39.89572525024414</v>
       </c>
       <c r="D117" t="n">
-        <v>8.833185195922852</v>
+        <v>20.46624565124512</v>
       </c>
       <c r="E117" t="n">
-        <v>4.315785884857178</v>
+        <v>-32.03218460083008</v>
       </c>
       <c r="F117" t="n">
-        <v>37.80087280273438</v>
+        <v>10.14934253692627</v>
       </c>
       <c r="G117" t="n">
-        <v>34.62326431274414</v>
+        <v>50.67928314208984</v>
       </c>
       <c r="H117" t="n">
-        <v>5.68654203414917</v>
+        <v>-66.28523254394531</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.3374670660495758</v>
+        <v>0.4292983585596085</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.04900620341301</v>
+        <v>256206.2863250297</v>
       </c>
       <c r="C118" t="n">
-        <v>12.77020359039307</v>
+        <v>39.90635681152344</v>
       </c>
       <c r="D118" t="n">
-        <v>7.313042163848877</v>
+        <v>20.51714706420898</v>
       </c>
       <c r="E118" t="n">
-        <v>6.590919017791748</v>
+        <v>-32.06430816650391</v>
       </c>
       <c r="F118" t="n">
-        <v>38.87422561645508</v>
+        <v>10.17763042449951</v>
       </c>
       <c r="G118" t="n">
-        <v>28.83498382568359</v>
+        <v>50.66780853271484</v>
       </c>
       <c r="H118" t="n">
-        <v>7.252246379852295</v>
+        <v>-66.33062744140625</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.3715601873397827</v>
+        <v>0.4250566756725311</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.073675131797791</v>
+        <v>128102.1909061441</v>
       </c>
       <c r="C119" t="n">
-        <v>9.982595443725586</v>
+        <v>39.91721343994141</v>
       </c>
       <c r="D119" t="n">
-        <v>6.103799819946289</v>
+        <v>20.56805038452148</v>
       </c>
       <c r="E119" t="n">
-        <v>8.315668106079102</v>
+        <v>-32.09658432006836</v>
       </c>
       <c r="F119" t="n">
-        <v>38.87422561645508</v>
+        <v>10.20488739013672</v>
       </c>
       <c r="G119" t="n">
-        <v>23.21022415161133</v>
+        <v>50.65621948242188</v>
       </c>
       <c r="H119" t="n">
-        <v>6.398065090179443</v>
+        <v>-66.37405395507812</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4036455768346787</v>
+        <v>0.4207270765304565</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.087502782344818</v>
+        <v>64050.14204712435</v>
       </c>
       <c r="C120" t="n">
-        <v>7.383761405944824</v>
+        <v>39.92829513549805</v>
       </c>
       <c r="D120" t="n">
-        <v>6.103799819946289</v>
+        <v>20.61891174316406</v>
       </c>
       <c r="E120" t="n">
-        <v>10.56132793426514</v>
+        <v>-32.12896728515625</v>
       </c>
       <c r="F120" t="n">
-        <v>40.39791488647461</v>
+        <v>10.23110008239746</v>
       </c>
       <c r="G120" t="n">
-        <v>17.96625137329102</v>
+        <v>50.64453125</v>
       </c>
       <c r="H120" t="n">
-        <v>5.034183979034424</v>
+        <v>-66.41542816162109</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4326291304826737</v>
+        <v>0.4163065600395203</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.093282194137573</v>
+        <v>32024.11651592873</v>
       </c>
       <c r="C121" t="n">
-        <v>5.066512107849121</v>
+        <v>39.93960952758789</v>
       </c>
       <c r="D121" t="n">
-        <v>4.53975772857666</v>
+        <v>20.6696662902832</v>
       </c>
       <c r="E121" t="n">
-        <v>12.97967720031738</v>
+        <v>-32.16139984130859</v>
       </c>
       <c r="F121" t="n">
-        <v>40.58613967895508</v>
+        <v>10.25627326965332</v>
       </c>
       <c r="G121" t="n">
-        <v>13.36108779907227</v>
+        <v>50.63282775878906</v>
       </c>
       <c r="H121" t="n">
-        <v>3.366941213607788</v>
+        <v>-66.45482635498047</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4571101272106171</v>
+        <v>0.4117966425418854</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.093713846206665</v>
+        <v>16011.10269609403</v>
       </c>
       <c r="C122" t="n">
-        <v>3.060189247131348</v>
+        <v>39.95115280151367</v>
       </c>
       <c r="D122" t="n">
-        <v>4.758610725402832</v>
+        <v>20.72024917602539</v>
       </c>
       <c r="E122" t="n">
-        <v>15.37004947662354</v>
+        <v>-32.19382476806641</v>
       </c>
       <c r="F122" t="n">
-        <v>40.60019683837891</v>
+        <v>10.28039646148682</v>
       </c>
       <c r="G122" t="n">
-        <v>9.615020751953125</v>
+        <v>50.62113189697266</v>
       </c>
       <c r="H122" t="n">
-        <v>1.905996084213257</v>
+        <v>-66.49216461181641</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4774990850687027</v>
+        <v>0.4071957761049271</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.094883325099945</v>
+        <v>8004.594779135938</v>
       </c>
       <c r="C123" t="n">
-        <v>1.353617548942566</v>
+        <v>39.96292877197266</v>
       </c>
       <c r="D123" t="n">
-        <v>5.535233497619629</v>
+        <v>20.77059936523438</v>
       </c>
       <c r="E123" t="n">
-        <v>17.62320709228516</v>
+        <v>-32.22618865966797</v>
       </c>
       <c r="F123" t="n">
-        <v>40.63828277587891</v>
+        <v>10.3034839630127</v>
       </c>
       <c r="G123" t="n">
-        <v>6.852307796478271</v>
+        <v>50.6095085144043</v>
       </c>
       <c r="H123" t="n">
-        <v>0.7180010676383972</v>
+        <v>-66.52747344970703</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4944176095724106</v>
+        <v>0.4025069934129715</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.100042300224304</v>
+        <v>4001.339860054133</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.07265299558639526</v>
+        <v>39.97492980957031</v>
       </c>
       <c r="D124" t="n">
-        <v>6.820372581481934</v>
+        <v>20.82065200805664</v>
       </c>
       <c r="E124" t="n">
-        <v>19.39346694946289</v>
+        <v>-32.2584342956543</v>
       </c>
       <c r="F124" t="n">
-        <v>40.80629730224609</v>
+        <v>10.32553577423096</v>
       </c>
       <c r="G124" t="n">
-        <v>5.051190376281738</v>
+        <v>50.59801864624023</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.3296783268451691</v>
+        <v>-66.5606689453125</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.5081991064548492</v>
+        <v>0.3977332323789597</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.10824937582016</v>
+        <v>1999.711486158906</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.225131750106812</v>
+        <v>39.98714828491211</v>
       </c>
       <c r="D125" t="n">
-        <v>9.85963249206543</v>
+        <v>20.8703498840332</v>
       </c>
       <c r="E125" t="n">
-        <v>19.39346694946289</v>
+        <v>-32.29051208496094</v>
       </c>
       <c r="F125" t="n">
-        <v>41.07358551025391</v>
+        <v>10.34657096862793</v>
       </c>
       <c r="G125" t="n">
-        <v>5.051190376281738</v>
+        <v>50.58671951293945</v>
       </c>
       <c r="H125" t="n">
-        <v>-2.692075729370117</v>
+        <v>-66.59183502197266</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.5187662106752395</v>
+        <v>0.3928775256872177</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.122131993770599</v>
+        <v>998.8964302208715</v>
       </c>
       <c r="C126" t="n">
-        <v>-1.225131750106812</v>
+        <v>39.99957656860352</v>
       </c>
       <c r="D126" t="n">
-        <v>12.22914886474609</v>
+        <v>20.91963386535645</v>
       </c>
       <c r="E126" t="n">
-        <v>19.16489410400391</v>
+        <v>-32.32236480712891</v>
       </c>
       <c r="F126" t="n">
-        <v>41.52571105957031</v>
+        <v>10.36659336090088</v>
       </c>
       <c r="G126" t="n">
-        <v>3.325770139694214</v>
+        <v>50.57565307617188</v>
       </c>
       <c r="H126" t="n">
-        <v>-5.06983470916748</v>
+        <v>-66.62089538574219</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.5247965770959855</v>
+        <v>0.387939841747284</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.143056631088257</v>
+        <v>498.4880776776221</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.879052400588989</v>
+        <v>40.01221466064453</v>
       </c>
       <c r="D127" t="n">
-        <v>15.72107410430908</v>
+        <v>20.96844863891602</v>
       </c>
       <c r="E127" t="n">
-        <v>15.27658271789551</v>
+        <v>-32.35392379760742</v>
       </c>
       <c r="F127" t="n">
-        <v>42.20718002319336</v>
+        <v>10.38562297821045</v>
       </c>
       <c r="G127" t="n">
-        <v>5.695558547973633</v>
+        <v>50.56488037109375</v>
       </c>
       <c r="H127" t="n">
-        <v>-8.688934326171875</v>
+        <v>-66.64792633056641</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.523939938545227</v>
+        <v>0.3829365760087967</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.162040350437164</v>
+        <v>248.2831206161453</v>
       </c>
       <c r="C128" t="n">
-        <v>-2.807820558547974</v>
+        <v>40.02502059936523</v>
       </c>
       <c r="D128" t="n">
-        <v>20.25091934204102</v>
+        <v>21.01674270629883</v>
       </c>
       <c r="E128" t="n">
-        <v>8.177078247070312</v>
+        <v>-32.38515472412109</v>
       </c>
       <c r="F128" t="n">
-        <v>42.82543563842773</v>
+        <v>10.40367889404297</v>
       </c>
       <c r="G128" t="n">
-        <v>8.044767379760742</v>
+        <v>50.55442810058594</v>
       </c>
       <c r="H128" t="n">
-        <v>-12.97893810272217</v>
+        <v>-66.67283630371094</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.5144020831584931</v>
+        <v>0.3778632742166519</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.169928488731384</v>
+        <v>123.1799038794971</v>
       </c>
       <c r="C129" t="n">
-        <v>-2.014722108840942</v>
+        <v>40.03800582885742</v>
       </c>
       <c r="D129" t="n">
-        <v>25.56067276000977</v>
+        <v>21.0644645690918</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.589288711547852</v>
+        <v>-32.41598129272461</v>
       </c>
       <c r="F129" t="n">
-        <v>43.08233261108398</v>
+        <v>10.42077732086182</v>
       </c>
       <c r="G129" t="n">
-        <v>11.35627555847168</v>
+        <v>50.54439926147461</v>
       </c>
       <c r="H129" t="n">
-        <v>-16.77845191955566</v>
+        <v>-66.69573211669922</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4965466487407685</v>
+        <v>0.3727318459749222</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.160778880119324</v>
+        <v>60.6275990046728</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4897029399871826</v>
+        <v>40.05113983154297</v>
       </c>
       <c r="D130" t="n">
-        <v>31.23635673522949</v>
+        <v>21.1115665435791</v>
       </c>
       <c r="E130" t="n">
-        <v>-12.42784214019775</v>
+        <v>-32.44637680053711</v>
       </c>
       <c r="F130" t="n">
-        <v>42.78435134887695</v>
+        <v>10.4369421005249</v>
       </c>
       <c r="G130" t="n">
-        <v>15.12500286102295</v>
+        <v>50.53479766845703</v>
       </c>
       <c r="H130" t="n">
-        <v>-19.3161678314209</v>
+        <v>-66.71659088134766</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4720208567380905</v>
+        <v>0.3675512313842774</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.131555428504944</v>
+        <v>29.35078954883756</v>
       </c>
       <c r="C131" t="n">
-        <v>2.303452014923096</v>
+        <v>40.06439971923828</v>
       </c>
       <c r="D131" t="n">
-        <v>36.94855880737305</v>
+        <v>21.15800666809082</v>
       </c>
       <c r="E131" t="n">
-        <v>-22.69915008544922</v>
+        <v>-32.47627639770508</v>
       </c>
       <c r="F131" t="n">
-        <v>41.83261108398438</v>
+        <v>10.45219612121582</v>
       </c>
       <c r="G131" t="n">
-        <v>18.7146167755127</v>
+        <v>50.52567291259766</v>
       </c>
       <c r="H131" t="n">
-        <v>-20.4851131439209</v>
+        <v>-66.73541259765625</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4406592047214508</v>
+        <v>0.3623318552970887</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.081585762500763</v>
+        <v>13.71176754329772</v>
       </c>
       <c r="C132" t="n">
-        <v>4.892264842987061</v>
+        <v>40.0777587890625</v>
       </c>
       <c r="D132" t="n">
-        <v>42.63478851318359</v>
+        <v>21.20374488830566</v>
       </c>
       <c r="E132" t="n">
-        <v>-31.05585098266602</v>
+        <v>-32.50564575195312</v>
       </c>
       <c r="F132" t="n">
-        <v>39.06452941894531</v>
+        <v>10.46658229827881</v>
       </c>
       <c r="G132" t="n">
-        <v>21.49054336547852</v>
+        <v>50.51707077026367</v>
       </c>
       <c r="H132" t="n">
-        <v>-20.4851131439209</v>
+        <v>-66.75229644775391</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4002050280570984</v>
+        <v>0.3570767188072205</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.01153580904007</v>
+        <v>5.891676413288568</v>
       </c>
       <c r="C133" t="n">
-        <v>8.217076301574707</v>
+        <v>40.09120941162109</v>
       </c>
       <c r="D133" t="n">
-        <v>48.21224975585938</v>
+        <v>21.24874114990234</v>
       </c>
       <c r="E133" t="n">
-        <v>-36.79184722900391</v>
+        <v>-32.53442001342773</v>
       </c>
       <c r="F133" t="n">
-        <v>37.09306335449219</v>
+        <v>10.48009967803955</v>
       </c>
       <c r="G133" t="n">
-        <v>22.99221420288086</v>
+        <v>50.50901031494141</v>
       </c>
       <c r="H133" t="n">
-        <v>-18.26420974731445</v>
+        <v>-66.76718139648438</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3513694912195206</v>
+        <v>0.3517992162704468</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.9254919838905334</v>
+        <v>1.98108711325668</v>
       </c>
       <c r="C134" t="n">
-        <v>12.09594345092773</v>
+        <v>40.10471725463867</v>
       </c>
       <c r="D134" t="n">
-        <v>53.45351028442383</v>
+        <v>21.29296875</v>
       </c>
       <c r="E134" t="n">
-        <v>-38.95602798461914</v>
+        <v>-32.56259155273438</v>
       </c>
       <c r="F134" t="n">
-        <v>34.55349731445312</v>
+        <v>10.4928035736084</v>
       </c>
       <c r="G134" t="n">
-        <v>22.99221420288086</v>
+        <v>50.50154876708984</v>
       </c>
       <c r="H134" t="n">
-        <v>-15.87280559539795</v>
+        <v>-66.78019714355469</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2980589443445206</v>
+        <v>0.3465127736330033</v>
       </c>
       <c r="B135" t="n">
-        <v>1.343088274860538</v>
+        <v>6.825884824912996</v>
       </c>
       <c r="C135" t="n">
-        <v>16.29067230224609</v>
+        <v>40.11824798583984</v>
       </c>
       <c r="D135" t="n">
-        <v>58.04425048828125</v>
+        <v>21.33638954162598</v>
       </c>
       <c r="E135" t="n">
-        <v>-37.12490844726562</v>
+        <v>-32.59009170532227</v>
       </c>
       <c r="F135" t="n">
-        <v>31.63335418701172</v>
+        <v>10.50471019744873</v>
       </c>
       <c r="G135" t="n">
-        <v>22.07170486450195</v>
+        <v>50.49472045898438</v>
       </c>
       <c r="H135" t="n">
-        <v>-13.33185386657715</v>
+        <v>-66.79130554199219</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.2438143149018288</v>
+        <v>0.341223361492157</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.3066393856639212</v>
+        <v>-15.53055634706918</v>
       </c>
       <c r="C136" t="n">
-        <v>20.53459930419922</v>
+        <v>40.13178634643555</v>
       </c>
       <c r="D136" t="n">
-        <v>61.56931304931641</v>
+        <v>21.37898445129395</v>
       </c>
       <c r="E136" t="n">
-        <v>-32.01255798339844</v>
+        <v>-32.61690521240234</v>
       </c>
       <c r="F136" t="n">
-        <v>28.4468994140625</v>
+        <v>10.5158519744873</v>
       </c>
       <c r="G136" t="n">
-        <v>20.10133361816406</v>
+        <v>50.48849868774414</v>
       </c>
       <c r="H136" t="n">
-        <v>-11.1208324432373</v>
+        <v>-66.80057525634766</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7257972079002957</v>
+        <v>0.5824277558107551</v>
       </c>
       <c r="B137" t="n">
-        <v>1.778490185062499</v>
+        <v>63.62486912155361</v>
       </c>
       <c r="C137" t="n">
-        <v>24.61213493347168</v>
+        <v>40.14529418945312</v>
       </c>
       <c r="D137" t="n">
-        <v>63.6536865234375</v>
+        <v>21.42072677612305</v>
       </c>
       <c r="E137" t="n">
-        <v>-25.34358215332031</v>
+        <v>-32.64299392700195</v>
       </c>
       <c r="F137" t="n">
-        <v>25.07335472106934</v>
+        <v>10.5262622833252</v>
       </c>
       <c r="G137" t="n">
-        <v>17.56912803649902</v>
+        <v>50.48294830322266</v>
       </c>
       <c r="H137" t="n">
-        <v>-9.332889556884766</v>
+        <v>-66.80805206298828</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9249050337931219</v>
+        <v>0.7394591559834942</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2970873993117665</v>
+        <v>-226.2602269667984</v>
       </c>
       <c r="C138" t="n">
-        <v>28.32963943481445</v>
+        <v>40.15874862670898</v>
       </c>
       <c r="D138" t="n">
-        <v>63.6536865234375</v>
+        <v>21.46159744262695</v>
       </c>
       <c r="E138" t="n">
-        <v>-18.69998931884766</v>
+        <v>-32.66833877563477</v>
       </c>
       <c r="F138" t="n">
-        <v>21.61003303527832</v>
+        <v>10.53596496582031</v>
       </c>
       <c r="G138" t="n">
-        <v>14.71920204162598</v>
+        <v>50.47806930541992</v>
       </c>
       <c r="H138" t="n">
-        <v>-7.928072452545166</v>
+        <v>-66.81381225585938</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9851549851723843</v>
+        <v>0.8400063376416287</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2970873993117665</v>
+        <v>830.8904607846914</v>
       </c>
       <c r="C139" t="n">
-        <v>31.56873321533203</v>
+        <v>40.17212295532227</v>
       </c>
       <c r="D139" t="n">
-        <v>62.8098030090332</v>
+        <v>21.50157928466797</v>
       </c>
       <c r="E139" t="n">
-        <v>-13.19767189025879</v>
+        <v>-32.69292068481445</v>
       </c>
       <c r="F139" t="n">
-        <v>18.16952514648438</v>
+        <v>10.54499340057373</v>
       </c>
       <c r="G139" t="n">
-        <v>11.83479690551758</v>
+        <v>50.47388458251953</v>
       </c>
       <c r="H139" t="n">
-        <v>-6.624747276306152</v>
+        <v>-66.81785583496094</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9979953083139601</v>
+        <v>0.9033154352628876</v>
       </c>
       <c r="B140" t="n">
-        <v>2.23365564773192</v>
+        <v>-3028.184383450277</v>
       </c>
       <c r="C140" t="n">
-        <v>34.1761360168457</v>
+        <v>40.18539047241211</v>
       </c>
       <c r="D140" t="n">
-        <v>59.56459045410156</v>
+        <v>21.54065895080566</v>
       </c>
       <c r="E140" t="n">
-        <v>-9.185873985290527</v>
+        <v>-32.71670913696289</v>
       </c>
       <c r="F140" t="n">
-        <v>14.86064434051514</v>
+        <v>10.55337905883789</v>
       </c>
       <c r="G140" t="n">
-        <v>9.171525955200195</v>
+        <v>50.47038650512695</v>
       </c>
       <c r="H140" t="n">
-        <v>-5.27931022644043</v>
+        <v>-66.82029724121094</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.999819154426869</v>
+        <v>0.9425093746875605</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5303389692787086</v>
+        <v>11062.76329646071</v>
       </c>
       <c r="C141" t="n">
-        <v>36.06362533569336</v>
+        <v>40.19852447509766</v>
       </c>
       <c r="D141" t="n">
-        <v>54.77028656005859</v>
+        <v>21.57882881164551</v>
       </c>
       <c r="E141" t="n">
-        <v>-6.717022895812988</v>
+        <v>-32.73969268798828</v>
       </c>
       <c r="F141" t="n">
-        <v>11.77072715759277</v>
+        <v>10.56115055084229</v>
       </c>
       <c r="G141" t="n">
-        <v>6.989222049713135</v>
+        <v>50.46759414672852</v>
       </c>
       <c r="H141" t="n">
-        <v>-3.615214824676514</v>
+        <v>-66.82110595703125</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9999884768677375</v>
+        <v>0.9663645649218836</v>
       </c>
       <c r="B142" t="n">
-        <v>1.100685768370111</v>
+        <v>-40405.46496179682</v>
       </c>
       <c r="C142" t="n">
-        <v>37.25424194335938</v>
+        <v>40.21149444580078</v>
       </c>
       <c r="D142" t="n">
-        <v>48.65510559082031</v>
+        <v>21.6160774230957</v>
       </c>
       <c r="E142" t="n">
-        <v>-5.711162090301514</v>
+        <v>-32.76187133789062</v>
       </c>
       <c r="F142" t="n">
-        <v>8.875856399536133</v>
+        <v>10.56833171844482</v>
       </c>
       <c r="G142" t="n">
-        <v>5.432568073272705</v>
+        <v>50.46548461914062</v>
       </c>
       <c r="H142" t="n">
-        <v>-1.429251313209534</v>
+        <v>-66.82041931152344</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999993948672365</v>
+        <v>0.9806382249336054</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9941635569718345</v>
+        <v>147640.1871920285</v>
       </c>
       <c r="C143" t="n">
-        <v>37.25424194335938</v>
+        <v>40.22427749633789</v>
       </c>
       <c r="D143" t="n">
-        <v>41.62137603759766</v>
+        <v>21.65240097045898</v>
       </c>
       <c r="E143" t="n">
-        <v>-5.711162090301514</v>
+        <v>-32.78322601318359</v>
       </c>
       <c r="F143" t="n">
-        <v>6.165461540222168</v>
+        <v>10.57495784759521</v>
       </c>
       <c r="G143" t="n">
-        <v>5.432568073272705</v>
+        <v>50.46408081054688</v>
       </c>
       <c r="H143" t="n">
-        <v>1.196704864501953</v>
+        <v>-66.81822967529297</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999999677258699</v>
+        <v>0.9890341714033711</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9994842291579829</v>
+        <v>-539590.6598882361</v>
       </c>
       <c r="C144" t="n">
-        <v>38.40875244140625</v>
+        <v>40.23685455322266</v>
       </c>
       <c r="D144" t="n">
-        <v>34.13814926147461</v>
+        <v>21.68779373168945</v>
       </c>
       <c r="E144" t="n">
-        <v>-7.612769603729248</v>
+        <v>-32.80375289916992</v>
       </c>
       <c r="F144" t="n">
-        <v>3.622493028640747</v>
+        <v>10.58104610443115</v>
       </c>
       <c r="G144" t="n">
-        <v>3.677345991134644</v>
+        <v>50.46335601806641</v>
       </c>
       <c r="H144" t="n">
-        <v>4.161596298217773</v>
+        <v>-66.81465148925781</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999999981036632</v>
+        <v>0.9938891277321634</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9998834376522442</v>
+        <v>1972569.091286578</v>
       </c>
       <c r="C145" t="n">
-        <v>38.16974639892578</v>
+        <v>40.24919891357422</v>
       </c>
       <c r="D145" t="n">
-        <v>26.8175163269043</v>
+        <v>21.72226142883301</v>
       </c>
       <c r="E145" t="n">
-        <v>-9.359767913818359</v>
+        <v>-32.82345199584961</v>
       </c>
       <c r="F145" t="n">
-        <v>1.314936995506287</v>
+        <v>10.58662033081055</v>
       </c>
       <c r="G145" t="n">
-        <v>4.128397941589355</v>
+        <v>50.46332168579102</v>
       </c>
       <c r="H145" t="n">
-        <v>7.085443019866943</v>
+        <v>-66.8096923828125</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999999998796321</v>
+        <v>0.9966490815999883</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9999596642018922</v>
+        <v>-7212608.641660625</v>
       </c>
       <c r="C146" t="n">
-        <v>37.96187591552734</v>
+        <v>40.26128768920898</v>
       </c>
       <c r="D146" t="n">
-        <v>20.08878135681152</v>
+        <v>21.75580024719238</v>
       </c>
       <c r="E146" t="n">
-        <v>-11.03669357299805</v>
+        <v>-32.84232330322266</v>
       </c>
       <c r="F146" t="n">
-        <v>-0.895142138004303</v>
+        <v>10.59171867370605</v>
       </c>
       <c r="G146" t="n">
-        <v>5.040364265441895</v>
+        <v>50.46395492553711</v>
       </c>
       <c r="H146" t="n">
-        <v>9.976277351379395</v>
+        <v>-66.80344390869141</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999999999933037</v>
+        <v>0.9981917328251628</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9999811052106053</v>
+        <v>26377740.75194727</v>
       </c>
       <c r="C147" t="n">
-        <v>38.3074836730957</v>
+        <v>40.27311706542969</v>
       </c>
       <c r="D147" t="n">
-        <v>14.60262680053711</v>
+        <v>21.78841209411621</v>
       </c>
       <c r="E147" t="n">
-        <v>-12.18504333496094</v>
+        <v>-32.86037445068359</v>
       </c>
       <c r="F147" t="n">
-        <v>-2.907300472259521</v>
+        <v>10.59634780883789</v>
       </c>
       <c r="G147" t="n">
-        <v>6.12781810760498</v>
+        <v>50.46524429321289</v>
       </c>
       <c r="H147" t="n">
-        <v>12.32888507843018</v>
+        <v>-66.79592132568359</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999999999996948</v>
+        <v>0.9990395808487382</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9999891630062139</v>
+        <v>-96484778.7628513</v>
       </c>
       <c r="C148" t="n">
-        <v>38.75089263916016</v>
+        <v>40.2846565246582</v>
       </c>
       <c r="D148" t="n">
-        <v>10.49507522583008</v>
+        <v>21.82010650634766</v>
       </c>
       <c r="E148" t="n">
-        <v>-12.18504333496094</v>
+        <v>-32.87760543823242</v>
       </c>
       <c r="F148" t="n">
-        <v>-4.954015731811523</v>
+        <v>10.60054111480713</v>
       </c>
       <c r="G148" t="n">
-        <v>7.149462699890137</v>
+        <v>50.46715545654297</v>
       </c>
       <c r="H148" t="n">
-        <v>14.33648300170898</v>
+        <v>-66.78721618652344</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999999999999922</v>
+        <v>0.9994978548085356</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9999924778113614</v>
+        <v>352978129.2461021</v>
       </c>
       <c r="C149" t="n">
-        <v>39.6402473449707</v>
+        <v>40.2958984375</v>
       </c>
       <c r="D149" t="n">
-        <v>8.16731071472168</v>
+        <v>21.85088729858398</v>
       </c>
       <c r="E149" t="n">
-        <v>-13.7974796295166</v>
+        <v>-32.89403915405273</v>
       </c>
       <c r="F149" t="n">
-        <v>-6.565451145172119</v>
+        <v>10.60430908203125</v>
       </c>
       <c r="G149" t="n">
-        <v>8.05243968963623</v>
+        <v>50.46970367431641</v>
       </c>
       <c r="H149" t="n">
-        <v>15.54701328277588</v>
+        <v>-66.77742004394531</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9997415055794419</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9999942661274088</v>
+        <v>-1291507349.874122</v>
       </c>
       <c r="C150" t="n">
-        <v>40.03525161743164</v>
+        <v>40.30683135986328</v>
       </c>
       <c r="D150" t="n">
-        <v>8.16731071472168</v>
+        <v>21.88076210021973</v>
       </c>
       <c r="E150" t="n">
-        <v>-13.76321983337402</v>
+        <v>-32.90966796875</v>
       </c>
       <c r="F150" t="n">
-        <v>-8.053292274475098</v>
+        <v>10.60767078399658</v>
       </c>
       <c r="G150" t="n">
-        <v>9.369643211364746</v>
+        <v>50.47284317016602</v>
       </c>
       <c r="H150" t="n">
-        <v>15.54701328277588</v>
+        <v>-66.76651000976562</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>0.9998689529747964</v>
       </c>
       <c r="B151" t="n">
-        <v>0.999995176104257</v>
+        <v>4726050164.404884</v>
       </c>
       <c r="C151" t="n">
-        <v>40.55836486816406</v>
+        <v>40.31743621826172</v>
       </c>
       <c r="D151" t="n">
-        <v>6.267378807067871</v>
+        <v>21.90974044799805</v>
       </c>
       <c r="E151" t="n">
-        <v>-14.24797058105469</v>
+        <v>-32.92452239990234</v>
       </c>
       <c r="F151" t="n">
-        <v>-9.35692024230957</v>
+        <v>10.6106538772583</v>
       </c>
       <c r="G151" t="n">
-        <v>10.79412651062012</v>
+        <v>50.4765510559082</v>
       </c>
       <c r="H151" t="n">
-        <v>15.21871566772461</v>
+        <v>-66.75462341308594</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>0.9999345564547908</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9999956288234247</v>
+        <v>-17295977502.48244</v>
       </c>
       <c r="C152" t="n">
-        <v>41.10195922851562</v>
+        <v>40.32770919799805</v>
       </c>
       <c r="D152" t="n">
-        <v>7.61611270904541</v>
+        <v>21.93782997131348</v>
       </c>
       <c r="E152" t="n">
-        <v>-14.03157329559326</v>
+        <v>-32.93861389160156</v>
       </c>
       <c r="F152" t="n">
-        <v>-9.35692024230957</v>
+        <v>10.61325836181641</v>
       </c>
       <c r="G152" t="n">
-        <v>13.95736885070801</v>
+        <v>50.4808235168457</v>
       </c>
       <c r="H152" t="n">
-        <v>12.40596580505371</v>
+        <v>-66.74176025390625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1</v>
+        <v>0.9999677977491415</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9999959078650539</v>
+        <v>63303862689.00774</v>
       </c>
       <c r="C153" t="n">
-        <v>42.11603164672852</v>
+        <v>40.33765029907227</v>
       </c>
       <c r="D153" t="n">
-        <v>8.705014228820801</v>
+        <v>21.96504783630371</v>
       </c>
       <c r="E153" t="n">
-        <v>-14.15037059783936</v>
+        <v>-32.95194244384766</v>
       </c>
       <c r="F153" t="n">
-        <v>-11.17859172821045</v>
+        <v>10.61551761627197</v>
       </c>
       <c r="G153" t="n">
-        <v>16.58837127685547</v>
+        <v>50.48562622070312</v>
       </c>
       <c r="H153" t="n">
-        <v>6.756947994232178</v>
+        <v>-66.72798919677734</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>0.9999843822569702</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9999962940595886</v>
+        <v>31651931343.5339</v>
       </c>
       <c r="C154" t="n">
-        <v>41.32633972167969</v>
+        <v>40.34724426269531</v>
       </c>
       <c r="D154" t="n">
-        <v>11.74838733673096</v>
+        <v>21.99140167236328</v>
       </c>
       <c r="E154" t="n">
-        <v>-15.88839912414551</v>
+        <v>-32.96454620361328</v>
       </c>
       <c r="F154" t="n">
-        <v>-3.248678922653198</v>
+        <v>10.617431640625</v>
       </c>
       <c r="G154" t="n">
-        <v>21.55385971069336</v>
+        <v>50.49093246459961</v>
       </c>
       <c r="H154" t="n">
-        <v>6.756947994232178</v>
+        <v>-66.71336364746094</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.01062193933874369</v>
+        <v>0.2534300565719604</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02537190895527601</v>
+        <v>15825965670.79692</v>
       </c>
       <c r="C155" t="n">
-        <v>41.32633972167969</v>
+        <v>40.35649490356445</v>
       </c>
       <c r="D155" t="n">
-        <v>11.74838733673096</v>
+        <v>22.01690483093262</v>
       </c>
       <c r="E155" t="n">
-        <v>-17.74030685424805</v>
+        <v>-32.9764404296875</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.02640879154205322</v>
+        <v>10.6190185546875</v>
       </c>
       <c r="G155" t="n">
-        <v>27.42409324645996</v>
+        <v>50.4967155456543</v>
       </c>
       <c r="H155" t="n">
-        <v>3.776833534240723</v>
+        <v>-66.69796752929688</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.02378709446638823</v>
+        <v>0.2499544423818588</v>
       </c>
       <c r="B156" t="n">
-        <v>0.05479544468224049</v>
+        <v>7912982834.428388</v>
       </c>
       <c r="C156" t="n">
-        <v>40.86326599121094</v>
+        <v>40.36539077758789</v>
       </c>
       <c r="D156" t="n">
-        <v>14.52279186248779</v>
+        <v>22.04157447814941</v>
       </c>
       <c r="E156" t="n">
-        <v>-17.74030685424805</v>
+        <v>-32.98762893676758</v>
       </c>
       <c r="F156" t="n">
-        <v>4.402693271636963</v>
+        <v>10.62028121948242</v>
       </c>
       <c r="G156" t="n">
-        <v>33.94277572631836</v>
+        <v>50.50295639038086</v>
       </c>
       <c r="H156" t="n">
-        <v>-1.499111175537109</v>
+        <v>-66.68181610107422</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.02128480017185211</v>
+        <v>0.2466114923357964</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.1182572981715202</v>
+        <v>3956491416.244091</v>
       </c>
       <c r="C157" t="n">
-        <v>40.86326599121094</v>
+        <v>40.37394714355469</v>
       </c>
       <c r="D157" t="n">
-        <v>16.43986701965332</v>
+        <v>22.0654182434082</v>
       </c>
       <c r="E157" t="n">
-        <v>-17.69735908508301</v>
+        <v>-32.99814987182617</v>
       </c>
       <c r="F157" t="n">
-        <v>7.794527053833008</v>
+        <v>10.62124347686768</v>
       </c>
       <c r="G157" t="n">
-        <v>40.7566032409668</v>
+        <v>50.50962448120117</v>
       </c>
       <c r="H157" t="n">
-        <v>-7.346327304840088</v>
+        <v>-66.66497802734375</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.02216240491718054</v>
+        <v>0.2434071296453476</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.190554818212986</v>
+        <v>1978245707.151925</v>
       </c>
       <c r="C158" t="n">
-        <v>38.91636657714844</v>
+        <v>40.38214874267578</v>
       </c>
       <c r="D158" t="n">
-        <v>19.09810256958008</v>
+        <v>22.08845520019531</v>
       </c>
       <c r="E158" t="n">
-        <v>-15.45874214172363</v>
+        <v>-33.00802230834961</v>
       </c>
       <c r="F158" t="n">
-        <v>11.23552703857422</v>
+        <v>10.62191295623779</v>
       </c>
       <c r="G158" t="n">
-        <v>47.04486465454102</v>
+        <v>50.51669311523438</v>
       </c>
       <c r="H158" t="n">
-        <v>-12.64334774017334</v>
+        <v>-66.64749145507812</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.02584278848022223</v>
+        <v>0.240335431098938</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.2977211791276932</v>
+        <v>989122852.605837</v>
       </c>
       <c r="C159" t="n">
-        <v>38.61033248901367</v>
+        <v>40.39001083374023</v>
       </c>
       <c r="D159" t="n">
-        <v>21.86861228942871</v>
+        <v>22.11069869995117</v>
       </c>
       <c r="E159" t="n">
-        <v>-12.93055152893066</v>
+        <v>-33.01725769042969</v>
       </c>
       <c r="F159" t="n">
-        <v>14.56395053863525</v>
+        <v>10.62229442596436</v>
       </c>
       <c r="G159" t="n">
-        <v>52.04322052001953</v>
+        <v>50.52414703369141</v>
       </c>
       <c r="H159" t="n">
-        <v>-15.71759414672852</v>
+        <v>-66.62941741943359</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.02891417112201452</v>
+        <v>0.2373948645591736</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.3964645594358445</v>
+        <v>494561425.3328005</v>
       </c>
       <c r="C160" t="n">
-        <v>38.35493850708008</v>
+        <v>40.39753723144531</v>
       </c>
       <c r="D160" t="n">
-        <v>23.8993091583252</v>
+        <v>22.13216781616211</v>
       </c>
       <c r="E160" t="n">
-        <v>-9.622947692871094</v>
+        <v>-33.02589416503906</v>
       </c>
       <c r="F160" t="n">
-        <v>17.83767890930176</v>
+        <v>10.62239551544189</v>
       </c>
       <c r="G160" t="n">
-        <v>55.46446990966797</v>
+        <v>50.53194046020508</v>
       </c>
       <c r="H160" t="n">
-        <v>-15.71759414672852</v>
+        <v>-66.61080932617188</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.04081815406680107</v>
+        <v>0.2345869621634483</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.4953057438135147</v>
+        <v>247280711.6963014</v>
       </c>
       <c r="C161" t="n">
-        <v>36.33725738525391</v>
+        <v>40.40472412109375</v>
       </c>
       <c r="D161" t="n">
-        <v>23.8993091583252</v>
+        <v>22.15287208557129</v>
       </c>
       <c r="E161" t="n">
-        <v>-6.071100234985352</v>
+        <v>-33.03393173217773</v>
       </c>
       <c r="F161" t="n">
-        <v>21.1699047088623</v>
+        <v>10.62223434448242</v>
       </c>
       <c r="G161" t="n">
-        <v>57.40666961669922</v>
+        <v>50.54007339477539</v>
       </c>
       <c r="H161" t="n">
-        <v>-14.68527889251709</v>
+        <v>-66.59168243408203</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.06553964897990228</v>
+        <v>0.2319072222709656</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5994187760353089</v>
+        <v>123640354.8780829</v>
       </c>
       <c r="C162" t="n">
-        <v>34.39244842529297</v>
+        <v>40.41158294677734</v>
       </c>
       <c r="D162" t="n">
-        <v>23.9328498840332</v>
+        <v>22.17283248901367</v>
       </c>
       <c r="E162" t="n">
-        <v>-2.835930585861206</v>
+        <v>-33.04141235351562</v>
       </c>
       <c r="F162" t="n">
-        <v>24.49544906616211</v>
+        <v>10.62181663513184</v>
       </c>
       <c r="G162" t="n">
-        <v>57.40666961669922</v>
+        <v>50.54850387573242</v>
       </c>
       <c r="H162" t="n">
-        <v>-11.2864351272583</v>
+        <v>-66.57209777832031</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.09995574325323105</v>
+        <v>0.2293526911735535</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.7013251829147339</v>
+        <v>61820176.46901575</v>
       </c>
       <c r="C163" t="n">
-        <v>31.7170295715332</v>
+        <v>40.41812133789062</v>
       </c>
       <c r="D163" t="n">
-        <v>21.40469741821289</v>
+        <v>22.19206047058105</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.2935701608657837</v>
+        <v>-33.04834747314453</v>
       </c>
       <c r="F163" t="n">
-        <v>27.66060638427734</v>
+        <v>10.62113666534424</v>
       </c>
       <c r="G163" t="n">
-        <v>57.44387054443359</v>
+        <v>50.55721282958984</v>
       </c>
       <c r="H163" t="n">
-        <v>-7.01264476776123</v>
+        <v>-66.55210113525391</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.1409168362617493</v>
+        <v>0.2269188672304153</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.793587464094162</v>
+        <v>30910087.264535</v>
       </c>
       <c r="C164" t="n">
-        <v>28.54440689086914</v>
+        <v>40.42435073852539</v>
       </c>
       <c r="D164" t="n">
-        <v>18.12257194519043</v>
+        <v>22.21057510375977</v>
       </c>
       <c r="E164" t="n">
-        <v>1.389397144317627</v>
+        <v>-33.05475234985352</v>
       </c>
       <c r="F164" t="n">
-        <v>30.48321723937988</v>
+        <v>10.62021446228027</v>
       </c>
       <c r="G164" t="n">
-        <v>54.85176849365234</v>
+        <v>50.56616592407227</v>
       </c>
       <c r="H164" t="n">
-        <v>-2.628078460693359</v>
+        <v>-66.53174591064453</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.1850503382086754</v>
+        <v>0.2246072667837143</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.8697384202480316</v>
+        <v>15455042.66235769</v>
       </c>
       <c r="C165" t="n">
-        <v>25.11282348632812</v>
+        <v>40.43026733398438</v>
       </c>
       <c r="D165" t="n">
-        <v>14.79214000701904</v>
+        <v>22.22839546203613</v>
       </c>
       <c r="E165" t="n">
-        <v>1.389397144317627</v>
+        <v>-33.06067657470703</v>
       </c>
       <c r="F165" t="n">
-        <v>32.88865280151367</v>
+        <v>10.61905860900879</v>
       </c>
       <c r="G165" t="n">
-        <v>50.81826019287109</v>
+        <v>50.57536315917969</v>
       </c>
       <c r="H165" t="n">
-        <v>1.081351518630981</v>
+        <v>-66.51104736328125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2294330888986588</v>
+        <v>0.2224089339375496</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9307883775234223</v>
+        <v>7727520.36134276</v>
       </c>
       <c r="C166" t="n">
-        <v>21.72623062133789</v>
+        <v>40.43589401245117</v>
       </c>
       <c r="D166" t="n">
-        <v>11.98507881164551</v>
+        <v>22.24553489685059</v>
       </c>
       <c r="E166" t="n">
-        <v>3.31425142288208</v>
+        <v>-33.06611251831055</v>
       </c>
       <c r="F166" t="n">
-        <v>34.88135147094727</v>
+        <v>10.61767578125</v>
       </c>
       <c r="G166" t="n">
-        <v>45.76033782958984</v>
+        <v>50.58476638793945</v>
       </c>
       <c r="H166" t="n">
-        <v>3.768902778625488</v>
+        <v>-66.49004364013672</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2696193784475326</v>
+        <v>0.2203238686919212</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.9793015968799591</v>
+        <v>3863759.210918695</v>
       </c>
       <c r="C167" t="n">
-        <v>18.57240867614746</v>
+        <v>40.44123077392578</v>
       </c>
       <c r="D167" t="n">
-        <v>9.896020889282227</v>
+        <v>22.26200866699219</v>
       </c>
       <c r="E167" t="n">
-        <v>3.477535724639893</v>
+        <v>-33.07109832763672</v>
       </c>
       <c r="F167" t="n">
-        <v>36.51102447509766</v>
+        <v>10.61606121063232</v>
       </c>
       <c r="G167" t="n">
-        <v>40.22025680541992</v>
+        <v>50.5943717956543</v>
       </c>
       <c r="H167" t="n">
-        <v>5.442802429199219</v>
+        <v>-66.46879577636719</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.3047480982542038</v>
+        <v>0.2183461162447929</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.01819425702095</v>
+        <v>1931878.635799665</v>
       </c>
       <c r="C168" t="n">
-        <v>15.62867546081543</v>
+        <v>40.44629287719727</v>
       </c>
       <c r="D168" t="n">
-        <v>8.388391494750977</v>
+        <v>22.27783584594727</v>
       </c>
       <c r="E168" t="n">
-        <v>3.932555675506592</v>
+        <v>-33.07563400268555</v>
       </c>
       <c r="F168" t="n">
-        <v>37.84692764282227</v>
+        <v>10.61423587799072</v>
       </c>
       <c r="G168" t="n">
-        <v>34.58021545410156</v>
+        <v>50.6041259765625</v>
       </c>
       <c r="H168" t="n">
-        <v>5.442802429199219</v>
+        <v>-66.44730377197266</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.3376230597496033</v>
+        <v>0.2164711907505989</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.050193309783936</v>
+        <v>965938.3483418713</v>
       </c>
       <c r="C169" t="n">
-        <v>12.80062294006348</v>
+        <v>40.45109176635742</v>
       </c>
       <c r="D169" t="n">
-        <v>7.22165060043335</v>
+        <v>22.29303359985352</v>
       </c>
       <c r="E169" t="n">
-        <v>6.210949897766113</v>
+        <v>-33.07976531982422</v>
       </c>
       <c r="F169" t="n">
-        <v>38.92069625854492</v>
+        <v>10.6121997833252</v>
       </c>
       <c r="G169" t="n">
-        <v>29.04778671264648</v>
+        <v>50.61403656005859</v>
       </c>
       <c r="H169" t="n">
-        <v>6.950260639190674</v>
+        <v>-66.42562866210938</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3702422016859055</v>
+        <v>0.2146961227059364</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.075114772319794</v>
+        <v>482968.2047239833</v>
       </c>
       <c r="C170" t="n">
-        <v>10.06416797637939</v>
+        <v>40.45563507080078</v>
       </c>
       <c r="D170" t="n">
-        <v>7.22165060043335</v>
+        <v>22.3076171875</v>
       </c>
       <c r="E170" t="n">
-        <v>8.030811309814453</v>
+        <v>-33.0835075378418</v>
       </c>
       <c r="F170" t="n">
-        <v>38.92069625854492</v>
+        <v>10.60997200012207</v>
       </c>
       <c r="G170" t="n">
-        <v>23.73719215393066</v>
+        <v>50.62408828735352</v>
       </c>
       <c r="H170" t="n">
-        <v>6.107911586761475</v>
+        <v>-66.40378570556641</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.4020494371652603</v>
+        <v>0.2130194273591042</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.089915409088135</v>
+        <v>241483.1330343249</v>
       </c>
       <c r="C171" t="n">
-        <v>7.460137367248535</v>
+        <v>40.45992660522461</v>
       </c>
       <c r="D171" t="n">
-        <v>5.267819404602051</v>
+        <v>22.32160377502441</v>
       </c>
       <c r="E171" t="n">
-        <v>10.34867763519287</v>
+        <v>-33.08685302734375</v>
       </c>
       <c r="F171" t="n">
-        <v>40.47649002075195</v>
+        <v>10.60754203796387</v>
       </c>
       <c r="G171" t="n">
-        <v>18.78235244750977</v>
+        <v>50.63423538208008</v>
       </c>
       <c r="H171" t="n">
-        <v>4.76980447769165</v>
+        <v>-66.38184356689453</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4317731237411499</v>
+        <v>0.2114306640625</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.096006429195404</v>
+        <v>120740.5973173739</v>
       </c>
       <c r="C172" t="n">
-        <v>5.097126960754395</v>
+        <v>40.46399307250977</v>
       </c>
       <c r="D172" t="n">
-        <v>4.766144752502441</v>
+        <v>22.33501052856445</v>
       </c>
       <c r="E172" t="n">
-        <v>12.80396842956543</v>
+        <v>-33.0898551940918</v>
       </c>
       <c r="F172" t="n">
-        <v>40.67486190795898</v>
+        <v>10.6049280166626</v>
       </c>
       <c r="G172" t="n">
-        <v>14.38970756530762</v>
+        <v>50.64447402954102</v>
       </c>
       <c r="H172" t="n">
-        <v>3.075513601303101</v>
+        <v>-66.35977172851562</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.4572923094034195</v>
+        <v>0.2099313333630562</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.0956471824646</v>
+        <v>60369.32959442145</v>
       </c>
       <c r="C173" t="n">
-        <v>3.054777145385742</v>
+        <v>40.46783065795898</v>
       </c>
       <c r="D173" t="n">
-        <v>4.769314765930176</v>
+        <v>22.34785079956055</v>
       </c>
       <c r="E173" t="n">
-        <v>15.15071678161621</v>
+        <v>-33.09251022338867</v>
       </c>
       <c r="F173" t="n">
-        <v>40.66316223144531</v>
+        <v>10.60212898254395</v>
       </c>
       <c r="G173" t="n">
-        <v>10.77559471130371</v>
+        <v>50.65480804443359</v>
       </c>
       <c r="H173" t="n">
-        <v>1.438500642776489</v>
+        <v>-66.337646484375</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.4779974246025085</v>
+        <v>0.2085169494152069</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.094432466030121</v>
+        <v>30183.69587617639</v>
       </c>
       <c r="C174" t="n">
-        <v>1.355610251426697</v>
+        <v>40.47145080566406</v>
       </c>
       <c r="D174" t="n">
-        <v>5.38872241973877</v>
+        <v>22.36014747619629</v>
       </c>
       <c r="E174" t="n">
-        <v>17.29225540161133</v>
+        <v>-33.09485244750977</v>
       </c>
       <c r="F174" t="n">
-        <v>40.62360000610352</v>
+        <v>10.59916114807129</v>
       </c>
       <c r="G174" t="n">
-        <v>8.08680534362793</v>
+        <v>50.66521072387695</v>
       </c>
       <c r="H174" t="n">
-        <v>0.05632564052939415</v>
+        <v>-66.31548309326172</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.4943045473098755</v>
+        <v>0.2071785721182823</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.096848883628845</v>
+        <v>15090.8791672981</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.01962131261825562</v>
+        <v>40.47487640380859</v>
       </c>
       <c r="D175" t="n">
-        <v>6.612374305725098</v>
+        <v>22.37191009521484</v>
       </c>
       <c r="E175" t="n">
-        <v>18.97343826293945</v>
+        <v>-33.09687805175781</v>
       </c>
       <c r="F175" t="n">
-        <v>40.70229721069336</v>
+        <v>10.59602451324463</v>
       </c>
       <c r="G175" t="n">
-        <v>6.327829837799072</v>
+        <v>50.6756477355957</v>
       </c>
       <c r="H175" t="n">
-        <v>-1.105786561965942</v>
+        <v>-66.29331207275391</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.5069475239515305</v>
+        <v>0.2059206715226173</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.103366754055023</v>
+        <v>7544.47097043217</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.099782824516296</v>
+        <v>40.47809600830078</v>
       </c>
       <c r="D176" t="n">
-        <v>9.566473960876465</v>
+        <v>22.38315773010254</v>
       </c>
       <c r="E176" t="n">
-        <v>18.97343826293945</v>
+        <v>-33.09861755371094</v>
       </c>
       <c r="F176" t="n">
-        <v>40.91456985473633</v>
+        <v>10.59273433685303</v>
       </c>
       <c r="G176" t="n">
-        <v>6.327829837799072</v>
+        <v>50.68613052368164</v>
       </c>
       <c r="H176" t="n">
-        <v>-2.311277627944946</v>
+        <v>-66.27110290527344</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.5163890600204468</v>
+        <v>0.2047283527255059</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.115753121376038</v>
+        <v>3771.267035890524</v>
       </c>
       <c r="C177" t="n">
-        <v>-1.099782824516296</v>
+        <v>40.48114776611328</v>
       </c>
       <c r="D177" t="n">
-        <v>11.80291175842285</v>
+        <v>22.3939037322998</v>
       </c>
       <c r="E177" t="n">
-        <v>18.72934722900391</v>
+        <v>-33.10007476806641</v>
       </c>
       <c r="F177" t="n">
-        <v>41.31796646118164</v>
+        <v>10.58928394317627</v>
       </c>
       <c r="G177" t="n">
-        <v>4.550959587097168</v>
+        <v>50.69662857055664</v>
       </c>
       <c r="H177" t="n">
-        <v>-5.76359748840332</v>
+        <v>-66.24893951416016</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.5218660879135132</v>
+        <v>0.2036075705289841</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.137020578384399</v>
+        <v>1884.665238639565</v>
       </c>
       <c r="C178" t="n">
-        <v>-2.63537335395813</v>
+        <v>40.48401641845703</v>
       </c>
       <c r="D178" t="n">
-        <v>15.1461181640625</v>
+        <v>22.40416717529297</v>
       </c>
       <c r="E178" t="n">
-        <v>14.94567394256592</v>
+        <v>-33.10127639770508</v>
       </c>
       <c r="F178" t="n">
-        <v>42.01059722900391</v>
+        <v>10.58569431304932</v>
       </c>
       <c r="G178" t="n">
-        <v>5.453221321105957</v>
+        <v>50.7071418762207</v>
       </c>
       <c r="H178" t="n">
-        <v>-8.813434600830078</v>
+        <v>-66.22682189941406</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.5211319255828858</v>
+        <v>0.2025508853793144</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.161095290184021</v>
+        <v>941.3645162256818</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.574326753616333</v>
+        <v>40.48672103881836</v>
       </c>
       <c r="D179" t="n">
-        <v>19.63813591003418</v>
+        <v>22.41396331787109</v>
       </c>
       <c r="E179" t="n">
-        <v>8.016596794128418</v>
+        <v>-33.10223770141602</v>
       </c>
       <c r="F179" t="n">
-        <v>42.79465484619141</v>
+        <v>10.58197116851807</v>
       </c>
       <c r="G179" t="n">
-        <v>8.946845054626465</v>
+        <v>50.7176513671875</v>
       </c>
       <c r="H179" t="n">
-        <v>-12.86477661132812</v>
+        <v>-66.20478057861328</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.5117261183261872</v>
+        <v>0.2015567967295647</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.177143244743347</v>
+        <v>469.7143367902567</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.792207002639771</v>
+        <v>40.48926544189453</v>
       </c>
       <c r="D180" t="n">
-        <v>25.11570739746094</v>
+        <v>22.42330551147461</v>
       </c>
       <c r="E180" t="n">
-        <v>-1.504065036773682</v>
+        <v>-33.10296630859375</v>
       </c>
       <c r="F180" t="n">
-        <v>43.31730270385742</v>
+        <v>10.57811260223389</v>
       </c>
       <c r="G180" t="n">
-        <v>11.73749732971191</v>
+        <v>50.72815322875977</v>
       </c>
       <c r="H180" t="n">
-        <v>-16.71700096130371</v>
+        <v>-66.18284606933594</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.4934934306144715</v>
+        <v>0.2006148639321327</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.175139651298523</v>
+        <v>233.8894343408013</v>
       </c>
       <c r="C181" t="n">
-        <v>0.756488561630249</v>
+        <v>40.49167633056641</v>
       </c>
       <c r="D181" t="n">
-        <v>31.11462783813477</v>
+        <v>22.43221092224121</v>
       </c>
       <c r="E181" t="n">
-        <v>-12.04835987091064</v>
+        <v>-33.10347747802734</v>
       </c>
       <c r="F181" t="n">
-        <v>43.25204849243164</v>
+        <v>10.57413101196289</v>
       </c>
       <c r="G181" t="n">
-        <v>15.27399063110352</v>
+        <v>50.73862838745117</v>
       </c>
       <c r="H181" t="n">
-        <v>-19.29720497131348</v>
+        <v>-66.16098022460938</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.4686572939157486</v>
+        <v>0.1997295570373535</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.149154601097107</v>
+        <v>115.9771751229001</v>
       </c>
       <c r="C182" t="n">
-        <v>2.533597946166992</v>
+        <v>40.49394226074219</v>
       </c>
       <c r="D182" t="n">
-        <v>37.08763122558594</v>
+        <v>22.4406909942627</v>
       </c>
       <c r="E182" t="n">
-        <v>-22.04978179931641</v>
+        <v>-33.10377883911133</v>
       </c>
       <c r="F182" t="n">
-        <v>42.4057731628418</v>
+        <v>10.57003116607666</v>
       </c>
       <c r="G182" t="n">
-        <v>18.87249374389648</v>
+        <v>50.74906158447266</v>
       </c>
       <c r="H182" t="n">
-        <v>-20.37177658081055</v>
+        <v>-66.13925933837891</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.4383321249485016</v>
+        <v>0.1988949370384216</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.097884292602539</v>
+        <v>57.021242322526</v>
       </c>
       <c r="C183" t="n">
-        <v>5.002817153930664</v>
+        <v>40.49607849121094</v>
       </c>
       <c r="D183" t="n">
-        <v>42.78805541992188</v>
+        <v>22.44876289367676</v>
       </c>
       <c r="E183" t="n">
-        <v>-30.21229934692383</v>
+        <v>-33.10389709472656</v>
       </c>
       <c r="F183" t="n">
-        <v>39.51852416992188</v>
+        <v>10.56582641601562</v>
       </c>
       <c r="G183" t="n">
-        <v>21.82384872436523</v>
+        <v>50.75947189331055</v>
       </c>
       <c r="H183" t="n">
-        <v>-20.37177658081055</v>
+        <v>-66.11766815185547</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.4003137624263763</v>
+        <v>0.1981065180897713</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.023117377758026</v>
+        <v>27.54347658495189</v>
       </c>
       <c r="C184" t="n">
-        <v>8.196654319763184</v>
+        <v>40.49809646606445</v>
       </c>
       <c r="D184" t="n">
-        <v>48.17835998535156</v>
+        <v>22.45643615722656</v>
       </c>
       <c r="E184" t="n">
-        <v>-35.789794921875</v>
+        <v>-33.10383224487305</v>
       </c>
       <c r="F184" t="n">
-        <v>37.37663269042969</v>
+        <v>10.56151676177979</v>
       </c>
       <c r="G184" t="n">
-        <v>23.54602432250977</v>
+        <v>50.76983261108398</v>
       </c>
       <c r="H184" t="n">
-        <v>-18.09674644470215</v>
+        <v>-66.09622955322266</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.3531902074813843</v>
+        <v>0.1973643001914024</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.9289663028717041</v>
+        <v>12.80479823281408</v>
       </c>
       <c r="C185" t="n">
-        <v>12.00614356994629</v>
+        <v>40.49999618530273</v>
       </c>
       <c r="D185" t="n">
-        <v>53.15060424804688</v>
+        <v>22.46373176574707</v>
       </c>
       <c r="E185" t="n">
-        <v>-37.86919403076172</v>
+        <v>-33.10359573364258</v>
       </c>
       <c r="F185" t="n">
-        <v>34.5906982421875</v>
+        <v>10.5571231842041</v>
       </c>
       <c r="G185" t="n">
-        <v>23.54602432250977</v>
+        <v>50.78012466430664</v>
       </c>
       <c r="H185" t="n">
-        <v>-15.79598045349121</v>
+        <v>-66.07494354248047</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.2999731999635696</v>
+        <v>0.1966623285412789</v>
       </c>
       <c r="B186" t="n">
-        <v>1.317812486712104</v>
+        <v>12.80479823281408</v>
       </c>
       <c r="C186" t="n">
-        <v>16.20342254638672</v>
+        <v>40.50179290771484</v>
       </c>
       <c r="D186" t="n">
-        <v>57.46643447875977</v>
+        <v>22.47065925598145</v>
       </c>
       <c r="E186" t="n">
-        <v>-36.02654266357422</v>
+        <v>-33.10320663452148</v>
       </c>
       <c r="F186" t="n">
-        <v>31.42411613464355</v>
+        <v>10.55264377593994</v>
       </c>
       <c r="G186" t="n">
-        <v>22.79249572753906</v>
+        <v>50.79037094116211</v>
       </c>
       <c r="H186" t="n">
-        <v>-13.35619354248047</v>
+        <v>-66.05384826660156</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.2448329177498818</v>
+        <v>0.1959991025924683</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.2475764212481435</v>
+        <v>-13.16662030057065</v>
       </c>
       <c r="C187" t="n">
-        <v>20.49770355224609</v>
+        <v>40.50349044799805</v>
       </c>
       <c r="D187" t="n">
-        <v>60.74168395996094</v>
+        <v>22.47723007202148</v>
       </c>
       <c r="E187" t="n">
-        <v>-31.00458526611328</v>
+        <v>-33.10266876220703</v>
       </c>
       <c r="F187" t="n">
-        <v>28.07394790649414</v>
+        <v>10.54807662963867</v>
       </c>
       <c r="G187" t="n">
-        <v>20.6828441619873</v>
+        <v>50.800537109375</v>
       </c>
       <c r="H187" t="n">
-        <v>-11.21933364868164</v>
+        <v>-66.03293609619141</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7263972098181208</v>
+        <v>0.7036223119727834</v>
       </c>
       <c r="B188" t="n">
-        <v>1.69931536882409</v>
+        <v>65.08807710833584</v>
       </c>
       <c r="C188" t="n">
-        <v>24.64158248901367</v>
+        <v>40.50509262084961</v>
       </c>
       <c r="D188" t="n">
-        <v>62.60817337036133</v>
+        <v>22.48346710205078</v>
       </c>
       <c r="E188" t="n">
-        <v>-24.50861358642578</v>
+        <v>-33.10198974609375</v>
       </c>
       <c r="F188" t="n">
-        <v>24.64600372314453</v>
+        <v>10.54343509674072</v>
       </c>
       <c r="G188" t="n">
-        <v>18.01671981811523</v>
+        <v>50.81062698364258</v>
       </c>
       <c r="H188" t="n">
-        <v>-9.47244930267334</v>
+        <v>-66.01222229003906</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.9256640580632756</v>
+        <v>0.8910759281759764</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3702749427326717</v>
+        <v>-226.4194493090563</v>
       </c>
       <c r="C189" t="n">
-        <v>28.42946624755859</v>
+        <v>40.50659942626953</v>
       </c>
       <c r="D189" t="n">
-        <v>62.60817337036133</v>
+        <v>22.48936653137207</v>
       </c>
       <c r="E189" t="n">
-        <v>-18.09492492675781</v>
+        <v>-33.10117721557617</v>
       </c>
       <c r="F189" t="n">
-        <v>21.20161056518555</v>
+        <v>10.53873538970947</v>
       </c>
       <c r="G189" t="n">
-        <v>15.06460285186768</v>
+        <v>50.82063674926758</v>
       </c>
       <c r="H189" t="n">
-        <v>-8.071974754333496</v>
+        <v>-65.99172210693359</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9855921269383996</v>
+        <v>0.9600839421168711</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3702749427326717</v>
+        <v>832.9797311107274</v>
       </c>
       <c r="C190" t="n">
-        <v>31.72879600524902</v>
+        <v>40.50803756713867</v>
       </c>
       <c r="D190" t="n">
-        <v>61.37805557250977</v>
+        <v>22.49494552612305</v>
       </c>
       <c r="E190" t="n">
-        <v>-12.81297302246094</v>
+        <v>-33.10023498535156</v>
       </c>
       <c r="F190" t="n">
-        <v>17.80964279174805</v>
+        <v>10.53398609161377</v>
       </c>
       <c r="G190" t="n">
-        <v>12.10900115966797</v>
+        <v>50.83056640625</v>
       </c>
       <c r="H190" t="n">
-        <v>-6.766095161437988</v>
+        <v>-65.97146606445312</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.998126361598156</v>
+        <v>0.9854124156168516</v>
       </c>
       <c r="B191" t="n">
-        <v>2.070938677708526</v>
+        <v>-3029.063974972724</v>
       </c>
       <c r="C191" t="n">
-        <v>34.38668823242188</v>
+        <v>40.50939559936523</v>
       </c>
       <c r="D191" t="n">
-        <v>58.1411247253418</v>
+        <v>22.50022125244141</v>
       </c>
       <c r="E191" t="n">
-        <v>-9.00039005279541</v>
+        <v>-33.09916687011719</v>
       </c>
       <c r="F191" t="n">
-        <v>14.56209564208984</v>
+        <v>10.52918815612793</v>
       </c>
       <c r="G191" t="n">
-        <v>9.412059783935547</v>
+        <v>50.84038925170898</v>
       </c>
       <c r="H191" t="n">
-        <v>-5.407145023345947</v>
+        <v>-65.95145416259766</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9998420747725715</v>
+        <v>0.9946827370914415</v>
       </c>
       <c r="B192" t="n">
-        <v>0.6070042982999441</v>
+        <v>11040.38329144927</v>
       </c>
       <c r="C192" t="n">
-        <v>36.31600189208984</v>
+        <v>40.51068496704102</v>
       </c>
       <c r="D192" t="n">
-        <v>53.45111846923828</v>
+        <v>22.50520133972168</v>
       </c>
       <c r="E192" t="n">
-        <v>-6.659551620483398</v>
+        <v>-33.09797668457031</v>
       </c>
       <c r="F192" t="n">
-        <v>11.52842140197754</v>
+        <v>10.52437591552734</v>
       </c>
       <c r="G192" t="n">
-        <v>7.223679065704346</v>
+        <v>50.85013961791992</v>
       </c>
       <c r="H192" t="n">
-        <v>-3.730623722076416</v>
+        <v>-65.93172454833984</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9999909915429129</v>
+        <v>0.9980666401561357</v>
       </c>
       <c r="B193" t="n">
-        <v>1.080014007463287</v>
+        <v>-40206.21462870533</v>
       </c>
       <c r="C193" t="n">
-        <v>37.52426910400391</v>
+        <v>40.51191329956055</v>
       </c>
       <c r="D193" t="n">
-        <v>47.53909301757812</v>
+        <v>22.50990676879883</v>
       </c>
       <c r="E193" t="n">
-        <v>-6.659551620483398</v>
+        <v>-33.09666061401367</v>
       </c>
       <c r="F193" t="n">
-        <v>8.679242134094238</v>
+        <v>10.51955318450928</v>
       </c>
       <c r="G193" t="n">
-        <v>5.68426513671875</v>
+        <v>50.85977172851562</v>
       </c>
       <c r="H193" t="n">
-        <v>-1.51513683795929</v>
+        <v>-65.91227722167969</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999995857264931</v>
+        <v>0.9992987037682299</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9960614475103475</v>
+        <v>146410.4211110277</v>
       </c>
       <c r="C194" t="n">
-        <v>37.52426910400391</v>
+        <v>40.51308822631836</v>
       </c>
       <c r="D194" t="n">
-        <v>40.79380798339844</v>
+        <v>22.51434516906738</v>
       </c>
       <c r="E194" t="n">
-        <v>-4.664694786071777</v>
+        <v>-33.09524154663086</v>
       </c>
       <c r="F194" t="n">
-        <v>6.009224891662598</v>
+        <v>10.51473045349121</v>
       </c>
       <c r="G194" t="n">
-        <v>5.68426513671875</v>
+        <v>50.86931991577148</v>
       </c>
       <c r="H194" t="n">
-        <v>1.154993295669556</v>
+        <v>-65.89313507080078</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999999797210004</v>
+        <v>0.9997461875998389</v>
       </c>
       <c r="B195" t="n">
-        <v>0.999625510928478</v>
+        <v>-533008.3169524864</v>
       </c>
       <c r="C195" t="n">
-        <v>38.60192489624023</v>
+        <v>40.51419448852539</v>
       </c>
       <c r="D195" t="n">
-        <v>33.66058349609375</v>
+        <v>22.51853370666504</v>
       </c>
       <c r="E195" t="n">
-        <v>-7.274026870727539</v>
+        <v>-33.09371566772461</v>
       </c>
       <c r="F195" t="n">
-        <v>3.505424737930298</v>
+        <v>10.50991439819336</v>
       </c>
       <c r="G195" t="n">
-        <v>4.008206367492676</v>
+        <v>50.87877655029297</v>
       </c>
       <c r="H195" t="n">
-        <v>4.135644912719727</v>
+        <v>-65.87428283691406</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999999988227919</v>
+        <v>0.9999083389002608</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9999136767201392</v>
+        <v>1940004.980201424</v>
       </c>
       <c r="C196" t="n">
-        <v>38.20088577270508</v>
+        <v>40.51525497436523</v>
       </c>
       <c r="D196" t="n">
-        <v>26.66242599487305</v>
+        <v>22.52248382568359</v>
       </c>
       <c r="E196" t="n">
-        <v>-8.986955642700195</v>
+        <v>-33.09209060668945</v>
       </c>
       <c r="F196" t="n">
-        <v>1.252389788627625</v>
+        <v>10.50511741638184</v>
       </c>
       <c r="G196" t="n">
-        <v>4.522097587585449</v>
+        <v>50.88811874389648</v>
       </c>
       <c r="H196" t="n">
-        <v>7.036741733551025</v>
+        <v>-65.855712890625</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.999999999921119</v>
+        <v>0.9999669655572012</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9999700881357177</v>
+        <v>-7059487.943426467</v>
       </c>
       <c r="C197" t="n">
-        <v>37.80617523193359</v>
+        <v>40.51625823974609</v>
       </c>
       <c r="D197" t="n">
-        <v>20.10975646972656</v>
+        <v>22.52620887756348</v>
       </c>
       <c r="E197" t="n">
-        <v>-10.69517421722412</v>
+        <v>-33.09036636352539</v>
       </c>
       <c r="F197" t="n">
-        <v>-0.9318726658821106</v>
+        <v>10.50034427642822</v>
       </c>
       <c r="G197" t="n">
-        <v>5.524884223937988</v>
+        <v>50.89735412597656</v>
       </c>
       <c r="H197" t="n">
-        <v>9.949789047241211</v>
+        <v>-65.83750152587891</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999999953981</v>
+        <v>0.9999881179676907</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9999859692563565</v>
+        <v>25683095.62505405</v>
       </c>
       <c r="C198" t="n">
-        <v>38.18814468383789</v>
+        <v>40.5172233581543</v>
       </c>
       <c r="D198" t="n">
-        <v>14.69572448730469</v>
+        <v>22.52972793579102</v>
       </c>
       <c r="E198" t="n">
-        <v>-11.84123992919922</v>
+        <v>-33.08855819702148</v>
       </c>
       <c r="F198" t="n">
-        <v>-2.834789276123047</v>
+        <v>10.49561309814453</v>
       </c>
       <c r="G198" t="n">
-        <v>6.735316276550293</v>
+        <v>50.9065055847168</v>
       </c>
       <c r="H198" t="n">
-        <v>12.25902938842773</v>
+        <v>-65.81956481933594</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9999999999997883</v>
+        <v>0.9999957341830014</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9999921004910773</v>
+        <v>-93417003.98790757</v>
       </c>
       <c r="C199" t="n">
-        <v>38.73157501220703</v>
+        <v>40.51813507080078</v>
       </c>
       <c r="D199" t="n">
-        <v>10.48634338378906</v>
+        <v>22.53304290771484</v>
       </c>
       <c r="E199" t="n">
-        <v>-11.84123992919922</v>
+        <v>-33.08667373657227</v>
       </c>
       <c r="F199" t="n">
-        <v>-4.810068130493164</v>
+        <v>10.49091625213623</v>
       </c>
       <c r="G199" t="n">
-        <v>7.95708179473877</v>
+        <v>50.91554641723633</v>
       </c>
       <c r="H199" t="n">
-        <v>14.28523921966553</v>
+        <v>-65.80197906494141</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9999999999999959</v>
+        <v>0.9999984712586308</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9999946153533148</v>
+        <v>339711285.1305735</v>
       </c>
       <c r="C200" t="n">
-        <v>39.90944671630859</v>
+        <v>40.51900863647461</v>
       </c>
       <c r="D200" t="n">
-        <v>8.111103057861328</v>
+        <v>22.53616523742676</v>
       </c>
       <c r="E200" t="n">
-        <v>-13.50664615631104</v>
+        <v>-33.08470153808594</v>
       </c>
       <c r="F200" t="n">
-        <v>-6.199097633361816</v>
+        <v>10.48626708984375</v>
       </c>
       <c r="G200" t="n">
-        <v>8.919474601745605</v>
+        <v>50.92445755004883</v>
       </c>
       <c r="H200" t="n">
-        <v>15.31526756286621</v>
+        <v>-65.78468322753906</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
+        <v>0.9999994530862301</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9999960791596938</v>
+        <v>-1235096035.339015</v>
       </c>
       <c r="C201" t="n">
-        <v>40.20692825317383</v>
+        <v>40.51984405517578</v>
       </c>
       <c r="D201" t="n">
-        <v>6.981578350067139</v>
+        <v>22.53911209106445</v>
       </c>
       <c r="E201" t="n">
-        <v>-13.399338722229</v>
+        <v>-33.08268356323242</v>
       </c>
       <c r="F201" t="n">
-        <v>-7.605894088745117</v>
+        <v>10.48166656494141</v>
       </c>
       <c r="G201" t="n">
-        <v>10.25931167602539</v>
+        <v>50.93327331542969</v>
       </c>
       <c r="H201" t="n">
-        <v>15.31526756286621</v>
+        <v>-65.76773071289062</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1</v>
+        <v>0.9999998046576148</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9999968214413016</v>
+        <v>4489510473.233782</v>
       </c>
       <c r="C202" t="n">
-        <v>40.87424850463867</v>
+        <v>40.52063369750977</v>
       </c>
       <c r="D202" t="n">
-        <v>6.981578350067139</v>
+        <v>22.5418872833252</v>
       </c>
       <c r="E202" t="n">
-        <v>-13.98257160186768</v>
+        <v>-33.08058929443359</v>
       </c>
       <c r="F202" t="n">
-        <v>-8.756778717041016</v>
+        <v>10.47712707519531</v>
       </c>
       <c r="G202" t="n">
-        <v>11.56073951721191</v>
+        <v>50.94197082519531</v>
       </c>
       <c r="H202" t="n">
-        <v>14.92935562133789</v>
+        <v>-65.75108337402344</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>0.9999999303378985</v>
       </c>
       <c r="B203" t="n">
-        <v>0.999997258388806</v>
+        <v>-16315729710.01997</v>
       </c>
       <c r="C203" t="n">
-        <v>41.09865570068359</v>
+        <v>40.52138900756836</v>
       </c>
       <c r="D203" t="n">
-        <v>7.378348350524902</v>
+        <v>22.54449653625488</v>
       </c>
       <c r="E203" t="n">
-        <v>-13.80324840545654</v>
+        <v>-33.07844543457031</v>
       </c>
       <c r="F203" t="n">
-        <v>-8.756778717041016</v>
+        <v>10.47263145446777</v>
       </c>
       <c r="G203" t="n">
-        <v>14.51625442504883</v>
+        <v>50.95055770874023</v>
       </c>
       <c r="H203" t="n">
-        <v>12.26332473754883</v>
+        <v>-65.73476409912109</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1</v>
+        <v>0.9999999751942504</v>
       </c>
       <c r="B204" t="n">
-        <v>0.999997515321698</v>
+        <v>25562157707.03063</v>
       </c>
       <c r="C204" t="n">
-        <v>42.1367073059082</v>
+        <v>40.5221061706543</v>
       </c>
       <c r="D204" t="n">
-        <v>9.852453231811523</v>
+        <v>19.71640396118164</v>
       </c>
       <c r="E204" t="n">
-        <v>-14.0001745223999</v>
+        <v>-28.78960037231445</v>
       </c>
       <c r="F204" t="n">
-        <v>-6.590250015258789</v>
+        <v>5.194677352905273</v>
       </c>
       <c r="G204" t="n">
-        <v>19.29608154296875</v>
+        <v>42.74325561523438</v>
       </c>
       <c r="H204" t="n">
-        <v>8.57069206237793</v>
+        <v>-48.97634124755859</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1</v>
+        <v>0.9999999911794881</v>
       </c>
       <c r="B205" t="n">
-        <v>0.9999978413279604</v>
+        <v>25562157707.03063</v>
       </c>
       <c r="C205" t="n">
-        <v>42.64085006713867</v>
+        <v>40.52278900146484</v>
       </c>
       <c r="D205" t="n">
-        <v>9.852453231811523</v>
+        <v>19.71640396118164</v>
       </c>
       <c r="E205" t="n">
-        <v>-15.96817970275879</v>
+        <v>-28.78960037231445</v>
       </c>
       <c r="F205" t="n">
-        <v>-6.590250015258789</v>
+        <v>5.194677352905273</v>
       </c>
       <c r="G205" t="n">
-        <v>19.29608154296875</v>
+        <v>42.74325561523438</v>
       </c>
       <c r="H205" t="n">
-        <v>8.57069206237793</v>
+        <v>-48.97634124755859</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_typical_lstm.xlsx
+++ b/Predictions/PV_typical_lstm.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,5303 +480,5303 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33720022562.06591</v>
+        <v>3.167438787037795e+29</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00515365600586</v>
+        <v>41.68306732177734</v>
       </c>
       <c r="D2" t="n">
-        <v>14.89558982849121</v>
+        <v>15.32068824768066</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.23999404907227</v>
+        <v>-15.33073043823242</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.627250671386719</v>
+        <v>0.4475893974304199</v>
       </c>
       <c r="G2" t="n">
-        <v>27.48018455505371</v>
+        <v>32.00029373168945</v>
       </c>
       <c r="H2" t="n">
-        <v>-18.03631401062012</v>
+        <v>-16.70611190795898</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1206103610992432</v>
+        <v>-0.00370774238370359</v>
       </c>
       <c r="B3" t="n">
-        <v>16860011281.08651</v>
+        <v>1.583719393518898e+29</v>
       </c>
       <c r="C3" t="n">
-        <v>40.69644927978516</v>
+        <v>41.68306732177734</v>
       </c>
       <c r="D3" t="n">
-        <v>14.89558982849121</v>
+        <v>15.32068824768066</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.21515274047852</v>
+        <v>-15.6551570892334</v>
       </c>
       <c r="F3" t="n">
-        <v>-8.710721969604492</v>
+        <v>-6.653972625732422</v>
       </c>
       <c r="G3" t="n">
-        <v>24.89443206787109</v>
+        <v>26.41426277160645</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.91875076293945</v>
+        <v>-12.19651031494141</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2396230188012123</v>
+        <v>-0.0109714157320559</v>
       </c>
       <c r="B4" t="n">
-        <v>8430005640.627057</v>
+        <v>7.918596967594488e+28</v>
       </c>
       <c r="C4" t="n">
-        <v>40.3918342590332</v>
+        <v>43.15377426147461</v>
       </c>
       <c r="D4" t="n">
-        <v>14.23484420776367</v>
+        <v>13.85268497467041</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.21515274047852</v>
+        <v>-16.14649963378906</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.58371925354004</v>
+        <v>-10.40121078491211</v>
       </c>
       <c r="G4" t="n">
-        <v>24.89443206787109</v>
+        <v>24.2559700012207</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.91875076293945</v>
+        <v>-12.19651031494141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2953340458869934</v>
+        <v>-0.02301888551563025</v>
       </c>
       <c r="B5" t="n">
-        <v>4215002820.428366</v>
+        <v>3.959298483797244e+28</v>
       </c>
       <c r="C5" t="n">
-        <v>40.24924087524414</v>
+        <v>43.63147735595703</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3409366607666</v>
+        <v>15.32387828826904</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.52813529968262</v>
+        <v>-16.75951194763184</v>
       </c>
       <c r="F5" t="n">
-        <v>-11.86000061035156</v>
+        <v>-12.42529487609863</v>
       </c>
       <c r="G5" t="n">
-        <v>23.90071868896484</v>
+        <v>24.2559700012207</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.82324409484863</v>
+        <v>-13.90026473999023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2868343162536621</v>
+        <v>-0.03894870951771736</v>
       </c>
       <c r="B6" t="n">
-        <v>2107501410.359419</v>
+        <v>1.979649241898622e+28</v>
       </c>
       <c r="C6" t="n">
-        <v>40.27099609375</v>
+        <v>44.26312255859375</v>
       </c>
       <c r="D6" t="n">
-        <v>16.27765464782715</v>
+        <v>16.59289360046387</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.96491050720215</v>
+        <v>-17.47017288208008</v>
       </c>
       <c r="F6" t="n">
-        <v>-11.86000061035156</v>
+        <v>-13.49843597412109</v>
       </c>
       <c r="G6" t="n">
-        <v>25.30037498474121</v>
+        <v>23.27930641174316</v>
       </c>
       <c r="H6" t="n">
-        <v>-15.02207946777344</v>
+        <v>-17.07223320007324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2243196198344231</v>
+        <v>-0.05691711932420731</v>
       </c>
       <c r="B7" t="n">
-        <v>1053750705.353402</v>
+        <v>9.898246209493111e+27</v>
       </c>
       <c r="C7" t="n">
-        <v>40.43100357055664</v>
+        <v>44.97560119628906</v>
       </c>
       <c r="D7" t="n">
-        <v>17.06915473937988</v>
+        <v>17.69934844970703</v>
       </c>
       <c r="E7" t="n">
-        <v>-17.48136711120605</v>
+        <v>-18.26653671264648</v>
       </c>
       <c r="F7" t="n">
-        <v>-13.80197048187256</v>
+        <v>-13.49843597412109</v>
       </c>
       <c r="G7" t="n">
-        <v>26.56240272521973</v>
+        <v>24.44832420349121</v>
       </c>
       <c r="H7" t="n">
-        <v>-17.4106502532959</v>
+        <v>-20.90551376342773</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1190841943025589</v>
+        <v>-0.07568229585886002</v>
       </c>
       <c r="B8" t="n">
-        <v>526875352.8758553</v>
+        <v>4.949123104746555e+27</v>
       </c>
       <c r="C8" t="n">
-        <v>40.70035552978516</v>
+        <v>45.71967315673828</v>
       </c>
       <c r="D8" t="n">
-        <v>17.73327445983887</v>
+        <v>18.67382621765137</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.05971145629883</v>
+        <v>-19.13469505310059</v>
       </c>
       <c r="F8" t="n">
-        <v>-14.42509746551514</v>
+        <v>-14.434645652771</v>
       </c>
       <c r="G8" t="n">
-        <v>27.72360420227051</v>
+        <v>25.66646385192871</v>
       </c>
       <c r="H8" t="n">
-        <v>-19.77556610107422</v>
+        <v>-25.18171310424805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.01832591906189919</v>
+        <v>-0.09347522854804993</v>
       </c>
       <c r="B9" t="n">
-        <v>263437676.6588129</v>
+        <v>2.474561552373278e+27</v>
       </c>
       <c r="C9" t="n">
-        <v>41.05205917358398</v>
+        <v>46.42519378662109</v>
       </c>
       <c r="D9" t="n">
-        <v>18.2861442565918</v>
+        <v>19.5178394317627</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.68314552307129</v>
+        <v>-19.99841117858887</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.98268032073975</v>
+        <v>-13.97224712371826</v>
       </c>
       <c r="G9" t="n">
-        <v>28.80981254577637</v>
+        <v>26.98190879821777</v>
       </c>
       <c r="H9" t="n">
-        <v>-22.02013397216797</v>
+        <v>-29.76885223388672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.178175448179245</v>
+        <v>-0.1091156661510468</v>
       </c>
       <c r="B10" t="n">
-        <v>131718838.5678454</v>
+        <v>1.237280776186639e+27</v>
       </c>
       <c r="C10" t="n">
-        <v>41.46119689941406</v>
+        <v>47.04536437988281</v>
       </c>
       <c r="D10" t="n">
-        <v>18.74114799499512</v>
+        <v>20.25519561767578</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.33608436584473</v>
+        <v>-20.79495048522949</v>
       </c>
       <c r="F10" t="n">
-        <v>-15.45854091644287</v>
+        <v>-13.13473415374756</v>
       </c>
       <c r="G10" t="n">
-        <v>29.83911895751953</v>
+        <v>28.42964744567871</v>
       </c>
       <c r="H10" t="n">
-        <v>-24.10627365112305</v>
+        <v>-34.55589294433594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3517396050691605</v>
+        <v>-0.1216383937001228</v>
       </c>
       <c r="B11" t="n">
-        <v>65859419.53552815</v>
+        <v>6.186403880933194e+26</v>
       </c>
       <c r="C11" t="n">
-        <v>41.90543746948242</v>
+        <v>47.54191207885742</v>
       </c>
       <c r="D11" t="n">
-        <v>19.1090202331543</v>
+        <v>20.92342758178711</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.00450134277344</v>
+        <v>-21.47598457336426</v>
       </c>
       <c r="F11" t="n">
-        <v>-15.84293651580811</v>
+        <v>-11.89374828338623</v>
       </c>
       <c r="G11" t="n">
-        <v>30.82417869567871</v>
+        <v>30.02584648132324</v>
       </c>
       <c r="H11" t="n">
-        <v>-26.02579498291016</v>
+        <v>-39.42322540283203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.5314426732063293</v>
+        <v>-0.1301388736069203</v>
       </c>
       <c r="B12" t="n">
-        <v>32929710.02811898</v>
+        <v>3.093201940466597e+26</v>
       </c>
       <c r="C12" t="n">
-        <v>42.36539077758789</v>
+        <v>47.87897109985352</v>
       </c>
       <c r="D12" t="n">
-        <v>19.39839172363281</v>
+        <v>21.55879402160645</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.67604827880859</v>
+        <v>-21.99421882629395</v>
       </c>
       <c r="F12" t="n">
-        <v>-16.13125801086426</v>
+        <v>-9.231568336486816</v>
       </c>
       <c r="G12" t="n">
-        <v>31.77383041381836</v>
+        <v>31.76572608947754</v>
       </c>
       <c r="H12" t="n">
-        <v>-27.78601455688477</v>
+        <v>-44.23960113525391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7108805394172669</v>
+        <v>-0.1339665871858597</v>
       </c>
       <c r="B13" t="n">
-        <v>16464855.27882902</v>
+        <v>1.546600970233299e+26</v>
       </c>
       <c r="C13" t="n">
-        <v>42.82466506958008</v>
+        <v>48.03074645996094</v>
       </c>
       <c r="D13" t="n">
-        <v>19.61653518676758</v>
+        <v>22.19157218933105</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.34006881713867</v>
+        <v>-22.31992530822754</v>
       </c>
       <c r="F13" t="n">
-        <v>-16.32285499572754</v>
+        <v>-7.546187400817871</v>
       </c>
       <c r="G13" t="n">
-        <v>32.69437789916992</v>
+        <v>33.62635040283203</v>
       </c>
       <c r="H13" t="n">
-        <v>-29.40234756469727</v>
+        <v>-48.87459564208984</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.8848232448101044</v>
+        <v>-0.1328158730268479</v>
       </c>
       <c r="B14" t="n">
-        <v>8232427.904414511</v>
+        <v>7.733004851166493e+25</v>
       </c>
       <c r="C14" t="n">
-        <v>43.26987457275391</v>
+        <v>47.9851188659668</v>
       </c>
       <c r="D14" t="n">
-        <v>19.7699031829834</v>
+        <v>22.84103584289551</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.98750305175781</v>
+        <v>-22.44829940795898</v>
       </c>
       <c r="F14" t="n">
-        <v>-16.41952705383301</v>
+        <v>-5.396092414855957</v>
       </c>
       <c r="G14" t="n">
-        <v>33.59050750732422</v>
+        <v>35.57328414916992</v>
       </c>
       <c r="H14" t="n">
-        <v>-30.89420127868652</v>
+        <v>-53.21538543701172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.049133512973786</v>
+        <v>-0.1267463976144791</v>
       </c>
       <c r="B15" t="n">
-        <v>4116214.213434565</v>
+        <v>3.866502425583246e+25</v>
       </c>
       <c r="C15" t="n">
-        <v>43.6904296875</v>
+        <v>47.74445343017578</v>
       </c>
       <c r="D15" t="n">
-        <v>19.86462020874023</v>
+        <v>23.51314926147461</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.61082458496094</v>
+        <v>-22.39774322509766</v>
       </c>
       <c r="F15" t="n">
-        <v>-16.42457389831543</v>
+        <v>-2.92234992980957</v>
       </c>
       <c r="G15" t="n">
-        <v>34.46599960327148</v>
+        <v>38.57139587402344</v>
       </c>
       <c r="H15" t="n">
-        <v>-32.2824592590332</v>
+        <v>-57.17924118041992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.200668156147003</v>
+        <v>-0.1161250683665276</v>
       </c>
       <c r="B16" t="n">
-        <v>2058107.360355315</v>
+        <v>1.933251212791623e+25</v>
       </c>
       <c r="C16" t="n">
-        <v>44.07828521728516</v>
+        <v>47.32329940795898</v>
       </c>
       <c r="D16" t="n">
-        <v>19.90678787231445</v>
+        <v>24.20249366760254</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.20398330688477</v>
+        <v>-22.20111465454102</v>
       </c>
       <c r="F16" t="n">
-        <v>-16.34195899963379</v>
+        <v>-0.2316347360610962</v>
       </c>
       <c r="G16" t="n">
-        <v>35.32418441772461</v>
+        <v>40.06619262695312</v>
       </c>
       <c r="H16" t="n">
-        <v>-33.58781433105469</v>
+        <v>-60.71811676025391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.337164602279663</v>
+        <v>-0.1015280716121197</v>
       </c>
       <c r="B17" t="n">
-        <v>1029053.922590698</v>
+        <v>9.666256063958116e+24</v>
       </c>
       <c r="C17" t="n">
-        <v>44.42765045166016</v>
+        <v>46.74450302124023</v>
       </c>
       <c r="D17" t="n">
-        <v>19.90263557434082</v>
+        <v>24.89730644226074</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.7623291015625</v>
+        <v>-21.89551544189453</v>
       </c>
       <c r="F17" t="n">
-        <v>-16.17576789855957</v>
+        <v>2.591189622879028</v>
       </c>
       <c r="G17" t="n">
-        <v>36.16812896728516</v>
+        <v>41.78386306762695</v>
       </c>
       <c r="H17" t="n">
-        <v>-34.82961273193359</v>
+        <v>-63.81637573242188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.457110300064087</v>
+        <v>-0.08363806933164597</v>
       </c>
       <c r="B18" t="n">
-        <v>514527.189017783</v>
+        <v>4.833128031979058e+24</v>
       </c>
       <c r="C18" t="n">
-        <v>44.73465347290039</v>
+        <v>46.03513336181641</v>
       </c>
       <c r="D18" t="n">
-        <v>19.85859107971191</v>
+        <v>25.58486175537109</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.28254508972168</v>
+        <v>-21.51503562927246</v>
       </c>
       <c r="F18" t="n">
-        <v>-15.92996120452881</v>
+        <v>5.477777004241943</v>
       </c>
       <c r="G18" t="n">
-        <v>37.00072479248047</v>
+        <v>43.57984924316406</v>
       </c>
       <c r="H18" t="n">
-        <v>-36.02497100830078</v>
+        <v>-66.48431396484375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.559600372314453</v>
+        <v>-0.06316756069660187</v>
       </c>
       <c r="B19" t="n">
-        <v>257263.8042388988</v>
+        <v>2.416564015989529e+24</v>
       </c>
       <c r="C19" t="n">
-        <v>44.99697875976562</v>
+        <v>45.22344207763672</v>
       </c>
       <c r="D19" t="n">
-        <v>19.78125190734863</v>
+        <v>26.25505638122559</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.7625904083252</v>
+        <v>-21.08761405944824</v>
       </c>
       <c r="F19" t="n">
-        <v>-15.60826396942139</v>
+        <v>8.375689506530762</v>
       </c>
       <c r="G19" t="n">
-        <v>37.82456207275391</v>
+        <v>45.37593078613281</v>
       </c>
       <c r="H19" t="n">
-        <v>-37.18825531005859</v>
+        <v>-68.751953125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.644208726882935</v>
+        <v>-0.04078410744667053</v>
       </c>
       <c r="B20" t="n">
-        <v>128632.0907147903</v>
+        <v>1.208282007994764e+24</v>
       </c>
       <c r="C20" t="n">
-        <v>45.21353530883789</v>
+        <v>44.33589935302734</v>
       </c>
       <c r="D20" t="n">
-        <v>19.67732238769531</v>
+        <v>26.90309715270996</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.2015552520752</v>
+        <v>-20.63067817687988</v>
       </c>
       <c r="F20" t="n">
-        <v>-15.21426296234131</v>
+        <v>11.24472522735596</v>
       </c>
       <c r="G20" t="n">
-        <v>38.64180755615234</v>
+        <v>47.12894439697266</v>
       </c>
       <c r="H20" t="n">
-        <v>-38.33076858520508</v>
+        <v>-70.66033935546875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.710872688293457</v>
+        <v>-0.01707273926585913</v>
       </c>
       <c r="B21" t="n">
-        <v>64316.20984182151</v>
+        <v>6.041410039973822e+23</v>
       </c>
       <c r="C21" t="n">
-        <v>45.38416290283203</v>
+        <v>43.39570236206055</v>
       </c>
       <c r="D21" t="n">
-        <v>19.55352210998535</v>
+        <v>27.52688789367676</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.59955787658691</v>
+        <v>-20.15678977966309</v>
       </c>
       <c r="F21" t="n">
-        <v>-14.75145244598389</v>
+        <v>14.05418395996094</v>
       </c>
       <c r="G21" t="n">
-        <v>39.45397186279297</v>
+        <v>48.81462478637695</v>
       </c>
       <c r="H21" t="n">
-        <v>-39.46061706542969</v>
+        <v>-72.25408935546875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.75979190826416</v>
+        <v>0.007427991628646851</v>
       </c>
       <c r="B22" t="n">
-        <v>32158.24249882475</v>
+        <v>3.020705019986911e+23</v>
       </c>
       <c r="C22" t="n">
-        <v>45.50937271118164</v>
+        <v>42.4242057800293</v>
       </c>
       <c r="D22" t="n">
-        <v>19.41645812988281</v>
+        <v>28.12726593017578</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.9576416015625</v>
+        <v>-19.67564582824707</v>
       </c>
       <c r="F22" t="n">
-        <v>-14.22346782684326</v>
+        <v>16.78075790405273</v>
       </c>
       <c r="G22" t="n">
-        <v>40.26175308227539</v>
+        <v>50.41983413696289</v>
       </c>
       <c r="H22" t="n">
-        <v>-40.58280944824219</v>
+        <v>-73.5770263671875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-1.791363036632538</v>
+        <v>0.03222253356128931</v>
       </c>
       <c r="B23" t="n">
-        <v>16079.2293285244</v>
+        <v>1.510352509993456e+23</v>
       </c>
       <c r="C23" t="n">
-        <v>45.59017944335938</v>
+        <v>41.44105911254883</v>
       </c>
       <c r="D23" t="n">
-        <v>19.27249336242676</v>
+        <v>28.70280456542969</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.27756881713867</v>
+        <v>-19.19329261779785</v>
       </c>
       <c r="F23" t="n">
-        <v>-13.63426494598389</v>
+        <v>19.40749359130859</v>
       </c>
       <c r="G23" t="n">
-        <v>41.06491088867188</v>
+        <v>51.93769836425781</v>
       </c>
       <c r="H23" t="n">
-        <v>-41.69944000244141</v>
+        <v>-74.67088317871094</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-1.806141812801361</v>
+        <v>0.05683505520224572</v>
       </c>
       <c r="B24" t="n">
-        <v>8039.690883619602</v>
+        <v>7.551762549967278e+22</v>
       </c>
       <c r="C24" t="n">
-        <v>45.62800598144531</v>
+        <v>40.46512985229492</v>
       </c>
       <c r="D24" t="n">
-        <v>19.12758827209473</v>
+        <v>29.25558853149414</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.5617504119873</v>
+        <v>-18.71478271484375</v>
       </c>
       <c r="F24" t="n">
-        <v>-12.98829555511475</v>
+        <v>21.92216491699219</v>
       </c>
       <c r="G24" t="n">
-        <v>41.86214065551758</v>
+        <v>53.36470794677734</v>
       </c>
       <c r="H24" t="n">
-        <v>-42.81004333496094</v>
+        <v>-74.67088317871094</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1.80480642080307</v>
+        <v>0.08100522547960282</v>
       </c>
       <c r="B25" t="n">
-        <v>4019.887704895792</v>
+        <v>3.775881274983639e+22</v>
       </c>
       <c r="C25" t="n">
-        <v>45.62458801269531</v>
+        <v>39.50674057006836</v>
       </c>
       <c r="D25" t="n">
-        <v>18.98713684082031</v>
+        <v>29.78476333618164</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.81309509277344</v>
+        <v>-18.23810577392578</v>
       </c>
       <c r="F25" t="n">
-        <v>-12.29062557220459</v>
+        <v>24.31828689575195</v>
       </c>
       <c r="G25" t="n">
-        <v>42.65110778808594</v>
+        <v>54.70024108886719</v>
       </c>
       <c r="H25" t="n">
-        <v>-43.91200256347656</v>
+        <v>-76.47920989990234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1.78816014289856</v>
+        <v>0.1044805082678795</v>
       </c>
       <c r="B26" t="n">
-        <v>2009.950360624986</v>
+        <v>1.887940637491819e+22</v>
       </c>
       <c r="C26" t="n">
-        <v>45.58198165893555</v>
+        <v>38.57590484619141</v>
       </c>
       <c r="D26" t="n">
-        <v>18.85581398010254</v>
+        <v>30.29507827758789</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.03487777709961</v>
+        <v>-17.76442909240723</v>
       </c>
       <c r="F26" t="n">
-        <v>-11.54704570770264</v>
+        <v>26.59378051757812</v>
       </c>
       <c r="G26" t="n">
-        <v>43.42852020263672</v>
+        <v>55.945556640625</v>
       </c>
       <c r="H26" t="n">
-        <v>-45.00106048583984</v>
+        <v>-77.07353973388672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.757134644985199</v>
+        <v>0.1271031250059605</v>
       </c>
       <c r="B27" t="n">
-        <v>1004.944462274672</v>
+        <v>9.439703187459097e+21</v>
       </c>
       <c r="C27" t="n">
-        <v>45.50257110595703</v>
+        <v>37.67887878417969</v>
       </c>
       <c r="D27" t="n">
-        <v>18.73745727539062</v>
+        <v>30.7900276184082</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.23065567016602</v>
+        <v>-17.29383277893066</v>
       </c>
       <c r="F27" t="n">
-        <v>-10.76407909393311</v>
+        <v>28.74972724914551</v>
       </c>
       <c r="G27" t="n">
-        <v>44.19025802612305</v>
+        <v>57.10316467285156</v>
       </c>
       <c r="H27" t="n">
-        <v>-46.07179260253906</v>
+        <v>-77.57254791259766</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1.712784795761108</v>
+        <v>0.1487833192944527</v>
       </c>
       <c r="B28" t="n">
-        <v>502.4031693809039</v>
+        <v>4.719851593729549e+21</v>
       </c>
       <c r="C28" t="n">
-        <v>45.38905715942383</v>
+        <v>36.81922149658203</v>
       </c>
       <c r="D28" t="n">
-        <v>18.63494110107422</v>
+        <v>31.27197647094727</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.4041690826416</v>
+        <v>-16.82580375671387</v>
       </c>
       <c r="F28" t="n">
-        <v>-9.948893547058105</v>
+        <v>30.78865432739258</v>
       </c>
       <c r="G28" t="n">
-        <v>44.93161773681641</v>
+        <v>58.17678070068359</v>
       </c>
       <c r="H28" t="n">
-        <v>-47.11820220947266</v>
+        <v>-77.99561309814453</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.656301808357239</v>
+        <v>0.1695525473356247</v>
       </c>
       <c r="B29" t="n">
-        <v>251.0934317120317</v>
+        <v>2.359925796864774e+21</v>
       </c>
       <c r="C29" t="n">
-        <v>45.24448776245117</v>
+        <v>35.99568557739258</v>
       </c>
       <c r="D29" t="n">
-        <v>18.55013656616211</v>
+        <v>31.7445011138916</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.55918502807617</v>
+        <v>-16.36088562011719</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.109236717224121</v>
+        <v>32.71408081054688</v>
       </c>
       <c r="G29" t="n">
-        <v>45.64752960205078</v>
+        <v>58.17678070068359</v>
       </c>
       <c r="H29" t="n">
-        <v>-48.13410949707031</v>
+        <v>-78.35881805419922</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.588996939659119</v>
+        <v>0.1894155240058899</v>
       </c>
       <c r="B30" t="n">
-        <v>125.3991020630004</v>
+        <v>1.179962898432387e+21</v>
       </c>
       <c r="C30" t="n">
-        <v>45.07221984863281</v>
+        <v>35.20808410644531</v>
       </c>
       <c r="D30" t="n">
-        <v>18.48392868041992</v>
+        <v>32.2082633972168</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.69940567016602</v>
+        <v>-15.89974403381348</v>
       </c>
       <c r="F30" t="n">
-        <v>-8.25321102142334</v>
+        <v>34.53033065795898</v>
       </c>
       <c r="G30" t="n">
-        <v>46.33290481567383</v>
+        <v>60.16409301757812</v>
       </c>
       <c r="H30" t="n">
-        <v>-48.13410949707031</v>
+        <v>-78.67390441894531</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.512277355194092</v>
+        <v>0.2083330929279328</v>
       </c>
       <c r="B31" t="n">
-        <v>62.51247994622596</v>
+        <v>5.899814492161936e+20</v>
       </c>
       <c r="C31" t="n">
-        <v>44.8758544921875</v>
+        <v>34.45796966552734</v>
       </c>
       <c r="D31" t="n">
-        <v>18.4362907409668</v>
+        <v>32.66119003295898</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.82828712463379</v>
+        <v>-15.44290447235107</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.389091968536377</v>
+        <v>36.2420654296875</v>
       </c>
       <c r="G31" t="n">
-        <v>46.9828987121582</v>
+        <v>61.00557327270508</v>
       </c>
       <c r="H31" t="n">
-        <v>-50.09323120117188</v>
+        <v>-78.94953155517578</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.427631723880768</v>
+        <v>0.2262843728065491</v>
       </c>
       <c r="B32" t="n">
-        <v>31.0300699103922</v>
+        <v>2.949907246080968e+20</v>
       </c>
       <c r="C32" t="n">
-        <v>44.65920257568359</v>
+        <v>33.74617004394531</v>
       </c>
       <c r="D32" t="n">
-        <v>18.40638542175293</v>
+        <v>33.10085296630859</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.9489860534668</v>
+        <v>-14.99134159088135</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.525049686431885</v>
+        <v>37.85381317138672</v>
       </c>
       <c r="G32" t="n">
-        <v>47.59321975708008</v>
+        <v>61.7781982421875</v>
       </c>
       <c r="H32" t="n">
-        <v>-50.98958206176758</v>
+        <v>-79.19280242919922</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-1.336580431461334</v>
+        <v>0.2432606130838394</v>
       </c>
       <c r="B33" t="n">
-        <v>16.74005786498502</v>
+        <v>1.474953623040484e+20</v>
       </c>
       <c r="C33" t="n">
-        <v>44.42615509033203</v>
+        <v>33.07303237915039</v>
       </c>
       <c r="D33" t="n">
-        <v>18.39272117614746</v>
+        <v>33.52452087402344</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.06422805786133</v>
+        <v>-14.54641342163086</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.668854236602783</v>
+        <v>39.36968231201172</v>
       </c>
       <c r="G33" t="n">
-        <v>48.16029357910156</v>
+        <v>62.48503494262695</v>
       </c>
       <c r="H33" t="n">
-        <v>-51.83552551269531</v>
+        <v>-79.40936279296875</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.292228043580454</v>
+        <v>0.2592698061466217</v>
       </c>
       <c r="B34" t="n">
-        <v>8.043732581706967</v>
+        <v>7.374768115202419e+19</v>
       </c>
       <c r="C34" t="n">
-        <v>44.18061828613281</v>
+        <v>32.43824005126953</v>
       </c>
       <c r="D34" t="n">
-        <v>18.3932991027832</v>
+        <v>33.9296989440918</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.17628479003906</v>
+        <v>-14.10975933074951</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.827717304229736</v>
+        <v>40.79316711425781</v>
       </c>
       <c r="G34" t="n">
-        <v>48.68146896362305</v>
+        <v>63.12873458862305</v>
       </c>
       <c r="H34" t="n">
-        <v>-52.62870788574219</v>
+        <v>-79.60369110107422</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-3.088041745852204</v>
+        <v>0.6166119437682431</v>
       </c>
       <c r="B35" t="n">
-        <v>5.576485692344342</v>
+        <v>3.687384057601243e+19</v>
       </c>
       <c r="C35" t="n">
-        <v>43.9263916015625</v>
+        <v>31.84155082702637</v>
       </c>
       <c r="D35" t="n">
-        <v>18.40581703186035</v>
+        <v>34.31379318237305</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.28691482543945</v>
+        <v>-13.68302249908447</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.007967472076416</v>
+        <v>42.12718963623047</v>
       </c>
       <c r="G35" t="n">
-        <v>49.15504837036133</v>
+        <v>63.71243667602539</v>
       </c>
       <c r="H35" t="n">
-        <v>-53.36806869506836</v>
+        <v>-79.77793121337891</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7.335012820846882</v>
+        <v>0.7913700315542043</v>
       </c>
       <c r="B36" t="n">
-        <v>1.803780652414084</v>
+        <v>1.843692028799471e+19</v>
       </c>
       <c r="C36" t="n">
-        <v>43.6671028137207</v>
+        <v>31.28268432617188</v>
       </c>
       <c r="D36" t="n">
-        <v>18.42781639099121</v>
+        <v>34.67442321777344</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.39739608764648</v>
+        <v>-13.26776695251465</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.2150559425354</v>
+        <v>43.37468719482422</v>
       </c>
       <c r="G36" t="n">
-        <v>49.58037948608398</v>
+        <v>64.23992156982422</v>
       </c>
       <c r="H36" t="n">
-        <v>-54.05348205566406</v>
+        <v>-79.93307495117188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-9.058765641239603</v>
+        <v>0.8812774801496261</v>
       </c>
       <c r="B37" t="n">
-        <v>3.677410303873229</v>
+        <v>9.218460144405646e+18</v>
       </c>
       <c r="C37" t="n">
-        <v>43.4061164855957</v>
+        <v>30.7597484588623</v>
       </c>
       <c r="D37" t="n">
-        <v>18.45683097839355</v>
+        <v>35.01055526733398</v>
       </c>
       <c r="E37" t="n">
-        <v>-28.50856590270996</v>
+        <v>-12.86543655395508</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.453352451324463</v>
+        <v>44.53883361816406</v>
       </c>
       <c r="G37" t="n">
-        <v>49.95769882202148</v>
+        <v>64.71337890625</v>
       </c>
       <c r="H37" t="n">
-        <v>-54.68592834472656</v>
+        <v>-80.07393646240234</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14.35573414163032</v>
+        <v>0.9296748240080627</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.420110872821617</v>
+        <v>4.609230057465767e+18</v>
       </c>
       <c r="C38" t="n">
-        <v>43.14645385742188</v>
+        <v>30.27027320861816</v>
       </c>
       <c r="D38" t="n">
-        <v>18.49052619934082</v>
+        <v>35.32228469848633</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.62082672119141</v>
+        <v>-12.47733497619629</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.726171970367432</v>
+        <v>45.6231689453125</v>
       </c>
       <c r="G38" t="n">
-        <v>50.28816223144531</v>
+        <v>65.13536834716797</v>
       </c>
       <c r="H38" t="n">
-        <v>-55.26722717285156</v>
+        <v>-80.20492553710938</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-14.49899608284799</v>
+        <v>0.9568075425176931</v>
       </c>
       <c r="B39" t="n">
-        <v>6.421322653411569</v>
+        <v>2.30461556897864e+18</v>
       </c>
       <c r="C39" t="n">
-        <v>42.89081192016602</v>
+        <v>29.81144523620605</v>
       </c>
       <c r="D39" t="n">
-        <v>18.52676582336426</v>
+        <v>35.61057662963867</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.7342472076416</v>
+        <v>-12.10467338562012</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.035860538482666</v>
+        <v>46.63170623779297</v>
       </c>
       <c r="G39" t="n">
-        <v>50.57362365722656</v>
+        <v>65.50887298583984</v>
       </c>
       <c r="H39" t="n">
-        <v>-55.79980087280273</v>
+        <v>-80.33052825927734</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16.05916343233634</v>
+        <v>0.9725854885669305</v>
       </c>
       <c r="B40" t="n">
-        <v>-8.689369302811338</v>
+        <v>1.152287696414397e+18</v>
       </c>
       <c r="C40" t="n">
-        <v>42.64147186279297</v>
+        <v>29.38012504577637</v>
       </c>
       <c r="D40" t="n">
-        <v>18.56371879577637</v>
+        <v>35.87717056274414</v>
       </c>
       <c r="E40" t="n">
-        <v>-28.84861946105957</v>
+        <v>-11.7484655380249</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.3837724030017853</v>
+        <v>46.63170623779297</v>
       </c>
       <c r="G40" t="n">
-        <v>50.81656265258789</v>
+        <v>65.83717346191406</v>
       </c>
       <c r="H40" t="n">
-        <v>-56.28667449951172</v>
+        <v>-80.45494842529297</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-11.03817299004447</v>
+        <v>0.9820687298789548</v>
       </c>
       <c r="B41" t="n">
-        <v>20.57002575924466</v>
+        <v>5.769005745933677e+17</v>
       </c>
       <c r="C41" t="n">
-        <v>42.40034484863281</v>
+        <v>28.97298240661621</v>
       </c>
       <c r="D41" t="n">
-        <v>18.59985160827637</v>
+        <v>36.12448120117188</v>
       </c>
       <c r="E41" t="n">
-        <v>-28.96353912353516</v>
+        <v>-11.40945529937744</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2295050323009491</v>
+        <v>48.5062370300293</v>
       </c>
       <c r="G41" t="n">
-        <v>51.01987838745117</v>
+        <v>66.12377166748047</v>
       </c>
       <c r="H41" t="n">
-        <v>-56.73107528686523</v>
+        <v>-80.58210754394531</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8.587549090276669</v>
+        <v>0.987941900203179</v>
       </c>
       <c r="B42" t="n">
-        <v>-39.54361240103233</v>
+        <v>2.596006460055425e+17</v>
       </c>
       <c r="C42" t="n">
-        <v>42.1689453125</v>
+        <v>28.5866641998291</v>
       </c>
       <c r="D42" t="n">
-        <v>18.63395881652832</v>
+        <v>36.35530090332031</v>
       </c>
       <c r="E42" t="n">
-        <v>-29.07845115661621</v>
+        <v>-11.08803081512451</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8041243553161621</v>
+        <v>49.31110000610352</v>
       </c>
       <c r="G42" t="n">
-        <v>51.18676376342773</v>
+        <v>66.37237548828125</v>
       </c>
       <c r="H42" t="n">
-        <v>-57.13654708862305</v>
+        <v>-80.71533203125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-2.573728286472993</v>
+        <v>0.9916797959778659</v>
       </c>
       <c r="B43" t="n">
-        <v>88.81154180661484</v>
+        <v>1.2419103062123e+18</v>
       </c>
       <c r="C43" t="n">
-        <v>41.94844055175781</v>
+        <v>28.21789741516113</v>
       </c>
       <c r="D43" t="n">
-        <v>18.66515350341797</v>
+        <v>36.57263946533203</v>
       </c>
       <c r="E43" t="n">
-        <v>-29.19273567199707</v>
+        <v>-10.78417015075684</v>
       </c>
       <c r="F43" t="n">
-        <v>1.340800762176514</v>
+        <v>50.06083679199219</v>
       </c>
       <c r="G43" t="n">
-        <v>51.32060623168945</v>
+        <v>66.58679962158203</v>
       </c>
       <c r="H43" t="n">
-        <v>-57.50661849975586</v>
+        <v>-80.85741424560547</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.13523403841229</v>
+        <v>0.9941187273419753</v>
       </c>
       <c r="B44" t="n">
-        <v>-195.8634836181241</v>
+        <v>-4.269220224498844e+19</v>
       </c>
       <c r="C44" t="n">
-        <v>41.73967361450195</v>
+        <v>27.86364364624023</v>
       </c>
       <c r="D44" t="n">
-        <v>18.69282913208008</v>
+        <v>36.77944564819336</v>
       </c>
       <c r="E44" t="n">
-        <v>-29.30574607849121</v>
+        <v>-10.49747848510742</v>
       </c>
       <c r="F44" t="n">
-        <v>1.840709209442139</v>
+        <v>50.76163101196289</v>
       </c>
       <c r="G44" t="n">
-        <v>51.42484283447266</v>
+        <v>66.77082061767578</v>
       </c>
       <c r="H44" t="n">
-        <v>-57.8448371887207</v>
+        <v>-81.01036071777344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8048442965383013</v>
+        <v>0.9957468887549557</v>
       </c>
       <c r="B45" t="n">
-        <v>456.8026415398301</v>
+        <v>1.681854477970058e+21</v>
       </c>
       <c r="C45" t="n">
-        <v>41.54318618774414</v>
+        <v>27.52119064331055</v>
       </c>
       <c r="D45" t="n">
-        <v>18.71665382385254</v>
+        <v>36.9784049987793</v>
       </c>
       <c r="E45" t="n">
-        <v>-29.41682434082031</v>
+        <v>-10.22719955444336</v>
       </c>
       <c r="F45" t="n">
-        <v>2.30537748336792</v>
+        <v>51.41968536376953</v>
       </c>
       <c r="G45" t="n">
-        <v>51.50285720825195</v>
+        <v>66.92812347412109</v>
       </c>
       <c r="H45" t="n">
-        <v>-58.15460205078125</v>
+        <v>-81.17525482177734</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8048442965383013</v>
+        <v>0.9968569215639252</v>
       </c>
       <c r="B46" t="n">
-        <v>-1085.080966426567</v>
+        <v>-6.674270856752614e+22</v>
       </c>
       <c r="C46" t="n">
-        <v>41.35926055908203</v>
+        <v>27.18819808959961</v>
       </c>
       <c r="D46" t="n">
-        <v>18.73650741577148</v>
+        <v>37.17187881469727</v>
       </c>
       <c r="E46" t="n">
-        <v>-29.5253734588623</v>
+        <v>-9.972378730773926</v>
       </c>
       <c r="F46" t="n">
-        <v>2.736575603485107</v>
+        <v>52.04101181030273</v>
       </c>
       <c r="G46" t="n">
-        <v>51.55794525146484</v>
+        <v>67.06214141845703</v>
       </c>
       <c r="H46" t="n">
-        <v>-58.43912124633789</v>
+        <v>-81.35260772705078</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.20556961895065</v>
+        <v>0.9976285514130944</v>
       </c>
       <c r="B47" t="n">
-        <v>2656.976235663295</v>
+        <v>2.67150005334919e+24</v>
       </c>
       <c r="C47" t="n">
-        <v>41.18795013427734</v>
+        <v>26.86263084411621</v>
       </c>
       <c r="D47" t="n">
-        <v>18.7524585723877</v>
+        <v>37.36190032958984</v>
       </c>
       <c r="E47" t="n">
-        <v>-29.63086128234863</v>
+        <v>-9.73187255859375</v>
       </c>
       <c r="F47" t="n">
-        <v>3.136254787445068</v>
+        <v>52.63148880004883</v>
       </c>
       <c r="G47" t="n">
-        <v>51.59323120117188</v>
+        <v>67.17608642578125</v>
       </c>
       <c r="H47" t="n">
-        <v>-58.70148086547852</v>
+        <v>-81.54205322265625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9963639017372976</v>
+        <v>0.9981746413474386</v>
       </c>
       <c r="B48" t="n">
-        <v>-6648.27126127761</v>
+        <v>-1.078131715675972e+26</v>
       </c>
       <c r="C48" t="n">
-        <v>41.02914810180664</v>
+        <v>26.54268455505371</v>
       </c>
       <c r="D48" t="n">
-        <v>18.76470756530762</v>
+        <v>37.55017852783203</v>
       </c>
       <c r="E48" t="n">
-        <v>-29.73280143737793</v>
+        <v>-9.504446029663086</v>
       </c>
       <c r="F48" t="n">
-        <v>3.506431102752686</v>
+        <v>53.19680404663086</v>
       </c>
       <c r="G48" t="n">
-        <v>51.61162567138672</v>
+        <v>67.27291107177734</v>
       </c>
       <c r="H48" t="n">
-        <v>-58.94441604614258</v>
+        <v>-81.74293518066406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9996714106640133</v>
+        <v>0.9985674969278725</v>
       </c>
       <c r="B49" t="n">
-        <v>17005.22855935351</v>
+        <v>4.38556630697782e+27</v>
       </c>
       <c r="C49" t="n">
-        <v>40.88256454467773</v>
+        <v>26.22627830505371</v>
       </c>
       <c r="D49" t="n">
-        <v>18.7735424041748</v>
+        <v>37.73888397216797</v>
       </c>
       <c r="E49" t="n">
-        <v>-29.83083343505859</v>
+        <v>-9.288968086242676</v>
       </c>
       <c r="F49" t="n">
-        <v>3.849175930023193</v>
+        <v>53.7421875</v>
       </c>
       <c r="G49" t="n">
-        <v>51.6158561706543</v>
+        <v>67.35508728027344</v>
       </c>
       <c r="H49" t="n">
-        <v>-59.17050933837891</v>
+        <v>-81.954833984375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9999376723475709</v>
+        <v>0.9988543652717209</v>
       </c>
       <c r="B50" t="n">
-        <v>-44332.08316179823</v>
+        <v>-1.797742454427344e+29</v>
       </c>
       <c r="C50" t="n">
-        <v>40.74784088134766</v>
+        <v>25.91179656982422</v>
       </c>
       <c r="D50" t="n">
-        <v>18.77934455871582</v>
+        <v>37.92974853515625</v>
       </c>
       <c r="E50" t="n">
-        <v>-29.9246711730957</v>
+        <v>-9.084406852722168</v>
       </c>
       <c r="F50" t="n">
-        <v>4.166554927825928</v>
+        <v>54.27217102050781</v>
       </c>
       <c r="G50" t="n">
-        <v>51.60833358764648</v>
+        <v>67.42473602294922</v>
       </c>
       <c r="H50" t="n">
-        <v>-59.38201522827148</v>
+        <v>-82.17680358886719</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9999825110650928</v>
+        <v>0.9990667326923807</v>
       </c>
       <c r="B51" t="n">
-        <v>117636.7142563806</v>
+        <v>7.425370991404493e+30</v>
       </c>
       <c r="C51" t="n">
-        <v>40.62451171875</v>
+        <v>25.59896659851074</v>
       </c>
       <c r="D51" t="n">
-        <v>18.78254699707031</v>
+        <v>38.12409973144531</v>
       </c>
       <c r="E51" t="n">
-        <v>-30.01408958435059</v>
+        <v>-8.890172004699707</v>
       </c>
       <c r="F51" t="n">
-        <v>4.4606032371521</v>
+        <v>54.79236602783203</v>
       </c>
       <c r="G51" t="n">
-        <v>51.59128189086914</v>
+        <v>67.48390960693359</v>
       </c>
       <c r="H51" t="n">
-        <v>-59.58105850219727</v>
+        <v>-82.40558624267578</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.999993643029619</v>
+        <v>0.9992258898627125</v>
       </c>
       <c r="B52" t="n">
-        <v>58817.64437856962</v>
+        <v>3.712685495702247e+30</v>
       </c>
       <c r="C52" t="n">
-        <v>40.51206970214844</v>
+        <v>25.2872371673584</v>
       </c>
       <c r="D52" t="n">
-        <v>18.78358268737793</v>
+        <v>38.32316589355469</v>
       </c>
       <c r="E52" t="n">
-        <v>-30.09896469116211</v>
+        <v>-8.705714225769043</v>
       </c>
       <c r="F52" t="n">
-        <v>4.733243465423584</v>
+        <v>55.3072509765625</v>
       </c>
       <c r="G52" t="n">
-        <v>51.56658172607422</v>
+        <v>67.53410339355469</v>
       </c>
       <c r="H52" t="n">
-        <v>-59.76944732666016</v>
+        <v>-82.63844299316406</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.2325436279177666</v>
+        <v>0.447459209561348</v>
       </c>
       <c r="B53" t="n">
-        <v>29408.0986941054</v>
+        <v>1.856342747851123e+30</v>
       </c>
       <c r="C53" t="n">
-        <v>40.40995407104492</v>
+        <v>24.97620391845703</v>
       </c>
       <c r="D53" t="n">
-        <v>18.78289604187012</v>
+        <v>38.52649688720703</v>
       </c>
       <c r="E53" t="n">
-        <v>-30.17924118041992</v>
+        <v>-8.529874801635742</v>
       </c>
       <c r="F53" t="n">
-        <v>4.986342906951904</v>
+        <v>55.81889724731445</v>
       </c>
       <c r="G53" t="n">
-        <v>51.53593826293945</v>
+        <v>67.57660675048828</v>
       </c>
       <c r="H53" t="n">
-        <v>-59.9488639831543</v>
+        <v>-82.87344360351562</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.2686753290891647</v>
+        <v>0.4553099131584168</v>
       </c>
       <c r="B54" t="n">
-        <v>14703.31584521544</v>
+        <v>9.281713739255617e+29</v>
       </c>
       <c r="C54" t="n">
-        <v>40.31747436523438</v>
+        <v>24.66490936279297</v>
       </c>
       <c r="D54" t="n">
-        <v>18.78097152709961</v>
+        <v>38.73398208618164</v>
       </c>
       <c r="E54" t="n">
-        <v>-30.25491333007812</v>
+        <v>-8.361380577087402</v>
       </c>
       <c r="F54" t="n">
-        <v>5.22165060043335</v>
+        <v>56.33036041259766</v>
       </c>
       <c r="G54" t="n">
-        <v>51.5009880065918</v>
+        <v>67.61318206787109</v>
       </c>
       <c r="H54" t="n">
-        <v>-60.12054061889648</v>
+        <v>-83.10909271240234</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.3012658184766769</v>
+        <v>0.4631548041105271</v>
       </c>
       <c r="B55" t="n">
-        <v>7350.915084462227</v>
+        <v>4.640856869627808e+29</v>
       </c>
       <c r="C55" t="n">
-        <v>40.23405838012695</v>
+        <v>24.35384559631348</v>
       </c>
       <c r="D55" t="n">
-        <v>18.7782096862793</v>
+        <v>38.94449996948242</v>
       </c>
       <c r="E55" t="n">
-        <v>-30.32602310180664</v>
+        <v>-8.199417114257812</v>
       </c>
       <c r="F55" t="n">
-        <v>5.440778255462646</v>
+        <v>56.84157562255859</v>
       </c>
       <c r="G55" t="n">
-        <v>51.46289443969727</v>
+        <v>67.6448974609375</v>
       </c>
       <c r="H55" t="n">
-        <v>-60.28582763671875</v>
+        <v>-83.34333801269531</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3305670142173767</v>
+        <v>0.470984120965004</v>
       </c>
       <c r="B56" t="n">
-        <v>3674.705974187882</v>
+        <v>2.320428434813904e+29</v>
       </c>
       <c r="C56" t="n">
-        <v>40.15906143188477</v>
+        <v>24.04339981079102</v>
       </c>
       <c r="D56" t="n">
-        <v>18.77499580383301</v>
+        <v>39.1569938659668</v>
       </c>
       <c r="E56" t="n">
-        <v>-30.39267158508301</v>
+        <v>-8.043116569519043</v>
       </c>
       <c r="F56" t="n">
-        <v>5.645225048065186</v>
+        <v>57.35268020629883</v>
       </c>
       <c r="G56" t="n">
-        <v>51.42276000976562</v>
+        <v>67.67269897460938</v>
       </c>
       <c r="H56" t="n">
-        <v>-60.44569778442383</v>
+        <v>-83.57406616210938</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.3568188774585724</v>
+        <v>0.4787757819890976</v>
       </c>
       <c r="B57" t="n">
-        <v>1836.593236678854</v>
+        <v>1.160214217406952e+29</v>
       </c>
       <c r="C57" t="n">
-        <v>40.09186935424805</v>
+        <v>23.73444747924805</v>
       </c>
       <c r="D57" t="n">
-        <v>18.77168464660645</v>
+        <v>39.36888885498047</v>
       </c>
       <c r="E57" t="n">
-        <v>-30.45497894287109</v>
+        <v>-7.892805576324463</v>
       </c>
       <c r="F57" t="n">
-        <v>5.836394786834717</v>
+        <v>57.86000823974609</v>
       </c>
       <c r="G57" t="n">
-        <v>51.38151931762695</v>
+        <v>67.69668579101562</v>
       </c>
       <c r="H57" t="n">
-        <v>-60.60100173950195</v>
+        <v>-83.79669952392578</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.3802657920122147</v>
+        <v>0.4864800637960434</v>
       </c>
       <c r="B58" t="n">
-        <v>917.5291796904879</v>
+        <v>5.80107108703476e+28</v>
       </c>
       <c r="C58" t="n">
-        <v>40.03185653686523</v>
+        <v>23.42895889282227</v>
       </c>
       <c r="D58" t="n">
-        <v>18.76858711242676</v>
+        <v>39.57546615600586</v>
       </c>
       <c r="E58" t="n">
-        <v>-30.51310920715332</v>
+        <v>-7.750705718994141</v>
       </c>
       <c r="F58" t="n">
-        <v>6.015573024749756</v>
+        <v>58.35491180419922</v>
       </c>
       <c r="G58" t="n">
-        <v>51.33993148803711</v>
+        <v>67.71583557128906</v>
       </c>
       <c r="H58" t="n">
-        <v>-60.75244903564453</v>
+        <v>-84.00340270996094</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4011343246698379</v>
+        <v>0.4939251774549485</v>
       </c>
       <c r="B59" t="n">
-        <v>457.9899085775056</v>
+        <v>2.90053554351738e+28</v>
       </c>
       <c r="C59" t="n">
-        <v>39.97844314575195</v>
+        <v>23.13374710083008</v>
       </c>
       <c r="D59" t="n">
-        <v>18.76597785949707</v>
+        <v>39.77536392211914</v>
       </c>
       <c r="E59" t="n">
-        <v>-30.5672721862793</v>
+        <v>-7.615901470184326</v>
       </c>
       <c r="F59" t="n">
-        <v>6.18393087387085</v>
+        <v>58.83958435058594</v>
       </c>
       <c r="G59" t="n">
-        <v>51.29866790771484</v>
+        <v>67.73138427734375</v>
       </c>
       <c r="H59" t="n">
-        <v>-60.90064239501953</v>
+        <v>-84.19589233398438</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4196465563774109</v>
+        <v>0.5010343897342682</v>
       </c>
       <c r="B60" t="n">
-        <v>228.2134319801648</v>
+        <v>1.45026777175869e+28</v>
       </c>
       <c r="C60" t="n">
-        <v>39.93106079101562</v>
+        <v>22.85185432434082</v>
       </c>
       <c r="D60" t="n">
-        <v>18.76408767700195</v>
+        <v>39.96543121337891</v>
       </c>
       <c r="E60" t="n">
-        <v>-30.61762809753418</v>
+        <v>-7.488611221313477</v>
       </c>
       <c r="F60" t="n">
-        <v>6.342530727386475</v>
+        <v>59.31043243408203</v>
       </c>
       <c r="G60" t="n">
-        <v>51.25822067260742</v>
+        <v>67.74399566650391</v>
       </c>
       <c r="H60" t="n">
-        <v>-61.04598236083984</v>
+        <v>-84.37099456787109</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4360111105442047</v>
+        <v>0.5077152037620545</v>
       </c>
       <c r="B61" t="n">
-        <v>113.3187146673361</v>
+        <v>7.25133885879345e+27</v>
       </c>
       <c r="C61" t="n">
-        <v>39.88917541503906</v>
+        <v>22.58694839477539</v>
       </c>
       <c r="D61" t="n">
-        <v>18.76311111450195</v>
+        <v>40.14217758178711</v>
       </c>
       <c r="E61" t="n">
-        <v>-30.66441535949707</v>
+        <v>-7.369598865509033</v>
       </c>
       <c r="F61" t="n">
-        <v>6.492337703704834</v>
+        <v>59.76343154907227</v>
       </c>
       <c r="G61" t="n">
-        <v>51.21900939941406</v>
+        <v>67.754150390625</v>
       </c>
       <c r="H61" t="n">
-        <v>-61.18885040283203</v>
+        <v>-84.52450561523438</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4504217630624771</v>
+        <v>0.5138719952106476</v>
       </c>
       <c r="B62" t="n">
-        <v>55.86520458985168</v>
+        <v>3.625669429396725e+27</v>
       </c>
       <c r="C62" t="n">
-        <v>39.85229110717773</v>
+        <v>22.34282112121582</v>
       </c>
       <c r="D62" t="n">
-        <v>18.76321029663086</v>
+        <v>40.30191040039062</v>
       </c>
       <c r="E62" t="n">
-        <v>-30.70784187316895</v>
+        <v>-7.259977340698242</v>
       </c>
       <c r="F62" t="n">
-        <v>6.634215831756592</v>
+        <v>60.19435882568359</v>
       </c>
       <c r="G62" t="n">
-        <v>51.18138122558594</v>
+        <v>67.76260375976562</v>
       </c>
       <c r="H62" t="n">
-        <v>-61.32952499389648</v>
+        <v>-84.65170288085938</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4630692571401596</v>
+        <v>0.5193954610824585</v>
       </c>
       <c r="B63" t="n">
-        <v>27.13259394312301</v>
+        <v>1.812834714698363e+27</v>
       </c>
       <c r="C63" t="n">
-        <v>39.81991958618164</v>
+        <v>22.12380599975586</v>
       </c>
       <c r="D63" t="n">
-        <v>18.7645149230957</v>
+        <v>40.4403190612793</v>
       </c>
       <c r="E63" t="n">
-        <v>-30.74813842773438</v>
+        <v>-7.161322593688965</v>
       </c>
       <c r="F63" t="n">
-        <v>6.768920421600342</v>
+        <v>60.59849166870117</v>
       </c>
       <c r="G63" t="n">
-        <v>51.14557647705078</v>
+        <v>67.7705078125</v>
       </c>
       <c r="H63" t="n">
-        <v>-61.46818161010742</v>
+        <v>-84.74665832519531</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4741235494613648</v>
+        <v>0.524133335351944</v>
       </c>
       <c r="B64" t="n">
-        <v>12.76070077252586</v>
+        <v>9.064173573491813e+26</v>
       </c>
       <c r="C64" t="n">
-        <v>39.7916259765625</v>
+        <v>21.93594169616699</v>
       </c>
       <c r="D64" t="n">
-        <v>18.76712036132812</v>
+        <v>40.55110168457031</v>
       </c>
       <c r="E64" t="n">
-        <v>-30.78553009033203</v>
+        <v>-7.076328754425049</v>
       </c>
       <c r="F64" t="n">
-        <v>6.897147655487061</v>
+        <v>60.96910095214844</v>
       </c>
       <c r="G64" t="n">
-        <v>51.11178588867188</v>
+        <v>67.77949523925781</v>
       </c>
       <c r="H64" t="n">
-        <v>-61.6049690246582</v>
+        <v>-84.8001708984375</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4837410759925843</v>
+        <v>0.5278225010633469</v>
       </c>
       <c r="B65" t="n">
-        <v>5.56941002881626</v>
+        <v>4.532086786745907e+26</v>
       </c>
       <c r="C65" t="n">
-        <v>39.76700973510742</v>
+        <v>21.78965950012207</v>
       </c>
       <c r="D65" t="n">
-        <v>18.77110481262207</v>
+        <v>40.62368011474609</v>
       </c>
       <c r="E65" t="n">
-        <v>-30.82024002075195</v>
+        <v>-7.009761810302734</v>
       </c>
       <c r="F65" t="n">
-        <v>7.019511699676514</v>
+        <v>61.29440689086914</v>
       </c>
       <c r="G65" t="n">
-        <v>51.08011627197266</v>
+        <v>67.79122924804688</v>
       </c>
       <c r="H65" t="n">
-        <v>-61.73992919921875</v>
+        <v>-84.79753112792969</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.4920723968744278</v>
+        <v>0.53</v>
       </c>
       <c r="B66" t="n">
-        <v>1.968643464029331</v>
+        <v>2.266043393372953e+26</v>
       </c>
       <c r="C66" t="n">
-        <v>39.74568557739258</v>
+        <v>21.70331764221191</v>
       </c>
       <c r="D66" t="n">
-        <v>18.77651977539062</v>
+        <v>40.63957595825195</v>
       </c>
       <c r="E66" t="n">
-        <v>-30.85249137878418</v>
+        <v>-6.970470428466797</v>
       </c>
       <c r="F66" t="n">
-        <v>7.136538982391357</v>
+        <v>61.55419921875</v>
       </c>
       <c r="G66" t="n">
-        <v>51.0506706237793</v>
+        <v>67.80666351318359</v>
       </c>
       <c r="H66" t="n">
-        <v>-61.87309265136719</v>
+        <v>-84.71444702148438</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.4992531299591065</v>
+        <v>0.5298429954051972</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1633421785535905</v>
+        <v>1.133021696686477e+26</v>
       </c>
       <c r="C67" t="n">
-        <v>39.7273063659668</v>
+        <v>21.70954322814941</v>
       </c>
       <c r="D67" t="n">
-        <v>18.78339576721191</v>
+        <v>40.56609725952148</v>
       </c>
       <c r="E67" t="n">
-        <v>-30.88251113891602</v>
+        <v>-6.974552154541016</v>
       </c>
       <c r="F67" t="n">
-        <v>7.248683452606201</v>
+        <v>61.71272659301758</v>
       </c>
       <c r="G67" t="n">
-        <v>51.02347564697266</v>
+        <v>67.82526397705078</v>
       </c>
       <c r="H67" t="n">
-        <v>-62.00448989868164</v>
+        <v>-84.50944519042969</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5054039824008942</v>
+        <v>0.5258264893293381</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1633421785535905</v>
+        <v>5.665108483432383e+25</v>
       </c>
       <c r="C68" t="n">
-        <v>39.71156311035156</v>
+        <v>21.86880493164062</v>
       </c>
       <c r="D68" t="n">
-        <v>18.79175186157227</v>
+        <v>40.34419250488281</v>
       </c>
       <c r="E68" t="n">
-        <v>-30.9105052947998</v>
+        <v>-7.050761699676514</v>
       </c>
       <c r="F68" t="n">
-        <v>7.356378078460693</v>
+        <v>61.70369338989258</v>
       </c>
       <c r="G68" t="n">
-        <v>50.99852752685547</v>
+        <v>67.84210205078125</v>
       </c>
       <c r="H68" t="n">
-        <v>-62.13409042358398</v>
+        <v>-84.11203002929688</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.5106367528438568</v>
+        <v>0.5152675354480744</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.651419944763184</v>
+        <v>2.832554241716192e+25</v>
       </c>
       <c r="C69" t="n">
-        <v>39.69816970825195</v>
+        <v>22.28748512268066</v>
       </c>
       <c r="D69" t="n">
-        <v>18.80158615112305</v>
+        <v>39.87562942504883</v>
       </c>
       <c r="E69" t="n">
-        <v>-30.93667411804199</v>
+        <v>-7.244848728179932</v>
       </c>
       <c r="F69" t="n">
-        <v>7.45996618270874</v>
+        <v>61.41070556640625</v>
       </c>
       <c r="G69" t="n">
-        <v>50.97579956054688</v>
+        <v>67.84932708740234</v>
       </c>
       <c r="H69" t="n">
-        <v>-62.26188278198242</v>
+        <v>-83.40702819824219</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.515052815079689</v>
+        <v>0.4951034384965897</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.660535941123962</v>
+        <v>1.416277120858096e+25</v>
       </c>
       <c r="C70" t="n">
-        <v>39.68686676025391</v>
+        <v>23.08702659606934</v>
       </c>
       <c r="D70" t="n">
-        <v>18.81288719177246</v>
+        <v>39.0694580078125</v>
       </c>
       <c r="E70" t="n">
-        <v>-30.96121597290039</v>
+        <v>-7.591730117797852</v>
       </c>
       <c r="F70" t="n">
-        <v>7.559777736663818</v>
+        <v>60.69661712646484</v>
       </c>
       <c r="G70" t="n">
-        <v>50.95526123046875</v>
+        <v>67.85434722900391</v>
       </c>
       <c r="H70" t="n">
-        <v>-62.38780212402344</v>
+        <v>-82.28913116455078</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5187415385246277</v>
+        <v>0.4655459493398666</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.669329335689545</v>
+        <v>7.081385604290479e+24</v>
       </c>
       <c r="C71" t="n">
-        <v>39.67742538452148</v>
+        <v>24.259033203125</v>
       </c>
       <c r="D71" t="n">
-        <v>18.82563972473145</v>
+        <v>37.98199844360352</v>
       </c>
       <c r="E71" t="n">
-        <v>-30.98432540893555</v>
+        <v>-8.055061340332031</v>
       </c>
       <c r="F71" t="n">
-        <v>7.656056880950928</v>
+        <v>59.55025863647461</v>
       </c>
       <c r="G71" t="n">
-        <v>50.93679809570312</v>
+        <v>67.90864562988281</v>
       </c>
       <c r="H71" t="n">
-        <v>-62.51180648803711</v>
+        <v>-80.81846618652344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.521783447265625</v>
+        <v>0.4344466561079026</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.677823505401612</v>
+        <v>3.540692802145239e+24</v>
       </c>
       <c r="C72" t="n">
-        <v>39.66963958740234</v>
+        <v>25.49217414855957</v>
       </c>
       <c r="D72" t="n">
-        <v>18.83981704711914</v>
+        <v>36.91716766357422</v>
       </c>
       <c r="E72" t="n">
-        <v>-31.00617790222168</v>
+        <v>-8.50523567199707</v>
       </c>
       <c r="F72" t="n">
-        <v>7.749061107635498</v>
+        <v>58.26532745361328</v>
       </c>
       <c r="G72" t="n">
-        <v>50.92036819458008</v>
+        <v>68.06649017333984</v>
       </c>
       <c r="H72" t="n">
-        <v>-62.63385391235352</v>
+        <v>-79.32106781005859</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.5242500621080399</v>
+        <v>0.4108726215362549</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.686037657260895</v>
+        <v>1.77034640107262e+24</v>
       </c>
       <c r="C73" t="n">
-        <v>39.66332626342773</v>
+        <v>26.42692565917969</v>
       </c>
       <c r="D73" t="n">
-        <v>18.85537719726562</v>
+        <v>36.16925048828125</v>
       </c>
       <c r="E73" t="n">
-        <v>-31.02693176269531</v>
+        <v>-8.820352554321289</v>
       </c>
       <c r="F73" t="n">
-        <v>7.838998317718506</v>
+        <v>57.24429321289062</v>
       </c>
       <c r="G73" t="n">
-        <v>50.90584945678711</v>
+        <v>68.27359008789062</v>
       </c>
       <c r="H73" t="n">
-        <v>-62.75387573242188</v>
+        <v>-78.131591796875</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.5262039637565613</v>
+        <v>0.3951376968622208</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.693987712860108</v>
+        <v>8.851732005363099e+23</v>
       </c>
       <c r="C74" t="n">
-        <v>39.6583251953125</v>
+        <v>27.05084228515625</v>
       </c>
       <c r="D74" t="n">
-        <v>18.87229156494141</v>
+        <v>35.72325134277344</v>
       </c>
       <c r="E74" t="n">
-        <v>-31.04676055908203</v>
+        <v>-9.017024040222168</v>
       </c>
       <c r="F74" t="n">
-        <v>7.92604398727417</v>
+        <v>56.5556526184082</v>
       </c>
       <c r="G74" t="n">
-        <v>50.89310836791992</v>
+        <v>68.44171905517578</v>
       </c>
       <c r="H74" t="n">
-        <v>-62.87188339233398</v>
+        <v>-77.2806396484375</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.5277003091573715</v>
+        <v>0.3837343615293503</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.701688456535339</v>
+        <v>4.425866002681549e+23</v>
       </c>
       <c r="C75" t="n">
-        <v>39.65449523925781</v>
+        <v>27.50300407409668</v>
       </c>
       <c r="D75" t="n">
-        <v>18.89051055908203</v>
+        <v>35.44166564941406</v>
       </c>
       <c r="E75" t="n">
-        <v>-31.0658016204834</v>
+        <v>-9.161710739135742</v>
       </c>
       <c r="F75" t="n">
-        <v>8.010359764099121</v>
+        <v>56.07273864746094</v>
       </c>
       <c r="G75" t="n">
-        <v>50.8820686340332</v>
+        <v>68.54354858398438</v>
       </c>
       <c r="H75" t="n">
-        <v>-62.98781204223633</v>
+        <v>-76.65213012695312</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.5287883162498475</v>
+        <v>0.374037321805954</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.709152903556824</v>
+        <v>2.212933001340775e+23</v>
       </c>
       <c r="C76" t="n">
-        <v>39.65171051025391</v>
+        <v>27.88750839233398</v>
       </c>
       <c r="D76" t="n">
-        <v>18.90999031066895</v>
+        <v>35.22087097167969</v>
       </c>
       <c r="E76" t="n">
-        <v>-31.08421325683594</v>
+        <v>-9.299429893493652</v>
       </c>
       <c r="F76" t="n">
-        <v>8.09208869934082</v>
+        <v>55.6793212890625</v>
       </c>
       <c r="G76" t="n">
-        <v>50.87256240844727</v>
+        <v>68.59077453613281</v>
       </c>
       <c r="H76" t="n">
-        <v>-63.10163879394531</v>
+        <v>-76.14832305908203</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.5295111376047135</v>
+        <v>0.3647418600320816</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.716393437385559</v>
+        <v>1.106466500670387e+23</v>
       </c>
       <c r="C77" t="n">
-        <v>39.64986038208008</v>
+        <v>28.25609016418457</v>
       </c>
       <c r="D77" t="n">
-        <v>18.93066787719727</v>
+        <v>35.00595092773438</v>
       </c>
       <c r="E77" t="n">
-        <v>-31.10210227966309</v>
+        <v>-9.448735237121582</v>
       </c>
       <c r="F77" t="n">
-        <v>8.171363830566406</v>
+        <v>55.30921936035156</v>
       </c>
       <c r="G77" t="n">
-        <v>50.86448287963867</v>
+        <v>68.60432434082031</v>
       </c>
       <c r="H77" t="n">
-        <v>-63.21333312988281</v>
+        <v>-75.70998382568359</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5299016273021698</v>
+        <v>0.3553935158252716</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.723422062397003</v>
+        <v>5.532332503351937e+22</v>
       </c>
       <c r="C78" t="n">
-        <v>39.64886093139648</v>
+        <v>28.62676811218262</v>
       </c>
       <c r="D78" t="n">
-        <v>18.95249366760254</v>
+        <v>34.7764892578125</v>
       </c>
       <c r="E78" t="n">
-        <v>-31.11958312988281</v>
+        <v>-9.613452911376953</v>
       </c>
       <c r="F78" t="n">
-        <v>8.248323440551758</v>
+        <v>54.93428039550781</v>
       </c>
       <c r="G78" t="n">
-        <v>50.85769271850586</v>
+        <v>68.60094451904297</v>
       </c>
       <c r="H78" t="n">
-        <v>-63.3229866027832</v>
+        <v>-75.30776214599609</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.53</v>
+        <v>0.3459080374240875</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.730249898433685</v>
+        <v>2.766166251675968e+22</v>
       </c>
       <c r="C79" t="n">
-        <v>39.64860916137695</v>
+        <v>29.00288391113281</v>
       </c>
       <c r="D79" t="n">
-        <v>18.97543334960938</v>
+        <v>34.52793502807617</v>
       </c>
       <c r="E79" t="n">
-        <v>-31.13675689697266</v>
+        <v>-9.791417121887207</v>
       </c>
       <c r="F79" t="n">
-        <v>8.323081016540527</v>
+        <v>54.54596328735352</v>
       </c>
       <c r="G79" t="n">
-        <v>50.85208511352539</v>
+        <v>68.59140014648438</v>
       </c>
       <c r="H79" t="n">
-        <v>-63.43052673339844</v>
+        <v>-74.92765045166016</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.5298285901546479</v>
+        <v>0.336345699429512</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.736887180805206</v>
+        <v>1.383083125837984e+22</v>
       </c>
       <c r="C80" t="n">
-        <v>39.6490478515625</v>
+        <v>29.38204765319824</v>
       </c>
       <c r="D80" t="n">
-        <v>18.99943542480469</v>
+        <v>34.26224517822266</v>
       </c>
       <c r="E80" t="n">
-        <v>-31.15373039245605</v>
+        <v>-9.978775024414062</v>
       </c>
       <c r="F80" t="n">
-        <v>8.395753860473633</v>
+        <v>54.14429473876953</v>
       </c>
       <c r="G80" t="n">
-        <v>50.84751129150391</v>
+        <v>68.58174896240234</v>
       </c>
       <c r="H80" t="n">
-        <v>-63.53599166870117</v>
+        <v>-74.56455993652344</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.5294142812490463</v>
+        <v>0.3268225336074829</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.743341112136841</v>
+        <v>6.915415629189921e+21</v>
       </c>
       <c r="C81" t="n">
-        <v>39.65010833740234</v>
+        <v>29.75965690612793</v>
       </c>
       <c r="D81" t="n">
-        <v>19.02446365356445</v>
+        <v>33.98402786254883</v>
       </c>
       <c r="E81" t="n">
-        <v>-31.17059898376465</v>
+        <v>-10.17160224914551</v>
       </c>
       <c r="F81" t="n">
-        <v>8.466418266296387</v>
+        <v>53.73288345336914</v>
       </c>
       <c r="G81" t="n">
-        <v>50.84387969970703</v>
+        <v>68.57436370849609</v>
       </c>
       <c r="H81" t="n">
-        <v>-63.63935852050781</v>
+        <v>-74.21875762939453</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.5287838304042817</v>
+        <v>0.3174323952198029</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.749619905948639</v>
+        <v>3.45770781459496e+21</v>
       </c>
       <c r="C82" t="n">
-        <v>39.6517219543457</v>
+        <v>30.13199234008789</v>
       </c>
       <c r="D82" t="n">
-        <v>19.05047225952148</v>
+        <v>33.69782638549805</v>
       </c>
       <c r="E82" t="n">
-        <v>-31.18743515014648</v>
+        <v>-10.36657810211182</v>
       </c>
       <c r="F82" t="n">
-        <v>8.535164833068848</v>
+        <v>53.31598663330078</v>
       </c>
       <c r="G82" t="n">
-        <v>50.8410530090332</v>
+        <v>68.57131958007812</v>
       </c>
       <c r="H82" t="n">
-        <v>-63.74061584472656</v>
+        <v>-73.88961029052734</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.5279581505060196</v>
+        <v>0.3082558399438858</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.755730512142182</v>
+        <v>1.72885390729748e+21</v>
       </c>
       <c r="C83" t="n">
-        <v>39.65383529663086</v>
+        <v>30.49585914611816</v>
       </c>
       <c r="D83" t="n">
-        <v>19.07741355895996</v>
+        <v>33.40707778930664</v>
       </c>
       <c r="E83" t="n">
-        <v>-31.20434379577637</v>
+        <v>-10.56171035766602</v>
       </c>
       <c r="F83" t="n">
-        <v>8.602070808410645</v>
+        <v>52.89560317993164</v>
       </c>
       <c r="G83" t="n">
-        <v>50.83892059326172</v>
+        <v>68.57314300537109</v>
       </c>
       <c r="H83" t="n">
-        <v>-63.83977508544922</v>
+        <v>-73.57478332519531</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.5269551217556</v>
+        <v>0.2993714332580567</v>
       </c>
       <c r="B84" t="n">
-        <v>4.224047206260961</v>
+        <v>8.644269536487401e+20</v>
       </c>
       <c r="C84" t="n">
-        <v>39.65640258789062</v>
+        <v>30.84814071655273</v>
       </c>
       <c r="D84" t="n">
-        <v>19.10524368286133</v>
+        <v>33.11162185668945</v>
       </c>
       <c r="E84" t="n">
-        <v>-31.22138214111328</v>
+        <v>-10.75929832458496</v>
       </c>
       <c r="F84" t="n">
-        <v>8.667191505432129</v>
+        <v>52.46448135375977</v>
       </c>
       <c r="G84" t="n">
-        <v>50.83737945556641</v>
+        <v>68.57676696777344</v>
       </c>
       <c r="H84" t="n">
-        <v>-63.93679046630859</v>
+        <v>-73.26659393310547</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.5257896232604981</v>
+        <v>0.2906968188285828</v>
       </c>
       <c r="B85" t="n">
-        <v>-12.79357071172143</v>
+        <v>4.322134768243701e+20</v>
       </c>
       <c r="C85" t="n">
-        <v>39.65938568115234</v>
+        <v>31.19210433959961</v>
       </c>
       <c r="D85" t="n">
-        <v>19.13392639160156</v>
+        <v>32.81640243530273</v>
       </c>
       <c r="E85" t="n">
-        <v>-31.23861122131348</v>
+        <v>-10.95551109313965</v>
       </c>
       <c r="F85" t="n">
-        <v>8.730591773986816</v>
+        <v>52.03483200073242</v>
       </c>
       <c r="G85" t="n">
-        <v>50.83632278442383</v>
+        <v>68.58469390869141</v>
       </c>
       <c r="H85" t="n">
-        <v>-64.03173065185547</v>
+        <v>-72.97203063964844</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.5307302870377255</v>
+        <v>0.6222255528942744</v>
       </c>
       <c r="B86" t="n">
-        <v>45.80219906813016</v>
+        <v>2.161067384121857e+20</v>
       </c>
       <c r="C86" t="n">
-        <v>39.66274261474609</v>
+        <v>31.52593803405762</v>
       </c>
       <c r="D86" t="n">
-        <v>19.16341590881348</v>
+        <v>32.52443695068359</v>
       </c>
       <c r="E86" t="n">
-        <v>-31.25609970092773</v>
+        <v>-11.14844131469727</v>
       </c>
       <c r="F86" t="n">
-        <v>8.792348861694336</v>
+        <v>51.61014938354492</v>
       </c>
       <c r="G86" t="n">
-        <v>50.83566665649414</v>
+        <v>68.59746551513672</v>
       </c>
       <c r="H86" t="n">
-        <v>-64.12457275390625</v>
+        <v>-72.69121551513672</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.5369047843436238</v>
+        <v>0.8045971373485247</v>
       </c>
       <c r="B87" t="n">
-        <v>-150.6160164780193</v>
+        <v>1.080533692060676e+20</v>
       </c>
       <c r="C87" t="n">
-        <v>39.66645812988281</v>
+        <v>31.84856605529785</v>
       </c>
       <c r="D87" t="n">
-        <v>19.19368171691895</v>
+        <v>32.23838806152344</v>
       </c>
       <c r="E87" t="n">
-        <v>-31.27387237548828</v>
+        <v>-11.33722591400146</v>
       </c>
       <c r="F87" t="n">
-        <v>8.852519989013672</v>
+        <v>51.19327163696289</v>
       </c>
       <c r="G87" t="n">
-        <v>50.83530044555664</v>
+        <v>68.61478424072266</v>
       </c>
       <c r="H87" t="n">
-        <v>-64.21536254882812</v>
+        <v>-72.42295074462891</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.5443797331298434</v>
+        <v>0.9018194933871665</v>
       </c>
       <c r="B88" t="n">
-        <v>512.6439468161275</v>
+        <v>5.40266846040018e+19</v>
       </c>
       <c r="C88" t="n">
-        <v>39.67050552368164</v>
+        <v>32.15950393676758</v>
       </c>
       <c r="D88" t="n">
-        <v>19.22467803955078</v>
+        <v>31.95976829528809</v>
       </c>
       <c r="E88" t="n">
-        <v>-31.29197883605957</v>
+        <v>-11.52101802825928</v>
       </c>
       <c r="F88" t="n">
-        <v>8.911189079284668</v>
+        <v>50.78611755371094</v>
       </c>
       <c r="G88" t="n">
-        <v>50.83518218994141</v>
+        <v>68.63642120361328</v>
       </c>
       <c r="H88" t="n">
-        <v>-64.30416107177734</v>
+        <v>-72.16571807861328</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.5531933542760423</v>
+        <v>0.9520648774696855</v>
       </c>
       <c r="B89" t="n">
-        <v>-1731.964417247836</v>
+        <v>2.701334226512848e+19</v>
       </c>
       <c r="C89" t="n">
-        <v>39.67485046386719</v>
+        <v>32.45828247070312</v>
       </c>
       <c r="D89" t="n">
-        <v>19.25639724731445</v>
+        <v>31.68936729431152</v>
       </c>
       <c r="E89" t="n">
-        <v>-31.31045150756836</v>
+        <v>-11.69889640808105</v>
       </c>
       <c r="F89" t="n">
-        <v>8.968411445617676</v>
+        <v>50.38993835449219</v>
       </c>
       <c r="G89" t="n">
-        <v>50.835205078125</v>
+        <v>68.66218566894531</v>
       </c>
       <c r="H89" t="n">
-        <v>-64.39100646972656</v>
+        <v>-71.91867828369141</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.5633618146226129</v>
+        <v>0.9772500079091653</v>
       </c>
       <c r="B90" t="n">
-        <v>5886.103064320867</v>
+        <v>1.350667252878001e+19</v>
       </c>
       <c r="C90" t="n">
-        <v>39.67948150634766</v>
+        <v>32.74482727050781</v>
       </c>
       <c r="D90" t="n">
-        <v>19.2888240814209</v>
+        <v>31.42819786071777</v>
       </c>
       <c r="E90" t="n">
-        <v>-31.32934188842773</v>
+        <v>-11.87058639526367</v>
       </c>
       <c r="F90" t="n">
-        <v>9.024215698242188</v>
+        <v>50.00583267211914</v>
       </c>
       <c r="G90" t="n">
-        <v>50.83526611328125</v>
+        <v>68.69166564941406</v>
       </c>
       <c r="H90" t="n">
-        <v>-64.47590637207031</v>
+        <v>-71.68040466308594</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.5748717450231293</v>
+        <v>0.9894999089882813</v>
       </c>
       <c r="B91" t="n">
-        <v>-20038.75131608755</v>
+        <v>6.753283697973535e+18</v>
       </c>
       <c r="C91" t="n">
-        <v>39.68436813354492</v>
+        <v>33.01922607421875</v>
       </c>
       <c r="D91" t="n">
-        <v>19.32195091247559</v>
+        <v>31.1768627166748</v>
       </c>
       <c r="E91" t="n">
-        <v>-31.34865379333496</v>
+        <v>-12.03582096099854</v>
       </c>
       <c r="F91" t="n">
-        <v>9.078658103942871</v>
+        <v>49.6343879699707</v>
       </c>
       <c r="G91" t="n">
-        <v>50.83533477783203</v>
+        <v>68.72459411621094</v>
       </c>
       <c r="H91" t="n">
-        <v>-64.55894470214844</v>
+        <v>-71.44937133789062</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.5876897904939036</v>
+        <v>0.9952848470510998</v>
       </c>
       <c r="B92" t="n">
-        <v>68418.08368676942</v>
+        <v>3.378609952656906e+18</v>
       </c>
       <c r="C92" t="n">
-        <v>39.68951034545898</v>
+        <v>33.28158950805664</v>
       </c>
       <c r="D92" t="n">
-        <v>19.35577964782715</v>
+        <v>30.93586730957031</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.36843872070312</v>
+        <v>-12.1945219039917</v>
       </c>
       <c r="F92" t="n">
-        <v>9.131809234619141</v>
+        <v>49.27604293823242</v>
       </c>
       <c r="G92" t="n">
-        <v>50.83532333374023</v>
+        <v>68.76063537597656</v>
       </c>
       <c r="H92" t="n">
-        <v>-64.64019012451172</v>
+        <v>-71.22414398193359</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.6017561763146847</v>
+        <v>0.9979388260252054</v>
       </c>
       <c r="B93" t="n">
-        <v>-234175.5348099843</v>
+        <v>1.616013579338198e+18</v>
       </c>
       <c r="C93" t="n">
-        <v>39.69488906860352</v>
+        <v>33.5320930480957</v>
       </c>
       <c r="D93" t="n">
-        <v>19.39030647277832</v>
+        <v>30.70551681518555</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.38870811462402</v>
+        <v>-12.34659385681152</v>
       </c>
       <c r="F93" t="n">
-        <v>9.183703422546387</v>
+        <v>48.93097305297852</v>
       </c>
       <c r="G93" t="n">
-        <v>50.83514404296875</v>
+        <v>68.79952239990234</v>
       </c>
       <c r="H93" t="n">
-        <v>-64.71974182128906</v>
+        <v>-71.00345611572266</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.6169900300690543</v>
+        <v>0.9991224076875155</v>
       </c>
       <c r="B94" t="n">
-        <v>803529.138978201</v>
+        <v>3.523215465805894e+18</v>
       </c>
       <c r="C94" t="n">
-        <v>39.70050048828125</v>
+        <v>33.77093887329102</v>
       </c>
       <c r="D94" t="n">
-        <v>19.42552947998047</v>
+        <v>30.48629951477051</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.40946388244629</v>
+        <v>-12.49218368530273</v>
       </c>
       <c r="F94" t="n">
-        <v>9.234406471252441</v>
+        <v>48.59938430786133</v>
       </c>
       <c r="G94" t="n">
-        <v>50.83477401733398</v>
+        <v>68.84092712402344</v>
       </c>
       <c r="H94" t="n">
-        <v>-64.79761505126953</v>
+        <v>-70.78597259521484</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.6333116551199065</v>
+        <v>0.9996358465974937</v>
       </c>
       <c r="B95" t="n">
-        <v>-2763843.856387171</v>
+        <v>-9.832557261767216e+19</v>
       </c>
       <c r="C95" t="n">
-        <v>39.70641708374023</v>
+        <v>33.99847412109375</v>
       </c>
       <c r="D95" t="n">
-        <v>19.46164131164551</v>
+        <v>30.27763557434082</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.43074989318848</v>
+        <v>-12.63131809234619</v>
       </c>
       <c r="F95" t="n">
-        <v>9.283971786499023</v>
+        <v>48.28081130981445</v>
       </c>
       <c r="G95" t="n">
-        <v>50.83391571044922</v>
+        <v>68.88483428955078</v>
       </c>
       <c r="H95" t="n">
-        <v>-64.87444305419922</v>
+        <v>-70.57056427001953</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.6506432759988037</v>
+        <v>0.9998526500690141</v>
       </c>
       <c r="B96" t="n">
-        <v>9529459.717457369</v>
+        <v>3.622479642131418e+21</v>
       </c>
       <c r="C96" t="n">
-        <v>39.71272659301758</v>
+        <v>34.21512222290039</v>
       </c>
       <c r="D96" t="n">
-        <v>19.49884414672852</v>
+        <v>30.07958984375</v>
       </c>
       <c r="E96" t="n">
-        <v>-31.45259284973145</v>
+        <v>-12.76382923126221</v>
       </c>
       <c r="F96" t="n">
-        <v>9.33253288269043</v>
+        <v>47.97508239746094</v>
       </c>
       <c r="G96" t="n">
-        <v>50.83230209350586</v>
+        <v>68.93095397949219</v>
       </c>
       <c r="H96" t="n">
-        <v>-64.95078277587891</v>
+        <v>-70.35662841796875</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.6689260257349254</v>
+        <v>0.9999418206158192</v>
       </c>
       <c r="B97" t="n">
-        <v>-32934195.42383236</v>
+        <v>-1.322579200083679e+23</v>
       </c>
       <c r="C97" t="n">
-        <v>39.71960067749023</v>
+        <v>34.42104721069336</v>
       </c>
       <c r="D97" t="n">
-        <v>19.53742980957031</v>
+        <v>29.89229393005371</v>
       </c>
       <c r="E97" t="n">
-        <v>-31.47495269775391</v>
+        <v>-12.88974285125732</v>
       </c>
       <c r="F97" t="n">
-        <v>9.380553245544434</v>
+        <v>47.68227386474609</v>
       </c>
       <c r="G97" t="n">
-        <v>50.82982635498047</v>
+        <v>68.97916412353516</v>
       </c>
       <c r="H97" t="n">
-        <v>-65.02747344970703</v>
+        <v>-70.1434326171875</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.6880330001558982</v>
+        <v>0.9999775686489516</v>
       </c>
       <c r="B98" t="n">
-        <v>114083977.725793</v>
+        <v>4.807653224364145e+24</v>
       </c>
       <c r="C98" t="n">
-        <v>39.72689819335938</v>
+        <v>34.61613845825195</v>
       </c>
       <c r="D98" t="n">
-        <v>19.57720565795898</v>
+        <v>29.71497917175293</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.49784088134766</v>
+        <v>-13.00861740112305</v>
       </c>
       <c r="F98" t="n">
-        <v>9.427899360656738</v>
+        <v>47.40196990966797</v>
       </c>
       <c r="G98" t="n">
-        <v>50.82665634155273</v>
+        <v>69.02947235107422</v>
       </c>
       <c r="H98" t="n">
-        <v>-65.10385894775391</v>
+        <v>-69.93101501464844</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.7077602348385401</v>
+        <v>0.9999915482547852</v>
       </c>
       <c r="B99" t="n">
-        <v>-396075465.7257171</v>
+        <v>-1.74018060188314e+26</v>
       </c>
       <c r="C99" t="n">
-        <v>39.73439025878906</v>
+        <v>34.80049133300781</v>
       </c>
       <c r="D99" t="n">
-        <v>19.61782455444336</v>
+        <v>29.54791641235352</v>
       </c>
       <c r="E99" t="n">
-        <v>-31.52127456665039</v>
+        <v>-13.12072467803955</v>
       </c>
       <c r="F99" t="n">
-        <v>9.474220275878906</v>
+        <v>47.13431930541992</v>
       </c>
       <c r="G99" t="n">
-        <v>50.82306289672852</v>
+        <v>69.08157348632812</v>
       </c>
       <c r="H99" t="n">
-        <v>-65.17891693115234</v>
+        <v>-69.71905517578125</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.7278934763297541</v>
+        <v>0.9999968854444498</v>
       </c>
       <c r="B100" t="n">
-        <v>1378112482.520337</v>
+        <v>6.273199690739515e+27</v>
       </c>
       <c r="C100" t="n">
-        <v>39.7420654296875</v>
+        <v>34.97433853149414</v>
       </c>
       <c r="D100" t="n">
-        <v>19.65929985046387</v>
+        <v>29.39035224914551</v>
       </c>
       <c r="E100" t="n">
-        <v>-31.54526710510254</v>
+        <v>-13.2257833480835</v>
       </c>
       <c r="F100" t="n">
-        <v>9.519565582275391</v>
+        <v>46.87892532348633</v>
       </c>
       <c r="G100" t="n">
-        <v>50.81900405883789</v>
+        <v>69.13544464111328</v>
       </c>
       <c r="H100" t="n">
-        <v>-65.25269317626953</v>
+        <v>-69.50798034667969</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7482144261036938</v>
+        <v>0.9999988764652088</v>
       </c>
       <c r="B101" t="n">
-        <v>-4805334010.491468</v>
+        <v>-2.252688501042677e+29</v>
       </c>
       <c r="C101" t="n">
-        <v>39.74991607666016</v>
+        <v>35.13770294189453</v>
       </c>
       <c r="D101" t="n">
-        <v>19.70162582397461</v>
+        <v>29.24239158630371</v>
       </c>
       <c r="E101" t="n">
-        <v>-31.5698070526123</v>
+        <v>-13.32395553588867</v>
       </c>
       <c r="F101" t="n">
-        <v>9.563974380493164</v>
+        <v>46.63605880737305</v>
       </c>
       <c r="G101" t="n">
-        <v>50.81446838378906</v>
+        <v>69.19075775146484</v>
       </c>
       <c r="H101" t="n">
-        <v>-65.32517242431641</v>
+        <v>-69.29795074462891</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7685039775942947</v>
+        <v>0.9999996028916357</v>
       </c>
       <c r="B102" t="n">
-        <v>16790859666.71891</v>
+        <v>8.059542911411421e+30</v>
       </c>
       <c r="C102" t="n">
-        <v>39.7579231262207</v>
+        <v>35.29093170166016</v>
       </c>
       <c r="D102" t="n">
-        <v>19.74477386474609</v>
+        <v>29.10373306274414</v>
       </c>
       <c r="E102" t="n">
-        <v>-31.59490776062012</v>
+        <v>-13.41524600982666</v>
       </c>
       <c r="F102" t="n">
-        <v>9.607481956481934</v>
+        <v>46.40560150146484</v>
       </c>
       <c r="G102" t="n">
-        <v>50.80947875976562</v>
+        <v>69.24740600585938</v>
       </c>
       <c r="H102" t="n">
-        <v>-65.39640045166016</v>
+        <v>-69.08891296386719</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7885503444398876</v>
+        <v>0.9999998623600387</v>
       </c>
       <c r="B103" t="n">
-        <v>8395429832.431829</v>
+        <v>4.02977145570571e+30</v>
       </c>
       <c r="C103" t="n">
-        <v>39.76607894897461</v>
+        <v>35.43467712402344</v>
       </c>
       <c r="D103" t="n">
-        <v>19.78871536254883</v>
+        <v>28.97352027893066</v>
       </c>
       <c r="E103" t="n">
-        <v>-31.62056350708008</v>
+        <v>-13.49993324279785</v>
       </c>
       <c r="F103" t="n">
-        <v>9.65007209777832</v>
+        <v>46.18692779541016</v>
       </c>
       <c r="G103" t="n">
-        <v>50.80399703979492</v>
+        <v>69.30542755126953</v>
       </c>
       <c r="H103" t="n">
-        <v>-65.46628570556641</v>
+        <v>-68.88182067871094</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4808675760030747</v>
+        <v>0.180302591919899</v>
       </c>
       <c r="B104" t="n">
-        <v>4197714915.286424</v>
+        <v>2.014885727852855e+30</v>
       </c>
       <c r="C104" t="n">
-        <v>39.77436447143555</v>
+        <v>35.56942749023438</v>
       </c>
       <c r="D104" t="n">
-        <v>19.83341979980469</v>
+        <v>28.85149002075195</v>
       </c>
       <c r="E104" t="n">
-        <v>-31.64677429199219</v>
+        <v>-13.57830047607422</v>
       </c>
       <c r="F104" t="n">
-        <v>9.691773414611816</v>
+        <v>45.97989654541016</v>
       </c>
       <c r="G104" t="n">
-        <v>50.79803466796875</v>
+        <v>69.36461639404297</v>
       </c>
       <c r="H104" t="n">
-        <v>-65.5347900390625</v>
+        <v>-68.67732238769531</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4775752812623978</v>
+        <v>0.177121858894825</v>
       </c>
       <c r="B105" t="n">
-        <v>2098857456.711898</v>
+        <v>1.007442863926428e+30</v>
       </c>
       <c r="C105" t="n">
-        <v>39.78279113769531</v>
+        <v>35.69554901123047</v>
       </c>
       <c r="D105" t="n">
-        <v>19.87885856628418</v>
+        <v>28.73692321777344</v>
       </c>
       <c r="E105" t="n">
-        <v>-31.67354393005371</v>
+        <v>-13.65047168731689</v>
       </c>
       <c r="F105" t="n">
-        <v>9.732580184936523</v>
+        <v>45.78403091430664</v>
       </c>
       <c r="G105" t="n">
-        <v>50.79157257080078</v>
+        <v>69.42488098144531</v>
       </c>
       <c r="H105" t="n">
-        <v>-65.6019287109375</v>
+        <v>-68.47630310058594</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.4742323470115662</v>
+        <v>0.1741464322805405</v>
       </c>
       <c r="B106" t="n">
-        <v>1049428727.422854</v>
+        <v>5.037214319632138e+29</v>
       </c>
       <c r="C106" t="n">
-        <v>39.79134750366211</v>
+        <v>35.81352996826172</v>
       </c>
       <c r="D106" t="n">
-        <v>19.92499923706055</v>
+        <v>28.62961578369141</v>
       </c>
       <c r="E106" t="n">
-        <v>-31.70085716247559</v>
+        <v>-13.71684265136719</v>
       </c>
       <c r="F106" t="n">
-        <v>9.772489547729492</v>
+        <v>45.59925079345703</v>
       </c>
       <c r="G106" t="n">
-        <v>50.78462219238281</v>
+        <v>69.48606872558594</v>
       </c>
       <c r="H106" t="n">
-        <v>-65.66768646240234</v>
+        <v>-68.27890777587891</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4708342242240906</v>
+        <v>0.1713651448488236</v>
       </c>
       <c r="B107" t="n">
-        <v>524714362.7765928</v>
+        <v>2.518607159816069e+29</v>
       </c>
       <c r="C107" t="n">
-        <v>39.80004501342773</v>
+        <v>35.92381286621094</v>
       </c>
       <c r="D107" t="n">
-        <v>19.97179985046387</v>
+        <v>28.52882766723633</v>
       </c>
       <c r="E107" t="n">
-        <v>-31.72871589660645</v>
+        <v>-13.77761745452881</v>
       </c>
       <c r="F107" t="n">
-        <v>9.811494827270508</v>
+        <v>45.42508316040039</v>
       </c>
       <c r="G107" t="n">
-        <v>50.77717971801758</v>
+        <v>69.54795837402344</v>
       </c>
       <c r="H107" t="n">
-        <v>-65.73197937011719</v>
+        <v>-68.08591461181641</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4673839455842972</v>
+        <v>0.1687700200080872</v>
       </c>
       <c r="B108" t="n">
-        <v>262357180.4517647</v>
+        <v>1.259303579908034e+29</v>
       </c>
       <c r="C108" t="n">
-        <v>39.80887603759766</v>
+        <v>36.02671432495117</v>
       </c>
       <c r="D108" t="n">
-        <v>20.01922225952148</v>
+        <v>28.4345817565918</v>
       </c>
       <c r="E108" t="n">
-        <v>-31.75708961486816</v>
+        <v>-13.83327484130859</v>
       </c>
       <c r="F108" t="n">
-        <v>9.849589347839355</v>
+        <v>45.26143264770508</v>
       </c>
       <c r="G108" t="n">
-        <v>50.76925659179688</v>
+        <v>69.61029815673828</v>
       </c>
       <c r="H108" t="n">
-        <v>-65.79476928710938</v>
+        <v>-67.89754486083984</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4638785415887833</v>
+        <v>0.1663516122102738</v>
       </c>
       <c r="B109" t="n">
-        <v>131178589.2876958</v>
+        <v>6.296517899540172e+28</v>
       </c>
       <c r="C109" t="n">
-        <v>39.81784820556641</v>
+        <v>36.12260818481445</v>
       </c>
       <c r="D109" t="n">
-        <v>20.06723022460938</v>
+        <v>28.34608459472656</v>
       </c>
       <c r="E109" t="n">
-        <v>-31.78598403930664</v>
+        <v>-13.88389492034912</v>
       </c>
       <c r="F109" t="n">
-        <v>9.88675594329834</v>
+        <v>45.10776138305664</v>
       </c>
       <c r="G109" t="n">
-        <v>50.7608528137207</v>
+        <v>69.67296600341797</v>
       </c>
       <c r="H109" t="n">
-        <v>-65.85602569580078</v>
+        <v>-67.71459197998047</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.460313526391983</v>
+        <v>0.1641021502017975</v>
       </c>
       <c r="B110" t="n">
-        <v>65589293.70404987</v>
+        <v>3.148258949770086e+28</v>
       </c>
       <c r="C110" t="n">
-        <v>39.82697296142578</v>
+        <v>36.2118034362793</v>
       </c>
       <c r="D110" t="n">
-        <v>20.11577415466309</v>
+        <v>28.26360702514648</v>
       </c>
       <c r="E110" t="n">
-        <v>-31.81535530090332</v>
+        <v>-13.93001651763916</v>
       </c>
       <c r="F110" t="n">
-        <v>9.922995567321777</v>
+        <v>44.96411514282227</v>
       </c>
       <c r="G110" t="n">
-        <v>50.75198745727539</v>
+        <v>69.73558044433594</v>
       </c>
       <c r="H110" t="n">
-        <v>-65.91569519042969</v>
+        <v>-67.53709411621094</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4566903531551361</v>
+        <v>0.16201381534338</v>
       </c>
       <c r="B111" t="n">
-        <v>32794645.91065919</v>
+        <v>1.574129474885043e+28</v>
       </c>
       <c r="C111" t="n">
-        <v>39.83624649047852</v>
+        <v>36.29460906982422</v>
       </c>
       <c r="D111" t="n">
-        <v>20.16480445861816</v>
+        <v>28.18628120422363</v>
       </c>
       <c r="E111" t="n">
-        <v>-31.84519577026367</v>
+        <v>-13.97171306610107</v>
       </c>
       <c r="F111" t="n">
-        <v>9.958282470703125</v>
+        <v>44.82976531982422</v>
       </c>
       <c r="G111" t="n">
-        <v>50.74269104003906</v>
+        <v>69.79807281494141</v>
       </c>
       <c r="H111" t="n">
-        <v>-65.97372436523438</v>
+        <v>-67.36566162109375</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.4529986602067947</v>
+        <v>0.1600766408443451</v>
       </c>
       <c r="B112" t="n">
-        <v>16397322.01244125</v>
+        <v>7.870647374425215e+27</v>
       </c>
       <c r="C112" t="n">
-        <v>39.84569549560547</v>
+        <v>36.37142181396484</v>
       </c>
       <c r="D112" t="n">
-        <v>20.21427726745605</v>
+        <v>28.11436080932617</v>
       </c>
       <c r="E112" t="n">
-        <v>-31.87546348571777</v>
+        <v>-14.0095157623291</v>
       </c>
       <c r="F112" t="n">
-        <v>9.992613792419434</v>
+        <v>44.7046012878418</v>
       </c>
       <c r="G112" t="n">
-        <v>50.73297500610352</v>
+        <v>69.86015319824219</v>
       </c>
       <c r="H112" t="n">
-        <v>-66.03010559082031</v>
+        <v>-67.20004272460938</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.4492398691177368</v>
+        <v>0.1582838505506516</v>
       </c>
       <c r="B113" t="n">
-        <v>8198660.06185435</v>
+        <v>3.935323687212608e+27</v>
       </c>
       <c r="C113" t="n">
-        <v>39.85531616210938</v>
+        <v>36.44250869750977</v>
       </c>
       <c r="D113" t="n">
-        <v>20.26413154602051</v>
+        <v>28.04714965820312</v>
       </c>
       <c r="E113" t="n">
-        <v>-31.90614891052246</v>
+        <v>-14.04345893859863</v>
       </c>
       <c r="F113" t="n">
-        <v>10.02595710754395</v>
+        <v>44.58805465698242</v>
       </c>
       <c r="G113" t="n">
-        <v>50.72286605834961</v>
+        <v>69.92166900634766</v>
       </c>
       <c r="H113" t="n">
-        <v>-66.08474731445312</v>
+        <v>-67.04067230224609</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.44540955722332</v>
+        <v>0.1566323012113571</v>
       </c>
       <c r="B114" t="n">
-        <v>4099329.085129032</v>
+        <v>1.967661843606304e+27</v>
       </c>
       <c r="C114" t="n">
-        <v>39.86511993408203</v>
+        <v>36.50799560546875</v>
       </c>
       <c r="D114" t="n">
-        <v>20.3143138885498</v>
+        <v>27.98498725891113</v>
       </c>
       <c r="E114" t="n">
-        <v>-31.93720054626465</v>
+        <v>-14.07406902313232</v>
       </c>
       <c r="F114" t="n">
-        <v>10.05831909179688</v>
+        <v>44.48013305664062</v>
       </c>
       <c r="G114" t="n">
-        <v>50.71240615844727</v>
+        <v>69.98222351074219</v>
       </c>
       <c r="H114" t="n">
-        <v>-66.13763427734375</v>
+        <v>-66.88768005371094</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4415047234296799</v>
+        <v>0.1551141899824142</v>
       </c>
       <c r="B115" t="n">
-        <v>2049663.595380499</v>
+        <v>9.838309218031519e+26</v>
       </c>
       <c r="C115" t="n">
-        <v>39.87511444091797</v>
+        <v>36.56819152832031</v>
       </c>
       <c r="D115" t="n">
-        <v>20.36476707458496</v>
+        <v>27.92741394042969</v>
       </c>
       <c r="E115" t="n">
-        <v>-31.96857833862305</v>
+        <v>-14.10165309906006</v>
       </c>
       <c r="F115" t="n">
-        <v>10.089674949646</v>
+        <v>44.38043975830078</v>
       </c>
       <c r="G115" t="n">
-        <v>50.70163345336914</v>
+        <v>70.04155731201172</v>
       </c>
       <c r="H115" t="n">
-        <v>-66.18868255615234</v>
+        <v>-66.74104309082031</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4375193971395493</v>
+        <v>0.1537196922302246</v>
       </c>
       <c r="B116" t="n">
-        <v>1024830.849167366</v>
+        <v>4.91915460901576e+26</v>
       </c>
       <c r="C116" t="n">
-        <v>39.88531494140625</v>
+        <v>36.62348556518555</v>
       </c>
       <c r="D116" t="n">
-        <v>20.41543197631836</v>
+        <v>27.87422752380371</v>
       </c>
       <c r="E116" t="n">
-        <v>-32.00025177001953</v>
+        <v>-14.12634468078613</v>
       </c>
       <c r="F116" t="n">
-        <v>10.12002277374268</v>
+        <v>44.28844451904297</v>
       </c>
       <c r="G116" t="n">
-        <v>50.69057464599609</v>
+        <v>70.09962463378906</v>
       </c>
       <c r="H116" t="n">
-        <v>-66.2379150390625</v>
+        <v>-66.60075378417969</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4334520936012268</v>
+        <v>0.1524379566311836</v>
       </c>
       <c r="B117" t="n">
-        <v>512414.4747690022</v>
+        <v>2.45957730450788e+26</v>
       </c>
       <c r="C117" t="n">
-        <v>39.89572525024414</v>
+        <v>36.67430877685547</v>
       </c>
       <c r="D117" t="n">
-        <v>20.46624565124512</v>
+        <v>27.82536125183105</v>
       </c>
       <c r="E117" t="n">
-        <v>-32.03218460083008</v>
+        <v>-14.14816570281982</v>
       </c>
       <c r="F117" t="n">
-        <v>10.14934253692627</v>
+        <v>44.20362091064453</v>
       </c>
       <c r="G117" t="n">
-        <v>50.67928314208984</v>
+        <v>70.15654754638672</v>
       </c>
       <c r="H117" t="n">
-        <v>-66.28523254394531</v>
+        <v>-66.46619415283203</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4292983585596085</v>
+        <v>0.1512492391467095</v>
       </c>
       <c r="B118" t="n">
-        <v>256206.2863250297</v>
+        <v>1.22978865225394e+26</v>
       </c>
       <c r="C118" t="n">
-        <v>39.90635681152344</v>
+        <v>36.72144317626953</v>
       </c>
       <c r="D118" t="n">
-        <v>20.51714706420898</v>
+        <v>27.77992057800293</v>
       </c>
       <c r="E118" t="n">
-        <v>-32.06430816650391</v>
+        <v>-14.16719722747803</v>
       </c>
       <c r="F118" t="n">
-        <v>10.17763042449951</v>
+        <v>44.12492370605469</v>
       </c>
       <c r="G118" t="n">
-        <v>50.66780853271484</v>
+        <v>70.21237945556641</v>
       </c>
       <c r="H118" t="n">
-        <v>-66.33062744140625</v>
+        <v>-66.33716583251953</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.4250566756725311</v>
+        <v>0.1501258665323258</v>
       </c>
       <c r="B119" t="n">
-        <v>128102.1909061441</v>
+        <v>6.1489432612697e+25</v>
       </c>
       <c r="C119" t="n">
-        <v>39.91721343994141</v>
+        <v>36.76598739624023</v>
       </c>
       <c r="D119" t="n">
-        <v>20.56805038452148</v>
+        <v>27.73710060119629</v>
       </c>
       <c r="E119" t="n">
-        <v>-32.09658432006836</v>
+        <v>-14.18370532989502</v>
       </c>
       <c r="F119" t="n">
-        <v>10.20488739013672</v>
+        <v>44.0511360168457</v>
       </c>
       <c r="G119" t="n">
-        <v>50.65621948242188</v>
+        <v>70.26744079589844</v>
       </c>
       <c r="H119" t="n">
-        <v>-66.37405395507812</v>
+        <v>-66.21230316162109</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4207270765304565</v>
+        <v>0.1490538442134857</v>
       </c>
       <c r="B120" t="n">
-        <v>64050.14204712435</v>
+        <v>3.07447163063485e+25</v>
       </c>
       <c r="C120" t="n">
-        <v>39.92829513549805</v>
+        <v>36.80849456787109</v>
       </c>
       <c r="D120" t="n">
-        <v>20.61891174316406</v>
+        <v>27.6963062286377</v>
       </c>
       <c r="E120" t="n">
-        <v>-32.12896728515625</v>
+        <v>-14.1978874206543</v>
       </c>
       <c r="F120" t="n">
-        <v>10.23110008239746</v>
+        <v>43.98112869262695</v>
       </c>
       <c r="G120" t="n">
-        <v>50.64453125</v>
+        <v>70.32186889648438</v>
       </c>
       <c r="H120" t="n">
-        <v>-66.41542816162109</v>
+        <v>-66.09098815917969</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4163065600395203</v>
+        <v>0.148022526204586</v>
       </c>
       <c r="B121" t="n">
-        <v>32024.11651592873</v>
+        <v>1.537235815317425e+25</v>
       </c>
       <c r="C121" t="n">
-        <v>39.93960952758789</v>
+        <v>36.84938812255859</v>
       </c>
       <c r="D121" t="n">
-        <v>20.6696662902832</v>
+        <v>27.6573657989502</v>
       </c>
       <c r="E121" t="n">
-        <v>-32.16139984130859</v>
+        <v>-14.21006679534912</v>
       </c>
       <c r="F121" t="n">
-        <v>10.25627326965332</v>
+        <v>43.91380310058594</v>
       </c>
       <c r="G121" t="n">
-        <v>50.63282775878906</v>
+        <v>70.37576293945312</v>
       </c>
       <c r="H121" t="n">
-        <v>-66.45482635498047</v>
+        <v>-65.97235107421875</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4117966425418854</v>
+        <v>0.1470262262225151</v>
       </c>
       <c r="B122" t="n">
-        <v>16011.10269609403</v>
+        <v>7.686179076587124e+24</v>
       </c>
       <c r="C122" t="n">
-        <v>39.95115280151367</v>
+        <v>36.88889312744141</v>
       </c>
       <c r="D122" t="n">
-        <v>20.72024917602539</v>
+        <v>27.62003135681152</v>
       </c>
       <c r="E122" t="n">
-        <v>-32.19382476806641</v>
+        <v>-14.22069931030273</v>
       </c>
       <c r="F122" t="n">
-        <v>10.28039646148682</v>
+        <v>43.84786987304688</v>
       </c>
       <c r="G122" t="n">
-        <v>50.62113189697266</v>
+        <v>70.42913055419922</v>
       </c>
       <c r="H122" t="n">
-        <v>-66.49216461181641</v>
+        <v>-65.85530853271484</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4071957761049271</v>
+        <v>0.1460662868618965</v>
       </c>
       <c r="B123" t="n">
-        <v>8004.594779135938</v>
+        <v>3.843089538293562e+24</v>
       </c>
       <c r="C123" t="n">
-        <v>39.96292877197266</v>
+        <v>36.92695617675781</v>
       </c>
       <c r="D123" t="n">
-        <v>20.77059936523438</v>
+        <v>27.5842456817627</v>
       </c>
       <c r="E123" t="n">
-        <v>-32.22618865966797</v>
+        <v>-14.23036575317383</v>
       </c>
       <c r="F123" t="n">
-        <v>10.3034839630127</v>
+        <v>43.78243637084961</v>
       </c>
       <c r="G123" t="n">
-        <v>50.6095085144043</v>
+        <v>70.48163604736328</v>
       </c>
       <c r="H123" t="n">
-        <v>-66.52747344970703</v>
+        <v>-65.73928833007812</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4025069934129715</v>
+        <v>0.1451399439573288</v>
       </c>
       <c r="B124" t="n">
-        <v>4001.339860054133</v>
+        <v>1.921544769146781e+24</v>
       </c>
       <c r="C124" t="n">
-        <v>39.97492980957031</v>
+        <v>36.96368789672852</v>
       </c>
       <c r="D124" t="n">
-        <v>20.82065200805664</v>
+        <v>27.54991149902344</v>
       </c>
       <c r="E124" t="n">
-        <v>-32.2584342956543</v>
+        <v>-14.23947811126709</v>
       </c>
       <c r="F124" t="n">
-        <v>10.32553577423096</v>
+        <v>43.71731567382812</v>
       </c>
       <c r="G124" t="n">
-        <v>50.59801864624023</v>
+        <v>70.53297424316406</v>
       </c>
       <c r="H124" t="n">
-        <v>-66.5606689453125</v>
+        <v>-65.62421417236328</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3977332323789597</v>
+        <v>0.1442511937022209</v>
       </c>
       <c r="B125" t="n">
-        <v>1999.711486158906</v>
+        <v>9.607723845733906e+23</v>
       </c>
       <c r="C125" t="n">
-        <v>39.98714828491211</v>
+        <v>36.99892807006836</v>
       </c>
       <c r="D125" t="n">
-        <v>20.8703498840332</v>
+        <v>27.5170955657959</v>
       </c>
       <c r="E125" t="n">
-        <v>-32.29051208496094</v>
+        <v>-14.24806118011475</v>
       </c>
       <c r="F125" t="n">
-        <v>10.34657096862793</v>
+        <v>43.65336990356445</v>
       </c>
       <c r="G125" t="n">
-        <v>50.58671951293945</v>
+        <v>70.58286285400391</v>
       </c>
       <c r="H125" t="n">
-        <v>-66.59183502197266</v>
+        <v>-65.51112365722656</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.3928775256872177</v>
+        <v>0.1433966085314751</v>
       </c>
       <c r="B126" t="n">
-        <v>998.8964302208715</v>
+        <v>4.803861922866953e+23</v>
       </c>
       <c r="C126" t="n">
-        <v>39.99957656860352</v>
+        <v>37.03281402587891</v>
       </c>
       <c r="D126" t="n">
-        <v>20.91963386535645</v>
+        <v>27.48570251464844</v>
       </c>
       <c r="E126" t="n">
-        <v>-32.32236480712891</v>
+        <v>-14.25611686706543</v>
       </c>
       <c r="F126" t="n">
-        <v>10.36659336090088</v>
+        <v>43.59122085571289</v>
       </c>
       <c r="G126" t="n">
-        <v>50.57565307617188</v>
+        <v>70.63117980957031</v>
       </c>
       <c r="H126" t="n">
-        <v>-66.62089538574219</v>
+        <v>-65.40087127685547</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.387939841747284</v>
+        <v>0.1425739613175392</v>
       </c>
       <c r="B127" t="n">
-        <v>498.4880776776221</v>
+        <v>2.401930961433476e+23</v>
       </c>
       <c r="C127" t="n">
-        <v>40.01221466064453</v>
+        <v>37.06543350219727</v>
       </c>
       <c r="D127" t="n">
-        <v>20.96844863891602</v>
+        <v>27.45561981201172</v>
       </c>
       <c r="E127" t="n">
-        <v>-32.35392379760742</v>
+        <v>-14.26367092132568</v>
       </c>
       <c r="F127" t="n">
-        <v>10.38562297821045</v>
+        <v>43.53114700317383</v>
       </c>
       <c r="G127" t="n">
-        <v>50.56488037109375</v>
+        <v>70.67782592773438</v>
       </c>
       <c r="H127" t="n">
-        <v>-66.64792633056641</v>
+        <v>-65.29390716552734</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.3829365760087967</v>
+        <v>0.1417798718810082</v>
       </c>
       <c r="B128" t="n">
-        <v>248.2831206161453</v>
+        <v>1.200965480716738e+23</v>
       </c>
       <c r="C128" t="n">
-        <v>40.02502059936523</v>
+        <v>37.09692001342773</v>
       </c>
       <c r="D128" t="n">
-        <v>21.01674270629883</v>
+        <v>27.4267520904541</v>
       </c>
       <c r="E128" t="n">
-        <v>-32.38515472412109</v>
+        <v>-14.27082633972168</v>
       </c>
       <c r="F128" t="n">
-        <v>10.40367889404297</v>
+        <v>43.47311782836914</v>
       </c>
       <c r="G128" t="n">
-        <v>50.55442810058594</v>
+        <v>70.72282409667969</v>
       </c>
       <c r="H128" t="n">
-        <v>-66.67283630371094</v>
+        <v>-65.19034576416016</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.3778632742166519</v>
+        <v>0.1410083064436913</v>
       </c>
       <c r="B129" t="n">
-        <v>123.1799038794971</v>
+        <v>6.004827403583691e+22</v>
       </c>
       <c r="C129" t="n">
-        <v>40.03800582885742</v>
+        <v>37.12751388549805</v>
       </c>
       <c r="D129" t="n">
-        <v>21.0644645690918</v>
+        <v>27.39885711669922</v>
       </c>
       <c r="E129" t="n">
-        <v>-32.41598129272461</v>
+        <v>-14.27769756317139</v>
       </c>
       <c r="F129" t="n">
-        <v>10.42077732086182</v>
+        <v>43.41686248779297</v>
       </c>
       <c r="G129" t="n">
-        <v>50.54439926147461</v>
+        <v>70.76615905761719</v>
       </c>
       <c r="H129" t="n">
-        <v>-66.69573211669922</v>
+        <v>-65.08993530273438</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.3727318459749222</v>
+        <v>0.1402577170729637</v>
       </c>
       <c r="B130" t="n">
-        <v>60.6275990046728</v>
+        <v>3.002413701791846e+22</v>
       </c>
       <c r="C130" t="n">
-        <v>40.05113983154297</v>
+        <v>37.15727615356445</v>
       </c>
       <c r="D130" t="n">
-        <v>21.1115665435791</v>
+        <v>27.37187004089355</v>
       </c>
       <c r="E130" t="n">
-        <v>-32.44637680053711</v>
+        <v>-14.28437900543213</v>
       </c>
       <c r="F130" t="n">
-        <v>10.4369421005249</v>
+        <v>43.36223983764648</v>
       </c>
       <c r="G130" t="n">
-        <v>50.53479766845703</v>
+        <v>70.807861328125</v>
       </c>
       <c r="H130" t="n">
-        <v>-66.71659088134766</v>
+        <v>-64.99266052246094</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.3675512313842774</v>
+        <v>0.1395281037688255</v>
       </c>
       <c r="B131" t="n">
-        <v>29.35078954883756</v>
+        <v>1.501206850895923e+22</v>
       </c>
       <c r="C131" t="n">
-        <v>40.06439971923828</v>
+        <v>37.18620681762695</v>
       </c>
       <c r="D131" t="n">
-        <v>21.15800666809082</v>
+        <v>27.34572601318359</v>
       </c>
       <c r="E131" t="n">
-        <v>-32.47627639770508</v>
+        <v>-14.29093647003174</v>
       </c>
       <c r="F131" t="n">
-        <v>10.45219612121582</v>
+        <v>43.30915451049805</v>
       </c>
       <c r="G131" t="n">
-        <v>50.52567291259766</v>
+        <v>70.84788513183594</v>
       </c>
       <c r="H131" t="n">
-        <v>-66.73541259765625</v>
+        <v>-64.89846801757812</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.3623318552970887</v>
+        <v>0.1388159915804863</v>
       </c>
       <c r="B132" t="n">
-        <v>13.71176754329772</v>
+        <v>7.506034254479614e+21</v>
       </c>
       <c r="C132" t="n">
-        <v>40.0777587890625</v>
+        <v>37.21444320678711</v>
       </c>
       <c r="D132" t="n">
-        <v>21.20374488830566</v>
+        <v>27.3203067779541</v>
       </c>
       <c r="E132" t="n">
-        <v>-32.50564575195312</v>
+        <v>-14.29745769500732</v>
       </c>
       <c r="F132" t="n">
-        <v>10.46658229827881</v>
+        <v>43.25739669799805</v>
       </c>
       <c r="G132" t="n">
-        <v>50.51707077026367</v>
+        <v>70.88621520996094</v>
       </c>
       <c r="H132" t="n">
-        <v>-66.75229644775391</v>
+        <v>-64.80734252929688</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.3570767188072205</v>
+        <v>0.1381212067604065</v>
       </c>
       <c r="B133" t="n">
-        <v>5.891676413288568</v>
+        <v>3.753017127239807e+21</v>
       </c>
       <c r="C133" t="n">
-        <v>40.09120941162109</v>
+        <v>37.24199295043945</v>
       </c>
       <c r="D133" t="n">
-        <v>21.24874114990234</v>
+        <v>27.29557609558105</v>
       </c>
       <c r="E133" t="n">
-        <v>-32.53442001342773</v>
+        <v>-14.30401420593262</v>
       </c>
       <c r="F133" t="n">
-        <v>10.48009967803955</v>
+        <v>43.20690155029297</v>
       </c>
       <c r="G133" t="n">
-        <v>50.50901031494141</v>
+        <v>70.92282867431641</v>
       </c>
       <c r="H133" t="n">
-        <v>-66.76718139648438</v>
+        <v>-64.71931457519531</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3517992162704468</v>
+        <v>0.1374359306693077</v>
       </c>
       <c r="B134" t="n">
-        <v>1.98108711325668</v>
+        <v>1.876508563619903e+21</v>
       </c>
       <c r="C134" t="n">
-        <v>40.10471725463867</v>
+        <v>37.2691650390625</v>
       </c>
       <c r="D134" t="n">
-        <v>21.29296875</v>
+        <v>27.2712516784668</v>
       </c>
       <c r="E134" t="n">
-        <v>-32.56259155273438</v>
+        <v>-14.31069660186768</v>
       </c>
       <c r="F134" t="n">
-        <v>10.4928035736084</v>
+        <v>43.15734481811523</v>
       </c>
       <c r="G134" t="n">
-        <v>50.50154876708984</v>
+        <v>70.95789337158203</v>
       </c>
       <c r="H134" t="n">
-        <v>-66.78019714355469</v>
+        <v>-64.63400268554688</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.3465127736330033</v>
+        <v>0.136764033138752</v>
       </c>
       <c r="B135" t="n">
-        <v>6.825884824912996</v>
+        <v>9.382542818099517e+20</v>
       </c>
       <c r="C135" t="n">
-        <v>40.11824798583984</v>
+        <v>37.29580688476562</v>
       </c>
       <c r="D135" t="n">
-        <v>21.33638954162598</v>
+        <v>27.24747085571289</v>
       </c>
       <c r="E135" t="n">
-        <v>-32.59009170532227</v>
+        <v>-14.31750011444092</v>
       </c>
       <c r="F135" t="n">
-        <v>10.50471019744873</v>
+        <v>43.10886764526367</v>
       </c>
       <c r="G135" t="n">
-        <v>50.49472045898438</v>
+        <v>70.99136352539062</v>
       </c>
       <c r="H135" t="n">
-        <v>-66.79130554199219</v>
+        <v>-64.55152130126953</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.341223361492157</v>
+        <v>0.1361125430464745</v>
       </c>
       <c r="B136" t="n">
-        <v>-15.53055634706918</v>
+        <v>4.691271409049759e+20</v>
       </c>
       <c r="C136" t="n">
-        <v>40.13178634643555</v>
+        <v>37.32164001464844</v>
       </c>
       <c r="D136" t="n">
-        <v>21.37898445129395</v>
+        <v>27.22445487976074</v>
       </c>
       <c r="E136" t="n">
-        <v>-32.61690521240234</v>
+        <v>-14.32439136505127</v>
       </c>
       <c r="F136" t="n">
-        <v>10.5158519744873</v>
+        <v>43.06169509887695</v>
       </c>
       <c r="G136" t="n">
-        <v>50.48849868774414</v>
+        <v>71.02313995361328</v>
       </c>
       <c r="H136" t="n">
-        <v>-66.80057525634766</v>
+        <v>-64.4720458984375</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.5824277558107551</v>
+        <v>0.7791719245097245</v>
       </c>
       <c r="B137" t="n">
-        <v>63.62486912155361</v>
+        <v>2.345635704524883e+20</v>
       </c>
       <c r="C137" t="n">
-        <v>40.14529418945312</v>
+        <v>37.34674835205078</v>
       </c>
       <c r="D137" t="n">
-        <v>21.42072677612305</v>
+        <v>27.2021427154541</v>
       </c>
       <c r="E137" t="n">
-        <v>-32.64299392700195</v>
+        <v>-14.33139133453369</v>
       </c>
       <c r="F137" t="n">
-        <v>10.5262622833252</v>
+        <v>43.01573944091797</v>
       </c>
       <c r="G137" t="n">
-        <v>50.48294830322266</v>
+        <v>71.05335235595703</v>
       </c>
       <c r="H137" t="n">
-        <v>-66.80805206298828</v>
+        <v>-64.39539337158203</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7394591559834942</v>
+        <v>0.9438079701261025</v>
       </c>
       <c r="B138" t="n">
-        <v>-226.2602269667984</v>
+        <v>1.172817852262317e+20</v>
       </c>
       <c r="C138" t="n">
-        <v>40.15874862670898</v>
+        <v>37.37114334106445</v>
       </c>
       <c r="D138" t="n">
-        <v>21.46159744262695</v>
+        <v>27.1805534362793</v>
       </c>
       <c r="E138" t="n">
-        <v>-32.66833877563477</v>
+        <v>-14.33853530883789</v>
       </c>
       <c r="F138" t="n">
-        <v>10.53596496582031</v>
+        <v>42.97099685668945</v>
       </c>
       <c r="G138" t="n">
-        <v>50.47806930541992</v>
+        <v>71.08196258544922</v>
       </c>
       <c r="H138" t="n">
-        <v>-66.81381225585938</v>
+        <v>-64.32158660888672</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.8400063376416287</v>
+        <v>0.9857649323993111</v>
       </c>
       <c r="B139" t="n">
-        <v>830.8904607846914</v>
+        <v>5.864089261353646e+19</v>
       </c>
       <c r="C139" t="n">
-        <v>40.17212295532227</v>
+        <v>37.39492416381836</v>
       </c>
       <c r="D139" t="n">
-        <v>21.50157928466797</v>
+        <v>27.15951538085938</v>
       </c>
       <c r="E139" t="n">
-        <v>-32.69292068481445</v>
+        <v>-14.34577560424805</v>
       </c>
       <c r="F139" t="n">
-        <v>10.54499340057373</v>
+        <v>42.92733764648438</v>
       </c>
       <c r="G139" t="n">
-        <v>50.47388458251953</v>
+        <v>71.10919189453125</v>
       </c>
       <c r="H139" t="n">
-        <v>-66.81785583496094</v>
+        <v>-64.25028991699219</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9033154352628876</v>
+        <v>0.9964096151069587</v>
       </c>
       <c r="B140" t="n">
-        <v>-3028.184383450277</v>
+        <v>2.932044629257066e+19</v>
       </c>
       <c r="C140" t="n">
-        <v>40.18539047241211</v>
+        <v>37.41820526123047</v>
       </c>
       <c r="D140" t="n">
-        <v>21.54065895080566</v>
+        <v>27.13884544372559</v>
       </c>
       <c r="E140" t="n">
-        <v>-32.71670913696289</v>
+        <v>-14.35300540924072</v>
       </c>
       <c r="F140" t="n">
-        <v>10.55337905883789</v>
+        <v>42.88462448120117</v>
       </c>
       <c r="G140" t="n">
-        <v>50.47038650512695</v>
+        <v>71.13512420654297</v>
       </c>
       <c r="H140" t="n">
-        <v>-66.82029724121094</v>
+        <v>-64.18128204345703</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9425093746875605</v>
+        <v>0.9990983243986018</v>
       </c>
       <c r="B141" t="n">
-        <v>11062.76329646071</v>
+        <v>1.466022362517197e+19</v>
       </c>
       <c r="C141" t="n">
-        <v>40.19852447509766</v>
+        <v>37.44100570678711</v>
       </c>
       <c r="D141" t="n">
-        <v>21.57882881164551</v>
+        <v>27.1185131072998</v>
       </c>
       <c r="E141" t="n">
-        <v>-32.73969268798828</v>
+        <v>-14.36022758483887</v>
       </c>
       <c r="F141" t="n">
-        <v>10.56115055084229</v>
+        <v>42.84282684326172</v>
       </c>
       <c r="G141" t="n">
-        <v>50.46759414672852</v>
+        <v>71.15984344482422</v>
       </c>
       <c r="H141" t="n">
-        <v>-66.82110595703125</v>
+        <v>-64.11444854736328</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9663645649218836</v>
+        <v>0.9997745158971306</v>
       </c>
       <c r="B142" t="n">
-        <v>-40405.46496179682</v>
+        <v>7.330095671284199e+18</v>
       </c>
       <c r="C142" t="n">
-        <v>40.21149444580078</v>
+        <v>37.46336364746094</v>
       </c>
       <c r="D142" t="n">
-        <v>21.6160774230957</v>
+        <v>27.09848022460938</v>
       </c>
       <c r="E142" t="n">
-        <v>-32.76187133789062</v>
+        <v>-14.36745738983154</v>
       </c>
       <c r="F142" t="n">
-        <v>10.56833171844482</v>
+        <v>42.80189514160156</v>
       </c>
       <c r="G142" t="n">
-        <v>50.46548461914062</v>
+        <v>71.18340301513672</v>
       </c>
       <c r="H142" t="n">
-        <v>-66.82041931152344</v>
+        <v>-64.04976654052734</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9806382249336054</v>
+        <v>0.9999438480552915</v>
       </c>
       <c r="B143" t="n">
-        <v>147640.1871920285</v>
+        <v>3.665591508527182e+18</v>
       </c>
       <c r="C143" t="n">
-        <v>40.22427749633789</v>
+        <v>37.48530197143555</v>
       </c>
       <c r="D143" t="n">
-        <v>21.65240097045898</v>
+        <v>27.07872772216797</v>
       </c>
       <c r="E143" t="n">
-        <v>-32.78322601318359</v>
+        <v>-14.37469291687012</v>
       </c>
       <c r="F143" t="n">
-        <v>10.57495784759521</v>
+        <v>42.76177597045898</v>
       </c>
       <c r="G143" t="n">
-        <v>50.46408081054688</v>
+        <v>71.20583343505859</v>
       </c>
       <c r="H143" t="n">
-        <v>-66.81822967529297</v>
+        <v>-63.98713684082031</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9890341714033711</v>
+        <v>0.9999860741596448</v>
       </c>
       <c r="B144" t="n">
-        <v>-539590.6598882361</v>
+        <v>1.814496399069132e+18</v>
       </c>
       <c r="C144" t="n">
-        <v>40.23685455322266</v>
+        <v>37.50685501098633</v>
       </c>
       <c r="D144" t="n">
-        <v>21.68779373168945</v>
+        <v>27.05922698974609</v>
       </c>
       <c r="E144" t="n">
-        <v>-32.80375289916992</v>
+        <v>-14.38192844390869</v>
       </c>
       <c r="F144" t="n">
-        <v>10.58104610443115</v>
+        <v>42.72246551513672</v>
       </c>
       <c r="G144" t="n">
-        <v>50.46335601806641</v>
+        <v>71.22722625732422</v>
       </c>
       <c r="H144" t="n">
-        <v>-66.81465148925781</v>
+        <v>-63.9265251159668</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9938891277321634</v>
+        <v>0.9999965603968698</v>
       </c>
       <c r="B145" t="n">
-        <v>1972569.091286578</v>
+        <v>1.522763214265574e+18</v>
       </c>
       <c r="C145" t="n">
-        <v>40.24919891357422</v>
+        <v>37.52804946899414</v>
       </c>
       <c r="D145" t="n">
-        <v>21.72226142883301</v>
+        <v>27.03997421264648</v>
       </c>
       <c r="E145" t="n">
-        <v>-32.82345199584961</v>
+        <v>-14.38916015625</v>
       </c>
       <c r="F145" t="n">
-        <v>10.58662033081055</v>
+        <v>42.68391418457031</v>
       </c>
       <c r="G145" t="n">
-        <v>50.46332168579102</v>
+        <v>71.24758148193359</v>
       </c>
       <c r="H145" t="n">
-        <v>-66.8096923828125</v>
+        <v>-63.86786270141602</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9966490815999883</v>
+        <v>0.9999991538478644</v>
       </c>
       <c r="B146" t="n">
-        <v>-7212608.641660625</v>
+        <v>-1.992819843330536e+19</v>
       </c>
       <c r="C146" t="n">
-        <v>40.26128768920898</v>
+        <v>37.54888534545898</v>
       </c>
       <c r="D146" t="n">
-        <v>21.75580024719238</v>
+        <v>27.02097129821777</v>
       </c>
       <c r="E146" t="n">
-        <v>-32.84232330322266</v>
+        <v>-14.3963794708252</v>
       </c>
       <c r="F146" t="n">
-        <v>10.59171867370605</v>
+        <v>42.64612579345703</v>
       </c>
       <c r="G146" t="n">
-        <v>50.46395492553711</v>
+        <v>71.26698303222656</v>
       </c>
       <c r="H146" t="n">
-        <v>-66.80344390869141</v>
+        <v>-63.81111907958984</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9981917328251628</v>
+        <v>0.9999997926701936</v>
       </c>
       <c r="B147" t="n">
-        <v>26377740.75194727</v>
+        <v>6.850282745237698e+20</v>
       </c>
       <c r="C147" t="n">
-        <v>40.27311706542969</v>
+        <v>37.56940078735352</v>
       </c>
       <c r="D147" t="n">
-        <v>21.78841209411621</v>
+        <v>27.00218200683594</v>
       </c>
       <c r="E147" t="n">
-        <v>-32.86037445068359</v>
+        <v>-14.40358448028564</v>
       </c>
       <c r="F147" t="n">
-        <v>10.59634780883789</v>
+        <v>42.60905456542969</v>
       </c>
       <c r="G147" t="n">
-        <v>50.46524429321289</v>
+        <v>71.28546142578125</v>
       </c>
       <c r="H147" t="n">
-        <v>-66.79592132568359</v>
+        <v>-63.75620269775391</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9990395808487382</v>
+        <v>0.9999999493980251</v>
       </c>
       <c r="B148" t="n">
-        <v>-96484778.7628513</v>
+        <v>-2.298824196000558e+22</v>
       </c>
       <c r="C148" t="n">
-        <v>40.2846565246582</v>
+        <v>37.58960723876953</v>
       </c>
       <c r="D148" t="n">
-        <v>21.82010650634766</v>
+        <v>26.98360824584961</v>
       </c>
       <c r="E148" t="n">
-        <v>-32.87760543823242</v>
+        <v>-14.41076755523682</v>
       </c>
       <c r="F148" t="n">
-        <v>10.60054111480713</v>
+        <v>42.57266998291016</v>
       </c>
       <c r="G148" t="n">
-        <v>50.46715545654297</v>
+        <v>71.30308532714844</v>
       </c>
       <c r="H148" t="n">
-        <v>-66.78721618652344</v>
+        <v>-63.70307540893555</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9994978548085356</v>
+        <v>0.9999999876977695</v>
       </c>
       <c r="B149" t="n">
-        <v>352978129.2461021</v>
+        <v>7.712197316756311e+23</v>
       </c>
       <c r="C149" t="n">
-        <v>40.2958984375</v>
+        <v>37.60951995849609</v>
       </c>
       <c r="D149" t="n">
-        <v>21.85088729858398</v>
+        <v>26.96524047851562</v>
       </c>
       <c r="E149" t="n">
-        <v>-32.89403915405273</v>
+        <v>-14.41792011260986</v>
       </c>
       <c r="F149" t="n">
-        <v>10.60430908203125</v>
+        <v>42.53695678710938</v>
       </c>
       <c r="G149" t="n">
-        <v>50.46970367431641</v>
+        <v>71.31986999511719</v>
       </c>
       <c r="H149" t="n">
-        <v>-66.77742004394531</v>
+        <v>-63.65165328979492</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.9997415055794419</v>
+        <v>0.9999999970206028</v>
       </c>
       <c r="B150" t="n">
-        <v>-1291507349.874122</v>
+        <v>-2.585702395808159e+25</v>
       </c>
       <c r="C150" t="n">
-        <v>40.30683135986328</v>
+        <v>37.629150390625</v>
       </c>
       <c r="D150" t="n">
-        <v>21.88076210021973</v>
+        <v>26.94706726074219</v>
       </c>
       <c r="E150" t="n">
-        <v>-32.90966796875</v>
+        <v>-14.42503929138184</v>
       </c>
       <c r="F150" t="n">
-        <v>10.60767078399658</v>
+        <v>42.50190734863281</v>
       </c>
       <c r="G150" t="n">
-        <v>50.47284317016602</v>
+        <v>71.33588409423828</v>
       </c>
       <c r="H150" t="n">
-        <v>-66.76651000976562</v>
+        <v>-63.60188674926758</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9998689529747964</v>
+        <v>0.9999999992811833</v>
       </c>
       <c r="B151" t="n">
-        <v>4726050164.404884</v>
+        <v>8.663912130375857e+26</v>
       </c>
       <c r="C151" t="n">
-        <v>40.31743621826172</v>
+        <v>37.64850616455078</v>
       </c>
       <c r="D151" t="n">
-        <v>21.90974044799805</v>
+        <v>26.92910385131836</v>
       </c>
       <c r="E151" t="n">
-        <v>-32.92452239990234</v>
+        <v>-14.43211364746094</v>
       </c>
       <c r="F151" t="n">
-        <v>10.6106538772583</v>
+        <v>42.46748733520508</v>
       </c>
       <c r="G151" t="n">
-        <v>50.4765510559082</v>
+        <v>71.35115051269531</v>
       </c>
       <c r="H151" t="n">
-        <v>-66.75462341308594</v>
+        <v>-63.55374908447266</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9999345564547908</v>
+        <v>0.9999999998272292</v>
       </c>
       <c r="B152" t="n">
-        <v>-17295977502.48244</v>
+        <v>-2.901277637021132e+28</v>
       </c>
       <c r="C152" t="n">
-        <v>40.32770919799805</v>
+        <v>37.66758728027344</v>
       </c>
       <c r="D152" t="n">
-        <v>21.93782997131348</v>
+        <v>26.91134262084961</v>
       </c>
       <c r="E152" t="n">
-        <v>-32.93861389160156</v>
+        <v>-14.4391393661499</v>
       </c>
       <c r="F152" t="n">
-        <v>10.61325836181641</v>
+        <v>42.43370056152344</v>
       </c>
       <c r="G152" t="n">
-        <v>50.4808235168457</v>
+        <v>71.36573028564453</v>
       </c>
       <c r="H152" t="n">
-        <v>-66.74176025390625</v>
+        <v>-63.50715637207031</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9999677977491415</v>
+        <v>0.9999999999586285</v>
       </c>
       <c r="B153" t="n">
-        <v>63303862689.00774</v>
+        <v>9.709765647132321e+29</v>
       </c>
       <c r="C153" t="n">
-        <v>40.33765029907227</v>
+        <v>37.6864128112793</v>
       </c>
       <c r="D153" t="n">
-        <v>21.96504783630371</v>
+        <v>26.89378356933594</v>
       </c>
       <c r="E153" t="n">
-        <v>-32.95194244384766</v>
+        <v>-14.44610500335693</v>
       </c>
       <c r="F153" t="n">
-        <v>10.61551761627197</v>
+        <v>42.40053176879883</v>
       </c>
       <c r="G153" t="n">
-        <v>50.48562622070312</v>
+        <v>71.379638671875</v>
       </c>
       <c r="H153" t="n">
-        <v>-66.72798919677734</v>
+        <v>-63.46207427978516</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.9999843822569702</v>
+        <v>0.9999999999901298</v>
       </c>
       <c r="B154" t="n">
-        <v>31651931343.5339</v>
+        <v>4.854882823566161e+29</v>
       </c>
       <c r="C154" t="n">
-        <v>40.34724426269531</v>
+        <v>37.70495986938477</v>
       </c>
       <c r="D154" t="n">
-        <v>21.99140167236328</v>
+        <v>26.87642669677734</v>
       </c>
       <c r="E154" t="n">
-        <v>-32.96454620361328</v>
+        <v>-14.45300579071045</v>
       </c>
       <c r="F154" t="n">
-        <v>10.617431640625</v>
+        <v>42.36795043945312</v>
       </c>
       <c r="G154" t="n">
-        <v>50.49093246459961</v>
+        <v>71.39293670654297</v>
       </c>
       <c r="H154" t="n">
-        <v>-66.71336364746094</v>
+        <v>-63.41845703125</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.2534300565719604</v>
+        <v>0.1259838749468327</v>
       </c>
       <c r="B155" t="n">
-        <v>15825965670.79692</v>
+        <v>2.42744141178308e+29</v>
       </c>
       <c r="C155" t="n">
-        <v>40.35649490356445</v>
+        <v>37.72325897216797</v>
       </c>
       <c r="D155" t="n">
-        <v>22.01690483093262</v>
+        <v>26.85928726196289</v>
       </c>
       <c r="E155" t="n">
-        <v>-32.9764404296875</v>
+        <v>-14.4598331451416</v>
       </c>
       <c r="F155" t="n">
-        <v>10.6190185546875</v>
+        <v>42.33597183227539</v>
       </c>
       <c r="G155" t="n">
-        <v>50.4967155456543</v>
+        <v>71.4056396484375</v>
       </c>
       <c r="H155" t="n">
-        <v>-66.69796752929688</v>
+        <v>-63.37625122070312</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.2499544423818588</v>
+        <v>0.1255290196835995</v>
       </c>
       <c r="B156" t="n">
-        <v>7912982834.428388</v>
+        <v>1.21372070589154e+29</v>
       </c>
       <c r="C156" t="n">
-        <v>40.36539077758789</v>
+        <v>37.74129486083984</v>
       </c>
       <c r="D156" t="n">
-        <v>22.04157447814941</v>
+        <v>26.84235954284668</v>
       </c>
       <c r="E156" t="n">
-        <v>-32.98762893676758</v>
+        <v>-14.46658039093018</v>
       </c>
       <c r="F156" t="n">
-        <v>10.62028121948242</v>
+        <v>42.30458831787109</v>
       </c>
       <c r="G156" t="n">
-        <v>50.50295639038086</v>
+        <v>71.41777801513672</v>
       </c>
       <c r="H156" t="n">
-        <v>-66.68181610107422</v>
+        <v>-63.33541107177734</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.2466114923357964</v>
+        <v>0.1250807984173298</v>
       </c>
       <c r="B157" t="n">
-        <v>3956491416.244091</v>
+        <v>6.068603529457701e+28</v>
       </c>
       <c r="C157" t="n">
-        <v>40.37394714355469</v>
+        <v>37.75906753540039</v>
       </c>
       <c r="D157" t="n">
-        <v>22.0654182434082</v>
+        <v>26.82565498352051</v>
       </c>
       <c r="E157" t="n">
-        <v>-32.99814987182617</v>
+        <v>-14.47323894500732</v>
       </c>
       <c r="F157" t="n">
-        <v>10.62124347686768</v>
+        <v>42.27376937866211</v>
       </c>
       <c r="G157" t="n">
-        <v>50.50962448120117</v>
+        <v>71.42940521240234</v>
       </c>
       <c r="H157" t="n">
-        <v>-66.66497802734375</v>
+        <v>-63.29586791992188</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.2434071296453476</v>
+        <v>0.1246390216052532</v>
       </c>
       <c r="B158" t="n">
-        <v>1978245707.151925</v>
+        <v>3.03430176472885e+28</v>
       </c>
       <c r="C158" t="n">
-        <v>40.38214874267578</v>
+        <v>37.77658462524414</v>
       </c>
       <c r="D158" t="n">
-        <v>22.08845520019531</v>
+        <v>26.80917358398438</v>
       </c>
       <c r="E158" t="n">
-        <v>-33.00802230834961</v>
+        <v>-14.47980499267578</v>
       </c>
       <c r="F158" t="n">
-        <v>10.62191295623779</v>
+        <v>42.2435188293457</v>
       </c>
       <c r="G158" t="n">
-        <v>50.51669311523438</v>
+        <v>71.44052886962891</v>
       </c>
       <c r="H158" t="n">
-        <v>-66.64749145507812</v>
+        <v>-63.25759887695312</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.240335431098938</v>
+        <v>0.1242039893567562</v>
       </c>
       <c r="B159" t="n">
-        <v>989122852.605837</v>
+        <v>1.517150882364425e+28</v>
       </c>
       <c r="C159" t="n">
-        <v>40.39001083374023</v>
+        <v>37.7938346862793</v>
       </c>
       <c r="D159" t="n">
-        <v>22.11069869995117</v>
+        <v>26.79292488098145</v>
       </c>
       <c r="E159" t="n">
-        <v>-33.01725769042969</v>
+        <v>-14.48627090454102</v>
       </c>
       <c r="F159" t="n">
-        <v>10.62229442596436</v>
+        <v>42.21384048461914</v>
       </c>
       <c r="G159" t="n">
-        <v>50.52414703369141</v>
+        <v>71.45120239257812</v>
       </c>
       <c r="H159" t="n">
-        <v>-66.62941741943359</v>
+        <v>-63.22056579589844</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.2373948645591736</v>
+        <v>0.1237756779789925</v>
       </c>
       <c r="B160" t="n">
-        <v>494561425.3328005</v>
+        <v>7.585754411822126e+27</v>
       </c>
       <c r="C160" t="n">
-        <v>40.39753723144531</v>
+        <v>37.81081771850586</v>
       </c>
       <c r="D160" t="n">
-        <v>22.13216781616211</v>
+        <v>26.77691650390625</v>
       </c>
       <c r="E160" t="n">
-        <v>-33.02589416503906</v>
+        <v>-14.49263381958008</v>
       </c>
       <c r="F160" t="n">
-        <v>10.62239551544189</v>
+        <v>42.18473052978516</v>
       </c>
       <c r="G160" t="n">
-        <v>50.53194046020508</v>
+        <v>71.46142578125</v>
       </c>
       <c r="H160" t="n">
-        <v>-66.61080932617188</v>
+        <v>-63.18471908569336</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.2345869621634483</v>
+        <v>0.1233540163934231</v>
       </c>
       <c r="B161" t="n">
-        <v>247280711.6963014</v>
+        <v>3.792877205911063e+27</v>
       </c>
       <c r="C161" t="n">
-        <v>40.40472412109375</v>
+        <v>37.82753753662109</v>
       </c>
       <c r="D161" t="n">
-        <v>22.15287208557129</v>
+        <v>26.76114845275879</v>
       </c>
       <c r="E161" t="n">
-        <v>-33.03393173217773</v>
+        <v>-14.49888801574707</v>
       </c>
       <c r="F161" t="n">
-        <v>10.62223434448242</v>
+        <v>42.15616989135742</v>
       </c>
       <c r="G161" t="n">
-        <v>50.54007339477539</v>
+        <v>71.47124481201172</v>
       </c>
       <c r="H161" t="n">
-        <v>-66.59168243408203</v>
+        <v>-63.1500244140625</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.2319072222709656</v>
+        <v>0.122939367890358</v>
       </c>
       <c r="B162" t="n">
-        <v>123640354.8780829</v>
+        <v>1.896438602955531e+27</v>
       </c>
       <c r="C162" t="n">
-        <v>40.41158294677734</v>
+        <v>37.84397888183594</v>
       </c>
       <c r="D162" t="n">
-        <v>22.17283248901367</v>
+        <v>26.74563598632812</v>
       </c>
       <c r="E162" t="n">
-        <v>-33.04141235351562</v>
+        <v>-14.50502681732178</v>
       </c>
       <c r="F162" t="n">
-        <v>10.62181663513184</v>
+        <v>42.1281623840332</v>
       </c>
       <c r="G162" t="n">
-        <v>50.54850387573242</v>
+        <v>71.48067474365234</v>
       </c>
       <c r="H162" t="n">
-        <v>-66.57209777832031</v>
+        <v>-63.11645126342773</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.2293526911735535</v>
+        <v>0.1225313691794872</v>
       </c>
       <c r="B163" t="n">
-        <v>61820176.46901575</v>
+        <v>9.482193014777657e+26</v>
       </c>
       <c r="C163" t="n">
-        <v>40.41812133789062</v>
+        <v>37.86015701293945</v>
       </c>
       <c r="D163" t="n">
-        <v>22.19206047058105</v>
+        <v>26.73037719726562</v>
       </c>
       <c r="E163" t="n">
-        <v>-33.04834747314453</v>
+        <v>-14.51104831695557</v>
       </c>
       <c r="F163" t="n">
-        <v>10.62113666534424</v>
+        <v>42.1007080078125</v>
       </c>
       <c r="G163" t="n">
-        <v>50.55721282958984</v>
+        <v>71.48972320556641</v>
       </c>
       <c r="H163" t="n">
-        <v>-66.55210113525391</v>
+        <v>-63.08391952514648</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.2269188672304153</v>
+        <v>0.122130770534277</v>
       </c>
       <c r="B164" t="n">
-        <v>30910087.264535</v>
+        <v>4.741096507388829e+26</v>
       </c>
       <c r="C164" t="n">
-        <v>40.42435073852539</v>
+        <v>37.87604141235352</v>
       </c>
       <c r="D164" t="n">
-        <v>22.21057510375977</v>
+        <v>26.71538162231445</v>
       </c>
       <c r="E164" t="n">
-        <v>-33.05475234985352</v>
+        <v>-14.51694774627686</v>
       </c>
       <c r="F164" t="n">
-        <v>10.62021446228027</v>
+        <v>42.07379531860352</v>
       </c>
       <c r="G164" t="n">
-        <v>50.56616592407227</v>
+        <v>71.49842834472656</v>
       </c>
       <c r="H164" t="n">
-        <v>-66.53174591064453</v>
+        <v>-63.05244064331055</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.2246072667837143</v>
+        <v>0.121737003326416</v>
       </c>
       <c r="B165" t="n">
-        <v>15455042.66235769</v>
+        <v>2.370548253694414e+26</v>
       </c>
       <c r="C165" t="n">
-        <v>40.43026733398438</v>
+        <v>37.89165496826172</v>
       </c>
       <c r="D165" t="n">
-        <v>22.22839546203613</v>
+        <v>26.70065689086914</v>
       </c>
       <c r="E165" t="n">
-        <v>-33.06067657470703</v>
+        <v>-14.52272129058838</v>
       </c>
       <c r="F165" t="n">
-        <v>10.61905860900879</v>
+        <v>42.04742431640625</v>
       </c>
       <c r="G165" t="n">
-        <v>50.57536315917969</v>
+        <v>71.50682830810547</v>
       </c>
       <c r="H165" t="n">
-        <v>-66.51104736328125</v>
+        <v>-63.02196502685547</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.2224089339375496</v>
+        <v>0.1213502570986748</v>
       </c>
       <c r="B166" t="n">
-        <v>7727520.36134276</v>
+        <v>1.185274126847207e+26</v>
       </c>
       <c r="C166" t="n">
-        <v>40.43589401245117</v>
+        <v>37.90699005126953</v>
       </c>
       <c r="D166" t="n">
-        <v>22.24553489685059</v>
+        <v>26.68620109558105</v>
       </c>
       <c r="E166" t="n">
-        <v>-33.06611251831055</v>
+        <v>-14.52837181091309</v>
       </c>
       <c r="F166" t="n">
-        <v>10.61767578125</v>
+        <v>42.0216064453125</v>
       </c>
       <c r="G166" t="n">
-        <v>50.58476638793945</v>
+        <v>71.51492309570312</v>
       </c>
       <c r="H166" t="n">
-        <v>-66.49004364013672</v>
+        <v>-62.99245071411133</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.2203238686919212</v>
+        <v>0.1209710136055946</v>
       </c>
       <c r="B167" t="n">
-        <v>3863759.210918695</v>
+        <v>5.926370634236036e+25</v>
       </c>
       <c r="C167" t="n">
-        <v>40.44123077392578</v>
+        <v>37.92202758789062</v>
       </c>
       <c r="D167" t="n">
-        <v>22.26200866699219</v>
+        <v>26.67202568054199</v>
       </c>
       <c r="E167" t="n">
-        <v>-33.07109832763672</v>
+        <v>-14.53388977050781</v>
       </c>
       <c r="F167" t="n">
-        <v>10.61606121063232</v>
+        <v>41.99632263183594</v>
       </c>
       <c r="G167" t="n">
-        <v>50.5943717956543</v>
+        <v>71.52272796630859</v>
       </c>
       <c r="H167" t="n">
-        <v>-66.46879577636719</v>
+        <v>-62.96388626098633</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.2183461162447929</v>
+        <v>0.1205990833044052</v>
       </c>
       <c r="B168" t="n">
-        <v>1931878.635799665</v>
+        <v>2.963185317118018e+25</v>
       </c>
       <c r="C168" t="n">
-        <v>40.44629287719727</v>
+        <v>37.93677520751953</v>
       </c>
       <c r="D168" t="n">
-        <v>22.27783584594727</v>
+        <v>26.65813446044922</v>
       </c>
       <c r="E168" t="n">
-        <v>-33.07563400268555</v>
+        <v>-14.53928089141846</v>
       </c>
       <c r="F168" t="n">
-        <v>10.61423587799072</v>
+        <v>41.97159194946289</v>
       </c>
       <c r="G168" t="n">
-        <v>50.6041259765625</v>
+        <v>71.53022766113281</v>
       </c>
       <c r="H168" t="n">
-        <v>-66.44730377197266</v>
+        <v>-62.93623352050781</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2164711907505989</v>
+        <v>0.1202347584068775</v>
       </c>
       <c r="B169" t="n">
-        <v>965938.3483418713</v>
+        <v>1.481592658559009e+25</v>
       </c>
       <c r="C169" t="n">
-        <v>40.45109176635742</v>
+        <v>37.95122146606445</v>
       </c>
       <c r="D169" t="n">
-        <v>22.29303359985352</v>
+        <v>26.64453506469727</v>
       </c>
       <c r="E169" t="n">
-        <v>-33.07976531982422</v>
+        <v>-14.54454040527344</v>
       </c>
       <c r="F169" t="n">
-        <v>10.6121997833252</v>
+        <v>41.94739532470703</v>
       </c>
       <c r="G169" t="n">
-        <v>50.61403656005859</v>
+        <v>71.53750610351562</v>
       </c>
       <c r="H169" t="n">
-        <v>-66.42562866210938</v>
+        <v>-62.90947341918945</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.2146961227059364</v>
+        <v>0.1198778414726257</v>
       </c>
       <c r="B170" t="n">
-        <v>482968.2047239833</v>
+        <v>7.407963292795045e+24</v>
       </c>
       <c r="C170" t="n">
-        <v>40.45563507080078</v>
+        <v>37.96537399291992</v>
       </c>
       <c r="D170" t="n">
-        <v>22.3076171875</v>
+        <v>26.63122749328613</v>
       </c>
       <c r="E170" t="n">
-        <v>-33.0835075378418</v>
+        <v>-14.5496654510498</v>
       </c>
       <c r="F170" t="n">
-        <v>10.60997200012207</v>
+        <v>41.92375946044922</v>
       </c>
       <c r="G170" t="n">
-        <v>50.62408828735352</v>
+        <v>71.54450225830078</v>
       </c>
       <c r="H170" t="n">
-        <v>-66.40378570556641</v>
+        <v>-62.88357543945312</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.2130194273591042</v>
+        <v>0.1195285141468048</v>
       </c>
       <c r="B171" t="n">
-        <v>241483.1330343249</v>
+        <v>3.703981646397522e+24</v>
       </c>
       <c r="C171" t="n">
-        <v>40.45992660522461</v>
+        <v>37.97922515869141</v>
       </c>
       <c r="D171" t="n">
-        <v>22.32160377502441</v>
+        <v>26.61821174621582</v>
       </c>
       <c r="E171" t="n">
-        <v>-33.08685302734375</v>
+        <v>-14.55466270446777</v>
       </c>
       <c r="F171" t="n">
-        <v>10.60754203796387</v>
+        <v>41.90065002441406</v>
       </c>
       <c r="G171" t="n">
-        <v>50.63423538208008</v>
+        <v>71.55127716064453</v>
       </c>
       <c r="H171" t="n">
-        <v>-66.38184356689453</v>
+        <v>-62.85849380493164</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.2114306640625</v>
+        <v>0.119187273979187</v>
       </c>
       <c r="B172" t="n">
-        <v>120740.5973173739</v>
+        <v>1.851990823198761e+24</v>
       </c>
       <c r="C172" t="n">
-        <v>40.46399307250977</v>
+        <v>37.99275588989258</v>
       </c>
       <c r="D172" t="n">
-        <v>22.33501052856445</v>
+        <v>26.60549736022949</v>
       </c>
       <c r="E172" t="n">
-        <v>-33.0898551940918</v>
+        <v>-14.55953216552734</v>
       </c>
       <c r="F172" t="n">
-        <v>10.6049280166626</v>
+        <v>41.87808990478516</v>
       </c>
       <c r="G172" t="n">
-        <v>50.64447402954102</v>
+        <v>71.55782318115234</v>
       </c>
       <c r="H172" t="n">
-        <v>-66.35977172851562</v>
+        <v>-62.83428955078125</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.2099313333630562</v>
+        <v>0.1188534496724606</v>
       </c>
       <c r="B173" t="n">
-        <v>60369.32959442145</v>
+        <v>9.259954115993806e+23</v>
       </c>
       <c r="C173" t="n">
-        <v>40.46783065795898</v>
+        <v>38.0059928894043</v>
       </c>
       <c r="D173" t="n">
-        <v>22.34785079956055</v>
+        <v>26.59307670593262</v>
       </c>
       <c r="E173" t="n">
-        <v>-33.09251022338867</v>
+        <v>-14.56426906585693</v>
       </c>
       <c r="F173" t="n">
-        <v>10.60212898254395</v>
+        <v>41.8560791015625</v>
       </c>
       <c r="G173" t="n">
-        <v>50.65480804443359</v>
+        <v>71.56416320800781</v>
       </c>
       <c r="H173" t="n">
-        <v>-66.337646484375</v>
+        <v>-62.81083297729492</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.2085169494152069</v>
+        <v>0.118527507185936</v>
       </c>
       <c r="B174" t="n">
-        <v>30183.69587617639</v>
+        <v>4.629977057996903e+23</v>
       </c>
       <c r="C174" t="n">
-        <v>40.47145080566406</v>
+        <v>38.01891708374023</v>
       </c>
       <c r="D174" t="n">
-        <v>22.36014747619629</v>
+        <v>26.58094596862793</v>
       </c>
       <c r="E174" t="n">
-        <v>-33.09485244750977</v>
+        <v>-14.56887912750244</v>
       </c>
       <c r="F174" t="n">
-        <v>10.59916114807129</v>
+        <v>41.83459854125977</v>
       </c>
       <c r="G174" t="n">
-        <v>50.66521072387695</v>
+        <v>71.57026672363281</v>
       </c>
       <c r="H174" t="n">
-        <v>-66.31548309326172</v>
+        <v>-62.78816986083984</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.2071785721182823</v>
+        <v>0.1182094465196133</v>
       </c>
       <c r="B175" t="n">
-        <v>15090.8791672981</v>
+        <v>2.314988528998451e+23</v>
       </c>
       <c r="C175" t="n">
-        <v>40.47487640380859</v>
+        <v>38.03152847290039</v>
       </c>
       <c r="D175" t="n">
-        <v>22.37191009521484</v>
+        <v>26.56911659240723</v>
       </c>
       <c r="E175" t="n">
-        <v>-33.09687805175781</v>
+        <v>-14.57336139678955</v>
       </c>
       <c r="F175" t="n">
-        <v>10.59602451324463</v>
+        <v>41.81365585327148</v>
       </c>
       <c r="G175" t="n">
-        <v>50.6756477355957</v>
+        <v>71.57617950439453</v>
       </c>
       <c r="H175" t="n">
-        <v>-66.29331207275391</v>
+        <v>-62.7662353515625</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.2059206715226173</v>
+        <v>0.1178990939259529</v>
       </c>
       <c r="B176" t="n">
-        <v>7544.47097043217</v>
+        <v>1.157494264499226e+23</v>
       </c>
       <c r="C176" t="n">
-        <v>40.47809600830078</v>
+        <v>38.0438346862793</v>
       </c>
       <c r="D176" t="n">
-        <v>22.38315773010254</v>
+        <v>26.55756759643555</v>
       </c>
       <c r="E176" t="n">
-        <v>-33.09861755371094</v>
+        <v>-14.57771968841553</v>
       </c>
       <c r="F176" t="n">
-        <v>10.59273433685303</v>
+        <v>41.7932243347168</v>
       </c>
       <c r="G176" t="n">
-        <v>50.68613052368164</v>
+        <v>71.5819091796875</v>
       </c>
       <c r="H176" t="n">
-        <v>-66.27110290527344</v>
+        <v>-62.74505615234375</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.2047283527255059</v>
+        <v>0.1175967179238796</v>
       </c>
       <c r="B177" t="n">
-        <v>3771.267035890524</v>
+        <v>5.787471322496129e+22</v>
       </c>
       <c r="C177" t="n">
-        <v>40.48114776611328</v>
+        <v>38.05582427978516</v>
       </c>
       <c r="D177" t="n">
-        <v>22.3939037322998</v>
+        <v>26.54630088806152</v>
       </c>
       <c r="E177" t="n">
-        <v>-33.10007476806641</v>
+        <v>-14.58195304870605</v>
       </c>
       <c r="F177" t="n">
-        <v>10.58928394317627</v>
+        <v>41.7733268737793</v>
       </c>
       <c r="G177" t="n">
-        <v>50.69662857055664</v>
+        <v>71.58744812011719</v>
       </c>
       <c r="H177" t="n">
-        <v>-66.24893951416016</v>
+        <v>-62.72455215454102</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.2036075705289841</v>
+        <v>0.1173018525540829</v>
       </c>
       <c r="B178" t="n">
-        <v>1884.665238639565</v>
+        <v>2.893735661248064e+22</v>
       </c>
       <c r="C178" t="n">
-        <v>40.48401641845703</v>
+        <v>38.0675163269043</v>
       </c>
       <c r="D178" t="n">
-        <v>22.40416717529297</v>
+        <v>26.53532028198242</v>
       </c>
       <c r="E178" t="n">
-        <v>-33.10127639770508</v>
+        <v>-14.58606147766113</v>
       </c>
       <c r="F178" t="n">
-        <v>10.58569431304932</v>
+        <v>41.75394821166992</v>
       </c>
       <c r="G178" t="n">
-        <v>50.7071418762207</v>
+        <v>71.59281921386719</v>
       </c>
       <c r="H178" t="n">
-        <v>-66.22682189941406</v>
+        <v>-62.70473861694336</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.2025508853793144</v>
+        <v>0.1170145846903324</v>
       </c>
       <c r="B179" t="n">
-        <v>941.3645162256818</v>
+        <v>1.446867830624032e+22</v>
       </c>
       <c r="C179" t="n">
-        <v>40.48672103881836</v>
+        <v>38.07890701293945</v>
       </c>
       <c r="D179" t="n">
-        <v>22.41396331787109</v>
+        <v>26.52461814880371</v>
       </c>
       <c r="E179" t="n">
-        <v>-33.10223770141602</v>
+        <v>-14.59004592895508</v>
       </c>
       <c r="F179" t="n">
-        <v>10.58197116851807</v>
+        <v>41.73506546020508</v>
       </c>
       <c r="G179" t="n">
-        <v>50.7176513671875</v>
+        <v>71.59804534912109</v>
       </c>
       <c r="H179" t="n">
-        <v>-66.20478057861328</v>
+        <v>-62.68557357788086</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.2015567967295647</v>
+        <v>0.1167349143326283</v>
       </c>
       <c r="B180" t="n">
-        <v>469.7143367902567</v>
+        <v>7.234339153120161e+21</v>
       </c>
       <c r="C180" t="n">
-        <v>40.48926544189453</v>
+        <v>38.08999633789062</v>
       </c>
       <c r="D180" t="n">
-        <v>22.42330551147461</v>
+        <v>26.51419448852539</v>
       </c>
       <c r="E180" t="n">
-        <v>-33.10296630859375</v>
+        <v>-14.59390926361084</v>
       </c>
       <c r="F180" t="n">
-        <v>10.57811260223389</v>
+        <v>41.7166862487793</v>
       </c>
       <c r="G180" t="n">
-        <v>50.72815322875977</v>
+        <v>71.60309600830078</v>
       </c>
       <c r="H180" t="n">
-        <v>-66.18284606933594</v>
+        <v>-62.66704940795898</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.2006148639321327</v>
+        <v>0.1164627546072006</v>
       </c>
       <c r="B181" t="n">
-        <v>233.8894343408013</v>
+        <v>3.61716957656008e+21</v>
       </c>
       <c r="C181" t="n">
-        <v>40.49167633056641</v>
+        <v>38.10078811645508</v>
       </c>
       <c r="D181" t="n">
-        <v>22.43221092224121</v>
+        <v>26.5040397644043</v>
       </c>
       <c r="E181" t="n">
-        <v>-33.10347747802734</v>
+        <v>-14.59765148162842</v>
       </c>
       <c r="F181" t="n">
-        <v>10.57413101196289</v>
+        <v>41.69880294799805</v>
       </c>
       <c r="G181" t="n">
-        <v>50.73862838745117</v>
+        <v>71.60798645019531</v>
       </c>
       <c r="H181" t="n">
-        <v>-66.16098022460938</v>
+        <v>-62.64911270141602</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.1997295570373535</v>
+        <v>0.1161980897188187</v>
       </c>
       <c r="B182" t="n">
-        <v>115.9771751229001</v>
+        <v>1.80858478828004e+21</v>
       </c>
       <c r="C182" t="n">
-        <v>40.49394226074219</v>
+        <v>38.11128234863281</v>
       </c>
       <c r="D182" t="n">
-        <v>22.4406909942627</v>
+        <v>26.4941577911377</v>
       </c>
       <c r="E182" t="n">
-        <v>-33.10377883911133</v>
+        <v>-14.60127258300781</v>
       </c>
       <c r="F182" t="n">
-        <v>10.57003116607666</v>
+        <v>41.681396484375</v>
       </c>
       <c r="G182" t="n">
-        <v>50.74906158447266</v>
+        <v>71.61275482177734</v>
       </c>
       <c r="H182" t="n">
-        <v>-66.13925933837891</v>
+        <v>-62.63179016113281</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.1988949370384216</v>
+        <v>0.1159407459199429</v>
       </c>
       <c r="B183" t="n">
-        <v>57.021242322526</v>
+        <v>9.042923941400201e+20</v>
       </c>
       <c r="C183" t="n">
-        <v>40.49607849121094</v>
+        <v>38.12148666381836</v>
       </c>
       <c r="D183" t="n">
-        <v>22.44876289367676</v>
+        <v>26.48454284667969</v>
       </c>
       <c r="E183" t="n">
-        <v>-33.10389709472656</v>
+        <v>-14.60477924346924</v>
       </c>
       <c r="F183" t="n">
-        <v>10.56582641601562</v>
+        <v>41.66448211669922</v>
       </c>
       <c r="G183" t="n">
-        <v>50.75947189331055</v>
+        <v>71.61737823486328</v>
       </c>
       <c r="H183" t="n">
-        <v>-66.11766815185547</v>
+        <v>-62.61505889892578</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.1981065180897713</v>
+        <v>0.1156906126439571</v>
       </c>
       <c r="B184" t="n">
-        <v>27.54347658495189</v>
+        <v>4.521461970700101e+20</v>
       </c>
       <c r="C184" t="n">
-        <v>40.49809646606445</v>
+        <v>38.13140487670898</v>
       </c>
       <c r="D184" t="n">
-        <v>22.45643615722656</v>
+        <v>26.47518730163574</v>
       </c>
       <c r="E184" t="n">
-        <v>-33.10383224487305</v>
+        <v>-14.60816955566406</v>
       </c>
       <c r="F184" t="n">
-        <v>10.56151676177979</v>
+        <v>41.64802551269531</v>
       </c>
       <c r="G184" t="n">
-        <v>50.76983261108398</v>
+        <v>71.62184143066406</v>
       </c>
       <c r="H184" t="n">
-        <v>-66.09622955322266</v>
+        <v>-62.59886169433594</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1973643001914024</v>
+        <v>0.1154475951194763</v>
       </c>
       <c r="B185" t="n">
-        <v>12.80479823281408</v>
+        <v>2.26073098535005e+20</v>
       </c>
       <c r="C185" t="n">
-        <v>40.49999618530273</v>
+        <v>38.14104080200195</v>
       </c>
       <c r="D185" t="n">
-        <v>22.46373176574707</v>
+        <v>26.46609306335449</v>
       </c>
       <c r="E185" t="n">
-        <v>-33.10359573364258</v>
+        <v>-14.61144542694092</v>
       </c>
       <c r="F185" t="n">
-        <v>10.5571231842041</v>
+        <v>41.63203430175781</v>
       </c>
       <c r="G185" t="n">
-        <v>50.78012466430664</v>
+        <v>71.62620544433594</v>
       </c>
       <c r="H185" t="n">
-        <v>-66.07494354248047</v>
+        <v>-62.58319854736328</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1966623285412789</v>
+        <v>0.1152117012441158</v>
       </c>
       <c r="B186" t="n">
-        <v>12.80479823281408</v>
+        <v>1.130365492675025e+20</v>
       </c>
       <c r="C186" t="n">
-        <v>40.50179290771484</v>
+        <v>38.15039443969727</v>
       </c>
       <c r="D186" t="n">
-        <v>22.47065925598145</v>
+        <v>26.45725631713867</v>
       </c>
       <c r="E186" t="n">
-        <v>-33.10320663452148</v>
+        <v>-14.6146125793457</v>
       </c>
       <c r="F186" t="n">
-        <v>10.55264377593994</v>
+        <v>41.61650085449219</v>
       </c>
       <c r="G186" t="n">
-        <v>50.79037094116211</v>
+        <v>71.63043975830078</v>
       </c>
       <c r="H186" t="n">
-        <v>-66.05384826660156</v>
+        <v>-62.56807327270508</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1959991025924683</v>
+        <v>0.1149827335774899</v>
       </c>
       <c r="B187" t="n">
-        <v>-13.16662030057065</v>
+        <v>5.651827463375125e+19</v>
       </c>
       <c r="C187" t="n">
-        <v>40.50349044799805</v>
+        <v>38.15947341918945</v>
       </c>
       <c r="D187" t="n">
-        <v>22.47723007202148</v>
+        <v>26.44866371154785</v>
       </c>
       <c r="E187" t="n">
-        <v>-33.10266876220703</v>
+        <v>-14.6176643371582</v>
       </c>
       <c r="F187" t="n">
-        <v>10.54807662963867</v>
+        <v>41.60141754150391</v>
       </c>
       <c r="G187" t="n">
-        <v>50.800537109375</v>
+        <v>71.63455200195312</v>
       </c>
       <c r="H187" t="n">
-        <v>-66.03293609619141</v>
+        <v>-62.55343627929688</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7036223119727834</v>
+        <v>0.8083680417273564</v>
       </c>
       <c r="B188" t="n">
-        <v>65.08807710833584</v>
+        <v>2.825913731687596e+19</v>
       </c>
       <c r="C188" t="n">
-        <v>40.50509262084961</v>
+        <v>38.16828918457031</v>
       </c>
       <c r="D188" t="n">
-        <v>22.48346710205078</v>
+        <v>26.44032287597656</v>
       </c>
       <c r="E188" t="n">
-        <v>-33.10198974609375</v>
+        <v>-14.6206169128418</v>
       </c>
       <c r="F188" t="n">
-        <v>10.54343509674072</v>
+        <v>41.58675384521484</v>
       </c>
       <c r="G188" t="n">
-        <v>50.81062698364258</v>
+        <v>71.63854217529297</v>
       </c>
       <c r="H188" t="n">
-        <v>-66.01222229003906</v>
+        <v>-62.53927993774414</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.8910759281759764</v>
+        <v>0.958584134267002</v>
       </c>
       <c r="B189" t="n">
-        <v>-226.4194493090563</v>
+        <v>1.412956865842702e+19</v>
       </c>
       <c r="C189" t="n">
-        <v>40.50659942626953</v>
+        <v>38.17684555053711</v>
       </c>
       <c r="D189" t="n">
-        <v>22.48936653137207</v>
+        <v>26.43221664428711</v>
       </c>
       <c r="E189" t="n">
-        <v>-33.10117721557617</v>
+        <v>-14.62346267700195</v>
       </c>
       <c r="F189" t="n">
-        <v>10.53873538970947</v>
+        <v>41.57251739501953</v>
       </c>
       <c r="G189" t="n">
-        <v>50.82063674926758</v>
+        <v>71.64243316650391</v>
       </c>
       <c r="H189" t="n">
-        <v>-65.99172210693359</v>
+        <v>-62.52560043334961</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9600839421168711</v>
+        <v>0.9910654599029723</v>
       </c>
       <c r="B190" t="n">
-        <v>832.9797311107274</v>
+        <v>7.064784329574696e+18</v>
       </c>
       <c r="C190" t="n">
-        <v>40.50803756713867</v>
+        <v>38.18513488769531</v>
       </c>
       <c r="D190" t="n">
-        <v>22.49494552612305</v>
+        <v>26.42435073852539</v>
       </c>
       <c r="E190" t="n">
-        <v>-33.10023498535156</v>
+        <v>-14.62620067596436</v>
       </c>
       <c r="F190" t="n">
-        <v>10.53398609161377</v>
+        <v>41.5587043762207</v>
       </c>
       <c r="G190" t="n">
-        <v>50.83056640625</v>
+        <v>71.64621734619141</v>
       </c>
       <c r="H190" t="n">
-        <v>-65.97146606445312</v>
+        <v>-62.51237869262695</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9854124156168516</v>
+        <v>0.9980759897201007</v>
       </c>
       <c r="B191" t="n">
-        <v>-3029.063974972724</v>
+        <v>3.53239215288213e+18</v>
       </c>
       <c r="C191" t="n">
-        <v>40.50939559936523</v>
+        <v>38.19316864013672</v>
       </c>
       <c r="D191" t="n">
-        <v>22.50022125244141</v>
+        <v>26.41672325134277</v>
       </c>
       <c r="E191" t="n">
-        <v>-33.09916687011719</v>
+        <v>-14.62884426116943</v>
       </c>
       <c r="F191" t="n">
-        <v>10.52918815612793</v>
+        <v>41.54530334472656</v>
       </c>
       <c r="G191" t="n">
-        <v>50.84038925170898</v>
+        <v>71.64990234375</v>
       </c>
       <c r="H191" t="n">
-        <v>-65.95145416259766</v>
+        <v>-62.49958038330078</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9946827370914415</v>
+        <v>0.9995863864386848</v>
       </c>
       <c r="B192" t="n">
-        <v>11040.38329144927</v>
+        <v>1.766196468765811e+18</v>
       </c>
       <c r="C192" t="n">
-        <v>40.51068496704102</v>
+        <v>38.20095443725586</v>
       </c>
       <c r="D192" t="n">
-        <v>22.50520133972168</v>
+        <v>26.4093132019043</v>
       </c>
       <c r="E192" t="n">
-        <v>-33.09797668457031</v>
+        <v>-14.63138866424561</v>
       </c>
       <c r="F192" t="n">
-        <v>10.52437591552734</v>
+        <v>41.53229904174805</v>
       </c>
       <c r="G192" t="n">
-        <v>50.85013961791992</v>
+        <v>71.65349578857422</v>
       </c>
       <c r="H192" t="n">
-        <v>-65.93172454833984</v>
+        <v>-62.48723983764648</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.9980666401561357</v>
+        <v>0.999911232048265</v>
       </c>
       <c r="B193" t="n">
-        <v>-40206.21462870533</v>
+        <v>8.830853086099218e+17</v>
       </c>
       <c r="C193" t="n">
-        <v>40.51191329956055</v>
+        <v>38.20849990844727</v>
       </c>
       <c r="D193" t="n">
-        <v>22.50990676879883</v>
+        <v>26.40213203430176</v>
       </c>
       <c r="E193" t="n">
-        <v>-33.09666061401367</v>
+        <v>-14.63384056091309</v>
       </c>
       <c r="F193" t="n">
-        <v>10.51955318450928</v>
+        <v>41.51969528198242</v>
       </c>
       <c r="G193" t="n">
-        <v>50.85977172851562</v>
+        <v>71.65697479248047</v>
       </c>
       <c r="H193" t="n">
-        <v>-65.91227722167969</v>
+        <v>-62.47529220581055</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9992987037682299</v>
+        <v>0.9999809798308263</v>
       </c>
       <c r="B194" t="n">
-        <v>146410.4211110277</v>
+        <v>4.419684220546191e+17</v>
       </c>
       <c r="C194" t="n">
-        <v>40.51308822631836</v>
+        <v>38.21579742431641</v>
       </c>
       <c r="D194" t="n">
-        <v>22.51434516906738</v>
+        <v>26.39516639709473</v>
       </c>
       <c r="E194" t="n">
-        <v>-33.09524154663086</v>
+        <v>-14.63619613647461</v>
       </c>
       <c r="F194" t="n">
-        <v>10.51473045349121</v>
+        <v>41.50746917724609</v>
       </c>
       <c r="G194" t="n">
-        <v>50.86931991577148</v>
+        <v>71.66036224365234</v>
       </c>
       <c r="H194" t="n">
-        <v>-65.89313507080078</v>
+        <v>-62.4637336730957</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9997461875998389</v>
+        <v>0.9999959309827423</v>
       </c>
       <c r="B195" t="n">
-        <v>-533008.3169524864</v>
+        <v>2.069626182690836e+17</v>
       </c>
       <c r="C195" t="n">
-        <v>40.51419448852539</v>
+        <v>38.22287368774414</v>
       </c>
       <c r="D195" t="n">
-        <v>22.51853370666504</v>
+        <v>26.38841819763184</v>
       </c>
       <c r="E195" t="n">
-        <v>-33.09371566772461</v>
+        <v>-14.63846397399902</v>
       </c>
       <c r="F195" t="n">
-        <v>10.50991439819336</v>
+        <v>41.4956169128418</v>
       </c>
       <c r="G195" t="n">
-        <v>50.87877655029297</v>
+        <v>71.66365814208984</v>
       </c>
       <c r="H195" t="n">
-        <v>-65.87428283691406</v>
+        <v>-62.45257949829102</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999083389002608</v>
+        <v>0.9999991308332477</v>
       </c>
       <c r="B196" t="n">
-        <v>1940004.980201424</v>
+        <v>5.651528448605125e+17</v>
       </c>
       <c r="C196" t="n">
-        <v>40.51525497436523</v>
+        <v>38.22971725463867</v>
       </c>
       <c r="D196" t="n">
-        <v>22.52248382568359</v>
+        <v>26.38187599182129</v>
       </c>
       <c r="E196" t="n">
-        <v>-33.09209060668945</v>
+        <v>-14.64064502716064</v>
       </c>
       <c r="F196" t="n">
-        <v>10.50511741638184</v>
+        <v>41.48413467407227</v>
       </c>
       <c r="G196" t="n">
-        <v>50.88811874389648</v>
+        <v>71.6668701171875</v>
       </c>
       <c r="H196" t="n">
-        <v>-65.855712890625</v>
+        <v>-62.44178771972656</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.9999669655572012</v>
+        <v>0.999999814614602</v>
       </c>
       <c r="B197" t="n">
-        <v>-7059487.943426467</v>
+        <v>-1.491529710744317e+19</v>
       </c>
       <c r="C197" t="n">
-        <v>40.51625823974609</v>
+        <v>38.2363395690918</v>
       </c>
       <c r="D197" t="n">
-        <v>22.52620887756348</v>
+        <v>26.37553405761719</v>
       </c>
       <c r="E197" t="n">
-        <v>-33.09036636352539</v>
+        <v>-14.64274215698242</v>
       </c>
       <c r="F197" t="n">
-        <v>10.50034427642822</v>
+        <v>41.47300720214844</v>
       </c>
       <c r="G197" t="n">
-        <v>50.89735412597656</v>
+        <v>71.66999816894531</v>
       </c>
       <c r="H197" t="n">
-        <v>-65.83750152587891</v>
+        <v>-62.43135070800781</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999881179676907</v>
+        <v>0.9999999605155405</v>
       </c>
       <c r="B198" t="n">
-        <v>25683095.62505405</v>
+        <v>4.927485897583336e+20</v>
       </c>
       <c r="C198" t="n">
-        <v>40.5172233581543</v>
+        <v>38.24275207519531</v>
       </c>
       <c r="D198" t="n">
-        <v>22.52972793579102</v>
+        <v>26.3693904876709</v>
       </c>
       <c r="E198" t="n">
-        <v>-33.08855819702148</v>
+        <v>-14.64475440979004</v>
       </c>
       <c r="F198" t="n">
-        <v>10.49561309814453</v>
+        <v>41.46223449707031</v>
       </c>
       <c r="G198" t="n">
-        <v>50.9065055847168</v>
+        <v>71.67304992675781</v>
       </c>
       <c r="H198" t="n">
-        <v>-65.81956481933594</v>
+        <v>-62.4212646484375</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.9999957341830014</v>
+        <v>0.999999991602017</v>
       </c>
       <c r="B199" t="n">
-        <v>-93417003.98790757</v>
+        <v>-1.621380982905023e+22</v>
       </c>
       <c r="C199" t="n">
-        <v>40.51813507080078</v>
+        <v>38.24895095825195</v>
       </c>
       <c r="D199" t="n">
-        <v>22.53304290771484</v>
+        <v>26.36344337463379</v>
       </c>
       <c r="E199" t="n">
-        <v>-33.08667373657227</v>
+        <v>-14.64669132232666</v>
       </c>
       <c r="F199" t="n">
-        <v>10.49091625213623</v>
+        <v>41.45178604125977</v>
       </c>
       <c r="G199" t="n">
-        <v>50.91554641723633</v>
+        <v>71.67601776123047</v>
       </c>
       <c r="H199" t="n">
-        <v>-65.80197906494141</v>
+        <v>-62.41152572631836</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9999984712586308</v>
+        <v>0.9999999982162177</v>
       </c>
       <c r="B200" t="n">
-        <v>339711285.1305735</v>
+        <v>5.334474290807269e+23</v>
       </c>
       <c r="C200" t="n">
-        <v>40.51900863647461</v>
+        <v>38.25493621826172</v>
       </c>
       <c r="D200" t="n">
-        <v>22.53616523742676</v>
+        <v>26.3576831817627</v>
       </c>
       <c r="E200" t="n">
-        <v>-33.08470153808594</v>
+        <v>-14.64855098724365</v>
       </c>
       <c r="F200" t="n">
-        <v>10.48626708984375</v>
+        <v>41.44168472290039</v>
       </c>
       <c r="G200" t="n">
-        <v>50.92445755004883</v>
+        <v>71.67889404296875</v>
       </c>
       <c r="H200" t="n">
-        <v>-65.78468322753906</v>
+        <v>-62.40209197998047</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9999994530862301</v>
+        <v>0.9999999996216054</v>
       </c>
       <c r="B201" t="n">
-        <v>-1235096035.339015</v>
+        <v>-1.754777723301219e+25</v>
       </c>
       <c r="C201" t="n">
-        <v>40.51984405517578</v>
+        <v>38.26072692871094</v>
       </c>
       <c r="D201" t="n">
-        <v>22.53911209106445</v>
+        <v>26.35210609436035</v>
       </c>
       <c r="E201" t="n">
-        <v>-33.08268356323242</v>
+        <v>-14.65033435821533</v>
       </c>
       <c r="F201" t="n">
-        <v>10.48166656494141</v>
+        <v>41.43189239501953</v>
       </c>
       <c r="G201" t="n">
-        <v>50.93327331542969</v>
+        <v>71.68170928955078</v>
       </c>
       <c r="H201" t="n">
-        <v>-65.76773071289062</v>
+        <v>-62.39299392700195</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9999998046576148</v>
+        <v>0.9999999999198317</v>
       </c>
       <c r="B202" t="n">
-        <v>4489510473.233782</v>
+        <v>5.771375261116549e+26</v>
       </c>
       <c r="C202" t="n">
-        <v>40.52063369750977</v>
+        <v>38.26632308959961</v>
       </c>
       <c r="D202" t="n">
-        <v>22.5418872833252</v>
+        <v>26.34671020507812</v>
       </c>
       <c r="E202" t="n">
-        <v>-33.08058929443359</v>
+        <v>-14.65204906463623</v>
       </c>
       <c r="F202" t="n">
-        <v>10.47712707519531</v>
+        <v>41.42241668701172</v>
       </c>
       <c r="G202" t="n">
-        <v>50.94197082519531</v>
+        <v>71.68444061279297</v>
       </c>
       <c r="H202" t="n">
-        <v>-65.75108337402344</v>
+        <v>-62.38419723510742</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.9999999303378985</v>
+        <v>0.9999999999830359</v>
       </c>
       <c r="B203" t="n">
-        <v>-16315729710.01997</v>
+        <v>-1.897866734310091e+28</v>
       </c>
       <c r="C203" t="n">
-        <v>40.52138900756836</v>
+        <v>38.27173614501953</v>
       </c>
       <c r="D203" t="n">
-        <v>22.54449653625488</v>
+        <v>26.34148597717285</v>
       </c>
       <c r="E203" t="n">
-        <v>-33.07844543457031</v>
+        <v>-14.6536922454834</v>
       </c>
       <c r="F203" t="n">
-        <v>10.47263145446777</v>
+        <v>41.41324234008789</v>
       </c>
       <c r="G203" t="n">
-        <v>50.95055770874023</v>
+        <v>71.68711090087891</v>
       </c>
       <c r="H203" t="n">
-        <v>-65.73476409912109</v>
+        <v>-62.37567520141602</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9999999751942504</v>
+        <v>0.9999999999964145</v>
       </c>
       <c r="B204" t="n">
-        <v>25562157707.03063</v>
+        <v>3.072545450322291e+29</v>
       </c>
       <c r="C204" t="n">
-        <v>40.5221061706543</v>
+        <v>39.38866424560547</v>
       </c>
       <c r="D204" t="n">
-        <v>19.71640396118164</v>
+        <v>22.39022636413574</v>
       </c>
       <c r="E204" t="n">
-        <v>-28.78960037231445</v>
+        <v>-14.65527153015137</v>
       </c>
       <c r="F204" t="n">
-        <v>5.194677352905273</v>
+        <v>27.82123947143555</v>
       </c>
       <c r="G204" t="n">
-        <v>42.74325561523438</v>
+        <v>58.15998840332031</v>
       </c>
       <c r="H204" t="n">
-        <v>-48.97634124755859</v>
+        <v>-46.26819610595703</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.9999999911794881</v>
+        <v>0.999999999999243</v>
       </c>
       <c r="B205" t="n">
-        <v>25562157707.03063</v>
+        <v>3.072545450322291e+29</v>
       </c>
       <c r="C205" t="n">
-        <v>40.52278900146484</v>
+        <v>39.38866424560547</v>
       </c>
       <c r="D205" t="n">
-        <v>19.71640396118164</v>
+        <v>22.39022636413574</v>
       </c>
       <c r="E205" t="n">
-        <v>-28.78960037231445</v>
+        <v>-14.65678215026855</v>
       </c>
       <c r="F205" t="n">
-        <v>5.194677352905273</v>
+        <v>27.82123947143555</v>
       </c>
       <c r="G205" t="n">
-        <v>42.74325561523438</v>
+        <v>58.15998840332031</v>
       </c>
       <c r="H205" t="n">
-        <v>-48.97634124755859</v>
+        <v>-46.26819610595703</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/PV_typical_lstm.xlsx
+++ b/Predictions/PV_typical_lstm.xlsx
@@ -477,5306 +477,5306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-5.275465982776144e+26</v>
       </c>
       <c r="B2" t="n">
-        <v>3.167438787037795e+29</v>
+        <v>3.069364780394314e+20</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68306732177734</v>
+        <v>44.74430084228516</v>
       </c>
       <c r="D2" t="n">
-        <v>15.32068824768066</v>
+        <v>14.70726585388184</v>
       </c>
       <c r="E2" t="n">
-        <v>-15.33073043823242</v>
+        <v>-19.53913497924805</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4475893974304199</v>
+        <v>-6.632107734680176</v>
       </c>
       <c r="G2" t="n">
-        <v>32.00029373168945</v>
+        <v>28.39145278930664</v>
       </c>
       <c r="H2" t="n">
-        <v>-16.70611190795898</v>
+        <v>-21.74309349060059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00370774238370359</v>
+        <v>-2.637732991388072e+26</v>
       </c>
       <c r="B3" t="n">
-        <v>1.583719393518898e+29</v>
+        <v>1.534682390197157e+20</v>
       </c>
       <c r="C3" t="n">
-        <v>41.68306732177734</v>
+        <v>43.20271301269531</v>
       </c>
       <c r="D3" t="n">
-        <v>15.32068824768066</v>
+        <v>14.70726585388184</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.6551570892334</v>
+        <v>-17.65507698059082</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.653972625732422</v>
+        <v>-10.35041618347168</v>
       </c>
       <c r="G3" t="n">
-        <v>26.41426277160645</v>
+        <v>24.63883781433105</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.19651031494141</v>
+        <v>-15.92267417907715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0109714157320559</v>
+        <v>-1.318866495694036e+26</v>
       </c>
       <c r="B4" t="n">
-        <v>7.918596967594488e+28</v>
+        <v>7.673411950985785e+19</v>
       </c>
       <c r="C4" t="n">
-        <v>43.15377426147461</v>
+        <v>43.20271301269531</v>
       </c>
       <c r="D4" t="n">
-        <v>13.85268497467041</v>
+        <v>13.94982624053955</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.14649963378906</v>
+        <v>-16.62344360351562</v>
       </c>
       <c r="F4" t="n">
-        <v>-10.40121078491211</v>
+        <v>-12.46783638000488</v>
       </c>
       <c r="G4" t="n">
-        <v>24.2559700012207</v>
+        <v>23.48366546630859</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.19651031494141</v>
+        <v>-15.92267417907715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.02301888551563025</v>
+        <v>-6.59433247847018e+25</v>
       </c>
       <c r="B5" t="n">
-        <v>3.959298483797244e+28</v>
+        <v>3.836705975492892e+19</v>
       </c>
       <c r="C5" t="n">
-        <v>43.63147735595703</v>
+        <v>41.64933395385742</v>
       </c>
       <c r="D5" t="n">
-        <v>15.32387828826904</v>
+        <v>15.27131938934326</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.75951194763184</v>
+        <v>-16.62344360351562</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.42529487609863</v>
+        <v>-13.77118110656738</v>
       </c>
       <c r="G5" t="n">
-        <v>24.2559700012207</v>
+        <v>23.48366546630859</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.90026473999023</v>
+        <v>-17.14018249511719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.03894870951771736</v>
+        <v>-3.29716623923509e+25</v>
       </c>
       <c r="B6" t="n">
-        <v>1.979649241898622e+28</v>
+        <v>1.918352987746446e+19</v>
       </c>
       <c r="C6" t="n">
-        <v>44.26312255859375</v>
+        <v>41.80462265014648</v>
       </c>
       <c r="D6" t="n">
-        <v>16.59289360046387</v>
+        <v>16.41036987304688</v>
       </c>
       <c r="E6" t="n">
-        <v>-17.47017288208008</v>
+        <v>-15.19459533691406</v>
       </c>
       <c r="F6" t="n">
-        <v>-13.49843597412109</v>
+        <v>-13.77118110656738</v>
       </c>
       <c r="G6" t="n">
-        <v>23.27930641174316</v>
+        <v>23.83797836303711</v>
       </c>
       <c r="H6" t="n">
-        <v>-17.07223320007324</v>
+        <v>-20.63265800476074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.05691711932420731</v>
+        <v>-1.648583119617545e+25</v>
       </c>
       <c r="B7" t="n">
-        <v>9.898246209493111e+27</v>
+        <v>9.591764938732231e+18</v>
       </c>
       <c r="C7" t="n">
-        <v>44.97560119628906</v>
+        <v>42.10680389404297</v>
       </c>
       <c r="D7" t="n">
-        <v>17.69934844970703</v>
+        <v>17.42125511169434</v>
       </c>
       <c r="E7" t="n">
-        <v>-18.26653671264648</v>
+        <v>-14.58767795562744</v>
       </c>
       <c r="F7" t="n">
-        <v>-13.49843597412109</v>
+        <v>-15.43001461029053</v>
       </c>
       <c r="G7" t="n">
-        <v>24.44832420349121</v>
+        <v>25.49217224121094</v>
       </c>
       <c r="H7" t="n">
-        <v>-20.90551376342773</v>
+        <v>-24.69533348083496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.07568229585886002</v>
+        <v>-8.242915598087725e+24</v>
       </c>
       <c r="B8" t="n">
-        <v>4.949123104746555e+27</v>
+        <v>4.795882469366115e+18</v>
       </c>
       <c r="C8" t="n">
-        <v>45.71967315673828</v>
+        <v>42.55730438232422</v>
       </c>
       <c r="D8" t="n">
-        <v>18.67382621765137</v>
+        <v>18.36169815063477</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.13469505310059</v>
+        <v>-13.80243015289307</v>
       </c>
       <c r="F8" t="n">
-        <v>-14.434645652771</v>
+        <v>-15.56766414642334</v>
       </c>
       <c r="G8" t="n">
-        <v>25.66646385192871</v>
+        <v>28.35412216186523</v>
       </c>
       <c r="H8" t="n">
-        <v>-25.18171310424805</v>
+        <v>-28.99315643310547</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.09347522854804993</v>
+        <v>-4.121457799043863e+24</v>
       </c>
       <c r="B9" t="n">
-        <v>2.474561552373278e+27</v>
+        <v>2.397941234683058e+18</v>
       </c>
       <c r="C9" t="n">
-        <v>46.42519378662109</v>
+        <v>43.16526412963867</v>
       </c>
       <c r="D9" t="n">
-        <v>19.5178394317627</v>
+        <v>19.27567672729492</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.99841117858887</v>
+        <v>-12.89755630493164</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.97224712371826</v>
+        <v>-15.42700481414795</v>
       </c>
       <c r="G9" t="n">
-        <v>26.98190879821777</v>
+        <v>29.98393249511719</v>
       </c>
       <c r="H9" t="n">
-        <v>-29.76885223388672</v>
+        <v>-33.31224822998047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1091156661510468</v>
+        <v>-2.060728899521931e+24</v>
       </c>
       <c r="B10" t="n">
-        <v>1.237280776186639e+27</v>
+        <v>1.198970617341529e+18</v>
       </c>
       <c r="C10" t="n">
-        <v>47.04536437988281</v>
+        <v>43.92863082885742</v>
       </c>
       <c r="D10" t="n">
-        <v>20.25519561767578</v>
+        <v>20.18024826049805</v>
       </c>
       <c r="E10" t="n">
-        <v>-20.79495048522949</v>
+        <v>-11.95176887512207</v>
       </c>
       <c r="F10" t="n">
-        <v>-13.13473415374756</v>
+        <v>-14.97465038299561</v>
       </c>
       <c r="G10" t="n">
-        <v>28.42964744567871</v>
+        <v>31.99996566772461</v>
       </c>
       <c r="H10" t="n">
-        <v>-34.55589294433594</v>
+        <v>-37.50113677978516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1216383937001228</v>
+        <v>-1.030364449760966e+24</v>
       </c>
       <c r="B11" t="n">
-        <v>6.186403880933194e+26</v>
+        <v>5.994853086707644e+17</v>
       </c>
       <c r="C11" t="n">
-        <v>47.54191207885742</v>
+        <v>44.82489013671875</v>
       </c>
       <c r="D11" t="n">
-        <v>20.92342758178711</v>
+        <v>21.06496429443359</v>
       </c>
       <c r="E11" t="n">
-        <v>-21.47598457336426</v>
+        <v>-11.05909538269043</v>
       </c>
       <c r="F11" t="n">
-        <v>-11.89374828338623</v>
+        <v>-14.20669841766357</v>
       </c>
       <c r="G11" t="n">
-        <v>30.02584648132324</v>
+        <v>34.26513671875</v>
       </c>
       <c r="H11" t="n">
-        <v>-39.42322540283203</v>
+        <v>-41.45006561279297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1301388736069203</v>
+        <v>-5.151822248804828e+23</v>
       </c>
       <c r="B12" t="n">
-        <v>3.093201940466597e+26</v>
+        <v>2.997426543353822e+17</v>
       </c>
       <c r="C12" t="n">
-        <v>47.87897109985352</v>
+        <v>45.80813217163086</v>
       </c>
       <c r="D12" t="n">
-        <v>21.55879402160645</v>
+        <v>21.89404678344727</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.99421882629395</v>
+        <v>-10.31340408325195</v>
       </c>
       <c r="F12" t="n">
-        <v>-9.231568336486816</v>
+        <v>-13.14738750457764</v>
       </c>
       <c r="G12" t="n">
-        <v>31.76572608947754</v>
+        <v>36.67720794677734</v>
       </c>
       <c r="H12" t="n">
-        <v>-44.23960113525391</v>
+        <v>-45.08793640136719</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.1339665871858597</v>
+        <v>-2.575911124402414e+23</v>
       </c>
       <c r="B13" t="n">
-        <v>1.546600970233299e+26</v>
+        <v>1.498713271676911e+17</v>
       </c>
       <c r="C13" t="n">
-        <v>48.03074645996094</v>
+        <v>46.81731414794922</v>
       </c>
       <c r="D13" t="n">
-        <v>22.19157218933105</v>
+        <v>22.61511421203613</v>
       </c>
       <c r="E13" t="n">
-        <v>-22.31992530822754</v>
+        <v>-9.792174339294434</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.546187400817871</v>
+        <v>-11.84336757659912</v>
       </c>
       <c r="G13" t="n">
-        <v>33.62635040283203</v>
+        <v>39.1492919921875</v>
       </c>
       <c r="H13" t="n">
-        <v>-48.87459564208984</v>
+        <v>-48.38329315185547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1328158730268479</v>
+        <v>-1.287955562201207e+23</v>
       </c>
       <c r="B14" t="n">
-        <v>7.733004851166493e+25</v>
+        <v>7.493566358384555e+16</v>
       </c>
       <c r="C14" t="n">
-        <v>47.9851188659668</v>
+        <v>47.79122543334961</v>
       </c>
       <c r="D14" t="n">
-        <v>22.84103584289551</v>
+        <v>23.17207717895508</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.44829940795898</v>
+        <v>-9.545373916625977</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.396092414855957</v>
+        <v>-10.35413646697998</v>
       </c>
       <c r="G14" t="n">
-        <v>35.57328414916992</v>
+        <v>41.60726165771484</v>
       </c>
       <c r="H14" t="n">
-        <v>-53.21538543701172</v>
+        <v>-51.34017944335938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1267463976144791</v>
+        <v>-6.439777811006035e+22</v>
       </c>
       <c r="B15" t="n">
-        <v>3.866502425583246e+25</v>
+        <v>3.746783179192278e+16</v>
       </c>
       <c r="C15" t="n">
-        <v>47.74445343017578</v>
+        <v>48.68153381347656</v>
       </c>
       <c r="D15" t="n">
-        <v>23.51314926147461</v>
+        <v>23.51828956604004</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.39774322509766</v>
+        <v>-9.590879440307617</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.92234992980957</v>
+        <v>-8.74158763885498</v>
       </c>
       <c r="G15" t="n">
-        <v>38.57139587402344</v>
+        <v>43.99360656738281</v>
       </c>
       <c r="H15" t="n">
-        <v>-57.17924118041992</v>
+        <v>-53.98410797119141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1161250683665276</v>
+        <v>-3.219888905503018e+22</v>
       </c>
       <c r="B16" t="n">
-        <v>1.933251212791623e+25</v>
+        <v>1.873391589596139e+16</v>
       </c>
       <c r="C16" t="n">
-        <v>47.32329940795898</v>
+        <v>49.45464324951172</v>
       </c>
       <c r="D16" t="n">
-        <v>24.20249366760254</v>
+        <v>23.62385749816895</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.20111465454102</v>
+        <v>-9.908763885498047</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2316347360610962</v>
+        <v>-7.063868522644043</v>
       </c>
       <c r="G16" t="n">
-        <v>40.06619262695312</v>
+        <v>46.26519012451172</v>
       </c>
       <c r="H16" t="n">
-        <v>-60.71811676025391</v>
+        <v>-56.35031509399414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1015280716121197</v>
+        <v>-1.609944452751509e+22</v>
       </c>
       <c r="B17" t="n">
-        <v>9.666256063958116e+24</v>
+        <v>9366957947980692</v>
       </c>
       <c r="C17" t="n">
-        <v>46.74450302124023</v>
+        <v>50.1109619140625</v>
       </c>
       <c r="D17" t="n">
-        <v>24.89730644226074</v>
+        <v>23.49339866638184</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.89551544189453</v>
+        <v>-10.46970844268799</v>
       </c>
       <c r="F17" t="n">
-        <v>2.591189622879028</v>
+        <v>-5.382792472839355</v>
       </c>
       <c r="G17" t="n">
-        <v>41.78386306762695</v>
+        <v>48.38816833496094</v>
       </c>
       <c r="H17" t="n">
-        <v>-63.81637573242188</v>
+        <v>-58.47046661376953</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.08363806933164597</v>
+        <v>-8.049722263757544e+21</v>
       </c>
       <c r="B18" t="n">
-        <v>4.833128031979058e+24</v>
+        <v>4683478973990345</v>
       </c>
       <c r="C18" t="n">
-        <v>46.03513336181641</v>
+        <v>50.6700439453125</v>
       </c>
       <c r="D18" t="n">
-        <v>25.58486175537109</v>
+        <v>23.15890312194824</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.51503562927246</v>
+        <v>-11.23182964324951</v>
       </c>
       <c r="F18" t="n">
-        <v>5.477777004241943</v>
+        <v>-3.762492418289185</v>
       </c>
       <c r="G18" t="n">
-        <v>43.57984924316406</v>
+        <v>50.33154678344727</v>
       </c>
       <c r="H18" t="n">
-        <v>-66.48431396484375</v>
+        <v>-60.36480712890625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.06316756069660187</v>
+        <v>-4.024861131878772e+21</v>
       </c>
       <c r="B19" t="n">
-        <v>2.416564015989529e+24</v>
+        <v>2341739486995171</v>
       </c>
       <c r="C19" t="n">
-        <v>45.22344207763672</v>
+        <v>51.16156387329102</v>
       </c>
       <c r="D19" t="n">
-        <v>26.25505638122559</v>
+        <v>22.67386245727539</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.08761405944824</v>
+        <v>-12.14677810668945</v>
       </c>
       <c r="F19" t="n">
-        <v>8.375689506530762</v>
+        <v>-2.268765687942505</v>
       </c>
       <c r="G19" t="n">
-        <v>45.37593078613281</v>
+        <v>52.06630706787109</v>
       </c>
       <c r="H19" t="n">
-        <v>-68.751953125</v>
+        <v>-62.04212188720703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.04078410744667053</v>
+        <v>-2.012430565939386e+21</v>
       </c>
       <c r="B20" t="n">
-        <v>1.208282007994764e+24</v>
+        <v>1170869743497584</v>
       </c>
       <c r="C20" t="n">
-        <v>44.33589935302734</v>
+        <v>51.61531829833984</v>
       </c>
       <c r="D20" t="n">
-        <v>26.90309715270996</v>
+        <v>22.10214805603027</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.63067817687988</v>
+        <v>-13.16452884674072</v>
       </c>
       <c r="F20" t="n">
-        <v>11.24472522735596</v>
+        <v>-0.959145724773407</v>
       </c>
       <c r="G20" t="n">
-        <v>47.12894439697266</v>
+        <v>53.57047653198242</v>
       </c>
       <c r="H20" t="n">
-        <v>-70.66033935546875</v>
+        <v>-63.50490570068359</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.01707273926585913</v>
+        <v>-1.006215282969693e+21</v>
       </c>
       <c r="B21" t="n">
-        <v>6.041410039973822e+23</v>
+        <v>585434871748790.4</v>
       </c>
       <c r="C21" t="n">
-        <v>43.39570236206055</v>
+        <v>52.05098342895508</v>
       </c>
       <c r="D21" t="n">
-        <v>27.52688789367676</v>
+        <v>21.50518035888672</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.15678977966309</v>
+        <v>-14.23707103729248</v>
       </c>
       <c r="F21" t="n">
-        <v>14.05418395996094</v>
+        <v>0.130423367023468</v>
       </c>
       <c r="G21" t="n">
-        <v>48.81462478637695</v>
+        <v>54.83465576171875</v>
       </c>
       <c r="H21" t="n">
-        <v>-72.25408935546875</v>
+        <v>-64.75907897949219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.007427991628646851</v>
+        <v>-5.031076414848465e+20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.020705019986911e+23</v>
+        <v>292717435874393.5</v>
       </c>
       <c r="C22" t="n">
-        <v>42.4242057800293</v>
+        <v>52.48044204711914</v>
       </c>
       <c r="D22" t="n">
-        <v>28.12726593017578</v>
+        <v>20.93035316467285</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.67564582824707</v>
+        <v>-15.32305335998535</v>
       </c>
       <c r="F22" t="n">
-        <v>16.78075790405273</v>
+        <v>0.9887798428535461</v>
       </c>
       <c r="G22" t="n">
-        <v>50.41983413696289</v>
+        <v>55.86428833007812</v>
       </c>
       <c r="H22" t="n">
-        <v>-73.5770263671875</v>
+        <v>-65.81884765625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.03222253356128931</v>
+        <v>-2.515538207424232e+20</v>
       </c>
       <c r="B23" t="n">
-        <v>1.510352509993456e+23</v>
+        <v>146358717937195</v>
       </c>
       <c r="C23" t="n">
-        <v>41.44105911254883</v>
+        <v>52.9079704284668</v>
       </c>
       <c r="D23" t="n">
-        <v>28.70280456542969</v>
+        <v>20.40864372253418</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.19329261779785</v>
+        <v>-16.39073181152344</v>
       </c>
       <c r="F23" t="n">
-        <v>19.40749359130859</v>
+        <v>1.629034757614136</v>
       </c>
       <c r="G23" t="n">
-        <v>51.93769836425781</v>
+        <v>55.86428833007812</v>
       </c>
       <c r="H23" t="n">
-        <v>-74.67088317871094</v>
+        <v>-65.81884765625</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.05683505520224572</v>
+        <v>-1.257769103712116e+20</v>
       </c>
       <c r="B24" t="n">
-        <v>7.551762549967278e+22</v>
+        <v>73179358968595.75</v>
       </c>
       <c r="C24" t="n">
-        <v>40.46512985229492</v>
+        <v>53.33021926879883</v>
       </c>
       <c r="D24" t="n">
-        <v>29.25558853149414</v>
+        <v>19.95916557312012</v>
       </c>
       <c r="E24" t="n">
-        <v>-18.71478271484375</v>
+        <v>-17.41798400878906</v>
       </c>
       <c r="F24" t="n">
-        <v>21.92216491699219</v>
+        <v>2.082546949386597</v>
       </c>
       <c r="G24" t="n">
-        <v>53.36470794677734</v>
+        <v>57.48566818237305</v>
       </c>
       <c r="H24" t="n">
-        <v>-74.67088317871094</v>
+        <v>-67.59228515625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.08100522547960282</v>
+        <v>-6.288845518560581e+19</v>
       </c>
       <c r="B25" t="n">
-        <v>3.775881274983639e+22</v>
+        <v>36589679484296.09</v>
       </c>
       <c r="C25" t="n">
-        <v>39.50674057006836</v>
+        <v>53.7347297668457</v>
       </c>
       <c r="D25" t="n">
-        <v>29.78476333618164</v>
+        <v>19.59874153137207</v>
       </c>
       <c r="E25" t="n">
-        <v>-18.23810577392578</v>
+        <v>-18.38779449462891</v>
       </c>
       <c r="F25" t="n">
-        <v>24.31828689575195</v>
+        <v>2.394976377487183</v>
       </c>
       <c r="G25" t="n">
-        <v>54.70024108886719</v>
+        <v>57.89044952392578</v>
       </c>
       <c r="H25" t="n">
-        <v>-76.47920989990234</v>
+        <v>-68.18158721923828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1044805082678795</v>
+        <v>-3.144422759280291e+19</v>
       </c>
       <c r="B26" t="n">
-        <v>1.887940637491819e+22</v>
+        <v>18294839742146.24</v>
       </c>
       <c r="C26" t="n">
-        <v>38.57590484619141</v>
+        <v>54.1320915222168</v>
       </c>
       <c r="D26" t="n">
-        <v>30.29507827758789</v>
+        <v>19.31688117980957</v>
       </c>
       <c r="E26" t="n">
-        <v>-17.76442909240723</v>
+        <v>-19.29991340637207</v>
       </c>
       <c r="F26" t="n">
-        <v>26.59378051757812</v>
+        <v>2.58208155632019</v>
       </c>
       <c r="G26" t="n">
-        <v>55.945556640625</v>
+        <v>58.14816665649414</v>
       </c>
       <c r="H26" t="n">
-        <v>-77.07353973388672</v>
+        <v>-68.66789245605469</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.1271031250059605</v>
+        <v>-1.572211379640145e+19</v>
       </c>
       <c r="B27" t="n">
-        <v>9.439703187459097e+21</v>
+        <v>9147419871071.32</v>
       </c>
       <c r="C27" t="n">
-        <v>37.67887878417969</v>
+        <v>54.52724838256836</v>
       </c>
       <c r="D27" t="n">
-        <v>30.7900276184082</v>
+        <v>19.10159111022949</v>
       </c>
       <c r="E27" t="n">
-        <v>-17.29383277893066</v>
+        <v>-20.16516304016113</v>
       </c>
       <c r="F27" t="n">
-        <v>28.74972724914551</v>
+        <v>2.669535398483276</v>
       </c>
       <c r="G27" t="n">
-        <v>57.10316467285156</v>
+        <v>58.29080200195312</v>
       </c>
       <c r="H27" t="n">
-        <v>-77.57254791259766</v>
+        <v>-69.07427215576172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1487833192944527</v>
+        <v>-7.861056898200727e+18</v>
       </c>
       <c r="B28" t="n">
-        <v>4.719851593729549e+21</v>
+        <v>4573709935533.863</v>
       </c>
       <c r="C28" t="n">
-        <v>36.81922149658203</v>
+        <v>54.91994094848633</v>
       </c>
       <c r="D28" t="n">
-        <v>31.27197647094727</v>
+        <v>18.94334983825684</v>
       </c>
       <c r="E28" t="n">
-        <v>-16.82580375671387</v>
+        <v>-20.99116516113281</v>
       </c>
       <c r="F28" t="n">
-        <v>30.78865432739258</v>
+        <v>2.683296918869019</v>
       </c>
       <c r="G28" t="n">
-        <v>58.17678070068359</v>
+        <v>58.34309005737305</v>
       </c>
       <c r="H28" t="n">
-        <v>-77.99561309814453</v>
+        <v>-69.41645050048828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1695525473356247</v>
+        <v>-3.930528449100363e+18</v>
       </c>
       <c r="B29" t="n">
-        <v>2.359925796864774e+21</v>
+        <v>2286854967765.142</v>
       </c>
       <c r="C29" t="n">
-        <v>35.99568557739258</v>
+        <v>55.30744171142578</v>
       </c>
       <c r="D29" t="n">
-        <v>31.7445011138916</v>
+        <v>18.83335113525391</v>
       </c>
       <c r="E29" t="n">
-        <v>-16.36088562011719</v>
+        <v>-21.7843074798584</v>
       </c>
       <c r="F29" t="n">
-        <v>32.71408081054688</v>
+        <v>2.645790815353394</v>
       </c>
       <c r="G29" t="n">
-        <v>58.17678070068359</v>
+        <v>58.32376098632812</v>
       </c>
       <c r="H29" t="n">
-        <v>-78.35881805419922</v>
+        <v>-69.70629119873047</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1894155240058899</v>
+        <v>-1.965264224550182e+18</v>
       </c>
       <c r="B30" t="n">
-        <v>1.179962898432387e+21</v>
+        <v>1143427483880.792</v>
       </c>
       <c r="C30" t="n">
-        <v>35.20808410644531</v>
+        <v>55.68361663818359</v>
       </c>
       <c r="D30" t="n">
-        <v>32.2082633972168</v>
+        <v>18.7640438079834</v>
       </c>
       <c r="E30" t="n">
-        <v>-15.89974403381348</v>
+        <v>-22.54805946350098</v>
       </c>
       <c r="F30" t="n">
-        <v>34.53033065795898</v>
+        <v>2.577934980392456</v>
       </c>
       <c r="G30" t="n">
-        <v>60.16409301757812</v>
+        <v>58.24718856811523</v>
       </c>
       <c r="H30" t="n">
-        <v>-78.67390441894531</v>
+        <v>-69.95041656494141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2083330929279328</v>
+        <v>-9.826321122750908e+17</v>
       </c>
       <c r="B31" t="n">
-        <v>5.899814492161936e+20</v>
+        <v>571713741938.6274</v>
       </c>
       <c r="C31" t="n">
-        <v>34.45796966552734</v>
+        <v>56.04627990722656</v>
       </c>
       <c r="D31" t="n">
-        <v>32.66119003295898</v>
+        <v>18.72727966308594</v>
       </c>
       <c r="E31" t="n">
-        <v>-15.44290447235107</v>
+        <v>-23.28904914855957</v>
       </c>
       <c r="F31" t="n">
-        <v>36.2420654296875</v>
+        <v>2.489533185958862</v>
       </c>
       <c r="G31" t="n">
-        <v>61.00557327270508</v>
+        <v>58.12710571289062</v>
       </c>
       <c r="H31" t="n">
-        <v>-78.94953155517578</v>
+        <v>-70.15771484375</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2262843728065491</v>
+        <v>-4.913160561375454e+17</v>
       </c>
       <c r="B32" t="n">
-        <v>2.949907246080968e+20</v>
+        <v>285856870967.5569</v>
       </c>
       <c r="C32" t="n">
-        <v>33.74617004394531</v>
+        <v>56.38967895507812</v>
       </c>
       <c r="D32" t="n">
-        <v>33.10085296630859</v>
+        <v>18.71726226806641</v>
       </c>
       <c r="E32" t="n">
-        <v>-14.99134159088135</v>
+        <v>-24.01321983337402</v>
       </c>
       <c r="F32" t="n">
-        <v>37.85381317138672</v>
+        <v>2.389845609664917</v>
       </c>
       <c r="G32" t="n">
-        <v>61.7781982421875</v>
+        <v>57.97602844238281</v>
       </c>
       <c r="H32" t="n">
-        <v>-79.19280242919922</v>
+        <v>-70.33537292480469</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2432606130838394</v>
+        <v>-2.456580280687727e+17</v>
       </c>
       <c r="B33" t="n">
-        <v>1.474953623040484e+20</v>
+        <v>142928435499.146</v>
       </c>
       <c r="C33" t="n">
-        <v>33.07303237915039</v>
+        <v>56.71837615966797</v>
       </c>
       <c r="D33" t="n">
-        <v>33.52452087402344</v>
+        <v>18.72737693786621</v>
       </c>
       <c r="E33" t="n">
-        <v>-14.54641342163086</v>
+        <v>-24.71340179443359</v>
       </c>
       <c r="F33" t="n">
-        <v>39.36968231201172</v>
+        <v>2.288031339645386</v>
       </c>
       <c r="G33" t="n">
-        <v>62.48503494262695</v>
+        <v>57.79362869262695</v>
       </c>
       <c r="H33" t="n">
-        <v>-79.40936279296875</v>
+        <v>-70.49025726318359</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2592698061466217</v>
+        <v>-1.22829014034386e+17</v>
       </c>
       <c r="B34" t="n">
-        <v>7.374768115202419e+19</v>
+        <v>71464217652.67865</v>
       </c>
       <c r="C34" t="n">
-        <v>32.43824005126953</v>
+        <v>57.03007888793945</v>
       </c>
       <c r="D34" t="n">
-        <v>33.9296989440918</v>
+        <v>18.7532901763916</v>
       </c>
       <c r="E34" t="n">
-        <v>-14.10975933074951</v>
+        <v>-25.38976669311523</v>
       </c>
       <c r="F34" t="n">
-        <v>40.79316711425781</v>
+        <v>2.191204786300659</v>
       </c>
       <c r="G34" t="n">
-        <v>63.12873458862305</v>
+        <v>57.58803939819336</v>
       </c>
       <c r="H34" t="n">
-        <v>-79.60369110107422</v>
+        <v>-70.62786102294922</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.6166119437682431</v>
+        <v>-6.141450701720899e+16</v>
       </c>
       <c r="B35" t="n">
-        <v>3.687384057601243e+19</v>
+        <v>35732109461.80667</v>
       </c>
       <c r="C35" t="n">
-        <v>31.84155082702637</v>
+        <v>57.32238388061523</v>
       </c>
       <c r="D35" t="n">
-        <v>34.31379318237305</v>
+        <v>18.79106140136719</v>
       </c>
       <c r="E35" t="n">
-        <v>-13.68302249908447</v>
+        <v>-26.04113578796387</v>
       </c>
       <c r="F35" t="n">
-        <v>42.12718963623047</v>
+        <v>2.10425066947937</v>
       </c>
       <c r="G35" t="n">
-        <v>63.71243667602539</v>
+        <v>57.36555099487305</v>
       </c>
       <c r="H35" t="n">
-        <v>-79.77793121337891</v>
+        <v>-70.75234222412109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7913700315542043</v>
+        <v>-3.070725350796469e+16</v>
       </c>
       <c r="B36" t="n">
-        <v>1.843692028799471e+19</v>
+        <v>17866050606.88875</v>
       </c>
       <c r="C36" t="n">
-        <v>31.28268432617188</v>
+        <v>57.59309768676758</v>
       </c>
       <c r="D36" t="n">
-        <v>34.67442321777344</v>
+        <v>18.83755302429199</v>
       </c>
       <c r="E36" t="n">
-        <v>-13.26776695251465</v>
+        <v>-26.66577911376953</v>
       </c>
       <c r="F36" t="n">
-        <v>43.37468719482422</v>
+        <v>2.031096220016479</v>
       </c>
       <c r="G36" t="n">
-        <v>64.23992156982422</v>
+        <v>57.13215255737305</v>
       </c>
       <c r="H36" t="n">
-        <v>-79.93307495117188</v>
+        <v>-70.86795043945312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8812774801496261</v>
+        <v>-1.535362677989819e+16</v>
       </c>
       <c r="B37" t="n">
-        <v>9.218460144405646e+18</v>
+        <v>8933052032.280834</v>
       </c>
       <c r="C37" t="n">
-        <v>30.7597484588623</v>
+        <v>57.84016036987305</v>
       </c>
       <c r="D37" t="n">
-        <v>35.01055526733398</v>
+        <v>18.89046096801758</v>
       </c>
       <c r="E37" t="n">
-        <v>-12.86543655395508</v>
+        <v>-27.26184272766113</v>
       </c>
       <c r="F37" t="n">
-        <v>44.53883361816406</v>
+        <v>1.975119352340698</v>
       </c>
       <c r="G37" t="n">
-        <v>64.71337890625</v>
+        <v>56.89372253417969</v>
       </c>
       <c r="H37" t="n">
-        <v>-80.07393646240234</v>
+        <v>-70.97909545898438</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9296748240080627</v>
+        <v>-7676812327521323</v>
       </c>
       <c r="B38" t="n">
-        <v>4.609230057465767e+18</v>
+        <v>4466352951.226023</v>
       </c>
       <c r="C38" t="n">
-        <v>30.27027320861816</v>
+        <v>58.06151580810547</v>
       </c>
       <c r="D38" t="n">
-        <v>35.32228469848633</v>
+        <v>18.94832229614258</v>
       </c>
       <c r="E38" t="n">
-        <v>-12.47733497619629</v>
+        <v>-27.82762718200684</v>
       </c>
       <c r="F38" t="n">
-        <v>45.6231689453125</v>
+        <v>1.939373731613159</v>
       </c>
       <c r="G38" t="n">
-        <v>65.13536834716797</v>
+        <v>56.65595245361328</v>
       </c>
       <c r="H38" t="n">
-        <v>-80.20492553710938</v>
+        <v>-71.09064483642578</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9568075425176931</v>
+        <v>-3838450158163101</v>
       </c>
       <c r="B39" t="n">
-        <v>2.30461556897864e+18</v>
+        <v>2234298049.007251</v>
       </c>
       <c r="C39" t="n">
-        <v>29.81144523620605</v>
+        <v>58.25511932373047</v>
       </c>
       <c r="D39" t="n">
-        <v>35.61057662963867</v>
+        <v>19.01047897338867</v>
       </c>
       <c r="E39" t="n">
-        <v>-12.10467338562012</v>
+        <v>-28.36178779602051</v>
       </c>
       <c r="F39" t="n">
-        <v>46.63170623779297</v>
+        <v>1.926781415939331</v>
       </c>
       <c r="G39" t="n">
-        <v>65.50887298583984</v>
+        <v>56.42435455322266</v>
       </c>
       <c r="H39" t="n">
-        <v>-80.33052825927734</v>
+        <v>-71.20761871337891</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9725854885669305</v>
+        <v>-1917388634810542</v>
       </c>
       <c r="B40" t="n">
-        <v>1.152287696414397e+18</v>
+        <v>1109860638.420638</v>
       </c>
       <c r="C40" t="n">
-        <v>29.38012504577637</v>
+        <v>58.41882705688477</v>
       </c>
       <c r="D40" t="n">
-        <v>35.87717056274414</v>
+        <v>19.07708549499512</v>
       </c>
       <c r="E40" t="n">
-        <v>-11.7484655380249</v>
+        <v>-28.86336326599121</v>
       </c>
       <c r="F40" t="n">
-        <v>46.63170623779297</v>
+        <v>1.940006971359253</v>
       </c>
       <c r="G40" t="n">
-        <v>65.83717346191406</v>
+        <v>56.20395660400391</v>
       </c>
       <c r="H40" t="n">
-        <v>-80.45494842529297</v>
+        <v>-71.33538818359375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9820687298789548</v>
+        <v>-1035808376381646</v>
       </c>
       <c r="B41" t="n">
-        <v>5.769005745933677e+17</v>
+        <v>602516009.9376979</v>
       </c>
       <c r="C41" t="n">
-        <v>28.97298240661621</v>
+        <v>58.5506477355957</v>
       </c>
       <c r="D41" t="n">
-        <v>36.12448120117188</v>
+        <v>19.14865684509277</v>
       </c>
       <c r="E41" t="n">
-        <v>-11.40945529937744</v>
+        <v>-29.33193206787109</v>
       </c>
       <c r="F41" t="n">
-        <v>48.5062370300293</v>
+        <v>1.981507062911987</v>
       </c>
       <c r="G41" t="n">
-        <v>66.12377166748047</v>
+        <v>55.99942398071289</v>
       </c>
       <c r="H41" t="n">
-        <v>-80.58210754394531</v>
+        <v>-71.47878265380859</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.987941900203179</v>
+        <v>2732521430509195</v>
       </c>
       <c r="B42" t="n">
-        <v>2.596006460055425e+17</v>
+        <v>-11516329.34995532</v>
       </c>
       <c r="C42" t="n">
-        <v>28.5866641998291</v>
+        <v>58.64882278442383</v>
       </c>
       <c r="D42" t="n">
-        <v>36.35530090332031</v>
+        <v>19.22597885131836</v>
       </c>
       <c r="E42" t="n">
-        <v>-11.08803081512451</v>
+        <v>-29.76734733581543</v>
       </c>
       <c r="F42" t="n">
-        <v>49.31110000610352</v>
+        <v>2.053152799606323</v>
       </c>
       <c r="G42" t="n">
-        <v>66.37237548828125</v>
+        <v>55.8145866394043</v>
       </c>
       <c r="H42" t="n">
-        <v>-80.71533203125</v>
+        <v>-71.64181518554688</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9916797959778659</v>
+        <v>-1.358709565948322e+17</v>
       </c>
       <c r="B43" t="n">
-        <v>1.2419103062123e+18</v>
+        <v>2067898276.647739</v>
       </c>
       <c r="C43" t="n">
-        <v>28.21789741516113</v>
+        <v>58.71205902099609</v>
       </c>
       <c r="D43" t="n">
-        <v>36.57263946533203</v>
+        <v>19.3098030090332</v>
       </c>
       <c r="E43" t="n">
-        <v>-10.78417015075684</v>
+        <v>-30.1695613861084</v>
       </c>
       <c r="F43" t="n">
-        <v>50.06083679199219</v>
+        <v>2.155874967575073</v>
       </c>
       <c r="G43" t="n">
-        <v>66.58679962158203</v>
+        <v>55.65210723876953</v>
       </c>
       <c r="H43" t="n">
-        <v>-80.85741424560547</v>
+        <v>-71.82691192626953</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9941187273419753</v>
+        <v>5.723981637422458e+18</v>
       </c>
       <c r="B44" t="n">
-        <v>-4.269220224498844e+19</v>
+        <v>-12858075706.73433</v>
       </c>
       <c r="C44" t="n">
-        <v>27.86364364624023</v>
+        <v>58.73990631103516</v>
       </c>
       <c r="D44" t="n">
-        <v>36.77944564819336</v>
+        <v>19.40055465698242</v>
       </c>
       <c r="E44" t="n">
-        <v>-10.49747848510742</v>
+        <v>-30.53847312927246</v>
       </c>
       <c r="F44" t="n">
-        <v>50.76163101196289</v>
+        <v>2.289313077926636</v>
       </c>
       <c r="G44" t="n">
-        <v>66.77082061767578</v>
+        <v>55.51333999633789</v>
       </c>
       <c r="H44" t="n">
-        <v>-81.01036071777344</v>
+        <v>-72.03451538085938</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9957468887549557</v>
+        <v>-2.409926553526693e+20</v>
       </c>
       <c r="B45" t="n">
-        <v>1.681854477970058e+21</v>
+        <v>87755626374.28186</v>
       </c>
       <c r="C45" t="n">
-        <v>27.52119064331055</v>
+        <v>58.73294067382812</v>
       </c>
       <c r="D45" t="n">
-        <v>36.9784049987793</v>
+        <v>19.49819564819336</v>
       </c>
       <c r="E45" t="n">
-        <v>-10.22719955444336</v>
+        <v>-30.87396430969238</v>
       </c>
       <c r="F45" t="n">
-        <v>51.41968536376953</v>
+        <v>2.451758146286011</v>
       </c>
       <c r="G45" t="n">
-        <v>66.92812347412109</v>
+        <v>55.39836883544922</v>
       </c>
       <c r="H45" t="n">
-        <v>-81.17525482177734</v>
+        <v>-72.26286315917969</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9968569215639252</v>
+        <v>1.01032162231749e+22</v>
       </c>
       <c r="B46" t="n">
-        <v>-6.674270856752614e+22</v>
+        <v>-603132353120.926</v>
       </c>
       <c r="C46" t="n">
-        <v>27.18819808959961</v>
+        <v>58.69295883178711</v>
       </c>
       <c r="D46" t="n">
-        <v>37.17187881469727</v>
+        <v>19.60213851928711</v>
       </c>
       <c r="E46" t="n">
-        <v>-9.972378730773926</v>
+        <v>-31.17597007751465</v>
       </c>
       <c r="F46" t="n">
-        <v>52.04101181030273</v>
+        <v>2.640103101730347</v>
       </c>
       <c r="G46" t="n">
-        <v>67.06214141845703</v>
+        <v>55.30606842041016</v>
       </c>
       <c r="H46" t="n">
-        <v>-81.35260772705078</v>
+        <v>-72.50838470458984</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9976285514130944</v>
+        <v>-4.210939601761051e+23</v>
       </c>
       <c r="B47" t="n">
-        <v>2.67150005334919e+24</v>
+        <v>4206001503134.714</v>
       </c>
       <c r="C47" t="n">
-        <v>26.86263084411621</v>
+        <v>58.6229133605957</v>
       </c>
       <c r="D47" t="n">
-        <v>37.36190032958984</v>
+        <v>19.71140670776367</v>
       </c>
       <c r="E47" t="n">
-        <v>-9.73187255859375</v>
+        <v>-31.44473457336426</v>
       </c>
       <c r="F47" t="n">
-        <v>52.63148880004883</v>
+        <v>2.850332975387573</v>
       </c>
       <c r="G47" t="n">
-        <v>67.17608642578125</v>
+        <v>55.23459625244141</v>
       </c>
       <c r="H47" t="n">
-        <v>-81.54205322265625</v>
+        <v>-72.76628112792969</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9981746413474386</v>
+        <v>1.742506825615408e+25</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.078131715675972e+26</v>
+        <v>-29762302816198.2</v>
       </c>
       <c r="C48" t="n">
-        <v>26.54268455505371</v>
+        <v>58.52668380737305</v>
       </c>
       <c r="D48" t="n">
-        <v>37.55017852783203</v>
+        <v>19.82472038269043</v>
       </c>
       <c r="E48" t="n">
-        <v>-9.504446029663086</v>
+        <v>-31.68096923828125</v>
       </c>
       <c r="F48" t="n">
-        <v>53.19680404663086</v>
+        <v>3.077757596969604</v>
       </c>
       <c r="G48" t="n">
-        <v>67.27291107177734</v>
+        <v>55.18158721923828</v>
       </c>
       <c r="H48" t="n">
-        <v>-81.74293518066406</v>
+        <v>-73.03110504150391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9985674969278725</v>
+        <v>-7.15110572936458e+26</v>
       </c>
       <c r="B49" t="n">
-        <v>4.38556630697782e+27</v>
+        <v>213762797145894.3</v>
       </c>
       <c r="C49" t="n">
-        <v>26.22627830505371</v>
+        <v>58.4088249206543</v>
       </c>
       <c r="D49" t="n">
-        <v>37.73888397216797</v>
+        <v>19.94075012207031</v>
       </c>
       <c r="E49" t="n">
-        <v>-9.288968086242676</v>
+        <v>-31.88598442077637</v>
       </c>
       <c r="F49" t="n">
-        <v>53.7421875</v>
+        <v>3.317707777023315</v>
       </c>
       <c r="G49" t="n">
-        <v>67.35508728027344</v>
+        <v>55.14468002319336</v>
       </c>
       <c r="H49" t="n">
-        <v>-81.954833984375</v>
+        <v>-73.29775238037109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9988543652717209</v>
+        <v>2.908118804381666e+28</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.797742454427344e+29</v>
+        <v>-1558423886088694</v>
       </c>
       <c r="C50" t="n">
-        <v>25.91179656982422</v>
+        <v>58.27408218383789</v>
       </c>
       <c r="D50" t="n">
-        <v>37.92974853515625</v>
+        <v>20.05822944641113</v>
       </c>
       <c r="E50" t="n">
-        <v>-9.084406852722168</v>
+        <v>-32.06163024902344</v>
       </c>
       <c r="F50" t="n">
-        <v>54.27217102050781</v>
+        <v>3.565874814987183</v>
       </c>
       <c r="G50" t="n">
-        <v>67.42473602294922</v>
+        <v>55.12173843383789</v>
       </c>
       <c r="H50" t="n">
-        <v>-82.17680358886719</v>
+        <v>-73.56182861328125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9990667326923807</v>
+        <v>-1.171186394335873e+30</v>
       </c>
       <c r="B51" t="n">
-        <v>7.425370991404493e+30</v>
+        <v>1.153165675925534e+16</v>
       </c>
       <c r="C51" t="n">
-        <v>25.59896659851074</v>
+        <v>58.12695693969727</v>
       </c>
       <c r="D51" t="n">
-        <v>38.12409973144531</v>
+        <v>20.17620658874512</v>
       </c>
       <c r="E51" t="n">
-        <v>-8.890172004699707</v>
+        <v>-32.21026611328125</v>
       </c>
       <c r="F51" t="n">
-        <v>54.79236602783203</v>
+        <v>3.818810224533081</v>
       </c>
       <c r="G51" t="n">
-        <v>67.48390960693359</v>
+        <v>55.11112976074219</v>
       </c>
       <c r="H51" t="n">
-        <v>-82.40558624267578</v>
+        <v>-73.82008361816406</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9992258898627125</v>
+        <v>-5.855931971679365e+29</v>
       </c>
       <c r="B52" t="n">
-        <v>3.712685495702247e+30</v>
+        <v>5765828379627667</v>
       </c>
       <c r="C52" t="n">
-        <v>25.2872371673584</v>
+        <v>57.97139358520508</v>
       </c>
       <c r="D52" t="n">
-        <v>38.32316589355469</v>
+        <v>20.29414367675781</v>
       </c>
       <c r="E52" t="n">
-        <v>-8.705714225769043</v>
+        <v>-32.33459854125977</v>
       </c>
       <c r="F52" t="n">
-        <v>55.3072509765625</v>
+        <v>4.074288368225098</v>
       </c>
       <c r="G52" t="n">
-        <v>67.53410339355469</v>
+        <v>55.11201095581055</v>
       </c>
       <c r="H52" t="n">
-        <v>-82.63844299316406</v>
+        <v>-74.07060241699219</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.447459209561348</v>
+        <v>-2.927965985839682e+29</v>
       </c>
       <c r="B53" t="n">
-        <v>1.856342747851123e+30</v>
+        <v>2882914189813832</v>
       </c>
       <c r="C53" t="n">
-        <v>24.97620391845703</v>
+        <v>57.8099250793457</v>
       </c>
       <c r="D53" t="n">
-        <v>38.52649688720703</v>
+        <v>20.41219520568848</v>
       </c>
       <c r="E53" t="n">
-        <v>-8.529874801635742</v>
+        <v>-32.43697357177734</v>
       </c>
       <c r="F53" t="n">
-        <v>55.81889724731445</v>
+        <v>4.332571983337402</v>
       </c>
       <c r="G53" t="n">
-        <v>67.57660675048828</v>
+        <v>55.12443542480469</v>
       </c>
       <c r="H53" t="n">
-        <v>-82.87344360351562</v>
+        <v>-74.31195068359375</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4553099131584168</v>
+        <v>-1.463982992919841e+29</v>
       </c>
       <c r="B54" t="n">
-        <v>9.281713739255617e+29</v>
+        <v>1441457094906914</v>
       </c>
       <c r="C54" t="n">
-        <v>24.66490936279297</v>
+        <v>57.64347839355469</v>
       </c>
       <c r="D54" t="n">
-        <v>38.73398208618164</v>
+        <v>20.53077697753906</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.361380577087402</v>
+        <v>-32.51900100708008</v>
       </c>
       <c r="F54" t="n">
-        <v>56.33036041259766</v>
+        <v>4.596194267272949</v>
       </c>
       <c r="G54" t="n">
-        <v>67.61318206787109</v>
+        <v>55.14864730834961</v>
       </c>
       <c r="H54" t="n">
-        <v>-83.10909271240234</v>
+        <v>-74.54238128662109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4631548041105271</v>
+        <v>-7.319914964599206e+28</v>
       </c>
       <c r="B55" t="n">
-        <v>4.640856869627808e+29</v>
+        <v>720728547453454.8</v>
       </c>
       <c r="C55" t="n">
-        <v>24.35384559631348</v>
+        <v>57.4759521484375</v>
       </c>
       <c r="D55" t="n">
-        <v>38.94449996948242</v>
+        <v>20.64987754821777</v>
       </c>
       <c r="E55" t="n">
-        <v>-8.199417114257812</v>
+        <v>-32.58424377441406</v>
       </c>
       <c r="F55" t="n">
-        <v>56.84157562255859</v>
+        <v>4.863436698913574</v>
       </c>
       <c r="G55" t="n">
-        <v>67.6448974609375</v>
+        <v>55.18621826171875</v>
       </c>
       <c r="H55" t="n">
-        <v>-83.34333801269531</v>
+        <v>-74.7633056640625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.470984120965004</v>
+        <v>-3.659957482299603e+28</v>
       </c>
       <c r="B56" t="n">
-        <v>2.320428434813904e+29</v>
+        <v>360364273726725.2</v>
       </c>
       <c r="C56" t="n">
-        <v>24.04339981079102</v>
+        <v>57.30904006958008</v>
       </c>
       <c r="D56" t="n">
-        <v>39.1569938659668</v>
+        <v>20.77035140991211</v>
       </c>
       <c r="E56" t="n">
-        <v>-8.043116569519043</v>
+        <v>-32.63501358032227</v>
       </c>
       <c r="F56" t="n">
-        <v>57.35268020629883</v>
+        <v>5.135727882385254</v>
       </c>
       <c r="G56" t="n">
-        <v>67.67269897460938</v>
+        <v>55.23860168457031</v>
       </c>
       <c r="H56" t="n">
-        <v>-83.57406616210938</v>
+        <v>-74.97574615478516</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4787757819890976</v>
+        <v>-1.829978741149802e+28</v>
       </c>
       <c r="B57" t="n">
-        <v>1.160214217406952e+29</v>
+        <v>180182136863360.5</v>
       </c>
       <c r="C57" t="n">
-        <v>23.73444747924805</v>
+        <v>57.14279556274414</v>
       </c>
       <c r="D57" t="n">
-        <v>39.36888885498047</v>
+        <v>20.89365577697754</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.892805576324463</v>
+        <v>-32.67276382446289</v>
       </c>
       <c r="F57" t="n">
-        <v>57.86000823974609</v>
+        <v>5.416583061218262</v>
       </c>
       <c r="G57" t="n">
-        <v>67.69668579101562</v>
+        <v>55.30796432495117</v>
       </c>
       <c r="H57" t="n">
-        <v>-83.79669952392578</v>
+        <v>-75.18061828613281</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4864800637960434</v>
+        <v>-9.149893705749008e+27</v>
       </c>
       <c r="B58" t="n">
-        <v>5.80107108703476e+28</v>
+        <v>90091068431678.06</v>
       </c>
       <c r="C58" t="n">
-        <v>23.42895889282227</v>
+        <v>56.97606658935547</v>
       </c>
       <c r="D58" t="n">
-        <v>39.57546615600586</v>
+        <v>21.0212516784668</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.750705718994141</v>
+        <v>-32.69839096069336</v>
       </c>
       <c r="F58" t="n">
-        <v>58.35491180419922</v>
+        <v>5.710217475891113</v>
       </c>
       <c r="G58" t="n">
-        <v>67.71583557128906</v>
+        <v>55.39616394042969</v>
       </c>
       <c r="H58" t="n">
-        <v>-84.00340270996094</v>
+        <v>-75.37863159179688</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4939251774549485</v>
+        <v>-4.574946852874504e+27</v>
       </c>
       <c r="B59" t="n">
-        <v>2.90053554351738e+28</v>
+        <v>45045534215836.81</v>
       </c>
       <c r="C59" t="n">
-        <v>23.13374710083008</v>
+        <v>56.80693817138672</v>
       </c>
       <c r="D59" t="n">
-        <v>39.77536392211914</v>
+        <v>21.15390777587891</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.615901470184326</v>
+        <v>-32.71219253540039</v>
       </c>
       <c r="F59" t="n">
-        <v>58.83958435058594</v>
+        <v>6.02017879486084</v>
       </c>
       <c r="G59" t="n">
-        <v>67.73138427734375</v>
+        <v>55.50336456298828</v>
       </c>
       <c r="H59" t="n">
-        <v>-84.19589233398438</v>
+        <v>-75.56983184814453</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5010343897342682</v>
+        <v>-2.287473426437252e+27</v>
       </c>
       <c r="B60" t="n">
-        <v>1.45026777175869e+28</v>
+        <v>22522767107916.15</v>
       </c>
       <c r="C60" t="n">
-        <v>22.85185432434082</v>
+        <v>56.63382339477539</v>
       </c>
       <c r="D60" t="n">
-        <v>39.96543121337891</v>
+        <v>21.29070091247559</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.488611221313477</v>
+        <v>-32.71413803100586</v>
       </c>
       <c r="F60" t="n">
-        <v>59.31043243408203</v>
+        <v>6.347170829772949</v>
       </c>
       <c r="G60" t="n">
-        <v>67.74399566650391</v>
+        <v>55.62653732299805</v>
       </c>
       <c r="H60" t="n">
-        <v>-84.37099456787109</v>
+        <v>-75.75344085693359</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.5077152037620545</v>
+        <v>-1.143736713218626e+27</v>
       </c>
       <c r="B61" t="n">
-        <v>7.25133885879345e+27</v>
+        <v>11261383553955.78</v>
       </c>
       <c r="C61" t="n">
-        <v>22.58694839477539</v>
+        <v>56.45676040649414</v>
       </c>
       <c r="D61" t="n">
-        <v>40.14217758178711</v>
+        <v>21.42851448059082</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.369598865509033</v>
+        <v>-32.70443725585938</v>
       </c>
       <c r="F61" t="n">
-        <v>59.76343154907227</v>
+        <v>6.687539100646973</v>
       </c>
       <c r="G61" t="n">
-        <v>67.754150390625</v>
+        <v>55.75898742675781</v>
       </c>
       <c r="H61" t="n">
-        <v>-84.52450561523438</v>
+        <v>-75.92801666259766</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5138719952106476</v>
+        <v>-5.71868356609313e+26</v>
       </c>
       <c r="B62" t="n">
-        <v>3.625669429396725e+27</v>
+        <v>5630691776975.558</v>
       </c>
       <c r="C62" t="n">
-        <v>22.34282112121582</v>
+        <v>56.27812194824219</v>
       </c>
       <c r="D62" t="n">
-        <v>40.30191040039062</v>
+        <v>21.56275367736816</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.259977340698242</v>
+        <v>-32.68416213989258</v>
       </c>
       <c r="F62" t="n">
-        <v>60.19435882568359</v>
+        <v>7.033778190612793</v>
       </c>
       <c r="G62" t="n">
-        <v>67.76260375976562</v>
+        <v>55.8922004699707</v>
       </c>
       <c r="H62" t="n">
-        <v>-84.65170288085938</v>
+        <v>-76.09203338623047</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.5193954610824585</v>
+        <v>-2.859341783046565e+26</v>
       </c>
       <c r="B63" t="n">
-        <v>1.812834714698363e+27</v>
+        <v>2815345888485.408</v>
       </c>
       <c r="C63" t="n">
-        <v>22.12380599975586</v>
+        <v>56.10193634033203</v>
       </c>
       <c r="D63" t="n">
-        <v>40.4403190612793</v>
+        <v>21.68863677978516</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.161322593688965</v>
+        <v>-32.65524673461914</v>
       </c>
       <c r="F63" t="n">
-        <v>60.59849166870117</v>
+        <v>7.376957893371582</v>
       </c>
       <c r="G63" t="n">
-        <v>67.7705078125</v>
+        <v>56.01791763305664</v>
       </c>
       <c r="H63" t="n">
-        <v>-84.74665832519531</v>
+        <v>-76.24482727050781</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.524133335351944</v>
+        <v>-1.429670891523282e+26</v>
       </c>
       <c r="B64" t="n">
-        <v>9.064173573491813e+26</v>
+        <v>1407672944240.298</v>
       </c>
       <c r="C64" t="n">
-        <v>21.93594169616699</v>
+        <v>55.93281555175781</v>
       </c>
       <c r="D64" t="n">
-        <v>40.55110168457031</v>
+        <v>21.80224990844727</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.076328754425049</v>
+        <v>-32.62034606933594</v>
       </c>
       <c r="F64" t="n">
-        <v>60.96910095214844</v>
+        <v>7.708464622497559</v>
       </c>
       <c r="G64" t="n">
-        <v>67.77949523925781</v>
+        <v>56.12950897216797</v>
       </c>
       <c r="H64" t="n">
-        <v>-84.8001708984375</v>
+        <v>-76.38571166992188</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.5278225010633469</v>
+        <v>-7.148354457616412e+25</v>
       </c>
       <c r="B65" t="n">
-        <v>4.532086786745907e+26</v>
+        <v>703836472117.7083</v>
       </c>
       <c r="C65" t="n">
-        <v>21.78965950012207</v>
+        <v>55.77322006225586</v>
       </c>
       <c r="D65" t="n">
-        <v>40.62368011474609</v>
+        <v>21.90335655212402</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.009761810302734</v>
+        <v>-32.58242416381836</v>
       </c>
       <c r="F65" t="n">
-        <v>61.29440689086914</v>
+        <v>8.025782585144043</v>
       </c>
       <c r="G65" t="n">
-        <v>67.79122924804688</v>
+        <v>56.22689056396484</v>
       </c>
       <c r="H65" t="n">
-        <v>-84.79753112792969</v>
+        <v>-76.51533508300781</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.53</v>
+        <v>-3.574177228808206e+25</v>
       </c>
       <c r="B66" t="n">
-        <v>2.266043393372953e+26</v>
+        <v>351918236056.3814</v>
       </c>
       <c r="C66" t="n">
-        <v>21.70331764221191</v>
+        <v>55.62484359741211</v>
       </c>
       <c r="D66" t="n">
-        <v>40.63957595825195</v>
+        <v>21.99260330200195</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.970470428466797</v>
+        <v>-32.54412460327148</v>
       </c>
       <c r="F66" t="n">
-        <v>61.55419921875</v>
+        <v>8.326842308044434</v>
       </c>
       <c r="G66" t="n">
-        <v>67.80666351318359</v>
+        <v>56.31124496459961</v>
       </c>
       <c r="H66" t="n">
-        <v>-84.71444702148438</v>
+        <v>-76.63309478759766</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.5298429954051972</v>
+        <v>-1.787088614404103e+25</v>
       </c>
       <c r="B67" t="n">
-        <v>1.133021696686477e+26</v>
+        <v>175959118025.6878</v>
       </c>
       <c r="C67" t="n">
-        <v>21.70954322814941</v>
+        <v>55.48807144165039</v>
       </c>
       <c r="D67" t="n">
-        <v>40.56609725952148</v>
+        <v>22.07188415527344</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.974552154541016</v>
+        <v>-32.50747680664062</v>
       </c>
       <c r="F67" t="n">
-        <v>61.71272659301758</v>
+        <v>8.611240386962891</v>
       </c>
       <c r="G67" t="n">
-        <v>67.82526397705078</v>
+        <v>56.38575744628906</v>
       </c>
       <c r="H67" t="n">
-        <v>-84.50944519042969</v>
+        <v>-76.73845672607422</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5258264893293381</v>
+        <v>-8.935443072020515e+24</v>
       </c>
       <c r="B68" t="n">
-        <v>5.665108483432383e+25</v>
+        <v>87979559010.31299</v>
       </c>
       <c r="C68" t="n">
-        <v>21.86880493164062</v>
+        <v>55.36286163330078</v>
       </c>
       <c r="D68" t="n">
-        <v>40.34419250488281</v>
+        <v>22.14268684387207</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.050761699676514</v>
+        <v>-32.47333145141602</v>
       </c>
       <c r="F68" t="n">
-        <v>61.70369338989258</v>
+        <v>8.877690315246582</v>
       </c>
       <c r="G68" t="n">
-        <v>67.84210205078125</v>
+        <v>56.45206451416016</v>
       </c>
       <c r="H68" t="n">
-        <v>-84.11203002929688</v>
+        <v>-76.83082580566406</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.5152675354480744</v>
+        <v>-4.467721536010258e+24</v>
       </c>
       <c r="B69" t="n">
-        <v>2.832554241716192e+25</v>
+        <v>43989779502.59972</v>
       </c>
       <c r="C69" t="n">
-        <v>22.28748512268066</v>
+        <v>55.24871826171875</v>
       </c>
       <c r="D69" t="n">
-        <v>39.87562942504883</v>
+        <v>22.20627593994141</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.244848728179932</v>
+        <v>-32.44142532348633</v>
       </c>
       <c r="F69" t="n">
-        <v>61.41070556640625</v>
+        <v>9.125039100646973</v>
       </c>
       <c r="G69" t="n">
-        <v>67.84932708740234</v>
+        <v>56.51080322265625</v>
       </c>
       <c r="H69" t="n">
-        <v>-83.40702819824219</v>
+        <v>-76.9100341796875</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4951034384965897</v>
+        <v>-2.233860768005129e+24</v>
       </c>
       <c r="B70" t="n">
-        <v>1.416277120858096e+25</v>
+        <v>21994889748.71914</v>
       </c>
       <c r="C70" t="n">
-        <v>23.08702659606934</v>
+        <v>55.14468383789062</v>
       </c>
       <c r="D70" t="n">
-        <v>39.0694580078125</v>
+        <v>22.26386451721191</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.591730117797852</v>
+        <v>-32.41101455688477</v>
       </c>
       <c r="F70" t="n">
-        <v>60.69661712646484</v>
+        <v>9.353435516357422</v>
       </c>
       <c r="G70" t="n">
-        <v>67.85434722900391</v>
+        <v>56.56270599365234</v>
       </c>
       <c r="H70" t="n">
-        <v>-82.28913116455078</v>
+        <v>-76.97695159912109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4655459493398666</v>
+        <v>-1.116930384002564e+24</v>
       </c>
       <c r="B71" t="n">
-        <v>7.081385604290479e+24</v>
+        <v>10997444871.75658</v>
       </c>
       <c r="C71" t="n">
-        <v>24.259033203125</v>
+        <v>55.04935073852539</v>
       </c>
       <c r="D71" t="n">
-        <v>37.98199844360352</v>
+        <v>22.31659507751465</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.055061340332031</v>
+        <v>-32.38159561157227</v>
       </c>
       <c r="F71" t="n">
-        <v>59.55025863647461</v>
+        <v>9.56485652923584</v>
       </c>
       <c r="G71" t="n">
-        <v>67.90864562988281</v>
+        <v>56.60905456542969</v>
       </c>
       <c r="H71" t="n">
-        <v>-80.81846618652344</v>
+        <v>-77.03364562988281</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4344466561079026</v>
+        <v>-5.584651920012822e+23</v>
       </c>
       <c r="B72" t="n">
-        <v>3.540692802145239e+24</v>
+        <v>5498722433.254497</v>
       </c>
       <c r="C72" t="n">
-        <v>25.49217414855957</v>
+        <v>54.96150207519531</v>
       </c>
       <c r="D72" t="n">
-        <v>36.91716766357422</v>
+        <v>22.36527442932129</v>
       </c>
       <c r="E72" t="n">
-        <v>-8.50523567199707</v>
+        <v>-32.35298538208008</v>
       </c>
       <c r="F72" t="n">
-        <v>58.26532745361328</v>
+        <v>9.761536598205566</v>
       </c>
       <c r="G72" t="n">
-        <v>68.06649017333984</v>
+        <v>56.65083312988281</v>
       </c>
       <c r="H72" t="n">
-        <v>-79.32106781005859</v>
+        <v>-77.08225250244141</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4108726215362549</v>
+        <v>-2.792325960006411e+23</v>
       </c>
       <c r="B73" t="n">
-        <v>1.77034640107262e+24</v>
+        <v>2749361213.983934</v>
       </c>
       <c r="C73" t="n">
-        <v>26.42692565917969</v>
+        <v>54.88015365600586</v>
       </c>
       <c r="D73" t="n">
-        <v>36.16925048828125</v>
+        <v>22.41043472290039</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.820352554321289</v>
+        <v>-32.32509994506836</v>
       </c>
       <c r="F73" t="n">
-        <v>57.24429321289062</v>
+        <v>9.945308685302734</v>
       </c>
       <c r="G73" t="n">
-        <v>68.27359008789062</v>
+        <v>56.68872451782227</v>
       </c>
       <c r="H73" t="n">
-        <v>-78.131591796875</v>
+        <v>-77.12448120117188</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3951376968622208</v>
+        <v>-1.396162980003206e+23</v>
       </c>
       <c r="B74" t="n">
-        <v>8.851732005363099e+23</v>
+        <v>1374680604.33028</v>
       </c>
       <c r="C74" t="n">
-        <v>27.05084228515625</v>
+        <v>54.80450820922852</v>
       </c>
       <c r="D74" t="n">
-        <v>35.72325134277344</v>
+        <v>22.45244216918945</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.017024040222168</v>
+        <v>-32.29790115356445</v>
       </c>
       <c r="F74" t="n">
-        <v>56.5556526184082</v>
+        <v>10.11769485473633</v>
       </c>
       <c r="G74" t="n">
-        <v>68.44171905517578</v>
+        <v>56.72319793701172</v>
       </c>
       <c r="H74" t="n">
-        <v>-77.2806396484375</v>
+        <v>-77.16165924072266</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3837343615293503</v>
+        <v>-6.980814900016028e+22</v>
       </c>
       <c r="B75" t="n">
-        <v>4.425866002681549e+23</v>
+        <v>687340299.4861032</v>
       </c>
       <c r="C75" t="n">
-        <v>27.50300407409668</v>
+        <v>54.73393249511719</v>
       </c>
       <c r="D75" t="n">
-        <v>35.44166564941406</v>
+        <v>22.49160957336426</v>
       </c>
       <c r="E75" t="n">
-        <v>-9.161710739135742</v>
+        <v>-32.27138137817383</v>
       </c>
       <c r="F75" t="n">
-        <v>56.07273864746094</v>
+        <v>10.27995586395264</v>
       </c>
       <c r="G75" t="n">
-        <v>68.54354858398438</v>
+        <v>56.75467300415039</v>
       </c>
       <c r="H75" t="n">
-        <v>-76.65213012695312</v>
+        <v>-77.19476318359375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.374037321805954</v>
+        <v>-3.490407450008014e+22</v>
       </c>
       <c r="B76" t="n">
-        <v>2.212933001340775e+23</v>
+        <v>343670147.0475833</v>
       </c>
       <c r="C76" t="n">
-        <v>27.88750839233398</v>
+        <v>54.66781616210938</v>
       </c>
       <c r="D76" t="n">
-        <v>35.22087097167969</v>
+        <v>22.52819633483887</v>
       </c>
       <c r="E76" t="n">
-        <v>-9.299429893493652</v>
+        <v>-32.2454948425293</v>
       </c>
       <c r="F76" t="n">
-        <v>55.6793212890625</v>
+        <v>10.43318843841553</v>
       </c>
       <c r="G76" t="n">
-        <v>68.59077453613281</v>
+        <v>56.78351593017578</v>
       </c>
       <c r="H76" t="n">
-        <v>-76.14832305908203</v>
+        <v>-77.22462463378906</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3647418600320816</v>
+        <v>-1.745203725004007e+22</v>
       </c>
       <c r="B77" t="n">
-        <v>1.106466500670387e+23</v>
+        <v>171835070.8127247</v>
       </c>
       <c r="C77" t="n">
-        <v>28.25609016418457</v>
+        <v>54.60569763183594</v>
       </c>
       <c r="D77" t="n">
-        <v>35.00595092773438</v>
+        <v>22.56243515014648</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.448735237121582</v>
+        <v>-32.22021484375</v>
       </c>
       <c r="F77" t="n">
-        <v>55.30921936035156</v>
+        <v>10.57830429077148</v>
       </c>
       <c r="G77" t="n">
-        <v>68.60432434082031</v>
+        <v>56.81000900268555</v>
       </c>
       <c r="H77" t="n">
-        <v>-75.70998382568359</v>
+        <v>-77.25179290771484</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3553935158252716</v>
+        <v>-8.726018625020035e+21</v>
       </c>
       <c r="B78" t="n">
-        <v>5.532332503351937e+22</v>
+        <v>85917532.68045226</v>
       </c>
       <c r="C78" t="n">
-        <v>28.62676811218262</v>
+        <v>54.54711532592773</v>
       </c>
       <c r="D78" t="n">
-        <v>34.7764892578125</v>
+        <v>22.59453010559082</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.613452911376953</v>
+        <v>-32.19549560546875</v>
       </c>
       <c r="F78" t="n">
-        <v>54.93428039550781</v>
+        <v>10.71606731414795</v>
       </c>
       <c r="G78" t="n">
-        <v>68.60094451904297</v>
+        <v>56.83443450927734</v>
       </c>
       <c r="H78" t="n">
-        <v>-75.30776214599609</v>
+        <v>-77.27678680419922</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.3459080374240875</v>
+        <v>-4.363009312510017e+21</v>
       </c>
       <c r="B79" t="n">
-        <v>2.766166251675968e+22</v>
+        <v>42958763.60016678</v>
       </c>
       <c r="C79" t="n">
-        <v>29.00288391113281</v>
+        <v>54.4917106628418</v>
       </c>
       <c r="D79" t="n">
-        <v>34.52793502807617</v>
+        <v>22.62466239929199</v>
       </c>
       <c r="E79" t="n">
-        <v>-9.791417121887207</v>
+        <v>-32.17130279541016</v>
       </c>
       <c r="F79" t="n">
-        <v>54.54596328735352</v>
+        <v>10.84715938568115</v>
       </c>
       <c r="G79" t="n">
-        <v>68.59140014648438</v>
+        <v>56.8570556640625</v>
       </c>
       <c r="H79" t="n">
-        <v>-74.92765045166016</v>
+        <v>-77.29994964599609</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.336345699429512</v>
+        <v>-2.181504656255009e+21</v>
       </c>
       <c r="B80" t="n">
-        <v>1.383083125837984e+22</v>
+        <v>21479379.04651216</v>
       </c>
       <c r="C80" t="n">
-        <v>29.38204765319824</v>
+        <v>54.43915176391602</v>
       </c>
       <c r="D80" t="n">
-        <v>34.26224517822266</v>
+        <v>22.65299987792969</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.978775024414062</v>
+        <v>-32.14759063720703</v>
       </c>
       <c r="F80" t="n">
-        <v>54.14429473876953</v>
+        <v>10.9721212387085</v>
       </c>
       <c r="G80" t="n">
-        <v>68.58174896240234</v>
+        <v>56.8780517578125</v>
       </c>
       <c r="H80" t="n">
-        <v>-74.56455993652344</v>
+        <v>-77.32159423828125</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3268225336074829</v>
+        <v>-1.090752328127504e+21</v>
       </c>
       <c r="B81" t="n">
-        <v>6.915415629189921e+21</v>
+        <v>10739686.75676335</v>
       </c>
       <c r="C81" t="n">
-        <v>29.75965690612793</v>
+        <v>54.38916397094727</v>
       </c>
       <c r="D81" t="n">
-        <v>33.98402786254883</v>
+        <v>22.6796817779541</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.17160224914551</v>
+        <v>-32.12431716918945</v>
       </c>
       <c r="F81" t="n">
-        <v>53.73288345336914</v>
+        <v>11.09145259857178</v>
       </c>
       <c r="G81" t="n">
-        <v>68.57436370849609</v>
+        <v>56.89761734008789</v>
       </c>
       <c r="H81" t="n">
-        <v>-74.21875762939453</v>
+        <v>-77.34196472167969</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3174323952198029</v>
+        <v>-5.453761640637522e+20</v>
       </c>
       <c r="B82" t="n">
-        <v>3.45770781459496e+21</v>
+        <v>5369840.599516852</v>
       </c>
       <c r="C82" t="n">
-        <v>30.13199234008789</v>
+        <v>54.34148788452148</v>
       </c>
       <c r="D82" t="n">
-        <v>33.69782638549805</v>
+        <v>22.7048454284668</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.36657810211182</v>
+        <v>-32.10146331787109</v>
       </c>
       <c r="F82" t="n">
-        <v>53.31598663330078</v>
+        <v>11.20557308197021</v>
       </c>
       <c r="G82" t="n">
-        <v>68.57131958007812</v>
+        <v>56.91595840454102</v>
       </c>
       <c r="H82" t="n">
-        <v>-73.88961029052734</v>
+        <v>-77.3612060546875</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3082558399438858</v>
+        <v>-2.726880820318761e+20</v>
       </c>
       <c r="B83" t="n">
-        <v>1.72885390729748e+21</v>
+        <v>2684917.509034544</v>
       </c>
       <c r="C83" t="n">
-        <v>30.49585914611816</v>
+        <v>54.29594802856445</v>
       </c>
       <c r="D83" t="n">
-        <v>33.40707778930664</v>
+        <v>22.72860908508301</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.56171035766602</v>
+        <v>-32.07899856567383</v>
       </c>
       <c r="F83" t="n">
-        <v>52.89560317993164</v>
+        <v>11.31483840942383</v>
       </c>
       <c r="G83" t="n">
-        <v>68.57314300537109</v>
+        <v>56.93317794799805</v>
       </c>
       <c r="H83" t="n">
-        <v>-73.57478332519531</v>
+        <v>-77.37947845458984</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.2993714332580567</v>
+        <v>-1.36344041015938e+20</v>
       </c>
       <c r="B84" t="n">
-        <v>8.644269536487401e+20</v>
+        <v>1342494.050531683</v>
       </c>
       <c r="C84" t="n">
-        <v>30.84814071655273</v>
+        <v>54.25233459472656</v>
       </c>
       <c r="D84" t="n">
-        <v>33.11162185668945</v>
+        <v>22.75108337402344</v>
       </c>
       <c r="E84" t="n">
-        <v>-10.75929832458496</v>
+        <v>-32.05691909790039</v>
       </c>
       <c r="F84" t="n">
-        <v>52.46448135375977</v>
+        <v>11.41957664489746</v>
       </c>
       <c r="G84" t="n">
-        <v>68.57676696777344</v>
+        <v>56.94944000244141</v>
       </c>
       <c r="H84" t="n">
-        <v>-73.26659393310547</v>
+        <v>-77.39693450927734</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.2906968188285828</v>
+        <v>-6.817202050796902e+19</v>
       </c>
       <c r="B85" t="n">
-        <v>4.322134768243701e+20</v>
+        <v>670878.1587120323</v>
       </c>
       <c r="C85" t="n">
-        <v>31.19210433959961</v>
+        <v>54.21054840087891</v>
       </c>
       <c r="D85" t="n">
-        <v>32.81640243530273</v>
+        <v>22.77236366271973</v>
       </c>
       <c r="E85" t="n">
-        <v>-10.95551109313965</v>
+        <v>-32.03519439697266</v>
       </c>
       <c r="F85" t="n">
-        <v>52.03483200073242</v>
+        <v>11.52006340026855</v>
       </c>
       <c r="G85" t="n">
-        <v>68.58469390869141</v>
+        <v>56.9648323059082</v>
       </c>
       <c r="H85" t="n">
-        <v>-72.97203063964844</v>
+        <v>-77.41358947753906</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6222255528942744</v>
+        <v>-3.408601025398452e+19</v>
       </c>
       <c r="B86" t="n">
-        <v>2.161067384121857e+20</v>
+        <v>339375.1083979356</v>
       </c>
       <c r="C86" t="n">
-        <v>31.52593803405762</v>
+        <v>54.17041397094727</v>
       </c>
       <c r="D86" t="n">
-        <v>32.52443695068359</v>
+        <v>22.79254150390625</v>
       </c>
       <c r="E86" t="n">
-        <v>-11.14844131469727</v>
+        <v>-32.01383972167969</v>
       </c>
       <c r="F86" t="n">
-        <v>51.61014938354492</v>
+        <v>11.61655139923096</v>
       </c>
       <c r="G86" t="n">
-        <v>68.59746551513672</v>
+        <v>56.97946929931641</v>
       </c>
       <c r="H86" t="n">
-        <v>-72.69121551513672</v>
+        <v>-77.42958068847656</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8045971373485247</v>
+        <v>-1.704300512699201e+19</v>
       </c>
       <c r="B87" t="n">
-        <v>1.080533692060676e+20</v>
+        <v>127605.8767206174</v>
       </c>
       <c r="C87" t="n">
-        <v>31.84856605529785</v>
+        <v>54.13185119628906</v>
       </c>
       <c r="D87" t="n">
-        <v>32.23838806152344</v>
+        <v>22.81169891357422</v>
       </c>
       <c r="E87" t="n">
-        <v>-11.33722591400146</v>
+        <v>-31.99283409118652</v>
       </c>
       <c r="F87" t="n">
-        <v>51.19327163696289</v>
+        <v>11.70925331115723</v>
       </c>
       <c r="G87" t="n">
-        <v>68.61478424072266</v>
+        <v>56.99345016479492</v>
       </c>
       <c r="H87" t="n">
-        <v>-72.42295074462891</v>
+        <v>-77.44493865966797</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9018194933871665</v>
+        <v>-8.521502563503516e+18</v>
       </c>
       <c r="B88" t="n">
-        <v>5.40266846040018e+19</v>
+        <v>515324.6212435438</v>
       </c>
       <c r="C88" t="n">
-        <v>32.15950393676758</v>
+        <v>54.09475708007812</v>
       </c>
       <c r="D88" t="n">
-        <v>31.95976829528809</v>
+        <v>22.82990646362305</v>
       </c>
       <c r="E88" t="n">
-        <v>-11.52101802825928</v>
+        <v>-31.97218894958496</v>
       </c>
       <c r="F88" t="n">
-        <v>50.78611755371094</v>
+        <v>11.79838371276855</v>
       </c>
       <c r="G88" t="n">
-        <v>68.63642120361328</v>
+        <v>57.00685501098633</v>
       </c>
       <c r="H88" t="n">
-        <v>-72.16571807861328</v>
+        <v>-77.45967864990234</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9520648774696855</v>
+        <v>-4.260751281524223e+18</v>
       </c>
       <c r="B89" t="n">
-        <v>2.701334226512848e+19</v>
+        <v>-4602849.512011253</v>
       </c>
       <c r="C89" t="n">
-        <v>32.45828247070312</v>
+        <v>54.05904006958008</v>
       </c>
       <c r="D89" t="n">
-        <v>31.68936729431152</v>
+        <v>22.84723472595215</v>
       </c>
       <c r="E89" t="n">
-        <v>-11.69889640808105</v>
+        <v>-31.95190238952637</v>
       </c>
       <c r="F89" t="n">
-        <v>50.38993835449219</v>
+        <v>11.88409233093262</v>
       </c>
       <c r="G89" t="n">
-        <v>68.66218566894531</v>
+        <v>57.01970291137695</v>
       </c>
       <c r="H89" t="n">
-        <v>-71.91867828369141</v>
+        <v>-77.473876953125</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9772500079091653</v>
+        <v>-2.130375647636576e+18</v>
       </c>
       <c r="B90" t="n">
-        <v>1.350667252878001e+19</v>
+        <v>50185615.70202379</v>
       </c>
       <c r="C90" t="n">
-        <v>32.74482727050781</v>
+        <v>54.0246467590332</v>
       </c>
       <c r="D90" t="n">
-        <v>31.42819786071777</v>
+        <v>22.86374092102051</v>
       </c>
       <c r="E90" t="n">
-        <v>-11.87058639526367</v>
+        <v>-31.93197059631348</v>
       </c>
       <c r="F90" t="n">
-        <v>50.00583267211914</v>
+        <v>11.96656322479248</v>
       </c>
       <c r="G90" t="n">
-        <v>68.69166564941406</v>
+        <v>57.03211212158203</v>
       </c>
       <c r="H90" t="n">
-        <v>-71.68040466308594</v>
+        <v>-77.48751831054688</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9894999089882813</v>
+        <v>-1.065187616676977e+18</v>
       </c>
       <c r="B91" t="n">
-        <v>6.753283697973535e+18</v>
+        <v>-543410380.7805519</v>
       </c>
       <c r="C91" t="n">
-        <v>33.01922607421875</v>
+        <v>53.99149322509766</v>
       </c>
       <c r="D91" t="n">
-        <v>31.1768627166748</v>
+        <v>22.87947845458984</v>
       </c>
       <c r="E91" t="n">
-        <v>-12.03582096099854</v>
+        <v>-31.91240119934082</v>
       </c>
       <c r="F91" t="n">
-        <v>49.6343879699707</v>
+        <v>12.04593658447266</v>
       </c>
       <c r="G91" t="n">
-        <v>68.72459411621094</v>
+        <v>57.04408645629883</v>
       </c>
       <c r="H91" t="n">
-        <v>-71.44937133789062</v>
+        <v>-77.50070190429688</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9952848470510998</v>
+        <v>-5.326000337884611e+17</v>
       </c>
       <c r="B92" t="n">
-        <v>3.378609952656906e+18</v>
+        <v>5903793000.555429</v>
       </c>
       <c r="C92" t="n">
-        <v>33.28158950805664</v>
+        <v>53.95954895019531</v>
       </c>
       <c r="D92" t="n">
-        <v>30.93586730957031</v>
+        <v>22.89449882507324</v>
       </c>
       <c r="E92" t="n">
-        <v>-12.1945219039917</v>
+        <v>-31.89319229125977</v>
       </c>
       <c r="F92" t="n">
-        <v>49.27604293823242</v>
+        <v>12.12233257293701</v>
       </c>
       <c r="G92" t="n">
-        <v>68.76063537597656</v>
+        <v>57.0556640625</v>
       </c>
       <c r="H92" t="n">
-        <v>-71.22414398193359</v>
+        <v>-77.51332092285156</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9979388260252054</v>
+        <v>-2.661133840215833e+17</v>
       </c>
       <c r="B93" t="n">
-        <v>1.616013579338198e+18</v>
+        <v>-64317723292.9562</v>
       </c>
       <c r="C93" t="n">
-        <v>33.5320930480957</v>
+        <v>53.92875671386719</v>
       </c>
       <c r="D93" t="n">
-        <v>30.70551681518555</v>
+        <v>22.90884590148926</v>
       </c>
       <c r="E93" t="n">
-        <v>-12.34659385681152</v>
+        <v>-31.87436294555664</v>
       </c>
       <c r="F93" t="n">
-        <v>48.93097305297852</v>
+        <v>12.19588375091553</v>
       </c>
       <c r="G93" t="n">
-        <v>68.79952239990234</v>
+        <v>57.06691741943359</v>
       </c>
       <c r="H93" t="n">
-        <v>-71.00345611572266</v>
+        <v>-77.52549743652344</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9991224076875155</v>
+        <v>-1.386382620988956e+17</v>
       </c>
       <c r="B94" t="n">
-        <v>3.523215465805894e+18</v>
+        <v>702567624574.5155</v>
       </c>
       <c r="C94" t="n">
-        <v>33.77093887329102</v>
+        <v>53.8990592956543</v>
       </c>
       <c r="D94" t="n">
-        <v>30.48629951477051</v>
+        <v>22.92255401611328</v>
       </c>
       <c r="E94" t="n">
-        <v>-12.49218368530273</v>
+        <v>-31.85590362548828</v>
       </c>
       <c r="F94" t="n">
-        <v>48.59938430786133</v>
+        <v>12.26669025421143</v>
       </c>
       <c r="G94" t="n">
-        <v>68.84092712402344</v>
+        <v>57.07781982421875</v>
       </c>
       <c r="H94" t="n">
-        <v>-70.78597259521484</v>
+        <v>-77.53721618652344</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9996358465974937</v>
+        <v>9.721785749014358e+16</v>
       </c>
       <c r="B95" t="n">
-        <v>-9.832557261767216e+19</v>
+        <v>-7694081506664.291</v>
       </c>
       <c r="C95" t="n">
-        <v>33.99847412109375</v>
+        <v>53.87045669555664</v>
       </c>
       <c r="D95" t="n">
-        <v>30.27763557434082</v>
+        <v>22.9356632232666</v>
       </c>
       <c r="E95" t="n">
-        <v>-12.63131809234619</v>
+        <v>-31.83782768249512</v>
       </c>
       <c r="F95" t="n">
-        <v>48.28081130981445</v>
+        <v>12.33486080169678</v>
       </c>
       <c r="G95" t="n">
-        <v>68.88483428955078</v>
+        <v>57.08844757080078</v>
       </c>
       <c r="H95" t="n">
-        <v>-70.57056427001953</v>
+        <v>-77.54844665527344</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9998526500690141</v>
+        <v>-4.909155624791864e+18</v>
       </c>
       <c r="B96" t="n">
-        <v>3.622479642131418e+21</v>
+        <v>84468022844486.91</v>
       </c>
       <c r="C96" t="n">
-        <v>34.21512222290039</v>
+        <v>53.84288024902344</v>
       </c>
       <c r="D96" t="n">
-        <v>30.07958984375</v>
+        <v>22.94820785522461</v>
       </c>
       <c r="E96" t="n">
-        <v>-12.76382923126221</v>
+        <v>-31.82015037536621</v>
       </c>
       <c r="F96" t="n">
-        <v>47.97508239746094</v>
+        <v>12.40047645568848</v>
       </c>
       <c r="G96" t="n">
-        <v>68.93095397949219</v>
+        <v>57.09877014160156</v>
       </c>
       <c r="H96" t="n">
-        <v>-70.35662841796875</v>
+        <v>-77.55922698974609</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9999418206158192</v>
+        <v>1.448160485449124e+20</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.322579200083679e+23</v>
+        <v>-929505980442684.6</v>
       </c>
       <c r="C97" t="n">
-        <v>34.42104721069336</v>
+        <v>53.81631088256836</v>
       </c>
       <c r="D97" t="n">
-        <v>29.89229393005371</v>
+        <v>22.96021270751953</v>
       </c>
       <c r="E97" t="n">
-        <v>-12.88974285125732</v>
+        <v>-31.80285835266113</v>
       </c>
       <c r="F97" t="n">
-        <v>47.68227386474609</v>
+        <v>12.46363067626953</v>
       </c>
       <c r="G97" t="n">
-        <v>68.97916412353516</v>
+        <v>57.10881805419922</v>
       </c>
       <c r="H97" t="n">
-        <v>-70.1434326171875</v>
+        <v>-77.56957244873047</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9999775686489516</v>
+        <v>-4.293093310345006e+21</v>
       </c>
       <c r="B98" t="n">
-        <v>4.807653224364145e+24</v>
+        <v>1.025169128055992e+16</v>
       </c>
       <c r="C98" t="n">
-        <v>34.61613845825195</v>
+        <v>53.79072570800781</v>
       </c>
       <c r="D98" t="n">
-        <v>29.71497917175293</v>
+        <v>22.97170257568359</v>
       </c>
       <c r="E98" t="n">
-        <v>-13.00861740112305</v>
+        <v>-31.78596878051758</v>
       </c>
       <c r="F98" t="n">
-        <v>47.40196990966797</v>
+        <v>12.52441310882568</v>
       </c>
       <c r="G98" t="n">
-        <v>69.02947235107422</v>
+        <v>57.11861038208008</v>
       </c>
       <c r="H98" t="n">
-        <v>-69.93101501464844</v>
+        <v>-77.57945251464844</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9999915482547852</v>
+        <v>1.269970672643158e+23</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.74018060188314e+26</v>
+        <v>-1.133138222955484e+17</v>
       </c>
       <c r="C99" t="n">
-        <v>34.80049133300781</v>
+        <v>53.76607894897461</v>
       </c>
       <c r="D99" t="n">
-        <v>29.54791641235352</v>
+        <v>22.98271560668945</v>
       </c>
       <c r="E99" t="n">
-        <v>-13.12072467803955</v>
+        <v>-31.76948547363281</v>
       </c>
       <c r="F99" t="n">
-        <v>47.13431930541992</v>
+        <v>12.58290672302246</v>
       </c>
       <c r="G99" t="n">
-        <v>69.08157348632812</v>
+        <v>57.12814712524414</v>
       </c>
       <c r="H99" t="n">
-        <v>-69.71905517578125</v>
+        <v>-77.58895111083984</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9999968854444498</v>
+        <v>-3.749475481902881e+24</v>
       </c>
       <c r="B100" t="n">
-        <v>6.273199690739515e+27</v>
+        <v>1.255095200575239e+18</v>
       </c>
       <c r="C100" t="n">
-        <v>34.97433853149414</v>
+        <v>53.74237442016602</v>
       </c>
       <c r="D100" t="n">
-        <v>29.39035224914551</v>
+        <v>22.99326515197754</v>
       </c>
       <c r="E100" t="n">
-        <v>-13.2257833480835</v>
+        <v>-31.75340461730957</v>
       </c>
       <c r="F100" t="n">
-        <v>46.87892532348633</v>
+        <v>12.63917827606201</v>
       </c>
       <c r="G100" t="n">
-        <v>69.13544464111328</v>
+        <v>57.13745880126953</v>
       </c>
       <c r="H100" t="n">
-        <v>-69.50798034667969</v>
+        <v>-77.59796905517578</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9999988764652088</v>
+        <v>1.104920324868319e+26</v>
       </c>
       <c r="B101" t="n">
-        <v>-2.252688501042677e+29</v>
+        <v>-1.392965589315301e+19</v>
       </c>
       <c r="C101" t="n">
-        <v>35.13770294189453</v>
+        <v>53.71955871582031</v>
       </c>
       <c r="D101" t="n">
-        <v>29.24239158630371</v>
+        <v>23.00338172912598</v>
       </c>
       <c r="E101" t="n">
-        <v>-13.32395553588867</v>
+        <v>-31.73773574829102</v>
       </c>
       <c r="F101" t="n">
-        <v>46.63605880737305</v>
+        <v>12.69332313537598</v>
       </c>
       <c r="G101" t="n">
-        <v>69.19075775146484</v>
+        <v>57.14656448364258</v>
       </c>
       <c r="H101" t="n">
-        <v>-69.29795074462891</v>
+        <v>-77.60662078857422</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.9999996028916357</v>
+        <v>-3.250162743208979e+27</v>
       </c>
       <c r="B102" t="n">
-        <v>8.059542911411421e+30</v>
+        <v>1.548956471699228e+20</v>
       </c>
       <c r="C102" t="n">
-        <v>35.29093170166016</v>
+        <v>53.6976203918457</v>
       </c>
       <c r="D102" t="n">
-        <v>29.10373306274414</v>
+        <v>23.01308059692383</v>
       </c>
       <c r="E102" t="n">
-        <v>-13.41524600982666</v>
+        <v>-31.72248840332031</v>
       </c>
       <c r="F102" t="n">
-        <v>46.40560150146484</v>
+        <v>12.74539470672607</v>
       </c>
       <c r="G102" t="n">
-        <v>69.24740600585938</v>
+        <v>57.15542221069336</v>
       </c>
       <c r="H102" t="n">
-        <v>-69.08891296386719</v>
+        <v>-77.61483001708984</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.9999998623600387</v>
+        <v>-1.625081371604489e+27</v>
       </c>
       <c r="B103" t="n">
-        <v>4.02977145570571e+30</v>
+        <v>7.744782358496141e+19</v>
       </c>
       <c r="C103" t="n">
-        <v>35.43467712402344</v>
+        <v>53.67652893066406</v>
       </c>
       <c r="D103" t="n">
-        <v>28.97352027893066</v>
+        <v>23.02238464355469</v>
       </c>
       <c r="E103" t="n">
-        <v>-13.49993324279785</v>
+        <v>-31.70765495300293</v>
       </c>
       <c r="F103" t="n">
-        <v>46.18692779541016</v>
+        <v>12.79547882080078</v>
       </c>
       <c r="G103" t="n">
-        <v>69.30542755126953</v>
+        <v>57.16408157348633</v>
       </c>
       <c r="H103" t="n">
-        <v>-68.88182067871094</v>
+        <v>-77.62262725830078</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.180302591919899</v>
+        <v>-8.125406858022447e+26</v>
       </c>
       <c r="B104" t="n">
-        <v>2.014885727852855e+30</v>
+        <v>3.872391179248071e+19</v>
       </c>
       <c r="C104" t="n">
-        <v>35.56942749023438</v>
+        <v>53.65625</v>
       </c>
       <c r="D104" t="n">
-        <v>28.85149002075195</v>
+        <v>23.03130912780762</v>
       </c>
       <c r="E104" t="n">
-        <v>-13.57830047607422</v>
+        <v>-31.69322395324707</v>
       </c>
       <c r="F104" t="n">
-        <v>45.97989654541016</v>
+        <v>12.8436393737793</v>
       </c>
       <c r="G104" t="n">
-        <v>69.36461639404297</v>
+        <v>57.17253112792969</v>
       </c>
       <c r="H104" t="n">
-        <v>-68.67732238769531</v>
+        <v>-77.63005828857422</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.177121858894825</v>
+        <v>-4.062703429011223e+26</v>
       </c>
       <c r="B105" t="n">
-        <v>1.007442863926428e+30</v>
+        <v>1.936195589624035e+19</v>
       </c>
       <c r="C105" t="n">
-        <v>35.69554901123047</v>
+        <v>53.63677597045898</v>
       </c>
       <c r="D105" t="n">
-        <v>28.73692321777344</v>
+        <v>23.03987503051758</v>
       </c>
       <c r="E105" t="n">
-        <v>-13.65047168731689</v>
+        <v>-31.67922019958496</v>
       </c>
       <c r="F105" t="n">
-        <v>45.78403091430664</v>
+        <v>12.88994312286377</v>
       </c>
       <c r="G105" t="n">
-        <v>69.42488098144531</v>
+        <v>57.18080520629883</v>
       </c>
       <c r="H105" t="n">
-        <v>-68.47630310058594</v>
+        <v>-77.63711547851562</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.1741464322805405</v>
+        <v>-2.031351714505612e+26</v>
       </c>
       <c r="B106" t="n">
-        <v>5.037214319632138e+29</v>
+        <v>9.680977948120177e+18</v>
       </c>
       <c r="C106" t="n">
-        <v>35.81352996826172</v>
+        <v>53.61808013916016</v>
       </c>
       <c r="D106" t="n">
-        <v>28.62961578369141</v>
+        <v>23.04809761047363</v>
       </c>
       <c r="E106" t="n">
-        <v>-13.71684265136719</v>
+        <v>-31.66561698913574</v>
       </c>
       <c r="F106" t="n">
-        <v>45.59925079345703</v>
+        <v>12.93445014953613</v>
       </c>
       <c r="G106" t="n">
-        <v>69.48606872558594</v>
+        <v>57.18885803222656</v>
       </c>
       <c r="H106" t="n">
-        <v>-68.27890777587891</v>
+        <v>-77.64381408691406</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1713651448488236</v>
+        <v>-1.015675857252806e+26</v>
       </c>
       <c r="B107" t="n">
-        <v>2.518607159816069e+29</v>
+        <v>4.840488974060088e+18</v>
       </c>
       <c r="C107" t="n">
-        <v>35.92381286621094</v>
+        <v>53.60013580322266</v>
       </c>
       <c r="D107" t="n">
-        <v>28.52882766723633</v>
+        <v>23.05598449707031</v>
       </c>
       <c r="E107" t="n">
-        <v>-13.77761745452881</v>
+        <v>-31.65242385864258</v>
       </c>
       <c r="F107" t="n">
-        <v>45.42508316040039</v>
+        <v>12.97721862792969</v>
       </c>
       <c r="G107" t="n">
-        <v>69.54795837402344</v>
+        <v>57.19672775268555</v>
       </c>
       <c r="H107" t="n">
-        <v>-68.08591461181641</v>
+        <v>-77.65013885498047</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.1687700200080872</v>
+        <v>-5.078379286264029e+25</v>
       </c>
       <c r="B108" t="n">
-        <v>1.259303579908034e+29</v>
+        <v>2.420244487030044e+18</v>
       </c>
       <c r="C108" t="n">
-        <v>36.02671432495117</v>
+        <v>53.58291625976562</v>
       </c>
       <c r="D108" t="n">
-        <v>28.4345817565918</v>
+        <v>23.06355476379395</v>
       </c>
       <c r="E108" t="n">
-        <v>-13.83327484130859</v>
+        <v>-31.6396369934082</v>
       </c>
       <c r="F108" t="n">
-        <v>45.26143264770508</v>
+        <v>13.01831245422363</v>
       </c>
       <c r="G108" t="n">
-        <v>69.61029815673828</v>
+        <v>57.20441055297852</v>
       </c>
       <c r="H108" t="n">
-        <v>-67.89754486083984</v>
+        <v>-77.6561279296875</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.1663516122102738</v>
+        <v>-2.539189643132015e+25</v>
       </c>
       <c r="B109" t="n">
-        <v>6.296517899540172e+28</v>
+        <v>1.210122243515022e+18</v>
       </c>
       <c r="C109" t="n">
-        <v>36.12260818481445</v>
+        <v>53.56641387939453</v>
       </c>
       <c r="D109" t="n">
-        <v>28.34608459472656</v>
+        <v>23.07081604003906</v>
       </c>
       <c r="E109" t="n">
-        <v>-13.88389492034912</v>
+        <v>-31.62723922729492</v>
       </c>
       <c r="F109" t="n">
-        <v>45.10776138305664</v>
+        <v>13.05777835845947</v>
       </c>
       <c r="G109" t="n">
-        <v>69.67296600341797</v>
+        <v>57.21188735961914</v>
       </c>
       <c r="H109" t="n">
-        <v>-67.71459197998047</v>
+        <v>-77.66175842285156</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.1641021502017975</v>
+        <v>-1.269594821566007e+25</v>
       </c>
       <c r="B110" t="n">
-        <v>3.148258949770086e+28</v>
+        <v>6.05061121757511e+17</v>
       </c>
       <c r="C110" t="n">
-        <v>36.2118034362793</v>
+        <v>53.55059051513672</v>
       </c>
       <c r="D110" t="n">
-        <v>28.26360702514648</v>
+        <v>23.07778167724609</v>
       </c>
       <c r="E110" t="n">
-        <v>-13.93001651763916</v>
+        <v>-31.61523818969727</v>
       </c>
       <c r="F110" t="n">
-        <v>44.96411514282227</v>
+        <v>13.09566783905029</v>
       </c>
       <c r="G110" t="n">
-        <v>69.73558044433594</v>
+        <v>57.21917343139648</v>
       </c>
       <c r="H110" t="n">
-        <v>-67.53709411621094</v>
+        <v>-77.66708374023438</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.16201381534338</v>
+        <v>-6.347974107830037e+24</v>
       </c>
       <c r="B111" t="n">
-        <v>1.574129474885043e+28</v>
+        <v>3.025305608787555e+17</v>
       </c>
       <c r="C111" t="n">
-        <v>36.29460906982422</v>
+        <v>53.53544616699219</v>
       </c>
       <c r="D111" t="n">
-        <v>28.18628120422363</v>
+        <v>23.0844612121582</v>
       </c>
       <c r="E111" t="n">
-        <v>-13.97171306610107</v>
+        <v>-31.60362243652344</v>
       </c>
       <c r="F111" t="n">
-        <v>44.82976531982422</v>
+        <v>13.13204097747803</v>
       </c>
       <c r="G111" t="n">
-        <v>69.79807281494141</v>
+        <v>57.22626113891602</v>
       </c>
       <c r="H111" t="n">
-        <v>-67.36566162109375</v>
+        <v>-77.67211151123047</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.1600766408443451</v>
+        <v>-3.173987053915018e+24</v>
       </c>
       <c r="B112" t="n">
-        <v>7.870647374425215e+27</v>
+        <v>1.512652804393778e+17</v>
       </c>
       <c r="C112" t="n">
-        <v>36.37142181396484</v>
+        <v>53.52095413208008</v>
       </c>
       <c r="D112" t="n">
-        <v>28.11436080932617</v>
+        <v>23.09086608886719</v>
       </c>
       <c r="E112" t="n">
-        <v>-14.0095157623291</v>
+        <v>-31.5923957824707</v>
       </c>
       <c r="F112" t="n">
-        <v>44.7046012878418</v>
+        <v>13.16693115234375</v>
       </c>
       <c r="G112" t="n">
-        <v>69.86015319824219</v>
+        <v>57.23316955566406</v>
       </c>
       <c r="H112" t="n">
-        <v>-67.20004272460938</v>
+        <v>-77.67679595947266</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1582838505506516</v>
+        <v>-1.586993526957509e+24</v>
       </c>
       <c r="B113" t="n">
-        <v>3.935323687212608e+27</v>
+        <v>7.563264021968888e+16</v>
       </c>
       <c r="C113" t="n">
-        <v>36.44250869750977</v>
+        <v>53.50708389282227</v>
       </c>
       <c r="D113" t="n">
-        <v>28.04714965820312</v>
+        <v>23.09700965881348</v>
       </c>
       <c r="E113" t="n">
-        <v>-14.04345893859863</v>
+        <v>-31.58155059814453</v>
       </c>
       <c r="F113" t="n">
-        <v>44.58805465698242</v>
+        <v>13.20040607452393</v>
       </c>
       <c r="G113" t="n">
-        <v>69.92166900634766</v>
+        <v>57.23988723754883</v>
       </c>
       <c r="H113" t="n">
-        <v>-67.04067230224609</v>
+        <v>-77.68116760253906</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.1566323012113571</v>
+        <v>-7.934967634787546e+23</v>
       </c>
       <c r="B114" t="n">
-        <v>1.967661843606304e+27</v>
+        <v>3.781632010984444e+16</v>
       </c>
       <c r="C114" t="n">
-        <v>36.50799560546875</v>
+        <v>53.49383544921875</v>
       </c>
       <c r="D114" t="n">
-        <v>27.98498725891113</v>
+        <v>23.10289764404297</v>
       </c>
       <c r="E114" t="n">
-        <v>-14.07406902313232</v>
+        <v>-31.57107162475586</v>
       </c>
       <c r="F114" t="n">
-        <v>44.48013305664062</v>
+        <v>13.23250293731689</v>
       </c>
       <c r="G114" t="n">
-        <v>69.98222351074219</v>
+        <v>57.24643707275391</v>
       </c>
       <c r="H114" t="n">
-        <v>-66.88768005371094</v>
+        <v>-77.68527984619141</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.1551141899824142</v>
+        <v>-3.967483817393773e+23</v>
       </c>
       <c r="B115" t="n">
-        <v>9.838309218031519e+26</v>
+        <v>1.890816005492222e+16</v>
       </c>
       <c r="C115" t="n">
-        <v>36.56819152832031</v>
+        <v>53.48117065429688</v>
       </c>
       <c r="D115" t="n">
-        <v>27.92741394042969</v>
+        <v>23.10855102539062</v>
       </c>
       <c r="E115" t="n">
-        <v>-14.10165309906006</v>
+        <v>-31.56095886230469</v>
       </c>
       <c r="F115" t="n">
-        <v>44.38043975830078</v>
+        <v>13.26328754425049</v>
       </c>
       <c r="G115" t="n">
-        <v>70.04155731201172</v>
+        <v>57.25278091430664</v>
       </c>
       <c r="H115" t="n">
-        <v>-66.74104309082031</v>
+        <v>-77.68911743164062</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.1537196922302246</v>
+        <v>-1.983741908696886e+23</v>
       </c>
       <c r="B116" t="n">
-        <v>4.91915460901576e+26</v>
+        <v>9454080027461104</v>
       </c>
       <c r="C116" t="n">
-        <v>36.62348556518555</v>
+        <v>53.46907043457031</v>
       </c>
       <c r="D116" t="n">
-        <v>27.87422752380371</v>
+        <v>23.11396598815918</v>
       </c>
       <c r="E116" t="n">
-        <v>-14.12634468078613</v>
+        <v>-31.55121421813965</v>
       </c>
       <c r="F116" t="n">
-        <v>44.28844451904297</v>
+        <v>13.29278945922852</v>
       </c>
       <c r="G116" t="n">
-        <v>70.09962463378906</v>
+        <v>57.25896453857422</v>
       </c>
       <c r="H116" t="n">
-        <v>-66.60075378417969</v>
+        <v>-77.69268798828125</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.1524379566311836</v>
+        <v>-9.918709543484432e+22</v>
       </c>
       <c r="B117" t="n">
-        <v>2.45957730450788e+26</v>
+        <v>4727040013730549</v>
       </c>
       <c r="C117" t="n">
-        <v>36.67430877685547</v>
+        <v>53.45753479003906</v>
       </c>
       <c r="D117" t="n">
-        <v>27.82536125183105</v>
+        <v>23.1191577911377</v>
       </c>
       <c r="E117" t="n">
-        <v>-14.14816570281982</v>
+        <v>-31.54182052612305</v>
       </c>
       <c r="F117" t="n">
-        <v>44.20362091064453</v>
+        <v>13.32107257843018</v>
       </c>
       <c r="G117" t="n">
-        <v>70.15654754638672</v>
+        <v>57.26496887207031</v>
       </c>
       <c r="H117" t="n">
-        <v>-66.46619415283203</v>
+        <v>-77.69597625732422</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.1512492391467095</v>
+        <v>-4.959354771742216e+22</v>
       </c>
       <c r="B118" t="n">
-        <v>1.22978865225394e+26</v>
+        <v>2363520006865272</v>
       </c>
       <c r="C118" t="n">
-        <v>36.72144317626953</v>
+        <v>53.44651412963867</v>
       </c>
       <c r="D118" t="n">
-        <v>27.77992057800293</v>
+        <v>23.12413215637207</v>
       </c>
       <c r="E118" t="n">
-        <v>-14.16719722747803</v>
+        <v>-31.53276824951172</v>
       </c>
       <c r="F118" t="n">
-        <v>44.12492370605469</v>
+        <v>13.34818172454834</v>
       </c>
       <c r="G118" t="n">
-        <v>70.21237945556641</v>
+        <v>57.27079010009766</v>
       </c>
       <c r="H118" t="n">
-        <v>-66.33716583251953</v>
+        <v>-77.69905090332031</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.1501258665323258</v>
+        <v>-2.479677385871108e+22</v>
       </c>
       <c r="B119" t="n">
-        <v>6.1489432612697e+25</v>
+        <v>1181760003432633</v>
       </c>
       <c r="C119" t="n">
-        <v>36.76598739624023</v>
+        <v>53.43600082397461</v>
       </c>
       <c r="D119" t="n">
-        <v>27.73710060119629</v>
+        <v>23.1289005279541</v>
       </c>
       <c r="E119" t="n">
-        <v>-14.18370532989502</v>
+        <v>-31.52405738830566</v>
       </c>
       <c r="F119" t="n">
-        <v>44.0511360168457</v>
+        <v>13.37416362762451</v>
       </c>
       <c r="G119" t="n">
-        <v>70.26744079589844</v>
+        <v>57.27644348144531</v>
       </c>
       <c r="H119" t="n">
-        <v>-66.21230316162109</v>
+        <v>-77.70193481445312</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1490538442134857</v>
+        <v>-1.239838692935554e+22</v>
       </c>
       <c r="B120" t="n">
-        <v>3.07447163063485e+25</v>
+        <v>590880001716313.4</v>
       </c>
       <c r="C120" t="n">
-        <v>36.80849456787109</v>
+        <v>53.42596435546875</v>
       </c>
       <c r="D120" t="n">
-        <v>27.6963062286377</v>
+        <v>23.13346290588379</v>
       </c>
       <c r="E120" t="n">
-        <v>-14.1978874206543</v>
+        <v>-31.51567077636719</v>
       </c>
       <c r="F120" t="n">
-        <v>43.98112869262695</v>
+        <v>13.39905643463135</v>
       </c>
       <c r="G120" t="n">
-        <v>70.32186889648438</v>
+        <v>57.28190612792969</v>
       </c>
       <c r="H120" t="n">
-        <v>-66.09098815917969</v>
+        <v>-77.70459747314453</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.148022526204586</v>
+        <v>-6.19919346467777e+21</v>
       </c>
       <c r="B121" t="n">
-        <v>1.537235815317425e+25</v>
+        <v>295440000858153.7</v>
       </c>
       <c r="C121" t="n">
-        <v>36.84938812255859</v>
+        <v>53.4163932800293</v>
       </c>
       <c r="D121" t="n">
-        <v>27.6573657989502</v>
+        <v>23.13783836364746</v>
       </c>
       <c r="E121" t="n">
-        <v>-14.21006679534912</v>
+        <v>-31.50759887695312</v>
       </c>
       <c r="F121" t="n">
-        <v>43.91380310058594</v>
+        <v>13.42291069030762</v>
       </c>
       <c r="G121" t="n">
-        <v>70.37576293945312</v>
+        <v>57.28719329833984</v>
       </c>
       <c r="H121" t="n">
-        <v>-65.97235107421875</v>
+        <v>-77.70709228515625</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1470262262225151</v>
+        <v>-3.099596732338885e+21</v>
       </c>
       <c r="B122" t="n">
-        <v>7.686179076587124e+24</v>
+        <v>147720000429073.8</v>
       </c>
       <c r="C122" t="n">
-        <v>36.88889312744141</v>
+        <v>53.40726089477539</v>
       </c>
       <c r="D122" t="n">
-        <v>27.62003135681152</v>
+        <v>23.14202499389648</v>
       </c>
       <c r="E122" t="n">
-        <v>-14.22069931030273</v>
+        <v>-31.49982833862305</v>
       </c>
       <c r="F122" t="n">
-        <v>43.84786987304688</v>
+        <v>13.44578075408936</v>
       </c>
       <c r="G122" t="n">
-        <v>70.42913055419922</v>
+        <v>57.29233551025391</v>
       </c>
       <c r="H122" t="n">
-        <v>-65.85530853271484</v>
+        <v>-77.70938873291016</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.1460662868618965</v>
+        <v>-1.549798366169443e+21</v>
       </c>
       <c r="B123" t="n">
-        <v>3.843089538293562e+24</v>
+        <v>73860000214533.88</v>
       </c>
       <c r="C123" t="n">
-        <v>36.92695617675781</v>
+        <v>53.39855575561523</v>
       </c>
       <c r="D123" t="n">
-        <v>27.5842456817627</v>
+        <v>23.14604187011719</v>
       </c>
       <c r="E123" t="n">
-        <v>-14.23036575317383</v>
+        <v>-31.49236106872559</v>
       </c>
       <c r="F123" t="n">
-        <v>43.78243637084961</v>
+        <v>13.46769142150879</v>
       </c>
       <c r="G123" t="n">
-        <v>70.48163604736328</v>
+        <v>57.29730606079102</v>
       </c>
       <c r="H123" t="n">
-        <v>-65.73928833007812</v>
+        <v>-77.7115478515625</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.1451399439573288</v>
+        <v>-7.748991830847213e+20</v>
       </c>
       <c r="B124" t="n">
-        <v>1.921544769146781e+24</v>
+        <v>36930000107263.91</v>
       </c>
       <c r="C124" t="n">
-        <v>36.96368789672852</v>
+        <v>53.39022445678711</v>
       </c>
       <c r="D124" t="n">
-        <v>27.54991149902344</v>
+        <v>23.14988708496094</v>
       </c>
       <c r="E124" t="n">
-        <v>-14.23947811126709</v>
+        <v>-31.48517990112305</v>
       </c>
       <c r="F124" t="n">
-        <v>43.71731567382812</v>
+        <v>13.48869609832764</v>
       </c>
       <c r="G124" t="n">
-        <v>70.53297424316406</v>
+        <v>57.30212783813477</v>
       </c>
       <c r="H124" t="n">
-        <v>-65.62421417236328</v>
+        <v>-77.71351623535156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.1442511937022209</v>
+        <v>-3.874495915423606e+20</v>
       </c>
       <c r="B125" t="n">
-        <v>9.607723845733906e+23</v>
+        <v>18465000053628.93</v>
       </c>
       <c r="C125" t="n">
-        <v>36.99892807006836</v>
+        <v>53.38229751586914</v>
       </c>
       <c r="D125" t="n">
-        <v>27.5170955657959</v>
+        <v>23.15357208251953</v>
       </c>
       <c r="E125" t="n">
-        <v>-14.24806118011475</v>
+        <v>-31.4782657623291</v>
       </c>
       <c r="F125" t="n">
-        <v>43.65336990356445</v>
+        <v>13.50883197784424</v>
       </c>
       <c r="G125" t="n">
-        <v>70.58286285400391</v>
+        <v>57.3067741394043</v>
       </c>
       <c r="H125" t="n">
-        <v>-65.51112365722656</v>
+        <v>-77.71537780761719</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.1433966085314751</v>
+        <v>-1.937247957711803e+20</v>
       </c>
       <c r="B126" t="n">
-        <v>4.803861922866953e+23</v>
+        <v>9232500026811.432</v>
       </c>
       <c r="C126" t="n">
-        <v>37.03281402587891</v>
+        <v>53.37473297119141</v>
       </c>
       <c r="D126" t="n">
-        <v>27.48570251464844</v>
+        <v>23.1570987701416</v>
       </c>
       <c r="E126" t="n">
-        <v>-14.25611686706543</v>
+        <v>-31.47162628173828</v>
       </c>
       <c r="F126" t="n">
-        <v>43.59122085571289</v>
+        <v>13.52812957763672</v>
       </c>
       <c r="G126" t="n">
-        <v>70.63117980957031</v>
+        <v>57.31128692626953</v>
       </c>
       <c r="H126" t="n">
-        <v>-65.40087127685547</v>
+        <v>-77.71709442138672</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1425739613175392</v>
+        <v>-9.686239788559016e+19</v>
       </c>
       <c r="B127" t="n">
-        <v>2.401930961433476e+23</v>
+        <v>4616250013402.683</v>
       </c>
       <c r="C127" t="n">
-        <v>37.06543350219727</v>
+        <v>53.36750793457031</v>
       </c>
       <c r="D127" t="n">
-        <v>27.45561981201172</v>
+        <v>23.16048431396484</v>
       </c>
       <c r="E127" t="n">
-        <v>-14.26367092132568</v>
+        <v>-31.46524047851562</v>
       </c>
       <c r="F127" t="n">
-        <v>43.53114700317383</v>
+        <v>13.54663467407227</v>
       </c>
       <c r="G127" t="n">
-        <v>70.67782592773438</v>
+        <v>57.31564712524414</v>
       </c>
       <c r="H127" t="n">
-        <v>-65.29390716552734</v>
+        <v>-77.71870422363281</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.1417798718810082</v>
+        <v>-4.843119894279508e+19</v>
       </c>
       <c r="B128" t="n">
-        <v>1.200965480716738e+23</v>
+        <v>2308125006698.306</v>
       </c>
       <c r="C128" t="n">
-        <v>37.09692001342773</v>
+        <v>53.36061096191406</v>
       </c>
       <c r="D128" t="n">
-        <v>27.4267520904541</v>
+        <v>23.16372680664062</v>
       </c>
       <c r="E128" t="n">
-        <v>-14.27082633972168</v>
+        <v>-31.45910263061523</v>
       </c>
       <c r="F128" t="n">
-        <v>43.47311782836914</v>
+        <v>13.56437206268311</v>
       </c>
       <c r="G128" t="n">
-        <v>70.72282409667969</v>
+        <v>57.31985473632812</v>
       </c>
       <c r="H128" t="n">
-        <v>-65.19034576416016</v>
+        <v>-77.72019195556641</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.1410083064436913</v>
+        <v>-2.421559947139754e+19</v>
       </c>
       <c r="B129" t="n">
-        <v>6.004827403583691e+22</v>
+        <v>1154062503346.115</v>
       </c>
       <c r="C129" t="n">
-        <v>37.12751388549805</v>
+        <v>53.35402679443359</v>
       </c>
       <c r="D129" t="n">
-        <v>27.39885711669922</v>
+        <v>23.16683197021484</v>
       </c>
       <c r="E129" t="n">
-        <v>-14.27769756317139</v>
+        <v>-31.45319938659668</v>
       </c>
       <c r="F129" t="n">
-        <v>43.41686248779297</v>
+        <v>13.58137989044189</v>
       </c>
       <c r="G129" t="n">
-        <v>70.76615905761719</v>
+        <v>57.32393264770508</v>
       </c>
       <c r="H129" t="n">
-        <v>-65.08993530273438</v>
+        <v>-77.72156524658203</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1402577170729637</v>
+        <v>-1.210779973569877e+19</v>
       </c>
       <c r="B130" t="n">
-        <v>3.002413701791846e+22</v>
+        <v>577031251670.0187</v>
       </c>
       <c r="C130" t="n">
-        <v>37.15727615356445</v>
+        <v>53.34774398803711</v>
       </c>
       <c r="D130" t="n">
-        <v>27.37187004089355</v>
+        <v>23.16980934143066</v>
       </c>
       <c r="E130" t="n">
-        <v>-14.28437900543213</v>
+        <v>-31.44752311706543</v>
       </c>
       <c r="F130" t="n">
-        <v>43.36223983764648</v>
+        <v>13.59768295288086</v>
       </c>
       <c r="G130" t="n">
-        <v>70.807861328125</v>
+        <v>57.32787322998047</v>
       </c>
       <c r="H130" t="n">
-        <v>-64.99266052246094</v>
+        <v>-77.72285461425781</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1395281037688255</v>
+        <v>-6.053899867849385e+18</v>
       </c>
       <c r="B131" t="n">
-        <v>1.501206850895923e+22</v>
+        <v>288515625831.9685</v>
       </c>
       <c r="C131" t="n">
-        <v>37.18620681762695</v>
+        <v>53.34175491333008</v>
       </c>
       <c r="D131" t="n">
-        <v>27.34572601318359</v>
+        <v>23.17266273498535</v>
       </c>
       <c r="E131" t="n">
-        <v>-14.29093647003174</v>
+        <v>-31.44207000732422</v>
       </c>
       <c r="F131" t="n">
-        <v>43.30915451049805</v>
+        <v>13.61331558227539</v>
       </c>
       <c r="G131" t="n">
-        <v>70.84788513183594</v>
+        <v>57.33168792724609</v>
       </c>
       <c r="H131" t="n">
-        <v>-64.89846801757812</v>
+        <v>-77.72406768798828</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.1388159915804863</v>
+        <v>-3.026949933924692e+18</v>
       </c>
       <c r="B132" t="n">
-        <v>7.506034254479614e+21</v>
+        <v>144257812912.9418</v>
       </c>
       <c r="C132" t="n">
-        <v>37.21444320678711</v>
+        <v>53.33602905273438</v>
       </c>
       <c r="D132" t="n">
-        <v>27.3203067779541</v>
+        <v>23.1753978729248</v>
       </c>
       <c r="E132" t="n">
-        <v>-14.29745769500732</v>
+        <v>-31.43682861328125</v>
       </c>
       <c r="F132" t="n">
-        <v>43.25739669799805</v>
+        <v>13.62830257415771</v>
       </c>
       <c r="G132" t="n">
-        <v>70.88621520996094</v>
+        <v>57.33535766601562</v>
       </c>
       <c r="H132" t="n">
-        <v>-64.80734252929688</v>
+        <v>-77.72516632080078</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.1381212067604065</v>
+        <v>-1.513474966962346e+18</v>
       </c>
       <c r="B133" t="n">
-        <v>3.753017127239807e+21</v>
+        <v>72128906453.4269</v>
       </c>
       <c r="C133" t="n">
-        <v>37.24199295043945</v>
+        <v>53.3305549621582</v>
       </c>
       <c r="D133" t="n">
-        <v>27.29557609558105</v>
+        <v>23.17801666259766</v>
       </c>
       <c r="E133" t="n">
-        <v>-14.30401420593262</v>
+        <v>-31.43179321289062</v>
       </c>
       <c r="F133" t="n">
-        <v>43.20690155029297</v>
+        <v>13.64267635345459</v>
       </c>
       <c r="G133" t="n">
-        <v>70.92282867431641</v>
+        <v>57.33891677856445</v>
       </c>
       <c r="H133" t="n">
-        <v>-64.71931457519531</v>
+        <v>-77.72621917724609</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.1374359306693077</v>
+        <v>-7.567374834811731e+17</v>
       </c>
       <c r="B134" t="n">
-        <v>1.876508563619903e+21</v>
+        <v>36064453223.66795</v>
       </c>
       <c r="C134" t="n">
-        <v>37.2691650390625</v>
+        <v>53.32534027099609</v>
       </c>
       <c r="D134" t="n">
-        <v>27.2712516784668</v>
+        <v>23.1805305480957</v>
       </c>
       <c r="E134" t="n">
-        <v>-14.31069660186768</v>
+        <v>-31.42695426940918</v>
       </c>
       <c r="F134" t="n">
-        <v>43.15734481811523</v>
+        <v>13.65646266937256</v>
       </c>
       <c r="G134" t="n">
-        <v>70.95789337158203</v>
+        <v>57.34234237670898</v>
       </c>
       <c r="H134" t="n">
-        <v>-64.63400268554688</v>
+        <v>-77.72716522216797</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.136764033138752</v>
+        <v>-3.783687417405866e+17</v>
       </c>
       <c r="B135" t="n">
-        <v>9.382542818099517e+20</v>
+        <v>18032226653.09964</v>
       </c>
       <c r="C135" t="n">
-        <v>37.29580688476562</v>
+        <v>53.32035827636719</v>
       </c>
       <c r="D135" t="n">
-        <v>27.24747085571289</v>
+        <v>23.18293762207031</v>
       </c>
       <c r="E135" t="n">
-        <v>-14.31750011444092</v>
+        <v>-31.42229843139648</v>
       </c>
       <c r="F135" t="n">
-        <v>43.10886764526367</v>
+        <v>13.66967010498047</v>
       </c>
       <c r="G135" t="n">
-        <v>70.99136352539062</v>
+        <v>57.34565353393555</v>
       </c>
       <c r="H135" t="n">
-        <v>-64.55152130126953</v>
+        <v>-77.72808837890625</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.1361125430464745</v>
+        <v>-1.891843708702931e+17</v>
       </c>
       <c r="B136" t="n">
-        <v>4.691271409049759e+20</v>
+        <v>9016112858.120192</v>
       </c>
       <c r="C136" t="n">
-        <v>37.32164001464844</v>
+        <v>53.31558990478516</v>
       </c>
       <c r="D136" t="n">
-        <v>27.22445487976074</v>
+        <v>23.18524551391602</v>
       </c>
       <c r="E136" t="n">
-        <v>-14.32439136505127</v>
+        <v>-31.4178352355957</v>
       </c>
       <c r="F136" t="n">
-        <v>43.06169509887695</v>
+        <v>13.68234252929688</v>
       </c>
       <c r="G136" t="n">
-        <v>71.02313995361328</v>
+        <v>57.34885787963867</v>
       </c>
       <c r="H136" t="n">
-        <v>-64.4720458984375</v>
+        <v>-77.72891998291016</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7791719245097245</v>
+        <v>-9.459218543515306e+16</v>
       </c>
       <c r="B137" t="n">
-        <v>2.345635704524883e+20</v>
+        <v>4508061826.018918</v>
       </c>
       <c r="C137" t="n">
-        <v>37.34674835205078</v>
+        <v>53.31105041503906</v>
       </c>
       <c r="D137" t="n">
-        <v>27.2021427154541</v>
+        <v>23.18745613098145</v>
       </c>
       <c r="E137" t="n">
-        <v>-14.33139133453369</v>
+        <v>-31.41353607177734</v>
       </c>
       <c r="F137" t="n">
-        <v>43.01573944091797</v>
+        <v>13.69449329376221</v>
       </c>
       <c r="G137" t="n">
-        <v>71.05335235595703</v>
+        <v>57.35193252563477</v>
       </c>
       <c r="H137" t="n">
-        <v>-64.39539337158203</v>
+        <v>-77.72969055175781</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.9438079701261025</v>
+        <v>-4.729609271739047e+16</v>
       </c>
       <c r="B138" t="n">
-        <v>1.172817852262317e+20</v>
+        <v>2253968785.119463</v>
       </c>
       <c r="C138" t="n">
-        <v>37.37114334106445</v>
+        <v>53.30669784545898</v>
       </c>
       <c r="D138" t="n">
-        <v>27.1805534362793</v>
+        <v>23.18957710266113</v>
       </c>
       <c r="E138" t="n">
-        <v>-14.33853530883789</v>
+        <v>-31.4094066619873</v>
       </c>
       <c r="F138" t="n">
-        <v>42.97099685668945</v>
+        <v>13.70615005493164</v>
       </c>
       <c r="G138" t="n">
-        <v>71.08196258544922</v>
+        <v>57.35491561889648</v>
       </c>
       <c r="H138" t="n">
-        <v>-64.32158660888672</v>
+        <v>-77.73040008544922</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9857649323993111</v>
+        <v>-2.364804636399056e+16</v>
       </c>
       <c r="B139" t="n">
-        <v>5.864089261353646e+19</v>
+        <v>1127699949.942443</v>
       </c>
       <c r="C139" t="n">
-        <v>37.39492416381836</v>
+        <v>53.30254745483398</v>
       </c>
       <c r="D139" t="n">
-        <v>27.15951538085938</v>
+        <v>23.19161033630371</v>
       </c>
       <c r="E139" t="n">
-        <v>-14.34577560424805</v>
+        <v>-31.40544128417969</v>
       </c>
       <c r="F139" t="n">
-        <v>42.92733764648438</v>
+        <v>13.71731853485107</v>
       </c>
       <c r="G139" t="n">
-        <v>71.10919189453125</v>
+        <v>57.35778045654297</v>
       </c>
       <c r="H139" t="n">
-        <v>-64.25028991699219</v>
+        <v>-77.7310791015625</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.9964096151069587</v>
+        <v>-1.182402303133873e+16</v>
       </c>
       <c r="B140" t="n">
-        <v>2.932044629257066e+19</v>
+        <v>555605485.9186618</v>
       </c>
       <c r="C140" t="n">
-        <v>37.41820526123047</v>
+        <v>53.29857635498047</v>
       </c>
       <c r="D140" t="n">
-        <v>27.13884544372559</v>
+        <v>23.19355392456055</v>
       </c>
       <c r="E140" t="n">
-        <v>-14.35300540924072</v>
+        <v>-31.40163421630859</v>
       </c>
       <c r="F140" t="n">
-        <v>42.88462448120117</v>
+        <v>13.72804260253906</v>
       </c>
       <c r="G140" t="n">
-        <v>71.13512420654297</v>
+        <v>57.36055755615234</v>
       </c>
       <c r="H140" t="n">
-        <v>-64.18128204345703</v>
+        <v>-77.73170471191406</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9990983243986018</v>
+        <v>-5912015800595784</v>
       </c>
       <c r="B141" t="n">
-        <v>1.466022362517197e+19</v>
+        <v>372828668.603739</v>
       </c>
       <c r="C141" t="n">
-        <v>37.44100570678711</v>
+        <v>53.29478454589844</v>
       </c>
       <c r="D141" t="n">
-        <v>27.1185131072998</v>
+        <v>23.1954231262207</v>
       </c>
       <c r="E141" t="n">
-        <v>-14.36022758483887</v>
+        <v>-31.39797592163086</v>
       </c>
       <c r="F141" t="n">
-        <v>42.84282684326172</v>
+        <v>13.73832035064697</v>
       </c>
       <c r="G141" t="n">
-        <v>71.15984344482422</v>
+        <v>57.36322402954102</v>
       </c>
       <c r="H141" t="n">
-        <v>-64.11444854736328</v>
+        <v>-77.73229217529297</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9997745158971306</v>
+        <v>-2955886067252971</v>
       </c>
       <c r="B142" t="n">
-        <v>7.330095671284199e+18</v>
+        <v>-909237422.7210993</v>
       </c>
       <c r="C142" t="n">
-        <v>37.46336364746094</v>
+        <v>53.29116821289062</v>
       </c>
       <c r="D142" t="n">
-        <v>27.09848022460938</v>
+        <v>23.19721031188965</v>
       </c>
       <c r="E142" t="n">
-        <v>-14.36745738983154</v>
+        <v>-31.39445495605469</v>
       </c>
       <c r="F142" t="n">
-        <v>42.80189514160156</v>
+        <v>13.74817657470703</v>
       </c>
       <c r="G142" t="n">
-        <v>71.18340301513672</v>
+        <v>57.36580657958984</v>
       </c>
       <c r="H142" t="n">
-        <v>-64.04976654052734</v>
+        <v>-77.73284149169922</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.9999438480552915</v>
+        <v>-1481406087123930</v>
       </c>
       <c r="B143" t="n">
-        <v>3.665591508527182e+18</v>
+        <v>12182521960.07718</v>
       </c>
       <c r="C143" t="n">
-        <v>37.48530197143555</v>
+        <v>53.2877082824707</v>
       </c>
       <c r="D143" t="n">
-        <v>27.07872772216797</v>
+        <v>23.19892311096191</v>
       </c>
       <c r="E143" t="n">
-        <v>-14.37469291687012</v>
+        <v>-31.39107513427734</v>
       </c>
       <c r="F143" t="n">
-        <v>42.76177597045898</v>
+        <v>13.75762557983398</v>
       </c>
       <c r="G143" t="n">
-        <v>71.20583343505859</v>
+        <v>57.3682861328125</v>
       </c>
       <c r="H143" t="n">
-        <v>-63.98713684082031</v>
+        <v>-77.73332977294922</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9999860741596448</v>
+        <v>-642294854457976.4</v>
       </c>
       <c r="B144" t="n">
-        <v>1.814496399069132e+18</v>
+        <v>-139711230999.8105</v>
       </c>
       <c r="C144" t="n">
-        <v>37.50685501098633</v>
+        <v>53.28440475463867</v>
       </c>
       <c r="D144" t="n">
-        <v>27.05922698974609</v>
+        <v>23.20056915283203</v>
       </c>
       <c r="E144" t="n">
-        <v>-14.38192844390869</v>
+        <v>-31.38783073425293</v>
       </c>
       <c r="F144" t="n">
-        <v>42.72246551513672</v>
+        <v>13.76668930053711</v>
       </c>
       <c r="G144" t="n">
-        <v>71.22722625732422</v>
+        <v>57.37067031860352</v>
       </c>
       <c r="H144" t="n">
-        <v>-63.9265251159668</v>
+        <v>-77.73383331298828</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.9999965603968698</v>
+        <v>-3116820247769593</v>
       </c>
       <c r="B145" t="n">
-        <v>1.522763214265574e+18</v>
+        <v>1612876990229.844</v>
       </c>
       <c r="C145" t="n">
-        <v>37.52804946899414</v>
+        <v>53.28124618530273</v>
       </c>
       <c r="D145" t="n">
-        <v>27.03997421264648</v>
+        <v>23.20213890075684</v>
       </c>
       <c r="E145" t="n">
-        <v>-14.38916015625</v>
+        <v>-31.38471603393555</v>
       </c>
       <c r="F145" t="n">
-        <v>42.68391418457031</v>
+        <v>13.77538299560547</v>
       </c>
       <c r="G145" t="n">
-        <v>71.24758148193359</v>
+        <v>57.37297439575195</v>
       </c>
       <c r="H145" t="n">
-        <v>-63.86786270141602</v>
+        <v>-77.73426055908203</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.9999991538478644</v>
+        <v>7.784331531536347e+16</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.992819843330536e+19</v>
+        <v>-18620029265420.61</v>
       </c>
       <c r="C146" t="n">
-        <v>37.54888534545898</v>
+        <v>53.27822113037109</v>
       </c>
       <c r="D146" t="n">
-        <v>27.02097129821777</v>
+        <v>23.20364952087402</v>
       </c>
       <c r="E146" t="n">
-        <v>-14.3963794708252</v>
+        <v>-31.3817195892334</v>
       </c>
       <c r="F146" t="n">
-        <v>42.64612579345703</v>
+        <v>13.78371810913086</v>
       </c>
       <c r="G146" t="n">
-        <v>71.26698303222656</v>
+        <v>57.37519073486328</v>
       </c>
       <c r="H146" t="n">
-        <v>-63.81111907958984</v>
+        <v>-77.73466491699219</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.9999997926701936</v>
+        <v>-2.215663131540989e+18</v>
       </c>
       <c r="B147" t="n">
-        <v>6.850282745237698e+20</v>
+        <v>215024347680664.6</v>
       </c>
       <c r="C147" t="n">
-        <v>37.56940078735352</v>
+        <v>53.27533721923828</v>
       </c>
       <c r="D147" t="n">
-        <v>27.00218200683594</v>
+        <v>23.2050952911377</v>
       </c>
       <c r="E147" t="n">
-        <v>-14.40358448028564</v>
+        <v>-31.37884140014648</v>
       </c>
       <c r="F147" t="n">
-        <v>42.60905456542969</v>
+        <v>13.79171657562256</v>
       </c>
       <c r="G147" t="n">
-        <v>71.28546142578125</v>
+        <v>57.37733459472656</v>
       </c>
       <c r="H147" t="n">
-        <v>-63.75620269775391</v>
+        <v>-77.73505401611328</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.9999999493980251</v>
+        <v>6.289527975616887e+19</v>
       </c>
       <c r="B148" t="n">
-        <v>-2.298824196000558e+22</v>
+        <v>-2483776925832707</v>
       </c>
       <c r="C148" t="n">
-        <v>37.58960723876953</v>
+        <v>53.2725715637207</v>
       </c>
       <c r="D148" t="n">
-        <v>26.98360824584961</v>
+        <v>23.20648193359375</v>
       </c>
       <c r="E148" t="n">
-        <v>-14.41076755523682</v>
+        <v>-31.37607765197754</v>
       </c>
       <c r="F148" t="n">
-        <v>42.57266998291016</v>
+        <v>13.79938411712646</v>
       </c>
       <c r="G148" t="n">
-        <v>71.30308532714844</v>
+        <v>57.3793830871582</v>
       </c>
       <c r="H148" t="n">
-        <v>-63.70307540893555</v>
+        <v>-77.73540496826172</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9999999876977695</v>
+        <v>-1.785063983677619e+21</v>
       </c>
       <c r="B149" t="n">
-        <v>7.712197316756311e+23</v>
+        <v>2.86979368023509e+16</v>
       </c>
       <c r="C149" t="n">
-        <v>37.60951995849609</v>
+        <v>53.26993179321289</v>
       </c>
       <c r="D149" t="n">
-        <v>26.96524047851562</v>
+        <v>23.20780754089355</v>
       </c>
       <c r="E149" t="n">
-        <v>-14.41792011260986</v>
+        <v>-31.37342643737793</v>
       </c>
       <c r="F149" t="n">
-        <v>42.53695678710938</v>
+        <v>13.80673503875732</v>
       </c>
       <c r="G149" t="n">
-        <v>71.31986999511719</v>
+        <v>57.3813591003418</v>
       </c>
       <c r="H149" t="n">
-        <v>-63.65165328979492</v>
+        <v>-77.7357177734375</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.9999999970206028</v>
+        <v>5.065187249192605e+22</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.585702395808159e+25</v>
+        <v>-3.316631153983167e+17</v>
       </c>
       <c r="C150" t="n">
-        <v>37.629150390625</v>
+        <v>53.26741409301758</v>
       </c>
       <c r="D150" t="n">
-        <v>26.94706726074219</v>
+        <v>23.20907974243164</v>
       </c>
       <c r="E150" t="n">
-        <v>-14.42503929138184</v>
+        <v>-31.37087631225586</v>
       </c>
       <c r="F150" t="n">
-        <v>42.50190734863281</v>
+        <v>13.81379127502441</v>
       </c>
       <c r="G150" t="n">
-        <v>71.33588409423828</v>
+        <v>57.38327407836914</v>
       </c>
       <c r="H150" t="n">
-        <v>-63.60188674926758</v>
+        <v>-77.73606109619141</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.9999999992811833</v>
+        <v>-1.436970872871275e+24</v>
       </c>
       <c r="B151" t="n">
-        <v>8.663912130375857e+26</v>
+        <v>3.833960794986465e+18</v>
       </c>
       <c r="C151" t="n">
-        <v>37.64850616455078</v>
+        <v>53.26499176025391</v>
       </c>
       <c r="D151" t="n">
-        <v>26.92910385131836</v>
+        <v>23.21030044555664</v>
       </c>
       <c r="E151" t="n">
-        <v>-14.43211364746094</v>
+        <v>-31.36843109130859</v>
       </c>
       <c r="F151" t="n">
-        <v>42.46748733520508</v>
+        <v>13.82055282592773</v>
       </c>
       <c r="G151" t="n">
-        <v>71.35115051269531</v>
+        <v>57.38509750366211</v>
       </c>
       <c r="H151" t="n">
-        <v>-63.55374908447266</v>
+        <v>-77.73631286621094</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.9999999998272292</v>
+        <v>4.075819791902616e+25</v>
       </c>
       <c r="B152" t="n">
-        <v>-2.901277637021132e+28</v>
+        <v>-4.433000504236557e+19</v>
       </c>
       <c r="C152" t="n">
-        <v>37.66758728027344</v>
+        <v>53.2626838684082</v>
       </c>
       <c r="D152" t="n">
-        <v>26.91134262084961</v>
+        <v>23.21146583557129</v>
       </c>
       <c r="E152" t="n">
-        <v>-14.4391393661499</v>
+        <v>-31.36607933044434</v>
       </c>
       <c r="F152" t="n">
-        <v>42.43370056152344</v>
+        <v>13.82704162597656</v>
       </c>
       <c r="G152" t="n">
-        <v>71.36573028564453</v>
+        <v>57.38686370849609</v>
       </c>
       <c r="H152" t="n">
-        <v>-63.50715637207031</v>
+        <v>-77.736572265625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.9999999999586285</v>
+        <v>-1.155847015386182e+27</v>
       </c>
       <c r="B153" t="n">
-        <v>9.709765647132321e+29</v>
+        <v>5.126764896994428e+20</v>
       </c>
       <c r="C153" t="n">
-        <v>37.6864128112793</v>
+        <v>53.26047515869141</v>
       </c>
       <c r="D153" t="n">
-        <v>26.89378356933594</v>
+        <v>23.21258735656738</v>
       </c>
       <c r="E153" t="n">
-        <v>-14.44610500335693</v>
+        <v>-31.36381912231445</v>
       </c>
       <c r="F153" t="n">
-        <v>42.40053176879883</v>
+        <v>13.83326148986816</v>
       </c>
       <c r="G153" t="n">
-        <v>71.379638671875</v>
+        <v>57.38855743408203</v>
       </c>
       <c r="H153" t="n">
-        <v>-63.46207427978516</v>
+        <v>-77.73684692382812</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.9999999999901298</v>
+        <v>-5.77923507693091e+26</v>
       </c>
       <c r="B154" t="n">
-        <v>4.854882823566161e+29</v>
+        <v>2.563382448497214e+20</v>
       </c>
       <c r="C154" t="n">
-        <v>37.70495986938477</v>
+        <v>53.25836563110352</v>
       </c>
       <c r="D154" t="n">
-        <v>26.87642669677734</v>
+        <v>23.21365737915039</v>
       </c>
       <c r="E154" t="n">
-        <v>-14.45300579071045</v>
+        <v>-31.36165618896484</v>
       </c>
       <c r="F154" t="n">
-        <v>42.36795043945312</v>
+        <v>13.8392219543457</v>
       </c>
       <c r="G154" t="n">
-        <v>71.39293670654297</v>
+        <v>57.39019393920898</v>
       </c>
       <c r="H154" t="n">
-        <v>-63.41845703125</v>
+        <v>-77.737060546875</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.1259838749468327</v>
+        <v>-2.889617538465455e+26</v>
       </c>
       <c r="B155" t="n">
-        <v>2.42744141178308e+29</v>
+        <v>1.281691224248607e+20</v>
       </c>
       <c r="C155" t="n">
-        <v>37.72325897216797</v>
+        <v>53.25634765625</v>
       </c>
       <c r="D155" t="n">
-        <v>26.85928726196289</v>
+        <v>23.21468734741211</v>
       </c>
       <c r="E155" t="n">
-        <v>-14.4598331451416</v>
+        <v>-31.35956764221191</v>
       </c>
       <c r="F155" t="n">
-        <v>42.33597183227539</v>
+        <v>13.84495067596436</v>
       </c>
       <c r="G155" t="n">
-        <v>71.4056396484375</v>
+        <v>57.39176940917969</v>
       </c>
       <c r="H155" t="n">
-        <v>-63.37625122070312</v>
+        <v>-77.7373046875</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.1255290196835995</v>
+        <v>-1.444808769232727e+26</v>
       </c>
       <c r="B156" t="n">
-        <v>1.21372070589154e+29</v>
+        <v>6.408456121243034e+19</v>
       </c>
       <c r="C156" t="n">
-        <v>37.74129486083984</v>
+        <v>53.25441741943359</v>
       </c>
       <c r="D156" t="n">
-        <v>26.84235954284668</v>
+        <v>23.21567153930664</v>
       </c>
       <c r="E156" t="n">
-        <v>-14.46658039093018</v>
+        <v>-31.35757637023926</v>
       </c>
       <c r="F156" t="n">
-        <v>42.30458831787109</v>
+        <v>13.85043334960938</v>
       </c>
       <c r="G156" t="n">
-        <v>71.41777801513672</v>
+        <v>57.39326858520508</v>
       </c>
       <c r="H156" t="n">
-        <v>-63.33541107177734</v>
+        <v>-77.73750305175781</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.1250807984173298</v>
+        <v>-7.224043846163637e+25</v>
       </c>
       <c r="B157" t="n">
-        <v>6.068603529457701e+28</v>
+        <v>3.204228060621517e+19</v>
       </c>
       <c r="C157" t="n">
-        <v>37.75906753540039</v>
+        <v>53.25257110595703</v>
       </c>
       <c r="D157" t="n">
-        <v>26.82565498352051</v>
+        <v>23.21661376953125</v>
       </c>
       <c r="E157" t="n">
-        <v>-14.47323894500732</v>
+        <v>-31.35565567016602</v>
       </c>
       <c r="F157" t="n">
-        <v>42.27376937866211</v>
+        <v>13.85570049285889</v>
       </c>
       <c r="G157" t="n">
-        <v>71.42940521240234</v>
+        <v>57.39472961425781</v>
       </c>
       <c r="H157" t="n">
-        <v>-63.29586791992188</v>
+        <v>-77.73768615722656</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.1246390216052532</v>
+        <v>-3.612021923081819e+25</v>
       </c>
       <c r="B158" t="n">
-        <v>3.03430176472885e+28</v>
+        <v>1.602114030310759e+19</v>
       </c>
       <c r="C158" t="n">
-        <v>37.77658462524414</v>
+        <v>53.25080108642578</v>
       </c>
       <c r="D158" t="n">
-        <v>26.80917358398438</v>
+        <v>23.2175178527832</v>
       </c>
       <c r="E158" t="n">
-        <v>-14.47980499267578</v>
+        <v>-31.35380935668945</v>
       </c>
       <c r="F158" t="n">
-        <v>42.2435188293457</v>
+        <v>13.86074829101562</v>
       </c>
       <c r="G158" t="n">
-        <v>71.44052886962891</v>
+        <v>57.39611434936523</v>
       </c>
       <c r="H158" t="n">
-        <v>-63.25759887695312</v>
+        <v>-77.73787689208984</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.1242039893567562</v>
+        <v>-1.806010961540909e+25</v>
       </c>
       <c r="B159" t="n">
-        <v>1.517150882364425e+28</v>
+        <v>8.010570151553793e+18</v>
       </c>
       <c r="C159" t="n">
-        <v>37.7938346862793</v>
+        <v>53.24911499023438</v>
       </c>
       <c r="D159" t="n">
-        <v>26.79292488098145</v>
+        <v>23.21838188171387</v>
       </c>
       <c r="E159" t="n">
-        <v>-14.48627090454102</v>
+        <v>-31.3520393371582</v>
       </c>
       <c r="F159" t="n">
-        <v>42.21384048461914</v>
+        <v>13.86557960510254</v>
       </c>
       <c r="G159" t="n">
-        <v>71.45120239257812</v>
+        <v>57.39745712280273</v>
       </c>
       <c r="H159" t="n">
-        <v>-63.22056579589844</v>
+        <v>-77.73804473876953</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.1237756779789925</v>
+        <v>-9.030054807704546e+24</v>
       </c>
       <c r="B160" t="n">
-        <v>7.585754411822126e+27</v>
+        <v>4.005285075776897e+18</v>
       </c>
       <c r="C160" t="n">
-        <v>37.81081771850586</v>
+        <v>53.24748992919922</v>
       </c>
       <c r="D160" t="n">
-        <v>26.77691650390625</v>
+        <v>23.21921348571777</v>
       </c>
       <c r="E160" t="n">
-        <v>-14.49263381958008</v>
+        <v>-31.35034370422363</v>
       </c>
       <c r="F160" t="n">
-        <v>42.18473052978516</v>
+        <v>13.87022304534912</v>
       </c>
       <c r="G160" t="n">
-        <v>71.46142578125</v>
+        <v>57.39874649047852</v>
       </c>
       <c r="H160" t="n">
-        <v>-63.18471908569336</v>
+        <v>-77.73816680908203</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.1233540163934231</v>
+        <v>-4.515027403852273e+24</v>
       </c>
       <c r="B161" t="n">
-        <v>3.792877205911063e+27</v>
+        <v>2.002642537888448e+18</v>
       </c>
       <c r="C161" t="n">
-        <v>37.82753753662109</v>
+        <v>53.24594116210938</v>
       </c>
       <c r="D161" t="n">
-        <v>26.76114845275879</v>
+        <v>23.22000885009766</v>
       </c>
       <c r="E161" t="n">
-        <v>-14.49888801574707</v>
+        <v>-31.34870910644531</v>
       </c>
       <c r="F161" t="n">
-        <v>42.15616989135742</v>
+        <v>13.87467384338379</v>
       </c>
       <c r="G161" t="n">
-        <v>71.47124481201172</v>
+        <v>57.39999008178711</v>
       </c>
       <c r="H161" t="n">
-        <v>-63.1500244140625</v>
+        <v>-77.73834228515625</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.122939367890358</v>
+        <v>-2.257513701926137e+24</v>
       </c>
       <c r="B162" t="n">
-        <v>1.896438602955531e+27</v>
+        <v>1.001321268944224e+18</v>
       </c>
       <c r="C162" t="n">
-        <v>37.84397888183594</v>
+        <v>53.24446105957031</v>
       </c>
       <c r="D162" t="n">
-        <v>26.74563598632812</v>
+        <v>23.22076988220215</v>
       </c>
       <c r="E162" t="n">
-        <v>-14.50502681732178</v>
+        <v>-31.34714126586914</v>
       </c>
       <c r="F162" t="n">
-        <v>42.1281623840332</v>
+        <v>13.87894439697266</v>
       </c>
       <c r="G162" t="n">
-        <v>71.48067474365234</v>
+        <v>57.40116500854492</v>
       </c>
       <c r="H162" t="n">
-        <v>-63.11645126342773</v>
+        <v>-77.73847198486328</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1225313691794872</v>
+        <v>-1.128756850963068e+24</v>
       </c>
       <c r="B163" t="n">
-        <v>9.482193014777657e+26</v>
+        <v>5.006606344721121e+17</v>
       </c>
       <c r="C163" t="n">
-        <v>37.86015701293945</v>
+        <v>53.24304580688477</v>
       </c>
       <c r="D163" t="n">
-        <v>26.73037719726562</v>
+        <v>23.22149848937988</v>
       </c>
       <c r="E163" t="n">
-        <v>-14.51104831695557</v>
+        <v>-31.34564971923828</v>
       </c>
       <c r="F163" t="n">
-        <v>42.1007080078125</v>
+        <v>13.88303852081299</v>
       </c>
       <c r="G163" t="n">
-        <v>71.48972320556641</v>
+        <v>57.40231704711914</v>
       </c>
       <c r="H163" t="n">
-        <v>-63.08391952514648</v>
+        <v>-77.73860168457031</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.122130770534277</v>
+        <v>-5.643784254815342e+23</v>
       </c>
       <c r="B164" t="n">
-        <v>4.741096507388829e+26</v>
+        <v>2.50330317236056e+17</v>
       </c>
       <c r="C164" t="n">
-        <v>37.87604141235352</v>
+        <v>53.24169158935547</v>
       </c>
       <c r="D164" t="n">
-        <v>26.71538162231445</v>
+        <v>23.22219657897949</v>
       </c>
       <c r="E164" t="n">
-        <v>-14.51694774627686</v>
+        <v>-31.34420204162598</v>
       </c>
       <c r="F164" t="n">
-        <v>42.07379531860352</v>
+        <v>13.886962890625</v>
       </c>
       <c r="G164" t="n">
-        <v>71.49842834472656</v>
+        <v>57.40340805053711</v>
       </c>
       <c r="H164" t="n">
-        <v>-63.05244064331055</v>
+        <v>-77.73871612548828</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.121737003326416</v>
+        <v>-2.821892127407671e+23</v>
       </c>
       <c r="B165" t="n">
-        <v>2.370548253694414e+26</v>
+        <v>1.25165158618028e+17</v>
       </c>
       <c r="C165" t="n">
-        <v>37.89165496826172</v>
+        <v>53.24038696289062</v>
       </c>
       <c r="D165" t="n">
-        <v>26.70065689086914</v>
+        <v>23.22286987304688</v>
       </c>
       <c r="E165" t="n">
-        <v>-14.52272129058838</v>
+        <v>-31.34281921386719</v>
       </c>
       <c r="F165" t="n">
-        <v>42.04742431640625</v>
+        <v>13.89072608947754</v>
       </c>
       <c r="G165" t="n">
-        <v>71.50682830810547</v>
+        <v>57.40447616577148</v>
       </c>
       <c r="H165" t="n">
-        <v>-63.02196502685547</v>
+        <v>-77.73883819580078</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.1213502570986748</v>
+        <v>-1.410946063703835e+23</v>
       </c>
       <c r="B166" t="n">
-        <v>1.185274126847207e+26</v>
+        <v>6.258257930901401e+16</v>
       </c>
       <c r="C166" t="n">
-        <v>37.90699005126953</v>
+        <v>53.23915100097656</v>
       </c>
       <c r="D166" t="n">
-        <v>26.68620109558105</v>
+        <v>23.22350883483887</v>
       </c>
       <c r="E166" t="n">
-        <v>-14.52837181091309</v>
+        <v>-31.34149169921875</v>
       </c>
       <c r="F166" t="n">
-        <v>42.0216064453125</v>
+        <v>13.89433574676514</v>
       </c>
       <c r="G166" t="n">
-        <v>71.51492309570312</v>
+        <v>57.40547943115234</v>
       </c>
       <c r="H166" t="n">
-        <v>-62.99245071411133</v>
+        <v>-77.73893737792969</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.1209710136055946</v>
+        <v>-7.054730318519177e+22</v>
       </c>
       <c r="B167" t="n">
-        <v>5.926370634236036e+25</v>
+        <v>3.1291289654507e+16</v>
       </c>
       <c r="C167" t="n">
-        <v>37.92202758789062</v>
+        <v>53.23794937133789</v>
       </c>
       <c r="D167" t="n">
-        <v>26.67202568054199</v>
+        <v>23.22412490844727</v>
       </c>
       <c r="E167" t="n">
-        <v>-14.53388977050781</v>
+        <v>-31.34022331237793</v>
       </c>
       <c r="F167" t="n">
-        <v>41.99632263183594</v>
+        <v>13.89779949188232</v>
       </c>
       <c r="G167" t="n">
-        <v>71.52272796630859</v>
+        <v>57.40644836425781</v>
       </c>
       <c r="H167" t="n">
-        <v>-62.96388626098633</v>
+        <v>-77.73902893066406</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.1205990833044052</v>
+        <v>-3.527365159259588e+22</v>
       </c>
       <c r="B168" t="n">
-        <v>2.963185317118018e+25</v>
+        <v>1.56456448272535e+16</v>
       </c>
       <c r="C168" t="n">
-        <v>37.93677520751953</v>
+        <v>53.23682022094727</v>
       </c>
       <c r="D168" t="n">
-        <v>26.65813446044922</v>
+        <v>23.22471046447754</v>
       </c>
       <c r="E168" t="n">
-        <v>-14.53928089141846</v>
+        <v>-31.3389892578125</v>
       </c>
       <c r="F168" t="n">
-        <v>41.97159194946289</v>
+        <v>13.901123046875</v>
       </c>
       <c r="G168" t="n">
-        <v>71.53022766113281</v>
+        <v>57.40738296508789</v>
       </c>
       <c r="H168" t="n">
-        <v>-62.93623352050781</v>
+        <v>-77.73912048339844</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.1202347584068775</v>
+        <v>-1.763682579629794e+22</v>
       </c>
       <c r="B169" t="n">
-        <v>1.481592658559009e+25</v>
+        <v>7822822413626745</v>
       </c>
       <c r="C169" t="n">
-        <v>37.95122146606445</v>
+        <v>53.23572540283203</v>
       </c>
       <c r="D169" t="n">
-        <v>26.64453506469727</v>
+        <v>23.22527694702148</v>
       </c>
       <c r="E169" t="n">
-        <v>-14.54454040527344</v>
+        <v>-31.33782005310059</v>
       </c>
       <c r="F169" t="n">
-        <v>41.94739532470703</v>
+        <v>13.9043025970459</v>
       </c>
       <c r="G169" t="n">
-        <v>71.53750610351562</v>
+        <v>57.40828704833984</v>
       </c>
       <c r="H169" t="n">
-        <v>-62.90947341918945</v>
+        <v>-77.73921203613281</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.1198778414726257</v>
+        <v>-8.818412898148971e+21</v>
       </c>
       <c r="B170" t="n">
-        <v>7.407963292795045e+24</v>
+        <v>3911411206813370</v>
       </c>
       <c r="C170" t="n">
-        <v>37.96537399291992</v>
+        <v>53.23468399047852</v>
       </c>
       <c r="D170" t="n">
-        <v>26.63122749328613</v>
+        <v>23.22581672668457</v>
       </c>
       <c r="E170" t="n">
-        <v>-14.5496654510498</v>
+        <v>-31.33669090270996</v>
       </c>
       <c r="F170" t="n">
-        <v>41.92375946044922</v>
+        <v>13.90735721588135</v>
       </c>
       <c r="G170" t="n">
-        <v>71.54450225830078</v>
+        <v>57.40913391113281</v>
       </c>
       <c r="H170" t="n">
-        <v>-62.88357543945312</v>
+        <v>-77.73930358886719</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.1195285141468048</v>
+        <v>-4.409206449074486e+21</v>
       </c>
       <c r="B171" t="n">
-        <v>3.703981646397522e+24</v>
+        <v>1955705603406682</v>
       </c>
       <c r="C171" t="n">
-        <v>37.97922515869141</v>
+        <v>53.23368453979492</v>
       </c>
       <c r="D171" t="n">
-        <v>26.61821174621582</v>
+        <v>23.2263355255127</v>
       </c>
       <c r="E171" t="n">
-        <v>-14.55466270446777</v>
+        <v>-31.33560752868652</v>
       </c>
       <c r="F171" t="n">
-        <v>41.90065002441406</v>
+        <v>13.91028308868408</v>
       </c>
       <c r="G171" t="n">
-        <v>71.55127716064453</v>
+        <v>57.40997695922852</v>
       </c>
       <c r="H171" t="n">
-        <v>-62.85849380493164</v>
+        <v>-77.73935699462891</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.119187273979187</v>
+        <v>-2.204603224537243e+21</v>
       </c>
       <c r="B172" t="n">
-        <v>1.851990823198761e+24</v>
+        <v>977852801703337.8</v>
       </c>
       <c r="C172" t="n">
-        <v>37.99275588989258</v>
+        <v>53.23272323608398</v>
       </c>
       <c r="D172" t="n">
-        <v>26.60549736022949</v>
+        <v>23.22683143615723</v>
       </c>
       <c r="E172" t="n">
-        <v>-14.55953216552734</v>
+        <v>-31.33456420898438</v>
       </c>
       <c r="F172" t="n">
-        <v>41.87808990478516</v>
+        <v>13.91309642791748</v>
       </c>
       <c r="G172" t="n">
-        <v>71.55782318115234</v>
+        <v>57.41077423095703</v>
       </c>
       <c r="H172" t="n">
-        <v>-62.83428955078125</v>
+        <v>-77.73944854736328</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.1188534496724606</v>
+        <v>-1.102301612268621e+21</v>
       </c>
       <c r="B173" t="n">
-        <v>9.259954115993806e+23</v>
+        <v>488926400851665.8</v>
       </c>
       <c r="C173" t="n">
-        <v>38.0059928894043</v>
+        <v>53.23181533813477</v>
       </c>
       <c r="D173" t="n">
-        <v>26.59307670593262</v>
+        <v>23.2273063659668</v>
       </c>
       <c r="E173" t="n">
-        <v>-14.56426906585693</v>
+        <v>-31.33357429504395</v>
       </c>
       <c r="F173" t="n">
-        <v>41.8560791015625</v>
+        <v>13.91579055786133</v>
       </c>
       <c r="G173" t="n">
-        <v>71.56416320800781</v>
+        <v>57.41153335571289</v>
       </c>
       <c r="H173" t="n">
-        <v>-62.81083297729492</v>
+        <v>-77.73951721191406</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.118527507185936</v>
+        <v>-5.511508061343107e+20</v>
       </c>
       <c r="B174" t="n">
-        <v>4.629977057996903e+23</v>
+        <v>244463200425829.8</v>
       </c>
       <c r="C174" t="n">
-        <v>38.01891708374023</v>
+        <v>53.23093414306641</v>
       </c>
       <c r="D174" t="n">
-        <v>26.58094596862793</v>
+        <v>23.22776031494141</v>
       </c>
       <c r="E174" t="n">
-        <v>-14.56887912750244</v>
+        <v>-31.33261680603027</v>
       </c>
       <c r="F174" t="n">
-        <v>41.83459854125977</v>
+        <v>13.91836929321289</v>
       </c>
       <c r="G174" t="n">
-        <v>71.57026672363281</v>
+        <v>57.41225814819336</v>
       </c>
       <c r="H174" t="n">
-        <v>-62.78816986083984</v>
+        <v>-77.73957061767578</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.1182094465196133</v>
+        <v>-2.755754030671553e+20</v>
       </c>
       <c r="B175" t="n">
-        <v>2.314988528998451e+23</v>
+        <v>122231600212911.8</v>
       </c>
       <c r="C175" t="n">
-        <v>38.03152847290039</v>
+        <v>53.23009490966797</v>
       </c>
       <c r="D175" t="n">
-        <v>26.56911659240723</v>
+        <v>23.22819900512695</v>
       </c>
       <c r="E175" t="n">
-        <v>-14.57336139678955</v>
+        <v>-31.33170509338379</v>
       </c>
       <c r="F175" t="n">
-        <v>41.81365585327148</v>
+        <v>13.92084789276123</v>
       </c>
       <c r="G175" t="n">
-        <v>71.57617950439453</v>
+        <v>57.41296768188477</v>
       </c>
       <c r="H175" t="n">
-        <v>-62.7662353515625</v>
+        <v>-77.73963928222656</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.1178990939259529</v>
+        <v>-1.377877015335777e+20</v>
       </c>
       <c r="B176" t="n">
-        <v>1.157494264499226e+23</v>
+        <v>61115800106452.84</v>
       </c>
       <c r="C176" t="n">
-        <v>38.0438346862793</v>
+        <v>53.22929382324219</v>
       </c>
       <c r="D176" t="n">
-        <v>26.55756759643555</v>
+        <v>23.22861480712891</v>
       </c>
       <c r="E176" t="n">
-        <v>-14.57771968841553</v>
+        <v>-31.3308162689209</v>
       </c>
       <c r="F176" t="n">
-        <v>41.7932243347168</v>
+        <v>13.92322063446045</v>
       </c>
       <c r="G176" t="n">
-        <v>71.5819091796875</v>
+        <v>57.41364669799805</v>
       </c>
       <c r="H176" t="n">
-        <v>-62.74505615234375</v>
+        <v>-77.73967742919922</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.1175967179238796</v>
+        <v>-6.889385076678884e+19</v>
       </c>
       <c r="B177" t="n">
-        <v>5.787471322496129e+22</v>
+        <v>30557900053223.35</v>
       </c>
       <c r="C177" t="n">
-        <v>38.05582427978516</v>
+        <v>53.22852325439453</v>
       </c>
       <c r="D177" t="n">
-        <v>26.54630088806152</v>
+        <v>23.22901916503906</v>
       </c>
       <c r="E177" t="n">
-        <v>-14.58195304870605</v>
+        <v>-31.32997512817383</v>
       </c>
       <c r="F177" t="n">
-        <v>41.7733268737793</v>
+        <v>13.92550086975098</v>
       </c>
       <c r="G177" t="n">
-        <v>71.58744812011719</v>
+        <v>57.41426849365234</v>
       </c>
       <c r="H177" t="n">
-        <v>-62.72455215454102</v>
+        <v>-77.73977661132812</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.1173018525540829</v>
+        <v>-3.444692538339442e+19</v>
       </c>
       <c r="B178" t="n">
-        <v>2.893735661248064e+22</v>
+        <v>15278950026608.6</v>
       </c>
       <c r="C178" t="n">
-        <v>38.0675163269043</v>
+        <v>53.227783203125</v>
       </c>
       <c r="D178" t="n">
-        <v>26.53532028198242</v>
+        <v>23.22940063476562</v>
       </c>
       <c r="E178" t="n">
-        <v>-14.58606147766113</v>
+        <v>-31.32916450500488</v>
       </c>
       <c r="F178" t="n">
-        <v>41.75394821166992</v>
+        <v>13.92768669128418</v>
       </c>
       <c r="G178" t="n">
-        <v>71.59281921386719</v>
+        <v>57.4149169921875</v>
       </c>
       <c r="H178" t="n">
-        <v>-62.70473861694336</v>
+        <v>-77.73978424072266</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.1170145846903324</v>
+        <v>-1.722346269169721e+19</v>
       </c>
       <c r="B179" t="n">
-        <v>1.446867830624032e+22</v>
+        <v>7639475013301.225</v>
       </c>
       <c r="C179" t="n">
-        <v>38.07890701293945</v>
+        <v>53.22707748413086</v>
       </c>
       <c r="D179" t="n">
-        <v>26.52461814880371</v>
+        <v>23.22976684570312</v>
       </c>
       <c r="E179" t="n">
-        <v>-14.59004592895508</v>
+        <v>-31.32838821411133</v>
       </c>
       <c r="F179" t="n">
-        <v>41.73506546020508</v>
+        <v>13.92977905273438</v>
       </c>
       <c r="G179" t="n">
-        <v>71.59804534912109</v>
+        <v>57.41550827026367</v>
       </c>
       <c r="H179" t="n">
-        <v>-62.68557357788086</v>
+        <v>-77.73984527587891</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1167349143326283</v>
+        <v>-8.611731345848605e+18</v>
       </c>
       <c r="B180" t="n">
-        <v>7.234339153120161e+21</v>
+        <v>3819737506647.537</v>
       </c>
       <c r="C180" t="n">
-        <v>38.08999633789062</v>
+        <v>53.22640228271484</v>
       </c>
       <c r="D180" t="n">
-        <v>26.51419448852539</v>
+        <v>23.23012161254883</v>
       </c>
       <c r="E180" t="n">
-        <v>-14.59390926361084</v>
+        <v>-31.32764053344727</v>
       </c>
       <c r="F180" t="n">
-        <v>41.7166862487793</v>
+        <v>13.93178844451904</v>
       </c>
       <c r="G180" t="n">
-        <v>71.60309600830078</v>
+        <v>57.41607284545898</v>
       </c>
       <c r="H180" t="n">
-        <v>-62.66704940795898</v>
+        <v>-77.73991394042969</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.1164627546072006</v>
+        <v>-4.305865672924302e+18</v>
       </c>
       <c r="B181" t="n">
-        <v>3.61716957656008e+21</v>
+        <v>1909868753320.693</v>
       </c>
       <c r="C181" t="n">
-        <v>38.10078811645508</v>
+        <v>53.22574996948242</v>
       </c>
       <c r="D181" t="n">
-        <v>26.5040397644043</v>
+        <v>23.23045921325684</v>
       </c>
       <c r="E181" t="n">
-        <v>-14.59765148162842</v>
+        <v>-31.32691955566406</v>
       </c>
       <c r="F181" t="n">
-        <v>41.69880294799805</v>
+        <v>13.93371391296387</v>
       </c>
       <c r="G181" t="n">
-        <v>71.60798645019531</v>
+        <v>57.41662216186523</v>
       </c>
       <c r="H181" t="n">
-        <v>-62.64911270141602</v>
+        <v>-77.73995208740234</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.1161980897188187</v>
+        <v>-2.152932836462151e+18</v>
       </c>
       <c r="B182" t="n">
-        <v>1.80858478828004e+21</v>
+        <v>954934376657.2706</v>
       </c>
       <c r="C182" t="n">
-        <v>38.11128234863281</v>
+        <v>53.22512817382812</v>
       </c>
       <c r="D182" t="n">
-        <v>26.4941577911377</v>
+        <v>23.23078155517578</v>
       </c>
       <c r="E182" t="n">
-        <v>-14.60127258300781</v>
+        <v>-31.32623291015625</v>
       </c>
       <c r="F182" t="n">
-        <v>41.681396484375</v>
+        <v>13.93556499481201</v>
       </c>
       <c r="G182" t="n">
-        <v>71.61275482177734</v>
+        <v>57.41714477539062</v>
       </c>
       <c r="H182" t="n">
-        <v>-62.63179016113281</v>
+        <v>-77.73996734619141</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.1159407459199429</v>
+        <v>-1.076466418231076e+18</v>
       </c>
       <c r="B183" t="n">
-        <v>9.042923941400201e+20</v>
+        <v>477467188325.5593</v>
       </c>
       <c r="C183" t="n">
-        <v>38.12148666381836</v>
+        <v>53.22453308105469</v>
       </c>
       <c r="D183" t="n">
-        <v>26.48454284667969</v>
+        <v>23.23109436035156</v>
       </c>
       <c r="E183" t="n">
-        <v>-14.60477924346924</v>
+        <v>-31.3255729675293</v>
       </c>
       <c r="F183" t="n">
-        <v>41.66448211669922</v>
+        <v>13.93733406066895</v>
       </c>
       <c r="G183" t="n">
-        <v>71.61737823486328</v>
+        <v>57.41765975952148</v>
       </c>
       <c r="H183" t="n">
-        <v>-62.61505889892578</v>
+        <v>-77.74001312255859</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.1156906126439571</v>
+        <v>-5.382332091155378e+17</v>
       </c>
       <c r="B184" t="n">
-        <v>4.521461970700101e+20</v>
+        <v>238733594159.7035</v>
       </c>
       <c r="C184" t="n">
-        <v>38.13140487670898</v>
+        <v>53.22396469116211</v>
       </c>
       <c r="D184" t="n">
-        <v>26.47518730163574</v>
+        <v>23.23138999938965</v>
       </c>
       <c r="E184" t="n">
-        <v>-14.60816955566406</v>
+        <v>-31.32494163513184</v>
       </c>
       <c r="F184" t="n">
-        <v>41.64802551269531</v>
+        <v>13.93903160095215</v>
       </c>
       <c r="G184" t="n">
-        <v>71.62184143066406</v>
+        <v>57.41813278198242</v>
       </c>
       <c r="H184" t="n">
-        <v>-62.59886169433594</v>
+        <v>-77.74006652832031</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.1154475951194763</v>
+        <v>-2.691166045577689e+17</v>
       </c>
       <c r="B185" t="n">
-        <v>2.26073098535005e+20</v>
+        <v>119366797076.7754</v>
       </c>
       <c r="C185" t="n">
-        <v>38.14104080200195</v>
+        <v>53.22342300415039</v>
       </c>
       <c r="D185" t="n">
-        <v>26.46609306335449</v>
+        <v>23.23167610168457</v>
       </c>
       <c r="E185" t="n">
-        <v>-14.61144542694092</v>
+        <v>-31.32433700561523</v>
       </c>
       <c r="F185" t="n">
-        <v>41.63203430175781</v>
+        <v>13.9406681060791</v>
       </c>
       <c r="G185" t="n">
-        <v>71.62620544433594</v>
+        <v>57.41861343383789</v>
       </c>
       <c r="H185" t="n">
-        <v>-62.58319854736328</v>
+        <v>-77.74010467529297</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.1152117012441158</v>
+        <v>-1.345583022788844e+17</v>
       </c>
       <c r="B186" t="n">
-        <v>1.130365492675025e+20</v>
+        <v>59683398580.4076</v>
       </c>
       <c r="C186" t="n">
-        <v>38.15039443969727</v>
+        <v>53.22289657592773</v>
       </c>
       <c r="D186" t="n">
-        <v>26.45725631713867</v>
+        <v>23.23194885253906</v>
       </c>
       <c r="E186" t="n">
-        <v>-14.6146125793457</v>
+        <v>-31.32374954223633</v>
       </c>
       <c r="F186" t="n">
-        <v>41.61650085449219</v>
+        <v>13.94222450256348</v>
       </c>
       <c r="G186" t="n">
-        <v>71.63043975830078</v>
+        <v>57.4190673828125</v>
       </c>
       <c r="H186" t="n">
-        <v>-62.56807327270508</v>
+        <v>-77.74013519287109</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.1149827335774899</v>
+        <v>-6.7279151139442e+16</v>
       </c>
       <c r="B187" t="n">
-        <v>5.651827463375125e+19</v>
+        <v>29841698808.6511</v>
       </c>
       <c r="C187" t="n">
-        <v>38.15947341918945</v>
+        <v>53.22239303588867</v>
       </c>
       <c r="D187" t="n">
-        <v>26.44866371154785</v>
+        <v>23.23221015930176</v>
       </c>
       <c r="E187" t="n">
-        <v>-14.6176643371582</v>
+        <v>-31.32319641113281</v>
       </c>
       <c r="F187" t="n">
-        <v>41.60141754150391</v>
+        <v>13.94372272491455</v>
       </c>
       <c r="G187" t="n">
-        <v>71.63455200195312</v>
+        <v>57.41947937011719</v>
       </c>
       <c r="H187" t="n">
-        <v>-62.55343627929688</v>
+        <v>-77.74014282226562</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.8083680417273564</v>
+        <v>-3.363957556972738e+16</v>
       </c>
       <c r="B188" t="n">
-        <v>2.825913731687596e+19</v>
+        <v>14920855001.81855</v>
       </c>
       <c r="C188" t="n">
-        <v>38.16828918457031</v>
+        <v>53.2219123840332</v>
       </c>
       <c r="D188" t="n">
-        <v>26.44032287597656</v>
+        <v>23.23246002197266</v>
       </c>
       <c r="E188" t="n">
-        <v>-14.6206169128418</v>
+        <v>-31.32266235351562</v>
       </c>
       <c r="F188" t="n">
-        <v>41.58675384521484</v>
+        <v>13.94516181945801</v>
       </c>
       <c r="G188" t="n">
-        <v>71.63854217529297</v>
+        <v>57.41989135742188</v>
       </c>
       <c r="H188" t="n">
-        <v>-62.53927993774414</v>
+        <v>-77.74018859863281</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.958584134267002</v>
+        <v>-1.681978778468324e+16</v>
       </c>
       <c r="B189" t="n">
-        <v>1.412956865842702e+19</v>
+        <v>7460362512.971469</v>
       </c>
       <c r="C189" t="n">
-        <v>38.17684555053711</v>
+        <v>53.2214469909668</v>
       </c>
       <c r="D189" t="n">
-        <v>26.43221664428711</v>
+        <v>23.23270225524902</v>
       </c>
       <c r="E189" t="n">
-        <v>-14.62346267700195</v>
+        <v>-31.32214546203613</v>
       </c>
       <c r="F189" t="n">
-        <v>41.57251739501953</v>
+        <v>13.94654273986816</v>
       </c>
       <c r="G189" t="n">
-        <v>71.64243316650391</v>
+        <v>57.4202880859375</v>
       </c>
       <c r="H189" t="n">
-        <v>-62.52560043334961</v>
+        <v>-77.74021148681641</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.9910654599029723</v>
+        <v>-8409893897441792</v>
       </c>
       <c r="B190" t="n">
-        <v>7.064784329574696e+18</v>
+        <v>3730935893.354816</v>
       </c>
       <c r="C190" t="n">
-        <v>38.18513488769531</v>
+        <v>53.22100830078125</v>
       </c>
       <c r="D190" t="n">
-        <v>26.42435073852539</v>
+        <v>23.23293495178223</v>
       </c>
       <c r="E190" t="n">
-        <v>-14.62620067596436</v>
+        <v>-31.32164764404297</v>
       </c>
       <c r="F190" t="n">
-        <v>41.5587043762207</v>
+        <v>13.94786167144775</v>
       </c>
       <c r="G190" t="n">
-        <v>71.64621734619141</v>
+        <v>57.42066955566406</v>
       </c>
       <c r="H190" t="n">
-        <v>-62.51237869262695</v>
+        <v>-77.74022674560547</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.9980759897201007</v>
+        <v>-4204946804579000</v>
       </c>
       <c r="B191" t="n">
-        <v>3.53239215288213e+18</v>
+        <v>1856704827.328738</v>
       </c>
       <c r="C191" t="n">
-        <v>38.19316864013672</v>
+        <v>53.2205924987793</v>
       </c>
       <c r="D191" t="n">
-        <v>26.41672325134277</v>
+        <v>23.233154296875</v>
       </c>
       <c r="E191" t="n">
-        <v>-14.62884426116943</v>
+        <v>-31.32118225097656</v>
       </c>
       <c r="F191" t="n">
-        <v>41.54530334472656</v>
+        <v>13.94913101196289</v>
       </c>
       <c r="G191" t="n">
-        <v>71.64990234375</v>
+        <v>57.42103958129883</v>
       </c>
       <c r="H191" t="n">
-        <v>-62.49958038330078</v>
+        <v>-77.74026489257812</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.9995863864386848</v>
+        <v>-2102477475910751</v>
       </c>
       <c r="B192" t="n">
-        <v>1.766196468765811e+18</v>
+        <v>1030117425.352711</v>
       </c>
       <c r="C192" t="n">
-        <v>38.20095443725586</v>
+        <v>53.22017669677734</v>
       </c>
       <c r="D192" t="n">
-        <v>26.4093132019043</v>
+        <v>23.23336601257324</v>
       </c>
       <c r="E192" t="n">
-        <v>-14.63138866424561</v>
+        <v>-31.32072448730469</v>
       </c>
       <c r="F192" t="n">
-        <v>41.53229904174805</v>
+        <v>13.95034599304199</v>
       </c>
       <c r="G192" t="n">
-        <v>71.65349578857422</v>
+        <v>57.42137145996094</v>
       </c>
       <c r="H192" t="n">
-        <v>-62.48723983764648</v>
+        <v>-77.74028778076172</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.999911232048265</v>
+        <v>-1051123616429266</v>
       </c>
       <c r="B193" t="n">
-        <v>8.830853086099218e+17</v>
+        <v>-666774026.167063</v>
       </c>
       <c r="C193" t="n">
-        <v>38.20849990844727</v>
+        <v>53.21979522705078</v>
       </c>
       <c r="D193" t="n">
-        <v>26.40213203430176</v>
+        <v>23.23356819152832</v>
       </c>
       <c r="E193" t="n">
-        <v>-14.63384056091309</v>
+        <v>-31.32029151916504</v>
       </c>
       <c r="F193" t="n">
-        <v>41.51969528198242</v>
+        <v>13.95151710510254</v>
       </c>
       <c r="G193" t="n">
-        <v>71.65697479248047</v>
+        <v>57.42171096801758</v>
       </c>
       <c r="H193" t="n">
-        <v>-62.47529220581055</v>
+        <v>-77.74031829833984</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.9999809798308263</v>
+        <v>-528815065000349.2</v>
       </c>
       <c r="B194" t="n">
-        <v>4.419684220546191e+17</v>
+        <v>13392192065.47336</v>
       </c>
       <c r="C194" t="n">
-        <v>38.21579742431641</v>
+        <v>53.21942138671875</v>
       </c>
       <c r="D194" t="n">
-        <v>26.39516639709473</v>
+        <v>23.23376274108887</v>
       </c>
       <c r="E194" t="n">
-        <v>-14.63619613647461</v>
+        <v>-31.31987190246582</v>
       </c>
       <c r="F194" t="n">
-        <v>41.50746917724609</v>
+        <v>13.95263004302979</v>
       </c>
       <c r="G194" t="n">
-        <v>71.66036224365234</v>
+        <v>57.42204284667969</v>
       </c>
       <c r="H194" t="n">
-        <v>-62.4637336730957</v>
+        <v>-77.74033355712891</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.9999959309827423</v>
+        <v>-172475448888863.3</v>
       </c>
       <c r="B195" t="n">
-        <v>2.069626182690836e+17</v>
+        <v>-152716190896.7593</v>
       </c>
       <c r="C195" t="n">
-        <v>38.22287368774414</v>
+        <v>53.21905899047852</v>
       </c>
       <c r="D195" t="n">
-        <v>26.38841819763184</v>
+        <v>23.23394775390625</v>
       </c>
       <c r="E195" t="n">
-        <v>-14.63846397399902</v>
+        <v>-31.31946563720703</v>
       </c>
       <c r="F195" t="n">
-        <v>41.4956169128418</v>
+        <v>13.95370292663574</v>
       </c>
       <c r="G195" t="n">
-        <v>71.66365814208984</v>
+        <v>57.4223518371582</v>
       </c>
       <c r="H195" t="n">
-        <v>-62.45257949829102</v>
+        <v>-77.74034881591797</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.9999991308332477</v>
+        <v>-2684021279535333</v>
       </c>
       <c r="B196" t="n">
-        <v>5.651528448605125e+17</v>
+        <v>1775162863672.651</v>
       </c>
       <c r="C196" t="n">
-        <v>38.22971725463867</v>
+        <v>53.21872329711914</v>
       </c>
       <c r="D196" t="n">
-        <v>26.38187599182129</v>
+        <v>23.23412704467773</v>
       </c>
       <c r="E196" t="n">
-        <v>-14.64064502716064</v>
+        <v>-31.31907844543457</v>
       </c>
       <c r="F196" t="n">
-        <v>41.48413467407227</v>
+        <v>13.95473289489746</v>
       </c>
       <c r="G196" t="n">
-        <v>71.6668701171875</v>
+        <v>57.42264175415039</v>
       </c>
       <c r="H196" t="n">
-        <v>-62.44178771972656</v>
+        <v>-77.74038696289062</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.999999814614602</v>
+        <v>7.206316207922242e+16</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.491529710744317e+19</v>
+        <v>-20617974748109.67</v>
       </c>
       <c r="C197" t="n">
-        <v>38.2363395690918</v>
+        <v>53.21839141845703</v>
       </c>
       <c r="D197" t="n">
-        <v>26.37553405761719</v>
+        <v>23.23430061340332</v>
       </c>
       <c r="E197" t="n">
-        <v>-14.64274215698242</v>
+        <v>-31.31871604919434</v>
       </c>
       <c r="F197" t="n">
-        <v>41.47300720214844</v>
+        <v>13.95571708679199</v>
       </c>
       <c r="G197" t="n">
-        <v>71.66999816894531</v>
+        <v>57.42292022705078</v>
       </c>
       <c r="H197" t="n">
-        <v>-62.43135070800781</v>
+        <v>-77.74038696289062</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.9999999605155405</v>
+        <v>-2.038111216733154e+18</v>
       </c>
       <c r="B198" t="n">
-        <v>4.927485897583336e+20</v>
+        <v>239488001549753.2</v>
       </c>
       <c r="C198" t="n">
-        <v>38.24275207519531</v>
+        <v>53.21807861328125</v>
       </c>
       <c r="D198" t="n">
-        <v>26.3693904876709</v>
+        <v>23.23446273803711</v>
       </c>
       <c r="E198" t="n">
-        <v>-14.64475440979004</v>
+        <v>-31.31835746765137</v>
       </c>
       <c r="F198" t="n">
-        <v>41.46223449707031</v>
+        <v>13.95666790008545</v>
       </c>
       <c r="G198" t="n">
-        <v>71.67304992675781</v>
+        <v>57.42319869995117</v>
       </c>
       <c r="H198" t="n">
-        <v>-62.4212646484375</v>
+        <v>-77.74040985107422</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.999999991602017</v>
+        <v>5.758659880514653e+19</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.621380982905023e+22</v>
+        <v>-2781855864689207</v>
       </c>
       <c r="C199" t="n">
-        <v>38.24895095825195</v>
+        <v>53.21777725219727</v>
       </c>
       <c r="D199" t="n">
-        <v>26.36344337463379</v>
+        <v>23.23462104797363</v>
       </c>
       <c r="E199" t="n">
-        <v>-14.64669132232666</v>
+        <v>-31.31802177429199</v>
       </c>
       <c r="F199" t="n">
-        <v>41.45178604125977</v>
+        <v>13.95757389068604</v>
       </c>
       <c r="G199" t="n">
-        <v>71.67601776123047</v>
+        <v>57.4234504699707</v>
       </c>
       <c r="H199" t="n">
-        <v>-62.41152572631836</v>
+        <v>-77.74043273925781</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.9999999982162177</v>
+        <v>-1.627089375252455e+21</v>
       </c>
       <c r="B200" t="n">
-        <v>5.334474290807269e+23</v>
+        <v>3.231460683575018e+16</v>
       </c>
       <c r="C200" t="n">
-        <v>38.25493621826172</v>
+        <v>53.21749114990234</v>
       </c>
       <c r="D200" t="n">
-        <v>26.3576831817627</v>
+        <v>23.23476982116699</v>
       </c>
       <c r="E200" t="n">
-        <v>-14.64855098724365</v>
+        <v>-31.31769371032715</v>
       </c>
       <c r="F200" t="n">
-        <v>41.44168472290039</v>
+        <v>13.9584379196167</v>
       </c>
       <c r="G200" t="n">
-        <v>71.67889404296875</v>
+        <v>57.42369842529297</v>
       </c>
       <c r="H200" t="n">
-        <v>-62.40209197998047</v>
+        <v>-77.74041748046875</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.9999999996216054</v>
+        <v>4.59717344017136e+22</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.754777723301219e+25</v>
+        <v>-3.753840129001583e+17</v>
       </c>
       <c r="C201" t="n">
-        <v>38.26072692871094</v>
+        <v>53.21721267700195</v>
       </c>
       <c r="D201" t="n">
-        <v>26.35210609436035</v>
+        <v>23.23491477966309</v>
       </c>
       <c r="E201" t="n">
-        <v>-14.65033435821533</v>
+        <v>-31.3173885345459</v>
       </c>
       <c r="F201" t="n">
-        <v>41.43189239501953</v>
+        <v>13.9592752456665</v>
       </c>
       <c r="G201" t="n">
-        <v>71.68170928955078</v>
+        <v>57.42394256591797</v>
       </c>
       <c r="H201" t="n">
-        <v>-62.39299392700195</v>
+        <v>-77.74046325683594</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.9999999999198317</v>
+        <v>-1.298854771655648e+24</v>
       </c>
       <c r="B202" t="n">
-        <v>5.771375261116549e+26</v>
+        <v>4.3607878957853e+18</v>
       </c>
       <c r="C202" t="n">
-        <v>38.26632308959961</v>
+        <v>53.21694564819336</v>
       </c>
       <c r="D202" t="n">
-        <v>26.34671020507812</v>
+        <v>23.23505401611328</v>
       </c>
       <c r="E202" t="n">
-        <v>-14.65204906463623</v>
+        <v>-31.31708145141602</v>
       </c>
       <c r="F202" t="n">
-        <v>41.42241668701172</v>
+        <v>13.96006965637207</v>
       </c>
       <c r="G202" t="n">
-        <v>71.68444061279297</v>
+        <v>57.42417144775391</v>
       </c>
       <c r="H202" t="n">
-        <v>-62.38419723510742</v>
+        <v>-77.740478515625</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.9999999999830359</v>
+        <v>3.66961890598664e+25</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.897866734310091e+28</v>
+        <v>-5.066008979572734e+19</v>
       </c>
       <c r="C203" t="n">
-        <v>38.27173614501953</v>
+        <v>53.21669387817383</v>
       </c>
       <c r="D203" t="n">
-        <v>26.34148597717285</v>
+        <v>23.23518943786621</v>
       </c>
       <c r="E203" t="n">
-        <v>-14.6536922454834</v>
+        <v>-31.31679534912109</v>
       </c>
       <c r="F203" t="n">
-        <v>41.41324234008789</v>
+        <v>13.96084022521973</v>
       </c>
       <c r="G203" t="n">
-        <v>71.68711090087891</v>
+        <v>57.42438125610352</v>
       </c>
       <c r="H203" t="n">
-        <v>-62.37567520141602</v>
+        <v>-77.74048614501953</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.9999999999964145</v>
+        <v>-5.091985037476812e+26</v>
       </c>
       <c r="B204" t="n">
-        <v>3.072545450322291e+29</v>
+        <v>2.816064331415677e+20</v>
       </c>
       <c r="C204" t="n">
-        <v>39.38866424560547</v>
+        <v>50.42346954345703</v>
       </c>
       <c r="D204" t="n">
-        <v>22.39022636413574</v>
+        <v>20.11478424072266</v>
       </c>
       <c r="E204" t="n">
-        <v>-14.65527153015137</v>
+        <v>-27.33487129211426</v>
       </c>
       <c r="F204" t="n">
-        <v>27.82123947143555</v>
+        <v>7.164543628692627</v>
       </c>
       <c r="G204" t="n">
-        <v>58.15998840332031</v>
+        <v>47.42542266845703</v>
       </c>
       <c r="H204" t="n">
-        <v>-46.26819610595703</v>
+        <v>-58.07661437988281</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.999999999999243</v>
+        <v>-5.091985037476812e+26</v>
       </c>
       <c r="B205" t="n">
-        <v>3.072545450322291e+29</v>
+        <v>2.816064331415677e+20</v>
       </c>
       <c r="C205" t="n">
-        <v>39.38866424560547</v>
+        <v>50.42346954345703</v>
       </c>
       <c r="D205" t="n">
-        <v>22.39022636413574</v>
+        <v>20.11478424072266</v>
       </c>
       <c r="E205" t="n">
-        <v>-14.65678215026855</v>
+        <v>-27.33487129211426</v>
       </c>
       <c r="F205" t="n">
-        <v>27.82123947143555</v>
+        <v>7.164543628692627</v>
       </c>
       <c r="G205" t="n">
-        <v>58.15998840332031</v>
+        <v>47.42542266845703</v>
       </c>
       <c r="H205" t="n">
-        <v>-46.26819610595703</v>
+        <v>-58.07661437988281</v>
       </c>
     </row>
   </sheetData>
